--- a/Meta/Analytes3.xlsx
+++ b/Meta/Analytes3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/LakeMichiganML/Shared Documents/General/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4519" documentId="8_{D82D06AB-5E11-4340-B04B-6FA55AFBCF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A72F8220-D17A-4970-9343-C315C95C6D98}"/>
+  <xr:revisionPtr revIDLastSave="4560" documentId="8_{D82D06AB-5E11-4340-B04B-6FA55AFBCF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E529106A-931D-4D50-9093-CD3CC106C62F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="809" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="2" r:id="rId1"/>
@@ -162,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3480" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3490" uniqueCount="799">
   <si>
     <t>CodeName</t>
   </si>
@@ -2562,6 +2562,12 @@
   </si>
   <si>
     <t>Sodium, unfiltered</t>
+  </si>
+  <si>
+    <t>Removed because have in hydro</t>
+  </si>
+  <si>
+    <t>1m</t>
   </si>
 </sst>
 </file>
@@ -2893,17 +2899,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="5"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="medium">
@@ -2922,12 +2917,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3032,7 +3040,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3053,7 +3060,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3120,26 +3126,29 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3565,8 +3574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E23ABD6F-8266-4030-840C-1A1DE88549A1}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3818,7 +3827,7 @@
       <c r="A18" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="67" t="s">
         <v>787</v>
       </c>
       <c r="C18" t="s">
@@ -3874,7 +3883,7 @@
       <c r="A22" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="68" t="s">
+      <c r="B22" s="67" t="s">
         <v>789</v>
       </c>
       <c r="C22" t="s">
@@ -3930,7 +3939,7 @@
       <c r="A26" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="67" t="s">
         <v>791</v>
       </c>
       <c r="C26" t="s">
@@ -4014,7 +4023,7 @@
       <c r="A32" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="68" t="s">
+      <c r="B32" s="67" t="s">
         <v>63</v>
       </c>
       <c r="C32" t="s">
@@ -4028,7 +4037,7 @@
       <c r="A33" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="68" t="s">
+      <c r="B33" s="67" t="s">
         <v>792</v>
       </c>
       <c r="C33" t="s">
@@ -4294,7 +4303,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="104" t="s">
         <v>701</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -4310,10 +4319,10 @@
         <v>7</v>
       </c>
       <c r="H1" s="2"/>
-      <c r="I1" s="103" t="s">
+      <c r="I1" s="100" t="s">
         <v>691</v>
       </c>
-      <c r="J1" s="82"/>
+      <c r="J1" s="80"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -4329,7 +4338,7 @@
       <c r="W1" s="2"/>
     </row>
     <row r="2" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="104" t="s">
         <v>701</v>
       </c>
       <c r="B2" t="s">
@@ -4341,13 +4350,13 @@
       <c r="G2" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="I2" s="103" t="s">
+      <c r="I2" s="100" t="s">
         <v>691</v>
       </c>
       <c r="J2" s="59"/>
     </row>
     <row r="3" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="104" t="s">
         <v>701</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -4363,10 +4372,10 @@
         <v>81</v>
       </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="103" t="s">
+      <c r="I3" s="100" t="s">
         <v>691</v>
       </c>
-      <c r="J3" s="82"/>
+      <c r="J3" s="80"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -4382,7 +4391,7 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="104" t="s">
         <v>701</v>
       </c>
       <c r="B4" t="s">
@@ -4394,13 +4403,13 @@
       <c r="G4" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="103" t="s">
+      <c r="I4" s="100" t="s">
         <v>691</v>
       </c>
       <c r="J4" s="59"/>
     </row>
     <row r="5" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="104" t="s">
         <v>701</v>
       </c>
       <c r="B5" t="s">
@@ -4412,31 +4421,31 @@
       <c r="G5" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="103" t="s">
+      <c r="I5" s="100" t="s">
         <v>691</v>
       </c>
       <c r="J5" s="59"/>
     </row>
-    <row r="6" spans="1:23" s="104" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="107" t="s">
+    <row r="6" spans="1:23" s="101" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="104" t="s">
         <v>701</v>
       </c>
-      <c r="B6" s="104" t="s">
+      <c r="B6" s="101" t="s">
         <v>300</v>
       </c>
-      <c r="C6" s="104" t="s">
+      <c r="C6" s="101" t="s">
         <v>300</v>
       </c>
-      <c r="G6" s="105" t="s">
+      <c r="G6" s="102" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="103" t="s">
+      <c r="I6" s="100" t="s">
         <v>691</v>
       </c>
-      <c r="J6" s="106"/>
+      <c r="J6" s="103"/>
     </row>
     <row r="7" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="107" t="s">
+      <c r="A7" s="104" t="s">
         <v>701</v>
       </c>
       <c r="B7" t="s">
@@ -4448,13 +4457,13 @@
       <c r="G7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="103" t="s">
+      <c r="I7" s="100" t="s">
         <v>691</v>
       </c>
       <c r="J7" s="59"/>
     </row>
     <row r="8" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="104" t="s">
         <v>701</v>
       </c>
       <c r="B8" t="s">
@@ -4467,18 +4476,18 @@
       <c r="G8" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="I8" s="103" t="s">
+      <c r="I8" s="100" t="s">
         <v>691</v>
       </c>
       <c r="J8" s="59"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="107" t="s">
+      <c r="A10" s="104" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" s="107" t="s">
+      <c r="A11" s="104" t="s">
         <v>707</v>
       </c>
     </row>
@@ -5705,7 +5714,7 @@
       <c r="G9" t="s">
         <v>561</v>
       </c>
-      <c r="M9" s="100">
+      <c r="M9" s="98">
         <v>0.50069444399999996</v>
       </c>
     </row>
@@ -5725,7 +5734,7 @@
       <c r="G10" t="s">
         <v>580</v>
       </c>
-      <c r="M10" s="100">
+      <c r="M10" s="98">
         <v>0.45416600000000001</v>
       </c>
     </row>
@@ -5745,7 +5754,7 @@
       <c r="G11" t="s">
         <v>584</v>
       </c>
-      <c r="M11" s="100">
+      <c r="M11" s="98">
         <v>0.44791666699999999</v>
       </c>
     </row>
@@ -7475,8 +7484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5D57F1-DBF9-46B4-8278-09786D5200AB}">
   <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView topLeftCell="B37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7552,7 +7561,7 @@
       <c r="I2" t="s">
         <v>113</v>
       </c>
-      <c r="J2" s="67" t="s">
+      <c r="J2" s="66" t="s">
         <v>365</v>
       </c>
       <c r="K2" s="59" t="s">
@@ -7581,7 +7590,7 @@
       <c r="I3" t="s">
         <v>113</v>
       </c>
-      <c r="J3" s="67" t="s">
+      <c r="J3" s="66" t="s">
         <v>369</v>
       </c>
       <c r="K3" s="59" t="s">
@@ -7699,7 +7708,7 @@
       <c r="G8" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="76" t="s">
+      <c r="H8" s="74" t="s">
         <v>135</v>
       </c>
       <c r="I8" t="s">
@@ -7725,7 +7734,7 @@
       <c r="G9" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="76" t="s">
+      <c r="H9" s="74" t="s">
         <v>135</v>
       </c>
       <c r="I9" t="s">
@@ -7778,7 +7787,7 @@
       <c r="I11" t="s">
         <v>113</v>
       </c>
-      <c r="J11" s="67"/>
+      <c r="J11" s="66"/>
       <c r="K11" s="59" t="s">
         <v>385</v>
       </c>
@@ -7803,7 +7812,7 @@
       <c r="I12" t="s">
         <v>113</v>
       </c>
-      <c r="J12" s="67" t="s">
+      <c r="J12" s="66" t="s">
         <v>384</v>
       </c>
       <c r="K12" s="59" t="s">
@@ -7830,7 +7839,7 @@
       <c r="I13" t="s">
         <v>113</v>
       </c>
-      <c r="J13" s="67" t="s">
+      <c r="J13" s="66" t="s">
         <v>384</v>
       </c>
       <c r="K13" s="59" t="s">
@@ -7857,7 +7866,7 @@
       <c r="I14" t="s">
         <v>113</v>
       </c>
-      <c r="J14" s="67" t="s">
+      <c r="J14" s="66" t="s">
         <v>384</v>
       </c>
       <c r="K14" s="59" t="s">
@@ -7955,7 +7964,7 @@
       <c r="I18" t="s">
         <v>113</v>
       </c>
-      <c r="J18" s="67"/>
+      <c r="J18" s="66"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -7996,7 +8005,7 @@
       <c r="G20" t="s">
         <v>57</v>
       </c>
-      <c r="H20" s="76" t="s">
+      <c r="H20" s="74" t="s">
         <v>135</v>
       </c>
       <c r="I20" s="46" t="s">
@@ -8031,10 +8040,10 @@
       <c r="I21" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="J21" s="67" t="s">
+      <c r="J21" s="66" t="s">
         <v>401</v>
       </c>
-      <c r="K21" s="67" t="s">
+      <c r="K21" s="66" t="s">
         <v>402</v>
       </c>
     </row>
@@ -8083,10 +8092,10 @@
       <c r="I23" t="s">
         <v>113</v>
       </c>
-      <c r="J23" s="67" t="s">
+      <c r="J23" s="66" t="s">
         <v>405</v>
       </c>
-      <c r="K23" s="67" t="s">
+      <c r="K23" s="66" t="s">
         <v>406</v>
       </c>
     </row>
@@ -8184,7 +8193,7 @@
       <c r="I27" t="s">
         <v>113</v>
       </c>
-      <c r="J27" s="67" t="s">
+      <c r="J27" s="66" t="s">
         <v>412</v>
       </c>
     </row>
@@ -8299,23 +8308,23 @@
       <c r="B32" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E32" s="71"/>
+      <c r="E32" s="70"/>
       <c r="F32" s="4">
         <v>2021</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="H32" s="72" t="s">
+      <c r="H32" s="71" t="s">
         <v>83</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="J32" s="99" t="s">
+      <c r="J32" s="97" t="s">
         <v>422</v>
       </c>
-      <c r="K32" s="73"/>
+      <c r="K32" s="72"/>
     </row>
     <row r="33" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
@@ -8339,7 +8348,7 @@
       <c r="J33" s="59" t="s">
         <v>425</v>
       </c>
-      <c r="K33" s="81" t="s">
+      <c r="K33" s="79" t="s">
         <v>426</v>
       </c>
     </row>
@@ -8497,7 +8506,7 @@
       <c r="F40">
         <v>2021</v>
       </c>
-      <c r="G40" s="78" t="s">
+      <c r="G40" s="76" t="s">
         <v>439</v>
       </c>
       <c r="H40" s="46" t="s">
@@ -8523,7 +8532,7 @@
       <c r="F41">
         <v>2021</v>
       </c>
-      <c r="G41" s="78" t="s">
+      <c r="G41" s="76" t="s">
         <v>439</v>
       </c>
       <c r="H41" s="46" t="s">
@@ -9005,10 +9014,10 @@
       <c r="I63" t="s">
         <v>421</v>
       </c>
-      <c r="J63" s="67" t="s">
+      <c r="J63" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="K63" s="67" t="s">
+      <c r="K63" s="66" t="s">
         <v>478</v>
       </c>
     </row>
@@ -9099,7 +9108,7 @@
       <c r="B68" s="14" t="s">
         <v>484</v>
       </c>
-      <c r="E68" s="98"/>
+      <c r="E68" s="96"/>
       <c r="F68" s="14">
         <v>2021</v>
       </c>
@@ -9112,10 +9121,10 @@
       <c r="I68" s="14" t="s">
         <v>421</v>
       </c>
-      <c r="J68" s="84" t="s">
+      <c r="J68" s="82" t="s">
         <v>485</v>
       </c>
-      <c r="K68" s="84"/>
+      <c r="K68" s="82"/>
     </row>
     <row r="69" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
@@ -9124,7 +9133,7 @@
       <c r="B69" s="46" t="s">
         <v>486</v>
       </c>
-      <c r="E69" s="97"/>
+      <c r="E69" s="95"/>
       <c r="F69" s="46">
         <v>2021</v>
       </c>
@@ -9137,10 +9146,10 @@
       <c r="I69" s="46" t="s">
         <v>421</v>
       </c>
-      <c r="J69" s="67" t="s">
+      <c r="J69" s="66" t="s">
         <v>487</v>
       </c>
-      <c r="K69" s="67"/>
+      <c r="K69" s="66"/>
     </row>
     <row r="70" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
@@ -9149,7 +9158,7 @@
       <c r="B70" s="46" t="s">
         <v>488</v>
       </c>
-      <c r="E70" s="97"/>
+      <c r="E70" s="95"/>
       <c r="F70" s="46">
         <v>2021</v>
       </c>
@@ -9162,10 +9171,10 @@
       <c r="I70" s="46" t="s">
         <v>421</v>
       </c>
-      <c r="J70" s="67" t="s">
+      <c r="J70" s="66" t="s">
         <v>489</v>
       </c>
-      <c r="K70" s="67"/>
+      <c r="K70" s="66"/>
     </row>
     <row r="71" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
@@ -9174,7 +9183,7 @@
       <c r="B71" s="46" t="s">
         <v>490</v>
       </c>
-      <c r="E71" s="97"/>
+      <c r="E71" s="95"/>
       <c r="F71" s="46">
         <v>2021</v>
       </c>
@@ -9187,10 +9196,10 @@
       <c r="I71" s="46" t="s">
         <v>421</v>
       </c>
-      <c r="J71" s="67" t="s">
+      <c r="J71" s="66" t="s">
         <v>491</v>
       </c>
-      <c r="K71" s="67"/>
+      <c r="K71" s="66"/>
     </row>
     <row r="72" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
@@ -9199,7 +9208,7 @@
       <c r="B72" s="46" t="s">
         <v>713</v>
       </c>
-      <c r="E72" s="97"/>
+      <c r="E72" s="95"/>
       <c r="F72" s="46">
         <v>2021</v>
       </c>
@@ -9212,10 +9221,10 @@
       <c r="I72" s="46" t="s">
         <v>421</v>
       </c>
-      <c r="J72" s="67" t="s">
+      <c r="J72" s="66" t="s">
         <v>494</v>
       </c>
-      <c r="K72" s="67"/>
+      <c r="K72" s="66"/>
     </row>
     <row r="73" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
@@ -9224,7 +9233,7 @@
       <c r="B73" s="46" t="s">
         <v>495</v>
       </c>
-      <c r="E73" s="97"/>
+      <c r="E73" s="95"/>
       <c r="F73" s="46">
         <v>2021</v>
       </c>
@@ -9237,10 +9246,10 @@
       <c r="I73" s="46" t="s">
         <v>421</v>
       </c>
-      <c r="J73" s="67" t="s">
+      <c r="J73" s="66" t="s">
         <v>496</v>
       </c>
-      <c r="K73" s="67"/>
+      <c r="K73" s="66"/>
     </row>
     <row r="74" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
@@ -9249,7 +9258,7 @@
       <c r="B74" s="46" t="s">
         <v>497</v>
       </c>
-      <c r="E74" s="97"/>
+      <c r="E74" s="95"/>
       <c r="F74" s="46">
         <v>2021</v>
       </c>
@@ -9262,10 +9271,10 @@
       <c r="I74" s="46" t="s">
         <v>421</v>
       </c>
-      <c r="J74" s="67" t="s">
+      <c r="J74" s="66" t="s">
         <v>498</v>
       </c>
-      <c r="K74" s="67"/>
+      <c r="K74" s="66"/>
     </row>
     <row r="75" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
@@ -9274,7 +9283,7 @@
       <c r="B75" s="46" t="s">
         <v>714</v>
       </c>
-      <c r="E75" s="97"/>
+      <c r="E75" s="95"/>
       <c r="F75" s="46">
         <v>2021</v>
       </c>
@@ -9287,10 +9296,10 @@
       <c r="I75" s="46" t="s">
         <v>421</v>
       </c>
-      <c r="J75" s="67" t="s">
+      <c r="J75" s="66" t="s">
         <v>500</v>
       </c>
-      <c r="K75" s="67"/>
+      <c r="K75" s="66"/>
     </row>
     <row r="76" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
@@ -9299,7 +9308,7 @@
       <c r="B76" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="E76" s="97"/>
+      <c r="E76" s="95"/>
       <c r="F76" s="46">
         <v>2021</v>
       </c>
@@ -9312,10 +9321,10 @@
       <c r="I76" s="46" t="s">
         <v>421</v>
       </c>
-      <c r="J76" s="67" t="s">
+      <c r="J76" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="K76" s="67"/>
+      <c r="K76" s="66"/>
     </row>
     <row r="77" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
@@ -9324,7 +9333,7 @@
       <c r="B77" s="46" t="s">
         <v>502</v>
       </c>
-      <c r="E77" s="97"/>
+      <c r="E77" s="95"/>
       <c r="F77" s="46">
         <v>2021</v>
       </c>
@@ -9337,10 +9346,10 @@
       <c r="I77" s="46" t="s">
         <v>421</v>
       </c>
-      <c r="J77" s="67" t="s">
+      <c r="J77" s="66" t="s">
         <v>653</v>
       </c>
-      <c r="K77" s="67"/>
+      <c r="K77" s="66"/>
     </row>
     <row r="78" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
@@ -9349,7 +9358,7 @@
       <c r="B78" s="46" t="s">
         <v>504</v>
       </c>
-      <c r="E78" s="97"/>
+      <c r="E78" s="95"/>
       <c r="F78" s="46">
         <v>2021</v>
       </c>
@@ -9362,10 +9371,10 @@
       <c r="I78" s="46" t="s">
         <v>421</v>
       </c>
-      <c r="J78" s="67" t="s">
+      <c r="J78" s="66" t="s">
         <v>505</v>
       </c>
-      <c r="K78" s="67"/>
+      <c r="K78" s="66"/>
     </row>
     <row r="79" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
@@ -9374,7 +9383,7 @@
       <c r="B79" s="46" t="s">
         <v>506</v>
       </c>
-      <c r="E79" s="97"/>
+      <c r="E79" s="95"/>
       <c r="F79" s="46">
         <v>2021</v>
       </c>
@@ -9387,10 +9396,10 @@
       <c r="I79" s="46" t="s">
         <v>421</v>
       </c>
-      <c r="J79" s="67" t="s">
+      <c r="J79" s="66" t="s">
         <v>505</v>
       </c>
-      <c r="K79" s="67"/>
+      <c r="K79" s="66"/>
     </row>
     <row r="80" spans="1:11" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
@@ -9399,7 +9408,7 @@
       <c r="B80" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="E80" s="97" t="s">
+      <c r="E80" s="95" t="s">
         <v>507</v>
       </c>
       <c r="F80" s="46">
@@ -9414,10 +9423,10 @@
       <c r="I80" s="41" t="s">
         <v>508</v>
       </c>
-      <c r="J80" s="67" t="s">
+      <c r="J80" s="66" t="s">
         <v>509</v>
       </c>
-      <c r="K80" s="77" t="s">
+      <c r="K80" s="75" t="s">
         <v>510</v>
       </c>
     </row>
@@ -9428,7 +9437,7 @@
       <c r="B81" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="E81" s="97" t="s">
+      <c r="E81" s="95" t="s">
         <v>507</v>
       </c>
       <c r="F81" s="46">
@@ -9443,10 +9452,10 @@
       <c r="I81" s="41" t="s">
         <v>508</v>
       </c>
-      <c r="J81" s="67" t="s">
+      <c r="J81" s="66" t="s">
         <v>509</v>
       </c>
-      <c r="K81" s="67"/>
+      <c r="K81" s="66"/>
     </row>
     <row r="82" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
@@ -9455,7 +9464,7 @@
       <c r="B82" s="46" t="s">
         <v>511</v>
       </c>
-      <c r="E82" s="97"/>
+      <c r="E82" s="95"/>
       <c r="F82" s="46">
         <v>2021</v>
       </c>
@@ -9468,25 +9477,25 @@
       <c r="I82" s="46" t="s">
         <v>421</v>
       </c>
-      <c r="J82" s="67"/>
-      <c r="K82" s="67"/>
+      <c r="J82" s="66"/>
+      <c r="K82" s="66"/>
     </row>
     <row r="83" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>550</v>
       </c>
-      <c r="B83" s="95" t="s">
+      <c r="B83" s="93" t="s">
         <v>484</v>
       </c>
-      <c r="C83" s="95" t="s">
+      <c r="C83" s="93" t="s">
         <v>127</v>
       </c>
-      <c r="D83" s="95"/>
-      <c r="E83" s="96"/>
-      <c r="F83" s="95">
+      <c r="D83" s="93"/>
+      <c r="E83" s="94"/>
+      <c r="F83" s="93">
         <v>2010</v>
       </c>
-      <c r="G83" s="95" t="s">
+      <c r="G83" s="93" t="s">
         <v>512</v>
       </c>
       <c r="H83" s="4" t="s">
@@ -9495,24 +9504,24 @@
       <c r="I83" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="J83" s="73"/>
+      <c r="J83" s="72"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>550</v>
       </c>
-      <c r="B84" s="68" t="s">
+      <c r="B84" s="67" t="s">
         <v>484</v>
       </c>
-      <c r="C84" s="68" t="s">
+      <c r="C84" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="D84" s="68"/>
-      <c r="E84" s="94"/>
-      <c r="F84" s="68">
+      <c r="D84" s="67"/>
+      <c r="E84" s="92"/>
+      <c r="F84" s="67">
         <v>2010</v>
       </c>
-      <c r="G84" s="68" t="s">
+      <c r="G84" s="67" t="s">
         <v>512</v>
       </c>
       <c r="H84" s="4" t="s">
@@ -9527,18 +9536,18 @@
       <c r="A85" t="s">
         <v>550</v>
       </c>
-      <c r="B85" s="68" t="s">
+      <c r="B85" s="67" t="s">
         <v>486</v>
       </c>
-      <c r="C85" s="68" t="s">
+      <c r="C85" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="D85" s="68"/>
-      <c r="E85" s="94"/>
-      <c r="F85" s="68">
+      <c r="D85" s="67"/>
+      <c r="E85" s="92"/>
+      <c r="F85" s="67">
         <v>2010</v>
       </c>
-      <c r="G85" s="68" t="s">
+      <c r="G85" s="67" t="s">
         <v>512</v>
       </c>
       <c r="H85" t="s">
@@ -9553,18 +9562,18 @@
       <c r="A86" t="s">
         <v>550</v>
       </c>
-      <c r="B86" s="68" t="s">
+      <c r="B86" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="C86" s="68" t="s">
+      <c r="C86" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="D86" s="68"/>
-      <c r="E86" s="94"/>
-      <c r="F86" s="68">
+      <c r="D86" s="67"/>
+      <c r="E86" s="92"/>
+      <c r="F86" s="67">
         <v>2010</v>
       </c>
-      <c r="G86" s="68" t="s">
+      <c r="G86" s="67" t="s">
         <v>512</v>
       </c>
       <c r="H86" s="7" t="s">
@@ -9579,18 +9588,18 @@
       <c r="A87" t="s">
         <v>550</v>
       </c>
-      <c r="B87" s="68" t="s">
+      <c r="B87" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="C87" s="68" t="s">
+      <c r="C87" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="D87" s="68"/>
-      <c r="E87" s="94"/>
-      <c r="F87" s="68">
+      <c r="D87" s="67"/>
+      <c r="E87" s="92"/>
+      <c r="F87" s="67">
         <v>2010</v>
       </c>
-      <c r="G87" s="68" t="s">
+      <c r="G87" s="67" t="s">
         <v>512</v>
       </c>
       <c r="H87" s="7" t="s">
@@ -9605,18 +9614,18 @@
       <c r="A88" t="s">
         <v>550</v>
       </c>
-      <c r="B88" s="68" t="s">
+      <c r="B88" s="67" t="s">
         <v>488</v>
       </c>
-      <c r="C88" s="68" t="s">
+      <c r="C88" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="D88" s="68"/>
-      <c r="E88" s="94"/>
-      <c r="F88" s="68">
+      <c r="D88" s="67"/>
+      <c r="E88" s="92"/>
+      <c r="F88" s="67">
         <v>2010</v>
       </c>
-      <c r="G88" s="68" t="s">
+      <c r="G88" s="67" t="s">
         <v>512</v>
       </c>
       <c r="H88" s="7" t="s">
@@ -9631,18 +9640,18 @@
       <c r="A89" t="s">
         <v>550</v>
       </c>
-      <c r="B89" s="68" t="s">
+      <c r="B89" s="67" t="s">
         <v>488</v>
       </c>
-      <c r="C89" s="68" t="s">
+      <c r="C89" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="D89" s="68"/>
-      <c r="E89" s="94"/>
-      <c r="F89" s="68">
+      <c r="D89" s="67"/>
+      <c r="E89" s="92"/>
+      <c r="F89" s="67">
         <v>2010</v>
       </c>
-      <c r="G89" s="68" t="s">
+      <c r="G89" s="67" t="s">
         <v>512</v>
       </c>
       <c r="H89" s="7" t="s">
@@ -9657,18 +9666,18 @@
       <c r="A90" t="s">
         <v>550</v>
       </c>
-      <c r="B90" s="68" t="s">
+      <c r="B90" s="67" t="s">
         <v>490</v>
       </c>
-      <c r="C90" s="68" t="s">
+      <c r="C90" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="D90" s="68"/>
-      <c r="E90" s="94"/>
-      <c r="F90" s="68">
+      <c r="D90" s="67"/>
+      <c r="E90" s="92"/>
+      <c r="F90" s="67">
         <v>2010</v>
       </c>
-      <c r="G90" s="68" t="s">
+      <c r="G90" s="67" t="s">
         <v>512</v>
       </c>
       <c r="H90" s="7" t="s">
@@ -9683,18 +9692,18 @@
       <c r="A91" t="s">
         <v>550</v>
       </c>
-      <c r="B91" s="68" t="s">
+      <c r="B91" s="67" t="s">
         <v>490</v>
       </c>
-      <c r="C91" s="68" t="s">
+      <c r="C91" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="D91" s="68"/>
-      <c r="E91" s="94"/>
-      <c r="F91" s="68">
+      <c r="D91" s="67"/>
+      <c r="E91" s="92"/>
+      <c r="F91" s="67">
         <v>2010</v>
       </c>
-      <c r="G91" s="68" t="s">
+      <c r="G91" s="67" t="s">
         <v>512</v>
       </c>
       <c r="H91" s="7" t="s">
@@ -9709,18 +9718,18 @@
       <c r="A92" t="s">
         <v>550</v>
       </c>
-      <c r="B92" s="68" t="s">
+      <c r="B92" s="67" t="s">
         <v>492</v>
       </c>
-      <c r="C92" s="68" t="s">
+      <c r="C92" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="D92" s="68"/>
-      <c r="E92" s="94"/>
-      <c r="F92" s="68">
+      <c r="D92" s="67"/>
+      <c r="E92" s="92"/>
+      <c r="F92" s="67">
         <v>2010</v>
       </c>
-      <c r="G92" s="68" t="s">
+      <c r="G92" s="67" t="s">
         <v>513</v>
       </c>
       <c r="H92" t="s">
@@ -9735,18 +9744,18 @@
       <c r="A93" t="s">
         <v>550</v>
       </c>
-      <c r="B93" s="68" t="s">
+      <c r="B93" s="67" t="s">
         <v>492</v>
       </c>
-      <c r="C93" s="68" t="s">
+      <c r="C93" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="D93" s="68"/>
-      <c r="E93" s="94"/>
-      <c r="F93" s="68">
+      <c r="D93" s="67"/>
+      <c r="E93" s="92"/>
+      <c r="F93" s="67">
         <v>2010</v>
       </c>
-      <c r="G93" s="68" t="s">
+      <c r="G93" s="67" t="s">
         <v>513</v>
       </c>
       <c r="H93" t="s">
@@ -9761,18 +9770,18 @@
       <c r="A94" t="s">
         <v>550</v>
       </c>
-      <c r="B94" s="68" t="s">
+      <c r="B94" s="67" t="s">
         <v>495</v>
       </c>
-      <c r="C94" s="68" t="s">
+      <c r="C94" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="D94" s="68"/>
-      <c r="E94" s="94"/>
-      <c r="F94" s="68">
+      <c r="D94" s="67"/>
+      <c r="E94" s="92"/>
+      <c r="F94" s="67">
         <v>2010</v>
       </c>
-      <c r="G94" s="68" t="s">
+      <c r="G94" s="67" t="s">
         <v>513</v>
       </c>
       <c r="H94" t="s">
@@ -9787,18 +9796,18 @@
       <c r="A95" t="s">
         <v>550</v>
       </c>
-      <c r="B95" s="68" t="s">
+      <c r="B95" s="67" t="s">
         <v>495</v>
       </c>
-      <c r="C95" s="68" t="s">
+      <c r="C95" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="D95" s="68"/>
-      <c r="E95" s="94"/>
-      <c r="F95" s="68">
+      <c r="D95" s="67"/>
+      <c r="E95" s="92"/>
+      <c r="F95" s="67">
         <v>2010</v>
       </c>
-      <c r="G95" s="68" t="s">
+      <c r="G95" s="67" t="s">
         <v>513</v>
       </c>
       <c r="H95" t="s">
@@ -9813,18 +9822,18 @@
       <c r="A96" t="s">
         <v>550</v>
       </c>
-      <c r="B96" s="68" t="s">
+      <c r="B96" s="67" t="s">
         <v>497</v>
       </c>
-      <c r="C96" s="68" t="s">
+      <c r="C96" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="D96" s="68"/>
-      <c r="E96" s="94"/>
-      <c r="F96" s="68">
+      <c r="D96" s="67"/>
+      <c r="E96" s="92"/>
+      <c r="F96" s="67">
         <v>2010</v>
       </c>
-      <c r="G96" s="68" t="s">
+      <c r="G96" s="67" t="s">
         <v>512</v>
       </c>
       <c r="H96" t="s">
@@ -9839,18 +9848,18 @@
       <c r="A97" t="s">
         <v>550</v>
       </c>
-      <c r="B97" s="68" t="s">
+      <c r="B97" s="67" t="s">
         <v>497</v>
       </c>
-      <c r="C97" s="68" t="s">
+      <c r="C97" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="D97" s="68"/>
-      <c r="E97" s="94"/>
-      <c r="F97" s="68">
+      <c r="D97" s="67"/>
+      <c r="E97" s="92"/>
+      <c r="F97" s="67">
         <v>2010</v>
       </c>
-      <c r="G97" s="68" t="s">
+      <c r="G97" s="67" t="s">
         <v>512</v>
       </c>
       <c r="H97" t="s">
@@ -9865,18 +9874,18 @@
       <c r="A98" t="s">
         <v>550</v>
       </c>
-      <c r="B98" s="68" t="s">
+      <c r="B98" s="67" t="s">
         <v>514</v>
       </c>
-      <c r="C98" s="68" t="s">
+      <c r="C98" s="67" t="s">
         <v>157</v>
       </c>
-      <c r="D98" s="68"/>
-      <c r="E98" s="94"/>
-      <c r="F98" s="68">
+      <c r="D98" s="67"/>
+      <c r="E98" s="92"/>
+      <c r="F98" s="67">
         <v>2010</v>
       </c>
-      <c r="G98" s="68" t="s">
+      <c r="G98" s="67" t="s">
         <v>513</v>
       </c>
       <c r="H98" s="41" t="s">
@@ -9885,7 +9894,7 @@
       <c r="I98" s="41" t="s">
         <v>515</v>
       </c>
-      <c r="J98" s="77" t="s">
+      <c r="J98" s="75" t="s">
         <v>516</v>
       </c>
       <c r="K98" t="s">
@@ -9899,18 +9908,18 @@
       <c r="A99" t="s">
         <v>550</v>
       </c>
-      <c r="B99" s="68" t="s">
+      <c r="B99" s="67" t="s">
         <v>514</v>
       </c>
-      <c r="C99" s="68" t="s">
+      <c r="C99" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="D99" s="68"/>
-      <c r="E99" s="94"/>
-      <c r="F99" s="68">
+      <c r="D99" s="67"/>
+      <c r="E99" s="92"/>
+      <c r="F99" s="67">
         <v>2010</v>
       </c>
-      <c r="G99" s="68" t="s">
+      <c r="G99" s="67" t="s">
         <v>513</v>
       </c>
       <c r="H99" s="41" t="s">
@@ -9919,7 +9928,7 @@
       <c r="I99" s="41" t="s">
         <v>515</v>
       </c>
-      <c r="J99" s="77" t="s">
+      <c r="J99" s="75" t="s">
         <v>516</v>
       </c>
       <c r="K99" t="s">
@@ -9933,18 +9942,18 @@
       <c r="A100" t="s">
         <v>550</v>
       </c>
-      <c r="B100" s="68" t="s">
+      <c r="B100" s="67" t="s">
         <v>518</v>
       </c>
-      <c r="C100" s="68" t="s">
+      <c r="C100" s="67" t="s">
         <v>157</v>
       </c>
-      <c r="D100" s="68"/>
-      <c r="E100" s="94"/>
-      <c r="F100" s="68">
+      <c r="D100" s="67"/>
+      <c r="E100" s="92"/>
+      <c r="F100" s="67">
         <v>2010</v>
       </c>
-      <c r="G100" s="68" t="s">
+      <c r="G100" s="67" t="s">
         <v>513</v>
       </c>
       <c r="H100" s="41" t="s">
@@ -9953,7 +9962,7 @@
       <c r="I100" s="41" t="s">
         <v>515</v>
       </c>
-      <c r="J100" s="77" t="s">
+      <c r="J100" s="75" t="s">
         <v>519</v>
       </c>
       <c r="K100" t="s">
@@ -9967,18 +9976,18 @@
       <c r="A101" t="s">
         <v>550</v>
       </c>
-      <c r="B101" s="68" t="s">
+      <c r="B101" s="67" t="s">
         <v>518</v>
       </c>
-      <c r="C101" s="68" t="s">
+      <c r="C101" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="D101" s="68"/>
-      <c r="E101" s="94"/>
-      <c r="F101" s="68">
+      <c r="D101" s="67"/>
+      <c r="E101" s="92"/>
+      <c r="F101" s="67">
         <v>2010</v>
       </c>
-      <c r="G101" s="68" t="s">
+      <c r="G101" s="67" t="s">
         <v>513</v>
       </c>
       <c r="H101" s="41" t="s">
@@ -9987,7 +9996,7 @@
       <c r="I101" s="41" t="s">
         <v>515</v>
       </c>
-      <c r="J101" s="77" t="s">
+      <c r="J101" s="75" t="s">
         <v>519</v>
       </c>
       <c r="K101" t="s">
@@ -10001,18 +10010,18 @@
       <c r="A102" t="s">
         <v>550</v>
       </c>
-      <c r="B102" s="68" t="s">
+      <c r="B102" s="67" t="s">
         <v>520</v>
       </c>
-      <c r="C102" s="68" t="s">
+      <c r="C102" s="67" t="s">
         <v>157</v>
       </c>
-      <c r="D102" s="68"/>
-      <c r="E102" s="94"/>
-      <c r="F102" s="68">
+      <c r="D102" s="67"/>
+      <c r="E102" s="92"/>
+      <c r="F102" s="67">
         <v>2010</v>
       </c>
-      <c r="G102" s="68" t="s">
+      <c r="G102" s="67" t="s">
         <v>513</v>
       </c>
       <c r="H102" s="41" t="s">
@@ -10021,7 +10030,7 @@
       <c r="I102" s="41" t="s">
         <v>515</v>
       </c>
-      <c r="J102" s="77" t="s">
+      <c r="J102" s="75" t="s">
         <v>521</v>
       </c>
       <c r="K102" t="s">
@@ -10035,18 +10044,18 @@
       <c r="A103" t="s">
         <v>550</v>
       </c>
-      <c r="B103" s="68" t="s">
+      <c r="B103" s="67" t="s">
         <v>520</v>
       </c>
-      <c r="C103" s="68" t="s">
+      <c r="C103" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="D103" s="68"/>
-      <c r="E103" s="94"/>
-      <c r="F103" s="68">
+      <c r="D103" s="67"/>
+      <c r="E103" s="92"/>
+      <c r="F103" s="67">
         <v>2010</v>
       </c>
-      <c r="G103" s="68" t="s">
+      <c r="G103" s="67" t="s">
         <v>513</v>
       </c>
       <c r="H103" s="41" t="s">
@@ -10055,7 +10064,7 @@
       <c r="I103" s="41" t="s">
         <v>515</v>
       </c>
-      <c r="J103" s="77" t="s">
+      <c r="J103" s="75" t="s">
         <v>521</v>
       </c>
       <c r="K103" t="s">
@@ -10069,18 +10078,18 @@
       <c r="A104" t="s">
         <v>550</v>
       </c>
-      <c r="B104" s="68" t="s">
+      <c r="B104" s="67" t="s">
         <v>499</v>
       </c>
-      <c r="C104" s="68" t="s">
+      <c r="C104" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="D104" s="68"/>
-      <c r="E104" s="94"/>
-      <c r="F104" s="68">
+      <c r="D104" s="67"/>
+      <c r="E104" s="92"/>
+      <c r="F104" s="67">
         <v>2010</v>
       </c>
-      <c r="G104" s="68" t="s">
+      <c r="G104" s="67" t="s">
         <v>512</v>
       </c>
       <c r="H104" t="s">
@@ -10095,18 +10104,18 @@
       <c r="A105" t="s">
         <v>550</v>
       </c>
-      <c r="B105" s="68" t="s">
+      <c r="B105" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="C105" s="68" t="s">
+      <c r="C105" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="D105" s="68"/>
-      <c r="E105" s="94"/>
-      <c r="F105" s="68">
+      <c r="D105" s="67"/>
+      <c r="E105" s="92"/>
+      <c r="F105" s="67">
         <v>2010</v>
       </c>
-      <c r="G105" s="68" t="s">
+      <c r="G105" s="67" t="s">
         <v>513</v>
       </c>
       <c r="H105" s="46" t="s">
@@ -10121,18 +10130,18 @@
       <c r="A106" t="s">
         <v>550</v>
       </c>
-      <c r="B106" s="68" t="s">
+      <c r="B106" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="C106" s="68" t="s">
+      <c r="C106" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="D106" s="68"/>
-      <c r="E106" s="94"/>
-      <c r="F106" s="68">
+      <c r="D106" s="67"/>
+      <c r="E106" s="92"/>
+      <c r="F106" s="67">
         <v>2010</v>
       </c>
-      <c r="G106" s="68" t="s">
+      <c r="G106" s="67" t="s">
         <v>513</v>
       </c>
       <c r="H106" s="46" t="s">
@@ -10147,18 +10156,18 @@
       <c r="A107" t="s">
         <v>550</v>
       </c>
-      <c r="B107" s="68" t="s">
+      <c r="B107" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="C107" s="68" t="s">
+      <c r="C107" s="67" t="s">
         <v>157</v>
       </c>
-      <c r="D107" s="68"/>
-      <c r="E107" s="94"/>
-      <c r="F107" s="68">
+      <c r="D107" s="67"/>
+      <c r="E107" s="92"/>
+      <c r="F107" s="67">
         <v>2010</v>
       </c>
-      <c r="G107" s="68" t="s">
+      <c r="G107" s="67" t="s">
         <v>522</v>
       </c>
       <c r="H107" s="46" t="s">
@@ -10173,18 +10182,18 @@
       <c r="A108" t="s">
         <v>550</v>
       </c>
-      <c r="B108" s="68" t="s">
+      <c r="B108" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="C108" s="68" t="s">
+      <c r="C108" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="D108" s="68"/>
-      <c r="E108" s="94"/>
-      <c r="F108" s="68">
+      <c r="D108" s="67"/>
+      <c r="E108" s="92"/>
+      <c r="F108" s="67">
         <v>2010</v>
       </c>
-      <c r="G108" s="68" t="s">
+      <c r="G108" s="67" t="s">
         <v>522</v>
       </c>
       <c r="H108" s="46" t="s">
@@ -10199,18 +10208,18 @@
       <c r="A109" t="s">
         <v>550</v>
       </c>
-      <c r="B109" s="68" t="s">
+      <c r="B109" s="67" t="s">
         <v>502</v>
       </c>
-      <c r="C109" s="68" t="s">
+      <c r="C109" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="D109" s="68"/>
-      <c r="E109" s="94"/>
-      <c r="F109" s="68">
+      <c r="D109" s="67"/>
+      <c r="E109" s="92"/>
+      <c r="F109" s="67">
         <v>2010</v>
       </c>
-      <c r="G109" s="68" t="s">
+      <c r="G109" s="67" t="s">
         <v>512</v>
       </c>
       <c r="H109" s="46" t="s">
@@ -10219,7 +10228,7 @@
       <c r="I109" s="46" t="s">
         <v>523</v>
       </c>
-      <c r="J109" s="67" t="s">
+      <c r="J109" s="66" t="s">
         <v>652</v>
       </c>
       <c r="K109"/>
@@ -10228,18 +10237,18 @@
       <c r="A110" t="s">
         <v>550</v>
       </c>
-      <c r="B110" s="68" t="s">
+      <c r="B110" s="67" t="s">
         <v>504</v>
       </c>
-      <c r="C110" s="68" t="s">
+      <c r="C110" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="D110" s="68"/>
-      <c r="E110" s="94"/>
-      <c r="F110" s="68">
+      <c r="D110" s="67"/>
+      <c r="E110" s="92"/>
+      <c r="F110" s="67">
         <v>2010</v>
       </c>
-      <c r="G110" s="68" t="s">
+      <c r="G110" s="67" t="s">
         <v>513</v>
       </c>
       <c r="H110" s="46" t="s">
@@ -10254,18 +10263,18 @@
       <c r="A111" t="s">
         <v>550</v>
       </c>
-      <c r="B111" s="68" t="s">
+      <c r="B111" s="67" t="s">
         <v>506</v>
       </c>
-      <c r="C111" s="68" t="s">
+      <c r="C111" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="D111" s="68"/>
-      <c r="E111" s="94"/>
-      <c r="F111" s="68">
+      <c r="D111" s="67"/>
+      <c r="E111" s="92"/>
+      <c r="F111" s="67">
         <v>2010</v>
       </c>
-      <c r="G111" s="68" t="s">
+      <c r="G111" s="67" t="s">
         <v>513</v>
       </c>
       <c r="H111" s="46" t="s">
@@ -10280,18 +10289,18 @@
       <c r="A112" t="s">
         <v>550</v>
       </c>
-      <c r="B112" s="68" t="s">
+      <c r="B112" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="C112" s="68" t="s">
+      <c r="C112" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="D112" s="68"/>
-      <c r="E112" s="94"/>
-      <c r="F112" s="68">
+      <c r="D112" s="67"/>
+      <c r="E112" s="92"/>
+      <c r="F112" s="67">
         <v>2010</v>
       </c>
-      <c r="G112" s="68" t="s">
+      <c r="G112" s="67" t="s">
         <v>512</v>
       </c>
       <c r="H112" s="46" t="s">
@@ -10309,18 +10318,18 @@
       <c r="A113" t="s">
         <v>550</v>
       </c>
-      <c r="B113" s="68" t="s">
+      <c r="B113" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="C113" s="68" t="s">
+      <c r="C113" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="D113" s="68"/>
-      <c r="E113" s="94"/>
-      <c r="F113" s="68">
+      <c r="D113" s="67"/>
+      <c r="E113" s="92"/>
+      <c r="F113" s="67">
         <v>2010</v>
       </c>
-      <c r="G113" s="68" t="s">
+      <c r="G113" s="67" t="s">
         <v>512</v>
       </c>
       <c r="H113" s="46" t="s">
@@ -10335,18 +10344,18 @@
       <c r="A114" t="s">
         <v>550</v>
       </c>
-      <c r="B114" s="68" t="s">
+      <c r="B114" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="C114" s="68" t="s">
+      <c r="C114" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="D114" s="68"/>
-      <c r="E114" s="94"/>
-      <c r="F114" s="68">
+      <c r="D114" s="67"/>
+      <c r="E114" s="92"/>
+      <c r="F114" s="67">
         <v>2010</v>
       </c>
-      <c r="G114" s="68" t="s">
+      <c r="G114" s="67" t="s">
         <v>512</v>
       </c>
       <c r="H114" s="46" t="s">
@@ -10361,18 +10370,18 @@
       <c r="A115" t="s">
         <v>550</v>
       </c>
-      <c r="B115" s="68" t="s">
+      <c r="B115" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="C115" s="68" t="s">
+      <c r="C115" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="D115" s="68"/>
-      <c r="E115" s="94"/>
-      <c r="F115" s="68">
+      <c r="D115" s="67"/>
+      <c r="E115" s="92"/>
+      <c r="F115" s="67">
         <v>2010</v>
       </c>
-      <c r="G115" s="68" t="s">
+      <c r="G115" s="67" t="s">
         <v>512</v>
       </c>
       <c r="H115" s="46" t="s">
@@ -10387,18 +10396,18 @@
       <c r="A116" t="s">
         <v>550</v>
       </c>
-      <c r="B116" s="68" t="s">
+      <c r="B116" s="67" t="s">
         <v>511</v>
       </c>
-      <c r="C116" s="68" t="s">
+      <c r="C116" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="D116" s="68"/>
-      <c r="E116" s="94"/>
-      <c r="F116" s="68">
+      <c r="D116" s="67"/>
+      <c r="E116" s="92"/>
+      <c r="F116" s="67">
         <v>2010</v>
       </c>
-      <c r="G116" s="68" t="s">
+      <c r="G116" s="67" t="s">
         <v>513</v>
       </c>
       <c r="H116" s="46" t="s">
@@ -10413,18 +10422,18 @@
       <c r="A117" t="s">
         <v>550</v>
       </c>
-      <c r="B117" s="68" t="s">
+      <c r="B117" s="67" t="s">
         <v>511</v>
       </c>
-      <c r="C117" s="68" t="s">
+      <c r="C117" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="D117" s="68"/>
-      <c r="E117" s="94"/>
-      <c r="F117" s="68">
+      <c r="D117" s="67"/>
+      <c r="E117" s="92"/>
+      <c r="F117" s="67">
         <v>2010</v>
       </c>
-      <c r="G117" s="68" t="s">
+      <c r="G117" s="67" t="s">
         <v>513</v>
       </c>
       <c r="H117" s="46" t="s">
@@ -10455,13 +10464,20 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
@@ -10611,8 +10627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10661,10 +10677,10 @@
       <c r="J1" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="K1" s="93" t="s">
+      <c r="K1" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="L1" s="90" t="s">
+      <c r="L1" s="88" t="s">
         <v>105</v>
       </c>
       <c r="M1" s="18" t="s">
@@ -10703,8 +10719,8 @@
       <c r="J2" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="K2" s="135"/>
-      <c r="L2" s="125"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="124"/>
       <c r="M2" s="19" t="s">
         <v>113</v>
       </c>
@@ -10741,8 +10757,8 @@
       <c r="J3" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="K3" s="133"/>
-      <c r="L3" s="116"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="115"/>
       <c r="M3" s="20" t="s">
         <v>113</v>
       </c>
@@ -10776,8 +10792,8 @@
       <c r="J4" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="K4" s="133"/>
-      <c r="L4" s="116"/>
+      <c r="K4" s="132"/>
+      <c r="L4" s="115"/>
       <c r="M4" s="20" t="s">
         <v>113</v>
       </c>
@@ -10808,8 +10824,8 @@
       <c r="J5" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="K5" s="133"/>
-      <c r="L5" s="116"/>
+      <c r="K5" s="132"/>
+      <c r="L5" s="115"/>
       <c r="M5" s="20" t="s">
         <v>113</v>
       </c>
@@ -10843,10 +10859,10 @@
       <c r="J6" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="K6" s="133" t="s">
+      <c r="K6" s="132" t="s">
         <v>122</v>
       </c>
-      <c r="L6" s="131"/>
+      <c r="L6" s="130"/>
       <c r="M6" s="20" t="s">
         <v>113</v>
       </c>
@@ -10880,8 +10896,8 @@
       <c r="J7" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="K7" s="133"/>
-      <c r="L7" s="131"/>
+      <c r="K7" s="132"/>
+      <c r="L7" s="130"/>
       <c r="M7" s="20" t="s">
         <v>113</v>
       </c>
@@ -10912,8 +10928,8 @@
       <c r="J8" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="K8" s="134"/>
-      <c r="L8" s="132"/>
+      <c r="K8" s="133"/>
+      <c r="L8" s="131"/>
       <c r="M8" s="20" t="s">
         <v>113</v>
       </c>
@@ -10950,10 +10966,10 @@
       <c r="J9" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="K9" s="141" t="s">
+      <c r="K9" s="140" t="s">
         <v>130</v>
       </c>
-      <c r="L9" s="116" t="s">
+      <c r="L9" s="115" t="s">
         <v>131</v>
       </c>
       <c r="M9" s="19" t="s">
@@ -10989,8 +11005,8 @@
       <c r="J10" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="K10" s="141"/>
-      <c r="L10" s="116"/>
+      <c r="K10" s="140"/>
+      <c r="L10" s="115"/>
       <c r="M10" s="20" t="s">
         <v>113</v>
       </c>
@@ -11024,8 +11040,8 @@
       <c r="J11" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="K11" s="141"/>
-      <c r="L11" s="116"/>
+      <c r="K11" s="140"/>
+      <c r="L11" s="115"/>
       <c r="M11" s="21" t="s">
         <v>113</v>
       </c>
@@ -11056,10 +11072,10 @@
       <c r="J12" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="K12" s="93" t="s">
+      <c r="K12" s="91" t="s">
         <v>137</v>
       </c>
-      <c r="L12" s="85" t="s">
+      <c r="L12" s="83" t="s">
         <v>138</v>
       </c>
       <c r="M12" s="21" t="s">
@@ -11133,10 +11149,10 @@
       <c r="J14" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="K14" s="89" t="s">
+      <c r="K14" s="87" t="s">
         <v>144</v>
       </c>
-      <c r="L14" s="85" t="s">
+      <c r="L14" s="83" t="s">
         <v>145</v>
       </c>
       <c r="M14" s="19" t="s">
@@ -11172,8 +11188,8 @@
       <c r="J15" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="K15" s="89"/>
-      <c r="L15" s="85"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="83"/>
       <c r="M15" s="19" t="s">
         <v>113</v>
       </c>
@@ -11210,7 +11226,7 @@
       <c r="K16" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="L16" s="87" t="s">
+      <c r="L16" s="85" t="s">
         <v>153</v>
       </c>
       <c r="M16" s="19" t="s">
@@ -11249,7 +11265,7 @@
       <c r="J17" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="K17" s="89" t="s">
+      <c r="K17" s="87" t="s">
         <v>155</v>
       </c>
       <c r="L17" s="43" t="s">
@@ -11288,8 +11304,8 @@
       <c r="J18" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="K18" s="127"/>
-      <c r="L18" s="85"/>
+      <c r="K18" s="126"/>
+      <c r="L18" s="83"/>
       <c r="M18" s="10" t="s">
         <v>113</v>
       </c>
@@ -11323,8 +11339,8 @@
       <c r="J19" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="K19" s="139"/>
-      <c r="L19" s="88"/>
+      <c r="K19" s="138"/>
+      <c r="L19" s="86"/>
       <c r="M19" s="31" t="s">
         <v>113</v>
       </c>
@@ -11361,10 +11377,10 @@
       <c r="J20" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="K20" s="127" t="s">
+      <c r="K20" s="126" t="s">
         <v>161</v>
       </c>
-      <c r="L20" s="116" t="s">
+      <c r="L20" s="115" t="s">
         <v>162</v>
       </c>
       <c r="M20" s="10" t="s">
@@ -11400,8 +11416,8 @@
       <c r="J21" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="K21" s="127"/>
-      <c r="L21" s="116"/>
+      <c r="K21" s="126"/>
+      <c r="L21" s="115"/>
       <c r="M21" s="10" t="s">
         <v>113</v>
       </c>
@@ -11432,8 +11448,8 @@
       <c r="J22" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="K22" s="127"/>
-      <c r="L22" s="116"/>
+      <c r="K22" s="126"/>
+      <c r="L22" s="115"/>
       <c r="M22" s="10" t="s">
         <v>113</v>
       </c>
@@ -11467,8 +11483,8 @@
       <c r="J23" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="K23" s="127"/>
-      <c r="L23" s="116"/>
+      <c r="K23" s="126"/>
+      <c r="L23" s="115"/>
       <c r="M23" s="10" t="s">
         <v>113</v>
       </c>
@@ -11502,8 +11518,8 @@
       <c r="J24" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="K24" s="127"/>
-      <c r="L24" s="116"/>
+      <c r="K24" s="126"/>
+      <c r="L24" s="115"/>
       <c r="M24" s="10" t="s">
         <v>113</v>
       </c>
@@ -11537,10 +11553,10 @@
       <c r="J25" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="K25" s="140" t="s">
+      <c r="K25" s="139" t="s">
         <v>167</v>
       </c>
-      <c r="L25" s="125" t="s">
+      <c r="L25" s="124" t="s">
         <v>168</v>
       </c>
       <c r="M25" s="15" t="s">
@@ -11579,8 +11595,8 @@
       <c r="J26" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="K26" s="127"/>
-      <c r="L26" s="116"/>
+      <c r="K26" s="126"/>
+      <c r="L26" s="115"/>
       <c r="M26" s="10" t="s">
         <v>113</v>
       </c>
@@ -11614,8 +11630,8 @@
       <c r="J27" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="K27" s="127"/>
-      <c r="L27" s="116"/>
+      <c r="K27" s="126"/>
+      <c r="L27" s="115"/>
       <c r="M27" s="10" t="s">
         <v>113</v>
       </c>
@@ -11646,8 +11662,8 @@
       <c r="J28" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="K28" s="139"/>
-      <c r="L28" s="126"/>
+      <c r="K28" s="138"/>
+      <c r="L28" s="125"/>
       <c r="M28" s="11" t="s">
         <v>113</v>
       </c>
@@ -11684,10 +11700,10 @@
       <c r="J29" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="K29" s="127" t="s">
+      <c r="K29" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="L29" s="85"/>
+      <c r="L29" s="83"/>
       <c r="M29" s="10" t="s">
         <v>113</v>
       </c>
@@ -11721,8 +11737,8 @@
       <c r="J30" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="K30" s="127"/>
-      <c r="L30" s="85"/>
+      <c r="K30" s="126"/>
+      <c r="L30" s="83"/>
       <c r="M30" s="10" t="s">
         <v>113</v>
       </c>
@@ -11756,8 +11772,8 @@
       <c r="J31" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="K31" s="127"/>
-      <c r="L31" s="85"/>
+      <c r="K31" s="126"/>
+      <c r="L31" s="83"/>
       <c r="M31" s="10" t="s">
         <v>113</v>
       </c>
@@ -11788,8 +11804,8 @@
       <c r="J32" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="K32" s="127"/>
-      <c r="L32" s="85"/>
+      <c r="K32" s="126"/>
+      <c r="L32" s="83"/>
       <c r="M32" s="10" t="s">
         <v>113</v>
       </c>
@@ -11823,10 +11839,10 @@
       <c r="J33" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="K33" s="140" t="s">
+      <c r="K33" s="139" t="s">
         <v>144</v>
       </c>
-      <c r="L33" s="87" t="s">
+      <c r="L33" s="85" t="s">
         <v>145</v>
       </c>
       <c r="M33" s="15" t="s">
@@ -11865,8 +11881,8 @@
       <c r="J34" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="K34" s="139"/>
-      <c r="L34" s="88"/>
+      <c r="K34" s="138"/>
+      <c r="L34" s="86"/>
       <c r="M34" s="11" t="s">
         <v>113</v>
       </c>
@@ -11903,10 +11919,10 @@
       <c r="J35" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="K35" s="127" t="s">
+      <c r="K35" s="126" t="s">
         <v>144</v>
       </c>
-      <c r="L35" s="85" t="s">
+      <c r="L35" s="83" t="s">
         <v>145</v>
       </c>
       <c r="M35" s="10" t="s">
@@ -11942,8 +11958,8 @@
       <c r="J36" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="K36" s="127"/>
-      <c r="L36" s="85"/>
+      <c r="K36" s="126"/>
+      <c r="L36" s="83"/>
       <c r="M36" s="10" t="s">
         <v>113</v>
       </c>
@@ -12015,8 +12031,8 @@
       <c r="J38" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="K38" s="89"/>
-      <c r="L38" s="85"/>
+      <c r="K38" s="87"/>
+      <c r="L38" s="83"/>
       <c r="M38" s="10" t="s">
         <v>113</v>
       </c>
@@ -12050,10 +12066,10 @@
       <c r="J39" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="K39" s="92" t="s">
+      <c r="K39" s="90" t="s">
         <v>186</v>
       </c>
-      <c r="L39" s="125"/>
+      <c r="L39" s="124"/>
       <c r="M39" s="19" t="s">
         <v>113</v>
       </c>
@@ -12091,7 +12107,7 @@
         <v>113</v>
       </c>
       <c r="K40" s="32"/>
-      <c r="L40" s="116"/>
+      <c r="L40" s="115"/>
       <c r="M40" s="20" t="s">
         <v>113</v>
       </c>
@@ -12125,10 +12141,10 @@
       <c r="J41" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="K41" s="89" t="s">
+      <c r="K41" s="87" t="s">
         <v>190</v>
       </c>
-      <c r="L41" s="88" t="s">
+      <c r="L41" s="86" t="s">
         <v>191</v>
       </c>
       <c r="M41" s="22" t="s">
@@ -12167,10 +12183,10 @@
       <c r="J42" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="K42" s="127" t="s">
+      <c r="K42" s="126" t="s">
         <v>193</v>
       </c>
-      <c r="L42" s="116" t="s">
+      <c r="L42" s="115" t="s">
         <v>194</v>
       </c>
       <c r="M42" s="19" t="s">
@@ -12206,8 +12222,8 @@
       <c r="J43" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="K43" s="127"/>
-      <c r="L43" s="116"/>
+      <c r="K43" s="126"/>
+      <c r="L43" s="115"/>
       <c r="M43" s="20" t="s">
         <v>113</v>
       </c>
@@ -12241,8 +12257,8 @@
       <c r="J44" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="K44" s="127"/>
-      <c r="L44" s="116"/>
+      <c r="K44" s="126"/>
+      <c r="L44" s="115"/>
       <c r="M44" s="20" t="s">
         <v>113</v>
       </c>
@@ -12273,8 +12289,8 @@
       <c r="J45" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="K45" s="127"/>
-      <c r="L45" s="116"/>
+      <c r="K45" s="126"/>
+      <c r="L45" s="115"/>
       <c r="M45" s="20" t="s">
         <v>113</v>
       </c>
@@ -12308,8 +12324,8 @@
       <c r="J46" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="K46" s="127"/>
-      <c r="L46" s="116"/>
+      <c r="K46" s="126"/>
+      <c r="L46" s="115"/>
       <c r="M46" s="20" t="s">
         <v>113</v>
       </c>
@@ -12343,8 +12359,8 @@
       <c r="J47" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="K47" s="127"/>
-      <c r="L47" s="116"/>
+      <c r="K47" s="126"/>
+      <c r="L47" s="115"/>
       <c r="M47" s="20" t="s">
         <v>113</v>
       </c>
@@ -12420,8 +12436,8 @@
       <c r="J49" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="K49" s="89"/>
-      <c r="L49" s="85"/>
+      <c r="K49" s="87"/>
+      <c r="L49" s="83"/>
       <c r="M49" s="19" t="s">
         <v>113</v>
       </c>
@@ -12455,10 +12471,10 @@
       <c r="J50" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="K50" s="123" t="s">
+      <c r="K50" s="122" t="s">
         <v>206</v>
       </c>
-      <c r="L50" s="87"/>
+      <c r="L50" s="85"/>
       <c r="M50" s="23" t="s">
         <v>113</v>
       </c>
@@ -12495,8 +12511,8 @@
       <c r="J51" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="K51" s="141"/>
-      <c r="L51" s="85"/>
+      <c r="K51" s="140"/>
+      <c r="L51" s="83"/>
       <c r="M51" s="23" t="s">
         <v>113</v>
       </c>
@@ -12530,8 +12546,8 @@
       <c r="J52" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="K52" s="141"/>
-      <c r="L52" s="85"/>
+      <c r="K52" s="140"/>
+      <c r="L52" s="83"/>
       <c r="M52" s="23" t="s">
         <v>113</v>
       </c>
@@ -12565,8 +12581,8 @@
       <c r="J53" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="K53" s="141"/>
-      <c r="L53" s="85"/>
+      <c r="K53" s="140"/>
+      <c r="L53" s="83"/>
       <c r="M53" s="23" t="s">
         <v>113</v>
       </c>
@@ -12597,8 +12613,8 @@
       <c r="J54" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="K54" s="124"/>
-      <c r="L54" s="88"/>
+      <c r="K54" s="123"/>
+      <c r="L54" s="86"/>
       <c r="M54" s="23" t="s">
         <v>113</v>
       </c>
@@ -12632,11 +12648,11 @@
         <v>129</v>
       </c>
       <c r="I55"/>
-      <c r="J55" s="70"/>
-      <c r="K55" s="93" t="s">
+      <c r="J55" s="69"/>
+      <c r="K55" s="91" t="s">
         <v>216</v>
       </c>
-      <c r="L55" s="69" t="s">
+      <c r="L55" s="68" t="s">
         <v>217</v>
       </c>
       <c r="M55" s="37"/>
@@ -12709,10 +12725,10 @@
       <c r="J57" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="K57" s="127" t="s">
+      <c r="K57" s="126" t="s">
         <v>223</v>
       </c>
-      <c r="L57" s="85"/>
+      <c r="L57" s="83"/>
       <c r="M57" s="23" t="s">
         <v>113</v>
       </c>
@@ -12746,8 +12762,8 @@
       <c r="J58" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="K58" s="127"/>
-      <c r="L58" s="85"/>
+      <c r="K58" s="126"/>
+      <c r="L58" s="83"/>
       <c r="M58" s="21" t="s">
         <v>113</v>
       </c>
@@ -12778,8 +12794,8 @@
       <c r="J59" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="K59" s="127"/>
-      <c r="L59" s="85"/>
+      <c r="K59" s="126"/>
+      <c r="L59" s="83"/>
       <c r="M59" s="21" t="s">
         <v>113</v>
       </c>
@@ -12813,10 +12829,10 @@
       <c r="J60" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="K60" s="125" t="s">
+      <c r="K60" s="124" t="s">
         <v>228</v>
       </c>
-      <c r="L60" s="87"/>
+      <c r="L60" s="85"/>
       <c r="M60" s="19" t="s">
         <v>113</v>
       </c>
@@ -12853,8 +12869,8 @@
       <c r="J61" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="K61" s="116"/>
-      <c r="L61" s="85" t="s">
+      <c r="K61" s="115"/>
+      <c r="L61" s="83" t="s">
         <v>230</v>
       </c>
       <c r="M61" s="20" t="s">
@@ -12890,8 +12906,8 @@
       <c r="J62" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="K62" s="116"/>
-      <c r="L62" s="85" t="s">
+      <c r="K62" s="115"/>
+      <c r="L62" s="83" t="s">
         <v>232</v>
       </c>
       <c r="M62" s="20" t="s">
@@ -12927,8 +12943,8 @@
       <c r="J63" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="K63" s="127"/>
-      <c r="L63" s="85"/>
+      <c r="K63" s="126"/>
+      <c r="L63" s="83"/>
       <c r="M63" s="20" t="s">
         <v>113</v>
       </c>
@@ -12962,8 +12978,8 @@
       <c r="J64" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="K64" s="127"/>
-      <c r="L64" s="85"/>
+      <c r="K64" s="126"/>
+      <c r="L64" s="83"/>
       <c r="M64" s="20" t="s">
         <v>113</v>
       </c>
@@ -12997,8 +13013,8 @@
       <c r="J65" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="K65" s="127"/>
-      <c r="L65" s="85" t="s">
+      <c r="K65" s="126"/>
+      <c r="L65" s="83" t="s">
         <v>232</v>
       </c>
       <c r="M65" s="20" t="s">
@@ -13032,7 +13048,7 @@
       <c r="J66" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="K66" s="127"/>
+      <c r="K66" s="126"/>
       <c r="L66" s="44"/>
       <c r="M66" s="45" t="s">
         <v>113</v>
@@ -13071,7 +13087,7 @@
         <v>113</v>
       </c>
       <c r="K67" s="39"/>
-      <c r="L67" s="91"/>
+      <c r="L67" s="89"/>
       <c r="M67" s="20" t="s">
         <v>113</v>
       </c>
@@ -13106,7 +13122,7 @@
         <v>113</v>
       </c>
       <c r="K68" s="26"/>
-      <c r="L68" s="88"/>
+      <c r="L68" s="86"/>
       <c r="M68" s="23" t="s">
         <v>113</v>
       </c>
@@ -13143,10 +13159,10 @@
       <c r="J69" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="K69" s="127" t="s">
+      <c r="K69" s="126" t="s">
         <v>144</v>
       </c>
-      <c r="L69" s="85" t="s">
+      <c r="L69" s="83" t="s">
         <v>145</v>
       </c>
       <c r="M69" s="23" t="s">
@@ -13182,8 +13198,8 @@
       <c r="J70" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="K70" s="127"/>
-      <c r="L70" s="85"/>
+      <c r="K70" s="126"/>
+      <c r="L70" s="83"/>
       <c r="M70" s="21" t="s">
         <v>113</v>
       </c>
@@ -13214,10 +13230,10 @@
       <c r="J71" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="K71" s="92" t="s">
+      <c r="K71" s="90" t="s">
         <v>241</v>
       </c>
-      <c r="L71" s="87" t="s">
+      <c r="L71" s="85" t="s">
         <v>242</v>
       </c>
       <c r="M71" s="19" t="s">
@@ -13256,8 +13272,8 @@
       <c r="J72" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="K72" s="127"/>
-      <c r="L72" s="85"/>
+      <c r="K72" s="126"/>
+      <c r="L72" s="83"/>
       <c r="M72" s="21" t="s">
         <v>113</v>
       </c>
@@ -13288,8 +13304,8 @@
       <c r="J73" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="K73" s="127"/>
-      <c r="L73" s="85"/>
+      <c r="K73" s="126"/>
+      <c r="L73" s="83"/>
       <c r="M73" s="21" t="s">
         <v>113</v>
       </c>
@@ -13320,8 +13336,8 @@
       <c r="J74" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="K74" s="127"/>
-      <c r="L74" s="85"/>
+      <c r="K74" s="126"/>
+      <c r="L74" s="83"/>
       <c r="M74" s="21" t="s">
         <v>113</v>
       </c>
@@ -13349,8 +13365,8 @@
       <c r="J75" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="K75" s="139"/>
-      <c r="L75" s="88"/>
+      <c r="K75" s="138"/>
+      <c r="L75" s="86"/>
       <c r="M75" s="21" t="s">
         <v>113</v>
       </c>
@@ -13387,8 +13403,8 @@
       <c r="J76" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="K76" s="89"/>
-      <c r="L76" s="85"/>
+      <c r="K76" s="87"/>
+      <c r="L76" s="83"/>
       <c r="M76" s="23" t="s">
         <v>113</v>
       </c>
@@ -13418,16 +13434,16 @@
       <c r="H77" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="I77" s="101" t="s">
+      <c r="I77" s="99" t="s">
         <v>649</v>
       </c>
       <c r="J77" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="K77" s="123" t="s">
+      <c r="K77" s="122" t="s">
         <v>250</v>
       </c>
-      <c r="L77" s="128" t="s">
+      <c r="L77" s="127" t="s">
         <v>251</v>
       </c>
       <c r="M77" s="19" t="s">
@@ -13462,14 +13478,14 @@
       <c r="H78" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="I78" s="101" t="s">
+      <c r="I78" s="99" t="s">
         <v>649</v>
       </c>
       <c r="J78" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="K78" s="124"/>
-      <c r="L78" s="129"/>
+      <c r="K78" s="123"/>
+      <c r="L78" s="128"/>
       <c r="M78" s="45" t="s">
         <v>113</v>
       </c>
@@ -13506,10 +13522,10 @@
       <c r="J79" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="K79" s="85" t="s">
+      <c r="K79" s="83" t="s">
         <v>253</v>
       </c>
-      <c r="L79" s="129"/>
+      <c r="L79" s="128"/>
       <c r="M79" s="45" t="s">
         <v>113</v>
       </c>
@@ -13537,16 +13553,16 @@
       <c r="H80" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="I80" s="101" t="s">
+      <c r="I80" s="99" t="s">
         <v>649</v>
       </c>
       <c r="J80" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="K80" s="85" t="s">
+      <c r="K80" s="83" t="s">
         <v>253</v>
       </c>
-      <c r="L80" s="130"/>
+      <c r="L80" s="129"/>
       <c r="M80" s="20" t="s">
         <v>113</v>
       </c>
@@ -13583,10 +13599,10 @@
       <c r="J81" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="K81" s="127" t="s">
+      <c r="K81" s="126" t="s">
         <v>144</v>
       </c>
-      <c r="L81" s="85" t="s">
+      <c r="L81" s="83" t="s">
         <v>145</v>
       </c>
       <c r="M81" s="23" t="s">
@@ -13622,8 +13638,8 @@
       <c r="J82" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="K82" s="127"/>
-      <c r="L82" s="85"/>
+      <c r="K82" s="126"/>
+      <c r="L82" s="83"/>
       <c r="M82" s="21" t="s">
         <v>113</v>
       </c>
@@ -13647,7 +13663,7 @@
       <c r="F83" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G83" s="79" t="s">
+      <c r="G83" s="77" t="s">
         <v>86</v>
       </c>
       <c r="H83" s="5" t="s">
@@ -13657,7 +13673,7 @@
       <c r="J83" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="K83" s="80" t="s">
+      <c r="K83" s="78" t="s">
         <v>258</v>
       </c>
       <c r="L83" s="27"/>
@@ -13696,10 +13712,10 @@
       <c r="J84" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="K84" s="89" t="s">
+      <c r="K84" s="87" t="s">
         <v>262</v>
       </c>
-      <c r="L84" s="85" t="s">
+      <c r="L84" s="83" t="s">
         <v>263</v>
       </c>
       <c r="M84" s="19" t="s">
@@ -13734,7 +13750,7 @@
       <c r="J85" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="K85" s="127" t="s">
+      <c r="K85" s="126" t="s">
         <v>264</v>
       </c>
       <c r="L85" s="28"/>
@@ -13770,7 +13786,7 @@
       <c r="J86" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="K86" s="127"/>
+      <c r="K86" s="126"/>
       <c r="L86" s="28"/>
       <c r="M86" s="21" t="s">
         <v>113</v>
@@ -13804,7 +13820,7 @@
       <c r="J87" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="K87" s="127"/>
+      <c r="K87" s="126"/>
       <c r="L87" s="28"/>
       <c r="M87" s="21" t="s">
         <v>113</v>
@@ -13835,7 +13851,7 @@
       <c r="J88" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="K88" s="127"/>
+      <c r="K88" s="126"/>
       <c r="L88" s="28"/>
       <c r="M88" s="21" t="s">
         <v>113</v>
@@ -13869,7 +13885,7 @@
       <c r="J89" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="K89" s="127"/>
+      <c r="K89" s="126"/>
       <c r="L89" s="28"/>
       <c r="M89" s="21" t="s">
         <v>113</v>
@@ -13903,7 +13919,7 @@
       <c r="J90" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="K90" s="127"/>
+      <c r="K90" s="126"/>
       <c r="L90" s="28"/>
       <c r="M90" s="21" t="s">
         <v>113</v>
@@ -13938,10 +13954,10 @@
       <c r="J91" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="K91" s="117" t="s">
+      <c r="K91" s="116" t="s">
         <v>270</v>
       </c>
-      <c r="L91" s="136" t="s">
+      <c r="L91" s="135" t="s">
         <v>271</v>
       </c>
       <c r="M91" s="23" t="s">
@@ -13980,8 +13996,8 @@
       <c r="J92" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="K92" s="118"/>
-      <c r="L92" s="137"/>
+      <c r="K92" s="117"/>
+      <c r="L92" s="136"/>
       <c r="M92" s="21" t="s">
         <v>113</v>
       </c>
@@ -14015,8 +14031,8 @@
       <c r="J93" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="K93" s="118"/>
-      <c r="L93" s="137"/>
+      <c r="K93" s="117"/>
+      <c r="L93" s="136"/>
       <c r="M93" s="21" t="s">
         <v>113</v>
       </c>
@@ -14047,8 +14063,8 @@
       <c r="J94" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="K94" s="119"/>
-      <c r="L94" s="138"/>
+      <c r="K94" s="118"/>
+      <c r="L94" s="137"/>
       <c r="M94" s="21" t="s">
         <v>113</v>
       </c>
@@ -14084,7 +14100,7 @@
       <c r="J95" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="K95" s="120"/>
+      <c r="K95" s="119"/>
       <c r="L95" s="28"/>
       <c r="M95" s="23" t="s">
         <v>113</v>
@@ -14118,7 +14134,7 @@
       <c r="J96" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="K96" s="121"/>
+      <c r="K96" s="120"/>
       <c r="L96" s="28"/>
       <c r="M96" s="23" t="s">
         <v>113</v>
@@ -14152,7 +14168,7 @@
       <c r="J97" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="K97" s="121"/>
+      <c r="K97" s="120"/>
       <c r="L97" s="28"/>
       <c r="M97" s="23" t="s">
         <v>113</v>
@@ -14186,7 +14202,7 @@
       <c r="J98" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="K98" s="121"/>
+      <c r="K98" s="120"/>
       <c r="L98" s="28"/>
       <c r="M98" s="23" t="s">
         <v>113</v>
@@ -14219,8 +14235,8 @@
       <c r="J99" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="K99" s="122"/>
-      <c r="L99" s="86"/>
+      <c r="K99" s="121"/>
+      <c r="L99" s="84"/>
       <c r="M99" s="30" t="s">
         <v>113</v>
       </c>
@@ -15074,10 +15090,10 @@
       <c r="H25">
         <v>2010</v>
       </c>
-      <c r="I25" s="114" t="s">
+      <c r="I25" s="108" t="s">
         <v>763</v>
       </c>
-      <c r="J25" s="115" t="s">
+      <c r="J25" s="109" t="s">
         <v>764</v>
       </c>
     </row>
@@ -15933,21 +15949,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149AB136-B663-43F8-8265-AB28C3254826}">
   <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.109375" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
     <col min="5" max="5" width="10.44140625" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="9" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="7" max="7" width="11" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11" style="112" customWidth="1"/>
     <col min="9" max="9" width="55.6640625" style="59" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="34.33203125" style="59" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
@@ -15959,7 +15975,7 @@
     <col min="18" max="19" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" s="65" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="62" t="s">
         <v>586</v>
       </c>
@@ -15978,13 +15994,13 @@
       <c r="F1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="64" t="s">
+      <c r="G1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="111" t="s">
         <v>703</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="64" t="s">
         <v>704</v>
       </c>
       <c r="J1" s="49" t="s">
@@ -16013,14 +16029,13 @@
       <c r="F2" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="83" t="s">
+      <c r="I2" s="81" t="s">
         <v>332</v>
       </c>
-      <c r="J2" s="82"/>
+      <c r="J2" s="80"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -16048,10 +16063,10 @@
       <c r="F3" t="s">
         <v>340</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="I3" s="67" t="s">
+      <c r="I3" s="66" t="s">
         <v>341</v>
       </c>
     </row>
@@ -16068,13 +16083,13 @@
       <c r="F4" s="46" t="s">
         <v>345</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="67" t="s">
+      <c r="I4" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="J4" s="67" t="s">
+      <c r="J4" s="66" t="s">
         <v>659</v>
       </c>
     </row>
@@ -16085,10 +16100,10 @@
       <c r="B5" t="s">
         <v>654</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="82" t="s">
+      <c r="I5" s="80" t="s">
         <v>702</v>
       </c>
     </row>
@@ -16107,12 +16122,11 @@
       <c r="F6" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -16140,11 +16154,11 @@
       <c r="F7" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H7" s="46"/>
-      <c r="I7" s="67" t="s">
+      <c r="H7" s="38"/>
+      <c r="I7" s="66" t="s">
         <v>342</v>
       </c>
       <c r="J7" s="59" t="s">
@@ -16164,12 +16178,11 @@
         <v>279</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -16184,46 +16197,48 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:23" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="I9" s="67" t="s">
+      <c r="H9" s="112"/>
+      <c r="I9" s="81" t="s">
         <v>337</v>
       </c>
-      <c r="J9" s="59" t="s">
+      <c r="J9" s="80" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>647</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G10" s="75" t="s">
+      <c r="G10" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="I10" s="73"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="80"/>
       <c r="J10" s="59"/>
     </row>
     <row r="11" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
@@ -16241,11 +16256,10 @@
       <c r="F11" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="84" t="s">
+      <c r="I11" s="81" t="s">
         <v>347</v>
       </c>
       <c r="J11" s="59" t="s">
@@ -16265,33 +16279,34 @@
       <c r="F12" t="s">
         <v>331</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="83" t="s">
+      <c r="I12" s="81" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:23" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="F13" s="46" t="s">
+      <c r="F13" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="67" t="s">
+      <c r="H13" s="113"/>
+      <c r="I13" s="82" t="s">
         <v>346</v>
       </c>
-      <c r="J13" s="67" t="s">
+      <c r="J13" s="82" t="s">
         <v>659</v>
       </c>
     </row>
@@ -16302,10 +16317,10 @@
       <c r="B14" t="s">
         <v>654</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I14" s="82" t="s">
+      <c r="I14" s="80" t="s">
         <v>702</v>
       </c>
     </row>
@@ -16322,7 +16337,7 @@
       <c r="F15" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="2" t="s">
         <v>135</v>
       </c>
       <c r="I15" s="59" t="s">
@@ -16342,7 +16357,7 @@
       <c r="F16" s="46" t="s">
         <v>329</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="J16" s="59" t="s">
@@ -16362,10 +16377,10 @@
       <c r="F17" s="46" t="s">
         <v>331</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="I17" s="67" t="s">
+      <c r="I17" s="66" t="s">
         <v>332</v>
       </c>
       <c r="J17" s="59" t="s">
@@ -16385,10 +16400,10 @@
       <c r="F18" s="46" t="s">
         <v>331</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="I18" s="67" t="s">
+      <c r="I18" s="66" t="s">
         <v>332</v>
       </c>
       <c r="J18" s="59" t="s">
@@ -16408,7 +16423,7 @@
       <c r="F19" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="2" t="s">
         <v>56</v>
       </c>
       <c r="J19" s="59" t="s">
@@ -16428,10 +16443,10 @@
       <c r="F20" t="s">
         <v>358</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="I20" s="67" t="s">
+      <c r="I20" s="66" t="s">
         <v>337</v>
       </c>
       <c r="J20" s="59" t="s">
@@ -16451,7 +16466,7 @@
       <c r="F21" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="2" t="s">
         <v>83</v>
       </c>
       <c r="J21" s="59" t="s">
@@ -16473,14 +16488,13 @@
       <c r="F22" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="82" t="s">
+      <c r="I22" s="80" t="s">
         <v>350</v>
       </c>
-      <c r="J22" s="82" t="s">
+      <c r="J22" s="80" t="s">
         <v>351</v>
       </c>
       <c r="K22" s="2"/>
@@ -16497,55 +16511,55 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A23" s="46" t="s">
+    <row r="23" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="16" t="s">
         <v>655</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="I23" s="82"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
+      <c r="H23" s="114"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="110"/>
+    </row>
+    <row r="24" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
         <v>701</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="83" t="s">
+      <c r="H24" s="113"/>
+      <c r="I24" s="82" t="s">
         <v>281</v>
       </c>
-      <c r="J24" s="82" t="s">
+      <c r="J24" s="72" t="s">
         <v>282</v>
       </c>
-      <c r="K24" s="2"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52"/>
-      <c r="R24" s="52"/>
-      <c r="S24" s="52"/>
-      <c r="T24" s="52"/>
-      <c r="U24" s="52"/>
-      <c r="V24" s="52"/>
-      <c r="W24" s="52"/>
+      <c r="O24" s="73"/>
+      <c r="P24" s="73"/>
+      <c r="Q24" s="73"/>
+      <c r="R24" s="73"/>
+      <c r="S24" s="73"/>
+      <c r="T24" s="73"/>
+      <c r="U24" s="73"/>
+      <c r="V24" s="73"/>
+      <c r="W24" s="73"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
@@ -16563,7 +16577,7 @@
       <c r="F25" t="s">
         <v>285</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="2" t="s">
         <v>23</v>
       </c>
       <c r="O25" s="52"/>
@@ -16592,10 +16606,10 @@
       <c r="F26" t="s">
         <v>287</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="I26" s="67" t="s">
+      <c r="I26" s="66" t="s">
         <v>288</v>
       </c>
       <c r="J26" s="59" t="s">
@@ -16627,7 +16641,7 @@
       <c r="F27" t="s">
         <v>291</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="7" t="s">
         <v>81</v>
       </c>
       <c r="O27" s="52"/>
@@ -16640,69 +16654,73 @@
       <c r="V27" s="52"/>
       <c r="W27" s="54"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>701</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="O28" s="52"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="52"/>
-      <c r="R28" s="52"/>
-      <c r="S28" s="52"/>
-      <c r="T28" s="52"/>
-      <c r="U28" s="52"/>
-      <c r="V28" s="52"/>
-      <c r="W28" s="54"/>
-    </row>
-    <row r="29" spans="1:23" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H28" s="112"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="80"/>
+      <c r="O28" s="105"/>
+      <c r="P28" s="105"/>
+      <c r="Q28" s="105"/>
+      <c r="R28" s="105"/>
+      <c r="S28" s="105"/>
+      <c r="T28" s="105"/>
+      <c r="U28" s="105"/>
+      <c r="V28" s="105"/>
+      <c r="W28" s="107"/>
+    </row>
+    <row r="29" spans="1:23" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>701</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="G29" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="I29" s="84" t="s">
+      <c r="H29" s="112"/>
+      <c r="I29" s="81" t="s">
         <v>296</v>
       </c>
-      <c r="J29" s="73" t="s">
+      <c r="J29" s="80" t="s">
         <v>297</v>
       </c>
-      <c r="O29" s="74"/>
-      <c r="P29" s="74"/>
-      <c r="Q29" s="74"/>
-      <c r="R29" s="74"/>
-      <c r="S29" s="74"/>
-      <c r="T29" s="74"/>
-      <c r="U29" s="74"/>
-      <c r="V29" s="74"/>
-      <c r="W29" s="74"/>
+      <c r="O29" s="105"/>
+      <c r="P29" s="105"/>
+      <c r="Q29" s="105"/>
+      <c r="R29" s="105"/>
+      <c r="S29" s="105"/>
+      <c r="T29" s="105"/>
+      <c r="U29" s="105"/>
+      <c r="V29" s="105"/>
+      <c r="W29" s="105"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
@@ -16721,25 +16739,24 @@
       <c r="F30" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H30" s="2"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="82"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="80"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
-      <c r="O30" s="108"/>
-      <c r="P30" s="108"/>
-      <c r="Q30" s="108"/>
-      <c r="R30" s="108"/>
-      <c r="S30" s="108"/>
-      <c r="T30" s="108"/>
-      <c r="U30" s="108"/>
-      <c r="V30" s="108"/>
-      <c r="W30" s="113"/>
+      <c r="O30" s="105"/>
+      <c r="P30" s="105"/>
+      <c r="Q30" s="105"/>
+      <c r="R30" s="105"/>
+      <c r="S30" s="105"/>
+      <c r="T30" s="105"/>
+      <c r="U30" s="105"/>
+      <c r="V30" s="105"/>
+      <c r="W30" s="107"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
@@ -16757,7 +16774,7 @@
       <c r="F31" t="s">
         <v>291</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" s="2" t="s">
         <v>65</v>
       </c>
       <c r="O31" s="52"/>
@@ -16770,46 +16787,41 @@
       <c r="V31" s="52"/>
       <c r="W31" s="52"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="32" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
         <v>705</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H32" s="2"/>
-      <c r="I32" s="83" t="s">
+      <c r="H32" s="113"/>
+      <c r="I32" s="82" t="s">
         <v>281</v>
       </c>
-      <c r="J32" s="59" t="s">
+      <c r="J32" s="72" t="s">
         <v>282</v>
       </c>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="108"/>
-      <c r="P32" s="108"/>
-      <c r="Q32" s="108"/>
-      <c r="R32" s="108"/>
-      <c r="S32" s="108"/>
-      <c r="T32" s="108"/>
-      <c r="U32" s="108"/>
-      <c r="V32" s="108"/>
-      <c r="W32" s="108"/>
+      <c r="O32" s="73"/>
+      <c r="P32" s="73"/>
+      <c r="Q32" s="73"/>
+      <c r="R32" s="73"/>
+      <c r="S32" s="73"/>
+      <c r="T32" s="73"/>
+      <c r="U32" s="73"/>
+      <c r="V32" s="73"/>
+      <c r="W32" s="73"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
@@ -16824,10 +16836,10 @@
       <c r="F33" t="s">
         <v>305</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I33" s="83" t="s">
+      <c r="I33" s="81" t="s">
         <v>281</v>
       </c>
       <c r="J33" s="59" t="s">
@@ -16859,7 +16871,7 @@
       <c r="F34" t="s">
         <v>307</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="2" t="s">
         <v>23</v>
       </c>
       <c r="O34" s="52"/>
@@ -16885,7 +16897,7 @@
       <c r="F35" t="s">
         <v>307</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="G35" s="2" t="s">
         <v>23</v>
       </c>
       <c r="O35" s="52"/>
@@ -16911,13 +16923,13 @@
       <c r="F36" t="s">
         <v>309</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="G36" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I36" s="67" t="s">
+      <c r="I36" s="66" t="s">
         <v>281</v>
       </c>
-      <c r="J36" s="67" t="s">
+      <c r="J36" s="66" t="s">
         <v>282</v>
       </c>
       <c r="O36" s="52"/>
@@ -16930,66 +16942,71 @@
       <c r="V36" s="52"/>
       <c r="W36" s="54"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="37" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="G37" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="I37" s="59" t="s">
+      <c r="H37" s="112"/>
+      <c r="I37" s="80" t="s">
         <v>648</v>
       </c>
-      <c r="O37" s="52"/>
-      <c r="P37" s="52"/>
-      <c r="Q37" s="52"/>
-      <c r="R37" s="52"/>
-      <c r="S37" s="52"/>
-      <c r="T37" s="52"/>
-      <c r="U37" s="52"/>
-      <c r="V37" s="52"/>
-      <c r="W37" s="52"/>
-    </row>
-    <row r="38" spans="1:23" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J37" s="80" t="s">
+        <v>797</v>
+      </c>
+      <c r="O37" s="105"/>
+      <c r="P37" s="105"/>
+      <c r="Q37" s="105"/>
+      <c r="R37" s="105"/>
+      <c r="S37" s="105"/>
+      <c r="T37" s="105"/>
+      <c r="U37" s="105"/>
+      <c r="V37" s="105"/>
+      <c r="W37" s="105"/>
+    </row>
+    <row r="38" spans="1:23" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>705</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="G38" s="15" t="s">
+      <c r="G38" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="I38" s="84" t="s">
+      <c r="H38" s="112"/>
+      <c r="I38" s="81" t="s">
         <v>288</v>
       </c>
-      <c r="J38" s="73" t="s">
+      <c r="J38" s="80" t="s">
         <v>289</v>
       </c>
-      <c r="O38" s="74"/>
-      <c r="P38" s="74"/>
-      <c r="Q38" s="74"/>
-      <c r="R38" s="74"/>
-      <c r="S38" s="74"/>
-      <c r="T38" s="74"/>
-      <c r="U38" s="74"/>
-      <c r="V38" s="74"/>
-      <c r="W38" s="74"/>
+      <c r="O38" s="105"/>
+      <c r="P38" s="105"/>
+      <c r="Q38" s="105"/>
+      <c r="R38" s="105"/>
+      <c r="S38" s="105"/>
+      <c r="T38" s="105"/>
+      <c r="U38" s="105"/>
+      <c r="V38" s="105"/>
+      <c r="W38" s="105"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
@@ -17008,29 +17025,28 @@
       <c r="F39" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="G39" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H39" s="2"/>
-      <c r="I39" s="83" t="s">
+      <c r="I39" s="81" t="s">
         <v>658</v>
       </c>
-      <c r="J39" s="82" t="s">
+      <c r="J39" s="80" t="s">
         <v>282</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
-      <c r="O39" s="108"/>
-      <c r="P39" s="108"/>
-      <c r="Q39" s="108"/>
-      <c r="R39" s="108"/>
-      <c r="S39" s="108"/>
-      <c r="T39" s="108"/>
-      <c r="U39" s="108"/>
-      <c r="V39" s="108"/>
-      <c r="W39" s="108"/>
+      <c r="O39" s="105"/>
+      <c r="P39" s="105"/>
+      <c r="Q39" s="105"/>
+      <c r="R39" s="105"/>
+      <c r="S39" s="105"/>
+      <c r="T39" s="105"/>
+      <c r="U39" s="105"/>
+      <c r="V39" s="105"/>
+      <c r="W39" s="105"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
@@ -17045,10 +17061,10 @@
       <c r="F40" t="s">
         <v>305</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="G40" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I40" s="67" t="s">
+      <c r="I40" s="66" t="s">
         <v>658</v>
       </c>
       <c r="J40" s="59" t="s">
@@ -17077,10 +17093,10 @@
       <c r="F41" t="s">
         <v>305</v>
       </c>
-      <c r="G41" s="10" t="s">
+      <c r="G41" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I41" s="67" t="s">
+      <c r="I41" s="66" t="s">
         <v>658</v>
       </c>
       <c r="J41" s="59" t="s">
@@ -17112,7 +17128,7 @@
       <c r="F42" t="s">
         <v>309</v>
       </c>
-      <c r="G42" s="10" t="s">
+      <c r="G42" s="7" t="s">
         <v>46</v>
       </c>
       <c r="O42" s="52"/>
@@ -17138,7 +17154,7 @@
       <c r="F43" t="s">
         <v>309</v>
       </c>
-      <c r="G43" s="10" t="s">
+      <c r="G43" s="7" t="s">
         <v>46</v>
       </c>
       <c r="O43" s="52"/>
@@ -17164,11 +17180,14 @@
       <c r="F44" t="s">
         <v>317</v>
       </c>
-      <c r="G44" s="10" t="s">
+      <c r="G44" s="7" t="s">
         <v>135</v>
       </c>
       <c r="I44" s="59" t="s">
         <v>648</v>
+      </c>
+      <c r="J44" s="80" t="s">
+        <v>797</v>
       </c>
       <c r="O44" s="52"/>
       <c r="P44" s="52"/>
@@ -17196,7 +17215,7 @@
       <c r="F45" t="s">
         <v>319</v>
       </c>
-      <c r="G45" s="10" t="s">
+      <c r="G45" s="7" t="s">
         <v>65</v>
       </c>
       <c r="O45" s="52"/>
@@ -17209,66 +17228,70 @@
       <c r="V45" s="52"/>
       <c r="W45" s="52"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="46" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="G46" s="10" t="s">
+      <c r="G46" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O46" s="52"/>
-      <c r="P46" s="52"/>
-      <c r="Q46" s="52"/>
-      <c r="R46" s="52"/>
-      <c r="S46" s="52"/>
-      <c r="T46" s="52"/>
-      <c r="U46" s="52"/>
-      <c r="V46" s="52"/>
-      <c r="W46" s="52"/>
-    </row>
-    <row r="47" spans="1:23" s="102" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H46" s="112"/>
+      <c r="I46" s="80"/>
+      <c r="J46" s="80"/>
+      <c r="O46" s="105"/>
+      <c r="P46" s="105"/>
+      <c r="Q46" s="105"/>
+      <c r="R46" s="105"/>
+      <c r="S46" s="105"/>
+      <c r="T46" s="105"/>
+      <c r="U46" s="105"/>
+      <c r="V46" s="105"/>
+      <c r="W46" s="105"/>
+    </row>
+    <row r="47" spans="1:23" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>705</v>
       </c>
-      <c r="C47" s="102" t="s">
+      <c r="C47" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D47" s="102" t="s">
+      <c r="D47" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="E47" s="102" t="s">
+      <c r="E47" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="F47" s="102" t="s">
+      <c r="F47" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="G47" s="110" t="s">
+      <c r="G47" s="7" t="s">
         <v>651</v>
       </c>
-      <c r="I47" s="111" t="s">
+      <c r="H47" s="112"/>
+      <c r="I47" s="81" t="s">
         <v>322</v>
       </c>
-      <c r="J47" s="111" t="s">
+      <c r="J47" s="81" t="s">
         <v>656</v>
       </c>
-      <c r="O47" s="112"/>
-      <c r="P47" s="112"/>
-      <c r="Q47" s="112"/>
-      <c r="R47" s="112"/>
-      <c r="S47" s="112"/>
-      <c r="T47" s="112"/>
-      <c r="U47" s="112"/>
-      <c r="V47" s="112"/>
-      <c r="W47" s="112"/>
+      <c r="O47" s="105"/>
+      <c r="P47" s="105"/>
+      <c r="Q47" s="105"/>
+      <c r="R47" s="105"/>
+      <c r="S47" s="105"/>
+      <c r="T47" s="105"/>
+      <c r="U47" s="105"/>
+      <c r="V47" s="105"/>
+      <c r="W47" s="105"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
@@ -17285,25 +17308,24 @@
       <c r="F48" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="G48" s="10" t="s">
+      <c r="G48" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H48" s="2"/>
-      <c r="I48" s="103"/>
-      <c r="J48" s="82"/>
+      <c r="I48" s="80"/>
+      <c r="J48" s="80"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
-      <c r="O48" s="108"/>
-      <c r="P48" s="108"/>
-      <c r="Q48" s="108"/>
-      <c r="R48" s="108"/>
-      <c r="S48" s="108"/>
-      <c r="T48" s="108"/>
-      <c r="U48" s="108"/>
-      <c r="V48" s="108"/>
-      <c r="W48" s="108"/>
+      <c r="O48" s="105"/>
+      <c r="P48" s="105"/>
+      <c r="Q48" s="105"/>
+      <c r="R48" s="105"/>
+      <c r="S48" s="105"/>
+      <c r="T48" s="105"/>
+      <c r="U48" s="105"/>
+      <c r="V48" s="105"/>
+      <c r="W48" s="105"/>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
@@ -17321,10 +17343,10 @@
       <c r="F49" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="G49" s="10" t="s">
+      <c r="G49" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="I49" s="103"/>
+      <c r="I49" s="80"/>
       <c r="O49" s="52"/>
       <c r="P49" s="52"/>
       <c r="Q49" s="52"/>
@@ -17348,14 +17370,14 @@
       <c r="F50" t="s">
         <v>309</v>
       </c>
-      <c r="G50" s="10" t="s">
+      <c r="G50" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H50" s="46"/>
-      <c r="I50" s="111" t="s">
+      <c r="H50" s="38"/>
+      <c r="I50" s="81" t="s">
         <v>327</v>
       </c>
-      <c r="J50" s="67" t="s">
+      <c r="J50" s="66" t="s">
         <v>657</v>
       </c>
       <c r="O50" s="52"/>
@@ -17378,10 +17400,10 @@
       <c r="D51" t="s">
         <v>313</v>
       </c>
-      <c r="G51" s="9" t="s">
+      <c r="G51" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I51" s="103" t="s">
+      <c r="I51" s="80" t="s">
         <v>702</v>
       </c>
     </row>
@@ -17396,14 +17418,13 @@
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
-      <c r="G52" s="9" t="s">
+      <c r="G52" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H52" s="2"/>
-      <c r="I52" s="103" t="s">
+      <c r="I52" s="80" t="s">
         <v>702</v>
       </c>
-      <c r="J52" s="82"/>
+      <c r="J52" s="80"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
@@ -17446,10 +17467,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FB7270-85D5-483E-AE4E-A5BD24F9C240}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17555,7 +17576,7 @@
       <c r="D7" t="s">
         <v>532</v>
       </c>
-      <c r="E7" s="109" t="s">
+      <c r="E7" s="106" t="s">
         <v>699</v>
       </c>
     </row>
@@ -17575,7 +17596,7 @@
         <v>683</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -17583,10 +17604,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>512</v>
+        <v>683</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -17594,10 +17615,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -17605,65 +17626,65 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>513</v>
+        <v>685</v>
       </c>
       <c r="C12">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="46" t="s">
-        <v>687</v>
+        <v>512</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>513</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>686</v>
+        <v>27</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>687</v>
       </c>
       <c r="C14">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="B15" t="s">
-        <v>512</v>
+      <c r="B15" s="7" t="s">
+        <v>686</v>
       </c>
       <c r="C15">
         <v>1000</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>688</v>
+      <c r="A16" s="7" t="s">
+        <v>513</v>
       </c>
       <c r="B16" t="s">
-        <v>274</v>
+        <v>512</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>688</v>
       </c>
       <c r="B17" t="s">
-        <v>689</v>
+        <v>274</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -17674,10 +17695,10 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="C18">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -17685,7 +17706,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C19">
         <v>1000</v>
@@ -17693,21 +17714,70 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>513</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C20">
         <v>1000</v>
       </c>
     </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>513</v>
+      </c>
+      <c r="B21" t="s">
+        <v>698</v>
+      </c>
+      <c r="C21">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>798</v>
+      </c>
+      <c r="B22" t="s">
+        <v>798</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>513</v>
+      </c>
+      <c r="B23" t="s">
+        <v>681</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>513</v>
+      </c>
+      <c r="B24" t="s">
+        <v>685</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C37">
-    <sortCondition ref="A2:A37"/>
-    <sortCondition ref="B2:B37"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C38">
+    <sortCondition ref="A2:A38"/>
+    <sortCondition ref="B2:B38"/>
   </sortState>
-  <conditionalFormatting sqref="A15 A8:B14">
+  <conditionalFormatting sqref="A16 A8:B15">
     <cfRule type="expression" priority="3">
       <formula>EXACT($N8, n)</formula>
     </cfRule>

--- a/Meta/Analytes3.xlsx
+++ b/Meta/Analytes3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/LakeMichiganML/Shared Documents/General/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4646" documentId="8_{D82D06AB-5E11-4340-B04B-6FA55AFBCF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B618E697-19E8-479A-AD38-8B928BDBF92C}"/>
+  <xr:revisionPtr revIDLastSave="4648" documentId="8_{D82D06AB-5E11-4340-B04B-6FA55AFBCF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6881A8B-2CA4-4A0F-B1E3-E7D77B8AA173}"/>
   <bookViews>
-    <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="809" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="2" r:id="rId1"/>
@@ -153,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3527" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3527" uniqueCount="796">
   <si>
     <t>CodeName</t>
   </si>
@@ -2548,6 +2548,9 @@
   </si>
   <si>
     <t>unitless</t>
+  </si>
+  <si>
+    <t>But data columns just say Part C, Part N, etc.</t>
   </si>
 </sst>
 </file>
@@ -2915,7 +2918,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3039,9 +3042,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3123,16 +3123,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3153,9 +3192,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3164,42 +3200,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3545,19 +3545,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E23ABD6F-8266-4030-840C-1A1DE88549A1}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" customWidth="1"/>
-    <col min="2" max="2" width="49.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
         <v>28</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
         <v>30</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="45" t="s">
         <v>32</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
         <v>33</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="45" t="s">
         <v>35</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="45" t="s">
         <v>36</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
         <v>38</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
         <v>39</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
         <v>41</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="45" t="s">
         <v>43</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="45" t="s">
         <v>45</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="45" t="s">
         <v>46</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="45" t="s">
         <v>48</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="45" t="s">
         <v>50</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="45" t="s">
         <v>51</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="45" t="s">
         <v>53</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="45" t="s">
         <v>55</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="45" t="s">
         <v>57</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="45" t="s">
         <v>59</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="45" t="s">
         <v>61</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="45" t="s">
         <v>62</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="45" t="s">
         <v>63</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="45" t="s">
         <v>65</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="45" t="s">
         <v>67</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="45" t="s">
         <v>68</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="45" t="s">
         <v>71</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="45" t="s">
         <v>643</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="45" t="s">
         <v>73</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="45" t="s">
         <v>75</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>76</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="45" t="s">
         <v>78</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="45" t="s">
         <v>80</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>87</v>
       </c>
@@ -4345,16 +4345,16 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="100" t="s">
+    <row r="1" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="99" t="s">
         <v>693</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -4370,10 +4370,10 @@
         <v>7</v>
       </c>
       <c r="H1" s="2"/>
-      <c r="I1" s="96" t="s">
+      <c r="I1" s="95" t="s">
         <v>683</v>
       </c>
-      <c r="J1" s="76"/>
+      <c r="J1" s="75"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -4388,8 +4388,8 @@
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
     </row>
-    <row r="2" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="100" t="s">
+    <row r="2" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="99" t="s">
         <v>693</v>
       </c>
       <c r="B2" t="s">
@@ -4401,13 +4401,13 @@
       <c r="G2" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="I2" s="96" t="s">
+      <c r="I2" s="95" t="s">
         <v>683</v>
       </c>
       <c r="J2" s="58"/>
     </row>
-    <row r="3" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="100" t="s">
+    <row r="3" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="99" t="s">
         <v>693</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -4423,10 +4423,10 @@
         <v>78</v>
       </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="96" t="s">
+      <c r="I3" s="95" t="s">
         <v>683</v>
       </c>
-      <c r="J3" s="76"/>
+      <c r="J3" s="75"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -4441,8 +4441,8 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="100" t="s">
+    <row r="4" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="99" t="s">
         <v>693</v>
       </c>
       <c r="B4" t="s">
@@ -4454,13 +4454,13 @@
       <c r="G4" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="96" t="s">
+      <c r="I4" s="95" t="s">
         <v>683</v>
       </c>
       <c r="J4" s="58"/>
     </row>
-    <row r="5" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="100" t="s">
+    <row r="5" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="99" t="s">
         <v>693</v>
       </c>
       <c r="B5" t="s">
@@ -4472,31 +4472,31 @@
       <c r="G5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="96" t="s">
+      <c r="I5" s="95" t="s">
         <v>683</v>
       </c>
       <c r="J5" s="58"/>
     </row>
-    <row r="6" spans="1:23" s="97" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="100" t="s">
+    <row r="6" spans="1:23" s="96" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="99" t="s">
         <v>693</v>
       </c>
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="96" t="s">
         <v>294</v>
       </c>
-      <c r="C6" s="97" t="s">
+      <c r="C6" s="96" t="s">
         <v>294</v>
       </c>
-      <c r="G6" s="98" t="s">
+      <c r="G6" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="I6" s="96" t="s">
+      <c r="I6" s="95" t="s">
         <v>683</v>
       </c>
-      <c r="J6" s="99"/>
-    </row>
-    <row r="7" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="100" t="s">
+      <c r="J6" s="98"/>
+    </row>
+    <row r="7" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="99" t="s">
         <v>693</v>
       </c>
       <c r="B7" t="s">
@@ -4508,13 +4508,13 @@
       <c r="G7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="96" t="s">
+      <c r="I7" s="95" t="s">
         <v>683</v>
       </c>
       <c r="J7" s="58"/>
     </row>
-    <row r="8" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="100" t="s">
+    <row r="8" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="99" t="s">
         <v>693</v>
       </c>
       <c r="B8" t="s">
@@ -4527,18 +4527,18 @@
       <c r="G8" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="I8" s="96" t="s">
+      <c r="I8" s="95" t="s">
         <v>683</v>
       </c>
       <c r="J8" s="58"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="100" t="s">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="99" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" s="100" t="s">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="99" t="s">
         <v>699</v>
       </c>
     </row>
@@ -4560,13 +4560,13 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>578</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>542</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>542</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>542</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>542</v>
       </c>
@@ -4621,7 +4621,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>542</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>542</v>
       </c>
@@ -4643,7 +4643,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>542</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>542</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>542</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>542</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>542</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>542</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>542</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>542</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>542</v>
       </c>
@@ -4742,7 +4742,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>542</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>542</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>542</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>542</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>543</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>543</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>543</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>543</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>543</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>543</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>543</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>543</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>543</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>543</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>543</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>543</v>
       </c>
@@ -4918,7 +4918,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>543</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>543</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>543</v>
       </c>
@@ -4951,7 +4951,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>543</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>543</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>543</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>543</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>543</v>
       </c>
@@ -5006,7 +5006,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>543</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>543</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>543</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>543</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>543</v>
       </c>
@@ -5061,7 +5061,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>543</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>543</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -5138,7 +5138,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -5204,7 +5204,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>56</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>56</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>56</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>56</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>56</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>56</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>56</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>56</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>56</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>56</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>56</v>
       </c>
@@ -5336,7 +5336,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>56</v>
       </c>
@@ -5361,15 +5361,15 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.7109375" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>525</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>243</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>2.1391821402503068</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>243</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>2.1391821402503068</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>246</v>
       </c>
@@ -5452,7 +5452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>248</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>2.1391821402503068</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>531</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>537</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>PRODUCT(A13:F13)</f>
         <v>0.46746837549933429</v>
@@ -5600,14 +5600,14 @@
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>540</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>547</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>551</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>555</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>558</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>561</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>563</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>566</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>568</v>
       </c>
@@ -5765,11 +5765,11 @@
       <c r="G9" t="s">
         <v>553</v>
       </c>
-      <c r="M9" s="94">
+      <c r="M9" s="93">
         <v>0.50069444399999996</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>569</v>
       </c>
@@ -5785,11 +5785,11 @@
       <c r="G10" t="s">
         <v>572</v>
       </c>
-      <c r="M10" s="94">
+      <c r="M10" s="93">
         <v>0.45416600000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>573</v>
       </c>
@@ -5805,11 +5805,11 @@
       <c r="G11" t="s">
         <v>576</v>
       </c>
-      <c r="M11" s="94">
+      <c r="M11" s="93">
         <v>0.44791666699999999</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>577</v>
       </c>
@@ -5826,7 +5826,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>581</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>584</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>585</v>
       </c>
@@ -5859,7 +5859,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>587</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>589</v>
       </c>
@@ -5875,27 +5875,27 @@
         <v>590</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>592</v>
       </c>
@@ -5914,28 +5914,28 @@
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
     <col min="6" max="6" width="11" style="9" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="56.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.109375" customWidth="1"/>
-    <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="64.33203125" style="58" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" customWidth="1"/>
-    <col min="15" max="15" width="34.6640625" customWidth="1"/>
-    <col min="16" max="16" width="20.6640625" customWidth="1"/>
-    <col min="18" max="19" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="56.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="64.28515625" style="58" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" customWidth="1"/>
+    <col min="15" max="15" width="34.7109375" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" customWidth="1"/>
+    <col min="18" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
         <v>91</v>
       </c>
@@ -5974,7 +5974,7 @@
       <c r="R1" s="47"/>
       <c r="S1" s="47"/>
     </row>
-    <row r="2" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>271</v>
       </c>
@@ -6009,7 +6009,7 @@
       <c r="V2" s="51"/>
       <c r="W2" s="53"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>271</v>
       </c>
@@ -6042,7 +6042,7 @@
       <c r="V3" s="51"/>
       <c r="W3" s="51"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>277</v>
       </c>
@@ -6074,7 +6074,7 @@
       <c r="V4" s="51"/>
       <c r="W4" s="53"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>277</v>
       </c>
@@ -6104,7 +6104,7 @@
       <c r="V5" s="51"/>
       <c r="W5" s="53"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>277</v>
       </c>
@@ -6134,7 +6134,7 @@
       <c r="V6" s="51"/>
       <c r="W6" s="53"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>280</v>
       </c>
@@ -6167,7 +6167,7 @@
       <c r="V7" s="51"/>
       <c r="W7" s="51"/>
     </row>
-    <row r="8" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>284</v>
       </c>
@@ -6199,7 +6199,7 @@
       <c r="V8" s="51"/>
       <c r="W8" s="53"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>284</v>
       </c>
@@ -6229,7 +6229,7 @@
       <c r="V9" s="51"/>
       <c r="W9" s="53"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>598</v>
       </c>
@@ -6264,7 +6264,7 @@
       <c r="V10" s="51"/>
       <c r="W10" s="53"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>598</v>
       </c>
@@ -6297,7 +6297,7 @@
       <c r="V11" s="51"/>
       <c r="W11" s="51"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>604</v>
       </c>
@@ -6330,7 +6330,7 @@
       <c r="V12" s="51"/>
       <c r="W12" s="51"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>604</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>604</v>
       </c>
@@ -6386,7 +6386,7 @@
       <c r="V14" s="51"/>
       <c r="W14" s="51"/>
     </row>
-    <row r="15" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>286</v>
       </c>
@@ -6418,7 +6418,7 @@
       <c r="V15" s="51"/>
       <c r="W15" s="53"/>
     </row>
-    <row r="16" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>286</v>
       </c>
@@ -6450,7 +6450,7 @@
       <c r="V16" s="51"/>
       <c r="W16" s="53"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>608</v>
       </c>
@@ -6480,7 +6480,7 @@
       <c r="V17" s="51"/>
       <c r="W17" s="51"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>608</v>
       </c>
@@ -6510,7 +6510,7 @@
       <c r="V18" s="51"/>
       <c r="W18" s="51"/>
     </row>
-    <row r="19" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>610</v>
       </c>
@@ -6542,7 +6542,7 @@
       <c r="V19" s="51"/>
       <c r="W19" s="53"/>
     </row>
-    <row r="20" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>613</v>
       </c>
@@ -6574,7 +6574,7 @@
       <c r="V20" s="51"/>
       <c r="W20" s="53"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>616</v>
       </c>
@@ -6604,7 +6604,7 @@
       <c r="V21" s="51"/>
       <c r="W21" s="51"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>618</v>
       </c>
@@ -6634,7 +6634,7 @@
       <c r="V22" s="51"/>
       <c r="W22" s="51"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>288</v>
       </c>
@@ -6667,7 +6667,7 @@
       <c r="V23" s="51"/>
       <c r="W23" s="51"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>292</v>
       </c>
@@ -6697,7 +6697,7 @@
       <c r="V24" s="51"/>
       <c r="W24" s="51"/>
     </row>
-    <row r="25" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>292</v>
       </c>
@@ -6729,7 +6729,7 @@
       <c r="V25" s="51"/>
       <c r="W25" s="53"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>292</v>
       </c>
@@ -6759,7 +6759,7 @@
       <c r="V26" s="51"/>
       <c r="W26" s="53"/>
     </row>
-    <row r="27" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>294</v>
       </c>
@@ -6791,7 +6791,7 @@
       <c r="V27" s="51"/>
       <c r="W27" s="53"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>294</v>
       </c>
@@ -6821,7 +6821,7 @@
       <c r="V28" s="51"/>
       <c r="W28" s="51"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>294</v>
       </c>
@@ -6851,7 +6851,7 @@
       <c r="V29" s="51"/>
       <c r="W29" s="51"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -6881,7 +6881,7 @@
       <c r="V30" s="51"/>
       <c r="W30" s="51"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -6914,7 +6914,7 @@
       <c r="V31" s="51"/>
       <c r="W31" s="51"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -6944,7 +6944,7 @@
       <c r="V32" s="51"/>
       <c r="W32" s="51"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>56</v>
       </c>
@@ -6974,7 +6974,7 @@
       <c r="V33" s="51"/>
       <c r="W33" s="51"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -7009,7 +7009,7 @@
       <c r="V34" s="51"/>
       <c r="W34" s="53"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>56</v>
       </c>
@@ -7042,7 +7042,7 @@
       <c r="V35" s="51"/>
       <c r="W35" s="51"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -7072,7 +7072,7 @@
       <c r="V36" s="51"/>
       <c r="W36" s="51"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -7102,7 +7102,7 @@
       <c r="V37" s="51"/>
       <c r="W37" s="51"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -7137,7 +7137,7 @@
       <c r="V38" s="51"/>
       <c r="W38" s="53"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -7169,7 +7169,7 @@
       <c r="V39" s="51"/>
       <c r="W39" s="51"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>56</v>
       </c>
@@ -7198,7 +7198,7 @@
       <c r="V40" s="51"/>
       <c r="W40" s="51"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -7227,7 +7227,7 @@
       <c r="V41" s="51"/>
       <c r="W41" s="51"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -7256,7 +7256,7 @@
       <c r="V42" s="51"/>
       <c r="W42" s="51"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -7288,7 +7288,7 @@
       <c r="V43" s="51"/>
       <c r="W43" s="51"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -7317,7 +7317,7 @@
       <c r="V44" s="51"/>
       <c r="W44" s="51"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -7349,7 +7349,7 @@
       <c r="V45" s="51"/>
       <c r="W45" s="51"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -7378,7 +7378,7 @@
       <c r="V46" s="51"/>
       <c r="W46" s="51"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -7410,7 +7410,7 @@
       <c r="V47" s="51"/>
       <c r="W47" s="51"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -7439,7 +7439,7 @@
       <c r="V48" s="51"/>
       <c r="W48" s="53"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D51" s="53" t="s">
         <v>628</v>
       </c>
@@ -7458,7 +7458,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D52" s="53" t="s">
         <v>632</v>
       </c>
@@ -7477,7 +7477,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D53" s="53" t="s">
         <v>634</v>
       </c>
@@ -7496,7 +7496,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="54" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D54" s="53" t="s">
         <v>636</v>
       </c>
@@ -7535,24 +7535,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5D57F1-DBF9-46B4-8278-09786D5200AB}">
   <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView tabSelected="1" topLeftCell="B71" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K99" sqref="K99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="75.33203125" style="60" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="10" max="10" width="64.44140625" style="58" customWidth="1"/>
-    <col min="11" max="11" width="35.33203125" style="58" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="75.28515625" style="60" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="64.42578125" style="58" customWidth="1"/>
+    <col min="11" max="11" width="35.28515625" style="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>578</v>
       </c>
@@ -7590,7 +7590,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>543</v>
       </c>
@@ -7619,7 +7619,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>543</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>543</v>
       </c>
@@ -7671,7 +7671,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>543</v>
       </c>
@@ -7694,7 +7694,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>543</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>543</v>
       </c>
@@ -7743,7 +7743,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>543</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>543</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>543</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>543</v>
       </c>
@@ -7843,7 +7843,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>543</v>
       </c>
@@ -7870,7 +7870,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>543</v>
       </c>
@@ -7897,7 +7897,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>543</v>
       </c>
@@ -7924,7 +7924,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>543</v>
       </c>
@@ -7947,7 +7947,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>543</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>543</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>543</v>
       </c>
@@ -8017,7 +8017,7 @@
       </c>
       <c r="J18" s="65"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>543</v>
       </c>
@@ -8040,7 +8040,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>543</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>543</v>
       </c>
@@ -8098,7 +8098,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>543</v>
       </c>
@@ -8121,7 +8121,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>543</v>
       </c>
@@ -8150,7 +8150,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>543</v>
       </c>
@@ -8176,7 +8176,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>543</v>
       </c>
@@ -8199,7 +8199,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>543</v>
       </c>
@@ -8222,7 +8222,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>543</v>
       </c>
@@ -8248,7 +8248,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>543</v>
       </c>
@@ -8271,7 +8271,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>543</v>
       </c>
@@ -8294,7 +8294,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>543</v>
       </c>
@@ -8323,7 +8323,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>543</v>
       </c>
@@ -8352,7 +8352,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>708</v>
       </c>
@@ -8372,12 +8372,12 @@
       <c r="I32" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="J32" s="93" t="s">
+      <c r="J32" s="92" t="s">
         <v>416</v>
       </c>
       <c r="K32" s="70"/>
     </row>
-    <row r="33" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>708</v>
       </c>
@@ -8399,11 +8399,11 @@
       <c r="J33" s="58" t="s">
         <v>419</v>
       </c>
-      <c r="K33" s="75" t="s">
+      <c r="K33" s="74" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>708</v>
       </c>
@@ -8423,7 +8423,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>708</v>
       </c>
@@ -8449,7 +8449,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>708</v>
       </c>
@@ -8475,7 +8475,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>708</v>
       </c>
@@ -8501,7 +8501,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>708</v>
       </c>
@@ -8527,7 +8527,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>708</v>
       </c>
@@ -8547,7 +8547,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>708</v>
       </c>
@@ -8557,7 +8557,7 @@
       <c r="F40">
         <v>2021</v>
       </c>
-      <c r="G40" s="74" t="s">
+      <c r="G40" s="73" t="s">
         <v>433</v>
       </c>
       <c r="H40" s="45" t="s">
@@ -8573,7 +8573,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>708</v>
       </c>
@@ -8583,7 +8583,7 @@
       <c r="F41">
         <v>2021</v>
       </c>
-      <c r="G41" s="74" t="s">
+      <c r="G41" s="73" t="s">
         <v>433</v>
       </c>
       <c r="H41" s="45" t="s">
@@ -8599,7 +8599,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>708</v>
       </c>
@@ -8619,7 +8619,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>708</v>
       </c>
@@ -8642,7 +8642,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>708</v>
       </c>
@@ -8665,7 +8665,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>708</v>
       </c>
@@ -8688,7 +8688,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>708</v>
       </c>
@@ -8711,7 +8711,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>708</v>
       </c>
@@ -8734,7 +8734,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>708</v>
       </c>
@@ -8757,7 +8757,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>708</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>707</v>
       </c>
@@ -8800,7 +8800,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>707</v>
       </c>
@@ -8820,7 +8820,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>707</v>
       </c>
@@ -8840,7 +8840,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>707</v>
       </c>
@@ -8860,7 +8860,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>707</v>
       </c>
@@ -8880,7 +8880,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>707</v>
       </c>
@@ -8900,7 +8900,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>707</v>
       </c>
@@ -8920,7 +8920,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>707</v>
       </c>
@@ -8940,7 +8940,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>707</v>
       </c>
@@ -8960,7 +8960,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>707</v>
       </c>
@@ -8980,7 +8980,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>707</v>
       </c>
@@ -9003,7 +9003,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>707</v>
       </c>
@@ -9026,7 +9026,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>707</v>
       </c>
@@ -9046,7 +9046,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>707</v>
       </c>
@@ -9072,7 +9072,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>707</v>
       </c>
@@ -9092,7 +9092,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>707</v>
       </c>
@@ -9112,7 +9112,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>707</v>
       </c>
@@ -9132,7 +9132,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>707</v>
       </c>
@@ -9152,14 +9152,14 @@
         <v>415</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>707</v>
       </c>
       <c r="B68" s="14" t="s">
         <v>478</v>
       </c>
-      <c r="E68" s="92"/>
+      <c r="E68" s="91"/>
       <c r="F68" s="14">
         <v>2021</v>
       </c>
@@ -9172,19 +9172,19 @@
       <c r="I68" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="J68" s="78" t="s">
+      <c r="J68" s="77" t="s">
         <v>479</v>
       </c>
-      <c r="K68" s="78"/>
-    </row>
-    <row r="69" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K68" s="77"/>
+    </row>
+    <row r="69" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>707</v>
       </c>
       <c r="B69" s="45" t="s">
         <v>480</v>
       </c>
-      <c r="E69" s="91"/>
+      <c r="E69" s="90"/>
       <c r="F69" s="45">
         <v>2021</v>
       </c>
@@ -9202,14 +9202,14 @@
       </c>
       <c r="K69" s="65"/>
     </row>
-    <row r="70" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>707</v>
       </c>
       <c r="B70" s="45" t="s">
         <v>482</v>
       </c>
-      <c r="E70" s="91"/>
+      <c r="E70" s="90"/>
       <c r="F70" s="45">
         <v>2021</v>
       </c>
@@ -9227,14 +9227,14 @@
       </c>
       <c r="K70" s="65"/>
     </row>
-    <row r="71" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>707</v>
       </c>
       <c r="B71" s="45" t="s">
         <v>484</v>
       </c>
-      <c r="E71" s="91"/>
+      <c r="E71" s="90"/>
       <c r="F71" s="45">
         <v>2021</v>
       </c>
@@ -9252,14 +9252,14 @@
       </c>
       <c r="K71" s="65"/>
     </row>
-    <row r="72" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>707</v>
       </c>
       <c r="B72" s="45" t="s">
         <v>705</v>
       </c>
-      <c r="E72" s="91"/>
+      <c r="E72" s="90"/>
       <c r="F72" s="45">
         <v>2021</v>
       </c>
@@ -9277,14 +9277,14 @@
       </c>
       <c r="K72" s="65"/>
     </row>
-    <row r="73" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>707</v>
       </c>
       <c r="B73" s="45" t="s">
         <v>489</v>
       </c>
-      <c r="E73" s="91"/>
+      <c r="E73" s="90"/>
       <c r="F73" s="45">
         <v>2021</v>
       </c>
@@ -9302,14 +9302,14 @@
       </c>
       <c r="K73" s="65"/>
     </row>
-    <row r="74" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>707</v>
       </c>
       <c r="B74" s="45" t="s">
         <v>491</v>
       </c>
-      <c r="E74" s="91"/>
+      <c r="E74" s="90"/>
       <c r="F74" s="45">
         <v>2021</v>
       </c>
@@ -9327,14 +9327,14 @@
       </c>
       <c r="K74" s="65"/>
     </row>
-    <row r="75" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>707</v>
       </c>
       <c r="B75" s="45" t="s">
         <v>706</v>
       </c>
-      <c r="E75" s="91"/>
+      <c r="E75" s="90"/>
       <c r="F75" s="45">
         <v>2021</v>
       </c>
@@ -9352,14 +9352,14 @@
       </c>
       <c r="K75" s="65"/>
     </row>
-    <row r="76" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>707</v>
       </c>
       <c r="B76" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="E76" s="91"/>
+      <c r="E76" s="90"/>
       <c r="F76" s="45">
         <v>2021</v>
       </c>
@@ -9377,14 +9377,14 @@
       </c>
       <c r="K76" s="65"/>
     </row>
-    <row r="77" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>707</v>
       </c>
       <c r="B77" s="45" t="s">
         <v>496</v>
       </c>
-      <c r="E77" s="91"/>
+      <c r="E77" s="90"/>
       <c r="F77" s="45">
         <v>2021</v>
       </c>
@@ -9402,14 +9402,14 @@
       </c>
       <c r="K77" s="65"/>
     </row>
-    <row r="78" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>707</v>
       </c>
       <c r="B78" s="45" t="s">
         <v>498</v>
       </c>
-      <c r="E78" s="91"/>
+      <c r="E78" s="90"/>
       <c r="F78" s="45">
         <v>2021</v>
       </c>
@@ -9427,14 +9427,14 @@
       </c>
       <c r="K78" s="65"/>
     </row>
-    <row r="79" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>707</v>
       </c>
       <c r="B79" s="45" t="s">
         <v>500</v>
       </c>
-      <c r="E79" s="91"/>
+      <c r="E79" s="90"/>
       <c r="F79" s="45">
         <v>2021</v>
       </c>
@@ -9452,14 +9452,14 @@
       </c>
       <c r="K79" s="65"/>
     </row>
-    <row r="80" spans="1:11" s="45" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" s="45" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>707</v>
       </c>
       <c r="B80" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="E80" s="91" t="s">
+      <c r="E80" s="90" t="s">
         <v>501</v>
       </c>
       <c r="F80" s="45">
@@ -9481,14 +9481,14 @@
         <v>791</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="45" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" s="45" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>707</v>
       </c>
       <c r="B81" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="E81" s="91" t="s">
+      <c r="E81" s="90" t="s">
         <v>501</v>
       </c>
       <c r="F81" s="45">
@@ -9510,14 +9510,14 @@
         <v>791</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>707</v>
       </c>
       <c r="B82" s="45" t="s">
         <v>503</v>
       </c>
-      <c r="E82" s="91"/>
+      <c r="E82" s="90"/>
       <c r="F82" s="45">
         <v>2021</v>
       </c>
@@ -9533,22 +9533,22 @@
       <c r="J82" s="65"/>
       <c r="K82" s="65"/>
     </row>
-    <row r="83" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>542</v>
       </c>
-      <c r="B83" s="89" t="s">
+      <c r="B83" s="88" t="s">
         <v>478</v>
       </c>
-      <c r="C83" s="89" t="s">
+      <c r="C83" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="D83" s="89"/>
-      <c r="E83" s="90"/>
-      <c r="F83" s="89">
+      <c r="D83" s="88"/>
+      <c r="E83" s="89"/>
+      <c r="F83" s="88">
         <v>2010</v>
       </c>
-      <c r="G83" s="89" t="s">
+      <c r="G83" s="88" t="s">
         <v>504</v>
       </c>
       <c r="H83" s="4" t="s">
@@ -9559,7 +9559,7 @@
       </c>
       <c r="J83" s="70"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>542</v>
       </c>
@@ -9570,7 +9570,7 @@
         <v>56</v>
       </c>
       <c r="D84" s="66"/>
-      <c r="E84" s="88"/>
+      <c r="E84" s="87"/>
       <c r="F84" s="66">
         <v>2010</v>
       </c>
@@ -9585,7 +9585,7 @@
       </c>
       <c r="K84"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>542</v>
       </c>
@@ -9596,7 +9596,7 @@
         <v>122</v>
       </c>
       <c r="D85" s="66"/>
-      <c r="E85" s="88"/>
+      <c r="E85" s="87"/>
       <c r="F85" s="66">
         <v>2010</v>
       </c>
@@ -9611,7 +9611,7 @@
       </c>
       <c r="K85"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>542</v>
       </c>
@@ -9622,7 +9622,7 @@
         <v>122</v>
       </c>
       <c r="D86" s="66"/>
-      <c r="E86" s="88"/>
+      <c r="E86" s="87"/>
       <c r="F86" s="66">
         <v>2010</v>
       </c>
@@ -9637,7 +9637,7 @@
       </c>
       <c r="K86"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>542</v>
       </c>
@@ -9648,7 +9648,7 @@
         <v>56</v>
       </c>
       <c r="D87" s="66"/>
-      <c r="E87" s="88"/>
+      <c r="E87" s="87"/>
       <c r="F87" s="66">
         <v>2010</v>
       </c>
@@ -9663,7 +9663,7 @@
       </c>
       <c r="K87"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>542</v>
       </c>
@@ -9674,7 +9674,7 @@
         <v>122</v>
       </c>
       <c r="D88" s="66"/>
-      <c r="E88" s="88"/>
+      <c r="E88" s="87"/>
       <c r="F88" s="66">
         <v>2010</v>
       </c>
@@ -9689,7 +9689,7 @@
       </c>
       <c r="K88"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>542</v>
       </c>
@@ -9700,7 +9700,7 @@
         <v>56</v>
       </c>
       <c r="D89" s="66"/>
-      <c r="E89" s="88"/>
+      <c r="E89" s="87"/>
       <c r="F89" s="66">
         <v>2010</v>
       </c>
@@ -9715,7 +9715,7 @@
       </c>
       <c r="K89"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>542</v>
       </c>
@@ -9726,7 +9726,7 @@
         <v>122</v>
       </c>
       <c r="D90" s="66"/>
-      <c r="E90" s="88"/>
+      <c r="E90" s="87"/>
       <c r="F90" s="66">
         <v>2010</v>
       </c>
@@ -9741,7 +9741,7 @@
       </c>
       <c r="K90"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>542</v>
       </c>
@@ -9752,7 +9752,7 @@
         <v>56</v>
       </c>
       <c r="D91" s="66"/>
-      <c r="E91" s="88"/>
+      <c r="E91" s="87"/>
       <c r="F91" s="66">
         <v>2010</v>
       </c>
@@ -9767,7 +9767,7 @@
       </c>
       <c r="K91"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>542</v>
       </c>
@@ -9778,7 +9778,7 @@
         <v>122</v>
       </c>
       <c r="D92" s="66"/>
-      <c r="E92" s="88"/>
+      <c r="E92" s="87"/>
       <c r="F92" s="66">
         <v>2010</v>
       </c>
@@ -9793,7 +9793,7 @@
       </c>
       <c r="K92"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>542</v>
       </c>
@@ -9804,7 +9804,7 @@
         <v>56</v>
       </c>
       <c r="D93" s="66"/>
-      <c r="E93" s="88"/>
+      <c r="E93" s="87"/>
       <c r="F93" s="66">
         <v>2010</v>
       </c>
@@ -9819,7 +9819,7 @@
       </c>
       <c r="K93"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>542</v>
       </c>
@@ -9830,7 +9830,7 @@
         <v>122</v>
       </c>
       <c r="D94" s="66"/>
-      <c r="E94" s="88"/>
+      <c r="E94" s="87"/>
       <c r="F94" s="66">
         <v>2010</v>
       </c>
@@ -9845,7 +9845,7 @@
       </c>
       <c r="K94"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>542</v>
       </c>
@@ -9856,7 +9856,7 @@
         <v>56</v>
       </c>
       <c r="D95" s="66"/>
-      <c r="E95" s="88"/>
+      <c r="E95" s="87"/>
       <c r="F95" s="66">
         <v>2010</v>
       </c>
@@ -9871,7 +9871,7 @@
       </c>
       <c r="K95"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>542</v>
       </c>
@@ -9882,7 +9882,7 @@
         <v>122</v>
       </c>
       <c r="D96" s="66"/>
-      <c r="E96" s="88"/>
+      <c r="E96" s="87"/>
       <c r="F96" s="66">
         <v>2010</v>
       </c>
@@ -9897,7 +9897,7 @@
       </c>
       <c r="K96"/>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>542</v>
       </c>
@@ -9908,7 +9908,7 @@
         <v>56</v>
       </c>
       <c r="D97" s="66"/>
-      <c r="E97" s="88"/>
+      <c r="E97" s="87"/>
       <c r="F97" s="66">
         <v>2010</v>
       </c>
@@ -9923,7 +9923,7 @@
       </c>
       <c r="K97"/>
     </row>
-    <row r="98" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>542</v>
       </c>
@@ -9934,7 +9934,7 @@
         <v>152</v>
       </c>
       <c r="D98" s="66"/>
-      <c r="E98" s="88"/>
+      <c r="E98" s="87"/>
       <c r="F98" s="66">
         <v>2010</v>
       </c>
@@ -9947,17 +9947,17 @@
       <c r="I98" s="40" t="s">
         <v>507</v>
       </c>
-      <c r="J98" s="73" t="s">
+      <c r="J98" s="65" t="s">
         <v>508</v>
       </c>
       <c r="K98" t="s">
-        <v>509</v>
+        <v>795</v>
       </c>
       <c r="L98" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>542</v>
       </c>
@@ -9968,7 +9968,7 @@
         <v>56</v>
       </c>
       <c r="D99" s="66"/>
-      <c r="E99" s="88"/>
+      <c r="E99" s="87"/>
       <c r="F99" s="66">
         <v>2010</v>
       </c>
@@ -9981,7 +9981,7 @@
       <c r="I99" s="40" t="s">
         <v>507</v>
       </c>
-      <c r="J99" s="73" t="s">
+      <c r="J99" s="65" t="s">
         <v>508</v>
       </c>
       <c r="K99" t="s">
@@ -9991,7 +9991,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>542</v>
       </c>
@@ -10002,7 +10002,7 @@
         <v>152</v>
       </c>
       <c r="D100" s="66"/>
-      <c r="E100" s="88"/>
+      <c r="E100" s="87"/>
       <c r="F100" s="66">
         <v>2010</v>
       </c>
@@ -10015,7 +10015,7 @@
       <c r="I100" s="40" t="s">
         <v>507</v>
       </c>
-      <c r="J100" s="73" t="s">
+      <c r="J100" s="65" t="s">
         <v>511</v>
       </c>
       <c r="K100" t="s">
@@ -10025,7 +10025,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>542</v>
       </c>
@@ -10036,7 +10036,7 @@
         <v>56</v>
       </c>
       <c r="D101" s="66"/>
-      <c r="E101" s="88"/>
+      <c r="E101" s="87"/>
       <c r="F101" s="66">
         <v>2010</v>
       </c>
@@ -10049,7 +10049,7 @@
       <c r="I101" s="40" t="s">
         <v>507</v>
       </c>
-      <c r="J101" s="73" t="s">
+      <c r="J101" s="65" t="s">
         <v>511</v>
       </c>
       <c r="K101" t="s">
@@ -10059,7 +10059,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>542</v>
       </c>
@@ -10070,7 +10070,7 @@
         <v>152</v>
       </c>
       <c r="D102" s="66"/>
-      <c r="E102" s="88"/>
+      <c r="E102" s="87"/>
       <c r="F102" s="66">
         <v>2010</v>
       </c>
@@ -10083,7 +10083,7 @@
       <c r="I102" s="40" t="s">
         <v>507</v>
       </c>
-      <c r="J102" s="73" t="s">
+      <c r="J102" s="65" t="s">
         <v>513</v>
       </c>
       <c r="K102" t="s">
@@ -10093,7 +10093,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>542</v>
       </c>
@@ -10104,7 +10104,7 @@
         <v>56</v>
       </c>
       <c r="D103" s="66"/>
-      <c r="E103" s="88"/>
+      <c r="E103" s="87"/>
       <c r="F103" s="66">
         <v>2010</v>
       </c>
@@ -10117,7 +10117,7 @@
       <c r="I103" s="40" t="s">
         <v>507</v>
       </c>
-      <c r="J103" s="73" t="s">
+      <c r="J103" s="65" t="s">
         <v>513</v>
       </c>
       <c r="K103" t="s">
@@ -10127,7 +10127,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>542</v>
       </c>
@@ -10138,7 +10138,7 @@
         <v>122</v>
       </c>
       <c r="D104" s="66"/>
-      <c r="E104" s="88"/>
+      <c r="E104" s="87"/>
       <c r="F104" s="66">
         <v>2010</v>
       </c>
@@ -10153,7 +10153,7 @@
       </c>
       <c r="K104"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>542</v>
       </c>
@@ -10164,7 +10164,7 @@
         <v>122</v>
       </c>
       <c r="D105" s="66"/>
-      <c r="E105" s="88"/>
+      <c r="E105" s="87"/>
       <c r="F105" s="66">
         <v>2010</v>
       </c>
@@ -10179,7 +10179,7 @@
       </c>
       <c r="K105"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>542</v>
       </c>
@@ -10190,7 +10190,7 @@
         <v>56</v>
       </c>
       <c r="D106" s="66"/>
-      <c r="E106" s="88"/>
+      <c r="E106" s="87"/>
       <c r="F106" s="66">
         <v>2010</v>
       </c>
@@ -10205,7 +10205,7 @@
       </c>
       <c r="K106"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>542</v>
       </c>
@@ -10216,7 +10216,7 @@
         <v>152</v>
       </c>
       <c r="D107" s="66"/>
-      <c r="E107" s="88"/>
+      <c r="E107" s="87"/>
       <c r="F107" s="66">
         <v>2010</v>
       </c>
@@ -10231,7 +10231,7 @@
       </c>
       <c r="K107"/>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>542</v>
       </c>
@@ -10242,7 +10242,7 @@
         <v>56</v>
       </c>
       <c r="D108" s="66"/>
-      <c r="E108" s="88"/>
+      <c r="E108" s="87"/>
       <c r="F108" s="66">
         <v>2010</v>
       </c>
@@ -10257,7 +10257,7 @@
       </c>
       <c r="K108"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>542</v>
       </c>
@@ -10268,7 +10268,7 @@
         <v>122</v>
       </c>
       <c r="D109" s="66"/>
-      <c r="E109" s="88"/>
+      <c r="E109" s="87"/>
       <c r="F109" s="66">
         <v>2010</v>
       </c>
@@ -10286,7 +10286,7 @@
       </c>
       <c r="K109"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>542</v>
       </c>
@@ -10297,7 +10297,7 @@
         <v>109</v>
       </c>
       <c r="D110" s="66"/>
-      <c r="E110" s="88"/>
+      <c r="E110" s="87"/>
       <c r="F110" s="66">
         <v>2010</v>
       </c>
@@ -10312,7 +10312,7 @@
       </c>
       <c r="K110"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>542</v>
       </c>
@@ -10323,7 +10323,7 @@
         <v>109</v>
       </c>
       <c r="D111" s="66"/>
-      <c r="E111" s="88"/>
+      <c r="E111" s="87"/>
       <c r="F111" s="66">
         <v>2010</v>
       </c>
@@ -10338,7 +10338,7 @@
       </c>
       <c r="K111"/>
     </row>
-    <row r="112" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>542</v>
       </c>
@@ -10349,7 +10349,7 @@
         <v>109</v>
       </c>
       <c r="D112" s="66"/>
-      <c r="E112" s="88"/>
+      <c r="E112" s="87"/>
       <c r="F112" s="66">
         <v>2010</v>
       </c>
@@ -10369,7 +10369,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>542</v>
       </c>
@@ -10380,7 +10380,7 @@
         <v>56</v>
       </c>
       <c r="D113" s="66"/>
-      <c r="E113" s="88"/>
+      <c r="E113" s="87"/>
       <c r="F113" s="66">
         <v>2010</v>
       </c>
@@ -10397,7 +10397,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>542</v>
       </c>
@@ -10408,7 +10408,7 @@
         <v>109</v>
       </c>
       <c r="D114" s="66"/>
-      <c r="E114" s="88"/>
+      <c r="E114" s="87"/>
       <c r="F114" s="66">
         <v>2010</v>
       </c>
@@ -10425,7 +10425,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>542</v>
       </c>
@@ -10436,7 +10436,7 @@
         <v>56</v>
       </c>
       <c r="D115" s="66"/>
-      <c r="E115" s="88"/>
+      <c r="E115" s="87"/>
       <c r="F115" s="66">
         <v>2010</v>
       </c>
@@ -10453,7 +10453,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>542</v>
       </c>
@@ -10464,7 +10464,7 @@
         <v>109</v>
       </c>
       <c r="D116" s="66"/>
-      <c r="E116" s="88"/>
+      <c r="E116" s="87"/>
       <c r="F116" s="66">
         <v>2010</v>
       </c>
@@ -10479,7 +10479,7 @@
       </c>
       <c r="K116"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>542</v>
       </c>
@@ -10490,7 +10490,7 @@
         <v>56</v>
       </c>
       <c r="D117" s="66"/>
-      <c r="E117" s="88"/>
+      <c r="E117" s="87"/>
       <c r="F117" s="66">
         <v>2010</v>
       </c>
@@ -10528,20 +10528,20 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>578</v>
       </c>
@@ -10570,7 +10570,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>712</v>
       </c>
@@ -10584,7 +10584,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>712</v>
       </c>
@@ -10598,7 +10598,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>712</v>
       </c>
@@ -10612,7 +10612,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>712</v>
       </c>
@@ -10626,7 +10626,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>712</v>
       </c>
@@ -10640,7 +10640,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>712</v>
       </c>
@@ -10657,7 +10657,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>712</v>
       </c>
@@ -10692,22 +10692,22 @@
       <selection activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
-    <col min="9" max="10" width="15.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="51.6640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="51.6640625" style="29" customWidth="1"/>
-    <col min="13" max="16" width="8.6640625" style="2"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="10" width="15.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="51.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="51.7109375" style="29" customWidth="1"/>
+    <col min="13" max="16" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>578</v>
       </c>
@@ -10738,10 +10738,10 @@
       <c r="J1" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="K1" s="87" t="s">
+      <c r="K1" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="L1" s="84" t="s">
+      <c r="L1" s="83" t="s">
         <v>100</v>
       </c>
       <c r="M1" s="18" t="s">
@@ -10751,7 +10751,7 @@
       <c r="O1" s="12"/>
       <c r="P1" s="12"/>
     </row>
-    <row r="2" spans="1:16" s="4" customFormat="1" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" s="4" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>541</v>
       </c>
@@ -10780,8 +10780,8 @@
       <c r="J2" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="K2" s="117"/>
-      <c r="L2" s="113"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="119"/>
       <c r="M2" s="19" t="s">
         <v>108</v>
       </c>
@@ -10789,7 +10789,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>541</v>
       </c>
@@ -10818,13 +10818,13 @@
       <c r="J3" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="K3" s="115"/>
-      <c r="L3" s="114"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="110"/>
       <c r="M3" s="20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>541</v>
       </c>
@@ -10853,13 +10853,13 @@
       <c r="J4" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="K4" s="115"/>
-      <c r="L4" s="114"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="110"/>
       <c r="M4" s="20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>541</v>
       </c>
@@ -10885,13 +10885,13 @@
       <c r="J5" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="K5" s="115"/>
-      <c r="L5" s="114"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="110"/>
       <c r="M5" s="20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>541</v>
       </c>
@@ -10920,15 +10920,15 @@
       <c r="J6" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="K6" s="115" t="s">
+      <c r="K6" s="127" t="s">
         <v>117</v>
       </c>
-      <c r="L6" s="111"/>
+      <c r="L6" s="125"/>
       <c r="M6" s="20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>541</v>
       </c>
@@ -10957,13 +10957,13 @@
       <c r="J7" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="K7" s="115"/>
-      <c r="L7" s="111"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="125"/>
       <c r="M7" s="20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>541</v>
       </c>
@@ -10989,8 +10989,8 @@
       <c r="J8" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="K8" s="116"/>
-      <c r="L8" s="112"/>
+      <c r="K8" s="128"/>
+      <c r="L8" s="126"/>
       <c r="M8" s="20" t="s">
         <v>108</v>
       </c>
@@ -10998,7 +10998,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>541</v>
       </c>
@@ -11027,17 +11027,17 @@
       <c r="J9" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="K9" s="124" t="s">
+      <c r="K9" s="135" t="s">
         <v>125</v>
       </c>
-      <c r="L9" s="114" t="s">
+      <c r="L9" s="110" t="s">
         <v>126</v>
       </c>
       <c r="M9" s="19" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>541</v>
       </c>
@@ -11066,13 +11066,13 @@
       <c r="J10" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="K10" s="124"/>
-      <c r="L10" s="114"/>
+      <c r="K10" s="135"/>
+      <c r="L10" s="110"/>
       <c r="M10" s="20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>541</v>
       </c>
@@ -11101,13 +11101,13 @@
       <c r="J11" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="K11" s="124"/>
-      <c r="L11" s="114"/>
+      <c r="K11" s="135"/>
+      <c r="L11" s="110"/>
       <c r="M11" s="21" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>541</v>
       </c>
@@ -11133,17 +11133,17 @@
       <c r="J12" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="K12" s="87" t="s">
+      <c r="K12" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="L12" s="79" t="s">
+      <c r="L12" s="78" t="s">
         <v>133</v>
       </c>
       <c r="M12" s="21" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>541</v>
       </c>
@@ -11181,7 +11181,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>541</v>
       </c>
@@ -11210,17 +11210,17 @@
       <c r="J14" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="K14" s="83" t="s">
+      <c r="K14" s="82" t="s">
         <v>139</v>
       </c>
-      <c r="L14" s="79" t="s">
+      <c r="L14" s="78" t="s">
         <v>140</v>
       </c>
       <c r="M14" s="19" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>541</v>
       </c>
@@ -11249,13 +11249,13 @@
       <c r="J15" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="K15" s="83"/>
-      <c r="L15" s="79"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="78"/>
       <c r="M15" s="19" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>541</v>
       </c>
@@ -11287,7 +11287,7 @@
       <c r="K16" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="L16" s="81" t="s">
+      <c r="L16" s="80" t="s">
         <v>148</v>
       </c>
       <c r="M16" s="19" t="s">
@@ -11297,7 +11297,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:16" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>541</v>
       </c>
@@ -11326,7 +11326,7 @@
       <c r="J17" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="K17" s="83" t="s">
+      <c r="K17" s="82" t="s">
         <v>150</v>
       </c>
       <c r="L17" s="42" t="s">
@@ -11336,7 +11336,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>541</v>
       </c>
@@ -11366,12 +11366,12 @@
         <v>108</v>
       </c>
       <c r="K18" s="121"/>
-      <c r="L18" s="79"/>
+      <c r="L18" s="78"/>
       <c r="M18" s="10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>541</v>
       </c>
@@ -11400,8 +11400,8 @@
       <c r="J19" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="K19" s="122"/>
-      <c r="L19" s="82"/>
+      <c r="K19" s="133"/>
+      <c r="L19" s="81"/>
       <c r="M19" s="31" t="s">
         <v>108</v>
       </c>
@@ -11409,7 +11409,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>541</v>
       </c>
@@ -11441,14 +11441,14 @@
       <c r="K20" s="121" t="s">
         <v>156</v>
       </c>
-      <c r="L20" s="114" t="s">
+      <c r="L20" s="110" t="s">
         <v>157</v>
       </c>
       <c r="M20" s="10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>541</v>
       </c>
@@ -11478,12 +11478,12 @@
         <v>108</v>
       </c>
       <c r="K21" s="121"/>
-      <c r="L21" s="114"/>
+      <c r="L21" s="110"/>
       <c r="M21" s="10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>541</v>
       </c>
@@ -11510,12 +11510,12 @@
         <v>108</v>
       </c>
       <c r="K22" s="121"/>
-      <c r="L22" s="114"/>
+      <c r="L22" s="110"/>
       <c r="M22" s="10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>541</v>
       </c>
@@ -11545,12 +11545,12 @@
         <v>108</v>
       </c>
       <c r="K23" s="121"/>
-      <c r="L23" s="114"/>
+      <c r="L23" s="110"/>
       <c r="M23" s="10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>541</v>
       </c>
@@ -11580,12 +11580,12 @@
         <v>108</v>
       </c>
       <c r="K24" s="121"/>
-      <c r="L24" s="114"/>
+      <c r="L24" s="110"/>
       <c r="M24" s="10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>541</v>
       </c>
@@ -11614,10 +11614,10 @@
       <c r="J25" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="K25" s="123" t="s">
+      <c r="K25" s="134" t="s">
         <v>162</v>
       </c>
-      <c r="L25" s="113" t="s">
+      <c r="L25" s="119" t="s">
         <v>163</v>
       </c>
       <c r="M25" s="15" t="s">
@@ -11627,7 +11627,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>541</v>
       </c>
@@ -11657,12 +11657,12 @@
         <v>108</v>
       </c>
       <c r="K26" s="121"/>
-      <c r="L26" s="114"/>
+      <c r="L26" s="110"/>
       <c r="M26" s="10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>541</v>
       </c>
@@ -11692,12 +11692,12 @@
         <v>108</v>
       </c>
       <c r="K27" s="121"/>
-      <c r="L27" s="114"/>
+      <c r="L27" s="110"/>
       <c r="M27" s="10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>541</v>
       </c>
@@ -11723,8 +11723,8 @@
       <c r="J28" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="K28" s="122"/>
-      <c r="L28" s="133"/>
+      <c r="K28" s="133"/>
+      <c r="L28" s="120"/>
       <c r="M28" s="11" t="s">
         <v>108</v>
       </c>
@@ -11732,7 +11732,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>541</v>
       </c>
@@ -11764,12 +11764,12 @@
       <c r="K29" s="121" t="s">
         <v>170</v>
       </c>
-      <c r="L29" s="79"/>
+      <c r="L29" s="78"/>
       <c r="M29" s="10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>541</v>
       </c>
@@ -11799,12 +11799,12 @@
         <v>108</v>
       </c>
       <c r="K30" s="121"/>
-      <c r="L30" s="79"/>
+      <c r="L30" s="78"/>
       <c r="M30" s="10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>541</v>
       </c>
@@ -11834,12 +11834,12 @@
         <v>108</v>
       </c>
       <c r="K31" s="121"/>
-      <c r="L31" s="79"/>
+      <c r="L31" s="78"/>
       <c r="M31" s="10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>541</v>
       </c>
@@ -11866,12 +11866,12 @@
         <v>108</v>
       </c>
       <c r="K32" s="121"/>
-      <c r="L32" s="79"/>
+      <c r="L32" s="78"/>
       <c r="M32" s="10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>541</v>
       </c>
@@ -11900,10 +11900,10 @@
       <c r="J33" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="K33" s="123" t="s">
+      <c r="K33" s="134" t="s">
         <v>139</v>
       </c>
-      <c r="L33" s="81" t="s">
+      <c r="L33" s="80" t="s">
         <v>140</v>
       </c>
       <c r="M33" s="15" t="s">
@@ -11913,7 +11913,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>541</v>
       </c>
@@ -11942,8 +11942,8 @@
       <c r="J34" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="K34" s="122"/>
-      <c r="L34" s="82"/>
+      <c r="K34" s="133"/>
+      <c r="L34" s="81"/>
       <c r="M34" s="11" t="s">
         <v>108</v>
       </c>
@@ -11951,7 +11951,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="1:16" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>541</v>
       </c>
@@ -11983,14 +11983,14 @@
       <c r="K35" s="121" t="s">
         <v>139</v>
       </c>
-      <c r="L35" s="79" t="s">
+      <c r="L35" s="78" t="s">
         <v>140</v>
       </c>
       <c r="M35" s="10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>541</v>
       </c>
@@ -12020,12 +12020,12 @@
         <v>108</v>
       </c>
       <c r="K36" s="121"/>
-      <c r="L36" s="79"/>
+      <c r="L36" s="78"/>
       <c r="M36" s="10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>541</v>
       </c>
@@ -12063,7 +12063,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
     </row>
-    <row r="38" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>541</v>
       </c>
@@ -12092,13 +12092,13 @@
       <c r="J38" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="K38" s="83"/>
-      <c r="L38" s="79"/>
+      <c r="K38" s="82"/>
+      <c r="L38" s="78"/>
       <c r="M38" s="10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>541</v>
       </c>
@@ -12127,10 +12127,10 @@
       <c r="J39" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="K39" s="86" t="s">
+      <c r="K39" s="85" t="s">
         <v>181</v>
       </c>
-      <c r="L39" s="113"/>
+      <c r="L39" s="119"/>
       <c r="M39" s="19" t="s">
         <v>108</v>
       </c>
@@ -12138,7 +12138,7 @@
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
     </row>
-    <row r="40" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>541</v>
       </c>
@@ -12168,12 +12168,12 @@
         <v>108</v>
       </c>
       <c r="K40" s="32"/>
-      <c r="L40" s="114"/>
+      <c r="L40" s="110"/>
       <c r="M40" s="20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>541</v>
       </c>
@@ -12202,10 +12202,10 @@
       <c r="J41" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="K41" s="83" t="s">
+      <c r="K41" s="82" t="s">
         <v>185</v>
       </c>
-      <c r="L41" s="82" t="s">
+      <c r="L41" s="81" t="s">
         <v>186</v>
       </c>
       <c r="M41" s="22" t="s">
@@ -12215,7 +12215,7 @@
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
     </row>
-    <row r="42" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>541</v>
       </c>
@@ -12247,14 +12247,14 @@
       <c r="K42" s="121" t="s">
         <v>188</v>
       </c>
-      <c r="L42" s="114" t="s">
+      <c r="L42" s="110" t="s">
         <v>189</v>
       </c>
       <c r="M42" s="19" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>541</v>
       </c>
@@ -12284,12 +12284,12 @@
         <v>108</v>
       </c>
       <c r="K43" s="121"/>
-      <c r="L43" s="114"/>
+      <c r="L43" s="110"/>
       <c r="M43" s="20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>541</v>
       </c>
@@ -12319,12 +12319,12 @@
         <v>108</v>
       </c>
       <c r="K44" s="121"/>
-      <c r="L44" s="114"/>
+      <c r="L44" s="110"/>
       <c r="M44" s="20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>541</v>
       </c>
@@ -12351,12 +12351,12 @@
         <v>108</v>
       </c>
       <c r="K45" s="121"/>
-      <c r="L45" s="114"/>
+      <c r="L45" s="110"/>
       <c r="M45" s="20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>541</v>
       </c>
@@ -12386,12 +12386,12 @@
         <v>108</v>
       </c>
       <c r="K46" s="121"/>
-      <c r="L46" s="114"/>
+      <c r="L46" s="110"/>
       <c r="M46" s="20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>541</v>
       </c>
@@ -12421,12 +12421,12 @@
         <v>108</v>
       </c>
       <c r="K47" s="121"/>
-      <c r="L47" s="114"/>
+      <c r="L47" s="110"/>
       <c r="M47" s="20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:16" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>541</v>
       </c>
@@ -12468,7 +12468,7 @@
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
     </row>
-    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>541</v>
       </c>
@@ -12497,13 +12497,13 @@
       <c r="J49" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="K49" s="83"/>
-      <c r="L49" s="79"/>
+      <c r="K49" s="82"/>
+      <c r="L49" s="78"/>
       <c r="M49" s="19" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="4" customFormat="1" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" s="4" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>541</v>
       </c>
@@ -12532,10 +12532,10 @@
       <c r="J50" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="K50" s="125" t="s">
+      <c r="K50" s="117" t="s">
         <v>201</v>
       </c>
-      <c r="L50" s="81"/>
+      <c r="L50" s="80"/>
       <c r="M50" s="23" t="s">
         <v>108</v>
       </c>
@@ -12543,7 +12543,7 @@
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
     </row>
-    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>541</v>
       </c>
@@ -12572,13 +12572,13 @@
       <c r="J51" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="K51" s="124"/>
-      <c r="L51" s="79"/>
+      <c r="K51" s="135"/>
+      <c r="L51" s="78"/>
       <c r="M51" s="23" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>541</v>
       </c>
@@ -12607,13 +12607,13 @@
       <c r="J52" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="K52" s="124"/>
-      <c r="L52" s="79"/>
+      <c r="K52" s="135"/>
+      <c r="L52" s="78"/>
       <c r="M52" s="23" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>541</v>
       </c>
@@ -12642,13 +12642,13 @@
       <c r="J53" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="K53" s="124"/>
-      <c r="L53" s="79"/>
+      <c r="K53" s="135"/>
+      <c r="L53" s="78"/>
       <c r="M53" s="23" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>541</v>
       </c>
@@ -12674,8 +12674,8 @@
       <c r="J54" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="K54" s="126"/>
-      <c r="L54" s="82"/>
+      <c r="K54" s="118"/>
+      <c r="L54" s="81"/>
       <c r="M54" s="23" t="s">
         <v>108</v>
       </c>
@@ -12683,7 +12683,7 @@
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
     </row>
-    <row r="55" spans="1:16" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>541</v>
       </c>
@@ -12712,7 +12712,7 @@
       <c r="J55" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="K55" s="87" t="s">
+      <c r="K55" s="86" t="s">
         <v>211</v>
       </c>
       <c r="L55" s="67" t="s">
@@ -12722,7 +12722,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>541</v>
       </c>
@@ -12761,7 +12761,7 @@
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
     </row>
-    <row r="57" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>541</v>
       </c>
@@ -12793,12 +12793,12 @@
       <c r="K57" s="121" t="s">
         <v>217</v>
       </c>
-      <c r="L57" s="79"/>
+      <c r="L57" s="78"/>
       <c r="M57" s="23" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>541</v>
       </c>
@@ -12828,12 +12828,12 @@
         <v>108</v>
       </c>
       <c r="K58" s="121"/>
-      <c r="L58" s="79"/>
+      <c r="L58" s="78"/>
       <c r="M58" s="21" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>541</v>
       </c>
@@ -12860,12 +12860,12 @@
         <v>108</v>
       </c>
       <c r="K59" s="121"/>
-      <c r="L59" s="79"/>
+      <c r="L59" s="78"/>
       <c r="M59" s="21" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>541</v>
       </c>
@@ -12894,10 +12894,10 @@
       <c r="J60" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="K60" s="113" t="s">
+      <c r="K60" s="119" t="s">
         <v>222</v>
       </c>
-      <c r="L60" s="81"/>
+      <c r="L60" s="80"/>
       <c r="M60" s="19" t="s">
         <v>108</v>
       </c>
@@ -12905,7 +12905,7 @@
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
     </row>
-    <row r="61" spans="1:16" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>541</v>
       </c>
@@ -12934,15 +12934,15 @@
       <c r="J61" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="K61" s="114"/>
-      <c r="L61" s="79" t="s">
+      <c r="K61" s="110"/>
+      <c r="L61" s="78" t="s">
         <v>224</v>
       </c>
       <c r="M61" s="20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="62" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>541</v>
       </c>
@@ -12971,15 +12971,15 @@
       <c r="J62" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="K62" s="114"/>
-      <c r="L62" s="79" t="s">
+      <c r="K62" s="110"/>
+      <c r="L62" s="78" t="s">
         <v>226</v>
       </c>
       <c r="M62" s="20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="63" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>541</v>
       </c>
@@ -13009,12 +13009,12 @@
         <v>108</v>
       </c>
       <c r="K63" s="121"/>
-      <c r="L63" s="79"/>
+      <c r="L63" s="78"/>
       <c r="M63" s="20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>541</v>
       </c>
@@ -13044,12 +13044,12 @@
         <v>108</v>
       </c>
       <c r="K64" s="121"/>
-      <c r="L64" s="79"/>
+      <c r="L64" s="78"/>
       <c r="M64" s="20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>541</v>
       </c>
@@ -13079,14 +13079,14 @@
         <v>108</v>
       </c>
       <c r="K65" s="121"/>
-      <c r="L65" s="79" t="s">
+      <c r="L65" s="78" t="s">
         <v>226</v>
       </c>
       <c r="M65" s="20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="66" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>541</v>
       </c>
@@ -13122,7 +13122,7 @@
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
     </row>
-    <row r="67" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>541</v>
       </c>
@@ -13152,12 +13152,12 @@
         <v>108</v>
       </c>
       <c r="K67" s="38"/>
-      <c r="L67" s="85"/>
+      <c r="L67" s="84"/>
       <c r="M67" s="20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="68" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>541</v>
       </c>
@@ -13187,7 +13187,7 @@
         <v>108</v>
       </c>
       <c r="K68" s="26"/>
-      <c r="L68" s="82"/>
+      <c r="L68" s="81"/>
       <c r="M68" s="23" t="s">
         <v>108</v>
       </c>
@@ -13195,7 +13195,7 @@
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
     </row>
-    <row r="69" spans="1:16" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>541</v>
       </c>
@@ -13227,14 +13227,14 @@
       <c r="K69" s="121" t="s">
         <v>139</v>
       </c>
-      <c r="L69" s="79" t="s">
+      <c r="L69" s="78" t="s">
         <v>140</v>
       </c>
       <c r="M69" s="23" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="70" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>541</v>
       </c>
@@ -13264,12 +13264,12 @@
         <v>108</v>
       </c>
       <c r="K70" s="121"/>
-      <c r="L70" s="79"/>
+      <c r="L70" s="78"/>
       <c r="M70" s="21" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="71" spans="1:16" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>541</v>
       </c>
@@ -13295,10 +13295,10 @@
       <c r="J71" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="K71" s="86" t="s">
+      <c r="K71" s="85" t="s">
         <v>235</v>
       </c>
-      <c r="L71" s="81" t="s">
+      <c r="L71" s="80" t="s">
         <v>236</v>
       </c>
       <c r="M71" s="19" t="s">
@@ -13308,7 +13308,7 @@
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
     </row>
-    <row r="72" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>541</v>
       </c>
@@ -13338,12 +13338,12 @@
         <v>108</v>
       </c>
       <c r="K72" s="121"/>
-      <c r="L72" s="79"/>
+      <c r="L72" s="78"/>
       <c r="M72" s="21" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="73" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>541</v>
       </c>
@@ -13370,12 +13370,12 @@
         <v>108</v>
       </c>
       <c r="K73" s="121"/>
-      <c r="L73" s="79"/>
+      <c r="L73" s="78"/>
       <c r="M73" s="21" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="74" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>541</v>
       </c>
@@ -13402,12 +13402,12 @@
         <v>108</v>
       </c>
       <c r="K74" s="121"/>
-      <c r="L74" s="79"/>
+      <c r="L74" s="78"/>
       <c r="M74" s="21" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="75" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>541</v>
       </c>
@@ -13430,8 +13430,8 @@
       <c r="J75" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="K75" s="122"/>
-      <c r="L75" s="82"/>
+      <c r="K75" s="133"/>
+      <c r="L75" s="81"/>
       <c r="M75" s="21" t="s">
         <v>108</v>
       </c>
@@ -13439,7 +13439,7 @@
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
     </row>
-    <row r="76" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>541</v>
       </c>
@@ -13468,13 +13468,13 @@
       <c r="J76" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="K76" s="83"/>
-      <c r="L76" s="79"/>
+      <c r="K76" s="82"/>
+      <c r="L76" s="78"/>
       <c r="M76" s="23" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="77" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>541</v>
       </c>
@@ -13499,16 +13499,16 @@
       <c r="H77" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="I77" s="95" t="s">
+      <c r="I77" s="94" t="s">
         <v>641</v>
       </c>
       <c r="J77" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="K77" s="125" t="s">
+      <c r="K77" s="117" t="s">
         <v>244</v>
       </c>
-      <c r="L77" s="134" t="s">
+      <c r="L77" s="122" t="s">
         <v>245</v>
       </c>
       <c r="M77" s="19" t="s">
@@ -13518,7 +13518,7 @@
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
     </row>
-    <row r="78" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>541</v>
       </c>
@@ -13543,14 +13543,14 @@
       <c r="H78" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I78" s="95" t="s">
+      <c r="I78" s="94" t="s">
         <v>641</v>
       </c>
       <c r="J78" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="K78" s="126"/>
-      <c r="L78" s="135"/>
+      <c r="K78" s="118"/>
+      <c r="L78" s="123"/>
       <c r="M78" s="44" t="s">
         <v>108</v>
       </c>
@@ -13558,7 +13558,7 @@
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
     </row>
-    <row r="79" spans="1:16" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>541</v>
       </c>
@@ -13587,15 +13587,15 @@
       <c r="J79" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="K79" s="79" t="s">
+      <c r="K79" s="78" t="s">
         <v>247</v>
       </c>
-      <c r="L79" s="135"/>
+      <c r="L79" s="123"/>
       <c r="M79" s="44" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="80" spans="1:16" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>541</v>
       </c>
@@ -13618,16 +13618,16 @@
       <c r="H80" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I80" s="95" t="s">
+      <c r="I80" s="94" t="s">
         <v>641</v>
       </c>
       <c r="J80" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="K80" s="79" t="s">
+      <c r="K80" s="78" t="s">
         <v>247</v>
       </c>
-      <c r="L80" s="136"/>
+      <c r="L80" s="124"/>
       <c r="M80" s="20" t="s">
         <v>108</v>
       </c>
@@ -13635,7 +13635,7 @@
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
     </row>
-    <row r="81" spans="1:16" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>541</v>
       </c>
@@ -13667,14 +13667,14 @@
       <c r="K81" s="121" t="s">
         <v>139</v>
       </c>
-      <c r="L81" s="79" t="s">
+      <c r="L81" s="78" t="s">
         <v>140</v>
       </c>
       <c r="M81" s="23" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="82" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>541</v>
       </c>
@@ -13704,12 +13704,12 @@
         <v>108</v>
       </c>
       <c r="K82" s="121"/>
-      <c r="L82" s="79"/>
+      <c r="L82" s="78"/>
       <c r="M82" s="21" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="83" spans="1:16" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>541</v>
       </c>
@@ -13751,7 +13751,7 @@
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
     </row>
-    <row r="84" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>541</v>
       </c>
@@ -13779,17 +13779,17 @@
       <c r="J84" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="K84" s="83" t="s">
+      <c r="K84" s="82" t="s">
         <v>256</v>
       </c>
-      <c r="L84" s="79" t="s">
+      <c r="L84" s="78" t="s">
         <v>257</v>
       </c>
       <c r="M84" s="19" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="85" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>541</v>
       </c>
@@ -13825,7 +13825,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="86" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>541</v>
       </c>
@@ -13859,7 +13859,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="87" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>541</v>
       </c>
@@ -13893,7 +13893,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="88" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>541</v>
       </c>
@@ -13924,7 +13924,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="89" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>541</v>
       </c>
@@ -13958,7 +13958,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="90" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>541</v>
       </c>
@@ -13992,7 +13992,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="91" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>541</v>
       </c>
@@ -14021,10 +14021,10 @@
       <c r="J91" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="K91" s="127" t="s">
+      <c r="K91" s="111" t="s">
         <v>264</v>
       </c>
-      <c r="L91" s="118" t="s">
+      <c r="L91" s="130" t="s">
         <v>265</v>
       </c>
       <c r="M91" s="23" t="s">
@@ -14034,7 +14034,7 @@
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
     </row>
-    <row r="92" spans="1:16" s="2" customFormat="1" ht="72.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" s="2" customFormat="1" ht="72.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>541</v>
       </c>
@@ -14063,13 +14063,13 @@
       <c r="J92" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="K92" s="128"/>
-      <c r="L92" s="119"/>
+      <c r="K92" s="112"/>
+      <c r="L92" s="131"/>
       <c r="M92" s="21" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="93" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>541</v>
       </c>
@@ -14098,13 +14098,13 @@
       <c r="J93" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="K93" s="128"/>
-      <c r="L93" s="119"/>
+      <c r="K93" s="112"/>
+      <c r="L93" s="131"/>
       <c r="M93" s="21" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="94" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>541</v>
       </c>
@@ -14130,8 +14130,8 @@
       <c r="J94" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="K94" s="129"/>
-      <c r="L94" s="120"/>
+      <c r="K94" s="113"/>
+      <c r="L94" s="132"/>
       <c r="M94" s="21" t="s">
         <v>108</v>
       </c>
@@ -14139,7 +14139,7 @@
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
     </row>
-    <row r="95" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>541</v>
       </c>
@@ -14167,13 +14167,13 @@
       <c r="J95" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="K95" s="130"/>
+      <c r="K95" s="114"/>
       <c r="L95" s="28"/>
       <c r="M95" s="23" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="96" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>541</v>
       </c>
@@ -14201,13 +14201,13 @@
       <c r="J96" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="K96" s="131"/>
+      <c r="K96" s="115"/>
       <c r="L96" s="28"/>
       <c r="M96" s="23" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="97" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>541</v>
       </c>
@@ -14235,13 +14235,13 @@
       <c r="J97" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="K97" s="131"/>
+      <c r="K97" s="115"/>
       <c r="L97" s="28"/>
       <c r="M97" s="23" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="98" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>541</v>
       </c>
@@ -14269,13 +14269,13 @@
       <c r="J98" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="K98" s="131"/>
+      <c r="K98" s="115"/>
       <c r="L98" s="28"/>
       <c r="M98" s="23" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="99" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>541</v>
       </c>
@@ -14302,8 +14302,8 @@
       <c r="J99" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="K99" s="132"/>
-      <c r="L99" s="80"/>
+      <c r="K99" s="116"/>
+      <c r="L99" s="79"/>
       <c r="M99" s="30" t="s">
         <v>108</v>
       </c>
@@ -14311,7 +14311,7 @@
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -14323,20 +14323,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="L20:L24"/>
-    <mergeCell ref="K91:K94"/>
-    <mergeCell ref="K95:K99"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="L25:L28"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="L42:L47"/>
-    <mergeCell ref="K60:K62"/>
-    <mergeCell ref="K63:K66"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="K85:K90"/>
-    <mergeCell ref="L77:L80"/>
     <mergeCell ref="L6:L8"/>
     <mergeCell ref="L2:L5"/>
     <mergeCell ref="K6:K8"/>
@@ -14353,6 +14339,20 @@
     <mergeCell ref="K42:K47"/>
     <mergeCell ref="K50:K54"/>
     <mergeCell ref="K57:K59"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="L20:L24"/>
+    <mergeCell ref="K91:K94"/>
+    <mergeCell ref="K95:K99"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="L25:L28"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="L42:L47"/>
+    <mergeCell ref="K60:K62"/>
+    <mergeCell ref="K63:K66"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="K85:K90"/>
+    <mergeCell ref="L77:L80"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="M7:M8 M3:M5 L40 L91 M86:M94 M78:M80 J55:K55 J77:M77 M55 J78:K80 I1:M2 B1:H37 I6:M6 I3:J5 I9:M37 I39:L39 I40:J40 I95:M99 I91:K94 I7:J8 I41:M54 I81:M90 I56:M76 B39:H99">
@@ -14384,20 +14384,20 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="99.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="138.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="99.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="138.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="117.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="117.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>91</v>
       </c>
@@ -14429,7 +14429,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>327</v>
       </c>
@@ -14461,7 +14461,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>277</v>
       </c>
@@ -14490,7 +14490,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>292</v>
       </c>
@@ -14519,7 +14519,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>271</v>
       </c>
@@ -14551,7 +14551,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>271</v>
       </c>
@@ -14583,7 +14583,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>284</v>
       </c>
@@ -14615,7 +14615,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>294</v>
       </c>
@@ -14647,7 +14647,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>271</v>
       </c>
@@ -14679,7 +14679,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>277</v>
       </c>
@@ -14711,7 +14711,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>280</v>
       </c>
@@ -14743,7 +14743,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>284</v>
       </c>
@@ -14775,7 +14775,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>286</v>
       </c>
@@ -14807,7 +14807,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>288</v>
       </c>
@@ -14839,7 +14839,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>294</v>
       </c>
@@ -14871,7 +14871,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>646</v>
       </c>
@@ -14900,7 +14900,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>168</v>
       </c>
@@ -14929,7 +14929,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>746</v>
       </c>
@@ -14958,7 +14958,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>327</v>
       </c>
@@ -14987,7 +14987,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -15016,7 +15016,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>286</v>
       </c>
@@ -15045,7 +15045,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>294</v>
       </c>
@@ -15074,7 +15074,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>646</v>
       </c>
@@ -15103,7 +15103,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>327</v>
       </c>
@@ -15132,7 +15132,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>646</v>
       </c>
@@ -15157,14 +15157,14 @@
       <c r="H25">
         <v>2010</v>
       </c>
-      <c r="I25" s="104" t="s">
+      <c r="I25" s="103" t="s">
         <v>755</v>
       </c>
-      <c r="J25" s="105" t="s">
+      <c r="J25" s="104" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>280</v>
       </c>
@@ -15193,7 +15193,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>292</v>
       </c>
@@ -15222,7 +15222,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>168</v>
       </c>
@@ -15251,7 +15251,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>746</v>
       </c>
@@ -15280,7 +15280,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>327</v>
       </c>
@@ -15309,7 +15309,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -15338,7 +15338,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -15367,7 +15367,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>56</v>
       </c>
@@ -15396,7 +15396,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -15425,7 +15425,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>56</v>
       </c>
@@ -15454,7 +15454,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -15483,7 +15483,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -15512,7 +15512,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -15544,7 +15544,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -15576,7 +15576,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>56</v>
       </c>
@@ -15608,7 +15608,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -15640,7 +15640,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -15672,7 +15672,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -15704,7 +15704,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -15736,7 +15736,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -15768,7 +15768,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -15800,7 +15800,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -15832,7 +15832,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -15877,12 +15877,12 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>700</v>
       </c>
@@ -15890,7 +15890,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>702</v>
       </c>
@@ -15898,7 +15898,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>701</v>
       </c>
@@ -15906,7 +15906,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>618</v>
       </c>
@@ -15914,7 +15914,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>294</v>
       </c>
@@ -15935,13 +15935,13 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>578</v>
       </c>
@@ -15952,7 +15952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>684</v>
       </c>
@@ -15963,7 +15963,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>684</v>
       </c>
@@ -15974,7 +15974,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>684</v>
       </c>
@@ -15985,7 +15985,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>684</v>
       </c>
@@ -15996,7 +15996,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>684</v>
       </c>
@@ -16021,28 +16021,28 @@
       <selection pane="bottomLeft" activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11" style="108" customWidth="1"/>
-    <col min="9" max="9" width="55.6640625" style="58" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.33203125" style="58" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="41.44140625" customWidth="1"/>
-    <col min="13" max="13" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" customWidth="1"/>
-    <col min="15" max="15" width="34.6640625" customWidth="1"/>
-    <col min="16" max="16" width="20.6640625" customWidth="1"/>
-    <col min="18" max="19" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="107" customWidth="1"/>
+    <col min="9" max="9" width="55.7109375" style="58" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.28515625" style="58" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="41.42578125" customWidth="1"/>
+    <col min="13" max="13" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" customWidth="1"/>
+    <col min="15" max="15" width="34.7109375" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" customWidth="1"/>
+    <col min="18" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="64" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>578</v>
       </c>
@@ -16064,7 +16064,7 @@
       <c r="G1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="107" t="s">
+      <c r="H1" s="106" t="s">
         <v>695</v>
       </c>
       <c r="I1" s="63" t="s">
@@ -16081,7 +16081,7 @@
       <c r="R1" s="47"/>
       <c r="S1" s="47"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>639</v>
       </c>
@@ -16099,10 +16099,10 @@
       <c r="G2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="77" t="s">
+      <c r="I2" s="76" t="s">
         <v>326</v>
       </c>
-      <c r="J2" s="76"/>
+      <c r="J2" s="75"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -16117,7 +16117,7 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
     </row>
-    <row r="3" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>639</v>
       </c>
@@ -16137,7 +16137,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>639</v>
       </c>
@@ -16160,7 +16160,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
         <v>639</v>
       </c>
@@ -16170,11 +16170,11 @@
       <c r="G5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="76" t="s">
+      <c r="I5" s="75" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>639</v>
       </c>
@@ -16192,8 +16192,8 @@
       <c r="G6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -16208,7 +16208,7 @@
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>639</v>
       </c>
@@ -16232,7 +16232,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>639</v>
       </c>
@@ -16248,8 +16248,8 @@
       <c r="G8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -16264,7 +16264,7 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="1:23" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>639</v>
       </c>
@@ -16280,15 +16280,15 @@
       <c r="G9" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="H9" s="108"/>
-      <c r="I9" s="77" t="s">
+      <c r="H9" s="107"/>
+      <c r="I9" s="76" t="s">
         <v>331</v>
       </c>
-      <c r="J9" s="76" t="s">
+      <c r="J9" s="75" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>639</v>
       </c>
@@ -16304,11 +16304,11 @@
       <c r="G10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H10" s="108"/>
-      <c r="I10" s="76"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="75"/>
       <c r="J10" s="58"/>
     </row>
-    <row r="11" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>639</v>
       </c>
@@ -16326,14 +16326,14 @@
       <c r="G11" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="I11" s="77" t="s">
+      <c r="I11" s="76" t="s">
         <v>341</v>
       </c>
       <c r="J11" s="58" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>639</v>
       </c>
@@ -16349,11 +16349,11 @@
       <c r="G12" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="77" t="s">
+      <c r="I12" s="76" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>638</v>
       </c>
@@ -16369,15 +16369,15 @@
       <c r="G13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="109"/>
-      <c r="I13" s="78" t="s">
+      <c r="H13" s="108"/>
+      <c r="I13" s="77" t="s">
         <v>340</v>
       </c>
-      <c r="J13" s="78" t="s">
+      <c r="J13" s="77" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="45" t="s">
         <v>638</v>
       </c>
@@ -16387,11 +16387,11 @@
       <c r="G14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="76" t="s">
+      <c r="I14" s="75" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>638</v>
       </c>
@@ -16411,7 +16411,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>638</v>
       </c>
@@ -16431,7 +16431,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>638</v>
       </c>
@@ -16454,7 +16454,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>638</v>
       </c>
@@ -16477,7 +16477,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>638</v>
       </c>
@@ -16497,7 +16497,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>638</v>
       </c>
@@ -16520,7 +16520,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>638</v>
       </c>
@@ -16540,7 +16540,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>638</v>
       </c>
@@ -16558,10 +16558,10 @@
       <c r="G22" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="I22" s="76" t="s">
+      <c r="I22" s="75" t="s">
         <v>344</v>
       </c>
-      <c r="J22" s="76" t="s">
+      <c r="J22" s="75" t="s">
         <v>345</v>
       </c>
       <c r="K22" s="2"/>
@@ -16578,7 +16578,7 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
     </row>
-    <row r="23" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>647</v>
       </c>
@@ -16588,11 +16588,11 @@
       <c r="G23" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H23" s="110"/>
-      <c r="I23" s="106"/>
-      <c r="J23" s="106"/>
-    </row>
-    <row r="24" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H23" s="109"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="105"/>
+    </row>
+    <row r="24" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>693</v>
       </c>
@@ -16611,8 +16611,8 @@
       <c r="G24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H24" s="109"/>
-      <c r="I24" s="78" t="s">
+      <c r="H24" s="108"/>
+      <c r="I24" s="77" t="s">
         <v>275</v>
       </c>
       <c r="J24" s="70" t="s">
@@ -16628,7 +16628,7 @@
       <c r="V24" s="71"/>
       <c r="W24" s="71"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>693</v>
       </c>
@@ -16657,7 +16657,7 @@
       <c r="V25" s="51"/>
       <c r="W25" s="53"/>
     </row>
-    <row r="26" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>693</v>
       </c>
@@ -16692,7 +16692,7 @@
       <c r="V26" s="51"/>
       <c r="W26" s="51"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>693</v>
       </c>
@@ -16721,7 +16721,7 @@
       <c r="V27" s="51"/>
       <c r="W27" s="53"/>
     </row>
-    <row r="28" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>693</v>
       </c>
@@ -16740,20 +16740,20 @@
       <c r="G28" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H28" s="108"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="O28" s="101"/>
-      <c r="P28" s="101"/>
-      <c r="Q28" s="101"/>
-      <c r="R28" s="101"/>
-      <c r="S28" s="101"/>
-      <c r="T28" s="101"/>
-      <c r="U28" s="101"/>
-      <c r="V28" s="101"/>
-      <c r="W28" s="103"/>
-    </row>
-    <row r="29" spans="1:23" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H28" s="107"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="75"/>
+      <c r="O28" s="100"/>
+      <c r="P28" s="100"/>
+      <c r="Q28" s="100"/>
+      <c r="R28" s="100"/>
+      <c r="S28" s="100"/>
+      <c r="T28" s="100"/>
+      <c r="U28" s="100"/>
+      <c r="V28" s="100"/>
+      <c r="W28" s="102"/>
+    </row>
+    <row r="29" spans="1:23" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>693</v>
       </c>
@@ -16772,24 +16772,24 @@
       <c r="G29" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="H29" s="108"/>
-      <c r="I29" s="77" t="s">
+      <c r="H29" s="107"/>
+      <c r="I29" s="76" t="s">
         <v>290</v>
       </c>
-      <c r="J29" s="76" t="s">
+      <c r="J29" s="75" t="s">
         <v>291</v>
       </c>
-      <c r="O29" s="101"/>
-      <c r="P29" s="101"/>
-      <c r="Q29" s="101"/>
-      <c r="R29" s="101"/>
-      <c r="S29" s="101"/>
-      <c r="T29" s="101"/>
-      <c r="U29" s="101"/>
-      <c r="V29" s="101"/>
-      <c r="W29" s="101"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="O29" s="100"/>
+      <c r="P29" s="100"/>
+      <c r="Q29" s="100"/>
+      <c r="R29" s="100"/>
+      <c r="S29" s="100"/>
+      <c r="T29" s="100"/>
+      <c r="U29" s="100"/>
+      <c r="V29" s="100"/>
+      <c r="W29" s="100"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>693</v>
       </c>
@@ -16809,23 +16809,23 @@
       <c r="G30" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="75"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
-      <c r="O30" s="101"/>
-      <c r="P30" s="101"/>
-      <c r="Q30" s="101"/>
-      <c r="R30" s="101"/>
-      <c r="S30" s="101"/>
-      <c r="T30" s="101"/>
-      <c r="U30" s="101"/>
-      <c r="V30" s="101"/>
-      <c r="W30" s="103"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="O30" s="100"/>
+      <c r="P30" s="100"/>
+      <c r="Q30" s="100"/>
+      <c r="R30" s="100"/>
+      <c r="S30" s="100"/>
+      <c r="T30" s="100"/>
+      <c r="U30" s="100"/>
+      <c r="V30" s="100"/>
+      <c r="W30" s="102"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>693</v>
       </c>
@@ -16854,7 +16854,7 @@
       <c r="V31" s="51"/>
       <c r="W31" s="51"/>
     </row>
-    <row r="32" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>697</v>
       </c>
@@ -16873,8 +16873,8 @@
       <c r="G32" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H32" s="109"/>
-      <c r="I32" s="78" t="s">
+      <c r="H32" s="108"/>
+      <c r="I32" s="77" t="s">
         <v>275</v>
       </c>
       <c r="J32" s="70" t="s">
@@ -16890,7 +16890,7 @@
       <c r="V32" s="71"/>
       <c r="W32" s="71"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>697</v>
       </c>
@@ -16906,7 +16906,7 @@
       <c r="G33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I33" s="77" t="s">
+      <c r="I33" s="76" t="s">
         <v>275</v>
       </c>
       <c r="J33" s="58" t="s">
@@ -16922,7 +16922,7 @@
       <c r="V33" s="51"/>
       <c r="W33" s="51"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>697</v>
       </c>
@@ -16951,7 +16951,7 @@
       <c r="V34" s="51"/>
       <c r="W34" s="51"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>697</v>
       </c>
@@ -16977,7 +16977,7 @@
       <c r="V35" s="51"/>
       <c r="W35" s="51"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>697</v>
       </c>
@@ -17009,7 +17009,7 @@
       <c r="V36" s="51"/>
       <c r="W36" s="53"/>
     </row>
-    <row r="37" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>697</v>
       </c>
@@ -17025,24 +17025,24 @@
       <c r="G37" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="H37" s="108"/>
-      <c r="I37" s="76" t="s">
+      <c r="H37" s="107"/>
+      <c r="I37" s="75" t="s">
         <v>640</v>
       </c>
-      <c r="J37" s="76" t="s">
+      <c r="J37" s="75" t="s">
         <v>789</v>
       </c>
-      <c r="O37" s="101"/>
-      <c r="P37" s="101"/>
-      <c r="Q37" s="101"/>
-      <c r="R37" s="101"/>
-      <c r="S37" s="101"/>
-      <c r="T37" s="101"/>
-      <c r="U37" s="101"/>
-      <c r="V37" s="101"/>
-      <c r="W37" s="101"/>
-    </row>
-    <row r="38" spans="1:23" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O37" s="100"/>
+      <c r="P37" s="100"/>
+      <c r="Q37" s="100"/>
+      <c r="R37" s="100"/>
+      <c r="S37" s="100"/>
+      <c r="T37" s="100"/>
+      <c r="U37" s="100"/>
+      <c r="V37" s="100"/>
+      <c r="W37" s="100"/>
+    </row>
+    <row r="38" spans="1:23" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>697</v>
       </c>
@@ -17058,24 +17058,24 @@
       <c r="G38" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="H38" s="108"/>
-      <c r="I38" s="77" t="s">
+      <c r="H38" s="107"/>
+      <c r="I38" s="76" t="s">
         <v>282</v>
       </c>
-      <c r="J38" s="76" t="s">
+      <c r="J38" s="75" t="s">
         <v>283</v>
       </c>
-      <c r="O38" s="101"/>
-      <c r="P38" s="101"/>
-      <c r="Q38" s="101"/>
-      <c r="R38" s="101"/>
-      <c r="S38" s="101"/>
-      <c r="T38" s="101"/>
-      <c r="U38" s="101"/>
-      <c r="V38" s="101"/>
-      <c r="W38" s="101"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="O38" s="100"/>
+      <c r="P38" s="100"/>
+      <c r="Q38" s="100"/>
+      <c r="R38" s="100"/>
+      <c r="S38" s="100"/>
+      <c r="T38" s="100"/>
+      <c r="U38" s="100"/>
+      <c r="V38" s="100"/>
+      <c r="W38" s="100"/>
+    </row>
+    <row r="39" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>697</v>
       </c>
@@ -17095,27 +17095,27 @@
       <c r="G39" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="I39" s="77" t="s">
+      <c r="I39" s="76" t="s">
         <v>650</v>
       </c>
-      <c r="J39" s="76" t="s">
+      <c r="J39" s="75" t="s">
         <v>276</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
-      <c r="O39" s="101"/>
-      <c r="P39" s="101"/>
-      <c r="Q39" s="101"/>
-      <c r="R39" s="101"/>
-      <c r="S39" s="101"/>
-      <c r="T39" s="101"/>
-      <c r="U39" s="101"/>
-      <c r="V39" s="101"/>
-      <c r="W39" s="101"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="O39" s="100"/>
+      <c r="P39" s="100"/>
+      <c r="Q39" s="100"/>
+      <c r="R39" s="100"/>
+      <c r="S39" s="100"/>
+      <c r="T39" s="100"/>
+      <c r="U39" s="100"/>
+      <c r="V39" s="100"/>
+      <c r="W39" s="100"/>
+    </row>
+    <row r="40" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>697</v>
       </c>
@@ -17147,7 +17147,7 @@
       <c r="V40" s="51"/>
       <c r="W40" s="53"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>697</v>
       </c>
@@ -17179,7 +17179,7 @@
       <c r="V41" s="51"/>
       <c r="W41" s="51"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>697</v>
       </c>
@@ -17208,7 +17208,7 @@
       <c r="V42" s="51"/>
       <c r="W42" s="51"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>697</v>
       </c>
@@ -17234,7 +17234,7 @@
       <c r="V43" s="51"/>
       <c r="W43" s="51"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>697</v>
       </c>
@@ -17253,7 +17253,7 @@
       <c r="I44" s="58" t="s">
         <v>640</v>
       </c>
-      <c r="J44" s="76" t="s">
+      <c r="J44" s="75" t="s">
         <v>789</v>
       </c>
       <c r="O44" s="51"/>
@@ -17266,7 +17266,7 @@
       <c r="V44" s="51"/>
       <c r="W44" s="51"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>697</v>
       </c>
@@ -17295,7 +17295,7 @@
       <c r="V45" s="51"/>
       <c r="W45" s="51"/>
     </row>
-    <row r="46" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>697</v>
       </c>
@@ -17311,20 +17311,20 @@
       <c r="G46" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H46" s="108"/>
-      <c r="I46" s="76"/>
-      <c r="J46" s="76"/>
-      <c r="O46" s="101"/>
-      <c r="P46" s="101"/>
-      <c r="Q46" s="101"/>
-      <c r="R46" s="101"/>
-      <c r="S46" s="101"/>
-      <c r="T46" s="101"/>
-      <c r="U46" s="101"/>
-      <c r="V46" s="101"/>
-      <c r="W46" s="101"/>
-    </row>
-    <row r="47" spans="1:23" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H46" s="107"/>
+      <c r="I46" s="75"/>
+      <c r="J46" s="75"/>
+      <c r="O46" s="100"/>
+      <c r="P46" s="100"/>
+      <c r="Q46" s="100"/>
+      <c r="R46" s="100"/>
+      <c r="S46" s="100"/>
+      <c r="T46" s="100"/>
+      <c r="U46" s="100"/>
+      <c r="V46" s="100"/>
+      <c r="W46" s="100"/>
+    </row>
+    <row r="47" spans="1:23" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>697</v>
       </c>
@@ -17343,24 +17343,24 @@
       <c r="G47" s="7" t="s">
         <v>643</v>
       </c>
-      <c r="H47" s="108"/>
-      <c r="I47" s="77" t="s">
+      <c r="H47" s="107"/>
+      <c r="I47" s="76" t="s">
         <v>316</v>
       </c>
-      <c r="J47" s="77" t="s">
+      <c r="J47" s="76" t="s">
         <v>648</v>
       </c>
-      <c r="O47" s="101"/>
-      <c r="P47" s="101"/>
-      <c r="Q47" s="101"/>
-      <c r="R47" s="101"/>
-      <c r="S47" s="101"/>
-      <c r="T47" s="101"/>
-      <c r="U47" s="101"/>
-      <c r="V47" s="101"/>
-      <c r="W47" s="101"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="O47" s="100"/>
+      <c r="P47" s="100"/>
+      <c r="Q47" s="100"/>
+      <c r="R47" s="100"/>
+      <c r="S47" s="100"/>
+      <c r="T47" s="100"/>
+      <c r="U47" s="100"/>
+      <c r="V47" s="100"/>
+      <c r="W47" s="100"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>697</v>
       </c>
@@ -17378,23 +17378,23 @@
       <c r="G48" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="I48" s="76"/>
-      <c r="J48" s="76"/>
+      <c r="I48" s="75"/>
+      <c r="J48" s="75"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
-      <c r="O48" s="101"/>
-      <c r="P48" s="101"/>
-      <c r="Q48" s="101"/>
-      <c r="R48" s="101"/>
-      <c r="S48" s="101"/>
-      <c r="T48" s="101"/>
-      <c r="U48" s="101"/>
-      <c r="V48" s="101"/>
-      <c r="W48" s="101"/>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="O48" s="100"/>
+      <c r="P48" s="100"/>
+      <c r="Q48" s="100"/>
+      <c r="R48" s="100"/>
+      <c r="S48" s="100"/>
+      <c r="T48" s="100"/>
+      <c r="U48" s="100"/>
+      <c r="V48" s="100"/>
+      <c r="W48" s="100"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>697</v>
       </c>
@@ -17413,7 +17413,7 @@
       <c r="G49" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="I49" s="76"/>
+      <c r="I49" s="75"/>
       <c r="O49" s="51"/>
       <c r="P49" s="51"/>
       <c r="Q49" s="51"/>
@@ -17424,7 +17424,7 @@
       <c r="V49" s="51"/>
       <c r="W49" s="51"/>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>697</v>
       </c>
@@ -17441,7 +17441,7 @@
         <v>76</v>
       </c>
       <c r="H50" s="37"/>
-      <c r="I50" s="77" t="s">
+      <c r="I50" s="76" t="s">
         <v>321</v>
       </c>
       <c r="J50" s="65" t="s">
@@ -17457,7 +17457,7 @@
       <c r="V50" s="51"/>
       <c r="W50" s="53"/>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>697</v>
       </c>
@@ -17470,11 +17470,11 @@
       <c r="G51" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I51" s="76" t="s">
+      <c r="I51" s="75" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>697</v>
       </c>
@@ -17488,10 +17488,10 @@
       <c r="G52" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I52" s="76" t="s">
+      <c r="I52" s="75" t="s">
         <v>694</v>
       </c>
-      <c r="J52" s="76"/>
+      <c r="J52" s="75"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
@@ -17540,13 +17540,13 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>519</v>
       </c>
@@ -17560,7 +17560,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -17574,7 +17574,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -17588,7 +17588,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -17602,7 +17602,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>89</v>
       </c>
@@ -17616,7 +17616,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>505</v>
       </c>
@@ -17630,7 +17630,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>169</v>
       </c>
@@ -17643,11 +17643,11 @@
       <c r="D7" t="s">
         <v>524</v>
       </c>
-      <c r="E7" s="102" t="s">
+      <c r="E7" s="101" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>505</v>
       </c>
@@ -17658,7 +17658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>675</v>
       </c>
@@ -17669,7 +17669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>675</v>
       </c>
@@ -17680,7 +17680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>504</v>
       </c>
@@ -17691,7 +17691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>505</v>
       </c>
@@ -17702,7 +17702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>504</v>
       </c>
@@ -17713,7 +17713,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>27</v>
       </c>
@@ -17724,7 +17724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>505</v>
       </c>
@@ -17735,7 +17735,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>505</v>
       </c>
@@ -17746,7 +17746,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>680</v>
       </c>
@@ -17757,7 +17757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -17768,7 +17768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -17779,7 +17779,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -17790,7 +17790,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>505</v>
       </c>
@@ -17801,7 +17801,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>790</v>
       </c>
@@ -17812,7 +17812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>505</v>
       </c>
@@ -17823,7 +17823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>505</v>
       </c>
@@ -17834,7 +17834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>1</v>
       </c>
@@ -17857,12 +17857,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18043,15 +18040,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4F7EAA9-3149-4D1D-AC50-D48674558E43}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{013AD9E7-5ED9-4240-9E80-4B7BF5375D95}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -18076,10 +18077,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{013AD9E7-5ED9-4240-9E80-4B7BF5375D95}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4F7EAA9-3149-4D1D-AC50-D48674558E43}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Meta/Analytes3.xlsx
+++ b/Meta/Analytes3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/LakeMichiganML/Shared Documents/General/Results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/coffman_christian_epa_gov/Documents/Profile/Documents/Projects/GL_Data/Meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4662" documentId="8_{D82D06AB-5E11-4340-B04B-6FA55AFBCF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{795DEFFA-FA2D-4329-989D-BFF91B94FCFF}"/>
+  <xr:revisionPtr revIDLastSave="4670" documentId="8_{D82D06AB-5E11-4340-B04B-6FA55AFBCF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDA05FB8-E276-4769-AF57-488643848963}"/>
   <bookViews>
-    <workbookView xWindow="-61548" yWindow="-1872" windowWidth="30936" windowHeight="16776" tabRatio="809" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-9450" windowWidth="29040" windowHeight="15720" tabRatio="809" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="2" r:id="rId1"/>
@@ -153,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3522" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3524" uniqueCount="795">
   <si>
     <t>CodeName</t>
   </si>
@@ -3120,16 +3120,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3150,9 +3189,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3161,42 +3197,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3546,15 +3546,15 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="49.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="49.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>793</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="45" t="s">
         <v>25</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="45" t="s">
         <v>27</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="45" t="s">
         <v>29</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="45" t="s">
         <v>30</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="45" t="s">
         <v>32</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="45" t="s">
         <v>33</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="45" t="s">
         <v>35</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="45" t="s">
         <v>36</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="45" t="s">
         <v>38</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="45" t="s">
         <v>40</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="45" t="s">
         <v>42</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="45" t="s">
         <v>43</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="45" t="s">
         <v>45</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="45" t="s">
         <v>47</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="45" t="s">
         <v>48</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="45" t="s">
         <v>50</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="45" t="s">
         <v>52</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="45" t="s">
         <v>54</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="45" t="s">
         <v>56</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="45" t="s">
         <v>58</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="45" t="s">
         <v>59</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="45" t="s">
         <v>60</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="45" t="s">
         <v>62</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="45" t="s">
         <v>64</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="45" t="s">
         <v>65</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="45" t="s">
         <v>68</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="45" t="s">
         <v>640</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="45" t="s">
         <v>70</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="45" t="s">
         <v>72</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>73</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="45" t="s">
         <v>75</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="45" t="s">
         <v>77</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>81</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -4325,15 +4325,15 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="99" t="s">
         <v>690</v>
       </c>
@@ -4368,7 +4368,7 @@
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
     </row>
-    <row r="2" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="99" t="s">
         <v>690</v>
       </c>
@@ -4386,7 +4386,7 @@
       </c>
       <c r="J2" s="58"/>
     </row>
-    <row r="3" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="99" t="s">
         <v>690</v>
       </c>
@@ -4421,7 +4421,7 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="99" t="s">
         <v>690</v>
       </c>
@@ -4439,7 +4439,7 @@
       </c>
       <c r="J4" s="58"/>
     </row>
-    <row r="5" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="99" t="s">
         <v>690</v>
       </c>
@@ -4457,7 +4457,7 @@
       </c>
       <c r="J5" s="58"/>
     </row>
-    <row r="6" spans="1:23" s="96" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" s="96" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="99" t="s">
         <v>690</v>
       </c>
@@ -4475,7 +4475,7 @@
       </c>
       <c r="J6" s="98"/>
     </row>
-    <row r="7" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="99" t="s">
         <v>690</v>
       </c>
@@ -4493,7 +4493,7 @@
       </c>
       <c r="J7" s="58"/>
     </row>
-    <row r="8" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="99" t="s">
         <v>690</v>
       </c>
@@ -4512,12 +4512,12 @@
       </c>
       <c r="J8" s="58"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="99" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="99" t="s">
         <v>696</v>
       </c>
@@ -4540,13 +4540,13 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>575</v>
       </c>
@@ -4557,7 +4557,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>539</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>539</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>539</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>539</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>539</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>539</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>539</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>539</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>539</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>539</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>539</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>539</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>539</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>539</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>539</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>539</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>539</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>539</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>539</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>540</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>540</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>540</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>540</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>540</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>540</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>540</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>540</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>540</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>540</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>540</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>540</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>540</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>540</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>540</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>540</v>
       </c>
@@ -4942,7 +4942,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>540</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>540</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>540</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>540</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>540</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>540</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>540</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>540</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>540</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>540</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>540</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>53</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>53</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>53</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>53</v>
       </c>
@@ -5206,7 +5206,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>53</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>53</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>53</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>53</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>53</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>53</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>53</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>53</v>
       </c>
@@ -5294,7 +5294,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>53</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>53</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>53</v>
       </c>
@@ -5341,15 +5341,15 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.6640625" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>522</v>
       </c>
@@ -5369,7 +5369,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>240</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>2.1391821402503068</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>240</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>2.1391821402503068</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>243</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>245</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>2.1391821402503068</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>528</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>534</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <f>PRODUCT(A13:F13)</f>
         <v>0.46746837549933429</v>
@@ -5580,14 +5580,14 @@
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>537</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>544</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>548</v>
       </c>
@@ -5644,7 +5644,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>552</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>555</v>
       </c>
@@ -5678,7 +5678,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>558</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>560</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>563</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>565</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>0.50069444399999996</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>566</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>0.45416600000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>570</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>0.44791666699999999</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>574</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>578</v>
       </c>
@@ -5823,7 +5823,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>581</v>
       </c>
@@ -5831,7 +5831,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>582</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>584</v>
       </c>
@@ -5847,7 +5847,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>586</v>
       </c>
@@ -5855,27 +5855,27 @@
         <v>587</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F18" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F19" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F20" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F21" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F22" t="s">
         <v>589</v>
       </c>
@@ -5894,28 +5894,28 @@
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
     <col min="6" max="6" width="11" style="9" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="56.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.140625" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="64.28515625" style="58" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" customWidth="1"/>
-    <col min="15" max="15" width="34.7109375" customWidth="1"/>
-    <col min="16" max="16" width="20.7109375" customWidth="1"/>
-    <col min="18" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="56.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.109375" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="64.33203125" style="58" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" customWidth="1"/>
+    <col min="15" max="15" width="34.6640625" customWidth="1"/>
+    <col min="16" max="16" width="20.6640625" customWidth="1"/>
+    <col min="18" max="19" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>88</v>
       </c>
@@ -5954,7 +5954,7 @@
       <c r="R1" s="47"/>
       <c r="S1" s="47"/>
     </row>
-    <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>268</v>
       </c>
@@ -5989,7 +5989,7 @@
       <c r="V2" s="51"/>
       <c r="W2" s="53"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>268</v>
       </c>
@@ -6022,7 +6022,7 @@
       <c r="V3" s="51"/>
       <c r="W3" s="51"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>274</v>
       </c>
@@ -6054,7 +6054,7 @@
       <c r="V4" s="51"/>
       <c r="W4" s="53"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>274</v>
       </c>
@@ -6084,7 +6084,7 @@
       <c r="V5" s="51"/>
       <c r="W5" s="53"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>274</v>
       </c>
@@ -6114,7 +6114,7 @@
       <c r="V6" s="51"/>
       <c r="W6" s="53"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>277</v>
       </c>
@@ -6147,7 +6147,7 @@
       <c r="V7" s="51"/>
       <c r="W7" s="51"/>
     </row>
-    <row r="8" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>281</v>
       </c>
@@ -6179,7 +6179,7 @@
       <c r="V8" s="51"/>
       <c r="W8" s="53"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>281</v>
       </c>
@@ -6209,7 +6209,7 @@
       <c r="V9" s="51"/>
       <c r="W9" s="53"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>595</v>
       </c>
@@ -6244,7 +6244,7 @@
       <c r="V10" s="51"/>
       <c r="W10" s="53"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>595</v>
       </c>
@@ -6277,7 +6277,7 @@
       <c r="V11" s="51"/>
       <c r="W11" s="51"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>601</v>
       </c>
@@ -6310,7 +6310,7 @@
       <c r="V12" s="51"/>
       <c r="W12" s="51"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>601</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>601</v>
       </c>
@@ -6366,7 +6366,7 @@
       <c r="V14" s="51"/>
       <c r="W14" s="51"/>
     </row>
-    <row r="15" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>283</v>
       </c>
@@ -6398,7 +6398,7 @@
       <c r="V15" s="51"/>
       <c r="W15" s="53"/>
     </row>
-    <row r="16" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>283</v>
       </c>
@@ -6430,7 +6430,7 @@
       <c r="V16" s="51"/>
       <c r="W16" s="53"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>605</v>
       </c>
@@ -6460,7 +6460,7 @@
       <c r="V17" s="51"/>
       <c r="W17" s="51"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>605</v>
       </c>
@@ -6490,7 +6490,7 @@
       <c r="V18" s="51"/>
       <c r="W18" s="51"/>
     </row>
-    <row r="19" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>607</v>
       </c>
@@ -6522,7 +6522,7 @@
       <c r="V19" s="51"/>
       <c r="W19" s="53"/>
     </row>
-    <row r="20" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>610</v>
       </c>
@@ -6554,7 +6554,7 @@
       <c r="V20" s="51"/>
       <c r="W20" s="53"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>613</v>
       </c>
@@ -6584,7 +6584,7 @@
       <c r="V21" s="51"/>
       <c r="W21" s="51"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>615</v>
       </c>
@@ -6614,7 +6614,7 @@
       <c r="V22" s="51"/>
       <c r="W22" s="51"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>285</v>
       </c>
@@ -6647,7 +6647,7 @@
       <c r="V23" s="51"/>
       <c r="W23" s="51"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>289</v>
       </c>
@@ -6677,7 +6677,7 @@
       <c r="V24" s="51"/>
       <c r="W24" s="51"/>
     </row>
-    <row r="25" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>289</v>
       </c>
@@ -6709,7 +6709,7 @@
       <c r="V25" s="51"/>
       <c r="W25" s="53"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>289</v>
       </c>
@@ -6739,7 +6739,7 @@
       <c r="V26" s="51"/>
       <c r="W26" s="53"/>
     </row>
-    <row r="27" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>291</v>
       </c>
@@ -6771,7 +6771,7 @@
       <c r="V27" s="51"/>
       <c r="W27" s="53"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>291</v>
       </c>
@@ -6801,7 +6801,7 @@
       <c r="V28" s="51"/>
       <c r="W28" s="51"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>291</v>
       </c>
@@ -6831,7 +6831,7 @@
       <c r="V29" s="51"/>
       <c r="W29" s="51"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -6861,7 +6861,7 @@
       <c r="V30" s="51"/>
       <c r="W30" s="51"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -6894,7 +6894,7 @@
       <c r="V31" s="51"/>
       <c r="W31" s="51"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -6924,7 +6924,7 @@
       <c r="V32" s="51"/>
       <c r="W32" s="51"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -6954,7 +6954,7 @@
       <c r="V33" s="51"/>
       <c r="W33" s="51"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -6989,7 +6989,7 @@
       <c r="V34" s="51"/>
       <c r="W34" s="53"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>53</v>
       </c>
@@ -7022,7 +7022,7 @@
       <c r="V35" s="51"/>
       <c r="W35" s="51"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -7052,7 +7052,7 @@
       <c r="V36" s="51"/>
       <c r="W36" s="51"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>53</v>
       </c>
@@ -7082,7 +7082,7 @@
       <c r="V37" s="51"/>
       <c r="W37" s="51"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -7117,7 +7117,7 @@
       <c r="V38" s="51"/>
       <c r="W38" s="53"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -7149,7 +7149,7 @@
       <c r="V39" s="51"/>
       <c r="W39" s="51"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -7178,7 +7178,7 @@
       <c r="V40" s="51"/>
       <c r="W40" s="51"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>53</v>
       </c>
@@ -7207,7 +7207,7 @@
       <c r="V41" s="51"/>
       <c r="W41" s="51"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -7236,7 +7236,7 @@
       <c r="V42" s="51"/>
       <c r="W42" s="51"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -7268,7 +7268,7 @@
       <c r="V43" s="51"/>
       <c r="W43" s="51"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -7297,7 +7297,7 @@
       <c r="V44" s="51"/>
       <c r="W44" s="51"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -7329,7 +7329,7 @@
       <c r="V45" s="51"/>
       <c r="W45" s="51"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -7358,7 +7358,7 @@
       <c r="V46" s="51"/>
       <c r="W46" s="51"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -7390,7 +7390,7 @@
       <c r="V47" s="51"/>
       <c r="W47" s="51"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -7419,7 +7419,7 @@
       <c r="V48" s="51"/>
       <c r="W48" s="53"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D51" s="53" t="s">
         <v>625</v>
       </c>
@@ -7438,7 +7438,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D52" s="53" t="s">
         <v>629</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D53" s="53" t="s">
         <v>631</v>
       </c>
@@ -7476,7 +7476,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="54" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D54" s="53" t="s">
         <v>633</v>
       </c>
@@ -7519,20 +7519,20 @@
       <selection activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="75.28515625" style="60" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="10" max="10" width="64.42578125" style="58" customWidth="1"/>
-    <col min="11" max="11" width="35.28515625" style="58" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="75.33203125" style="60" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="10" max="10" width="64.44140625" style="58" customWidth="1"/>
+    <col min="11" max="11" width="35.33203125" style="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>575</v>
       </c>
@@ -7570,7 +7570,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>540</v>
       </c>
@@ -7599,7 +7599,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>540</v>
       </c>
@@ -7628,7 +7628,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>540</v>
       </c>
@@ -7651,7 +7651,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>540</v>
       </c>
@@ -7674,7 +7674,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>540</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>540</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>540</v>
       </c>
@@ -7749,7 +7749,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>540</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>540</v>
       </c>
@@ -7798,7 +7798,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>540</v>
       </c>
@@ -7823,7 +7823,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>540</v>
       </c>
@@ -7850,7 +7850,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>540</v>
       </c>
@@ -7877,7 +7877,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>540</v>
       </c>
@@ -7904,7 +7904,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>540</v>
       </c>
@@ -7927,7 +7927,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>540</v>
       </c>
@@ -7950,7 +7950,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>540</v>
       </c>
@@ -7973,7 +7973,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>540</v>
       </c>
@@ -7997,7 +7997,7 @@
       </c>
       <c r="J18" s="65"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>540</v>
       </c>
@@ -8020,7 +8020,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>540</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>540</v>
       </c>
@@ -8078,7 +8078,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>540</v>
       </c>
@@ -8101,7 +8101,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>540</v>
       </c>
@@ -8130,7 +8130,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>540</v>
       </c>
@@ -8156,7 +8156,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>540</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>540</v>
       </c>
@@ -8202,7 +8202,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>540</v>
       </c>
@@ -8228,7 +8228,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>540</v>
       </c>
@@ -8251,7 +8251,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>540</v>
       </c>
@@ -8274,7 +8274,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>540</v>
       </c>
@@ -8303,7 +8303,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>540</v>
       </c>
@@ -8332,7 +8332,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>705</v>
       </c>
@@ -8357,7 +8357,7 @@
       </c>
       <c r="K32" s="70"/>
     </row>
-    <row r="33" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>705</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>705</v>
       </c>
@@ -8403,7 +8403,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>705</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>705</v>
       </c>
@@ -8455,7 +8455,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>705</v>
       </c>
@@ -8481,7 +8481,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>705</v>
       </c>
@@ -8507,7 +8507,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>705</v>
       </c>
@@ -8527,7 +8527,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>705</v>
       </c>
@@ -8553,7 +8553,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>705</v>
       </c>
@@ -8579,7 +8579,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>705</v>
       </c>
@@ -8599,7 +8599,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>705</v>
       </c>
@@ -8622,7 +8622,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>705</v>
       </c>
@@ -8645,7 +8645,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>705</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>705</v>
       </c>
@@ -8691,7 +8691,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>705</v>
       </c>
@@ -8714,7 +8714,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>705</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>705</v>
       </c>
@@ -8757,7 +8757,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>704</v>
       </c>
@@ -8780,7 +8780,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>704</v>
       </c>
@@ -8800,7 +8800,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>704</v>
       </c>
@@ -8820,7 +8820,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>704</v>
       </c>
@@ -8840,7 +8840,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>704</v>
       </c>
@@ -8860,7 +8860,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>704</v>
       </c>
@@ -8880,7 +8880,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>704</v>
       </c>
@@ -8900,7 +8900,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>704</v>
       </c>
@@ -8920,7 +8920,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>704</v>
       </c>
@@ -8940,7 +8940,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>704</v>
       </c>
@@ -8960,7 +8960,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>704</v>
       </c>
@@ -8983,7 +8983,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>704</v>
       </c>
@@ -9006,7 +9006,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>704</v>
       </c>
@@ -9026,7 +9026,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>704</v>
       </c>
@@ -9052,7 +9052,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>704</v>
       </c>
@@ -9072,7 +9072,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>704</v>
       </c>
@@ -9092,7 +9092,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>704</v>
       </c>
@@ -9112,7 +9112,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>704</v>
       </c>
@@ -9132,7 +9132,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>704</v>
       </c>
@@ -9157,7 +9157,7 @@
       </c>
       <c r="K68" s="77"/>
     </row>
-    <row r="69" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>704</v>
       </c>
@@ -9182,7 +9182,7 @@
       </c>
       <c r="K69" s="65"/>
     </row>
-    <row r="70" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>704</v>
       </c>
@@ -9207,7 +9207,7 @@
       </c>
       <c r="K70" s="65"/>
     </row>
-    <row r="71" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>704</v>
       </c>
@@ -9232,7 +9232,7 @@
       </c>
       <c r="K71" s="65"/>
     </row>
-    <row r="72" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>704</v>
       </c>
@@ -9257,7 +9257,7 @@
       </c>
       <c r="K72" s="65"/>
     </row>
-    <row r="73" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>704</v>
       </c>
@@ -9282,7 +9282,7 @@
       </c>
       <c r="K73" s="65"/>
     </row>
-    <row r="74" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>704</v>
       </c>
@@ -9307,7 +9307,7 @@
       </c>
       <c r="K74" s="65"/>
     </row>
-    <row r="75" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>704</v>
       </c>
@@ -9332,7 +9332,7 @@
       </c>
       <c r="K75" s="65"/>
     </row>
-    <row r="76" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>704</v>
       </c>
@@ -9357,7 +9357,7 @@
       </c>
       <c r="K76" s="65"/>
     </row>
-    <row r="77" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>704</v>
       </c>
@@ -9382,7 +9382,7 @@
       </c>
       <c r="K77" s="65"/>
     </row>
-    <row r="78" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>704</v>
       </c>
@@ -9407,7 +9407,7 @@
       </c>
       <c r="K78" s="65"/>
     </row>
-    <row r="79" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>704</v>
       </c>
@@ -9432,7 +9432,7 @@
       </c>
       <c r="K79" s="65"/>
     </row>
-    <row r="80" spans="1:11" s="45" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" s="45" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>704</v>
       </c>
@@ -9461,7 +9461,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="45" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" s="45" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>704</v>
       </c>
@@ -9490,7 +9490,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>704</v>
       </c>
@@ -9513,7 +9513,7 @@
       <c r="J82" s="65"/>
       <c r="K82" s="65"/>
     </row>
-    <row r="83" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>539</v>
       </c>
@@ -9539,7 +9539,7 @@
       </c>
       <c r="J83" s="70"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>539</v>
       </c>
@@ -9565,7 +9565,7 @@
       </c>
       <c r="K84"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>539</v>
       </c>
@@ -9591,7 +9591,7 @@
       </c>
       <c r="K85"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>539</v>
       </c>
@@ -9617,7 +9617,7 @@
       </c>
       <c r="K86"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>539</v>
       </c>
@@ -9643,7 +9643,7 @@
       </c>
       <c r="K87"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>539</v>
       </c>
@@ -9669,7 +9669,7 @@
       </c>
       <c r="K88"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>539</v>
       </c>
@@ -9695,7 +9695,7 @@
       </c>
       <c r="K89"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>539</v>
       </c>
@@ -9721,7 +9721,7 @@
       </c>
       <c r="K90"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>539</v>
       </c>
@@ -9747,7 +9747,7 @@
       </c>
       <c r="K91"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>539</v>
       </c>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="K92"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>539</v>
       </c>
@@ -9799,7 +9799,7 @@
       </c>
       <c r="K93"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>539</v>
       </c>
@@ -9825,7 +9825,7 @@
       </c>
       <c r="K94"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>539</v>
       </c>
@@ -9851,7 +9851,7 @@
       </c>
       <c r="K95"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>539</v>
       </c>
@@ -9877,7 +9877,7 @@
       </c>
       <c r="K96"/>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>539</v>
       </c>
@@ -9903,7 +9903,7 @@
       </c>
       <c r="K97"/>
     </row>
-    <row r="98" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>539</v>
       </c>
@@ -9937,7 +9937,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>539</v>
       </c>
@@ -9971,7 +9971,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>539</v>
       </c>
@@ -10005,7 +10005,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>539</v>
       </c>
@@ -10039,7 +10039,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>539</v>
       </c>
@@ -10073,7 +10073,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>539</v>
       </c>
@@ -10107,7 +10107,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>539</v>
       </c>
@@ -10133,7 +10133,7 @@
       </c>
       <c r="K104"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>539</v>
       </c>
@@ -10159,7 +10159,7 @@
       </c>
       <c r="K105"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>539</v>
       </c>
@@ -10185,7 +10185,7 @@
       </c>
       <c r="K106"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>539</v>
       </c>
@@ -10211,7 +10211,7 @@
       </c>
       <c r="K107"/>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>539</v>
       </c>
@@ -10237,7 +10237,7 @@
       </c>
       <c r="K108"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>539</v>
       </c>
@@ -10266,7 +10266,7 @@
       </c>
       <c r="K109"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>539</v>
       </c>
@@ -10292,7 +10292,7 @@
       </c>
       <c r="K110"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>539</v>
       </c>
@@ -10318,7 +10318,7 @@
       </c>
       <c r="K111"/>
     </row>
-    <row r="112" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>539</v>
       </c>
@@ -10349,7 +10349,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>539</v>
       </c>
@@ -10377,7 +10377,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>539</v>
       </c>
@@ -10405,7 +10405,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>539</v>
       </c>
@@ -10433,7 +10433,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>539</v>
       </c>
@@ -10459,7 +10459,7 @@
       </c>
       <c r="K116"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>539</v>
       </c>
@@ -10508,20 +10508,20 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>575</v>
       </c>
@@ -10550,7 +10550,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>709</v>
       </c>
@@ -10564,7 +10564,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>709</v>
       </c>
@@ -10578,7 +10578,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>709</v>
       </c>
@@ -10592,7 +10592,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>709</v>
       </c>
@@ -10606,7 +10606,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>709</v>
       </c>
@@ -10620,7 +10620,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>709</v>
       </c>
@@ -10637,7 +10637,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>709</v>
       </c>
@@ -10668,26 +10668,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="10" width="15.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="51.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="51.7109375" style="29" customWidth="1"/>
-    <col min="13" max="16" width="8.7109375" style="2"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="10" width="15.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="51.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="51.6640625" style="29" customWidth="1"/>
+    <col min="13" max="16" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>575</v>
       </c>
@@ -10731,7 +10731,7 @@
       <c r="O1" s="12"/>
       <c r="P1" s="12"/>
     </row>
-    <row r="2" spans="1:16" s="4" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="4" customFormat="1" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>538</v>
       </c>
@@ -10760,8 +10760,8 @@
       <c r="J2" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="K2" s="116"/>
-      <c r="L2" s="112"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="119"/>
       <c r="M2" s="19" t="s">
         <v>105</v>
       </c>
@@ -10769,7 +10769,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>538</v>
       </c>
@@ -10798,13 +10798,13 @@
       <c r="J3" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K3" s="114"/>
-      <c r="L3" s="113"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="110"/>
       <c r="M3" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>538</v>
       </c>
@@ -10833,13 +10833,13 @@
       <c r="J4" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K4" s="114"/>
-      <c r="L4" s="113"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="110"/>
       <c r="M4" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>538</v>
       </c>
@@ -10865,13 +10865,13 @@
       <c r="J5" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K5" s="114"/>
-      <c r="L5" s="113"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="110"/>
       <c r="M5" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>538</v>
       </c>
@@ -10900,15 +10900,15 @@
       <c r="J6" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K6" s="114" t="s">
+      <c r="K6" s="127" t="s">
         <v>114</v>
       </c>
-      <c r="L6" s="110"/>
+      <c r="L6" s="125"/>
       <c r="M6" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>538</v>
       </c>
@@ -10937,13 +10937,13 @@
       <c r="J7" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K7" s="114"/>
-      <c r="L7" s="110"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="125"/>
       <c r="M7" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>538</v>
       </c>
@@ -10969,8 +10969,8 @@
       <c r="J8" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="K8" s="115"/>
-      <c r="L8" s="111"/>
+      <c r="K8" s="128"/>
+      <c r="L8" s="126"/>
       <c r="M8" s="20" t="s">
         <v>105</v>
       </c>
@@ -10978,7 +10978,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>538</v>
       </c>
@@ -11007,17 +11007,17 @@
       <c r="J9" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K9" s="123" t="s">
+      <c r="K9" s="135" t="s">
         <v>122</v>
       </c>
-      <c r="L9" s="113" t="s">
+      <c r="L9" s="110" t="s">
         <v>123</v>
       </c>
       <c r="M9" s="19" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>538</v>
       </c>
@@ -11046,13 +11046,13 @@
       <c r="J10" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K10" s="123"/>
-      <c r="L10" s="113"/>
+      <c r="K10" s="135"/>
+      <c r="L10" s="110"/>
       <c r="M10" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>538</v>
       </c>
@@ -11081,13 +11081,13 @@
       <c r="J11" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K11" s="123"/>
-      <c r="L11" s="113"/>
+      <c r="K11" s="135"/>
+      <c r="L11" s="110"/>
       <c r="M11" s="21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>538</v>
       </c>
@@ -11123,7 +11123,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>538</v>
       </c>
@@ -11161,7 +11161,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>538</v>
       </c>
@@ -11200,7 +11200,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>538</v>
       </c>
@@ -11235,7 +11235,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>538</v>
       </c>
@@ -11277,7 +11277,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:16" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>538</v>
       </c>
@@ -11316,7 +11316,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>538</v>
       </c>
@@ -11345,13 +11345,13 @@
       <c r="J18" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K18" s="120"/>
+      <c r="K18" s="121"/>
       <c r="L18" s="78"/>
       <c r="M18" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>538</v>
       </c>
@@ -11380,7 +11380,7 @@
       <c r="J19" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="K19" s="121"/>
+      <c r="K19" s="133"/>
       <c r="L19" s="81"/>
       <c r="M19" s="31" t="s">
         <v>105</v>
@@ -11389,7 +11389,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>538</v>
       </c>
@@ -11418,17 +11418,17 @@
       <c r="J20" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K20" s="120" t="s">
+      <c r="K20" s="121" t="s">
         <v>153</v>
       </c>
-      <c r="L20" s="113" t="s">
+      <c r="L20" s="110" t="s">
         <v>154</v>
       </c>
       <c r="M20" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>538</v>
       </c>
@@ -11457,13 +11457,13 @@
       <c r="J21" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K21" s="120"/>
-      <c r="L21" s="113"/>
+      <c r="K21" s="121"/>
+      <c r="L21" s="110"/>
       <c r="M21" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>538</v>
       </c>
@@ -11489,13 +11489,13 @@
       <c r="J22" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K22" s="120"/>
-      <c r="L22" s="113"/>
+      <c r="K22" s="121"/>
+      <c r="L22" s="110"/>
       <c r="M22" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>538</v>
       </c>
@@ -11524,13 +11524,13 @@
       <c r="J23" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K23" s="120"/>
-      <c r="L23" s="113"/>
+      <c r="K23" s="121"/>
+      <c r="L23" s="110"/>
       <c r="M23" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>538</v>
       </c>
@@ -11559,13 +11559,13 @@
       <c r="J24" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K24" s="120"/>
-      <c r="L24" s="113"/>
+      <c r="K24" s="121"/>
+      <c r="L24" s="110"/>
       <c r="M24" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>538</v>
       </c>
@@ -11594,10 +11594,10 @@
       <c r="J25" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="K25" s="122" t="s">
+      <c r="K25" s="134" t="s">
         <v>159</v>
       </c>
-      <c r="L25" s="112" t="s">
+      <c r="L25" s="119" t="s">
         <v>160</v>
       </c>
       <c r="M25" s="15" t="s">
@@ -11607,7 +11607,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>538</v>
       </c>
@@ -11636,13 +11636,13 @@
       <c r="J26" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K26" s="120"/>
-      <c r="L26" s="113"/>
+      <c r="K26" s="121"/>
+      <c r="L26" s="110"/>
       <c r="M26" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>538</v>
       </c>
@@ -11671,13 +11671,13 @@
       <c r="J27" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K27" s="120"/>
-      <c r="L27" s="113"/>
+      <c r="K27" s="121"/>
+      <c r="L27" s="110"/>
       <c r="M27" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>538</v>
       </c>
@@ -11703,8 +11703,8 @@
       <c r="J28" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="K28" s="121"/>
-      <c r="L28" s="132"/>
+      <c r="K28" s="133"/>
+      <c r="L28" s="120"/>
       <c r="M28" s="11" t="s">
         <v>105</v>
       </c>
@@ -11712,7 +11712,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>538</v>
       </c>
@@ -11741,7 +11741,7 @@
       <c r="J29" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K29" s="120" t="s">
+      <c r="K29" s="121" t="s">
         <v>167</v>
       </c>
       <c r="L29" s="78"/>
@@ -11749,7 +11749,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>538</v>
       </c>
@@ -11778,13 +11778,13 @@
       <c r="J30" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K30" s="120"/>
+      <c r="K30" s="121"/>
       <c r="L30" s="78"/>
       <c r="M30" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>538</v>
       </c>
@@ -11813,13 +11813,13 @@
       <c r="J31" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K31" s="120"/>
+      <c r="K31" s="121"/>
       <c r="L31" s="78"/>
       <c r="M31" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>538</v>
       </c>
@@ -11845,13 +11845,13 @@
       <c r="J32" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K32" s="120"/>
+      <c r="K32" s="121"/>
       <c r="L32" s="78"/>
       <c r="M32" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>538</v>
       </c>
@@ -11880,7 +11880,7 @@
       <c r="J33" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="K33" s="122" t="s">
+      <c r="K33" s="134" t="s">
         <v>136</v>
       </c>
       <c r="L33" s="80" t="s">
@@ -11893,7 +11893,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>538</v>
       </c>
@@ -11922,7 +11922,7 @@
       <c r="J34" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="K34" s="121"/>
+      <c r="K34" s="133"/>
       <c r="L34" s="81"/>
       <c r="M34" s="11" t="s">
         <v>105</v>
@@ -11931,7 +11931,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="1:16" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>538</v>
       </c>
@@ -11960,7 +11960,7 @@
       <c r="J35" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K35" s="120" t="s">
+      <c r="K35" s="121" t="s">
         <v>136</v>
       </c>
       <c r="L35" s="78" t="s">
@@ -11970,7 +11970,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>538</v>
       </c>
@@ -11999,13 +11999,13 @@
       <c r="J36" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K36" s="120"/>
+      <c r="K36" s="121"/>
       <c r="L36" s="78"/>
       <c r="M36" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>538</v>
       </c>
@@ -12043,7 +12043,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
     </row>
-    <row r="38" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>538</v>
       </c>
@@ -12078,7 +12078,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>538</v>
       </c>
@@ -12110,7 +12110,7 @@
       <c r="K39" s="85" t="s">
         <v>178</v>
       </c>
-      <c r="L39" s="112"/>
+      <c r="L39" s="119"/>
       <c r="M39" s="19" t="s">
         <v>105</v>
       </c>
@@ -12118,7 +12118,7 @@
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
     </row>
-    <row r="40" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>538</v>
       </c>
@@ -12148,12 +12148,12 @@
         <v>105</v>
       </c>
       <c r="K40" s="32"/>
-      <c r="L40" s="113"/>
+      <c r="L40" s="110"/>
       <c r="M40" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>538</v>
       </c>
@@ -12195,7 +12195,7 @@
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
     </row>
-    <row r="42" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>538</v>
       </c>
@@ -12224,17 +12224,17 @@
       <c r="J42" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K42" s="120" t="s">
+      <c r="K42" s="121" t="s">
         <v>185</v>
       </c>
-      <c r="L42" s="113" t="s">
+      <c r="L42" s="110" t="s">
         <v>186</v>
       </c>
       <c r="M42" s="19" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>538</v>
       </c>
@@ -12263,13 +12263,13 @@
       <c r="J43" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K43" s="120"/>
-      <c r="L43" s="113"/>
+      <c r="K43" s="121"/>
+      <c r="L43" s="110"/>
       <c r="M43" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>538</v>
       </c>
@@ -12298,13 +12298,13 @@
       <c r="J44" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K44" s="120"/>
-      <c r="L44" s="113"/>
+      <c r="K44" s="121"/>
+      <c r="L44" s="110"/>
       <c r="M44" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>538</v>
       </c>
@@ -12330,13 +12330,13 @@
       <c r="J45" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K45" s="120"/>
-      <c r="L45" s="113"/>
+      <c r="K45" s="121"/>
+      <c r="L45" s="110"/>
       <c r="M45" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>538</v>
       </c>
@@ -12365,13 +12365,13 @@
       <c r="J46" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K46" s="120"/>
-      <c r="L46" s="113"/>
+      <c r="K46" s="121"/>
+      <c r="L46" s="110"/>
       <c r="M46" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>538</v>
       </c>
@@ -12400,13 +12400,13 @@
       <c r="J47" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K47" s="120"/>
-      <c r="L47" s="113"/>
+      <c r="K47" s="121"/>
+      <c r="L47" s="110"/>
       <c r="M47" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:16" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>538</v>
       </c>
@@ -12448,7 +12448,7 @@
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
     </row>
-    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>538</v>
       </c>
@@ -12483,7 +12483,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="4" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" s="4" customFormat="1" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>538</v>
       </c>
@@ -12512,7 +12512,7 @@
       <c r="J50" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="K50" s="124" t="s">
+      <c r="K50" s="117" t="s">
         <v>198</v>
       </c>
       <c r="L50" s="80"/>
@@ -12523,7 +12523,7 @@
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
     </row>
-    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>538</v>
       </c>
@@ -12552,13 +12552,13 @@
       <c r="J51" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K51" s="123"/>
+      <c r="K51" s="135"/>
       <c r="L51" s="78"/>
       <c r="M51" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>538</v>
       </c>
@@ -12587,13 +12587,13 @@
       <c r="J52" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K52" s="123"/>
+      <c r="K52" s="135"/>
       <c r="L52" s="78"/>
       <c r="M52" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="53" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>538</v>
       </c>
@@ -12622,13 +12622,13 @@
       <c r="J53" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K53" s="123"/>
+      <c r="K53" s="135"/>
       <c r="L53" s="78"/>
       <c r="M53" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>538</v>
       </c>
@@ -12654,7 +12654,7 @@
       <c r="J54" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="K54" s="125"/>
+      <c r="K54" s="118"/>
       <c r="L54" s="81"/>
       <c r="M54" s="23" t="s">
         <v>105</v>
@@ -12663,7 +12663,7 @@
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
     </row>
-    <row r="55" spans="1:16" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>538</v>
       </c>
@@ -12702,7 +12702,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>538</v>
       </c>
@@ -12741,7 +12741,7 @@
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
     </row>
-    <row r="57" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>538</v>
       </c>
@@ -12770,7 +12770,7 @@
       <c r="J57" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K57" s="120" t="s">
+      <c r="K57" s="121" t="s">
         <v>214</v>
       </c>
       <c r="L57" s="78"/>
@@ -12778,7 +12778,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="58" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>538</v>
       </c>
@@ -12807,13 +12807,13 @@
       <c r="J58" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K58" s="120"/>
+      <c r="K58" s="121"/>
       <c r="L58" s="78"/>
       <c r="M58" s="21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>538</v>
       </c>
@@ -12839,13 +12839,13 @@
       <c r="J59" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K59" s="120"/>
+      <c r="K59" s="121"/>
       <c r="L59" s="78"/>
       <c r="M59" s="21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="60" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>538</v>
       </c>
@@ -12874,7 +12874,7 @@
       <c r="J60" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="K60" s="112" t="s">
+      <c r="K60" s="119" t="s">
         <v>219</v>
       </c>
       <c r="L60" s="80"/>
@@ -12885,7 +12885,7 @@
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
     </row>
-    <row r="61" spans="1:16" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>538</v>
       </c>
@@ -12914,7 +12914,7 @@
       <c r="J61" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="K61" s="113"/>
+      <c r="K61" s="110"/>
       <c r="L61" s="78" t="s">
         <v>221</v>
       </c>
@@ -12922,7 +12922,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="62" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>538</v>
       </c>
@@ -12951,7 +12951,7 @@
       <c r="J62" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K62" s="113"/>
+      <c r="K62" s="110"/>
       <c r="L62" s="78" t="s">
         <v>223</v>
       </c>
@@ -12959,7 +12959,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="63" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>538</v>
       </c>
@@ -12988,13 +12988,13 @@
       <c r="J63" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="K63" s="120"/>
+      <c r="K63" s="121"/>
       <c r="L63" s="78"/>
       <c r="M63" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="64" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>538</v>
       </c>
@@ -13023,13 +13023,13 @@
       <c r="J64" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="K64" s="120"/>
+      <c r="K64" s="121"/>
       <c r="L64" s="78"/>
       <c r="M64" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>538</v>
       </c>
@@ -13058,7 +13058,7 @@
       <c r="J65" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="K65" s="120"/>
+      <c r="K65" s="121"/>
       <c r="L65" s="78" t="s">
         <v>223</v>
       </c>
@@ -13066,7 +13066,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="66" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>538</v>
       </c>
@@ -13093,7 +13093,7 @@
       <c r="J66" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="K66" s="120"/>
+      <c r="K66" s="121"/>
       <c r="L66" s="43"/>
       <c r="M66" s="44" t="s">
         <v>105</v>
@@ -13102,7 +13102,7 @@
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
     </row>
-    <row r="67" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>538</v>
       </c>
@@ -13137,7 +13137,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="68" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>538</v>
       </c>
@@ -13175,7 +13175,7 @@
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
     </row>
-    <row r="69" spans="1:16" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>538</v>
       </c>
@@ -13204,7 +13204,7 @@
       <c r="J69" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K69" s="120" t="s">
+      <c r="K69" s="121" t="s">
         <v>136</v>
       </c>
       <c r="L69" s="78" t="s">
@@ -13214,7 +13214,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="70" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>538</v>
       </c>
@@ -13243,13 +13243,13 @@
       <c r="J70" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K70" s="120"/>
+      <c r="K70" s="121"/>
       <c r="L70" s="78"/>
       <c r="M70" s="21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="71" spans="1:16" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>538</v>
       </c>
@@ -13288,7 +13288,7 @@
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
     </row>
-    <row r="72" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>538</v>
       </c>
@@ -13317,13 +13317,13 @@
       <c r="J72" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K72" s="120"/>
+      <c r="K72" s="121"/>
       <c r="L72" s="78"/>
       <c r="M72" s="21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="73" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>538</v>
       </c>
@@ -13349,13 +13349,13 @@
       <c r="J73" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K73" s="120"/>
+      <c r="K73" s="121"/>
       <c r="L73" s="78"/>
       <c r="M73" s="21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="74" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>538</v>
       </c>
@@ -13381,13 +13381,13 @@
       <c r="J74" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K74" s="120"/>
+      <c r="K74" s="121"/>
       <c r="L74" s="78"/>
       <c r="M74" s="21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="75" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>538</v>
       </c>
@@ -13410,7 +13410,7 @@
       <c r="J75" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="K75" s="121"/>
+      <c r="K75" s="133"/>
       <c r="L75" s="81"/>
       <c r="M75" s="21" t="s">
         <v>105</v>
@@ -13419,7 +13419,7 @@
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
     </row>
-    <row r="76" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>538</v>
       </c>
@@ -13454,7 +13454,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="77" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>538</v>
       </c>
@@ -13485,10 +13485,10 @@
       <c r="J77" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="K77" s="124" t="s">
+      <c r="K77" s="117" t="s">
         <v>241</v>
       </c>
-      <c r="L77" s="133" t="s">
+      <c r="L77" s="122" t="s">
         <v>242</v>
       </c>
       <c r="M77" s="19" t="s">
@@ -13498,7 +13498,7 @@
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
     </row>
-    <row r="78" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>538</v>
       </c>
@@ -13529,8 +13529,8 @@
       <c r="J78" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K78" s="125"/>
-      <c r="L78" s="134"/>
+      <c r="K78" s="118"/>
+      <c r="L78" s="123"/>
       <c r="M78" s="44" t="s">
         <v>105</v>
       </c>
@@ -13538,7 +13538,7 @@
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
     </row>
-    <row r="79" spans="1:16" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>538</v>
       </c>
@@ -13570,12 +13570,12 @@
       <c r="K79" s="78" t="s">
         <v>244</v>
       </c>
-      <c r="L79" s="134"/>
+      <c r="L79" s="123"/>
       <c r="M79" s="44" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="80" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>538</v>
       </c>
@@ -13607,7 +13607,7 @@
       <c r="K80" s="78" t="s">
         <v>244</v>
       </c>
-      <c r="L80" s="135"/>
+      <c r="L80" s="124"/>
       <c r="M80" s="20" t="s">
         <v>105</v>
       </c>
@@ -13615,7 +13615,7 @@
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
     </row>
-    <row r="81" spans="1:16" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>538</v>
       </c>
@@ -13644,7 +13644,7 @@
       <c r="J81" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K81" s="120" t="s">
+      <c r="K81" s="121" t="s">
         <v>136</v>
       </c>
       <c r="L81" s="78" t="s">
@@ -13654,7 +13654,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="82" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>538</v>
       </c>
@@ -13683,13 +13683,13 @@
       <c r="J82" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K82" s="120"/>
+      <c r="K82" s="121"/>
       <c r="L82" s="78"/>
       <c r="M82" s="21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="83" spans="1:16" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>538</v>
       </c>
@@ -13731,7 +13731,7 @@
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
     </row>
-    <row r="84" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>538</v>
       </c>
@@ -13769,7 +13769,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="85" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>538</v>
       </c>
@@ -13797,7 +13797,7 @@
       <c r="J85" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="K85" s="120" t="s">
+      <c r="K85" s="121" t="s">
         <v>255</v>
       </c>
       <c r="L85" s="28"/>
@@ -13805,7 +13805,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="86" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>538</v>
       </c>
@@ -13833,13 +13833,13 @@
       <c r="J86" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="K86" s="120"/>
+      <c r="K86" s="121"/>
       <c r="L86" s="28"/>
       <c r="M86" s="21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="87" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>538</v>
       </c>
@@ -13867,13 +13867,13 @@
       <c r="J87" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="K87" s="120"/>
+      <c r="K87" s="121"/>
       <c r="L87" s="28"/>
       <c r="M87" s="21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="88" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>538</v>
       </c>
@@ -13898,13 +13898,13 @@
       <c r="J88" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="K88" s="120"/>
+      <c r="K88" s="121"/>
       <c r="L88" s="28"/>
       <c r="M88" s="21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="89" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>538</v>
       </c>
@@ -13932,13 +13932,13 @@
       <c r="J89" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="K89" s="120"/>
+      <c r="K89" s="121"/>
       <c r="L89" s="28"/>
       <c r="M89" s="21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="90" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>538</v>
       </c>
@@ -13966,13 +13966,13 @@
       <c r="J90" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="K90" s="120"/>
+      <c r="K90" s="121"/>
       <c r="L90" s="28"/>
       <c r="M90" s="21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="91" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>538</v>
       </c>
@@ -14001,10 +14001,10 @@
       <c r="J91" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="K91" s="126" t="s">
+      <c r="K91" s="111" t="s">
         <v>261</v>
       </c>
-      <c r="L91" s="117" t="s">
+      <c r="L91" s="130" t="s">
         <v>262</v>
       </c>
       <c r="M91" s="23" t="s">
@@ -14014,7 +14014,7 @@
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
     </row>
-    <row r="92" spans="1:16" s="2" customFormat="1" ht="72.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" s="2" customFormat="1" ht="72.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>538</v>
       </c>
@@ -14043,13 +14043,13 @@
       <c r="J92" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="K92" s="127"/>
-      <c r="L92" s="118"/>
+      <c r="K92" s="112"/>
+      <c r="L92" s="131"/>
       <c r="M92" s="21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="93" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>538</v>
       </c>
@@ -14078,13 +14078,13 @@
       <c r="J93" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="K93" s="127"/>
-      <c r="L93" s="118"/>
+      <c r="K93" s="112"/>
+      <c r="L93" s="131"/>
       <c r="M93" s="21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="94" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>538</v>
       </c>
@@ -14110,8 +14110,8 @@
       <c r="J94" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="K94" s="128"/>
-      <c r="L94" s="119"/>
+      <c r="K94" s="113"/>
+      <c r="L94" s="132"/>
       <c r="M94" s="21" t="s">
         <v>105</v>
       </c>
@@ -14119,7 +14119,7 @@
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
     </row>
-    <row r="95" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>538</v>
       </c>
@@ -14147,13 +14147,13 @@
       <c r="J95" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="K95" s="129"/>
+      <c r="K95" s="114"/>
       <c r="L95" s="28"/>
       <c r="M95" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="96" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>538</v>
       </c>
@@ -14181,13 +14181,13 @@
       <c r="J96" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="K96" s="130"/>
+      <c r="K96" s="115"/>
       <c r="L96" s="28"/>
       <c r="M96" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="97" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>538</v>
       </c>
@@ -14215,13 +14215,13 @@
       <c r="J97" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="K97" s="130"/>
+      <c r="K97" s="115"/>
       <c r="L97" s="28"/>
       <c r="M97" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="98" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>538</v>
       </c>
@@ -14249,13 +14249,13 @@
       <c r="J98" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="K98" s="130"/>
+      <c r="K98" s="115"/>
       <c r="L98" s="28"/>
       <c r="M98" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="99" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>538</v>
       </c>
@@ -14282,7 +14282,7 @@
       <c r="J99" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="K99" s="131"/>
+      <c r="K99" s="116"/>
       <c r="L99" s="79"/>
       <c r="M99" s="30" t="s">
         <v>105</v>
@@ -14291,7 +14291,7 @@
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" s="7"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -14303,20 +14303,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="L20:L24"/>
-    <mergeCell ref="K91:K94"/>
-    <mergeCell ref="K95:K99"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="L25:L28"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="L42:L47"/>
-    <mergeCell ref="K60:K62"/>
-    <mergeCell ref="K63:K66"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="K85:K90"/>
-    <mergeCell ref="L77:L80"/>
     <mergeCell ref="L6:L8"/>
     <mergeCell ref="L2:L5"/>
     <mergeCell ref="K6:K8"/>
@@ -14333,6 +14319,20 @@
     <mergeCell ref="K42:K47"/>
     <mergeCell ref="K50:K54"/>
     <mergeCell ref="K57:K59"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="L20:L24"/>
+    <mergeCell ref="K91:K94"/>
+    <mergeCell ref="K95:K99"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="L25:L28"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="L42:L47"/>
+    <mergeCell ref="K60:K62"/>
+    <mergeCell ref="K63:K66"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="K85:K90"/>
+    <mergeCell ref="L77:L80"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="M7:M8 M3:M5 L40 L91 M86:M94 M78:M80 J55:K55 J77:M77 M55 J78:K80 I1:M2 B1:H8 I6:M6 I3:J5 I9:M37 I39:L39 I40:J40 I95:M99 I91:K94 I7:J8 I41:M54 I81:M90 I56:M76 B39:H99 B11:H11 B9:F10 H9:H10 B13:H37 B12:F12 H12">
@@ -14364,20 +14364,20 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="28.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="99.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="138.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="99.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="138.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="117.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="117.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>88</v>
       </c>
@@ -14409,7 +14409,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>324</v>
       </c>
@@ -14441,7 +14441,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>274</v>
       </c>
@@ -14470,7 +14470,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>289</v>
       </c>
@@ -14499,7 +14499,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>268</v>
       </c>
@@ -14531,7 +14531,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>268</v>
       </c>
@@ -14563,7 +14563,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>281</v>
       </c>
@@ -14595,7 +14595,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>291</v>
       </c>
@@ -14627,7 +14627,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>268</v>
       </c>
@@ -14659,7 +14659,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>274</v>
       </c>
@@ -14691,7 +14691,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>277</v>
       </c>
@@ -14723,7 +14723,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>281</v>
       </c>
@@ -14755,7 +14755,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>283</v>
       </c>
@@ -14787,7 +14787,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>285</v>
       </c>
@@ -14819,7 +14819,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>291</v>
       </c>
@@ -14851,7 +14851,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>643</v>
       </c>
@@ -14880,7 +14880,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>165</v>
       </c>
@@ -14909,7 +14909,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>743</v>
       </c>
@@ -14938,7 +14938,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>324</v>
       </c>
@@ -14967,7 +14967,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -14996,7 +14996,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>283</v>
       </c>
@@ -15025,7 +15025,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>291</v>
       </c>
@@ -15054,7 +15054,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>643</v>
       </c>
@@ -15083,7 +15083,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>324</v>
       </c>
@@ -15112,7 +15112,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>643</v>
       </c>
@@ -15144,7 +15144,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>277</v>
       </c>
@@ -15173,7 +15173,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>289</v>
       </c>
@@ -15202,7 +15202,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>165</v>
       </c>
@@ -15231,7 +15231,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>743</v>
       </c>
@@ -15260,7 +15260,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>324</v>
       </c>
@@ -15289,7 +15289,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -15318,7 +15318,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -15347,7 +15347,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -15376,7 +15376,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -15405,7 +15405,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>53</v>
       </c>
@@ -15434,7 +15434,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -15463,7 +15463,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>53</v>
       </c>
@@ -15492,7 +15492,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -15524,7 +15524,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -15556,7 +15556,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -15588,7 +15588,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>53</v>
       </c>
@@ -15620,7 +15620,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -15652,7 +15652,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -15684,7 +15684,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -15716,7 +15716,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -15748,7 +15748,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -15780,7 +15780,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -15812,7 +15812,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -15857,12 +15857,12 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>697</v>
       </c>
@@ -15870,7 +15870,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>699</v>
       </c>
@@ -15878,7 +15878,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>698</v>
       </c>
@@ -15886,7 +15886,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>615</v>
       </c>
@@ -15894,7 +15894,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>291</v>
       </c>
@@ -15915,13 +15915,13 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>575</v>
       </c>
@@ -15932,7 +15932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>681</v>
       </c>
@@ -15943,7 +15943,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>681</v>
       </c>
@@ -15954,7 +15954,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>681</v>
       </c>
@@ -15965,7 +15965,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>681</v>
       </c>
@@ -15976,7 +15976,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>681</v>
       </c>
@@ -15996,33 +15996,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149AB136-B663-43F8-8265-AB28C3254826}">
   <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="2" customWidth="1"/>
     <col min="8" max="8" width="11" style="107" customWidth="1"/>
-    <col min="9" max="9" width="55.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="41.42578125" customWidth="1"/>
-    <col min="13" max="13" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" customWidth="1"/>
-    <col min="15" max="15" width="34.7109375" customWidth="1"/>
-    <col min="16" max="16" width="20.7109375" customWidth="1"/>
-    <col min="18" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="55.6640625" style="58" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.33203125" style="58" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="41.44140625" customWidth="1"/>
+    <col min="13" max="13" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" customWidth="1"/>
+    <col min="15" max="15" width="34.6640625" customWidth="1"/>
+    <col min="16" max="16" width="20.6640625" customWidth="1"/>
+    <col min="18" max="19" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="61" t="s">
         <v>575</v>
       </c>
@@ -16061,7 +16061,7 @@
       <c r="R1" s="47"/>
       <c r="S1" s="47"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>636</v>
       </c>
@@ -16097,7 +16097,7 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
     </row>
-    <row r="3" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>636</v>
       </c>
@@ -16117,7 +16117,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>636</v>
       </c>
@@ -16140,7 +16140,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
         <v>636</v>
       </c>
@@ -16154,7 +16154,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>636</v>
       </c>
@@ -16188,7 +16188,7 @@
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>636</v>
       </c>
@@ -16212,7 +16212,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>636</v>
       </c>
@@ -16244,7 +16244,7 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="1:23" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>636</v>
       </c>
@@ -16268,7 +16268,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>636</v>
       </c>
@@ -16288,7 +16288,7 @@
       <c r="I10" s="75"/>
       <c r="J10" s="58"/>
     </row>
-    <row r="11" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>636</v>
       </c>
@@ -16313,7 +16313,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>636</v>
       </c>
@@ -16333,7 +16333,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>635</v>
       </c>
@@ -16357,7 +16357,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="45" t="s">
         <v>635</v>
       </c>
@@ -16371,7 +16371,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>635</v>
       </c>
@@ -16391,7 +16391,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>635</v>
       </c>
@@ -16411,7 +16411,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>635</v>
       </c>
@@ -16434,7 +16434,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>635</v>
       </c>
@@ -16457,7 +16457,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>635</v>
       </c>
@@ -16477,7 +16477,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>635</v>
       </c>
@@ -16500,7 +16500,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>635</v>
       </c>
@@ -16520,7 +16520,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>635</v>
       </c>
@@ -16558,7 +16558,7 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
     </row>
-    <row r="23" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>644</v>
       </c>
@@ -16572,7 +16572,7 @@
       <c r="I23" s="105"/>
       <c r="J23" s="105"/>
     </row>
-    <row r="24" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>690</v>
       </c>
@@ -16608,7 +16608,7 @@
       <c r="V24" s="71"/>
       <c r="W24" s="71"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>690</v>
       </c>
@@ -16637,7 +16637,7 @@
       <c r="V25" s="51"/>
       <c r="W25" s="53"/>
     </row>
-    <row r="26" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>690</v>
       </c>
@@ -16672,7 +16672,7 @@
       <c r="V26" s="51"/>
       <c r="W26" s="51"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>690</v>
       </c>
@@ -16701,7 +16701,7 @@
       <c r="V27" s="51"/>
       <c r="W27" s="53"/>
     </row>
-    <row r="28" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>690</v>
       </c>
@@ -16733,7 +16733,7 @@
       <c r="V28" s="100"/>
       <c r="W28" s="102"/>
     </row>
-    <row r="29" spans="1:23" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>690</v>
       </c>
@@ -16769,7 +16769,7 @@
       <c r="V29" s="100"/>
       <c r="W29" s="100"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>690</v>
       </c>
@@ -16805,7 +16805,7 @@
       <c r="V30" s="100"/>
       <c r="W30" s="102"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>690</v>
       </c>
@@ -16834,7 +16834,7 @@
       <c r="V31" s="51"/>
       <c r="W31" s="51"/>
     </row>
-    <row r="32" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>694</v>
       </c>
@@ -16870,7 +16870,7 @@
       <c r="V32" s="71"/>
       <c r="W32" s="71"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>694</v>
       </c>
@@ -16902,7 +16902,7 @@
       <c r="V33" s="51"/>
       <c r="W33" s="51"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>694</v>
       </c>
@@ -16931,7 +16931,7 @@
       <c r="V34" s="51"/>
       <c r="W34" s="51"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>694</v>
       </c>
@@ -16957,7 +16957,7 @@
       <c r="V35" s="51"/>
       <c r="W35" s="51"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>694</v>
       </c>
@@ -16989,7 +16989,7 @@
       <c r="V36" s="51"/>
       <c r="W36" s="53"/>
     </row>
-    <row r="37" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>694</v>
       </c>
@@ -17022,7 +17022,7 @@
       <c r="V37" s="100"/>
       <c r="W37" s="100"/>
     </row>
-    <row r="38" spans="1:23" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>694</v>
       </c>
@@ -17055,7 +17055,7 @@
       <c r="V38" s="100"/>
       <c r="W38" s="100"/>
     </row>
-    <row r="39" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>694</v>
       </c>
@@ -17095,7 +17095,7 @@
       <c r="V39" s="100"/>
       <c r="W39" s="100"/>
     </row>
-    <row r="40" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>694</v>
       </c>
@@ -17127,7 +17127,7 @@
       <c r="V40" s="51"/>
       <c r="W40" s="53"/>
     </row>
-    <row r="41" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>694</v>
       </c>
@@ -17159,7 +17159,7 @@
       <c r="V41" s="51"/>
       <c r="W41" s="51"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>694</v>
       </c>
@@ -17188,7 +17188,7 @@
       <c r="V42" s="51"/>
       <c r="W42" s="51"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>694</v>
       </c>
@@ -17214,7 +17214,7 @@
       <c r="V43" s="51"/>
       <c r="W43" s="51"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>694</v>
       </c>
@@ -17246,7 +17246,7 @@
       <c r="V44" s="51"/>
       <c r="W44" s="51"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>694</v>
       </c>
@@ -17275,7 +17275,7 @@
       <c r="V45" s="51"/>
       <c r="W45" s="51"/>
     </row>
-    <row r="46" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>694</v>
       </c>
@@ -17304,7 +17304,7 @@
       <c r="V46" s="100"/>
       <c r="W46" s="100"/>
     </row>
-    <row r="47" spans="1:23" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>694</v>
       </c>
@@ -17340,7 +17340,7 @@
       <c r="V47" s="100"/>
       <c r="W47" s="100"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>694</v>
       </c>
@@ -17374,7 +17374,7 @@
       <c r="V48" s="100"/>
       <c r="W48" s="100"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>694</v>
       </c>
@@ -17404,7 +17404,7 @@
       <c r="V49" s="51"/>
       <c r="W49" s="51"/>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>694</v>
       </c>
@@ -17437,7 +17437,7 @@
       <c r="V50" s="51"/>
       <c r="W50" s="53"/>
     </row>
-    <row r="51" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>694</v>
       </c>
@@ -17454,7 +17454,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>694</v>
       </c>
@@ -17516,17 +17516,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FB7270-85D5-483E-AE4E-A5BD24F9C240}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>516</v>
       </c>
@@ -17540,7 +17540,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>83</v>
       </c>
@@ -17554,7 +17554,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -17568,7 +17568,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -17582,7 +17582,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -17596,7 +17596,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>502</v>
       </c>
@@ -17610,7 +17610,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>166</v>
       </c>
@@ -17627,7 +17627,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>502</v>
       </c>
@@ -17638,7 +17638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>672</v>
       </c>
@@ -17649,7 +17649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>672</v>
       </c>
@@ -17660,7 +17660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>501</v>
       </c>
@@ -17671,7 +17671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>502</v>
       </c>
@@ -17682,7 +17682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>501</v>
       </c>
@@ -17693,7 +17693,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>24</v>
       </c>
@@ -17704,7 +17704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>502</v>
       </c>
@@ -17715,7 +17715,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>502</v>
       </c>
@@ -17726,7 +17726,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>677</v>
       </c>
@@ -17737,7 +17737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -17748,7 +17748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -17759,7 +17759,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -17770,7 +17770,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>502</v>
       </c>
@@ -17781,7 +17781,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>787</v>
       </c>
@@ -17792,7 +17792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>502</v>
       </c>
@@ -17803,7 +17803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>502</v>
       </c>
@@ -17814,7 +17814,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>665</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
       <c r="C25">
         <v>1</v>
       </c>
@@ -17837,12 +17843,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18023,15 +18026,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4F7EAA9-3149-4D1D-AC50-D48674558E43}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{013AD9E7-5ED9-4240-9E80-4B7BF5375D95}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -18056,10 +18063,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{013AD9E7-5ED9-4240-9E80-4B7BF5375D95}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4F7EAA9-3149-4D1D-AC50-D48674558E43}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Meta/Analytes3.xlsx
+++ b/Meta/Analytes3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/coffman_christian_epa_gov/Documents/Profile/Documents/Projects/GL_Data/Meta/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/LakeMichiganML/Shared Documents/General/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4670" documentId="8_{D82D06AB-5E11-4340-B04B-6FA55AFBCF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDA05FB8-E276-4769-AF57-488643848963}"/>
+  <xr:revisionPtr revIDLastSave="4666" documentId="8_{D82D06AB-5E11-4340-B04B-6FA55AFBCF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F54EC3C7-CE24-4A28-B74A-BACA5B15BA30}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-9450" windowWidth="29040" windowHeight="15720" tabRatio="809" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25710" yWindow="-3490" windowWidth="25820" windowHeight="15500" tabRatio="809" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="2" r:id="rId1"/>
@@ -153,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3524" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3523" uniqueCount="796">
   <si>
     <t>CodeName</t>
   </si>
@@ -2548,6 +2548,9 @@
   </si>
   <si>
     <t>Ammonia/ammonium, dissolved</t>
+  </si>
+  <si>
+    <t>Note this is dealt with by manually selecting columns by number in the code</t>
   </si>
 </sst>
 </file>
@@ -2915,7 +2918,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3033,7 +3036,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3092,9 +3094,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3120,7 +3119,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3141,19 +3185,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3164,39 +3196,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3546,15 +3545,15 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" customWidth="1"/>
-    <col min="2" max="2" width="49.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -3571,7 +3570,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3588,7 +3587,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>793</v>
       </c>
@@ -3605,7 +3604,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3622,7 +3621,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3639,7 +3638,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -3656,7 +3655,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -3673,7 +3672,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -3690,7 +3689,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -3707,7 +3706,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -3724,7 +3723,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
         <v>25</v>
       </c>
@@ -3741,7 +3740,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
         <v>27</v>
       </c>
@@ -3758,7 +3757,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
         <v>29</v>
       </c>
@@ -3775,7 +3774,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="45" t="s">
         <v>30</v>
       </c>
@@ -3792,7 +3791,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
         <v>32</v>
       </c>
@@ -3809,7 +3808,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="45" t="s">
         <v>33</v>
       </c>
@@ -3826,7 +3825,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="45" t="s">
         <v>35</v>
       </c>
@@ -3843,7 +3842,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
         <v>36</v>
       </c>
@@ -3860,7 +3859,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
         <v>38</v>
       </c>
@@ -3877,7 +3876,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
         <v>40</v>
       </c>
@@ -3894,7 +3893,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="45" t="s">
         <v>42</v>
       </c>
@@ -3911,7 +3910,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="45" t="s">
         <v>43</v>
       </c>
@@ -3928,7 +3927,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="45" t="s">
         <v>45</v>
       </c>
@@ -3945,7 +3944,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="45" t="s">
         <v>47</v>
       </c>
@@ -3962,7 +3961,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="45" t="s">
         <v>48</v>
       </c>
@@ -3979,7 +3978,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="45" t="s">
         <v>50</v>
       </c>
@@ -3996,7 +3995,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="45" t="s">
         <v>52</v>
       </c>
@@ -4013,7 +4012,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="45" t="s">
         <v>54</v>
       </c>
@@ -4030,7 +4029,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="45" t="s">
         <v>56</v>
       </c>
@@ -4047,7 +4046,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="45" t="s">
         <v>58</v>
       </c>
@@ -4064,7 +4063,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="45" t="s">
         <v>59</v>
       </c>
@@ -4081,7 +4080,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="45" t="s">
         <v>60</v>
       </c>
@@ -4098,7 +4097,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="45" t="s">
         <v>62</v>
       </c>
@@ -4115,7 +4114,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="45" t="s">
         <v>64</v>
       </c>
@@ -4132,7 +4131,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="45" t="s">
         <v>65</v>
       </c>
@@ -4149,7 +4148,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="45" t="s">
         <v>68</v>
       </c>
@@ -4166,7 +4165,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="45" t="s">
         <v>640</v>
       </c>
@@ -4183,7 +4182,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="45" t="s">
         <v>70</v>
       </c>
@@ -4200,7 +4199,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="45" t="s">
         <v>72</v>
       </c>
@@ -4217,7 +4216,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>73</v>
       </c>
@@ -4234,7 +4233,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="45" t="s">
         <v>75</v>
       </c>
@@ -4251,7 +4250,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="45" t="s">
         <v>77</v>
       </c>
@@ -4268,7 +4267,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>81</v>
       </c>
@@ -4285,7 +4284,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -4325,16 +4324,16 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="99" t="s">
+    <row r="1" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="97" t="s">
         <v>690</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -4350,10 +4349,10 @@
         <v>7</v>
       </c>
       <c r="H1" s="2"/>
-      <c r="I1" s="95" t="s">
+      <c r="I1" s="93" t="s">
         <v>680</v>
       </c>
-      <c r="J1" s="75"/>
+      <c r="J1" s="74"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -4368,8 +4367,8 @@
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
     </row>
-    <row r="2" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="99" t="s">
+    <row r="2" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="97" t="s">
         <v>690</v>
       </c>
       <c r="B2" t="s">
@@ -4381,13 +4380,13 @@
       <c r="G2" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="I2" s="95" t="s">
+      <c r="I2" s="93" t="s">
         <v>680</v>
       </c>
       <c r="J2" s="58"/>
     </row>
-    <row r="3" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="99" t="s">
+    <row r="3" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="97" t="s">
         <v>690</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -4403,10 +4402,10 @@
         <v>75</v>
       </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="95" t="s">
+      <c r="I3" s="93" t="s">
         <v>680</v>
       </c>
-      <c r="J3" s="75"/>
+      <c r="J3" s="74"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -4421,8 +4420,8 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="99" t="s">
+    <row r="4" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="97" t="s">
         <v>690</v>
       </c>
       <c r="B4" t="s">
@@ -4434,13 +4433,13 @@
       <c r="G4" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="95" t="s">
+      <c r="I4" s="93" t="s">
         <v>680</v>
       </c>
       <c r="J4" s="58"/>
     </row>
-    <row r="5" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="99" t="s">
+    <row r="5" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="97" t="s">
         <v>690</v>
       </c>
       <c r="B5" t="s">
@@ -4452,31 +4451,31 @@
       <c r="G5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="95" t="s">
+      <c r="I5" s="93" t="s">
         <v>680</v>
       </c>
       <c r="J5" s="58"/>
     </row>
-    <row r="6" spans="1:23" s="96" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="99" t="s">
+    <row r="6" spans="1:23" s="94" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="97" t="s">
         <v>690</v>
       </c>
-      <c r="B6" s="96" t="s">
+      <c r="B6" s="94" t="s">
         <v>291</v>
       </c>
-      <c r="C6" s="96" t="s">
+      <c r="C6" s="94" t="s">
         <v>291</v>
       </c>
-      <c r="G6" s="97" t="s">
+      <c r="G6" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="I6" s="95" t="s">
+      <c r="I6" s="93" t="s">
         <v>680</v>
       </c>
-      <c r="J6" s="98"/>
-    </row>
-    <row r="7" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="99" t="s">
+      <c r="J6" s="96"/>
+    </row>
+    <row r="7" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="97" t="s">
         <v>690</v>
       </c>
       <c r="B7" t="s">
@@ -4488,13 +4487,13 @@
       <c r="G7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="95" t="s">
+      <c r="I7" s="93" t="s">
         <v>680</v>
       </c>
       <c r="J7" s="58"/>
     </row>
-    <row r="8" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="99" t="s">
+    <row r="8" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="97" t="s">
         <v>690</v>
       </c>
       <c r="B8" t="s">
@@ -4507,18 +4506,18 @@
       <c r="G8" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="I8" s="95" t="s">
+      <c r="I8" s="93" t="s">
         <v>680</v>
       </c>
       <c r="J8" s="58"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="99" t="s">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="97" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" s="99" t="s">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="97" t="s">
         <v>696</v>
       </c>
     </row>
@@ -4540,13 +4539,13 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>575</v>
       </c>
@@ -4557,7 +4556,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>539</v>
       </c>
@@ -4568,7 +4567,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>539</v>
       </c>
@@ -4579,7 +4578,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>539</v>
       </c>
@@ -4590,7 +4589,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>539</v>
       </c>
@@ -4601,7 +4600,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>539</v>
       </c>
@@ -4612,7 +4611,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>539</v>
       </c>
@@ -4623,7 +4622,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>539</v>
       </c>
@@ -4634,7 +4633,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>539</v>
       </c>
@@ -4645,7 +4644,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>539</v>
       </c>
@@ -4656,7 +4655,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>539</v>
       </c>
@@ -4667,7 +4666,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>539</v>
       </c>
@@ -4678,7 +4677,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>539</v>
       </c>
@@ -4689,7 +4688,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>539</v>
       </c>
@@ -4700,7 +4699,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>539</v>
       </c>
@@ -4711,7 +4710,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>539</v>
       </c>
@@ -4722,7 +4721,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>539</v>
       </c>
@@ -4733,7 +4732,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>539</v>
       </c>
@@ -4744,7 +4743,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>539</v>
       </c>
@@ -4755,7 +4754,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>539</v>
       </c>
@@ -4766,7 +4765,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>540</v>
       </c>
@@ -4777,7 +4776,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>540</v>
       </c>
@@ -4788,7 +4787,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>540</v>
       </c>
@@ -4799,7 +4798,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>540</v>
       </c>
@@ -4810,7 +4809,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>540</v>
       </c>
@@ -4821,7 +4820,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>540</v>
       </c>
@@ -4832,7 +4831,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>540</v>
       </c>
@@ -4843,7 +4842,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>540</v>
       </c>
@@ -4854,7 +4853,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>540</v>
       </c>
@@ -4865,7 +4864,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>540</v>
       </c>
@@ -4876,7 +4875,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>540</v>
       </c>
@@ -4887,7 +4886,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>540</v>
       </c>
@@ -4898,7 +4897,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>540</v>
       </c>
@@ -4909,7 +4908,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>540</v>
       </c>
@@ -4920,7 +4919,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>540</v>
       </c>
@@ -4931,7 +4930,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>540</v>
       </c>
@@ -4942,7 +4941,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>540</v>
       </c>
@@ -4953,7 +4952,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>540</v>
       </c>
@@ -4964,7 +4963,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>540</v>
       </c>
@@ -4975,7 +4974,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>540</v>
       </c>
@@ -4986,7 +4985,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>540</v>
       </c>
@@ -4997,7 +4996,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>540</v>
       </c>
@@ -5008,7 +5007,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>540</v>
       </c>
@@ -5019,7 +5018,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>540</v>
       </c>
@@ -5030,7 +5029,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>540</v>
       </c>
@@ -5041,7 +5040,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>540</v>
       </c>
@@ -5052,7 +5051,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>540</v>
       </c>
@@ -5063,7 +5062,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -5074,7 +5073,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -5085,7 +5084,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -5096,7 +5095,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -5107,7 +5106,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -5118,7 +5117,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -5129,7 +5128,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -5140,7 +5139,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -5151,7 +5150,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -5162,7 +5161,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>53</v>
       </c>
@@ -5173,7 +5172,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>53</v>
       </c>
@@ -5184,7 +5183,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>53</v>
       </c>
@@ -5195,7 +5194,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>53</v>
       </c>
@@ -5206,7 +5205,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>53</v>
       </c>
@@ -5217,7 +5216,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>53</v>
       </c>
@@ -5228,7 +5227,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>53</v>
       </c>
@@ -5239,7 +5238,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>53</v>
       </c>
@@ -5250,7 +5249,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>53</v>
       </c>
@@ -5261,7 +5260,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>53</v>
       </c>
@@ -5272,7 +5271,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>53</v>
       </c>
@@ -5283,7 +5282,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>53</v>
       </c>
@@ -5294,7 +5293,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>53</v>
       </c>
@@ -5305,7 +5304,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>53</v>
       </c>
@@ -5316,7 +5315,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>53</v>
       </c>
@@ -5341,15 +5340,15 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.7109375" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>522</v>
       </c>
@@ -5369,7 +5368,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>240</v>
       </c>
@@ -5390,7 +5389,7 @@
         <v>2.1391821402503068</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>240</v>
       </c>
@@ -5411,7 +5410,7 @@
         <v>2.1391821402503068</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>243</v>
       </c>
@@ -5432,7 +5431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>245</v>
       </c>
@@ -5453,7 +5452,7 @@
         <v>2.1391821402503068</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>528</v>
       </c>
@@ -5473,7 +5472,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>534</v>
       </c>
@@ -5493,7 +5492,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -5515,7 +5514,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>PRODUCT(A13:F13)</f>
         <v>0.46746837549933429</v>
@@ -5580,14 +5579,14 @@
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>537</v>
       </c>
@@ -5610,7 +5609,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>544</v>
       </c>
@@ -5627,7 +5626,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>548</v>
       </c>
@@ -5644,7 +5643,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>552</v>
       </c>
@@ -5661,7 +5660,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>555</v>
       </c>
@@ -5678,7 +5677,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>558</v>
       </c>
@@ -5695,7 +5694,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>560</v>
       </c>
@@ -5712,7 +5711,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>563</v>
       </c>
@@ -5729,7 +5728,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>565</v>
       </c>
@@ -5745,11 +5744,11 @@
       <c r="G9" t="s">
         <v>550</v>
       </c>
-      <c r="M9" s="93">
+      <c r="M9" s="91">
         <v>0.50069444399999996</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>566</v>
       </c>
@@ -5765,11 +5764,11 @@
       <c r="G10" t="s">
         <v>569</v>
       </c>
-      <c r="M10" s="93">
+      <c r="M10" s="91">
         <v>0.45416600000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>570</v>
       </c>
@@ -5785,11 +5784,11 @@
       <c r="G11" t="s">
         <v>573</v>
       </c>
-      <c r="M11" s="93">
+      <c r="M11" s="91">
         <v>0.44791666699999999</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>574</v>
       </c>
@@ -5806,7 +5805,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>578</v>
       </c>
@@ -5823,7 +5822,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>581</v>
       </c>
@@ -5831,7 +5830,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>582</v>
       </c>
@@ -5839,7 +5838,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>584</v>
       </c>
@@ -5847,7 +5846,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>586</v>
       </c>
@@ -5855,27 +5854,27 @@
         <v>587</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>589</v>
       </c>
@@ -5894,28 +5893,28 @@
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
     <col min="6" max="6" width="11" style="9" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="56.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.109375" customWidth="1"/>
-    <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="64.33203125" style="58" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" customWidth="1"/>
-    <col min="15" max="15" width="34.6640625" customWidth="1"/>
-    <col min="16" max="16" width="20.6640625" customWidth="1"/>
-    <col min="18" max="19" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="56.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="64.28515625" style="58" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" customWidth="1"/>
+    <col min="15" max="15" width="34.7109375" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" customWidth="1"/>
+    <col min="18" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
         <v>88</v>
       </c>
@@ -5954,7 +5953,7 @@
       <c r="R1" s="47"/>
       <c r="S1" s="47"/>
     </row>
-    <row r="2" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>268</v>
       </c>
@@ -5989,7 +5988,7 @@
       <c r="V2" s="51"/>
       <c r="W2" s="53"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>268</v>
       </c>
@@ -6022,7 +6021,7 @@
       <c r="V3" s="51"/>
       <c r="W3" s="51"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>274</v>
       </c>
@@ -6054,7 +6053,7 @@
       <c r="V4" s="51"/>
       <c r="W4" s="53"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>274</v>
       </c>
@@ -6084,7 +6083,7 @@
       <c r="V5" s="51"/>
       <c r="W5" s="53"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>274</v>
       </c>
@@ -6114,7 +6113,7 @@
       <c r="V6" s="51"/>
       <c r="W6" s="53"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>277</v>
       </c>
@@ -6147,7 +6146,7 @@
       <c r="V7" s="51"/>
       <c r="W7" s="51"/>
     </row>
-    <row r="8" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>281</v>
       </c>
@@ -6179,7 +6178,7 @@
       <c r="V8" s="51"/>
       <c r="W8" s="53"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>281</v>
       </c>
@@ -6209,7 +6208,7 @@
       <c r="V9" s="51"/>
       <c r="W9" s="53"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>595</v>
       </c>
@@ -6244,7 +6243,7 @@
       <c r="V10" s="51"/>
       <c r="W10" s="53"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>595</v>
       </c>
@@ -6277,7 +6276,7 @@
       <c r="V11" s="51"/>
       <c r="W11" s="51"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>601</v>
       </c>
@@ -6310,7 +6309,7 @@
       <c r="V12" s="51"/>
       <c r="W12" s="51"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>601</v>
       </c>
@@ -6333,7 +6332,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>601</v>
       </c>
@@ -6366,7 +6365,7 @@
       <c r="V14" s="51"/>
       <c r="W14" s="51"/>
     </row>
-    <row r="15" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>283</v>
       </c>
@@ -6398,7 +6397,7 @@
       <c r="V15" s="51"/>
       <c r="W15" s="53"/>
     </row>
-    <row r="16" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>283</v>
       </c>
@@ -6430,7 +6429,7 @@
       <c r="V16" s="51"/>
       <c r="W16" s="53"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>605</v>
       </c>
@@ -6460,7 +6459,7 @@
       <c r="V17" s="51"/>
       <c r="W17" s="51"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>605</v>
       </c>
@@ -6490,7 +6489,7 @@
       <c r="V18" s="51"/>
       <c r="W18" s="51"/>
     </row>
-    <row r="19" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>607</v>
       </c>
@@ -6522,7 +6521,7 @@
       <c r="V19" s="51"/>
       <c r="W19" s="53"/>
     </row>
-    <row r="20" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>610</v>
       </c>
@@ -6554,7 +6553,7 @@
       <c r="V20" s="51"/>
       <c r="W20" s="53"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>613</v>
       </c>
@@ -6584,7 +6583,7 @@
       <c r="V21" s="51"/>
       <c r="W21" s="51"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>615</v>
       </c>
@@ -6614,7 +6613,7 @@
       <c r="V22" s="51"/>
       <c r="W22" s="51"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>285</v>
       </c>
@@ -6647,7 +6646,7 @@
       <c r="V23" s="51"/>
       <c r="W23" s="51"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>289</v>
       </c>
@@ -6677,7 +6676,7 @@
       <c r="V24" s="51"/>
       <c r="W24" s="51"/>
     </row>
-    <row r="25" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>289</v>
       </c>
@@ -6709,7 +6708,7 @@
       <c r="V25" s="51"/>
       <c r="W25" s="53"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>289</v>
       </c>
@@ -6739,7 +6738,7 @@
       <c r="V26" s="51"/>
       <c r="W26" s="53"/>
     </row>
-    <row r="27" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>291</v>
       </c>
@@ -6771,7 +6770,7 @@
       <c r="V27" s="51"/>
       <c r="W27" s="53"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>291</v>
       </c>
@@ -6801,7 +6800,7 @@
       <c r="V28" s="51"/>
       <c r="W28" s="51"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>291</v>
       </c>
@@ -6831,7 +6830,7 @@
       <c r="V29" s="51"/>
       <c r="W29" s="51"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -6861,7 +6860,7 @@
       <c r="V30" s="51"/>
       <c r="W30" s="51"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -6894,7 +6893,7 @@
       <c r="V31" s="51"/>
       <c r="W31" s="51"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -6924,7 +6923,7 @@
       <c r="V32" s="51"/>
       <c r="W32" s="51"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -6954,7 +6953,7 @@
       <c r="V33" s="51"/>
       <c r="W33" s="51"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -6989,7 +6988,7 @@
       <c r="V34" s="51"/>
       <c r="W34" s="53"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>53</v>
       </c>
@@ -7022,7 +7021,7 @@
       <c r="V35" s="51"/>
       <c r="W35" s="51"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -7052,7 +7051,7 @@
       <c r="V36" s="51"/>
       <c r="W36" s="51"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>53</v>
       </c>
@@ -7082,7 +7081,7 @@
       <c r="V37" s="51"/>
       <c r="W37" s="51"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -7117,7 +7116,7 @@
       <c r="V38" s="51"/>
       <c r="W38" s="53"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -7149,7 +7148,7 @@
       <c r="V39" s="51"/>
       <c r="W39" s="51"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -7178,7 +7177,7 @@
       <c r="V40" s="51"/>
       <c r="W40" s="51"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>53</v>
       </c>
@@ -7207,7 +7206,7 @@
       <c r="V41" s="51"/>
       <c r="W41" s="51"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -7236,7 +7235,7 @@
       <c r="V42" s="51"/>
       <c r="W42" s="51"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -7268,7 +7267,7 @@
       <c r="V43" s="51"/>
       <c r="W43" s="51"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -7297,7 +7296,7 @@
       <c r="V44" s="51"/>
       <c r="W44" s="51"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -7329,7 +7328,7 @@
       <c r="V45" s="51"/>
       <c r="W45" s="51"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -7358,7 +7357,7 @@
       <c r="V46" s="51"/>
       <c r="W46" s="51"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -7390,7 +7389,7 @@
       <c r="V47" s="51"/>
       <c r="W47" s="51"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -7419,7 +7418,7 @@
       <c r="V48" s="51"/>
       <c r="W48" s="53"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D51" s="53" t="s">
         <v>625</v>
       </c>
@@ -7438,7 +7437,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D52" s="53" t="s">
         <v>629</v>
       </c>
@@ -7457,7 +7456,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D53" s="53" t="s">
         <v>631</v>
       </c>
@@ -7476,7 +7475,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="54" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D54" s="53" t="s">
         <v>633</v>
       </c>
@@ -7515,24 +7514,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5D57F1-DBF9-46B4-8278-09786D5200AB}">
   <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H93" sqref="H93"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="75.33203125" style="60" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="10" max="10" width="64.44140625" style="58" customWidth="1"/>
-    <col min="11" max="11" width="35.33203125" style="58" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="75.28515625" style="60" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="64.42578125" style="58" customWidth="1"/>
+    <col min="11" max="11" width="35.28515625" style="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>575</v>
       </c>
@@ -7570,7 +7569,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>540</v>
       </c>
@@ -7599,7 +7598,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>540</v>
       </c>
@@ -7628,7 +7627,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>540</v>
       </c>
@@ -7651,7 +7650,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>540</v>
       </c>
@@ -7674,7 +7673,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>540</v>
       </c>
@@ -7697,7 +7696,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>540</v>
       </c>
@@ -7723,7 +7722,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>540</v>
       </c>
@@ -7739,7 +7738,7 @@
       <c r="G8" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="72" t="s">
+      <c r="H8" s="71" t="s">
         <v>127</v>
       </c>
       <c r="I8" t="s">
@@ -7749,7 +7748,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>540</v>
       </c>
@@ -7765,7 +7764,7 @@
       <c r="G9" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="72" t="s">
+      <c r="H9" s="71" t="s">
         <v>127</v>
       </c>
       <c r="I9" t="s">
@@ -7775,7 +7774,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>540</v>
       </c>
@@ -7798,7 +7797,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>540</v>
       </c>
@@ -7823,7 +7822,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>540</v>
       </c>
@@ -7850,7 +7849,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>540</v>
       </c>
@@ -7877,7 +7876,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>540</v>
       </c>
@@ -7904,7 +7903,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>540</v>
       </c>
@@ -7927,7 +7926,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>540</v>
       </c>
@@ -7950,7 +7949,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>540</v>
       </c>
@@ -7973,7 +7972,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>540</v>
       </c>
@@ -7997,7 +7996,7 @@
       </c>
       <c r="J18" s="65"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>540</v>
       </c>
@@ -8020,7 +8019,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>540</v>
       </c>
@@ -8036,7 +8035,7 @@
       <c r="G20" t="s">
         <v>53</v>
       </c>
-      <c r="H20" s="72" t="s">
+      <c r="H20" s="71" t="s">
         <v>127</v>
       </c>
       <c r="I20" s="45" t="s">
@@ -8049,7 +8048,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>540</v>
       </c>
@@ -8078,7 +8077,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>540</v>
       </c>
@@ -8101,7 +8100,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>540</v>
       </c>
@@ -8130,7 +8129,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>540</v>
       </c>
@@ -8156,7 +8155,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>540</v>
       </c>
@@ -8179,7 +8178,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>540</v>
       </c>
@@ -8202,7 +8201,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>540</v>
       </c>
@@ -8228,7 +8227,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>540</v>
       </c>
@@ -8251,7 +8250,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>540</v>
       </c>
@@ -8274,7 +8273,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>540</v>
       </c>
@@ -8303,7 +8302,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>540</v>
       </c>
@@ -8332,7 +8331,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>705</v>
       </c>
@@ -8346,18 +8345,20 @@
       <c r="G32" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="H32" s="69" t="s">
+      <c r="H32" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="I32" s="14" t="s">
         <v>412</v>
       </c>
-      <c r="J32" s="92" t="s">
+      <c r="J32" s="76" t="s">
         <v>413</v>
       </c>
-      <c r="K32" s="70"/>
-    </row>
-    <row r="33" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="K32" s="69" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>705</v>
       </c>
@@ -8379,11 +8380,11 @@
       <c r="J33" s="58" t="s">
         <v>416</v>
       </c>
-      <c r="K33" s="74" t="s">
+      <c r="K33" s="73" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>705</v>
       </c>
@@ -8403,7 +8404,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>705</v>
       </c>
@@ -8429,7 +8430,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>705</v>
       </c>
@@ -8455,7 +8456,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>705</v>
       </c>
@@ -8481,7 +8482,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>705</v>
       </c>
@@ -8507,7 +8508,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>705</v>
       </c>
@@ -8527,7 +8528,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>705</v>
       </c>
@@ -8537,7 +8538,7 @@
       <c r="F40">
         <v>2021</v>
       </c>
-      <c r="G40" s="73" t="s">
+      <c r="G40" s="72" t="s">
         <v>430</v>
       </c>
       <c r="H40" s="45" t="s">
@@ -8553,7 +8554,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>705</v>
       </c>
@@ -8563,7 +8564,7 @@
       <c r="F41">
         <v>2021</v>
       </c>
-      <c r="G41" s="73" t="s">
+      <c r="G41" s="72" t="s">
         <v>430</v>
       </c>
       <c r="H41" s="45" t="s">
@@ -8579,7 +8580,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>705</v>
       </c>
@@ -8599,7 +8600,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>705</v>
       </c>
@@ -8622,7 +8623,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>705</v>
       </c>
@@ -8645,7 +8646,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>705</v>
       </c>
@@ -8668,7 +8669,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>705</v>
       </c>
@@ -8691,7 +8692,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>705</v>
       </c>
@@ -8714,7 +8715,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>705</v>
       </c>
@@ -8737,7 +8738,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>705</v>
       </c>
@@ -8757,9 +8758,9 @@
         <v>412</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B50" t="s">
         <v>446</v>
@@ -8780,9 +8781,9 @@
         <v>448</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B51" t="s">
         <v>449</v>
@@ -8800,9 +8801,9 @@
         <v>412</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B52" t="s">
         <v>451</v>
@@ -8820,9 +8821,9 @@
         <v>412</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B53" t="s">
         <v>452</v>
@@ -8840,9 +8841,9 @@
         <v>412</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B54" t="s">
         <v>453</v>
@@ -8860,9 +8861,9 @@
         <v>412</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B55" t="s">
         <v>454</v>
@@ -8880,9 +8881,9 @@
         <v>412</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B56" t="s">
         <v>456</v>
@@ -8900,9 +8901,9 @@
         <v>412</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B57" t="s">
         <v>457</v>
@@ -8920,9 +8921,9 @@
         <v>412</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B58" t="s">
         <v>458</v>
@@ -8940,9 +8941,9 @@
         <v>412</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B59" t="s">
         <v>459</v>
@@ -8960,9 +8961,9 @@
         <v>412</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B60" t="s">
         <v>461</v>
@@ -8983,9 +8984,9 @@
         <v>462</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B61" t="s">
         <v>77</v>
@@ -8996,7 +8997,7 @@
       <c r="G61" t="s">
         <v>460</v>
       </c>
-      <c r="H61" s="40" t="s">
+      <c r="H61" s="45" t="s">
         <v>127</v>
       </c>
       <c r="I61" t="s">
@@ -9006,9 +9007,9 @@
         <v>463</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B62" t="s">
         <v>464</v>
@@ -9026,9 +9027,9 @@
         <v>412</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B63" t="s">
         <v>466</v>
@@ -9052,9 +9053,9 @@
         <v>469</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B64" t="s">
         <v>470</v>
@@ -9072,9 +9073,9 @@
         <v>412</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B65" t="s">
         <v>472</v>
@@ -9092,9 +9093,9 @@
         <v>412</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B66" t="s">
         <v>473</v>
@@ -9112,9 +9113,9 @@
         <v>412</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B67" t="s">
         <v>474</v>
@@ -9132,14 +9133,14 @@
         <v>412</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>704</v>
       </c>
       <c r="B68" s="14" t="s">
         <v>475</v>
       </c>
-      <c r="E68" s="91"/>
+      <c r="E68" s="90"/>
       <c r="F68" s="14">
         <v>2021</v>
       </c>
@@ -9152,19 +9153,19 @@
       <c r="I68" s="14" t="s">
         <v>412</v>
       </c>
-      <c r="J68" s="77" t="s">
+      <c r="J68" s="76" t="s">
         <v>476</v>
       </c>
-      <c r="K68" s="77"/>
-    </row>
-    <row r="69" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K68" s="76"/>
+    </row>
+    <row r="69" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>704</v>
       </c>
       <c r="B69" s="45" t="s">
         <v>477</v>
       </c>
-      <c r="E69" s="90"/>
+      <c r="E69" s="89"/>
       <c r="F69" s="45">
         <v>2021</v>
       </c>
@@ -9182,14 +9183,14 @@
       </c>
       <c r="K69" s="65"/>
     </row>
-    <row r="70" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>704</v>
       </c>
       <c r="B70" s="45" t="s">
         <v>479</v>
       </c>
-      <c r="E70" s="90"/>
+      <c r="E70" s="89"/>
       <c r="F70" s="45">
         <v>2021</v>
       </c>
@@ -9207,14 +9208,14 @@
       </c>
       <c r="K70" s="65"/>
     </row>
-    <row r="71" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>704</v>
       </c>
       <c r="B71" s="45" t="s">
         <v>481</v>
       </c>
-      <c r="E71" s="90"/>
+      <c r="E71" s="89"/>
       <c r="F71" s="45">
         <v>2021</v>
       </c>
@@ -9232,14 +9233,14 @@
       </c>
       <c r="K71" s="65"/>
     </row>
-    <row r="72" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>704</v>
       </c>
       <c r="B72" s="45" t="s">
         <v>702</v>
       </c>
-      <c r="E72" s="90"/>
+      <c r="E72" s="89"/>
       <c r="F72" s="45">
         <v>2021</v>
       </c>
@@ -9257,14 +9258,14 @@
       </c>
       <c r="K72" s="65"/>
     </row>
-    <row r="73" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>704</v>
       </c>
       <c r="B73" s="45" t="s">
         <v>486</v>
       </c>
-      <c r="E73" s="90"/>
+      <c r="E73" s="89"/>
       <c r="F73" s="45">
         <v>2021</v>
       </c>
@@ -9282,14 +9283,14 @@
       </c>
       <c r="K73" s="65"/>
     </row>
-    <row r="74" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>704</v>
       </c>
       <c r="B74" s="45" t="s">
         <v>488</v>
       </c>
-      <c r="E74" s="90"/>
+      <c r="E74" s="89"/>
       <c r="F74" s="45">
         <v>2021</v>
       </c>
@@ -9307,14 +9308,14 @@
       </c>
       <c r="K74" s="65"/>
     </row>
-    <row r="75" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>704</v>
       </c>
       <c r="B75" s="45" t="s">
         <v>703</v>
       </c>
-      <c r="E75" s="90"/>
+      <c r="E75" s="89"/>
       <c r="F75" s="45">
         <v>2021</v>
       </c>
@@ -9332,14 +9333,14 @@
       </c>
       <c r="K75" s="65"/>
     </row>
-    <row r="76" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>704</v>
       </c>
       <c r="B76" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="E76" s="90"/>
+      <c r="E76" s="89"/>
       <c r="F76" s="45">
         <v>2021</v>
       </c>
@@ -9357,14 +9358,14 @@
       </c>
       <c r="K76" s="65"/>
     </row>
-    <row r="77" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>704</v>
       </c>
       <c r="B77" s="45" t="s">
         <v>493</v>
       </c>
-      <c r="E77" s="90"/>
+      <c r="E77" s="89"/>
       <c r="F77" s="45">
         <v>2021</v>
       </c>
@@ -9382,14 +9383,14 @@
       </c>
       <c r="K77" s="65"/>
     </row>
-    <row r="78" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>704</v>
       </c>
       <c r="B78" s="45" t="s">
         <v>495</v>
       </c>
-      <c r="E78" s="90"/>
+      <c r="E78" s="89"/>
       <c r="F78" s="45">
         <v>2021</v>
       </c>
@@ -9407,14 +9408,14 @@
       </c>
       <c r="K78" s="65"/>
     </row>
-    <row r="79" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>704</v>
       </c>
       <c r="B79" s="45" t="s">
         <v>497</v>
       </c>
-      <c r="E79" s="90"/>
+      <c r="E79" s="89"/>
       <c r="F79" s="45">
         <v>2021</v>
       </c>
@@ -9432,14 +9433,14 @@
       </c>
       <c r="K79" s="65"/>
     </row>
-    <row r="80" spans="1:11" s="45" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" s="45" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>704</v>
       </c>
       <c r="B80" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="E80" s="90" t="s">
+      <c r="E80" s="89" t="s">
         <v>498</v>
       </c>
       <c r="F80" s="45">
@@ -9461,14 +9462,14 @@
         <v>788</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="45" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" s="45" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>704</v>
       </c>
       <c r="B81" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="E81" s="90" t="s">
+      <c r="E81" s="89" t="s">
         <v>498</v>
       </c>
       <c r="F81" s="45">
@@ -9490,14 +9491,14 @@
         <v>788</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>704</v>
       </c>
       <c r="B82" s="45" t="s">
         <v>500</v>
       </c>
-      <c r="E82" s="90"/>
+      <c r="E82" s="89"/>
       <c r="F82" s="45">
         <v>2021</v>
       </c>
@@ -9513,22 +9514,22 @@
       <c r="J82" s="65"/>
       <c r="K82" s="65"/>
     </row>
-    <row r="83" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>539</v>
       </c>
-      <c r="B83" s="88" t="s">
+      <c r="B83" s="87" t="s">
         <v>475</v>
       </c>
-      <c r="C83" s="88" t="s">
+      <c r="C83" s="87" t="s">
         <v>119</v>
       </c>
-      <c r="D83" s="88"/>
-      <c r="E83" s="89"/>
-      <c r="F83" s="88">
+      <c r="D83" s="87"/>
+      <c r="E83" s="88"/>
+      <c r="F83" s="87">
         <v>2010</v>
       </c>
-      <c r="G83" s="88" t="s">
+      <c r="G83" s="87" t="s">
         <v>501</v>
       </c>
       <c r="H83" s="4" t="s">
@@ -9537,9 +9538,9 @@
       <c r="I83" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="J83" s="70"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J83" s="69"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>539</v>
       </c>
@@ -9550,7 +9551,7 @@
         <v>53</v>
       </c>
       <c r="D84" s="66"/>
-      <c r="E84" s="87"/>
+      <c r="E84" s="86"/>
       <c r="F84" s="66">
         <v>2010</v>
       </c>
@@ -9565,7 +9566,7 @@
       </c>
       <c r="K84"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>539</v>
       </c>
@@ -9576,7 +9577,7 @@
         <v>119</v>
       </c>
       <c r="D85" s="66"/>
-      <c r="E85" s="87"/>
+      <c r="E85" s="86"/>
       <c r="F85" s="66">
         <v>2010</v>
       </c>
@@ -9591,7 +9592,7 @@
       </c>
       <c r="K85"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>539</v>
       </c>
@@ -9602,7 +9603,7 @@
         <v>119</v>
       </c>
       <c r="D86" s="66"/>
-      <c r="E86" s="87"/>
+      <c r="E86" s="86"/>
       <c r="F86" s="66">
         <v>2010</v>
       </c>
@@ -9617,7 +9618,7 @@
       </c>
       <c r="K86"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>539</v>
       </c>
@@ -9628,7 +9629,7 @@
         <v>53</v>
       </c>
       <c r="D87" s="66"/>
-      <c r="E87" s="87"/>
+      <c r="E87" s="86"/>
       <c r="F87" s="66">
         <v>2010</v>
       </c>
@@ -9643,7 +9644,7 @@
       </c>
       <c r="K87"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>539</v>
       </c>
@@ -9654,7 +9655,7 @@
         <v>119</v>
       </c>
       <c r="D88" s="66"/>
-      <c r="E88" s="87"/>
+      <c r="E88" s="86"/>
       <c r="F88" s="66">
         <v>2010</v>
       </c>
@@ -9669,7 +9670,7 @@
       </c>
       <c r="K88"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>539</v>
       </c>
@@ -9680,7 +9681,7 @@
         <v>53</v>
       </c>
       <c r="D89" s="66"/>
-      <c r="E89" s="87"/>
+      <c r="E89" s="86"/>
       <c r="F89" s="66">
         <v>2010</v>
       </c>
@@ -9695,7 +9696,7 @@
       </c>
       <c r="K89"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>539</v>
       </c>
@@ -9706,7 +9707,7 @@
         <v>119</v>
       </c>
       <c r="D90" s="66"/>
-      <c r="E90" s="87"/>
+      <c r="E90" s="86"/>
       <c r="F90" s="66">
         <v>2010</v>
       </c>
@@ -9721,7 +9722,7 @@
       </c>
       <c r="K90"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>539</v>
       </c>
@@ -9732,7 +9733,7 @@
         <v>53</v>
       </c>
       <c r="D91" s="66"/>
-      <c r="E91" s="87"/>
+      <c r="E91" s="86"/>
       <c r="F91" s="66">
         <v>2010</v>
       </c>
@@ -9747,7 +9748,7 @@
       </c>
       <c r="K91"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>539</v>
       </c>
@@ -9758,7 +9759,7 @@
         <v>119</v>
       </c>
       <c r="D92" s="66"/>
-      <c r="E92" s="87"/>
+      <c r="E92" s="86"/>
       <c r="F92" s="66">
         <v>2010</v>
       </c>
@@ -9773,7 +9774,7 @@
       </c>
       <c r="K92"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>539</v>
       </c>
@@ -9784,7 +9785,7 @@
         <v>53</v>
       </c>
       <c r="D93" s="66"/>
-      <c r="E93" s="87"/>
+      <c r="E93" s="86"/>
       <c r="F93" s="66">
         <v>2010</v>
       </c>
@@ -9799,7 +9800,7 @@
       </c>
       <c r="K93"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>539</v>
       </c>
@@ -9810,7 +9811,7 @@
         <v>119</v>
       </c>
       <c r="D94" s="66"/>
-      <c r="E94" s="87"/>
+      <c r="E94" s="86"/>
       <c r="F94" s="66">
         <v>2010</v>
       </c>
@@ -9825,7 +9826,7 @@
       </c>
       <c r="K94"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>539</v>
       </c>
@@ -9836,7 +9837,7 @@
         <v>53</v>
       </c>
       <c r="D95" s="66"/>
-      <c r="E95" s="87"/>
+      <c r="E95" s="86"/>
       <c r="F95" s="66">
         <v>2010</v>
       </c>
@@ -9851,7 +9852,7 @@
       </c>
       <c r="K95"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>539</v>
       </c>
@@ -9862,7 +9863,7 @@
         <v>119</v>
       </c>
       <c r="D96" s="66"/>
-      <c r="E96" s="87"/>
+      <c r="E96" s="86"/>
       <c r="F96" s="66">
         <v>2010</v>
       </c>
@@ -9877,7 +9878,7 @@
       </c>
       <c r="K96"/>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>539</v>
       </c>
@@ -9888,7 +9889,7 @@
         <v>53</v>
       </c>
       <c r="D97" s="66"/>
-      <c r="E97" s="87"/>
+      <c r="E97" s="86"/>
       <c r="F97" s="66">
         <v>2010</v>
       </c>
@@ -9903,7 +9904,7 @@
       </c>
       <c r="K97"/>
     </row>
-    <row r="98" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>539</v>
       </c>
@@ -9914,7 +9915,7 @@
         <v>149</v>
       </c>
       <c r="D98" s="66"/>
-      <c r="E98" s="87"/>
+      <c r="E98" s="86"/>
       <c r="F98" s="66">
         <v>2010</v>
       </c>
@@ -9937,7 +9938,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>539</v>
       </c>
@@ -9948,7 +9949,7 @@
         <v>53</v>
       </c>
       <c r="D99" s="66"/>
-      <c r="E99" s="87"/>
+      <c r="E99" s="86"/>
       <c r="F99" s="66">
         <v>2010</v>
       </c>
@@ -9971,7 +9972,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>539</v>
       </c>
@@ -9982,7 +9983,7 @@
         <v>149</v>
       </c>
       <c r="D100" s="66"/>
-      <c r="E100" s="87"/>
+      <c r="E100" s="86"/>
       <c r="F100" s="66">
         <v>2010</v>
       </c>
@@ -10005,7 +10006,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>539</v>
       </c>
@@ -10016,7 +10017,7 @@
         <v>53</v>
       </c>
       <c r="D101" s="66"/>
-      <c r="E101" s="87"/>
+      <c r="E101" s="86"/>
       <c r="F101" s="66">
         <v>2010</v>
       </c>
@@ -10039,7 +10040,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>539</v>
       </c>
@@ -10050,7 +10051,7 @@
         <v>149</v>
       </c>
       <c r="D102" s="66"/>
-      <c r="E102" s="87"/>
+      <c r="E102" s="86"/>
       <c r="F102" s="66">
         <v>2010</v>
       </c>
@@ -10073,7 +10074,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>539</v>
       </c>
@@ -10084,7 +10085,7 @@
         <v>53</v>
       </c>
       <c r="D103" s="66"/>
-      <c r="E103" s="87"/>
+      <c r="E103" s="86"/>
       <c r="F103" s="66">
         <v>2010</v>
       </c>
@@ -10107,7 +10108,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>539</v>
       </c>
@@ -10118,7 +10119,7 @@
         <v>119</v>
       </c>
       <c r="D104" s="66"/>
-      <c r="E104" s="87"/>
+      <c r="E104" s="86"/>
       <c r="F104" s="66">
         <v>2010</v>
       </c>
@@ -10133,7 +10134,7 @@
       </c>
       <c r="K104"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>539</v>
       </c>
@@ -10144,7 +10145,7 @@
         <v>119</v>
       </c>
       <c r="D105" s="66"/>
-      <c r="E105" s="87"/>
+      <c r="E105" s="86"/>
       <c r="F105" s="66">
         <v>2010</v>
       </c>
@@ -10159,7 +10160,7 @@
       </c>
       <c r="K105"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>539</v>
       </c>
@@ -10170,7 +10171,7 @@
         <v>53</v>
       </c>
       <c r="D106" s="66"/>
-      <c r="E106" s="87"/>
+      <c r="E106" s="86"/>
       <c r="F106" s="66">
         <v>2010</v>
       </c>
@@ -10185,7 +10186,7 @@
       </c>
       <c r="K106"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>539</v>
       </c>
@@ -10196,7 +10197,7 @@
         <v>149</v>
       </c>
       <c r="D107" s="66"/>
-      <c r="E107" s="87"/>
+      <c r="E107" s="86"/>
       <c r="F107" s="66">
         <v>2010</v>
       </c>
@@ -10211,7 +10212,7 @@
       </c>
       <c r="K107"/>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>539</v>
       </c>
@@ -10222,7 +10223,7 @@
         <v>53</v>
       </c>
       <c r="D108" s="66"/>
-      <c r="E108" s="87"/>
+      <c r="E108" s="86"/>
       <c r="F108" s="66">
         <v>2010</v>
       </c>
@@ -10237,7 +10238,7 @@
       </c>
       <c r="K108"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>539</v>
       </c>
@@ -10248,7 +10249,7 @@
         <v>119</v>
       </c>
       <c r="D109" s="66"/>
-      <c r="E109" s="87"/>
+      <c r="E109" s="86"/>
       <c r="F109" s="66">
         <v>2010</v>
       </c>
@@ -10266,7 +10267,7 @@
       </c>
       <c r="K109"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>539</v>
       </c>
@@ -10277,7 +10278,7 @@
         <v>106</v>
       </c>
       <c r="D110" s="66"/>
-      <c r="E110" s="87"/>
+      <c r="E110" s="86"/>
       <c r="F110" s="66">
         <v>2010</v>
       </c>
@@ -10292,7 +10293,7 @@
       </c>
       <c r="K110"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>539</v>
       </c>
@@ -10303,7 +10304,7 @@
         <v>106</v>
       </c>
       <c r="D111" s="66"/>
-      <c r="E111" s="87"/>
+      <c r="E111" s="86"/>
       <c r="F111" s="66">
         <v>2010</v>
       </c>
@@ -10318,7 +10319,7 @@
       </c>
       <c r="K111"/>
     </row>
-    <row r="112" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>539</v>
       </c>
@@ -10329,7 +10330,7 @@
         <v>106</v>
       </c>
       <c r="D112" s="66"/>
-      <c r="E112" s="87"/>
+      <c r="E112" s="86"/>
       <c r="F112" s="66">
         <v>2010</v>
       </c>
@@ -10349,7 +10350,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>539</v>
       </c>
@@ -10360,7 +10361,7 @@
         <v>53</v>
       </c>
       <c r="D113" s="66"/>
-      <c r="E113" s="87"/>
+      <c r="E113" s="86"/>
       <c r="F113" s="66">
         <v>2010</v>
       </c>
@@ -10377,7 +10378,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>539</v>
       </c>
@@ -10388,7 +10389,7 @@
         <v>106</v>
       </c>
       <c r="D114" s="66"/>
-      <c r="E114" s="87"/>
+      <c r="E114" s="86"/>
       <c r="F114" s="66">
         <v>2010</v>
       </c>
@@ -10405,7 +10406,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>539</v>
       </c>
@@ -10416,7 +10417,7 @@
         <v>53</v>
       </c>
       <c r="D115" s="66"/>
-      <c r="E115" s="87"/>
+      <c r="E115" s="86"/>
       <c r="F115" s="66">
         <v>2010</v>
       </c>
@@ -10433,7 +10434,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>539</v>
       </c>
@@ -10444,7 +10445,7 @@
         <v>106</v>
       </c>
       <c r="D116" s="66"/>
-      <c r="E116" s="87"/>
+      <c r="E116" s="86"/>
       <c r="F116" s="66">
         <v>2010</v>
       </c>
@@ -10459,7 +10460,7 @@
       </c>
       <c r="K116"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>539</v>
       </c>
@@ -10470,7 +10471,7 @@
         <v>53</v>
       </c>
       <c r="D117" s="66"/>
-      <c r="E117" s="87"/>
+      <c r="E117" s="86"/>
       <c r="F117" s="66">
         <v>2010</v>
       </c>
@@ -10508,20 +10509,20 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>575</v>
       </c>
@@ -10550,7 +10551,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>709</v>
       </c>
@@ -10564,7 +10565,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>709</v>
       </c>
@@ -10578,7 +10579,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>709</v>
       </c>
@@ -10592,7 +10593,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>709</v>
       </c>
@@ -10606,7 +10607,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>709</v>
       </c>
@@ -10620,7 +10621,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>709</v>
       </c>
@@ -10637,7 +10638,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>709</v>
       </c>
@@ -10668,26 +10669,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
-    <col min="9" max="10" width="15.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="51.6640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="51.6640625" style="29" customWidth="1"/>
-    <col min="13" max="16" width="8.6640625" style="2"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="10" width="15.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="51.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="51.7109375" style="29" customWidth="1"/>
+    <col min="13" max="16" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>575</v>
       </c>
@@ -10718,10 +10719,10 @@
       <c r="J1" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="K1" s="86" t="s">
+      <c r="K1" s="85" t="s">
         <v>96</v>
       </c>
-      <c r="L1" s="83" t="s">
+      <c r="L1" s="82" t="s">
         <v>97</v>
       </c>
       <c r="M1" s="18" t="s">
@@ -10731,7 +10732,7 @@
       <c r="O1" s="12"/>
       <c r="P1" s="12"/>
     </row>
-    <row r="2" spans="1:16" s="4" customFormat="1" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" s="4" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>538</v>
       </c>
@@ -10760,8 +10761,8 @@
       <c r="J2" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="K2" s="129"/>
-      <c r="L2" s="119"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="110"/>
       <c r="M2" s="19" t="s">
         <v>105</v>
       </c>
@@ -10769,7 +10770,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>538</v>
       </c>
@@ -10798,13 +10799,13 @@
       <c r="J3" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K3" s="127"/>
-      <c r="L3" s="110"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="111"/>
       <c r="M3" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>538</v>
       </c>
@@ -10833,13 +10834,13 @@
       <c r="J4" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K4" s="127"/>
-      <c r="L4" s="110"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="111"/>
       <c r="M4" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>538</v>
       </c>
@@ -10865,13 +10866,13 @@
       <c r="J5" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K5" s="127"/>
-      <c r="L5" s="110"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="111"/>
       <c r="M5" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>538</v>
       </c>
@@ -10900,15 +10901,15 @@
       <c r="J6" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K6" s="127" t="s">
+      <c r="K6" s="112" t="s">
         <v>114</v>
       </c>
-      <c r="L6" s="125"/>
+      <c r="L6" s="108"/>
       <c r="M6" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>538</v>
       </c>
@@ -10937,13 +10938,13 @@
       <c r="J7" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K7" s="127"/>
-      <c r="L7" s="125"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="108"/>
       <c r="M7" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>538</v>
       </c>
@@ -10969,8 +10970,8 @@
       <c r="J8" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="K8" s="128"/>
-      <c r="L8" s="126"/>
+      <c r="K8" s="113"/>
+      <c r="L8" s="109"/>
       <c r="M8" s="20" t="s">
         <v>105</v>
       </c>
@@ -10978,7 +10979,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>538</v>
       </c>
@@ -11007,17 +11008,17 @@
       <c r="J9" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K9" s="135" t="s">
+      <c r="K9" s="121" t="s">
         <v>122</v>
       </c>
-      <c r="L9" s="110" t="s">
+      <c r="L9" s="111" t="s">
         <v>123</v>
       </c>
       <c r="M9" s="19" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>538</v>
       </c>
@@ -11046,13 +11047,13 @@
       <c r="J10" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K10" s="135"/>
-      <c r="L10" s="110"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="111"/>
       <c r="M10" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>538</v>
       </c>
@@ -11081,13 +11082,13 @@
       <c r="J11" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K11" s="135"/>
-      <c r="L11" s="110"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="111"/>
       <c r="M11" s="21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>538</v>
       </c>
@@ -11113,17 +11114,17 @@
       <c r="J12" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K12" s="86" t="s">
+      <c r="K12" s="85" t="s">
         <v>129</v>
       </c>
-      <c r="L12" s="78" t="s">
+      <c r="L12" s="77" t="s">
         <v>130</v>
       </c>
       <c r="M12" s="21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>538</v>
       </c>
@@ -11161,7 +11162,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>538</v>
       </c>
@@ -11190,17 +11191,17 @@
       <c r="J14" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K14" s="82" t="s">
+      <c r="K14" s="81" t="s">
         <v>136</v>
       </c>
-      <c r="L14" s="78" t="s">
+      <c r="L14" s="77" t="s">
         <v>137</v>
       </c>
       <c r="M14" s="19" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>538</v>
       </c>
@@ -11229,13 +11230,13 @@
       <c r="J15" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K15" s="82"/>
-      <c r="L15" s="78"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="77"/>
       <c r="M15" s="19" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>538</v>
       </c>
@@ -11267,7 +11268,7 @@
       <c r="K16" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="L16" s="80" t="s">
+      <c r="L16" s="79" t="s">
         <v>145</v>
       </c>
       <c r="M16" s="19" t="s">
@@ -11277,7 +11278,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:16" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>538</v>
       </c>
@@ -11306,7 +11307,7 @@
       <c r="J17" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K17" s="82" t="s">
+      <c r="K17" s="81" t="s">
         <v>147</v>
       </c>
       <c r="L17" s="42" t="s">
@@ -11316,7 +11317,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>538</v>
       </c>
@@ -11345,13 +11346,13 @@
       <c r="J18" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K18" s="121"/>
-      <c r="L18" s="78"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="77"/>
       <c r="M18" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>538</v>
       </c>
@@ -11380,8 +11381,8 @@
       <c r="J19" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="K19" s="133"/>
-      <c r="L19" s="81"/>
+      <c r="K19" s="119"/>
+      <c r="L19" s="80"/>
       <c r="M19" s="31" t="s">
         <v>105</v>
       </c>
@@ -11389,7 +11390,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>538</v>
       </c>
@@ -11418,17 +11419,17 @@
       <c r="J20" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K20" s="121" t="s">
+      <c r="K20" s="118" t="s">
         <v>153</v>
       </c>
-      <c r="L20" s="110" t="s">
+      <c r="L20" s="111" t="s">
         <v>154</v>
       </c>
       <c r="M20" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>538</v>
       </c>
@@ -11457,13 +11458,13 @@
       <c r="J21" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K21" s="121"/>
-      <c r="L21" s="110"/>
+      <c r="K21" s="118"/>
+      <c r="L21" s="111"/>
       <c r="M21" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>538</v>
       </c>
@@ -11489,13 +11490,13 @@
       <c r="J22" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K22" s="121"/>
-      <c r="L22" s="110"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="111"/>
       <c r="M22" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>538</v>
       </c>
@@ -11524,13 +11525,13 @@
       <c r="J23" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K23" s="121"/>
-      <c r="L23" s="110"/>
+      <c r="K23" s="118"/>
+      <c r="L23" s="111"/>
       <c r="M23" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>538</v>
       </c>
@@ -11559,13 +11560,13 @@
       <c r="J24" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K24" s="121"/>
-      <c r="L24" s="110"/>
+      <c r="K24" s="118"/>
+      <c r="L24" s="111"/>
       <c r="M24" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>538</v>
       </c>
@@ -11594,10 +11595,10 @@
       <c r="J25" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="K25" s="134" t="s">
+      <c r="K25" s="120" t="s">
         <v>159</v>
       </c>
-      <c r="L25" s="119" t="s">
+      <c r="L25" s="110" t="s">
         <v>160</v>
       </c>
       <c r="M25" s="15" t="s">
@@ -11607,7 +11608,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>538</v>
       </c>
@@ -11636,13 +11637,13 @@
       <c r="J26" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K26" s="121"/>
-      <c r="L26" s="110"/>
+      <c r="K26" s="118"/>
+      <c r="L26" s="111"/>
       <c r="M26" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>538</v>
       </c>
@@ -11671,13 +11672,13 @@
       <c r="J27" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K27" s="121"/>
-      <c r="L27" s="110"/>
+      <c r="K27" s="118"/>
+      <c r="L27" s="111"/>
       <c r="M27" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>538</v>
       </c>
@@ -11703,8 +11704,8 @@
       <c r="J28" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="K28" s="133"/>
-      <c r="L28" s="120"/>
+      <c r="K28" s="119"/>
+      <c r="L28" s="130"/>
       <c r="M28" s="11" t="s">
         <v>105</v>
       </c>
@@ -11712,7 +11713,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>538</v>
       </c>
@@ -11741,15 +11742,15 @@
       <c r="J29" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K29" s="121" t="s">
+      <c r="K29" s="118" t="s">
         <v>167</v>
       </c>
-      <c r="L29" s="78"/>
+      <c r="L29" s="77"/>
       <c r="M29" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>538</v>
       </c>
@@ -11778,13 +11779,13 @@
       <c r="J30" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K30" s="121"/>
-      <c r="L30" s="78"/>
+      <c r="K30" s="118"/>
+      <c r="L30" s="77"/>
       <c r="M30" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>538</v>
       </c>
@@ -11813,13 +11814,13 @@
       <c r="J31" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K31" s="121"/>
-      <c r="L31" s="78"/>
+      <c r="K31" s="118"/>
+      <c r="L31" s="77"/>
       <c r="M31" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>538</v>
       </c>
@@ -11845,13 +11846,13 @@
       <c r="J32" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K32" s="121"/>
-      <c r="L32" s="78"/>
+      <c r="K32" s="118"/>
+      <c r="L32" s="77"/>
       <c r="M32" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>538</v>
       </c>
@@ -11880,10 +11881,10 @@
       <c r="J33" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="K33" s="134" t="s">
+      <c r="K33" s="120" t="s">
         <v>136</v>
       </c>
-      <c r="L33" s="80" t="s">
+      <c r="L33" s="79" t="s">
         <v>137</v>
       </c>
       <c r="M33" s="15" t="s">
@@ -11893,7 +11894,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>538</v>
       </c>
@@ -11922,8 +11923,8 @@
       <c r="J34" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="K34" s="133"/>
-      <c r="L34" s="81"/>
+      <c r="K34" s="119"/>
+      <c r="L34" s="80"/>
       <c r="M34" s="11" t="s">
         <v>105</v>
       </c>
@@ -11931,7 +11932,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="1:16" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>538</v>
       </c>
@@ -11960,17 +11961,17 @@
       <c r="J35" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K35" s="121" t="s">
+      <c r="K35" s="118" t="s">
         <v>136</v>
       </c>
-      <c r="L35" s="78" t="s">
+      <c r="L35" s="77" t="s">
         <v>137</v>
       </c>
       <c r="M35" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>538</v>
       </c>
@@ -11999,13 +12000,13 @@
       <c r="J36" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K36" s="121"/>
-      <c r="L36" s="78"/>
+      <c r="K36" s="118"/>
+      <c r="L36" s="77"/>
       <c r="M36" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>538</v>
       </c>
@@ -12043,7 +12044,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
     </row>
-    <row r="38" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>538</v>
       </c>
@@ -12072,13 +12073,13 @@
       <c r="J38" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K38" s="82"/>
-      <c r="L38" s="78"/>
+      <c r="K38" s="81"/>
+      <c r="L38" s="77"/>
       <c r="M38" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>538</v>
       </c>
@@ -12107,10 +12108,10 @@
       <c r="J39" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="K39" s="85" t="s">
+      <c r="K39" s="84" t="s">
         <v>178</v>
       </c>
-      <c r="L39" s="119"/>
+      <c r="L39" s="110"/>
       <c r="M39" s="19" t="s">
         <v>105</v>
       </c>
@@ -12118,7 +12119,7 @@
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
     </row>
-    <row r="40" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>538</v>
       </c>
@@ -12148,12 +12149,12 @@
         <v>105</v>
       </c>
       <c r="K40" s="32"/>
-      <c r="L40" s="110"/>
+      <c r="L40" s="111"/>
       <c r="M40" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>538</v>
       </c>
@@ -12182,10 +12183,10 @@
       <c r="J41" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="K41" s="82" t="s">
+      <c r="K41" s="81" t="s">
         <v>182</v>
       </c>
-      <c r="L41" s="81" t="s">
+      <c r="L41" s="80" t="s">
         <v>183</v>
       </c>
       <c r="M41" s="22" t="s">
@@ -12195,7 +12196,7 @@
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
     </row>
-    <row r="42" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>538</v>
       </c>
@@ -12224,17 +12225,17 @@
       <c r="J42" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K42" s="121" t="s">
+      <c r="K42" s="118" t="s">
         <v>185</v>
       </c>
-      <c r="L42" s="110" t="s">
+      <c r="L42" s="111" t="s">
         <v>186</v>
       </c>
       <c r="M42" s="19" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>538</v>
       </c>
@@ -12263,13 +12264,13 @@
       <c r="J43" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K43" s="121"/>
-      <c r="L43" s="110"/>
+      <c r="K43" s="118"/>
+      <c r="L43" s="111"/>
       <c r="M43" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>538</v>
       </c>
@@ -12298,13 +12299,13 @@
       <c r="J44" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K44" s="121"/>
-      <c r="L44" s="110"/>
+      <c r="K44" s="118"/>
+      <c r="L44" s="111"/>
       <c r="M44" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>538</v>
       </c>
@@ -12330,13 +12331,13 @@
       <c r="J45" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K45" s="121"/>
-      <c r="L45" s="110"/>
+      <c r="K45" s="118"/>
+      <c r="L45" s="111"/>
       <c r="M45" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>538</v>
       </c>
@@ -12365,13 +12366,13 @@
       <c r="J46" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K46" s="121"/>
-      <c r="L46" s="110"/>
+      <c r="K46" s="118"/>
+      <c r="L46" s="111"/>
       <c r="M46" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>538</v>
       </c>
@@ -12400,13 +12401,13 @@
       <c r="J47" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K47" s="121"/>
-      <c r="L47" s="110"/>
+      <c r="K47" s="118"/>
+      <c r="L47" s="111"/>
       <c r="M47" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:16" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>538</v>
       </c>
@@ -12448,7 +12449,7 @@
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
     </row>
-    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>538</v>
       </c>
@@ -12477,13 +12478,13 @@
       <c r="J49" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K49" s="82"/>
-      <c r="L49" s="78"/>
+      <c r="K49" s="81"/>
+      <c r="L49" s="77"/>
       <c r="M49" s="19" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="4" customFormat="1" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" s="4" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>538</v>
       </c>
@@ -12512,10 +12513,10 @@
       <c r="J50" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="K50" s="117" t="s">
+      <c r="K50" s="122" t="s">
         <v>198</v>
       </c>
-      <c r="L50" s="80"/>
+      <c r="L50" s="79"/>
       <c r="M50" s="23" t="s">
         <v>105</v>
       </c>
@@ -12523,7 +12524,7 @@
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
     </row>
-    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>538</v>
       </c>
@@ -12552,13 +12553,13 @@
       <c r="J51" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K51" s="135"/>
-      <c r="L51" s="78"/>
+      <c r="K51" s="121"/>
+      <c r="L51" s="77"/>
       <c r="M51" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>538</v>
       </c>
@@ -12587,13 +12588,13 @@
       <c r="J52" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K52" s="135"/>
-      <c r="L52" s="78"/>
+      <c r="K52" s="121"/>
+      <c r="L52" s="77"/>
       <c r="M52" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="53" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>538</v>
       </c>
@@ -12622,13 +12623,13 @@
       <c r="J53" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K53" s="135"/>
-      <c r="L53" s="78"/>
+      <c r="K53" s="121"/>
+      <c r="L53" s="77"/>
       <c r="M53" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>538</v>
       </c>
@@ -12654,8 +12655,8 @@
       <c r="J54" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="K54" s="118"/>
-      <c r="L54" s="81"/>
+      <c r="K54" s="123"/>
+      <c r="L54" s="80"/>
       <c r="M54" s="23" t="s">
         <v>105</v>
       </c>
@@ -12663,7 +12664,7 @@
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
     </row>
-    <row r="55" spans="1:16" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>538</v>
       </c>
@@ -12692,7 +12693,7 @@
       <c r="J55" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K55" s="86" t="s">
+      <c r="K55" s="85" t="s">
         <v>208</v>
       </c>
       <c r="L55" s="67" t="s">
@@ -12702,7 +12703,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>538</v>
       </c>
@@ -12741,7 +12742,7 @@
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
     </row>
-    <row r="57" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>538</v>
       </c>
@@ -12770,15 +12771,15 @@
       <c r="J57" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K57" s="121" t="s">
+      <c r="K57" s="118" t="s">
         <v>214</v>
       </c>
-      <c r="L57" s="78"/>
+      <c r="L57" s="77"/>
       <c r="M57" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="58" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>538</v>
       </c>
@@ -12807,13 +12808,13 @@
       <c r="J58" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K58" s="121"/>
-      <c r="L58" s="78"/>
+      <c r="K58" s="118"/>
+      <c r="L58" s="77"/>
       <c r="M58" s="21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>538</v>
       </c>
@@ -12839,13 +12840,13 @@
       <c r="J59" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K59" s="121"/>
-      <c r="L59" s="78"/>
+      <c r="K59" s="118"/>
+      <c r="L59" s="77"/>
       <c r="M59" s="21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="60" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>538</v>
       </c>
@@ -12874,10 +12875,10 @@
       <c r="J60" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="K60" s="119" t="s">
+      <c r="K60" s="110" t="s">
         <v>219</v>
       </c>
-      <c r="L60" s="80"/>
+      <c r="L60" s="79"/>
       <c r="M60" s="19" t="s">
         <v>105</v>
       </c>
@@ -12885,7 +12886,7 @@
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
     </row>
-    <row r="61" spans="1:16" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>538</v>
       </c>
@@ -12914,15 +12915,15 @@
       <c r="J61" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="K61" s="110"/>
-      <c r="L61" s="78" t="s">
+      <c r="K61" s="111"/>
+      <c r="L61" s="77" t="s">
         <v>221</v>
       </c>
       <c r="M61" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="62" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>538</v>
       </c>
@@ -12951,15 +12952,15 @@
       <c r="J62" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K62" s="110"/>
-      <c r="L62" s="78" t="s">
+      <c r="K62" s="111"/>
+      <c r="L62" s="77" t="s">
         <v>223</v>
       </c>
       <c r="M62" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="63" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>538</v>
       </c>
@@ -12988,13 +12989,13 @@
       <c r="J63" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="K63" s="121"/>
-      <c r="L63" s="78"/>
+      <c r="K63" s="118"/>
+      <c r="L63" s="77"/>
       <c r="M63" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="64" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>538</v>
       </c>
@@ -13023,13 +13024,13 @@
       <c r="J64" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="K64" s="121"/>
-      <c r="L64" s="78"/>
+      <c r="K64" s="118"/>
+      <c r="L64" s="77"/>
       <c r="M64" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>538</v>
       </c>
@@ -13058,15 +13059,15 @@
       <c r="J65" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="K65" s="121"/>
-      <c r="L65" s="78" t="s">
+      <c r="K65" s="118"/>
+      <c r="L65" s="77" t="s">
         <v>223</v>
       </c>
       <c r="M65" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="66" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>538</v>
       </c>
@@ -13093,7 +13094,7 @@
       <c r="J66" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="K66" s="121"/>
+      <c r="K66" s="118"/>
       <c r="L66" s="43"/>
       <c r="M66" s="44" t="s">
         <v>105</v>
@@ -13102,7 +13103,7 @@
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
     </row>
-    <row r="67" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>538</v>
       </c>
@@ -13132,12 +13133,12 @@
         <v>105</v>
       </c>
       <c r="K67" s="38"/>
-      <c r="L67" s="84"/>
+      <c r="L67" s="83"/>
       <c r="M67" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="68" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>538</v>
       </c>
@@ -13167,7 +13168,7 @@
         <v>105</v>
       </c>
       <c r="K68" s="26"/>
-      <c r="L68" s="81"/>
+      <c r="L68" s="80"/>
       <c r="M68" s="23" t="s">
         <v>105</v>
       </c>
@@ -13175,7 +13176,7 @@
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
     </row>
-    <row r="69" spans="1:16" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>538</v>
       </c>
@@ -13204,17 +13205,17 @@
       <c r="J69" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K69" s="121" t="s">
+      <c r="K69" s="118" t="s">
         <v>136</v>
       </c>
-      <c r="L69" s="78" t="s">
+      <c r="L69" s="77" t="s">
         <v>137</v>
       </c>
       <c r="M69" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="70" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>538</v>
       </c>
@@ -13243,13 +13244,13 @@
       <c r="J70" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K70" s="121"/>
-      <c r="L70" s="78"/>
+      <c r="K70" s="118"/>
+      <c r="L70" s="77"/>
       <c r="M70" s="21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="71" spans="1:16" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>538</v>
       </c>
@@ -13275,10 +13276,10 @@
       <c r="J71" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="K71" s="85" t="s">
+      <c r="K71" s="84" t="s">
         <v>232</v>
       </c>
-      <c r="L71" s="80" t="s">
+      <c r="L71" s="79" t="s">
         <v>233</v>
       </c>
       <c r="M71" s="19" t="s">
@@ -13288,7 +13289,7 @@
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
     </row>
-    <row r="72" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>538</v>
       </c>
@@ -13317,13 +13318,13 @@
       <c r="J72" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K72" s="121"/>
-      <c r="L72" s="78"/>
+      <c r="K72" s="118"/>
+      <c r="L72" s="77"/>
       <c r="M72" s="21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="73" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>538</v>
       </c>
@@ -13349,13 +13350,13 @@
       <c r="J73" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K73" s="121"/>
-      <c r="L73" s="78"/>
+      <c r="K73" s="118"/>
+      <c r="L73" s="77"/>
       <c r="M73" s="21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="74" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>538</v>
       </c>
@@ -13381,13 +13382,13 @@
       <c r="J74" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K74" s="121"/>
-      <c r="L74" s="78"/>
+      <c r="K74" s="118"/>
+      <c r="L74" s="77"/>
       <c r="M74" s="21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="75" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>538</v>
       </c>
@@ -13410,8 +13411,8 @@
       <c r="J75" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="K75" s="133"/>
-      <c r="L75" s="81"/>
+      <c r="K75" s="119"/>
+      <c r="L75" s="80"/>
       <c r="M75" s="21" t="s">
         <v>105</v>
       </c>
@@ -13419,7 +13420,7 @@
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
     </row>
-    <row r="76" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>538</v>
       </c>
@@ -13448,13 +13449,13 @@
       <c r="J76" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K76" s="82"/>
-      <c r="L76" s="78"/>
+      <c r="K76" s="81"/>
+      <c r="L76" s="77"/>
       <c r="M76" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="77" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>538</v>
       </c>
@@ -13479,16 +13480,16 @@
       <c r="H77" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="I77" s="94" t="s">
+      <c r="I77" s="92" t="s">
         <v>638</v>
       </c>
       <c r="J77" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="K77" s="117" t="s">
+      <c r="K77" s="122" t="s">
         <v>241</v>
       </c>
-      <c r="L77" s="122" t="s">
+      <c r="L77" s="131" t="s">
         <v>242</v>
       </c>
       <c r="M77" s="19" t="s">
@@ -13498,7 +13499,7 @@
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
     </row>
-    <row r="78" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>538</v>
       </c>
@@ -13523,14 +13524,14 @@
       <c r="H78" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="I78" s="94" t="s">
+      <c r="I78" s="92" t="s">
         <v>638</v>
       </c>
       <c r="J78" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K78" s="118"/>
-      <c r="L78" s="123"/>
+      <c r="K78" s="123"/>
+      <c r="L78" s="132"/>
       <c r="M78" s="44" t="s">
         <v>105</v>
       </c>
@@ -13538,7 +13539,7 @@
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
     </row>
-    <row r="79" spans="1:16" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>538</v>
       </c>
@@ -13567,15 +13568,15 @@
       <c r="J79" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K79" s="78" t="s">
+      <c r="K79" s="77" t="s">
         <v>244</v>
       </c>
-      <c r="L79" s="123"/>
+      <c r="L79" s="132"/>
       <c r="M79" s="44" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="80" spans="1:16" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>538</v>
       </c>
@@ -13598,16 +13599,16 @@
       <c r="H80" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="I80" s="94" t="s">
+      <c r="I80" s="92" t="s">
         <v>638</v>
       </c>
       <c r="J80" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="K80" s="78" t="s">
+      <c r="K80" s="77" t="s">
         <v>244</v>
       </c>
-      <c r="L80" s="124"/>
+      <c r="L80" s="133"/>
       <c r="M80" s="20" t="s">
         <v>105</v>
       </c>
@@ -13615,7 +13616,7 @@
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
     </row>
-    <row r="81" spans="1:16" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>538</v>
       </c>
@@ -13644,17 +13645,17 @@
       <c r="J81" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K81" s="121" t="s">
+      <c r="K81" s="118" t="s">
         <v>136</v>
       </c>
-      <c r="L81" s="78" t="s">
+      <c r="L81" s="77" t="s">
         <v>137</v>
       </c>
       <c r="M81" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="82" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>538</v>
       </c>
@@ -13683,13 +13684,13 @@
       <c r="J82" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K82" s="121"/>
-      <c r="L82" s="78"/>
+      <c r="K82" s="118"/>
+      <c r="L82" s="77"/>
       <c r="M82" s="21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="83" spans="1:16" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>538</v>
       </c>
@@ -13731,7 +13732,7 @@
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
     </row>
-    <row r="84" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>538</v>
       </c>
@@ -13759,17 +13760,17 @@
       <c r="J84" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K84" s="82" t="s">
+      <c r="K84" s="81" t="s">
         <v>253</v>
       </c>
-      <c r="L84" s="78" t="s">
+      <c r="L84" s="77" t="s">
         <v>254</v>
       </c>
       <c r="M84" s="19" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="85" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>538</v>
       </c>
@@ -13797,7 +13798,7 @@
       <c r="J85" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="K85" s="121" t="s">
+      <c r="K85" s="118" t="s">
         <v>255</v>
       </c>
       <c r="L85" s="28"/>
@@ -13805,7 +13806,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="86" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>538</v>
       </c>
@@ -13833,13 +13834,13 @@
       <c r="J86" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="K86" s="121"/>
+      <c r="K86" s="118"/>
       <c r="L86" s="28"/>
       <c r="M86" s="21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="87" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>538</v>
       </c>
@@ -13867,13 +13868,13 @@
       <c r="J87" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="K87" s="121"/>
+      <c r="K87" s="118"/>
       <c r="L87" s="28"/>
       <c r="M87" s="21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="88" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>538</v>
       </c>
@@ -13898,13 +13899,13 @@
       <c r="J88" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="K88" s="121"/>
+      <c r="K88" s="118"/>
       <c r="L88" s="28"/>
       <c r="M88" s="21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="89" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>538</v>
       </c>
@@ -13932,13 +13933,13 @@
       <c r="J89" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="K89" s="121"/>
+      <c r="K89" s="118"/>
       <c r="L89" s="28"/>
       <c r="M89" s="21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="90" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>538</v>
       </c>
@@ -13966,13 +13967,13 @@
       <c r="J90" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="K90" s="121"/>
+      <c r="K90" s="118"/>
       <c r="L90" s="28"/>
       <c r="M90" s="21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="91" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>538</v>
       </c>
@@ -14001,10 +14002,10 @@
       <c r="J91" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="K91" s="111" t="s">
+      <c r="K91" s="124" t="s">
         <v>261</v>
       </c>
-      <c r="L91" s="130" t="s">
+      <c r="L91" s="115" t="s">
         <v>262</v>
       </c>
       <c r="M91" s="23" t="s">
@@ -14014,7 +14015,7 @@
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
     </row>
-    <row r="92" spans="1:16" s="2" customFormat="1" ht="72.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" s="2" customFormat="1" ht="72.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>538</v>
       </c>
@@ -14043,13 +14044,13 @@
       <c r="J92" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="K92" s="112"/>
-      <c r="L92" s="131"/>
+      <c r="K92" s="125"/>
+      <c r="L92" s="116"/>
       <c r="M92" s="21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="93" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>538</v>
       </c>
@@ -14078,13 +14079,13 @@
       <c r="J93" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="K93" s="112"/>
-      <c r="L93" s="131"/>
+      <c r="K93" s="125"/>
+      <c r="L93" s="116"/>
       <c r="M93" s="21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="94" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>538</v>
       </c>
@@ -14110,8 +14111,8 @@
       <c r="J94" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="K94" s="113"/>
-      <c r="L94" s="132"/>
+      <c r="K94" s="126"/>
+      <c r="L94" s="117"/>
       <c r="M94" s="21" t="s">
         <v>105</v>
       </c>
@@ -14119,7 +14120,7 @@
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
     </row>
-    <row r="95" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>538</v>
       </c>
@@ -14147,13 +14148,13 @@
       <c r="J95" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="K95" s="114"/>
+      <c r="K95" s="127"/>
       <c r="L95" s="28"/>
       <c r="M95" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="96" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>538</v>
       </c>
@@ -14181,13 +14182,13 @@
       <c r="J96" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="K96" s="115"/>
+      <c r="K96" s="128"/>
       <c r="L96" s="28"/>
       <c r="M96" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="97" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>538</v>
       </c>
@@ -14215,13 +14216,13 @@
       <c r="J97" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="K97" s="115"/>
+      <c r="K97" s="128"/>
       <c r="L97" s="28"/>
       <c r="M97" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="98" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>538</v>
       </c>
@@ -14249,13 +14250,13 @@
       <c r="J98" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="K98" s="115"/>
+      <c r="K98" s="128"/>
       <c r="L98" s="28"/>
       <c r="M98" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="99" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>538</v>
       </c>
@@ -14282,8 +14283,8 @@
       <c r="J99" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="K99" s="116"/>
-      <c r="L99" s="79"/>
+      <c r="K99" s="129"/>
+      <c r="L99" s="78"/>
       <c r="M99" s="30" t="s">
         <v>105</v>
       </c>
@@ -14291,7 +14292,7 @@
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -14303,6 +14304,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="L20:L24"/>
+    <mergeCell ref="K91:K94"/>
+    <mergeCell ref="K95:K99"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="L25:L28"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="L42:L47"/>
+    <mergeCell ref="K60:K62"/>
+    <mergeCell ref="K63:K66"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="K85:K90"/>
+    <mergeCell ref="L77:L80"/>
     <mergeCell ref="L6:L8"/>
     <mergeCell ref="L2:L5"/>
     <mergeCell ref="K6:K8"/>
@@ -14319,20 +14334,6 @@
     <mergeCell ref="K42:K47"/>
     <mergeCell ref="K50:K54"/>
     <mergeCell ref="K57:K59"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="L20:L24"/>
-    <mergeCell ref="K91:K94"/>
-    <mergeCell ref="K95:K99"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="L25:L28"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="L42:L47"/>
-    <mergeCell ref="K60:K62"/>
-    <mergeCell ref="K63:K66"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="K85:K90"/>
-    <mergeCell ref="L77:L80"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="M7:M8 M3:M5 L40 L91 M86:M94 M78:M80 J55:K55 J77:M77 M55 J78:K80 I1:M2 B1:H8 I6:M6 I3:J5 I9:M37 I39:L39 I40:J40 I95:M99 I91:K94 I7:J8 I41:M54 I81:M90 I56:M76 B39:H99 B11:H11 B9:F10 H9:H10 B13:H37 B12:F12 H12">
@@ -14364,20 +14365,20 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="99.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="138.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="99.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="138.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="117.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="117.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>88</v>
       </c>
@@ -14409,7 +14410,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>324</v>
       </c>
@@ -14441,7 +14442,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>274</v>
       </c>
@@ -14470,7 +14471,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>289</v>
       </c>
@@ -14499,7 +14500,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>268</v>
       </c>
@@ -14531,7 +14532,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>268</v>
       </c>
@@ -14563,7 +14564,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>281</v>
       </c>
@@ -14595,7 +14596,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>291</v>
       </c>
@@ -14627,7 +14628,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>268</v>
       </c>
@@ -14659,7 +14660,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>274</v>
       </c>
@@ -14691,7 +14692,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>277</v>
       </c>
@@ -14723,7 +14724,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>281</v>
       </c>
@@ -14755,7 +14756,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>283</v>
       </c>
@@ -14787,7 +14788,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>285</v>
       </c>
@@ -14819,7 +14820,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>291</v>
       </c>
@@ -14851,7 +14852,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>643</v>
       </c>
@@ -14880,7 +14881,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>165</v>
       </c>
@@ -14909,7 +14910,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>743</v>
       </c>
@@ -14938,7 +14939,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>324</v>
       </c>
@@ -14967,7 +14968,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -14996,7 +14997,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>283</v>
       </c>
@@ -15025,7 +15026,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>291</v>
       </c>
@@ -15054,7 +15055,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>643</v>
       </c>
@@ -15083,7 +15084,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>324</v>
       </c>
@@ -15112,7 +15113,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>643</v>
       </c>
@@ -15137,14 +15138,14 @@
       <c r="H25">
         <v>2010</v>
       </c>
-      <c r="I25" s="103" t="s">
+      <c r="I25" s="101" t="s">
         <v>752</v>
       </c>
-      <c r="J25" s="104" t="s">
+      <c r="J25" s="102" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>277</v>
       </c>
@@ -15173,7 +15174,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>289</v>
       </c>
@@ -15202,7 +15203,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>165</v>
       </c>
@@ -15231,7 +15232,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>743</v>
       </c>
@@ -15260,7 +15261,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>324</v>
       </c>
@@ -15289,7 +15290,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -15318,7 +15319,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -15347,7 +15348,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -15376,7 +15377,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -15405,7 +15406,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>53</v>
       </c>
@@ -15434,7 +15435,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -15463,7 +15464,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>53</v>
       </c>
@@ -15492,7 +15493,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -15524,7 +15525,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -15556,7 +15557,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -15588,7 +15589,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>53</v>
       </c>
@@ -15620,7 +15621,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -15652,7 +15653,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -15684,7 +15685,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -15716,7 +15717,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -15748,7 +15749,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -15780,7 +15781,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -15812,7 +15813,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -15857,12 +15858,12 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>697</v>
       </c>
@@ -15870,7 +15871,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>699</v>
       </c>
@@ -15878,7 +15879,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>698</v>
       </c>
@@ -15886,7 +15887,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>615</v>
       </c>
@@ -15894,7 +15895,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>291</v>
       </c>
@@ -15915,13 +15916,13 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>575</v>
       </c>
@@ -15932,7 +15933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>681</v>
       </c>
@@ -15943,7 +15944,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>681</v>
       </c>
@@ -15954,7 +15955,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>681</v>
       </c>
@@ -15965,7 +15966,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>681</v>
       </c>
@@ -15976,7 +15977,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>681</v>
       </c>
@@ -15997,32 +15998,32 @@
   <dimension ref="A1:W52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11" style="107" customWidth="1"/>
-    <col min="9" max="9" width="55.6640625" style="58" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.33203125" style="58" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="41.44140625" customWidth="1"/>
-    <col min="13" max="13" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" customWidth="1"/>
-    <col min="15" max="15" width="34.6640625" customWidth="1"/>
-    <col min="16" max="16" width="20.6640625" customWidth="1"/>
-    <col min="18" max="19" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="105" customWidth="1"/>
+    <col min="9" max="9" width="55.7109375" style="58" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.28515625" style="58" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="41.42578125" customWidth="1"/>
+    <col min="13" max="13" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" customWidth="1"/>
+    <col min="15" max="15" width="34.7109375" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" customWidth="1"/>
+    <col min="18" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="64" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>575</v>
       </c>
@@ -16044,7 +16045,7 @@
       <c r="G1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="106" t="s">
+      <c r="H1" s="104" t="s">
         <v>692</v>
       </c>
       <c r="I1" s="63" t="s">
@@ -16061,7 +16062,7 @@
       <c r="R1" s="47"/>
       <c r="S1" s="47"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>636</v>
       </c>
@@ -16079,10 +16080,10 @@
       <c r="G2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="76" t="s">
+      <c r="I2" s="75" t="s">
         <v>323</v>
       </c>
-      <c r="J2" s="75"/>
+      <c r="J2" s="74"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -16097,7 +16098,7 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
     </row>
-    <row r="3" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>636</v>
       </c>
@@ -16117,7 +16118,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>636</v>
       </c>
@@ -16140,7 +16141,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
         <v>636</v>
       </c>
@@ -16150,11 +16151,11 @@
       <c r="G5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="75" t="s">
+      <c r="I5" s="74" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>636</v>
       </c>
@@ -16172,8 +16173,8 @@
       <c r="G6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -16188,7 +16189,7 @@
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>636</v>
       </c>
@@ -16212,7 +16213,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>636</v>
       </c>
@@ -16228,8 +16229,8 @@
       <c r="G8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -16244,7 +16245,7 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="1:23" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>636</v>
       </c>
@@ -16260,15 +16261,15 @@
       <c r="G9" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H9" s="107"/>
-      <c r="I9" s="76" t="s">
+      <c r="H9" s="105"/>
+      <c r="I9" s="75" t="s">
         <v>328</v>
       </c>
-      <c r="J9" s="75" t="s">
+      <c r="J9" s="74" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>636</v>
       </c>
@@ -16284,11 +16285,11 @@
       <c r="G10" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="107"/>
-      <c r="I10" s="75"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="74"/>
       <c r="J10" s="58"/>
     </row>
-    <row r="11" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>636</v>
       </c>
@@ -16306,14 +16307,14 @@
       <c r="G11" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I11" s="76" t="s">
+      <c r="I11" s="75" t="s">
         <v>338</v>
       </c>
       <c r="J11" s="58" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>636</v>
       </c>
@@ -16329,11 +16330,11 @@
       <c r="G12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="76" t="s">
+      <c r="I12" s="75" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>635</v>
       </c>
@@ -16349,15 +16350,15 @@
       <c r="G13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="108"/>
-      <c r="I13" s="77" t="s">
+      <c r="H13" s="106"/>
+      <c r="I13" s="76" t="s">
         <v>337</v>
       </c>
-      <c r="J13" s="77" t="s">
+      <c r="J13" s="76" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="45" t="s">
         <v>635</v>
       </c>
@@ -16367,11 +16368,11 @@
       <c r="G14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I14" s="75" t="s">
+      <c r="I14" s="74" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>635</v>
       </c>
@@ -16391,7 +16392,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>635</v>
       </c>
@@ -16411,7 +16412,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>635</v>
       </c>
@@ -16434,7 +16435,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>635</v>
       </c>
@@ -16457,7 +16458,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>635</v>
       </c>
@@ -16477,7 +16478,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>635</v>
       </c>
@@ -16500,7 +16501,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>635</v>
       </c>
@@ -16520,7 +16521,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>635</v>
       </c>
@@ -16538,10 +16539,10 @@
       <c r="G22" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I22" s="75" t="s">
+      <c r="I22" s="74" t="s">
         <v>341</v>
       </c>
-      <c r="J22" s="75" t="s">
+      <c r="J22" s="74" t="s">
         <v>342</v>
       </c>
       <c r="K22" s="2"/>
@@ -16558,7 +16559,7 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
     </row>
-    <row r="23" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>644</v>
       </c>
@@ -16568,11 +16569,11 @@
       <c r="G23" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H23" s="109"/>
-      <c r="I23" s="105"/>
-      <c r="J23" s="105"/>
-    </row>
-    <row r="24" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H23" s="107"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="103"/>
+    </row>
+    <row r="24" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>690</v>
       </c>
@@ -16591,24 +16592,24 @@
       <c r="G24" t="s">
         <v>793</v>
       </c>
-      <c r="H24" s="108"/>
-      <c r="I24" s="77" t="s">
+      <c r="H24" s="106"/>
+      <c r="I24" s="76" t="s">
         <v>272</v>
       </c>
-      <c r="J24" s="70" t="s">
+      <c r="J24" s="69" t="s">
         <v>273</v>
       </c>
-      <c r="O24" s="71"/>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="71"/>
-      <c r="R24" s="71"/>
-      <c r="S24" s="71"/>
-      <c r="T24" s="71"/>
-      <c r="U24" s="71"/>
-      <c r="V24" s="71"/>
-      <c r="W24" s="71"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="O24" s="70"/>
+      <c r="P24" s="70"/>
+      <c r="Q24" s="70"/>
+      <c r="R24" s="70"/>
+      <c r="S24" s="70"/>
+      <c r="T24" s="70"/>
+      <c r="U24" s="70"/>
+      <c r="V24" s="70"/>
+      <c r="W24" s="70"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>690</v>
       </c>
@@ -16637,7 +16638,7 @@
       <c r="V25" s="51"/>
       <c r="W25" s="53"/>
     </row>
-    <row r="26" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>690</v>
       </c>
@@ -16672,7 +16673,7 @@
       <c r="V26" s="51"/>
       <c r="W26" s="51"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>690</v>
       </c>
@@ -16701,7 +16702,7 @@
       <c r="V27" s="51"/>
       <c r="W27" s="53"/>
     </row>
-    <row r="28" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>690</v>
       </c>
@@ -16720,20 +16721,20 @@
       <c r="G28" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="107"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="75"/>
-      <c r="O28" s="100"/>
-      <c r="P28" s="100"/>
-      <c r="Q28" s="100"/>
-      <c r="R28" s="100"/>
-      <c r="S28" s="100"/>
-      <c r="T28" s="100"/>
-      <c r="U28" s="100"/>
-      <c r="V28" s="100"/>
-      <c r="W28" s="102"/>
-    </row>
-    <row r="29" spans="1:23" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H28" s="105"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="74"/>
+      <c r="O28" s="98"/>
+      <c r="P28" s="98"/>
+      <c r="Q28" s="98"/>
+      <c r="R28" s="98"/>
+      <c r="S28" s="98"/>
+      <c r="T28" s="98"/>
+      <c r="U28" s="98"/>
+      <c r="V28" s="98"/>
+      <c r="W28" s="100"/>
+    </row>
+    <row r="29" spans="1:23" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>690</v>
       </c>
@@ -16752,24 +16753,24 @@
       <c r="G29" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H29" s="107"/>
-      <c r="I29" s="76" t="s">
+      <c r="H29" s="105"/>
+      <c r="I29" s="75" t="s">
         <v>287</v>
       </c>
-      <c r="J29" s="75" t="s">
+      <c r="J29" s="74" t="s">
         <v>288</v>
       </c>
-      <c r="O29" s="100"/>
-      <c r="P29" s="100"/>
-      <c r="Q29" s="100"/>
-      <c r="R29" s="100"/>
-      <c r="S29" s="100"/>
-      <c r="T29" s="100"/>
-      <c r="U29" s="100"/>
-      <c r="V29" s="100"/>
-      <c r="W29" s="100"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="O29" s="98"/>
+      <c r="P29" s="98"/>
+      <c r="Q29" s="98"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="98"/>
+      <c r="U29" s="98"/>
+      <c r="V29" s="98"/>
+      <c r="W29" s="98"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>690</v>
       </c>
@@ -16789,23 +16790,23 @@
       <c r="G30" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I30" s="75"/>
-      <c r="J30" s="75"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="74"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
-      <c r="O30" s="100"/>
-      <c r="P30" s="100"/>
-      <c r="Q30" s="100"/>
-      <c r="R30" s="100"/>
-      <c r="S30" s="100"/>
-      <c r="T30" s="100"/>
-      <c r="U30" s="100"/>
-      <c r="V30" s="100"/>
-      <c r="W30" s="102"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="O30" s="98"/>
+      <c r="P30" s="98"/>
+      <c r="Q30" s="98"/>
+      <c r="R30" s="98"/>
+      <c r="S30" s="98"/>
+      <c r="T30" s="98"/>
+      <c r="U30" s="98"/>
+      <c r="V30" s="98"/>
+      <c r="W30" s="100"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>690</v>
       </c>
@@ -16834,7 +16835,7 @@
       <c r="V31" s="51"/>
       <c r="W31" s="51"/>
     </row>
-    <row r="32" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>694</v>
       </c>
@@ -16853,24 +16854,24 @@
       <c r="G32" t="s">
         <v>793</v>
       </c>
-      <c r="H32" s="108"/>
-      <c r="I32" s="77" t="s">
+      <c r="H32" s="106"/>
+      <c r="I32" s="76" t="s">
         <v>272</v>
       </c>
-      <c r="J32" s="70" t="s">
+      <c r="J32" s="69" t="s">
         <v>273</v>
       </c>
-      <c r="O32" s="71"/>
-      <c r="P32" s="71"/>
-      <c r="Q32" s="71"/>
-      <c r="R32" s="71"/>
-      <c r="S32" s="71"/>
-      <c r="T32" s="71"/>
-      <c r="U32" s="71"/>
-      <c r="V32" s="71"/>
-      <c r="W32" s="71"/>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="O32" s="70"/>
+      <c r="P32" s="70"/>
+      <c r="Q32" s="70"/>
+      <c r="R32" s="70"/>
+      <c r="S32" s="70"/>
+      <c r="T32" s="70"/>
+      <c r="U32" s="70"/>
+      <c r="V32" s="70"/>
+      <c r="W32" s="70"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>694</v>
       </c>
@@ -16886,7 +16887,7 @@
       <c r="G33" t="s">
         <v>793</v>
       </c>
-      <c r="I33" s="76" t="s">
+      <c r="I33" s="75" t="s">
         <v>272</v>
       </c>
       <c r="J33" s="58" t="s">
@@ -16902,7 +16903,7 @@
       <c r="V33" s="51"/>
       <c r="W33" s="51"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>694</v>
       </c>
@@ -16931,7 +16932,7 @@
       <c r="V34" s="51"/>
       <c r="W34" s="51"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>694</v>
       </c>
@@ -16957,7 +16958,7 @@
       <c r="V35" s="51"/>
       <c r="W35" s="51"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>694</v>
       </c>
@@ -16989,7 +16990,7 @@
       <c r="V36" s="51"/>
       <c r="W36" s="53"/>
     </row>
-    <row r="37" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>694</v>
       </c>
@@ -17005,24 +17006,24 @@
       <c r="G37" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H37" s="107"/>
-      <c r="I37" s="75" t="s">
+      <c r="H37" s="105"/>
+      <c r="I37" s="74" t="s">
         <v>637</v>
       </c>
-      <c r="J37" s="75" t="s">
+      <c r="J37" s="74" t="s">
         <v>786</v>
       </c>
-      <c r="O37" s="100"/>
-      <c r="P37" s="100"/>
-      <c r="Q37" s="100"/>
-      <c r="R37" s="100"/>
-      <c r="S37" s="100"/>
-      <c r="T37" s="100"/>
-      <c r="U37" s="100"/>
-      <c r="V37" s="100"/>
-      <c r="W37" s="100"/>
-    </row>
-    <row r="38" spans="1:23" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O37" s="98"/>
+      <c r="P37" s="98"/>
+      <c r="Q37" s="98"/>
+      <c r="R37" s="98"/>
+      <c r="S37" s="98"/>
+      <c r="T37" s="98"/>
+      <c r="U37" s="98"/>
+      <c r="V37" s="98"/>
+      <c r="W37" s="98"/>
+    </row>
+    <row r="38" spans="1:23" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>694</v>
       </c>
@@ -17038,24 +17039,24 @@
       <c r="G38" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H38" s="107"/>
-      <c r="I38" s="76" t="s">
+      <c r="H38" s="105"/>
+      <c r="I38" s="75" t="s">
         <v>279</v>
       </c>
-      <c r="J38" s="75" t="s">
+      <c r="J38" s="74" t="s">
         <v>280</v>
       </c>
-      <c r="O38" s="100"/>
-      <c r="P38" s="100"/>
-      <c r="Q38" s="100"/>
-      <c r="R38" s="100"/>
-      <c r="S38" s="100"/>
-      <c r="T38" s="100"/>
-      <c r="U38" s="100"/>
-      <c r="V38" s="100"/>
-      <c r="W38" s="100"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="O38" s="98"/>
+      <c r="P38" s="98"/>
+      <c r="Q38" s="98"/>
+      <c r="R38" s="98"/>
+      <c r="S38" s="98"/>
+      <c r="T38" s="98"/>
+      <c r="U38" s="98"/>
+      <c r="V38" s="98"/>
+      <c r="W38" s="98"/>
+    </row>
+    <row r="39" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>694</v>
       </c>
@@ -17075,27 +17076,27 @@
       <c r="G39" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I39" s="76" t="s">
+      <c r="I39" s="75" t="s">
         <v>647</v>
       </c>
-      <c r="J39" s="75" t="s">
+      <c r="J39" s="74" t="s">
         <v>273</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
-      <c r="O39" s="100"/>
-      <c r="P39" s="100"/>
-      <c r="Q39" s="100"/>
-      <c r="R39" s="100"/>
-      <c r="S39" s="100"/>
-      <c r="T39" s="100"/>
-      <c r="U39" s="100"/>
-      <c r="V39" s="100"/>
-      <c r="W39" s="100"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="O39" s="98"/>
+      <c r="P39" s="98"/>
+      <c r="Q39" s="98"/>
+      <c r="R39" s="98"/>
+      <c r="S39" s="98"/>
+      <c r="T39" s="98"/>
+      <c r="U39" s="98"/>
+      <c r="V39" s="98"/>
+      <c r="W39" s="98"/>
+    </row>
+    <row r="40" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>694</v>
       </c>
@@ -17127,7 +17128,7 @@
       <c r="V40" s="51"/>
       <c r="W40" s="53"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>694</v>
       </c>
@@ -17159,7 +17160,7 @@
       <c r="V41" s="51"/>
       <c r="W41" s="51"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>694</v>
       </c>
@@ -17188,7 +17189,7 @@
       <c r="V42" s="51"/>
       <c r="W42" s="51"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>694</v>
       </c>
@@ -17214,7 +17215,7 @@
       <c r="V43" s="51"/>
       <c r="W43" s="51"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>694</v>
       </c>
@@ -17233,7 +17234,7 @@
       <c r="I44" s="58" t="s">
         <v>637</v>
       </c>
-      <c r="J44" s="75" t="s">
+      <c r="J44" s="74" t="s">
         <v>786</v>
       </c>
       <c r="O44" s="51"/>
@@ -17246,7 +17247,7 @@
       <c r="V44" s="51"/>
       <c r="W44" s="51"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>694</v>
       </c>
@@ -17275,7 +17276,7 @@
       <c r="V45" s="51"/>
       <c r="W45" s="51"/>
     </row>
-    <row r="46" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>694</v>
       </c>
@@ -17291,20 +17292,20 @@
       <c r="G46" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H46" s="107"/>
-      <c r="I46" s="75"/>
-      <c r="J46" s="75"/>
-      <c r="O46" s="100"/>
-      <c r="P46" s="100"/>
-      <c r="Q46" s="100"/>
-      <c r="R46" s="100"/>
-      <c r="S46" s="100"/>
-      <c r="T46" s="100"/>
-      <c r="U46" s="100"/>
-      <c r="V46" s="100"/>
-      <c r="W46" s="100"/>
-    </row>
-    <row r="47" spans="1:23" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H46" s="105"/>
+      <c r="I46" s="74"/>
+      <c r="J46" s="74"/>
+      <c r="O46" s="98"/>
+      <c r="P46" s="98"/>
+      <c r="Q46" s="98"/>
+      <c r="R46" s="98"/>
+      <c r="S46" s="98"/>
+      <c r="T46" s="98"/>
+      <c r="U46" s="98"/>
+      <c r="V46" s="98"/>
+      <c r="W46" s="98"/>
+    </row>
+    <row r="47" spans="1:23" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>694</v>
       </c>
@@ -17323,24 +17324,24 @@
       <c r="G47" s="7" t="s">
         <v>640</v>
       </c>
-      <c r="H47" s="107"/>
-      <c r="I47" s="76" t="s">
+      <c r="H47" s="105"/>
+      <c r="I47" s="75" t="s">
         <v>313</v>
       </c>
-      <c r="J47" s="76" t="s">
+      <c r="J47" s="75" t="s">
         <v>645</v>
       </c>
-      <c r="O47" s="100"/>
-      <c r="P47" s="100"/>
-      <c r="Q47" s="100"/>
-      <c r="R47" s="100"/>
-      <c r="S47" s="100"/>
-      <c r="T47" s="100"/>
-      <c r="U47" s="100"/>
-      <c r="V47" s="100"/>
-      <c r="W47" s="100"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="O47" s="98"/>
+      <c r="P47" s="98"/>
+      <c r="Q47" s="98"/>
+      <c r="R47" s="98"/>
+      <c r="S47" s="98"/>
+      <c r="T47" s="98"/>
+      <c r="U47" s="98"/>
+      <c r="V47" s="98"/>
+      <c r="W47" s="98"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>694</v>
       </c>
@@ -17358,23 +17359,23 @@
       <c r="G48" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="I48" s="75"/>
-      <c r="J48" s="75"/>
+      <c r="I48" s="74"/>
+      <c r="J48" s="74"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
-      <c r="O48" s="100"/>
-      <c r="P48" s="100"/>
-      <c r="Q48" s="100"/>
-      <c r="R48" s="100"/>
-      <c r="S48" s="100"/>
-      <c r="T48" s="100"/>
-      <c r="U48" s="100"/>
-      <c r="V48" s="100"/>
-      <c r="W48" s="100"/>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="O48" s="98"/>
+      <c r="P48" s="98"/>
+      <c r="Q48" s="98"/>
+      <c r="R48" s="98"/>
+      <c r="S48" s="98"/>
+      <c r="T48" s="98"/>
+      <c r="U48" s="98"/>
+      <c r="V48" s="98"/>
+      <c r="W48" s="98"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>694</v>
       </c>
@@ -17393,7 +17394,7 @@
       <c r="G49" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="I49" s="75"/>
+      <c r="I49" s="74"/>
       <c r="O49" s="51"/>
       <c r="P49" s="51"/>
       <c r="Q49" s="51"/>
@@ -17404,7 +17405,7 @@
       <c r="V49" s="51"/>
       <c r="W49" s="51"/>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>694</v>
       </c>
@@ -17421,7 +17422,7 @@
         <v>73</v>
       </c>
       <c r="H50" s="37"/>
-      <c r="I50" s="76" t="s">
+      <c r="I50" s="75" t="s">
         <v>318</v>
       </c>
       <c r="J50" s="65" t="s">
@@ -17437,7 +17438,7 @@
       <c r="V50" s="51"/>
       <c r="W50" s="53"/>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>694</v>
       </c>
@@ -17450,11 +17451,11 @@
       <c r="G51" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I51" s="75" t="s">
+      <c r="I51" s="74" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>694</v>
       </c>
@@ -17468,10 +17469,10 @@
       <c r="G52" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I52" s="75" t="s">
+      <c r="I52" s="74" t="s">
         <v>691</v>
       </c>
-      <c r="J52" s="75"/>
+      <c r="J52" s="74"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
@@ -17516,17 +17517,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FB7270-85D5-483E-AE4E-A5BD24F9C240}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>516</v>
       </c>
@@ -17540,7 +17541,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>83</v>
       </c>
@@ -17554,7 +17555,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -17568,7 +17569,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -17582,7 +17583,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -17596,7 +17597,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>502</v>
       </c>
@@ -17610,7 +17611,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>166</v>
       </c>
@@ -17623,11 +17624,11 @@
       <c r="D7" t="s">
         <v>521</v>
       </c>
-      <c r="E7" s="101" t="s">
+      <c r="E7" s="99" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>502</v>
       </c>
@@ -17638,7 +17639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>672</v>
       </c>
@@ -17649,7 +17650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>672</v>
       </c>
@@ -17660,7 +17661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>501</v>
       </c>
@@ -17671,7 +17672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>502</v>
       </c>
@@ -17682,7 +17683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>501</v>
       </c>
@@ -17693,7 +17694,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>24</v>
       </c>
@@ -17704,7 +17705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>502</v>
       </c>
@@ -17715,7 +17716,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>502</v>
       </c>
@@ -17726,7 +17727,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>677</v>
       </c>
@@ -17737,7 +17738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -17748,7 +17749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -17759,7 +17760,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -17770,7 +17771,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>502</v>
       </c>
@@ -17781,7 +17782,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>787</v>
       </c>
@@ -17792,7 +17793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>502</v>
       </c>
@@ -17803,7 +17804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>502</v>
       </c>
@@ -17814,13 +17815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>665</v>
-      </c>
-      <c r="B25" t="s">
-        <v>34</v>
-      </c>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>1</v>
       </c>
@@ -17844,13 +17839,27 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a318c9bd-5828-4914-8ac9-a57d8c01df7a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="4da7f078-0f32-436f-b12a-21525bae5a0e" xsi:nil="true"/>
+  </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100919AB8A12910594B8F4D80F4ACA7D0E7" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9c71394a73500791d9f4b659570ff6f6">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a318c9bd-5828-4914-8ac9-a57d8c01df7a" xmlns:ns3="4da7f078-0f32-436f-b12a-21525bae5a0e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f0993cb8e7f28d1e7915cb051b812a71" ns2:_="" ns3:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100919AB8A12910594B8F4D80F4ACA7D0E7" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdc1734568a56db4c93babc30e64c3dd">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a318c9bd-5828-4914-8ac9-a57d8c01df7a" xmlns:ns3="4da7f078-0f32-436f-b12a-21525bae5a0e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2332e6491ccd53482df8a38b341b6af1" ns2:_="" ns3:_="">
     <xsd:import namespace="a318c9bd-5828-4914-8ac9-a57d8c01df7a"/>
     <xsd:import namespace="4da7f078-0f32-436f-b12a-21525bae5a0e"/>
     <xsd:element name="properties">
@@ -17865,6 +17874,12 @@
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -17893,6 +17908,35 @@
     <xsd:element name="MediaServiceSearchProperties" ma:index="13" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="29f62856-1543-49d4-a736-4569d363f533" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="17" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="19" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="20" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -17924,6 +17968,17 @@
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="16" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{83de6cd9-5cfd-49e4-9ce5-249e9e22fd83}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="4da7f078-0f32-436f-b12a-21525bae5a0e">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -18025,26 +18080,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{013AD9E7-5ED9-4240-9E80-4B7BF5375D95}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a318c9bd-5828-4914-8ac9-a57d8c01df7a"/>
+    <ds:schemaRef ds:uri="4da7f078-0f32-436f-b12a-21525bae5a0e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{358B428F-6B5B-4315-8B12-5337C9BB4513}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4F7EAA9-3149-4D1D-AC50-D48674558E43}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5894F413-BEBD-4D32-9133-427F18632D1D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -18060,12 +18116,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4F7EAA9-3149-4D1D-AC50-D48674558E43}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Meta/Analytes3.xlsx
+++ b/Meta/Analytes3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/coffman_christian_epa_gov/Documents/Profile/Documents/Projects/GL_Data/Meta/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/LakeMichiganML/Shared Documents/General/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4670" documentId="8_{D82D06AB-5E11-4340-B04B-6FA55AFBCF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDA05FB8-E276-4769-AF57-488643848963}"/>
+  <xr:revisionPtr revIDLastSave="4710" documentId="8_{D82D06AB-5E11-4340-B04B-6FA55AFBCF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C18B00A-B4D7-46E9-824B-1253E1994E00}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-9450" windowWidth="29040" windowHeight="15720" tabRatio="809" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="809" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="2" r:id="rId1"/>
@@ -153,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3524" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3581" uniqueCount="798">
   <si>
     <t>CodeName</t>
   </si>
@@ -2548,6 +2548,15 @@
   </si>
   <si>
     <t>Ammonia/ammonium, dissolved</t>
+  </si>
+  <si>
+    <t>Note this is dealt with by manually selecting columns by number in the code</t>
+  </si>
+  <si>
+    <t>NCCA_WChem_2020</t>
+  </si>
+  <si>
+    <t>2020-2020</t>
   </si>
 </sst>
 </file>
@@ -2915,7 +2924,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3033,7 +3042,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3090,9 +3098,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3542,8 +3547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E23ABD6F-8266-4030-840C-1A1DE88549A1}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A72" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4334,7 +4339,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="97" t="s">
         <v>690</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -4350,10 +4355,10 @@
         <v>7</v>
       </c>
       <c r="H1" s="2"/>
-      <c r="I1" s="95" t="s">
+      <c r="I1" s="93" t="s">
         <v>680</v>
       </c>
-      <c r="J1" s="75"/>
+      <c r="J1" s="74"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -4369,7 +4374,7 @@
       <c r="W1" s="2"/>
     </row>
     <row r="2" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="97" t="s">
         <v>690</v>
       </c>
       <c r="B2" t="s">
@@ -4381,13 +4386,13 @@
       <c r="G2" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="I2" s="95" t="s">
+      <c r="I2" s="93" t="s">
         <v>680</v>
       </c>
       <c r="J2" s="58"/>
     </row>
     <row r="3" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="97" t="s">
         <v>690</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -4403,10 +4408,10 @@
         <v>75</v>
       </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="95" t="s">
+      <c r="I3" s="93" t="s">
         <v>680</v>
       </c>
-      <c r="J3" s="75"/>
+      <c r="J3" s="74"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -4422,7 +4427,7 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="97" t="s">
         <v>690</v>
       </c>
       <c r="B4" t="s">
@@ -4434,13 +4439,13 @@
       <c r="G4" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="95" t="s">
+      <c r="I4" s="93" t="s">
         <v>680</v>
       </c>
       <c r="J4" s="58"/>
     </row>
     <row r="5" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="97" t="s">
         <v>690</v>
       </c>
       <c r="B5" t="s">
@@ -4452,31 +4457,31 @@
       <c r="G5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="95" t="s">
+      <c r="I5" s="93" t="s">
         <v>680</v>
       </c>
       <c r="J5" s="58"/>
     </row>
-    <row r="6" spans="1:23" s="96" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="99" t="s">
+    <row r="6" spans="1:23" s="94" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="97" t="s">
         <v>690</v>
       </c>
-      <c r="B6" s="96" t="s">
+      <c r="B6" s="94" t="s">
         <v>291</v>
       </c>
-      <c r="C6" s="96" t="s">
+      <c r="C6" s="94" t="s">
         <v>291</v>
       </c>
-      <c r="G6" s="97" t="s">
+      <c r="G6" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="I6" s="95" t="s">
+      <c r="I6" s="93" t="s">
         <v>680</v>
       </c>
-      <c r="J6" s="98"/>
+      <c r="J6" s="96"/>
     </row>
     <row r="7" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="97" t="s">
         <v>690</v>
       </c>
       <c r="B7" t="s">
@@ -4488,13 +4493,13 @@
       <c r="G7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="95" t="s">
+      <c r="I7" s="93" t="s">
         <v>680</v>
       </c>
       <c r="J7" s="58"/>
     </row>
     <row r="8" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="97" t="s">
         <v>690</v>
       </c>
       <c r="B8" t="s">
@@ -4507,18 +4512,18 @@
       <c r="G8" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="I8" s="95" t="s">
+      <c r="I8" s="93" t="s">
         <v>680</v>
       </c>
       <c r="J8" s="58"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="99" t="s">
+      <c r="A10" s="97" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" s="99" t="s">
+      <c r="A11" s="97" t="s">
         <v>696</v>
       </c>
     </row>
@@ -5745,7 +5750,7 @@
       <c r="G9" t="s">
         <v>550</v>
       </c>
-      <c r="M9" s="93">
+      <c r="M9" s="91">
         <v>0.50069444399999996</v>
       </c>
     </row>
@@ -5765,7 +5770,7 @@
       <c r="G10" t="s">
         <v>569</v>
       </c>
-      <c r="M10" s="93">
+      <c r="M10" s="91">
         <v>0.45416600000000001</v>
       </c>
     </row>
@@ -5785,7 +5790,7 @@
       <c r="G11" t="s">
         <v>573</v>
       </c>
-      <c r="M11" s="93">
+      <c r="M11" s="91">
         <v>0.44791666699999999</v>
       </c>
     </row>
@@ -7515,8 +7520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5D57F1-DBF9-46B4-8278-09786D5200AB}">
   <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H93" sqref="H93"/>
+    <sheetView topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7739,7 +7744,7 @@
       <c r="G8" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="72" t="s">
+      <c r="H8" s="71" t="s">
         <v>127</v>
       </c>
       <c r="I8" t="s">
@@ -7765,7 +7770,7 @@
       <c r="G9" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="72" t="s">
+      <c r="H9" s="71" t="s">
         <v>127</v>
       </c>
       <c r="I9" t="s">
@@ -8036,7 +8041,7 @@
       <c r="G20" t="s">
         <v>53</v>
       </c>
-      <c r="H20" s="72" t="s">
+      <c r="H20" s="71" t="s">
         <v>127</v>
       </c>
       <c r="I20" s="45" t="s">
@@ -8332,7 +8337,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>705</v>
       </c>
@@ -8346,16 +8351,18 @@
       <c r="G32" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="H32" s="69" t="s">
+      <c r="H32" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="I32" s="14" t="s">
         <v>412</v>
       </c>
-      <c r="J32" s="92" t="s">
+      <c r="J32" s="76" t="s">
         <v>413</v>
       </c>
-      <c r="K32" s="70"/>
+      <c r="K32" s="69" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="33" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
@@ -8379,7 +8386,7 @@
       <c r="J33" s="58" t="s">
         <v>416</v>
       </c>
-      <c r="K33" s="74" t="s">
+      <c r="K33" s="73" t="s">
         <v>417</v>
       </c>
     </row>
@@ -8537,7 +8544,7 @@
       <c r="F40">
         <v>2021</v>
       </c>
-      <c r="G40" s="73" t="s">
+      <c r="G40" s="72" t="s">
         <v>430</v>
       </c>
       <c r="H40" s="45" t="s">
@@ -8563,7 +8570,7 @@
       <c r="F41">
         <v>2021</v>
       </c>
-      <c r="G41" s="73" t="s">
+      <c r="G41" s="72" t="s">
         <v>430</v>
       </c>
       <c r="H41" s="45" t="s">
@@ -8759,7 +8766,7 @@
     </row>
     <row r="50" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B50" t="s">
         <v>446</v>
@@ -8782,7 +8789,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B51" t="s">
         <v>449</v>
@@ -8802,7 +8809,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B52" t="s">
         <v>451</v>
@@ -8822,7 +8829,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B53" t="s">
         <v>452</v>
@@ -8842,7 +8849,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B54" t="s">
         <v>453</v>
@@ -8862,7 +8869,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B55" t="s">
         <v>454</v>
@@ -8882,7 +8889,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B56" t="s">
         <v>456</v>
@@ -8902,7 +8909,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B57" t="s">
         <v>457</v>
@@ -8922,7 +8929,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B58" t="s">
         <v>458</v>
@@ -8942,7 +8949,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B59" t="s">
         <v>459</v>
@@ -8962,7 +8969,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B60" t="s">
         <v>461</v>
@@ -8985,7 +8992,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B61" t="s">
         <v>77</v>
@@ -8996,7 +9003,7 @@
       <c r="G61" t="s">
         <v>460</v>
       </c>
-      <c r="H61" s="40" t="s">
+      <c r="H61" s="45" t="s">
         <v>127</v>
       </c>
       <c r="I61" t="s">
@@ -9008,7 +9015,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B62" t="s">
         <v>464</v>
@@ -9028,7 +9035,7 @@
     </row>
     <row r="63" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B63" t="s">
         <v>466</v>
@@ -9054,7 +9061,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B64" t="s">
         <v>470</v>
@@ -9074,7 +9081,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B65" t="s">
         <v>472</v>
@@ -9094,7 +9101,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B66" t="s">
         <v>473</v>
@@ -9114,7 +9121,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B67" t="s">
         <v>474</v>
@@ -9139,7 +9146,7 @@
       <c r="B68" s="14" t="s">
         <v>475</v>
       </c>
-      <c r="E68" s="91"/>
+      <c r="E68" s="90"/>
       <c r="F68" s="14">
         <v>2021</v>
       </c>
@@ -9152,10 +9159,10 @@
       <c r="I68" s="14" t="s">
         <v>412</v>
       </c>
-      <c r="J68" s="77" t="s">
+      <c r="J68" s="76" t="s">
         <v>476</v>
       </c>
-      <c r="K68" s="77"/>
+      <c r="K68" s="76"/>
     </row>
     <row r="69" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
@@ -9164,7 +9171,7 @@
       <c r="B69" s="45" t="s">
         <v>477</v>
       </c>
-      <c r="E69" s="90"/>
+      <c r="E69" s="89"/>
       <c r="F69" s="45">
         <v>2021</v>
       </c>
@@ -9189,7 +9196,7 @@
       <c r="B70" s="45" t="s">
         <v>479</v>
       </c>
-      <c r="E70" s="90"/>
+      <c r="E70" s="89"/>
       <c r="F70" s="45">
         <v>2021</v>
       </c>
@@ -9214,7 +9221,7 @@
       <c r="B71" s="45" t="s">
         <v>481</v>
       </c>
-      <c r="E71" s="90"/>
+      <c r="E71" s="89"/>
       <c r="F71" s="45">
         <v>2021</v>
       </c>
@@ -9239,7 +9246,7 @@
       <c r="B72" s="45" t="s">
         <v>702</v>
       </c>
-      <c r="E72" s="90"/>
+      <c r="E72" s="89"/>
       <c r="F72" s="45">
         <v>2021</v>
       </c>
@@ -9264,7 +9271,7 @@
       <c r="B73" s="45" t="s">
         <v>486</v>
       </c>
-      <c r="E73" s="90"/>
+      <c r="E73" s="89"/>
       <c r="F73" s="45">
         <v>2021</v>
       </c>
@@ -9289,7 +9296,7 @@
       <c r="B74" s="45" t="s">
         <v>488</v>
       </c>
-      <c r="E74" s="90"/>
+      <c r="E74" s="89"/>
       <c r="F74" s="45">
         <v>2021</v>
       </c>
@@ -9314,7 +9321,7 @@
       <c r="B75" s="45" t="s">
         <v>703</v>
       </c>
-      <c r="E75" s="90"/>
+      <c r="E75" s="89"/>
       <c r="F75" s="45">
         <v>2021</v>
       </c>
@@ -9339,7 +9346,7 @@
       <c r="B76" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="E76" s="90"/>
+      <c r="E76" s="89"/>
       <c r="F76" s="45">
         <v>2021</v>
       </c>
@@ -9364,7 +9371,7 @@
       <c r="B77" s="45" t="s">
         <v>493</v>
       </c>
-      <c r="E77" s="90"/>
+      <c r="E77" s="89"/>
       <c r="F77" s="45">
         <v>2021</v>
       </c>
@@ -9389,7 +9396,7 @@
       <c r="B78" s="45" t="s">
         <v>495</v>
       </c>
-      <c r="E78" s="90"/>
+      <c r="E78" s="89"/>
       <c r="F78" s="45">
         <v>2021</v>
       </c>
@@ -9414,7 +9421,7 @@
       <c r="B79" s="45" t="s">
         <v>497</v>
       </c>
-      <c r="E79" s="90"/>
+      <c r="E79" s="89"/>
       <c r="F79" s="45">
         <v>2021</v>
       </c>
@@ -9439,7 +9446,7 @@
       <c r="B80" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="E80" s="90" t="s">
+      <c r="E80" s="89" t="s">
         <v>498</v>
       </c>
       <c r="F80" s="45">
@@ -9468,7 +9475,7 @@
       <c r="B81" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="E81" s="90" t="s">
+      <c r="E81" s="89" t="s">
         <v>498</v>
       </c>
       <c r="F81" s="45">
@@ -9497,7 +9504,7 @@
       <c r="B82" s="45" t="s">
         <v>500</v>
       </c>
-      <c r="E82" s="90"/>
+      <c r="E82" s="89"/>
       <c r="F82" s="45">
         <v>2021</v>
       </c>
@@ -9517,18 +9524,18 @@
       <c r="A83" t="s">
         <v>539</v>
       </c>
-      <c r="B83" s="88" t="s">
+      <c r="B83" s="87" t="s">
         <v>475</v>
       </c>
-      <c r="C83" s="88" t="s">
+      <c r="C83" s="87" t="s">
         <v>119</v>
       </c>
-      <c r="D83" s="88"/>
-      <c r="E83" s="89"/>
-      <c r="F83" s="88">
+      <c r="D83" s="87"/>
+      <c r="E83" s="88"/>
+      <c r="F83" s="87">
         <v>2010</v>
       </c>
-      <c r="G83" s="88" t="s">
+      <c r="G83" s="87" t="s">
         <v>501</v>
       </c>
       <c r="H83" s="4" t="s">
@@ -9537,7 +9544,7 @@
       <c r="I83" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="J83" s="70"/>
+      <c r="J83" s="69"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
@@ -9550,7 +9557,7 @@
         <v>53</v>
       </c>
       <c r="D84" s="66"/>
-      <c r="E84" s="87"/>
+      <c r="E84" s="86"/>
       <c r="F84" s="66">
         <v>2010</v>
       </c>
@@ -9576,7 +9583,7 @@
         <v>119</v>
       </c>
       <c r="D85" s="66"/>
-      <c r="E85" s="87"/>
+      <c r="E85" s="86"/>
       <c r="F85" s="66">
         <v>2010</v>
       </c>
@@ -9602,7 +9609,7 @@
         <v>119</v>
       </c>
       <c r="D86" s="66"/>
-      <c r="E86" s="87"/>
+      <c r="E86" s="86"/>
       <c r="F86" s="66">
         <v>2010</v>
       </c>
@@ -9628,7 +9635,7 @@
         <v>53</v>
       </c>
       <c r="D87" s="66"/>
-      <c r="E87" s="87"/>
+      <c r="E87" s="86"/>
       <c r="F87" s="66">
         <v>2010</v>
       </c>
@@ -9654,7 +9661,7 @@
         <v>119</v>
       </c>
       <c r="D88" s="66"/>
-      <c r="E88" s="87"/>
+      <c r="E88" s="86"/>
       <c r="F88" s="66">
         <v>2010</v>
       </c>
@@ -9680,7 +9687,7 @@
         <v>53</v>
       </c>
       <c r="D89" s="66"/>
-      <c r="E89" s="87"/>
+      <c r="E89" s="86"/>
       <c r="F89" s="66">
         <v>2010</v>
       </c>
@@ -9706,7 +9713,7 @@
         <v>119</v>
       </c>
       <c r="D90" s="66"/>
-      <c r="E90" s="87"/>
+      <c r="E90" s="86"/>
       <c r="F90" s="66">
         <v>2010</v>
       </c>
@@ -9732,7 +9739,7 @@
         <v>53</v>
       </c>
       <c r="D91" s="66"/>
-      <c r="E91" s="87"/>
+      <c r="E91" s="86"/>
       <c r="F91" s="66">
         <v>2010</v>
       </c>
@@ -9758,7 +9765,7 @@
         <v>119</v>
       </c>
       <c r="D92" s="66"/>
-      <c r="E92" s="87"/>
+      <c r="E92" s="86"/>
       <c r="F92" s="66">
         <v>2010</v>
       </c>
@@ -9784,7 +9791,7 @@
         <v>53</v>
       </c>
       <c r="D93" s="66"/>
-      <c r="E93" s="87"/>
+      <c r="E93" s="86"/>
       <c r="F93" s="66">
         <v>2010</v>
       </c>
@@ -9810,7 +9817,7 @@
         <v>119</v>
       </c>
       <c r="D94" s="66"/>
-      <c r="E94" s="87"/>
+      <c r="E94" s="86"/>
       <c r="F94" s="66">
         <v>2010</v>
       </c>
@@ -9836,7 +9843,7 @@
         <v>53</v>
       </c>
       <c r="D95" s="66"/>
-      <c r="E95" s="87"/>
+      <c r="E95" s="86"/>
       <c r="F95" s="66">
         <v>2010</v>
       </c>
@@ -9862,7 +9869,7 @@
         <v>119</v>
       </c>
       <c r="D96" s="66"/>
-      <c r="E96" s="87"/>
+      <c r="E96" s="86"/>
       <c r="F96" s="66">
         <v>2010</v>
       </c>
@@ -9888,7 +9895,7 @@
         <v>53</v>
       </c>
       <c r="D97" s="66"/>
-      <c r="E97" s="87"/>
+      <c r="E97" s="86"/>
       <c r="F97" s="66">
         <v>2010</v>
       </c>
@@ -9914,7 +9921,7 @@
         <v>149</v>
       </c>
       <c r="D98" s="66"/>
-      <c r="E98" s="87"/>
+      <c r="E98" s="86"/>
       <c r="F98" s="66">
         <v>2010</v>
       </c>
@@ -9948,7 +9955,7 @@
         <v>53</v>
       </c>
       <c r="D99" s="66"/>
-      <c r="E99" s="87"/>
+      <c r="E99" s="86"/>
       <c r="F99" s="66">
         <v>2010</v>
       </c>
@@ -9982,7 +9989,7 @@
         <v>149</v>
       </c>
       <c r="D100" s="66"/>
-      <c r="E100" s="87"/>
+      <c r="E100" s="86"/>
       <c r="F100" s="66">
         <v>2010</v>
       </c>
@@ -10016,7 +10023,7 @@
         <v>53</v>
       </c>
       <c r="D101" s="66"/>
-      <c r="E101" s="87"/>
+      <c r="E101" s="86"/>
       <c r="F101" s="66">
         <v>2010</v>
       </c>
@@ -10050,7 +10057,7 @@
         <v>149</v>
       </c>
       <c r="D102" s="66"/>
-      <c r="E102" s="87"/>
+      <c r="E102" s="86"/>
       <c r="F102" s="66">
         <v>2010</v>
       </c>
@@ -10084,7 +10091,7 @@
         <v>53</v>
       </c>
       <c r="D103" s="66"/>
-      <c r="E103" s="87"/>
+      <c r="E103" s="86"/>
       <c r="F103" s="66">
         <v>2010</v>
       </c>
@@ -10118,7 +10125,7 @@
         <v>119</v>
       </c>
       <c r="D104" s="66"/>
-      <c r="E104" s="87"/>
+      <c r="E104" s="86"/>
       <c r="F104" s="66">
         <v>2010</v>
       </c>
@@ -10144,7 +10151,7 @@
         <v>119</v>
       </c>
       <c r="D105" s="66"/>
-      <c r="E105" s="87"/>
+      <c r="E105" s="86"/>
       <c r="F105" s="66">
         <v>2010</v>
       </c>
@@ -10170,7 +10177,7 @@
         <v>53</v>
       </c>
       <c r="D106" s="66"/>
-      <c r="E106" s="87"/>
+      <c r="E106" s="86"/>
       <c r="F106" s="66">
         <v>2010</v>
       </c>
@@ -10196,7 +10203,7 @@
         <v>149</v>
       </c>
       <c r="D107" s="66"/>
-      <c r="E107" s="87"/>
+      <c r="E107" s="86"/>
       <c r="F107" s="66">
         <v>2010</v>
       </c>
@@ -10222,7 +10229,7 @@
         <v>53</v>
       </c>
       <c r="D108" s="66"/>
-      <c r="E108" s="87"/>
+      <c r="E108" s="86"/>
       <c r="F108" s="66">
         <v>2010</v>
       </c>
@@ -10248,7 +10255,7 @@
         <v>119</v>
       </c>
       <c r="D109" s="66"/>
-      <c r="E109" s="87"/>
+      <c r="E109" s="86"/>
       <c r="F109" s="66">
         <v>2010</v>
       </c>
@@ -10277,7 +10284,7 @@
         <v>106</v>
       </c>
       <c r="D110" s="66"/>
-      <c r="E110" s="87"/>
+      <c r="E110" s="86"/>
       <c r="F110" s="66">
         <v>2010</v>
       </c>
@@ -10303,7 +10310,7 @@
         <v>106</v>
       </c>
       <c r="D111" s="66"/>
-      <c r="E111" s="87"/>
+      <c r="E111" s="86"/>
       <c r="F111" s="66">
         <v>2010</v>
       </c>
@@ -10329,7 +10336,7 @@
         <v>106</v>
       </c>
       <c r="D112" s="66"/>
-      <c r="E112" s="87"/>
+      <c r="E112" s="86"/>
       <c r="F112" s="66">
         <v>2010</v>
       </c>
@@ -10360,7 +10367,7 @@
         <v>53</v>
       </c>
       <c r="D113" s="66"/>
-      <c r="E113" s="87"/>
+      <c r="E113" s="86"/>
       <c r="F113" s="66">
         <v>2010</v>
       </c>
@@ -10388,7 +10395,7 @@
         <v>106</v>
       </c>
       <c r="D114" s="66"/>
-      <c r="E114" s="87"/>
+      <c r="E114" s="86"/>
       <c r="F114" s="66">
         <v>2010</v>
       </c>
@@ -10416,7 +10423,7 @@
         <v>53</v>
       </c>
       <c r="D115" s="66"/>
-      <c r="E115" s="87"/>
+      <c r="E115" s="86"/>
       <c r="F115" s="66">
         <v>2010</v>
       </c>
@@ -10444,7 +10451,7 @@
         <v>106</v>
       </c>
       <c r="D116" s="66"/>
-      <c r="E116" s="87"/>
+      <c r="E116" s="86"/>
       <c r="F116" s="66">
         <v>2010</v>
       </c>
@@ -10470,7 +10477,7 @@
         <v>53</v>
       </c>
       <c r="D117" s="66"/>
-      <c r="E117" s="87"/>
+      <c r="E117" s="86"/>
       <c r="F117" s="66">
         <v>2010</v>
       </c>
@@ -10668,8 +10675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10718,10 +10725,10 @@
       <c r="J1" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="K1" s="86" t="s">
+      <c r="K1" s="85" t="s">
         <v>96</v>
       </c>
-      <c r="L1" s="83" t="s">
+      <c r="L1" s="82" t="s">
         <v>97</v>
       </c>
       <c r="M1" s="18" t="s">
@@ -10760,8 +10767,8 @@
       <c r="J2" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="K2" s="129"/>
-      <c r="L2" s="119"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="117"/>
       <c r="M2" s="19" t="s">
         <v>105</v>
       </c>
@@ -10798,8 +10805,8 @@
       <c r="J3" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K3" s="127"/>
-      <c r="L3" s="110"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="108"/>
       <c r="M3" s="20" t="s">
         <v>105</v>
       </c>
@@ -10833,8 +10840,8 @@
       <c r="J4" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K4" s="127"/>
-      <c r="L4" s="110"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="108"/>
       <c r="M4" s="20" t="s">
         <v>105</v>
       </c>
@@ -10865,8 +10872,8 @@
       <c r="J5" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K5" s="127"/>
-      <c r="L5" s="110"/>
+      <c r="K5" s="125"/>
+      <c r="L5" s="108"/>
       <c r="M5" s="20" t="s">
         <v>105</v>
       </c>
@@ -10900,10 +10907,10 @@
       <c r="J6" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K6" s="127" t="s">
+      <c r="K6" s="125" t="s">
         <v>114</v>
       </c>
-      <c r="L6" s="125"/>
+      <c r="L6" s="123"/>
       <c r="M6" s="20" t="s">
         <v>105</v>
       </c>
@@ -10937,8 +10944,8 @@
       <c r="J7" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K7" s="127"/>
-      <c r="L7" s="125"/>
+      <c r="K7" s="125"/>
+      <c r="L7" s="123"/>
       <c r="M7" s="20" t="s">
         <v>105</v>
       </c>
@@ -10969,8 +10976,8 @@
       <c r="J8" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="K8" s="128"/>
-      <c r="L8" s="126"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="124"/>
       <c r="M8" s="20" t="s">
         <v>105</v>
       </c>
@@ -11007,10 +11014,10 @@
       <c r="J9" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K9" s="135" t="s">
+      <c r="K9" s="133" t="s">
         <v>122</v>
       </c>
-      <c r="L9" s="110" t="s">
+      <c r="L9" s="108" t="s">
         <v>123</v>
       </c>
       <c r="M9" s="19" t="s">
@@ -11046,8 +11053,8 @@
       <c r="J10" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K10" s="135"/>
-      <c r="L10" s="110"/>
+      <c r="K10" s="133"/>
+      <c r="L10" s="108"/>
       <c r="M10" s="20" t="s">
         <v>105</v>
       </c>
@@ -11081,8 +11088,8 @@
       <c r="J11" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K11" s="135"/>
-      <c r="L11" s="110"/>
+      <c r="K11" s="133"/>
+      <c r="L11" s="108"/>
       <c r="M11" s="21" t="s">
         <v>105</v>
       </c>
@@ -11113,10 +11120,10 @@
       <c r="J12" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K12" s="86" t="s">
+      <c r="K12" s="85" t="s">
         <v>129</v>
       </c>
-      <c r="L12" s="78" t="s">
+      <c r="L12" s="77" t="s">
         <v>130</v>
       </c>
       <c r="M12" s="21" t="s">
@@ -11190,10 +11197,10 @@
       <c r="J14" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K14" s="82" t="s">
+      <c r="K14" s="81" t="s">
         <v>136</v>
       </c>
-      <c r="L14" s="78" t="s">
+      <c r="L14" s="77" t="s">
         <v>137</v>
       </c>
       <c r="M14" s="19" t="s">
@@ -11229,8 +11236,8 @@
       <c r="J15" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K15" s="82"/>
-      <c r="L15" s="78"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="77"/>
       <c r="M15" s="19" t="s">
         <v>105</v>
       </c>
@@ -11267,7 +11274,7 @@
       <c r="K16" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="L16" s="80" t="s">
+      <c r="L16" s="79" t="s">
         <v>145</v>
       </c>
       <c r="M16" s="19" t="s">
@@ -11306,7 +11313,7 @@
       <c r="J17" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K17" s="82" t="s">
+      <c r="K17" s="81" t="s">
         <v>147</v>
       </c>
       <c r="L17" s="42" t="s">
@@ -11345,8 +11352,8 @@
       <c r="J18" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K18" s="121"/>
-      <c r="L18" s="78"/>
+      <c r="K18" s="119"/>
+      <c r="L18" s="77"/>
       <c r="M18" s="10" t="s">
         <v>105</v>
       </c>
@@ -11380,8 +11387,8 @@
       <c r="J19" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="K19" s="133"/>
-      <c r="L19" s="81"/>
+      <c r="K19" s="131"/>
+      <c r="L19" s="80"/>
       <c r="M19" s="31" t="s">
         <v>105</v>
       </c>
@@ -11418,10 +11425,10 @@
       <c r="J20" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K20" s="121" t="s">
+      <c r="K20" s="119" t="s">
         <v>153</v>
       </c>
-      <c r="L20" s="110" t="s">
+      <c r="L20" s="108" t="s">
         <v>154</v>
       </c>
       <c r="M20" s="10" t="s">
@@ -11457,8 +11464,8 @@
       <c r="J21" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K21" s="121"/>
-      <c r="L21" s="110"/>
+      <c r="K21" s="119"/>
+      <c r="L21" s="108"/>
       <c r="M21" s="10" t="s">
         <v>105</v>
       </c>
@@ -11489,8 +11496,8 @@
       <c r="J22" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K22" s="121"/>
-      <c r="L22" s="110"/>
+      <c r="K22" s="119"/>
+      <c r="L22" s="108"/>
       <c r="M22" s="10" t="s">
         <v>105</v>
       </c>
@@ -11524,8 +11531,8 @@
       <c r="J23" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K23" s="121"/>
-      <c r="L23" s="110"/>
+      <c r="K23" s="119"/>
+      <c r="L23" s="108"/>
       <c r="M23" s="10" t="s">
         <v>105</v>
       </c>
@@ -11559,8 +11566,8 @@
       <c r="J24" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K24" s="121"/>
-      <c r="L24" s="110"/>
+      <c r="K24" s="119"/>
+      <c r="L24" s="108"/>
       <c r="M24" s="10" t="s">
         <v>105</v>
       </c>
@@ -11594,10 +11601,10 @@
       <c r="J25" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="K25" s="134" t="s">
+      <c r="K25" s="132" t="s">
         <v>159</v>
       </c>
-      <c r="L25" s="119" t="s">
+      <c r="L25" s="117" t="s">
         <v>160</v>
       </c>
       <c r="M25" s="15" t="s">
@@ -11636,8 +11643,8 @@
       <c r="J26" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K26" s="121"/>
-      <c r="L26" s="110"/>
+      <c r="K26" s="119"/>
+      <c r="L26" s="108"/>
       <c r="M26" s="10" t="s">
         <v>105</v>
       </c>
@@ -11671,8 +11678,8 @@
       <c r="J27" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K27" s="121"/>
-      <c r="L27" s="110"/>
+      <c r="K27" s="119"/>
+      <c r="L27" s="108"/>
       <c r="M27" s="10" t="s">
         <v>105</v>
       </c>
@@ -11703,8 +11710,8 @@
       <c r="J28" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="K28" s="133"/>
-      <c r="L28" s="120"/>
+      <c r="K28" s="131"/>
+      <c r="L28" s="118"/>
       <c r="M28" s="11" t="s">
         <v>105</v>
       </c>
@@ -11741,10 +11748,10 @@
       <c r="J29" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K29" s="121" t="s">
+      <c r="K29" s="119" t="s">
         <v>167</v>
       </c>
-      <c r="L29" s="78"/>
+      <c r="L29" s="77"/>
       <c r="M29" s="10" t="s">
         <v>105</v>
       </c>
@@ -11778,8 +11785,8 @@
       <c r="J30" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K30" s="121"/>
-      <c r="L30" s="78"/>
+      <c r="K30" s="119"/>
+      <c r="L30" s="77"/>
       <c r="M30" s="10" t="s">
         <v>105</v>
       </c>
@@ -11813,8 +11820,8 @@
       <c r="J31" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K31" s="121"/>
-      <c r="L31" s="78"/>
+      <c r="K31" s="119"/>
+      <c r="L31" s="77"/>
       <c r="M31" s="10" t="s">
         <v>105</v>
       </c>
@@ -11845,8 +11852,8 @@
       <c r="J32" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K32" s="121"/>
-      <c r="L32" s="78"/>
+      <c r="K32" s="119"/>
+      <c r="L32" s="77"/>
       <c r="M32" s="10" t="s">
         <v>105</v>
       </c>
@@ -11880,10 +11887,10 @@
       <c r="J33" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="K33" s="134" t="s">
+      <c r="K33" s="132" t="s">
         <v>136</v>
       </c>
-      <c r="L33" s="80" t="s">
+      <c r="L33" s="79" t="s">
         <v>137</v>
       </c>
       <c r="M33" s="15" t="s">
@@ -11922,8 +11929,8 @@
       <c r="J34" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="K34" s="133"/>
-      <c r="L34" s="81"/>
+      <c r="K34" s="131"/>
+      <c r="L34" s="80"/>
       <c r="M34" s="11" t="s">
         <v>105</v>
       </c>
@@ -11960,10 +11967,10 @@
       <c r="J35" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K35" s="121" t="s">
+      <c r="K35" s="119" t="s">
         <v>136</v>
       </c>
-      <c r="L35" s="78" t="s">
+      <c r="L35" s="77" t="s">
         <v>137</v>
       </c>
       <c r="M35" s="10" t="s">
@@ -11999,8 +12006,8 @@
       <c r="J36" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K36" s="121"/>
-      <c r="L36" s="78"/>
+      <c r="K36" s="119"/>
+      <c r="L36" s="77"/>
       <c r="M36" s="10" t="s">
         <v>105</v>
       </c>
@@ -12072,8 +12079,8 @@
       <c r="J38" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K38" s="82"/>
-      <c r="L38" s="78"/>
+      <c r="K38" s="81"/>
+      <c r="L38" s="77"/>
       <c r="M38" s="10" t="s">
         <v>105</v>
       </c>
@@ -12107,10 +12114,10 @@
       <c r="J39" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="K39" s="85" t="s">
+      <c r="K39" s="84" t="s">
         <v>178</v>
       </c>
-      <c r="L39" s="119"/>
+      <c r="L39" s="117"/>
       <c r="M39" s="19" t="s">
         <v>105</v>
       </c>
@@ -12148,7 +12155,7 @@
         <v>105</v>
       </c>
       <c r="K40" s="32"/>
-      <c r="L40" s="110"/>
+      <c r="L40" s="108"/>
       <c r="M40" s="20" t="s">
         <v>105</v>
       </c>
@@ -12182,10 +12189,10 @@
       <c r="J41" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="K41" s="82" t="s">
+      <c r="K41" s="81" t="s">
         <v>182</v>
       </c>
-      <c r="L41" s="81" t="s">
+      <c r="L41" s="80" t="s">
         <v>183</v>
       </c>
       <c r="M41" s="22" t="s">
@@ -12224,10 +12231,10 @@
       <c r="J42" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K42" s="121" t="s">
+      <c r="K42" s="119" t="s">
         <v>185</v>
       </c>
-      <c r="L42" s="110" t="s">
+      <c r="L42" s="108" t="s">
         <v>186</v>
       </c>
       <c r="M42" s="19" t="s">
@@ -12263,8 +12270,8 @@
       <c r="J43" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K43" s="121"/>
-      <c r="L43" s="110"/>
+      <c r="K43" s="119"/>
+      <c r="L43" s="108"/>
       <c r="M43" s="20" t="s">
         <v>105</v>
       </c>
@@ -12298,8 +12305,8 @@
       <c r="J44" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K44" s="121"/>
-      <c r="L44" s="110"/>
+      <c r="K44" s="119"/>
+      <c r="L44" s="108"/>
       <c r="M44" s="20" t="s">
         <v>105</v>
       </c>
@@ -12330,8 +12337,8 @@
       <c r="J45" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K45" s="121"/>
-      <c r="L45" s="110"/>
+      <c r="K45" s="119"/>
+      <c r="L45" s="108"/>
       <c r="M45" s="20" t="s">
         <v>105</v>
       </c>
@@ -12365,8 +12372,8 @@
       <c r="J46" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K46" s="121"/>
-      <c r="L46" s="110"/>
+      <c r="K46" s="119"/>
+      <c r="L46" s="108"/>
       <c r="M46" s="20" t="s">
         <v>105</v>
       </c>
@@ -12400,8 +12407,8 @@
       <c r="J47" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K47" s="121"/>
-      <c r="L47" s="110"/>
+      <c r="K47" s="119"/>
+      <c r="L47" s="108"/>
       <c r="M47" s="20" t="s">
         <v>105</v>
       </c>
@@ -12477,8 +12484,8 @@
       <c r="J49" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K49" s="82"/>
-      <c r="L49" s="78"/>
+      <c r="K49" s="81"/>
+      <c r="L49" s="77"/>
       <c r="M49" s="19" t="s">
         <v>105</v>
       </c>
@@ -12512,10 +12519,10 @@
       <c r="J50" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="K50" s="117" t="s">
+      <c r="K50" s="115" t="s">
         <v>198</v>
       </c>
-      <c r="L50" s="80"/>
+      <c r="L50" s="79"/>
       <c r="M50" s="23" t="s">
         <v>105</v>
       </c>
@@ -12552,8 +12559,8 @@
       <c r="J51" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K51" s="135"/>
-      <c r="L51" s="78"/>
+      <c r="K51" s="133"/>
+      <c r="L51" s="77"/>
       <c r="M51" s="23" t="s">
         <v>105</v>
       </c>
@@ -12587,8 +12594,8 @@
       <c r="J52" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K52" s="135"/>
-      <c r="L52" s="78"/>
+      <c r="K52" s="133"/>
+      <c r="L52" s="77"/>
       <c r="M52" s="23" t="s">
         <v>105</v>
       </c>
@@ -12622,8 +12629,8 @@
       <c r="J53" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K53" s="135"/>
-      <c r="L53" s="78"/>
+      <c r="K53" s="133"/>
+      <c r="L53" s="77"/>
       <c r="M53" s="23" t="s">
         <v>105</v>
       </c>
@@ -12654,8 +12661,8 @@
       <c r="J54" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="K54" s="118"/>
-      <c r="L54" s="81"/>
+      <c r="K54" s="116"/>
+      <c r="L54" s="80"/>
       <c r="M54" s="23" t="s">
         <v>105</v>
       </c>
@@ -12692,7 +12699,7 @@
       <c r="J55" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K55" s="86" t="s">
+      <c r="K55" s="85" t="s">
         <v>208</v>
       </c>
       <c r="L55" s="67" t="s">
@@ -12770,10 +12777,10 @@
       <c r="J57" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K57" s="121" t="s">
+      <c r="K57" s="119" t="s">
         <v>214</v>
       </c>
-      <c r="L57" s="78"/>
+      <c r="L57" s="77"/>
       <c r="M57" s="23" t="s">
         <v>105</v>
       </c>
@@ -12807,8 +12814,8 @@
       <c r="J58" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K58" s="121"/>
-      <c r="L58" s="78"/>
+      <c r="K58" s="119"/>
+      <c r="L58" s="77"/>
       <c r="M58" s="21" t="s">
         <v>105</v>
       </c>
@@ -12839,8 +12846,8 @@
       <c r="J59" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K59" s="121"/>
-      <c r="L59" s="78"/>
+      <c r="K59" s="119"/>
+      <c r="L59" s="77"/>
       <c r="M59" s="21" t="s">
         <v>105</v>
       </c>
@@ -12874,10 +12881,10 @@
       <c r="J60" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="K60" s="119" t="s">
+      <c r="K60" s="117" t="s">
         <v>219</v>
       </c>
-      <c r="L60" s="80"/>
+      <c r="L60" s="79"/>
       <c r="M60" s="19" t="s">
         <v>105</v>
       </c>
@@ -12914,8 +12921,8 @@
       <c r="J61" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="K61" s="110"/>
-      <c r="L61" s="78" t="s">
+      <c r="K61" s="108"/>
+      <c r="L61" s="77" t="s">
         <v>221</v>
       </c>
       <c r="M61" s="20" t="s">
@@ -12951,8 +12958,8 @@
       <c r="J62" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K62" s="110"/>
-      <c r="L62" s="78" t="s">
+      <c r="K62" s="108"/>
+      <c r="L62" s="77" t="s">
         <v>223</v>
       </c>
       <c r="M62" s="20" t="s">
@@ -12988,8 +12995,8 @@
       <c r="J63" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="K63" s="121"/>
-      <c r="L63" s="78"/>
+      <c r="K63" s="119"/>
+      <c r="L63" s="77"/>
       <c r="M63" s="20" t="s">
         <v>105</v>
       </c>
@@ -13023,8 +13030,8 @@
       <c r="J64" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="K64" s="121"/>
-      <c r="L64" s="78"/>
+      <c r="K64" s="119"/>
+      <c r="L64" s="77"/>
       <c r="M64" s="20" t="s">
         <v>105</v>
       </c>
@@ -13058,8 +13065,8 @@
       <c r="J65" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="K65" s="121"/>
-      <c r="L65" s="78" t="s">
+      <c r="K65" s="119"/>
+      <c r="L65" s="77" t="s">
         <v>223</v>
       </c>
       <c r="M65" s="20" t="s">
@@ -13093,7 +13100,7 @@
       <c r="J66" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="K66" s="121"/>
+      <c r="K66" s="119"/>
       <c r="L66" s="43"/>
       <c r="M66" s="44" t="s">
         <v>105</v>
@@ -13132,7 +13139,7 @@
         <v>105</v>
       </c>
       <c r="K67" s="38"/>
-      <c r="L67" s="84"/>
+      <c r="L67" s="83"/>
       <c r="M67" s="20" t="s">
         <v>105</v>
       </c>
@@ -13167,7 +13174,7 @@
         <v>105</v>
       </c>
       <c r="K68" s="26"/>
-      <c r="L68" s="81"/>
+      <c r="L68" s="80"/>
       <c r="M68" s="23" t="s">
         <v>105</v>
       </c>
@@ -13204,10 +13211,10 @@
       <c r="J69" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K69" s="121" t="s">
+      <c r="K69" s="119" t="s">
         <v>136</v>
       </c>
-      <c r="L69" s="78" t="s">
+      <c r="L69" s="77" t="s">
         <v>137</v>
       </c>
       <c r="M69" s="23" t="s">
@@ -13243,8 +13250,8 @@
       <c r="J70" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K70" s="121"/>
-      <c r="L70" s="78"/>
+      <c r="K70" s="119"/>
+      <c r="L70" s="77"/>
       <c r="M70" s="21" t="s">
         <v>105</v>
       </c>
@@ -13275,10 +13282,10 @@
       <c r="J71" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="K71" s="85" t="s">
+      <c r="K71" s="84" t="s">
         <v>232</v>
       </c>
-      <c r="L71" s="80" t="s">
+      <c r="L71" s="79" t="s">
         <v>233</v>
       </c>
       <c r="M71" s="19" t="s">
@@ -13317,8 +13324,8 @@
       <c r="J72" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K72" s="121"/>
-      <c r="L72" s="78"/>
+      <c r="K72" s="119"/>
+      <c r="L72" s="77"/>
       <c r="M72" s="21" t="s">
         <v>105</v>
       </c>
@@ -13349,8 +13356,8 @@
       <c r="J73" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K73" s="121"/>
-      <c r="L73" s="78"/>
+      <c r="K73" s="119"/>
+      <c r="L73" s="77"/>
       <c r="M73" s="21" t="s">
         <v>105</v>
       </c>
@@ -13381,8 +13388,8 @@
       <c r="J74" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K74" s="121"/>
-      <c r="L74" s="78"/>
+      <c r="K74" s="119"/>
+      <c r="L74" s="77"/>
       <c r="M74" s="21" t="s">
         <v>105</v>
       </c>
@@ -13410,8 +13417,8 @@
       <c r="J75" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="K75" s="133"/>
-      <c r="L75" s="81"/>
+      <c r="K75" s="131"/>
+      <c r="L75" s="80"/>
       <c r="M75" s="21" t="s">
         <v>105</v>
       </c>
@@ -13448,8 +13455,8 @@
       <c r="J76" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K76" s="82"/>
-      <c r="L76" s="78"/>
+      <c r="K76" s="81"/>
+      <c r="L76" s="77"/>
       <c r="M76" s="23" t="s">
         <v>105</v>
       </c>
@@ -13479,16 +13486,16 @@
       <c r="H77" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="I77" s="94" t="s">
+      <c r="I77" s="92" t="s">
         <v>638</v>
       </c>
       <c r="J77" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="K77" s="117" t="s">
+      <c r="K77" s="115" t="s">
         <v>241</v>
       </c>
-      <c r="L77" s="122" t="s">
+      <c r="L77" s="120" t="s">
         <v>242</v>
       </c>
       <c r="M77" s="19" t="s">
@@ -13523,14 +13530,14 @@
       <c r="H78" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="I78" s="94" t="s">
+      <c r="I78" s="92" t="s">
         <v>638</v>
       </c>
       <c r="J78" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K78" s="118"/>
-      <c r="L78" s="123"/>
+      <c r="K78" s="116"/>
+      <c r="L78" s="121"/>
       <c r="M78" s="44" t="s">
         <v>105</v>
       </c>
@@ -13567,10 +13574,10 @@
       <c r="J79" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K79" s="78" t="s">
+      <c r="K79" s="77" t="s">
         <v>244</v>
       </c>
-      <c r="L79" s="123"/>
+      <c r="L79" s="121"/>
       <c r="M79" s="44" t="s">
         <v>105</v>
       </c>
@@ -13598,16 +13605,16 @@
       <c r="H80" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="I80" s="94" t="s">
+      <c r="I80" s="92" t="s">
         <v>638</v>
       </c>
       <c r="J80" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="K80" s="78" t="s">
+      <c r="K80" s="77" t="s">
         <v>244</v>
       </c>
-      <c r="L80" s="124"/>
+      <c r="L80" s="122"/>
       <c r="M80" s="20" t="s">
         <v>105</v>
       </c>
@@ -13644,10 +13651,10 @@
       <c r="J81" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K81" s="121" t="s">
+      <c r="K81" s="119" t="s">
         <v>136</v>
       </c>
-      <c r="L81" s="78" t="s">
+      <c r="L81" s="77" t="s">
         <v>137</v>
       </c>
       <c r="M81" s="23" t="s">
@@ -13683,8 +13690,8 @@
       <c r="J82" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K82" s="121"/>
-      <c r="L82" s="78"/>
+      <c r="K82" s="119"/>
+      <c r="L82" s="77"/>
       <c r="M82" s="21" t="s">
         <v>105</v>
       </c>
@@ -13759,10 +13766,10 @@
       <c r="J84" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K84" s="82" t="s">
+      <c r="K84" s="81" t="s">
         <v>253</v>
       </c>
-      <c r="L84" s="78" t="s">
+      <c r="L84" s="77" t="s">
         <v>254</v>
       </c>
       <c r="M84" s="19" t="s">
@@ -13797,7 +13804,7 @@
       <c r="J85" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="K85" s="121" t="s">
+      <c r="K85" s="119" t="s">
         <v>255</v>
       </c>
       <c r="L85" s="28"/>
@@ -13833,7 +13840,7 @@
       <c r="J86" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="K86" s="121"/>
+      <c r="K86" s="119"/>
       <c r="L86" s="28"/>
       <c r="M86" s="21" t="s">
         <v>105</v>
@@ -13867,7 +13874,7 @@
       <c r="J87" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="K87" s="121"/>
+      <c r="K87" s="119"/>
       <c r="L87" s="28"/>
       <c r="M87" s="21" t="s">
         <v>105</v>
@@ -13898,7 +13905,7 @@
       <c r="J88" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="K88" s="121"/>
+      <c r="K88" s="119"/>
       <c r="L88" s="28"/>
       <c r="M88" s="21" t="s">
         <v>105</v>
@@ -13932,7 +13939,7 @@
       <c r="J89" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="K89" s="121"/>
+      <c r="K89" s="119"/>
       <c r="L89" s="28"/>
       <c r="M89" s="21" t="s">
         <v>105</v>
@@ -13966,7 +13973,7 @@
       <c r="J90" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="K90" s="121"/>
+      <c r="K90" s="119"/>
       <c r="L90" s="28"/>
       <c r="M90" s="21" t="s">
         <v>105</v>
@@ -14001,10 +14008,10 @@
       <c r="J91" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="K91" s="111" t="s">
+      <c r="K91" s="109" t="s">
         <v>261</v>
       </c>
-      <c r="L91" s="130" t="s">
+      <c r="L91" s="128" t="s">
         <v>262</v>
       </c>
       <c r="M91" s="23" t="s">
@@ -14043,8 +14050,8 @@
       <c r="J92" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="K92" s="112"/>
-      <c r="L92" s="131"/>
+      <c r="K92" s="110"/>
+      <c r="L92" s="129"/>
       <c r="M92" s="21" t="s">
         <v>105</v>
       </c>
@@ -14078,8 +14085,8 @@
       <c r="J93" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="K93" s="112"/>
-      <c r="L93" s="131"/>
+      <c r="K93" s="110"/>
+      <c r="L93" s="129"/>
       <c r="M93" s="21" t="s">
         <v>105</v>
       </c>
@@ -14110,8 +14117,8 @@
       <c r="J94" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="K94" s="113"/>
-      <c r="L94" s="132"/>
+      <c r="K94" s="111"/>
+      <c r="L94" s="130"/>
       <c r="M94" s="21" t="s">
         <v>105</v>
       </c>
@@ -14147,7 +14154,7 @@
       <c r="J95" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="K95" s="114"/>
+      <c r="K95" s="112"/>
       <c r="L95" s="28"/>
       <c r="M95" s="23" t="s">
         <v>105</v>
@@ -14181,7 +14188,7 @@
       <c r="J96" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="K96" s="115"/>
+      <c r="K96" s="113"/>
       <c r="L96" s="28"/>
       <c r="M96" s="23" t="s">
         <v>105</v>
@@ -14215,7 +14222,7 @@
       <c r="J97" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="K97" s="115"/>
+      <c r="K97" s="113"/>
       <c r="L97" s="28"/>
       <c r="M97" s="23" t="s">
         <v>105</v>
@@ -14249,7 +14256,7 @@
       <c r="J98" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="K98" s="115"/>
+      <c r="K98" s="113"/>
       <c r="L98" s="28"/>
       <c r="M98" s="23" t="s">
         <v>105</v>
@@ -14282,8 +14289,8 @@
       <c r="J99" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="K99" s="116"/>
-      <c r="L99" s="79"/>
+      <c r="K99" s="114"/>
+      <c r="L99" s="78"/>
       <c r="M99" s="30" t="s">
         <v>105</v>
       </c>
@@ -15137,10 +15144,10 @@
       <c r="H25">
         <v>2010</v>
       </c>
-      <c r="I25" s="103" t="s">
+      <c r="I25" s="101" t="s">
         <v>752</v>
       </c>
-      <c r="J25" s="104" t="s">
+      <c r="J25" s="102" t="s">
         <v>753</v>
       </c>
     </row>
@@ -15994,11 +16001,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149AB136-B663-43F8-8265-AB28C3254826}">
-  <dimension ref="A1:W52"/>
+  <dimension ref="A1:W1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16010,7 +16017,7 @@
     <col min="5" max="5" width="10.44140625" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11" style="107" customWidth="1"/>
+    <col min="8" max="8" width="11" style="105" customWidth="1"/>
     <col min="9" max="9" width="55.6640625" style="58" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="34.33203125" style="58" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
@@ -16044,7 +16051,7 @@
       <c r="G1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="106" t="s">
+      <c r="H1" s="104" t="s">
         <v>692</v>
       </c>
       <c r="I1" s="63" t="s">
@@ -16079,10 +16086,10 @@
       <c r="G2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="76" t="s">
+      <c r="I2" s="75" t="s">
         <v>323</v>
       </c>
-      <c r="J2" s="75"/>
+      <c r="J2" s="74"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -16150,7 +16157,7 @@
       <c r="G5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="75" t="s">
+      <c r="I5" s="74" t="s">
         <v>691</v>
       </c>
     </row>
@@ -16172,8 +16179,8 @@
       <c r="G6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -16228,8 +16235,8 @@
       <c r="G8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -16260,11 +16267,11 @@
       <c r="G9" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H9" s="107"/>
-      <c r="I9" s="76" t="s">
+      <c r="H9" s="105"/>
+      <c r="I9" s="75" t="s">
         <v>328</v>
       </c>
-      <c r="J9" s="75" t="s">
+      <c r="J9" s="74" t="s">
         <v>329</v>
       </c>
     </row>
@@ -16284,8 +16291,8 @@
       <c r="G10" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="107"/>
-      <c r="I10" s="75"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="74"/>
       <c r="J10" s="58"/>
     </row>
     <row r="11" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
@@ -16306,7 +16313,7 @@
       <c r="G11" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I11" s="76" t="s">
+      <c r="I11" s="75" t="s">
         <v>338</v>
       </c>
       <c r="J11" s="58" t="s">
@@ -16329,7 +16336,7 @@
       <c r="G12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="76" t="s">
+      <c r="I12" s="75" t="s">
         <v>323</v>
       </c>
     </row>
@@ -16349,11 +16356,11 @@
       <c r="G13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="108"/>
-      <c r="I13" s="77" t="s">
+      <c r="H13" s="106"/>
+      <c r="I13" s="76" t="s">
         <v>337</v>
       </c>
-      <c r="J13" s="77" t="s">
+      <c r="J13" s="76" t="s">
         <v>648</v>
       </c>
     </row>
@@ -16367,7 +16374,7 @@
       <c r="G14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I14" s="75" t="s">
+      <c r="I14" s="74" t="s">
         <v>691</v>
       </c>
     </row>
@@ -16538,10 +16545,10 @@
       <c r="G22" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I22" s="75" t="s">
+      <c r="I22" s="74" t="s">
         <v>341</v>
       </c>
-      <c r="J22" s="75" t="s">
+      <c r="J22" s="74" t="s">
         <v>342</v>
       </c>
       <c r="K22" s="2"/>
@@ -16568,9 +16575,9 @@
       <c r="G23" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H23" s="109"/>
-      <c r="I23" s="105"/>
-      <c r="J23" s="105"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="103"/>
     </row>
     <row r="24" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
@@ -16591,22 +16598,22 @@
       <c r="G24" t="s">
         <v>793</v>
       </c>
-      <c r="H24" s="108"/>
-      <c r="I24" s="77" t="s">
+      <c r="H24" s="106"/>
+      <c r="I24" s="76" t="s">
         <v>272</v>
       </c>
-      <c r="J24" s="70" t="s">
+      <c r="J24" s="69" t="s">
         <v>273</v>
       </c>
-      <c r="O24" s="71"/>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="71"/>
-      <c r="R24" s="71"/>
-      <c r="S24" s="71"/>
-      <c r="T24" s="71"/>
-      <c r="U24" s="71"/>
-      <c r="V24" s="71"/>
-      <c r="W24" s="71"/>
+      <c r="O24" s="70"/>
+      <c r="P24" s="70"/>
+      <c r="Q24" s="70"/>
+      <c r="R24" s="70"/>
+      <c r="S24" s="70"/>
+      <c r="T24" s="70"/>
+      <c r="U24" s="70"/>
+      <c r="V24" s="70"/>
+      <c r="W24" s="70"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
@@ -16720,18 +16727,18 @@
       <c r="G28" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="107"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="75"/>
-      <c r="O28" s="100"/>
-      <c r="P28" s="100"/>
-      <c r="Q28" s="100"/>
-      <c r="R28" s="100"/>
-      <c r="S28" s="100"/>
-      <c r="T28" s="100"/>
-      <c r="U28" s="100"/>
-      <c r="V28" s="100"/>
-      <c r="W28" s="102"/>
+      <c r="H28" s="105"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="74"/>
+      <c r="O28" s="98"/>
+      <c r="P28" s="98"/>
+      <c r="Q28" s="98"/>
+      <c r="R28" s="98"/>
+      <c r="S28" s="98"/>
+      <c r="T28" s="98"/>
+      <c r="U28" s="98"/>
+      <c r="V28" s="98"/>
+      <c r="W28" s="100"/>
     </row>
     <row r="29" spans="1:23" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
@@ -16752,22 +16759,22 @@
       <c r="G29" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H29" s="107"/>
-      <c r="I29" s="76" t="s">
+      <c r="H29" s="105"/>
+      <c r="I29" s="75" t="s">
         <v>287</v>
       </c>
-      <c r="J29" s="75" t="s">
+      <c r="J29" s="74" t="s">
         <v>288</v>
       </c>
-      <c r="O29" s="100"/>
-      <c r="P29" s="100"/>
-      <c r="Q29" s="100"/>
-      <c r="R29" s="100"/>
-      <c r="S29" s="100"/>
-      <c r="T29" s="100"/>
-      <c r="U29" s="100"/>
-      <c r="V29" s="100"/>
-      <c r="W29" s="100"/>
+      <c r="O29" s="98"/>
+      <c r="P29" s="98"/>
+      <c r="Q29" s="98"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="98"/>
+      <c r="U29" s="98"/>
+      <c r="V29" s="98"/>
+      <c r="W29" s="98"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
@@ -16789,21 +16796,21 @@
       <c r="G30" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I30" s="75"/>
-      <c r="J30" s="75"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="74"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
-      <c r="O30" s="100"/>
-      <c r="P30" s="100"/>
-      <c r="Q30" s="100"/>
-      <c r="R30" s="100"/>
-      <c r="S30" s="100"/>
-      <c r="T30" s="100"/>
-      <c r="U30" s="100"/>
-      <c r="V30" s="100"/>
-      <c r="W30" s="102"/>
+      <c r="O30" s="98"/>
+      <c r="P30" s="98"/>
+      <c r="Q30" s="98"/>
+      <c r="R30" s="98"/>
+      <c r="S30" s="98"/>
+      <c r="T30" s="98"/>
+      <c r="U30" s="98"/>
+      <c r="V30" s="98"/>
+      <c r="W30" s="100"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
@@ -16853,22 +16860,22 @@
       <c r="G32" t="s">
         <v>793</v>
       </c>
-      <c r="H32" s="108"/>
-      <c r="I32" s="77" t="s">
+      <c r="H32" s="106"/>
+      <c r="I32" s="76" t="s">
         <v>272</v>
       </c>
-      <c r="J32" s="70" t="s">
+      <c r="J32" s="69" t="s">
         <v>273</v>
       </c>
-      <c r="O32" s="71"/>
-      <c r="P32" s="71"/>
-      <c r="Q32" s="71"/>
-      <c r="R32" s="71"/>
-      <c r="S32" s="71"/>
-      <c r="T32" s="71"/>
-      <c r="U32" s="71"/>
-      <c r="V32" s="71"/>
-      <c r="W32" s="71"/>
+      <c r="O32" s="70"/>
+      <c r="P32" s="70"/>
+      <c r="Q32" s="70"/>
+      <c r="R32" s="70"/>
+      <c r="S32" s="70"/>
+      <c r="T32" s="70"/>
+      <c r="U32" s="70"/>
+      <c r="V32" s="70"/>
+      <c r="W32" s="70"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
@@ -16886,7 +16893,7 @@
       <c r="G33" t="s">
         <v>793</v>
       </c>
-      <c r="I33" s="76" t="s">
+      <c r="I33" s="75" t="s">
         <v>272</v>
       </c>
       <c r="J33" s="58" t="s">
@@ -17005,22 +17012,22 @@
       <c r="G37" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H37" s="107"/>
-      <c r="I37" s="75" t="s">
+      <c r="H37" s="105"/>
+      <c r="I37" s="74" t="s">
         <v>637</v>
       </c>
-      <c r="J37" s="75" t="s">
+      <c r="J37" s="74" t="s">
         <v>786</v>
       </c>
-      <c r="O37" s="100"/>
-      <c r="P37" s="100"/>
-      <c r="Q37" s="100"/>
-      <c r="R37" s="100"/>
-      <c r="S37" s="100"/>
-      <c r="T37" s="100"/>
-      <c r="U37" s="100"/>
-      <c r="V37" s="100"/>
-      <c r="W37" s="100"/>
+      <c r="O37" s="98"/>
+      <c r="P37" s="98"/>
+      <c r="Q37" s="98"/>
+      <c r="R37" s="98"/>
+      <c r="S37" s="98"/>
+      <c r="T37" s="98"/>
+      <c r="U37" s="98"/>
+      <c r="V37" s="98"/>
+      <c r="W37" s="98"/>
     </row>
     <row r="38" spans="1:23" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
@@ -17038,22 +17045,22 @@
       <c r="G38" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H38" s="107"/>
-      <c r="I38" s="76" t="s">
+      <c r="H38" s="105"/>
+      <c r="I38" s="75" t="s">
         <v>279</v>
       </c>
-      <c r="J38" s="75" t="s">
+      <c r="J38" s="74" t="s">
         <v>280</v>
       </c>
-      <c r="O38" s="100"/>
-      <c r="P38" s="100"/>
-      <c r="Q38" s="100"/>
-      <c r="R38" s="100"/>
-      <c r="S38" s="100"/>
-      <c r="T38" s="100"/>
-      <c r="U38" s="100"/>
-      <c r="V38" s="100"/>
-      <c r="W38" s="100"/>
+      <c r="O38" s="98"/>
+      <c r="P38" s="98"/>
+      <c r="Q38" s="98"/>
+      <c r="R38" s="98"/>
+      <c r="S38" s="98"/>
+      <c r="T38" s="98"/>
+      <c r="U38" s="98"/>
+      <c r="V38" s="98"/>
+      <c r="W38" s="98"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
@@ -17075,25 +17082,25 @@
       <c r="G39" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I39" s="76" t="s">
+      <c r="I39" s="75" t="s">
         <v>647</v>
       </c>
-      <c r="J39" s="75" t="s">
+      <c r="J39" s="74" t="s">
         <v>273</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
-      <c r="O39" s="100"/>
-      <c r="P39" s="100"/>
-      <c r="Q39" s="100"/>
-      <c r="R39" s="100"/>
-      <c r="S39" s="100"/>
-      <c r="T39" s="100"/>
-      <c r="U39" s="100"/>
-      <c r="V39" s="100"/>
-      <c r="W39" s="100"/>
+      <c r="O39" s="98"/>
+      <c r="P39" s="98"/>
+      <c r="Q39" s="98"/>
+      <c r="R39" s="98"/>
+      <c r="S39" s="98"/>
+      <c r="T39" s="98"/>
+      <c r="U39" s="98"/>
+      <c r="V39" s="98"/>
+      <c r="W39" s="98"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
@@ -17233,7 +17240,7 @@
       <c r="I44" s="58" t="s">
         <v>637</v>
       </c>
-      <c r="J44" s="75" t="s">
+      <c r="J44" s="74" t="s">
         <v>786</v>
       </c>
       <c r="O44" s="51"/>
@@ -17291,18 +17298,18 @@
       <c r="G46" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H46" s="107"/>
-      <c r="I46" s="75"/>
-      <c r="J46" s="75"/>
-      <c r="O46" s="100"/>
-      <c r="P46" s="100"/>
-      <c r="Q46" s="100"/>
-      <c r="R46" s="100"/>
-      <c r="S46" s="100"/>
-      <c r="T46" s="100"/>
-      <c r="U46" s="100"/>
-      <c r="V46" s="100"/>
-      <c r="W46" s="100"/>
+      <c r="H46" s="105"/>
+      <c r="I46" s="74"/>
+      <c r="J46" s="74"/>
+      <c r="O46" s="98"/>
+      <c r="P46" s="98"/>
+      <c r="Q46" s="98"/>
+      <c r="R46" s="98"/>
+      <c r="S46" s="98"/>
+      <c r="T46" s="98"/>
+      <c r="U46" s="98"/>
+      <c r="V46" s="98"/>
+      <c r="W46" s="98"/>
     </row>
     <row r="47" spans="1:23" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
@@ -17323,22 +17330,22 @@
       <c r="G47" s="7" t="s">
         <v>640</v>
       </c>
-      <c r="H47" s="107"/>
-      <c r="I47" s="76" t="s">
+      <c r="H47" s="105"/>
+      <c r="I47" s="75" t="s">
         <v>313</v>
       </c>
-      <c r="J47" s="76" t="s">
+      <c r="J47" s="75" t="s">
         <v>645</v>
       </c>
-      <c r="O47" s="100"/>
-      <c r="P47" s="100"/>
-      <c r="Q47" s="100"/>
-      <c r="R47" s="100"/>
-      <c r="S47" s="100"/>
-      <c r="T47" s="100"/>
-      <c r="U47" s="100"/>
-      <c r="V47" s="100"/>
-      <c r="W47" s="100"/>
+      <c r="O47" s="98"/>
+      <c r="P47" s="98"/>
+      <c r="Q47" s="98"/>
+      <c r="R47" s="98"/>
+      <c r="S47" s="98"/>
+      <c r="T47" s="98"/>
+      <c r="U47" s="98"/>
+      <c r="V47" s="98"/>
+      <c r="W47" s="98"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
@@ -17358,21 +17365,21 @@
       <c r="G48" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="I48" s="75"/>
-      <c r="J48" s="75"/>
+      <c r="I48" s="74"/>
+      <c r="J48" s="74"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
-      <c r="O48" s="100"/>
-      <c r="P48" s="100"/>
-      <c r="Q48" s="100"/>
-      <c r="R48" s="100"/>
-      <c r="S48" s="100"/>
-      <c r="T48" s="100"/>
-      <c r="U48" s="100"/>
-      <c r="V48" s="100"/>
-      <c r="W48" s="100"/>
+      <c r="O48" s="98"/>
+      <c r="P48" s="98"/>
+      <c r="Q48" s="98"/>
+      <c r="R48" s="98"/>
+      <c r="S48" s="98"/>
+      <c r="T48" s="98"/>
+      <c r="U48" s="98"/>
+      <c r="V48" s="98"/>
+      <c r="W48" s="98"/>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
@@ -17393,7 +17400,7 @@
       <c r="G49" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="I49" s="75"/>
+      <c r="I49" s="74"/>
       <c r="O49" s="51"/>
       <c r="P49" s="51"/>
       <c r="Q49" s="51"/>
@@ -17421,7 +17428,7 @@
         <v>73</v>
       </c>
       <c r="H50" s="37"/>
-      <c r="I50" s="76" t="s">
+      <c r="I50" s="75" t="s">
         <v>318</v>
       </c>
       <c r="J50" s="65" t="s">
@@ -17447,10 +17454,13 @@
       <c r="D51" t="s">
         <v>304</v>
       </c>
+      <c r="E51" t="s">
+        <v>295</v>
+      </c>
       <c r="G51" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I51" s="75" t="s">
+      <c r="I51" s="74" t="s">
         <v>691</v>
       </c>
     </row>
@@ -17463,15 +17473,17 @@
         <v>48</v>
       </c>
       <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
+      <c r="E52" t="s">
+        <v>295</v>
+      </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I52" s="75" t="s">
+      <c r="I52" s="74" t="s">
         <v>691</v>
       </c>
-      <c r="J52" s="75"/>
+      <c r="J52" s="74"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
@@ -17485,6 +17497,205 @@
       <c r="U52" s="2"/>
       <c r="V52" s="2"/>
       <c r="W52" s="2"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>796</v>
+      </c>
+      <c r="C53" t="s">
+        <v>292</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>796</v>
+      </c>
+      <c r="C54" t="s">
+        <v>290</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>796</v>
+      </c>
+      <c r="C55" t="s">
+        <v>75</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>796</v>
+      </c>
+      <c r="C56" t="s">
+        <v>301</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>796</v>
+      </c>
+      <c r="C57" t="s">
+        <v>48</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>796</v>
+      </c>
+      <c r="C58" t="s">
+        <v>286</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>796</v>
+      </c>
+      <c r="C59" t="s">
+        <v>293</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="G59" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>796</v>
+      </c>
+      <c r="C60" t="s">
+        <v>299</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>796</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>796</v>
+      </c>
+      <c r="C62" t="s">
+        <v>317</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>796</v>
+      </c>
+      <c r="C63" t="s">
+        <v>307</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>796</v>
+      </c>
+      <c r="C64" t="s">
+        <v>275</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>796</v>
+      </c>
+      <c r="C65" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>796</v>
+      </c>
+      <c r="C66" t="s">
+        <v>311</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="1048576" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E1048576" s="7"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:W52">
@@ -17516,8 +17727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FB7270-85D5-483E-AE4E-A5BD24F9C240}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17623,7 +17834,7 @@
       <c r="D7" t="s">
         <v>521</v>
       </c>
-      <c r="E7" s="101" t="s">
+      <c r="E7" s="99" t="s">
         <v>688</v>
       </c>
     </row>
@@ -17815,12 +18026,6 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>665</v>
-      </c>
-      <c r="B25" t="s">
-        <v>34</v>
-      </c>
       <c r="C25">
         <v>1</v>
       </c>
@@ -17843,14 +18048,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100919AB8A12910594B8F4D80F4ACA7D0E7" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9c71394a73500791d9f4b659570ff6f6">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a318c9bd-5828-4914-8ac9-a57d8c01df7a" xmlns:ns3="4da7f078-0f32-436f-b12a-21525bae5a0e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f0993cb8e7f28d1e7915cb051b812a71" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100919AB8A12910594B8F4D80F4ACA7D0E7" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdc1734568a56db4c93babc30e64c3dd">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a318c9bd-5828-4914-8ac9-a57d8c01df7a" xmlns:ns3="4da7f078-0f32-436f-b12a-21525bae5a0e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2332e6491ccd53482df8a38b341b6af1" ns2:_="" ns3:_="">
     <xsd:import namespace="a318c9bd-5828-4914-8ac9-a57d8c01df7a"/>
     <xsd:import namespace="4da7f078-0f32-436f-b12a-21525bae5a0e"/>
     <xsd:element name="properties">
@@ -17865,6 +18064,12 @@
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -17893,6 +18098,35 @@
     <xsd:element name="MediaServiceSearchProperties" ma:index="13" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="29f62856-1543-49d4-a736-4569d363f533" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="17" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="19" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="20" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -17924,6 +18158,17 @@
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="16" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{83de6cd9-5cfd-49e4-9ce5-249e9e22fd83}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="4da7f078-0f32-436f-b12a-21525bae5a0e">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -18025,7 +18270,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -18034,17 +18279,19 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{013AD9E7-5ED9-4240-9E80-4B7BF5375D95}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a318c9bd-5828-4914-8ac9-a57d8c01df7a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="4da7f078-0f32-436f-b12a-21525bae5a0e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{358B428F-6B5B-4315-8B12-5337C9BB4513}">
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5894F413-BEBD-4D32-9133-427F18632D1D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -18062,10 +18309,21 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4F7EAA9-3149-4D1D-AC50-D48674558E43}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{013AD9E7-5ED9-4240-9E80-4B7BF5375D95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a318c9bd-5828-4914-8ac9-a57d8c01df7a"/>
+    <ds:schemaRef ds:uri="4da7f078-0f32-436f-b12a-21525bae5a0e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Meta/Analytes3.xlsx
+++ b/Meta/Analytes3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/coffman_christian_epa_gov/Documents/Profile/Documents/Projects/GL_Data/Meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4667" documentId="8_{D82D06AB-5E11-4340-B04B-6FA55AFBCF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59565A28-1FCB-4529-8844-8AF1D87BEE36}"/>
+  <xr:revisionPtr revIDLastSave="4669" documentId="8_{D82D06AB-5E11-4340-B04B-6FA55AFBCF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52BA07F7-DD1D-4436-A366-268F0945B917}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="809" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="809" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="2" r:id="rId1"/>
@@ -2282,12 +2282,6 @@
     <t>CSMI_2021_CTD</t>
   </si>
   <si>
-    <t>SpecificConductance</t>
-  </si>
-  <si>
-    <t>CPARCorrectedIrradiance</t>
-  </si>
-  <si>
     <t>LongName</t>
   </si>
   <si>
@@ -2557,6 +2551,12 @@
   </si>
   <si>
     <t>2020-2020</t>
+  </si>
+  <si>
+    <t>Specific.Conductance</t>
+  </si>
+  <si>
+    <t>CPAR.Corrected.Irradiance</t>
   </si>
 </sst>
 </file>
@@ -3125,7 +3125,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3146,19 +3191,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3169,39 +3202,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3564,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C1" s="39" t="s">
         <v>1</v>
@@ -3573,7 +3573,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="39" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -3595,10 +3595,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B3" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -3615,7 +3615,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -3649,7 +3649,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3768,7 +3768,7 @@
         <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -3802,7 +3802,7 @@
         <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -3819,7 +3819,7 @@
         <v>33</v>
       </c>
       <c r="B16" s="66" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C16" t="s">
         <v>665</v>
@@ -3836,7 +3836,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
@@ -3887,7 +3887,7 @@
         <v>40</v>
       </c>
       <c r="B20" s="66" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C20" t="s">
         <v>41</v>
@@ -3904,7 +3904,7 @@
         <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
@@ -3955,7 +3955,7 @@
         <v>47</v>
       </c>
       <c r="B24" s="66" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C24" t="s">
         <v>41</v>
@@ -4009,13 +4009,13 @@
         <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D27" t="s">
         <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -4057,7 +4057,7 @@
         <v>58</v>
       </c>
       <c r="B30" s="66" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C30" t="s">
         <v>41</v>
@@ -4074,7 +4074,7 @@
         <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C31" t="s">
         <v>8</v>
@@ -4125,7 +4125,7 @@
         <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -4159,7 +4159,7 @@
         <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C36" t="s">
         <v>8</v>
@@ -4210,7 +4210,7 @@
         <v>72</v>
       </c>
       <c r="B39" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -7520,8 +7520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5D57F1-DBF9-46B4-8278-09786D5200AB}">
   <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView topLeftCell="E42" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7995,7 +7995,7 @@
         <v>8</v>
       </c>
       <c r="H18" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="I18" t="s">
         <v>105</v>
@@ -8361,7 +8361,7 @@
         <v>413</v>
       </c>
       <c r="K32" s="69" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
@@ -8441,7 +8441,7 @@
         <v>705</v>
       </c>
       <c r="B36" t="s">
-        <v>706</v>
+        <v>796</v>
       </c>
       <c r="F36">
         <v>2021</v>
@@ -8591,7 +8591,7 @@
         <v>705</v>
       </c>
       <c r="B42" t="s">
-        <v>707</v>
+        <v>797</v>
       </c>
       <c r="F42">
         <v>2021</v>
@@ -9254,7 +9254,7 @@
         <v>484</v>
       </c>
       <c r="H72" s="45" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="I72" s="45" t="s">
         <v>412</v>
@@ -9465,7 +9465,7 @@
         <v>499</v>
       </c>
       <c r="K80" s="65" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="81" spans="1:11" s="45" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -9494,7 +9494,7 @@
         <v>499</v>
       </c>
       <c r="K81" s="65" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="82" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
@@ -9773,7 +9773,7 @@
         <v>502</v>
       </c>
       <c r="H92" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="I92" t="s">
         <v>412</v>
@@ -9799,7 +9799,7 @@
         <v>502</v>
       </c>
       <c r="H93" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="I93" t="s">
         <v>412</v>
@@ -9938,7 +9938,7 @@
         <v>505</v>
       </c>
       <c r="K98" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="L98" t="s">
         <v>250</v>
@@ -10353,7 +10353,7 @@
         <v>514</v>
       </c>
       <c r="K112" s="65" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -10381,7 +10381,7 @@
         <v>513</v>
       </c>
       <c r="K113" s="65" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -10409,7 +10409,7 @@
         <v>513</v>
       </c>
       <c r="K114" s="65" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -10437,7 +10437,7 @@
         <v>513</v>
       </c>
       <c r="K115" s="65" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
@@ -10559,10 +10559,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D2" t="s">
         <v>79</v>
@@ -10573,10 +10573,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>707</v>
+      </c>
+      <c r="B3" t="s">
         <v>709</v>
-      </c>
-      <c r="B3" t="s">
-        <v>711</v>
       </c>
       <c r="D3" t="s">
         <v>67</v>
@@ -10587,10 +10587,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D4" t="s">
         <v>121</v>
@@ -10601,10 +10601,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B5" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D5" t="s">
         <v>121</v>
@@ -10615,10 +10615,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B6" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D6" t="s">
         <v>121</v>
@@ -10629,7 +10629,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B7" t="s">
         <v>672</v>
@@ -10641,15 +10641,15 @@
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B8" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D8" t="s">
         <v>104</v>
@@ -10658,7 +10658,7 @@
         <v>38</v>
       </c>
       <c r="H8" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
   </sheetData>
@@ -10767,8 +10767,8 @@
       <c r="J2" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="K2" s="127"/>
-      <c r="L2" s="117"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="110"/>
       <c r="M2" s="19" t="s">
         <v>105</v>
       </c>
@@ -10805,8 +10805,8 @@
       <c r="J3" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K3" s="125"/>
-      <c r="L3" s="108"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="111"/>
       <c r="M3" s="20" t="s">
         <v>105</v>
       </c>
@@ -10840,8 +10840,8 @@
       <c r="J4" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K4" s="125"/>
-      <c r="L4" s="108"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="111"/>
       <c r="M4" s="20" t="s">
         <v>105</v>
       </c>
@@ -10872,8 +10872,8 @@
       <c r="J5" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K5" s="125"/>
-      <c r="L5" s="108"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="111"/>
       <c r="M5" s="20" t="s">
         <v>105</v>
       </c>
@@ -10907,10 +10907,10 @@
       <c r="J6" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K6" s="125" t="s">
+      <c r="K6" s="112" t="s">
         <v>114</v>
       </c>
-      <c r="L6" s="123"/>
+      <c r="L6" s="108"/>
       <c r="M6" s="20" t="s">
         <v>105</v>
       </c>
@@ -10944,8 +10944,8 @@
       <c r="J7" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K7" s="125"/>
-      <c r="L7" s="123"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="108"/>
       <c r="M7" s="20" t="s">
         <v>105</v>
       </c>
@@ -10976,8 +10976,8 @@
       <c r="J8" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="K8" s="126"/>
-      <c r="L8" s="124"/>
+      <c r="K8" s="113"/>
+      <c r="L8" s="109"/>
       <c r="M8" s="20" t="s">
         <v>105</v>
       </c>
@@ -11005,7 +11005,7 @@
         <v>120</v>
       </c>
       <c r="G9" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>121</v>
@@ -11014,10 +11014,10 @@
       <c r="J9" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K9" s="133" t="s">
+      <c r="K9" s="121" t="s">
         <v>122</v>
       </c>
-      <c r="L9" s="108" t="s">
+      <c r="L9" s="111" t="s">
         <v>123</v>
       </c>
       <c r="M9" s="19" t="s">
@@ -11044,7 +11044,7 @@
         <v>125</v>
       </c>
       <c r="G10" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>104</v>
@@ -11053,8 +11053,8 @@
       <c r="J10" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K10" s="133"/>
-      <c r="L10" s="108"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="111"/>
       <c r="M10" s="20" t="s">
         <v>105</v>
       </c>
@@ -11088,8 +11088,8 @@
       <c r="J11" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K11" s="133"/>
-      <c r="L11" s="108"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="111"/>
       <c r="M11" s="21" t="s">
         <v>105</v>
       </c>
@@ -11111,7 +11111,7 @@
         <v>111</v>
       </c>
       <c r="G12" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>104</v>
@@ -11352,7 +11352,7 @@
       <c r="J18" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K18" s="119"/>
+      <c r="K18" s="118"/>
       <c r="L18" s="77"/>
       <c r="M18" s="10" t="s">
         <v>105</v>
@@ -11387,7 +11387,7 @@
       <c r="J19" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="K19" s="131"/>
+      <c r="K19" s="119"/>
       <c r="L19" s="80"/>
       <c r="M19" s="31" t="s">
         <v>105</v>
@@ -11425,10 +11425,10 @@
       <c r="J20" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K20" s="119" t="s">
+      <c r="K20" s="118" t="s">
         <v>153</v>
       </c>
-      <c r="L20" s="108" t="s">
+      <c r="L20" s="111" t="s">
         <v>154</v>
       </c>
       <c r="M20" s="10" t="s">
@@ -11464,8 +11464,8 @@
       <c r="J21" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K21" s="119"/>
-      <c r="L21" s="108"/>
+      <c r="K21" s="118"/>
+      <c r="L21" s="111"/>
       <c r="M21" s="10" t="s">
         <v>105</v>
       </c>
@@ -11496,8 +11496,8 @@
       <c r="J22" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K22" s="119"/>
-      <c r="L22" s="108"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="111"/>
       <c r="M22" s="10" t="s">
         <v>105</v>
       </c>
@@ -11531,8 +11531,8 @@
       <c r="J23" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K23" s="119"/>
-      <c r="L23" s="108"/>
+      <c r="K23" s="118"/>
+      <c r="L23" s="111"/>
       <c r="M23" s="10" t="s">
         <v>105</v>
       </c>
@@ -11566,8 +11566,8 @@
       <c r="J24" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K24" s="119"/>
-      <c r="L24" s="108"/>
+      <c r="K24" s="118"/>
+      <c r="L24" s="111"/>
       <c r="M24" s="10" t="s">
         <v>105</v>
       </c>
@@ -11601,10 +11601,10 @@
       <c r="J25" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="K25" s="132" t="s">
+      <c r="K25" s="120" t="s">
         <v>159</v>
       </c>
-      <c r="L25" s="117" t="s">
+      <c r="L25" s="110" t="s">
         <v>160</v>
       </c>
       <c r="M25" s="15" t="s">
@@ -11643,8 +11643,8 @@
       <c r="J26" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K26" s="119"/>
-      <c r="L26" s="108"/>
+      <c r="K26" s="118"/>
+      <c r="L26" s="111"/>
       <c r="M26" s="10" t="s">
         <v>105</v>
       </c>
@@ -11678,8 +11678,8 @@
       <c r="J27" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K27" s="119"/>
-      <c r="L27" s="108"/>
+      <c r="K27" s="118"/>
+      <c r="L27" s="111"/>
       <c r="M27" s="10" t="s">
         <v>105</v>
       </c>
@@ -11710,8 +11710,8 @@
       <c r="J28" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="K28" s="131"/>
-      <c r="L28" s="118"/>
+      <c r="K28" s="119"/>
+      <c r="L28" s="130"/>
       <c r="M28" s="11" t="s">
         <v>105</v>
       </c>
@@ -11748,7 +11748,7 @@
       <c r="J29" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K29" s="119" t="s">
+      <c r="K29" s="118" t="s">
         <v>167</v>
       </c>
       <c r="L29" s="77"/>
@@ -11785,7 +11785,7 @@
       <c r="J30" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K30" s="119"/>
+      <c r="K30" s="118"/>
       <c r="L30" s="77"/>
       <c r="M30" s="10" t="s">
         <v>105</v>
@@ -11820,7 +11820,7 @@
       <c r="J31" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K31" s="119"/>
+      <c r="K31" s="118"/>
       <c r="L31" s="77"/>
       <c r="M31" s="10" t="s">
         <v>105</v>
@@ -11852,7 +11852,7 @@
       <c r="J32" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K32" s="119"/>
+      <c r="K32" s="118"/>
       <c r="L32" s="77"/>
       <c r="M32" s="10" t="s">
         <v>105</v>
@@ -11887,7 +11887,7 @@
       <c r="J33" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="K33" s="132" t="s">
+      <c r="K33" s="120" t="s">
         <v>136</v>
       </c>
       <c r="L33" s="79" t="s">
@@ -11929,7 +11929,7 @@
       <c r="J34" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="K34" s="131"/>
+      <c r="K34" s="119"/>
       <c r="L34" s="80"/>
       <c r="M34" s="11" t="s">
         <v>105</v>
@@ -11967,7 +11967,7 @@
       <c r="J35" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K35" s="119" t="s">
+      <c r="K35" s="118" t="s">
         <v>136</v>
       </c>
       <c r="L35" s="77" t="s">
@@ -12006,7 +12006,7 @@
       <c r="J36" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K36" s="119"/>
+      <c r="K36" s="118"/>
       <c r="L36" s="77"/>
       <c r="M36" s="10" t="s">
         <v>105</v>
@@ -12117,7 +12117,7 @@
       <c r="K39" s="84" t="s">
         <v>178</v>
       </c>
-      <c r="L39" s="117"/>
+      <c r="L39" s="110"/>
       <c r="M39" s="19" t="s">
         <v>105</v>
       </c>
@@ -12155,7 +12155,7 @@
         <v>105</v>
       </c>
       <c r="K40" s="32"/>
-      <c r="L40" s="108"/>
+      <c r="L40" s="111"/>
       <c r="M40" s="20" t="s">
         <v>105</v>
       </c>
@@ -12231,10 +12231,10 @@
       <c r="J42" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K42" s="119" t="s">
+      <c r="K42" s="118" t="s">
         <v>185</v>
       </c>
-      <c r="L42" s="108" t="s">
+      <c r="L42" s="111" t="s">
         <v>186</v>
       </c>
       <c r="M42" s="19" t="s">
@@ -12270,8 +12270,8 @@
       <c r="J43" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K43" s="119"/>
-      <c r="L43" s="108"/>
+      <c r="K43" s="118"/>
+      <c r="L43" s="111"/>
       <c r="M43" s="20" t="s">
         <v>105</v>
       </c>
@@ -12305,8 +12305,8 @@
       <c r="J44" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K44" s="119"/>
-      <c r="L44" s="108"/>
+      <c r="K44" s="118"/>
+      <c r="L44" s="111"/>
       <c r="M44" s="20" t="s">
         <v>105</v>
       </c>
@@ -12337,8 +12337,8 @@
       <c r="J45" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K45" s="119"/>
-      <c r="L45" s="108"/>
+      <c r="K45" s="118"/>
+      <c r="L45" s="111"/>
       <c r="M45" s="20" t="s">
         <v>105</v>
       </c>
@@ -12372,8 +12372,8 @@
       <c r="J46" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K46" s="119"/>
-      <c r="L46" s="108"/>
+      <c r="K46" s="118"/>
+      <c r="L46" s="111"/>
       <c r="M46" s="20" t="s">
         <v>105</v>
       </c>
@@ -12407,8 +12407,8 @@
       <c r="J47" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K47" s="119"/>
-      <c r="L47" s="108"/>
+      <c r="K47" s="118"/>
+      <c r="L47" s="111"/>
       <c r="M47" s="20" t="s">
         <v>105</v>
       </c>
@@ -12519,7 +12519,7 @@
       <c r="J50" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="K50" s="115" t="s">
+      <c r="K50" s="122" t="s">
         <v>198</v>
       </c>
       <c r="L50" s="79"/>
@@ -12559,7 +12559,7 @@
       <c r="J51" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K51" s="133"/>
+      <c r="K51" s="121"/>
       <c r="L51" s="77"/>
       <c r="M51" s="23" t="s">
         <v>105</v>
@@ -12594,7 +12594,7 @@
       <c r="J52" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K52" s="133"/>
+      <c r="K52" s="121"/>
       <c r="L52" s="77"/>
       <c r="M52" s="23" t="s">
         <v>105</v>
@@ -12629,7 +12629,7 @@
       <c r="J53" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K53" s="133"/>
+      <c r="K53" s="121"/>
       <c r="L53" s="77"/>
       <c r="M53" s="23" t="s">
         <v>105</v>
@@ -12661,7 +12661,7 @@
       <c r="J54" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="K54" s="116"/>
+      <c r="K54" s="123"/>
       <c r="L54" s="80"/>
       <c r="M54" s="23" t="s">
         <v>105</v>
@@ -12703,7 +12703,7 @@
         <v>208</v>
       </c>
       <c r="L55" s="67" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="M55" s="19" t="s">
         <v>105</v>
@@ -12777,7 +12777,7 @@
       <c r="J57" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K57" s="119" t="s">
+      <c r="K57" s="118" t="s">
         <v>214</v>
       </c>
       <c r="L57" s="77"/>
@@ -12814,7 +12814,7 @@
       <c r="J58" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K58" s="119"/>
+      <c r="K58" s="118"/>
       <c r="L58" s="77"/>
       <c r="M58" s="21" t="s">
         <v>105</v>
@@ -12846,7 +12846,7 @@
       <c r="J59" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K59" s="119"/>
+      <c r="K59" s="118"/>
       <c r="L59" s="77"/>
       <c r="M59" s="21" t="s">
         <v>105</v>
@@ -12881,7 +12881,7 @@
       <c r="J60" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="K60" s="117" t="s">
+      <c r="K60" s="110" t="s">
         <v>219</v>
       </c>
       <c r="L60" s="79"/>
@@ -12921,7 +12921,7 @@
       <c r="J61" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="K61" s="108"/>
+      <c r="K61" s="111"/>
       <c r="L61" s="77" t="s">
         <v>221</v>
       </c>
@@ -12958,7 +12958,7 @@
       <c r="J62" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K62" s="108"/>
+      <c r="K62" s="111"/>
       <c r="L62" s="77" t="s">
         <v>223</v>
       </c>
@@ -12995,7 +12995,7 @@
       <c r="J63" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="K63" s="119"/>
+      <c r="K63" s="118"/>
       <c r="L63" s="77"/>
       <c r="M63" s="20" t="s">
         <v>105</v>
@@ -13030,7 +13030,7 @@
       <c r="J64" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="K64" s="119"/>
+      <c r="K64" s="118"/>
       <c r="L64" s="77"/>
       <c r="M64" s="20" t="s">
         <v>105</v>
@@ -13065,7 +13065,7 @@
       <c r="J65" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="K65" s="119"/>
+      <c r="K65" s="118"/>
       <c r="L65" s="77" t="s">
         <v>223</v>
       </c>
@@ -13100,7 +13100,7 @@
       <c r="J66" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="K66" s="119"/>
+      <c r="K66" s="118"/>
       <c r="L66" s="43"/>
       <c r="M66" s="44" t="s">
         <v>105</v>
@@ -13211,7 +13211,7 @@
       <c r="J69" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K69" s="119" t="s">
+      <c r="K69" s="118" t="s">
         <v>136</v>
       </c>
       <c r="L69" s="77" t="s">
@@ -13250,7 +13250,7 @@
       <c r="J70" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K70" s="119"/>
+      <c r="K70" s="118"/>
       <c r="L70" s="77"/>
       <c r="M70" s="21" t="s">
         <v>105</v>
@@ -13324,7 +13324,7 @@
       <c r="J72" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K72" s="119"/>
+      <c r="K72" s="118"/>
       <c r="L72" s="77"/>
       <c r="M72" s="21" t="s">
         <v>105</v>
@@ -13356,7 +13356,7 @@
       <c r="J73" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K73" s="119"/>
+      <c r="K73" s="118"/>
       <c r="L73" s="77"/>
       <c r="M73" s="21" t="s">
         <v>105</v>
@@ -13388,7 +13388,7 @@
       <c r="J74" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K74" s="119"/>
+      <c r="K74" s="118"/>
       <c r="L74" s="77"/>
       <c r="M74" s="21" t="s">
         <v>105</v>
@@ -13417,7 +13417,7 @@
       <c r="J75" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="K75" s="131"/>
+      <c r="K75" s="119"/>
       <c r="L75" s="80"/>
       <c r="M75" s="21" t="s">
         <v>105</v>
@@ -13492,10 +13492,10 @@
       <c r="J77" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="K77" s="115" t="s">
+      <c r="K77" s="122" t="s">
         <v>241</v>
       </c>
-      <c r="L77" s="120" t="s">
+      <c r="L77" s="131" t="s">
         <v>242</v>
       </c>
       <c r="M77" s="19" t="s">
@@ -13536,8 +13536,8 @@
       <c r="J78" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K78" s="116"/>
-      <c r="L78" s="121"/>
+      <c r="K78" s="123"/>
+      <c r="L78" s="132"/>
       <c r="M78" s="44" t="s">
         <v>105</v>
       </c>
@@ -13577,7 +13577,7 @@
       <c r="K79" s="77" t="s">
         <v>244</v>
       </c>
-      <c r="L79" s="121"/>
+      <c r="L79" s="132"/>
       <c r="M79" s="44" t="s">
         <v>105</v>
       </c>
@@ -13614,7 +13614,7 @@
       <c r="K80" s="77" t="s">
         <v>244</v>
       </c>
-      <c r="L80" s="122"/>
+      <c r="L80" s="133"/>
       <c r="M80" s="20" t="s">
         <v>105</v>
       </c>
@@ -13651,7 +13651,7 @@
       <c r="J81" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K81" s="119" t="s">
+      <c r="K81" s="118" t="s">
         <v>136</v>
       </c>
       <c r="L81" s="77" t="s">
@@ -13690,7 +13690,7 @@
       <c r="J82" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K82" s="119"/>
+      <c r="K82" s="118"/>
       <c r="L82" s="77"/>
       <c r="M82" s="21" t="s">
         <v>105</v>
@@ -13729,7 +13729,7 @@
         <v>249</v>
       </c>
       <c r="L83" s="27" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="M83" s="19" t="s">
         <v>105</v>
@@ -13804,7 +13804,7 @@
       <c r="J85" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="K85" s="119" t="s">
+      <c r="K85" s="118" t="s">
         <v>255</v>
       </c>
       <c r="L85" s="28"/>
@@ -13840,7 +13840,7 @@
       <c r="J86" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="K86" s="119"/>
+      <c r="K86" s="118"/>
       <c r="L86" s="28"/>
       <c r="M86" s="21" t="s">
         <v>105</v>
@@ -13874,7 +13874,7 @@
       <c r="J87" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="K87" s="119"/>
+      <c r="K87" s="118"/>
       <c r="L87" s="28"/>
       <c r="M87" s="21" t="s">
         <v>105</v>
@@ -13905,7 +13905,7 @@
       <c r="J88" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="K88" s="119"/>
+      <c r="K88" s="118"/>
       <c r="L88" s="28"/>
       <c r="M88" s="21" t="s">
         <v>105</v>
@@ -13939,7 +13939,7 @@
       <c r="J89" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="K89" s="119"/>
+      <c r="K89" s="118"/>
       <c r="L89" s="28"/>
       <c r="M89" s="21" t="s">
         <v>105</v>
@@ -13973,7 +13973,7 @@
       <c r="J90" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="K90" s="119"/>
+      <c r="K90" s="118"/>
       <c r="L90" s="28"/>
       <c r="M90" s="21" t="s">
         <v>105</v>
@@ -14008,10 +14008,10 @@
       <c r="J91" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="K91" s="109" t="s">
+      <c r="K91" s="124" t="s">
         <v>261</v>
       </c>
-      <c r="L91" s="128" t="s">
+      <c r="L91" s="115" t="s">
         <v>262</v>
       </c>
       <c r="M91" s="23" t="s">
@@ -14050,8 +14050,8 @@
       <c r="J92" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="K92" s="110"/>
-      <c r="L92" s="129"/>
+      <c r="K92" s="125"/>
+      <c r="L92" s="116"/>
       <c r="M92" s="21" t="s">
         <v>105</v>
       </c>
@@ -14085,8 +14085,8 @@
       <c r="J93" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="K93" s="110"/>
-      <c r="L93" s="129"/>
+      <c r="K93" s="125"/>
+      <c r="L93" s="116"/>
       <c r="M93" s="21" t="s">
         <v>105</v>
       </c>
@@ -14117,8 +14117,8 @@
       <c r="J94" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="K94" s="111"/>
-      <c r="L94" s="130"/>
+      <c r="K94" s="126"/>
+      <c r="L94" s="117"/>
       <c r="M94" s="21" t="s">
         <v>105</v>
       </c>
@@ -14154,7 +14154,7 @@
       <c r="J95" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="K95" s="112"/>
+      <c r="K95" s="127"/>
       <c r="L95" s="28"/>
       <c r="M95" s="23" t="s">
         <v>105</v>
@@ -14188,7 +14188,7 @@
       <c r="J96" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="K96" s="113"/>
+      <c r="K96" s="128"/>
       <c r="L96" s="28"/>
       <c r="M96" s="23" t="s">
         <v>105</v>
@@ -14222,7 +14222,7 @@
       <c r="J97" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="K97" s="113"/>
+      <c r="K97" s="128"/>
       <c r="L97" s="28"/>
       <c r="M97" s="23" t="s">
         <v>105</v>
@@ -14256,7 +14256,7 @@
       <c r="J98" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="K98" s="113"/>
+      <c r="K98" s="128"/>
       <c r="L98" s="28"/>
       <c r="M98" s="23" t="s">
         <v>105</v>
@@ -14289,7 +14289,7 @@
       <c r="J99" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="K99" s="114"/>
+      <c r="K99" s="129"/>
       <c r="L99" s="78"/>
       <c r="M99" s="30" t="s">
         <v>105</v>
@@ -14310,6 +14310,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="L20:L24"/>
+    <mergeCell ref="K91:K94"/>
+    <mergeCell ref="K95:K99"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="L25:L28"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="L42:L47"/>
+    <mergeCell ref="K60:K62"/>
+    <mergeCell ref="K63:K66"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="K85:K90"/>
+    <mergeCell ref="L77:L80"/>
     <mergeCell ref="L6:L8"/>
     <mergeCell ref="L2:L5"/>
     <mergeCell ref="K6:K8"/>
@@ -14326,20 +14340,6 @@
     <mergeCell ref="K42:K47"/>
     <mergeCell ref="K50:K54"/>
     <mergeCell ref="K57:K59"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="L20:L24"/>
-    <mergeCell ref="K91:K94"/>
-    <mergeCell ref="K95:K99"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="L25:L28"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="L42:L47"/>
-    <mergeCell ref="K60:K62"/>
-    <mergeCell ref="K63:K66"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="K85:K90"/>
-    <mergeCell ref="L77:L80"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="M7:M8 M3:M5 L40 L91 M86:M94 M78:M80 J55:K55 J77:M77 M55 J78:K80 I1:M2 B1:H8 I6:M6 I3:J5 I9:M37 I39:L39 I40:J40 I95:M99 I91:K94 I7:J8 I41:M54 I81:M90 I56:M76 B39:H99 B11:H11 B9:F10 H9:H10 B13:H37 B12:F12 H12">
@@ -14392,28 +14392,28 @@
         <v>266</v>
       </c>
       <c r="C1" t="s">
+        <v>715</v>
+      </c>
+      <c r="D1" t="s">
+        <v>716</v>
+      </c>
+      <c r="E1" t="s">
         <v>717</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>713</v>
+      </c>
+      <c r="G1" t="s">
         <v>718</v>
-      </c>
-      <c r="E1" t="s">
-        <v>719</v>
-      </c>
-      <c r="F1" t="s">
-        <v>715</v>
-      </c>
-      <c r="G1" t="s">
-        <v>720</v>
       </c>
       <c r="H1" t="s">
         <v>557</v>
       </c>
       <c r="I1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="J1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -14424,28 +14424,28 @@
         <v>53</v>
       </c>
       <c r="C2" t="s">
+        <v>721</v>
+      </c>
+      <c r="D2" t="s">
+        <v>722</v>
+      </c>
+      <c r="E2" t="s">
         <v>723</v>
-      </c>
-      <c r="D2" t="s">
-        <v>724</v>
-      </c>
-      <c r="E2" t="s">
-        <v>725</v>
       </c>
       <c r="F2">
         <v>133</v>
       </c>
       <c r="G2" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H2">
         <v>2010</v>
       </c>
       <c r="I2" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="J2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -14456,10 +14456,10 @@
         <v>274</v>
       </c>
       <c r="C3" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E3" t="s">
         <v>53</v>
@@ -14468,13 +14468,13 @@
         <v>370</v>
       </c>
       <c r="G3" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H3">
         <v>2010</v>
       </c>
       <c r="I3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -14485,10 +14485,10 @@
         <v>289</v>
       </c>
       <c r="C4" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D4" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E4" t="s">
         <v>53</v>
@@ -14497,13 +14497,13 @@
         <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H4">
         <v>2010</v>
       </c>
       <c r="I4" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -14514,10 +14514,10 @@
         <v>268</v>
       </c>
       <c r="C5" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D5" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E5" t="s">
         <v>53</v>
@@ -14526,16 +14526,16 @@
         <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H5">
         <v>2010</v>
       </c>
       <c r="I5" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="J5" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -14546,10 +14546,10 @@
         <v>268</v>
       </c>
       <c r="C6" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D6" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E6" t="s">
         <v>53</v>
@@ -14558,16 +14558,16 @@
         <v>73</v>
       </c>
       <c r="G6" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H6">
         <v>2010</v>
       </c>
       <c r="I6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="J6" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -14578,10 +14578,10 @@
         <v>281</v>
       </c>
       <c r="C7" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D7" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E7" t="s">
         <v>53</v>
@@ -14590,16 +14590,16 @@
         <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H7">
         <v>2010</v>
       </c>
       <c r="I7" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="J7" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -14610,10 +14610,10 @@
         <v>291</v>
       </c>
       <c r="C8" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D8" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E8" t="s">
         <v>53</v>
@@ -14622,16 +14622,16 @@
         <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H8">
         <v>2010</v>
       </c>
       <c r="I8" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="J8" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -14645,7 +14645,7 @@
         <v>250</v>
       </c>
       <c r="D9" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E9" t="s">
         <v>53</v>
@@ -14654,16 +14654,16 @@
         <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H9">
         <v>2010</v>
       </c>
       <c r="I9" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="J9" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -14677,7 +14677,7 @@
         <v>250</v>
       </c>
       <c r="D10" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E10" t="s">
         <v>53</v>
@@ -14686,16 +14686,16 @@
         <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H10">
         <v>2010</v>
       </c>
       <c r="I10" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="J10" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -14709,7 +14709,7 @@
         <v>250</v>
       </c>
       <c r="D11" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E11" t="s">
         <v>53</v>
@@ -14718,16 +14718,16 @@
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H11">
         <v>2010</v>
       </c>
       <c r="I11" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="J11" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -14741,7 +14741,7 @@
         <v>250</v>
       </c>
       <c r="D12" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E12" t="s">
         <v>53</v>
@@ -14750,16 +14750,16 @@
         <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H12">
         <v>2010</v>
       </c>
       <c r="I12" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="J12" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -14773,7 +14773,7 @@
         <v>250</v>
       </c>
       <c r="D13" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E13" t="s">
         <v>53</v>
@@ -14782,16 +14782,16 @@
         <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H13">
         <v>2010</v>
       </c>
       <c r="I13" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="J13" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -14805,7 +14805,7 @@
         <v>250</v>
       </c>
       <c r="D14" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E14" t="s">
         <v>53</v>
@@ -14814,16 +14814,16 @@
         <v>9</v>
       </c>
       <c r="G14" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H14">
         <v>2010</v>
       </c>
       <c r="I14" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="J14" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -14837,7 +14837,7 @@
         <v>250</v>
       </c>
       <c r="D15" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E15" t="s">
         <v>53</v>
@@ -14846,16 +14846,16 @@
         <v>59</v>
       </c>
       <c r="G15" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H15">
         <v>2010</v>
       </c>
       <c r="I15" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="J15" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -14878,13 +14878,13 @@
         <v>48</v>
       </c>
       <c r="G16" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H16">
         <v>2010</v>
       </c>
       <c r="I16" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -14895,10 +14895,10 @@
         <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D17" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E17" t="s">
         <v>53</v>
@@ -14907,7 +14907,7 @@
         <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H17">
         <v>2010</v>
@@ -14918,16 +14918,16 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B18" t="s">
         <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D18" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E18" t="s">
         <v>53</v>
@@ -14936,7 +14936,7 @@
         <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H18">
         <v>2010</v>
@@ -14953,10 +14953,10 @@
         <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D19" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E19" t="s">
         <v>53</v>
@@ -14965,7 +14965,7 @@
         <v>4</v>
       </c>
       <c r="G19" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H19">
         <v>2010</v>
@@ -14982,10 +14982,10 @@
         <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D20" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E20" t="s">
         <v>53</v>
@@ -14994,7 +14994,7 @@
         <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H20">
         <v>2010</v>
@@ -15011,10 +15011,10 @@
         <v>283</v>
       </c>
       <c r="C21" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D21" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E21" t="s">
         <v>53</v>
@@ -15023,13 +15023,13 @@
         <v>2</v>
       </c>
       <c r="G21" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H21">
         <v>2010</v>
       </c>
       <c r="I21" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -15040,10 +15040,10 @@
         <v>291</v>
       </c>
       <c r="C22" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D22" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E22" t="s">
         <v>53</v>
@@ -15052,13 +15052,13 @@
         <v>14</v>
       </c>
       <c r="G22" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H22">
         <v>2010</v>
       </c>
       <c r="I22" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -15069,19 +15069,19 @@
         <v>53</v>
       </c>
       <c r="C23" t="s">
+        <v>744</v>
+      </c>
+      <c r="D23" t="s">
+        <v>745</v>
+      </c>
+      <c r="E23" t="s">
         <v>746</v>
-      </c>
-      <c r="D23" t="s">
-        <v>747</v>
-      </c>
-      <c r="E23" t="s">
-        <v>748</v>
       </c>
       <c r="F23">
         <v>4</v>
       </c>
       <c r="G23" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H23">
         <v>2010</v>
@@ -15098,19 +15098,19 @@
         <v>53</v>
       </c>
       <c r="C24" t="s">
+        <v>744</v>
+      </c>
+      <c r="D24" t="s">
+        <v>745</v>
+      </c>
+      <c r="E24" t="s">
         <v>746</v>
-      </c>
-      <c r="D24" t="s">
-        <v>747</v>
-      </c>
-      <c r="E24" t="s">
-        <v>748</v>
       </c>
       <c r="F24">
         <v>4</v>
       </c>
       <c r="G24" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H24">
         <v>2010</v>
@@ -15127,28 +15127,28 @@
         <v>53</v>
       </c>
       <c r="C25" t="s">
+        <v>747</v>
+      </c>
+      <c r="D25" t="s">
+        <v>748</v>
+      </c>
+      <c r="E25" t="s">
         <v>749</v>
-      </c>
-      <c r="D25" t="s">
-        <v>750</v>
-      </c>
-      <c r="E25" t="s">
-        <v>751</v>
       </c>
       <c r="F25">
         <v>262</v>
       </c>
       <c r="G25" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H25">
         <v>2010</v>
       </c>
       <c r="I25" s="101" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="J25" s="102" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -15159,10 +15159,10 @@
         <v>277</v>
       </c>
       <c r="C26" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D26" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E26" t="s">
         <v>53</v>
@@ -15171,13 +15171,13 @@
         <v>402</v>
       </c>
       <c r="G26" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H26">
         <v>2010</v>
       </c>
       <c r="I26" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -15188,10 +15188,10 @@
         <v>289</v>
       </c>
       <c r="C27" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D27" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E27" t="s">
         <v>53</v>
@@ -15200,13 +15200,13 @@
         <v>4</v>
       </c>
       <c r="G27" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H27">
         <v>2010</v>
       </c>
       <c r="I27" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -15217,19 +15217,19 @@
         <v>53</v>
       </c>
       <c r="C28" t="s">
+        <v>754</v>
+      </c>
+      <c r="D28" t="s">
+        <v>755</v>
+      </c>
+      <c r="E28" t="s">
         <v>756</v>
-      </c>
-      <c r="D28" t="s">
-        <v>757</v>
-      </c>
-      <c r="E28" t="s">
-        <v>758</v>
       </c>
       <c r="F28">
         <v>19</v>
       </c>
       <c r="G28" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H28">
         <v>2010</v>
@@ -15240,25 +15240,25 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B29" t="s">
         <v>53</v>
       </c>
       <c r="C29" t="s">
+        <v>754</v>
+      </c>
+      <c r="D29" t="s">
+        <v>755</v>
+      </c>
+      <c r="E29" t="s">
         <v>756</v>
-      </c>
-      <c r="D29" t="s">
-        <v>757</v>
-      </c>
-      <c r="E29" t="s">
-        <v>758</v>
       </c>
       <c r="F29">
         <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H29">
         <v>2010</v>
@@ -15275,19 +15275,19 @@
         <v>53</v>
       </c>
       <c r="C30" t="s">
+        <v>754</v>
+      </c>
+      <c r="D30" t="s">
+        <v>755</v>
+      </c>
+      <c r="E30" t="s">
         <v>756</v>
-      </c>
-      <c r="D30" t="s">
-        <v>757</v>
-      </c>
-      <c r="E30" t="s">
-        <v>758</v>
       </c>
       <c r="F30">
         <v>4</v>
       </c>
       <c r="G30" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H30">
         <v>2010</v>
@@ -15304,19 +15304,19 @@
         <v>53</v>
       </c>
       <c r="C31" t="s">
+        <v>754</v>
+      </c>
+      <c r="D31" t="s">
+        <v>755</v>
+      </c>
+      <c r="E31" t="s">
         <v>756</v>
-      </c>
-      <c r="D31" t="s">
-        <v>757</v>
-      </c>
-      <c r="E31" t="s">
-        <v>758</v>
       </c>
       <c r="F31">
         <v>16</v>
       </c>
       <c r="G31" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H31">
         <v>2010</v>
@@ -15333,10 +15333,10 @@
         <v>290</v>
       </c>
       <c r="C32" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D32" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E32" t="s">
         <v>53</v>
@@ -15345,13 +15345,13 @@
         <v>3</v>
       </c>
       <c r="G32" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H32">
         <v>2015</v>
       </c>
       <c r="I32" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -15362,10 +15362,10 @@
         <v>75</v>
       </c>
       <c r="C33" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D33" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E33" t="s">
         <v>53</v>
@@ -15374,13 +15374,13 @@
         <v>23</v>
       </c>
       <c r="G33" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H33">
         <v>2015</v>
       </c>
       <c r="I33" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -15391,10 +15391,10 @@
         <v>299</v>
       </c>
       <c r="C34" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D34" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E34" t="s">
         <v>53</v>
@@ -15403,13 +15403,13 @@
         <v>7</v>
       </c>
       <c r="G34" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H34">
         <v>2015</v>
       </c>
       <c r="I34" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -15420,10 +15420,10 @@
         <v>293</v>
       </c>
       <c r="C35" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D35" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E35" t="s">
         <v>53</v>
@@ -15432,13 +15432,13 @@
         <v>5</v>
       </c>
       <c r="G35" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H35">
         <v>2015</v>
       </c>
       <c r="I35" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -15449,10 +15449,10 @@
         <v>317</v>
       </c>
       <c r="C36" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D36" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E36" t="s">
         <v>53</v>
@@ -15461,13 +15461,13 @@
         <v>7</v>
       </c>
       <c r="G36" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H36">
         <v>2015</v>
       </c>
       <c r="I36" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -15478,10 +15478,10 @@
         <v>486</v>
       </c>
       <c r="C37" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D37" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E37" t="s">
         <v>53</v>
@@ -15490,13 +15490,13 @@
         <v>5</v>
       </c>
       <c r="G37" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H37">
         <v>2015</v>
       </c>
       <c r="I37" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -15507,10 +15507,10 @@
         <v>292</v>
       </c>
       <c r="C38" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D38" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E38" t="s">
         <v>53</v>
@@ -15519,16 +15519,16 @@
         <v>15</v>
       </c>
       <c r="G38" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H38">
         <v>2015</v>
       </c>
       <c r="I38" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="J38" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -15539,7 +15539,7 @@
         <v>293</v>
       </c>
       <c r="C39" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D39" t="s">
         <v>53</v>
@@ -15551,16 +15551,16 @@
         <v>72</v>
       </c>
       <c r="G39" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H39">
         <v>2015</v>
       </c>
       <c r="I39" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="J39" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -15571,7 +15571,7 @@
         <v>486</v>
       </c>
       <c r="C40" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D40" t="s">
         <v>53</v>
@@ -15583,16 +15583,16 @@
         <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H40">
         <v>2015</v>
       </c>
       <c r="I40" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="J40" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -15603,7 +15603,7 @@
         <v>75</v>
       </c>
       <c r="C41" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D41" t="s">
         <v>53</v>
@@ -15615,16 +15615,16 @@
         <v>15</v>
       </c>
       <c r="G41" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H41">
         <v>2015</v>
       </c>
       <c r="I41" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="J41" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -15635,7 +15635,7 @@
         <v>292</v>
       </c>
       <c r="C42" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D42" t="s">
         <v>53</v>
@@ -15647,16 +15647,16 @@
         <v>4</v>
       </c>
       <c r="G42" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H42">
         <v>2015</v>
       </c>
       <c r="I42" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="J42" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -15667,7 +15667,7 @@
         <v>293</v>
       </c>
       <c r="C43" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D43" t="s">
         <v>53</v>
@@ -15679,16 +15679,16 @@
         <v>2</v>
       </c>
       <c r="G43" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H43">
         <v>2015</v>
       </c>
       <c r="I43" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="J43" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -15699,7 +15699,7 @@
         <v>486</v>
       </c>
       <c r="C44" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D44" t="s">
         <v>53</v>
@@ -15711,16 +15711,16 @@
         <v>2</v>
       </c>
       <c r="G44" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H44">
         <v>2015</v>
       </c>
       <c r="I44" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="J44" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -15731,7 +15731,7 @@
         <v>292</v>
       </c>
       <c r="C45" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D45" t="s">
         <v>53</v>
@@ -15743,16 +15743,16 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H45">
         <v>2015</v>
       </c>
       <c r="I45" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="J45" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -15763,19 +15763,19 @@
         <v>275</v>
       </c>
       <c r="C46" t="s">
+        <v>765</v>
+      </c>
+      <c r="D46" t="s">
+        <v>766</v>
+      </c>
+      <c r="E46" t="s">
         <v>767</v>
-      </c>
-      <c r="D46" t="s">
-        <v>768</v>
-      </c>
-      <c r="E46" t="s">
-        <v>769</v>
       </c>
       <c r="F46">
         <v>23</v>
       </c>
       <c r="G46" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H46">
         <v>2015</v>
@@ -15784,7 +15784,7 @@
         <v>127</v>
       </c>
       <c r="J46" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -15795,28 +15795,28 @@
         <v>290</v>
       </c>
       <c r="C47" t="s">
+        <v>765</v>
+      </c>
+      <c r="D47" t="s">
+        <v>766</v>
+      </c>
+      <c r="E47" t="s">
         <v>767</v>
-      </c>
-      <c r="D47" t="s">
-        <v>768</v>
-      </c>
-      <c r="E47" t="s">
-        <v>769</v>
       </c>
       <c r="F47">
         <v>6</v>
       </c>
       <c r="G47" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H47">
         <v>2015</v>
       </c>
       <c r="I47" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="J47" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -15827,28 +15827,28 @@
         <v>292</v>
       </c>
       <c r="C48" t="s">
+        <v>765</v>
+      </c>
+      <c r="D48" t="s">
+        <v>766</v>
+      </c>
+      <c r="E48" t="s">
         <v>767</v>
-      </c>
-      <c r="D48" t="s">
-        <v>768</v>
-      </c>
-      <c r="E48" t="s">
-        <v>769</v>
       </c>
       <c r="F48">
         <v>2</v>
       </c>
       <c r="G48" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H48">
         <v>2015</v>
       </c>
       <c r="I48" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="J48" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
   </sheetData>
@@ -16003,9 +16003,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149AB136-B663-43F8-8265-AB28C3254826}">
   <dimension ref="A1:W66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
+      <selection pane="bottomLeft" activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16596,7 +16596,7 @@
         <v>271</v>
       </c>
       <c r="G24" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="H24" s="106"/>
       <c r="I24" s="76" t="s">
@@ -16858,7 +16858,7 @@
         <v>296</v>
       </c>
       <c r="G32" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="H32" s="106"/>
       <c r="I32" s="76" t="s">
@@ -16891,7 +16891,7 @@
         <v>296</v>
       </c>
       <c r="G33" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="I33" s="75" t="s">
         <v>272</v>
@@ -17017,7 +17017,7 @@
         <v>637</v>
       </c>
       <c r="J37" s="74" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="O37" s="98"/>
       <c r="P37" s="98"/>
@@ -17241,7 +17241,7 @@
         <v>637</v>
       </c>
       <c r="J44" s="74" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="O44" s="51"/>
       <c r="P44" s="51"/>
@@ -17495,13 +17495,13 @@
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C53" t="s">
         <v>292</v>
       </c>
       <c r="E53" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="G53" t="s">
         <v>59</v>
@@ -17509,13 +17509,13 @@
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C54" t="s">
         <v>290</v>
       </c>
       <c r="E54" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="G54" t="s">
         <v>42</v>
@@ -17523,13 +17523,13 @@
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C55" t="s">
         <v>75</v>
       </c>
       <c r="E55" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="G55" t="s">
         <v>75</v>
@@ -17537,13 +17537,13 @@
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C56" t="s">
         <v>301</v>
       </c>
       <c r="E56" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="G56" t="s">
         <v>22</v>
@@ -17551,13 +17551,13 @@
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C57" t="s">
         <v>48</v>
       </c>
       <c r="E57" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="G57" t="s">
         <v>48</v>
@@ -17565,13 +17565,13 @@
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C58" t="s">
         <v>286</v>
       </c>
       <c r="E58" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="G58" t="s">
         <v>127</v>
@@ -17579,27 +17579,27 @@
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C59" t="s">
         <v>293</v>
       </c>
       <c r="E59" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="G59" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C60" t="s">
         <v>299</v>
       </c>
       <c r="E60" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="G60" t="s">
         <v>18</v>
@@ -17607,13 +17607,13 @@
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C61" t="s">
         <v>4</v>
       </c>
       <c r="E61" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="G61" t="s">
         <v>127</v>
@@ -17621,13 +17621,13 @@
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C62" t="s">
         <v>317</v>
       </c>
       <c r="E62" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="G62" t="s">
         <v>73</v>
@@ -17635,13 +17635,13 @@
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C63" t="s">
         <v>307</v>
       </c>
       <c r="E63" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="G63" t="s">
         <v>52</v>
@@ -17649,13 +17649,13 @@
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C64" t="s">
         <v>275</v>
       </c>
       <c r="E64" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="G64" t="s">
         <v>20</v>
@@ -17663,13 +17663,13 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C65" t="s">
         <v>26</v>
       </c>
       <c r="E65" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="G65" t="s">
         <v>127</v>
@@ -17677,13 +17677,13 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C66" t="s">
         <v>311</v>
       </c>
       <c r="E66" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="G66" t="s">
         <v>640</v>
@@ -17986,10 +17986,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B22" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -18263,15 +18263,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="a318c9bd-5828-4914-8ac9-a57d8c01df7a">
@@ -18280,6 +18271,15 @@
     <TaxCatchAll xmlns="4da7f078-0f32-436f-b12a-21525bae5a0e" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18302,14 +18302,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4F7EAA9-3149-4D1D-AC50-D48674558E43}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{013AD9E7-5ED9-4240-9E80-4B7BF5375D95}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -18318,4 +18310,12 @@
     <ds:schemaRef ds:uri="4da7f078-0f32-436f-b12a-21525bae5a0e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4F7EAA9-3149-4D1D-AC50-D48674558E43}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Meta/Analytes3.xlsx
+++ b/Meta/Analytes3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/coffman_christian_epa_gov/Documents/Profile/Documents/Projects/GL_Data/Meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4669" documentId="8_{D82D06AB-5E11-4340-B04B-6FA55AFBCF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52BA07F7-DD1D-4436-A366-268F0945B917}"/>
+  <xr:revisionPtr revIDLastSave="4670" documentId="8_{D82D06AB-5E11-4340-B04B-6FA55AFBCF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A41A4F1-F030-44F6-9841-305BBAE067AB}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="809" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2556,7 +2556,7 @@
     <t>Specific.Conductance</t>
   </si>
   <si>
-    <t>CPAR.Corrected.Irradiance</t>
+    <t>CPAR.Corrected.Irradiance.</t>
   </si>
 </sst>
 </file>
@@ -3125,16 +3125,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3155,9 +3194,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3166,42 +3202,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7521,7 +7521,7 @@
   <dimension ref="A1:L117"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10767,8 +10767,8 @@
       <c r="J2" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="K2" s="114"/>
-      <c r="L2" s="110"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="117"/>
       <c r="M2" s="19" t="s">
         <v>105</v>
       </c>
@@ -10805,8 +10805,8 @@
       <c r="J3" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K3" s="112"/>
-      <c r="L3" s="111"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="108"/>
       <c r="M3" s="20" t="s">
         <v>105</v>
       </c>
@@ -10840,8 +10840,8 @@
       <c r="J4" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K4" s="112"/>
-      <c r="L4" s="111"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="108"/>
       <c r="M4" s="20" t="s">
         <v>105</v>
       </c>
@@ -10872,8 +10872,8 @@
       <c r="J5" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K5" s="112"/>
-      <c r="L5" s="111"/>
+      <c r="K5" s="125"/>
+      <c r="L5" s="108"/>
       <c r="M5" s="20" t="s">
         <v>105</v>
       </c>
@@ -10907,10 +10907,10 @@
       <c r="J6" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K6" s="112" t="s">
+      <c r="K6" s="125" t="s">
         <v>114</v>
       </c>
-      <c r="L6" s="108"/>
+      <c r="L6" s="123"/>
       <c r="M6" s="20" t="s">
         <v>105</v>
       </c>
@@ -10944,8 +10944,8 @@
       <c r="J7" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K7" s="112"/>
-      <c r="L7" s="108"/>
+      <c r="K7" s="125"/>
+      <c r="L7" s="123"/>
       <c r="M7" s="20" t="s">
         <v>105</v>
       </c>
@@ -10976,8 +10976,8 @@
       <c r="J8" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="K8" s="113"/>
-      <c r="L8" s="109"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="124"/>
       <c r="M8" s="20" t="s">
         <v>105</v>
       </c>
@@ -11014,10 +11014,10 @@
       <c r="J9" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K9" s="121" t="s">
+      <c r="K9" s="133" t="s">
         <v>122</v>
       </c>
-      <c r="L9" s="111" t="s">
+      <c r="L9" s="108" t="s">
         <v>123</v>
       </c>
       <c r="M9" s="19" t="s">
@@ -11053,8 +11053,8 @@
       <c r="J10" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K10" s="121"/>
-      <c r="L10" s="111"/>
+      <c r="K10" s="133"/>
+      <c r="L10" s="108"/>
       <c r="M10" s="20" t="s">
         <v>105</v>
       </c>
@@ -11088,8 +11088,8 @@
       <c r="J11" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K11" s="121"/>
-      <c r="L11" s="111"/>
+      <c r="K11" s="133"/>
+      <c r="L11" s="108"/>
       <c r="M11" s="21" t="s">
         <v>105</v>
       </c>
@@ -11352,7 +11352,7 @@
       <c r="J18" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K18" s="118"/>
+      <c r="K18" s="119"/>
       <c r="L18" s="77"/>
       <c r="M18" s="10" t="s">
         <v>105</v>
@@ -11387,7 +11387,7 @@
       <c r="J19" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="K19" s="119"/>
+      <c r="K19" s="131"/>
       <c r="L19" s="80"/>
       <c r="M19" s="31" t="s">
         <v>105</v>
@@ -11425,10 +11425,10 @@
       <c r="J20" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K20" s="118" t="s">
+      <c r="K20" s="119" t="s">
         <v>153</v>
       </c>
-      <c r="L20" s="111" t="s">
+      <c r="L20" s="108" t="s">
         <v>154</v>
       </c>
       <c r="M20" s="10" t="s">
@@ -11464,8 +11464,8 @@
       <c r="J21" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K21" s="118"/>
-      <c r="L21" s="111"/>
+      <c r="K21" s="119"/>
+      <c r="L21" s="108"/>
       <c r="M21" s="10" t="s">
         <v>105</v>
       </c>
@@ -11496,8 +11496,8 @@
       <c r="J22" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K22" s="118"/>
-      <c r="L22" s="111"/>
+      <c r="K22" s="119"/>
+      <c r="L22" s="108"/>
       <c r="M22" s="10" t="s">
         <v>105</v>
       </c>
@@ -11531,8 +11531,8 @@
       <c r="J23" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K23" s="118"/>
-      <c r="L23" s="111"/>
+      <c r="K23" s="119"/>
+      <c r="L23" s="108"/>
       <c r="M23" s="10" t="s">
         <v>105</v>
       </c>
@@ -11566,8 +11566,8 @@
       <c r="J24" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K24" s="118"/>
-      <c r="L24" s="111"/>
+      <c r="K24" s="119"/>
+      <c r="L24" s="108"/>
       <c r="M24" s="10" t="s">
         <v>105</v>
       </c>
@@ -11601,10 +11601,10 @@
       <c r="J25" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="K25" s="120" t="s">
+      <c r="K25" s="132" t="s">
         <v>159</v>
       </c>
-      <c r="L25" s="110" t="s">
+      <c r="L25" s="117" t="s">
         <v>160</v>
       </c>
       <c r="M25" s="15" t="s">
@@ -11643,8 +11643,8 @@
       <c r="J26" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K26" s="118"/>
-      <c r="L26" s="111"/>
+      <c r="K26" s="119"/>
+      <c r="L26" s="108"/>
       <c r="M26" s="10" t="s">
         <v>105</v>
       </c>
@@ -11678,8 +11678,8 @@
       <c r="J27" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K27" s="118"/>
-      <c r="L27" s="111"/>
+      <c r="K27" s="119"/>
+      <c r="L27" s="108"/>
       <c r="M27" s="10" t="s">
         <v>105</v>
       </c>
@@ -11710,8 +11710,8 @@
       <c r="J28" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="K28" s="119"/>
-      <c r="L28" s="130"/>
+      <c r="K28" s="131"/>
+      <c r="L28" s="118"/>
       <c r="M28" s="11" t="s">
         <v>105</v>
       </c>
@@ -11748,7 +11748,7 @@
       <c r="J29" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K29" s="118" t="s">
+      <c r="K29" s="119" t="s">
         <v>167</v>
       </c>
       <c r="L29" s="77"/>
@@ -11785,7 +11785,7 @@
       <c r="J30" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K30" s="118"/>
+      <c r="K30" s="119"/>
       <c r="L30" s="77"/>
       <c r="M30" s="10" t="s">
         <v>105</v>
@@ -11820,7 +11820,7 @@
       <c r="J31" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K31" s="118"/>
+      <c r="K31" s="119"/>
       <c r="L31" s="77"/>
       <c r="M31" s="10" t="s">
         <v>105</v>
@@ -11852,7 +11852,7 @@
       <c r="J32" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K32" s="118"/>
+      <c r="K32" s="119"/>
       <c r="L32" s="77"/>
       <c r="M32" s="10" t="s">
         <v>105</v>
@@ -11887,7 +11887,7 @@
       <c r="J33" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="K33" s="120" t="s">
+      <c r="K33" s="132" t="s">
         <v>136</v>
       </c>
       <c r="L33" s="79" t="s">
@@ -11929,7 +11929,7 @@
       <c r="J34" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="K34" s="119"/>
+      <c r="K34" s="131"/>
       <c r="L34" s="80"/>
       <c r="M34" s="11" t="s">
         <v>105</v>
@@ -11967,7 +11967,7 @@
       <c r="J35" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K35" s="118" t="s">
+      <c r="K35" s="119" t="s">
         <v>136</v>
       </c>
       <c r="L35" s="77" t="s">
@@ -12006,7 +12006,7 @@
       <c r="J36" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K36" s="118"/>
+      <c r="K36" s="119"/>
       <c r="L36" s="77"/>
       <c r="M36" s="10" t="s">
         <v>105</v>
@@ -12117,7 +12117,7 @@
       <c r="K39" s="84" t="s">
         <v>178</v>
       </c>
-      <c r="L39" s="110"/>
+      <c r="L39" s="117"/>
       <c r="M39" s="19" t="s">
         <v>105</v>
       </c>
@@ -12155,7 +12155,7 @@
         <v>105</v>
       </c>
       <c r="K40" s="32"/>
-      <c r="L40" s="111"/>
+      <c r="L40" s="108"/>
       <c r="M40" s="20" t="s">
         <v>105</v>
       </c>
@@ -12231,10 +12231,10 @@
       <c r="J42" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K42" s="118" t="s">
+      <c r="K42" s="119" t="s">
         <v>185</v>
       </c>
-      <c r="L42" s="111" t="s">
+      <c r="L42" s="108" t="s">
         <v>186</v>
       </c>
       <c r="M42" s="19" t="s">
@@ -12270,8 +12270,8 @@
       <c r="J43" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K43" s="118"/>
-      <c r="L43" s="111"/>
+      <c r="K43" s="119"/>
+      <c r="L43" s="108"/>
       <c r="M43" s="20" t="s">
         <v>105</v>
       </c>
@@ -12305,8 +12305,8 @@
       <c r="J44" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K44" s="118"/>
-      <c r="L44" s="111"/>
+      <c r="K44" s="119"/>
+      <c r="L44" s="108"/>
       <c r="M44" s="20" t="s">
         <v>105</v>
       </c>
@@ -12337,8 +12337,8 @@
       <c r="J45" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K45" s="118"/>
-      <c r="L45" s="111"/>
+      <c r="K45" s="119"/>
+      <c r="L45" s="108"/>
       <c r="M45" s="20" t="s">
         <v>105</v>
       </c>
@@ -12372,8 +12372,8 @@
       <c r="J46" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K46" s="118"/>
-      <c r="L46" s="111"/>
+      <c r="K46" s="119"/>
+      <c r="L46" s="108"/>
       <c r="M46" s="20" t="s">
         <v>105</v>
       </c>
@@ -12407,8 +12407,8 @@
       <c r="J47" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K47" s="118"/>
-      <c r="L47" s="111"/>
+      <c r="K47" s="119"/>
+      <c r="L47" s="108"/>
       <c r="M47" s="20" t="s">
         <v>105</v>
       </c>
@@ -12519,7 +12519,7 @@
       <c r="J50" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="K50" s="122" t="s">
+      <c r="K50" s="115" t="s">
         <v>198</v>
       </c>
       <c r="L50" s="79"/>
@@ -12559,7 +12559,7 @@
       <c r="J51" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K51" s="121"/>
+      <c r="K51" s="133"/>
       <c r="L51" s="77"/>
       <c r="M51" s="23" t="s">
         <v>105</v>
@@ -12594,7 +12594,7 @@
       <c r="J52" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K52" s="121"/>
+      <c r="K52" s="133"/>
       <c r="L52" s="77"/>
       <c r="M52" s="23" t="s">
         <v>105</v>
@@ -12629,7 +12629,7 @@
       <c r="J53" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K53" s="121"/>
+      <c r="K53" s="133"/>
       <c r="L53" s="77"/>
       <c r="M53" s="23" t="s">
         <v>105</v>
@@ -12661,7 +12661,7 @@
       <c r="J54" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="K54" s="123"/>
+      <c r="K54" s="116"/>
       <c r="L54" s="80"/>
       <c r="M54" s="23" t="s">
         <v>105</v>
@@ -12777,7 +12777,7 @@
       <c r="J57" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K57" s="118" t="s">
+      <c r="K57" s="119" t="s">
         <v>214</v>
       </c>
       <c r="L57" s="77"/>
@@ -12814,7 +12814,7 @@
       <c r="J58" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K58" s="118"/>
+      <c r="K58" s="119"/>
       <c r="L58" s="77"/>
       <c r="M58" s="21" t="s">
         <v>105</v>
@@ -12846,7 +12846,7 @@
       <c r="J59" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K59" s="118"/>
+      <c r="K59" s="119"/>
       <c r="L59" s="77"/>
       <c r="M59" s="21" t="s">
         <v>105</v>
@@ -12881,7 +12881,7 @@
       <c r="J60" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="K60" s="110" t="s">
+      <c r="K60" s="117" t="s">
         <v>219</v>
       </c>
       <c r="L60" s="79"/>
@@ -12921,7 +12921,7 @@
       <c r="J61" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="K61" s="111"/>
+      <c r="K61" s="108"/>
       <c r="L61" s="77" t="s">
         <v>221</v>
       </c>
@@ -12958,7 +12958,7 @@
       <c r="J62" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K62" s="111"/>
+      <c r="K62" s="108"/>
       <c r="L62" s="77" t="s">
         <v>223</v>
       </c>
@@ -12995,7 +12995,7 @@
       <c r="J63" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="K63" s="118"/>
+      <c r="K63" s="119"/>
       <c r="L63" s="77"/>
       <c r="M63" s="20" t="s">
         <v>105</v>
@@ -13030,7 +13030,7 @@
       <c r="J64" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="K64" s="118"/>
+      <c r="K64" s="119"/>
       <c r="L64" s="77"/>
       <c r="M64" s="20" t="s">
         <v>105</v>
@@ -13065,7 +13065,7 @@
       <c r="J65" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="K65" s="118"/>
+      <c r="K65" s="119"/>
       <c r="L65" s="77" t="s">
         <v>223</v>
       </c>
@@ -13100,7 +13100,7 @@
       <c r="J66" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="K66" s="118"/>
+      <c r="K66" s="119"/>
       <c r="L66" s="43"/>
       <c r="M66" s="44" t="s">
         <v>105</v>
@@ -13211,7 +13211,7 @@
       <c r="J69" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K69" s="118" t="s">
+      <c r="K69" s="119" t="s">
         <v>136</v>
       </c>
       <c r="L69" s="77" t="s">
@@ -13250,7 +13250,7 @@
       <c r="J70" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K70" s="118"/>
+      <c r="K70" s="119"/>
       <c r="L70" s="77"/>
       <c r="M70" s="21" t="s">
         <v>105</v>
@@ -13324,7 +13324,7 @@
       <c r="J72" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K72" s="118"/>
+      <c r="K72" s="119"/>
       <c r="L72" s="77"/>
       <c r="M72" s="21" t="s">
         <v>105</v>
@@ -13356,7 +13356,7 @@
       <c r="J73" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K73" s="118"/>
+      <c r="K73" s="119"/>
       <c r="L73" s="77"/>
       <c r="M73" s="21" t="s">
         <v>105</v>
@@ -13388,7 +13388,7 @@
       <c r="J74" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K74" s="118"/>
+      <c r="K74" s="119"/>
       <c r="L74" s="77"/>
       <c r="M74" s="21" t="s">
         <v>105</v>
@@ -13417,7 +13417,7 @@
       <c r="J75" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="K75" s="119"/>
+      <c r="K75" s="131"/>
       <c r="L75" s="80"/>
       <c r="M75" s="21" t="s">
         <v>105</v>
@@ -13492,10 +13492,10 @@
       <c r="J77" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="K77" s="122" t="s">
+      <c r="K77" s="115" t="s">
         <v>241</v>
       </c>
-      <c r="L77" s="131" t="s">
+      <c r="L77" s="120" t="s">
         <v>242</v>
       </c>
       <c r="M77" s="19" t="s">
@@ -13536,8 +13536,8 @@
       <c r="J78" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K78" s="123"/>
-      <c r="L78" s="132"/>
+      <c r="K78" s="116"/>
+      <c r="L78" s="121"/>
       <c r="M78" s="44" t="s">
         <v>105</v>
       </c>
@@ -13577,7 +13577,7 @@
       <c r="K79" s="77" t="s">
         <v>244</v>
       </c>
-      <c r="L79" s="132"/>
+      <c r="L79" s="121"/>
       <c r="M79" s="44" t="s">
         <v>105</v>
       </c>
@@ -13614,7 +13614,7 @@
       <c r="K80" s="77" t="s">
         <v>244</v>
       </c>
-      <c r="L80" s="133"/>
+      <c r="L80" s="122"/>
       <c r="M80" s="20" t="s">
         <v>105</v>
       </c>
@@ -13651,7 +13651,7 @@
       <c r="J81" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K81" s="118" t="s">
+      <c r="K81" s="119" t="s">
         <v>136</v>
       </c>
       <c r="L81" s="77" t="s">
@@ -13690,7 +13690,7 @@
       <c r="J82" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K82" s="118"/>
+      <c r="K82" s="119"/>
       <c r="L82" s="77"/>
       <c r="M82" s="21" t="s">
         <v>105</v>
@@ -13804,7 +13804,7 @@
       <c r="J85" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="K85" s="118" t="s">
+      <c r="K85" s="119" t="s">
         <v>255</v>
       </c>
       <c r="L85" s="28"/>
@@ -13840,7 +13840,7 @@
       <c r="J86" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="K86" s="118"/>
+      <c r="K86" s="119"/>
       <c r="L86" s="28"/>
       <c r="M86" s="21" t="s">
         <v>105</v>
@@ -13874,7 +13874,7 @@
       <c r="J87" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="K87" s="118"/>
+      <c r="K87" s="119"/>
       <c r="L87" s="28"/>
       <c r="M87" s="21" t="s">
         <v>105</v>
@@ -13905,7 +13905,7 @@
       <c r="J88" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="K88" s="118"/>
+      <c r="K88" s="119"/>
       <c r="L88" s="28"/>
       <c r="M88" s="21" t="s">
         <v>105</v>
@@ -13939,7 +13939,7 @@
       <c r="J89" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="K89" s="118"/>
+      <c r="K89" s="119"/>
       <c r="L89" s="28"/>
       <c r="M89" s="21" t="s">
         <v>105</v>
@@ -13973,7 +13973,7 @@
       <c r="J90" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="K90" s="118"/>
+      <c r="K90" s="119"/>
       <c r="L90" s="28"/>
       <c r="M90" s="21" t="s">
         <v>105</v>
@@ -14008,10 +14008,10 @@
       <c r="J91" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="K91" s="124" t="s">
+      <c r="K91" s="109" t="s">
         <v>261</v>
       </c>
-      <c r="L91" s="115" t="s">
+      <c r="L91" s="128" t="s">
         <v>262</v>
       </c>
       <c r="M91" s="23" t="s">
@@ -14050,8 +14050,8 @@
       <c r="J92" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="K92" s="125"/>
-      <c r="L92" s="116"/>
+      <c r="K92" s="110"/>
+      <c r="L92" s="129"/>
       <c r="M92" s="21" t="s">
         <v>105</v>
       </c>
@@ -14085,8 +14085,8 @@
       <c r="J93" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="K93" s="125"/>
-      <c r="L93" s="116"/>
+      <c r="K93" s="110"/>
+      <c r="L93" s="129"/>
       <c r="M93" s="21" t="s">
         <v>105</v>
       </c>
@@ -14117,8 +14117,8 @@
       <c r="J94" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="K94" s="126"/>
-      <c r="L94" s="117"/>
+      <c r="K94" s="111"/>
+      <c r="L94" s="130"/>
       <c r="M94" s="21" t="s">
         <v>105</v>
       </c>
@@ -14154,7 +14154,7 @@
       <c r="J95" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="K95" s="127"/>
+      <c r="K95" s="112"/>
       <c r="L95" s="28"/>
       <c r="M95" s="23" t="s">
         <v>105</v>
@@ -14188,7 +14188,7 @@
       <c r="J96" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="K96" s="128"/>
+      <c r="K96" s="113"/>
       <c r="L96" s="28"/>
       <c r="M96" s="23" t="s">
         <v>105</v>
@@ -14222,7 +14222,7 @@
       <c r="J97" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="K97" s="128"/>
+      <c r="K97" s="113"/>
       <c r="L97" s="28"/>
       <c r="M97" s="23" t="s">
         <v>105</v>
@@ -14256,7 +14256,7 @@
       <c r="J98" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="K98" s="128"/>
+      <c r="K98" s="113"/>
       <c r="L98" s="28"/>
       <c r="M98" s="23" t="s">
         <v>105</v>
@@ -14289,7 +14289,7 @@
       <c r="J99" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="K99" s="129"/>
+      <c r="K99" s="114"/>
       <c r="L99" s="78"/>
       <c r="M99" s="30" t="s">
         <v>105</v>
@@ -14310,20 +14310,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="L20:L24"/>
-    <mergeCell ref="K91:K94"/>
-    <mergeCell ref="K95:K99"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="L25:L28"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="L42:L47"/>
-    <mergeCell ref="K60:K62"/>
-    <mergeCell ref="K63:K66"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="K85:K90"/>
-    <mergeCell ref="L77:L80"/>
     <mergeCell ref="L6:L8"/>
     <mergeCell ref="L2:L5"/>
     <mergeCell ref="K6:K8"/>
@@ -14340,6 +14326,20 @@
     <mergeCell ref="K42:K47"/>
     <mergeCell ref="K50:K54"/>
     <mergeCell ref="K57:K59"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="L20:L24"/>
+    <mergeCell ref="K91:K94"/>
+    <mergeCell ref="K95:K99"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="L25:L28"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="L42:L47"/>
+    <mergeCell ref="K60:K62"/>
+    <mergeCell ref="K63:K66"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="K85:K90"/>
+    <mergeCell ref="L77:L80"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="M7:M8 M3:M5 L40 L91 M86:M94 M78:M80 J55:K55 J77:M77 M55 J78:K80 I1:M2 B1:H8 I6:M6 I3:J5 I9:M37 I39:L39 I40:J40 I95:M99 I91:K94 I7:J8 I41:M54 I81:M90 I56:M76 B39:H99 B11:H11 B9:F10 H9:H10 B13:H37 B12:F12 H12">
@@ -18040,6 +18040,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a318c9bd-5828-4914-8ac9-a57d8c01df7a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="4da7f078-0f32-436f-b12a-21525bae5a0e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100919AB8A12910594B8F4D80F4ACA7D0E7" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdc1734568a56db4c93babc30e64c3dd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a318c9bd-5828-4914-8ac9-a57d8c01df7a" xmlns:ns3="4da7f078-0f32-436f-b12a-21525bae5a0e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2332e6491ccd53482df8a38b341b6af1" ns2:_="" ns3:_="">
     <xsd:import namespace="a318c9bd-5828-4914-8ac9-a57d8c01df7a"/>
@@ -18262,27 +18282,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a318c9bd-5828-4914-8ac9-a57d8c01df7a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="4da7f078-0f32-436f-b12a-21525bae5a0e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4F7EAA9-3149-4D1D-AC50-D48674558E43}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{013AD9E7-5ED9-4240-9E80-4B7BF5375D95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a318c9bd-5828-4914-8ac9-a57d8c01df7a"/>
+    <ds:schemaRef ds:uri="4da7f078-0f32-436f-b12a-21525bae5a0e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5894F413-BEBD-4D32-9133-427F18632D1D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18299,23 +18318,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{013AD9E7-5ED9-4240-9E80-4B7BF5375D95}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a318c9bd-5828-4914-8ac9-a57d8c01df7a"/>
-    <ds:schemaRef ds:uri="4da7f078-0f32-436f-b12a-21525bae5a0e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4F7EAA9-3149-4D1D-AC50-D48674558E43}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Meta/Analytes3.xlsx
+++ b/Meta/Analytes3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/coffman_christian_epa_gov/Documents/Profile/Documents/Projects/GL_Data/Meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_44682621B0D26BC066C8CAD00103F6CB7E289151" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41C7C777-B700-4213-AF96-E0D69987F272}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="11_44682621B0D26BC066C8CAD00103F6CB7E289151" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0D38B74-D02D-4FBA-AA47-AED37ABDE78C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3630" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3648" uniqueCount="800">
   <si>
     <t>ANALYTE</t>
   </si>
@@ -2451,6 +2451,18 @@
   </si>
   <si>
     <t>Turbidity, Nephelometric Turbidity Units</t>
+  </si>
+  <si>
+    <t>NOAActd</t>
+  </si>
+  <si>
+    <t>mll</t>
+  </si>
+  <si>
+    <t>Guessing this was mislabeled for noaa ctd DO</t>
+  </si>
+  <si>
+    <t>oce remves this need to figure outu why…</t>
   </si>
 </sst>
 </file>
@@ -3066,11 +3078,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3078,10 +3114,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3095,30 +3131,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3427,7 +3439,9 @@
   </sheetPr>
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -11609,9 +11623,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -11791,6 +11807,59 @@
         <v>620</v>
       </c>
       <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
+        <v>796</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>796</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>796</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>796</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>797</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>223</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11894,8 +11963,8 @@
       <c r="J2" s="52" t="s">
         <v>435</v>
       </c>
-      <c r="K2" s="93"/>
-      <c r="L2" s="95"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="103"/>
       <c r="M2" s="53" t="s">
         <v>435</v>
       </c>
@@ -11932,8 +12001,8 @@
       <c r="J3" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K3" s="94"/>
-      <c r="L3" s="96"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="104"/>
       <c r="M3" s="7" t="s">
         <v>435</v>
       </c>
@@ -11970,8 +12039,8 @@
       <c r="J4" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K4" s="94"/>
-      <c r="L4" s="96"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="104"/>
       <c r="M4" s="7" t="s">
         <v>435</v>
       </c>
@@ -12006,8 +12075,8 @@
       <c r="J5" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K5" s="94"/>
-      <c r="L5" s="96"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="104"/>
       <c r="M5" s="7" t="s">
         <v>435</v>
       </c>
@@ -12044,10 +12113,10 @@
       <c r="J6" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K6" s="97" t="s">
+      <c r="K6" s="102" t="s">
         <v>445</v>
       </c>
-      <c r="L6" s="99"/>
+      <c r="L6" s="107"/>
       <c r="M6" s="7" t="s">
         <v>435</v>
       </c>
@@ -12084,8 +12153,8 @@
       <c r="J7" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K7" s="94"/>
-      <c r="L7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="108"/>
       <c r="M7" s="7" t="s">
         <v>435</v>
       </c>
@@ -12120,8 +12189,8 @@
       <c r="J8" s="59" t="s">
         <v>435</v>
       </c>
-      <c r="K8" s="98"/>
-      <c r="L8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="109"/>
       <c r="M8" s="7" t="s">
         <v>435</v>
       </c>
@@ -12158,10 +12227,10 @@
       <c r="J9" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K9" s="102" t="s">
+      <c r="K9" s="110" t="s">
         <v>453</v>
       </c>
-      <c r="L9" s="104" t="s">
+      <c r="L9" s="105" t="s">
         <v>454</v>
       </c>
       <c r="M9" s="53" t="s">
@@ -12200,8 +12269,8 @@
       <c r="J10" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K10" s="103"/>
-      <c r="L10" s="96"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="104"/>
       <c r="M10" s="7" t="s">
         <v>435</v>
       </c>
@@ -12238,8 +12307,8 @@
       <c r="J11" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K11" s="103"/>
-      <c r="L11" s="96"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="104"/>
       <c r="M11" s="7" t="s">
         <v>435</v>
       </c>
@@ -12518,7 +12587,7 @@
       <c r="J18" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K18" s="97"/>
+      <c r="K18" s="102"/>
       <c r="L18" s="56"/>
       <c r="M18" s="7" t="s">
         <v>435</v>
@@ -12556,7 +12625,7 @@
       <c r="J19" s="59" t="s">
         <v>435</v>
       </c>
-      <c r="K19" s="98"/>
+      <c r="K19" s="101"/>
       <c r="L19" s="66"/>
       <c r="M19" s="58" t="s">
         <v>435</v>
@@ -12594,10 +12663,10 @@
       <c r="J20" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K20" s="97" t="s">
+      <c r="K20" s="102" t="s">
         <v>488</v>
       </c>
-      <c r="L20" s="104" t="s">
+      <c r="L20" s="105" t="s">
         <v>489</v>
       </c>
       <c r="M20" s="7" t="s">
@@ -12636,8 +12705,8 @@
       <c r="J21" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K21" s="94"/>
-      <c r="L21" s="96"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="104"/>
       <c r="M21" s="7" t="s">
         <v>435</v>
       </c>
@@ -12672,8 +12741,8 @@
       <c r="J22" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K22" s="94"/>
-      <c r="L22" s="96"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="104"/>
       <c r="M22" s="7" t="s">
         <v>435</v>
       </c>
@@ -12710,8 +12779,8 @@
       <c r="J23" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K23" s="94"/>
-      <c r="L23" s="96"/>
+      <c r="K23" s="100"/>
+      <c r="L23" s="104"/>
       <c r="M23" s="7" t="s">
         <v>435</v>
       </c>
@@ -12748,8 +12817,8 @@
       <c r="J24" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K24" s="94"/>
-      <c r="L24" s="96"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="104"/>
       <c r="M24" s="7" t="s">
         <v>435</v>
       </c>
@@ -12786,10 +12855,10 @@
       <c r="J25" s="52" t="s">
         <v>435</v>
       </c>
-      <c r="K25" s="93" t="s">
+      <c r="K25" s="99" t="s">
         <v>495</v>
       </c>
-      <c r="L25" s="95" t="s">
+      <c r="L25" s="103" t="s">
         <v>496</v>
       </c>
       <c r="M25" s="53" t="s">
@@ -12828,8 +12897,8 @@
       <c r="J26" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K26" s="94"/>
-      <c r="L26" s="96"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="104"/>
       <c r="M26" s="7" t="s">
         <v>435</v>
       </c>
@@ -12866,8 +12935,8 @@
       <c r="J27" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K27" s="94"/>
-      <c r="L27" s="96"/>
+      <c r="K27" s="100"/>
+      <c r="L27" s="104"/>
       <c r="M27" s="7" t="s">
         <v>435</v>
       </c>
@@ -12902,8 +12971,8 @@
       <c r="J28" s="59" t="s">
         <v>435</v>
       </c>
-      <c r="K28" s="98"/>
-      <c r="L28" s="105"/>
+      <c r="K28" s="101"/>
+      <c r="L28" s="106"/>
       <c r="M28" s="58" t="s">
         <v>435</v>
       </c>
@@ -12940,7 +13009,7 @@
       <c r="J29" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K29" s="97" t="s">
+      <c r="K29" s="102" t="s">
         <v>501</v>
       </c>
       <c r="L29" s="56"/>
@@ -12980,7 +13049,7 @@
       <c r="J30" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K30" s="94"/>
+      <c r="K30" s="100"/>
       <c r="L30" s="56"/>
       <c r="M30" s="7" t="s">
         <v>435</v>
@@ -13018,7 +13087,7 @@
       <c r="J31" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K31" s="94"/>
+      <c r="K31" s="100"/>
       <c r="L31" s="56"/>
       <c r="M31" s="7" t="s">
         <v>435</v>
@@ -13054,7 +13123,7 @@
       <c r="J32" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K32" s="94"/>
+      <c r="K32" s="100"/>
       <c r="L32" s="56"/>
       <c r="M32" s="7" t="s">
         <v>435</v>
@@ -13092,7 +13161,7 @@
       <c r="J33" s="52" t="s">
         <v>435</v>
       </c>
-      <c r="K33" s="93" t="s">
+      <c r="K33" s="99" t="s">
         <v>468</v>
       </c>
       <c r="L33" s="65" t="s">
@@ -13134,7 +13203,7 @@
       <c r="J34" s="59" t="s">
         <v>435</v>
       </c>
-      <c r="K34" s="98"/>
+      <c r="K34" s="101"/>
       <c r="L34" s="66"/>
       <c r="M34" s="58" t="s">
         <v>435</v>
@@ -13172,7 +13241,7 @@
       <c r="J35" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K35" s="97" t="s">
+      <c r="K35" s="102" t="s">
         <v>468</v>
       </c>
       <c r="L35" s="56" t="s">
@@ -13214,7 +13283,7 @@
       <c r="J36" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K36" s="94"/>
+      <c r="K36" s="100"/>
       <c r="L36" s="56"/>
       <c r="M36" s="7" t="s">
         <v>435</v>
@@ -13331,7 +13400,7 @@
       <c r="K39" s="68" t="s">
         <v>518</v>
       </c>
-      <c r="L39" s="95"/>
+      <c r="L39" s="103"/>
       <c r="M39" s="53" t="s">
         <v>435</v>
       </c>
@@ -13369,7 +13438,7 @@
         <v>435</v>
       </c>
       <c r="K40" s="55"/>
-      <c r="L40" s="96"/>
+      <c r="L40" s="104"/>
       <c r="M40" s="7" t="s">
         <v>435</v>
       </c>
@@ -13448,10 +13517,10 @@
       <c r="J42" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K42" s="97" t="s">
+      <c r="K42" s="102" t="s">
         <v>525</v>
       </c>
-      <c r="L42" s="104" t="s">
+      <c r="L42" s="105" t="s">
         <v>526</v>
       </c>
       <c r="M42" s="53" t="s">
@@ -13490,8 +13559,8 @@
       <c r="J43" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K43" s="94"/>
-      <c r="L43" s="96"/>
+      <c r="K43" s="100"/>
+      <c r="L43" s="104"/>
       <c r="M43" s="7" t="s">
         <v>435</v>
       </c>
@@ -13528,8 +13597,8 @@
       <c r="J44" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K44" s="94"/>
-      <c r="L44" s="96"/>
+      <c r="K44" s="100"/>
+      <c r="L44" s="104"/>
       <c r="M44" s="7" t="s">
         <v>435</v>
       </c>
@@ -13564,8 +13633,8 @@
       <c r="J45" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K45" s="94"/>
-      <c r="L45" s="96"/>
+      <c r="K45" s="100"/>
+      <c r="L45" s="104"/>
       <c r="M45" s="7" t="s">
         <v>435</v>
       </c>
@@ -13602,8 +13671,8 @@
       <c r="J46" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K46" s="94"/>
-      <c r="L46" s="96"/>
+      <c r="K46" s="100"/>
+      <c r="L46" s="104"/>
       <c r="M46" s="7" t="s">
         <v>435</v>
       </c>
@@ -13640,8 +13709,8 @@
       <c r="J47" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K47" s="94"/>
-      <c r="L47" s="96"/>
+      <c r="K47" s="100"/>
+      <c r="L47" s="104"/>
       <c r="M47" s="7" t="s">
         <v>435</v>
       </c>
@@ -13758,7 +13827,7 @@
       <c r="J50" s="52" t="s">
         <v>435</v>
       </c>
-      <c r="K50" s="106" t="s">
+      <c r="K50" s="93" t="s">
         <v>539</v>
       </c>
       <c r="L50" s="65"/>
@@ -13798,7 +13867,7 @@
       <c r="J51" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K51" s="103"/>
+      <c r="K51" s="94"/>
       <c r="L51" s="56"/>
       <c r="M51" s="53" t="s">
         <v>435</v>
@@ -13836,7 +13905,7 @@
       <c r="J52" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K52" s="103"/>
+      <c r="K52" s="94"/>
       <c r="L52" s="56"/>
       <c r="M52" s="53" t="s">
         <v>435</v>
@@ -13874,7 +13943,7 @@
       <c r="J53" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K53" s="103"/>
+      <c r="K53" s="94"/>
       <c r="L53" s="56"/>
       <c r="M53" s="53" t="s">
         <v>435</v>
@@ -13910,7 +13979,7 @@
       <c r="J54" s="59" t="s">
         <v>435</v>
       </c>
-      <c r="K54" s="107"/>
+      <c r="K54" s="95"/>
       <c r="L54" s="66"/>
       <c r="M54" s="53" t="s">
         <v>435</v>
@@ -14030,7 +14099,7 @@
       <c r="J57" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K57" s="97" t="s">
+      <c r="K57" s="102" t="s">
         <v>556</v>
       </c>
       <c r="L57" s="56"/>
@@ -14070,7 +14139,7 @@
       <c r="J58" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K58" s="94"/>
+      <c r="K58" s="100"/>
       <c r="L58" s="56"/>
       <c r="M58" s="7" t="s">
         <v>435</v>
@@ -14106,7 +14175,7 @@
       <c r="J59" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K59" s="94"/>
+      <c r="K59" s="100"/>
       <c r="L59" s="56"/>
       <c r="M59" s="7" t="s">
         <v>435</v>
@@ -14144,7 +14213,7 @@
       <c r="J60" s="53" t="s">
         <v>435</v>
       </c>
-      <c r="K60" s="95" t="s">
+      <c r="K60" s="103" t="s">
         <v>561</v>
       </c>
       <c r="L60" s="65"/>
@@ -14184,7 +14253,7 @@
       <c r="J61" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="K61" s="96"/>
+      <c r="K61" s="104"/>
       <c r="L61" s="56" t="s">
         <v>563</v>
       </c>
@@ -14224,7 +14293,7 @@
       <c r="J62" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K62" s="96"/>
+      <c r="K62" s="104"/>
       <c r="L62" s="56" t="s">
         <v>565</v>
       </c>
@@ -14264,7 +14333,7 @@
       <c r="J63" s="44" t="s">
         <v>435</v>
       </c>
-      <c r="K63" s="97"/>
+      <c r="K63" s="102"/>
       <c r="L63" s="56"/>
       <c r="M63" s="7" t="s">
         <v>435</v>
@@ -14302,7 +14371,7 @@
       <c r="J64" s="44" t="s">
         <v>435</v>
       </c>
-      <c r="K64" s="94"/>
+      <c r="K64" s="100"/>
       <c r="L64" s="56"/>
       <c r="M64" s="7" t="s">
         <v>435</v>
@@ -14340,7 +14409,7 @@
       <c r="J65" s="44" t="s">
         <v>435</v>
       </c>
-      <c r="K65" s="94"/>
+      <c r="K65" s="100"/>
       <c r="L65" s="56" t="s">
         <v>565</v>
       </c>
@@ -14378,7 +14447,7 @@
       <c r="J66" s="44" t="s">
         <v>435</v>
       </c>
-      <c r="K66" s="94"/>
+      <c r="K66" s="100"/>
       <c r="L66" s="12"/>
       <c r="M66" s="54" t="s">
         <v>435</v>
@@ -14492,7 +14561,7 @@
       <c r="J69" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K69" s="97" t="s">
+      <c r="K69" s="102" t="s">
         <v>468</v>
       </c>
       <c r="L69" s="56" t="s">
@@ -14534,7 +14603,7 @@
       <c r="J70" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K70" s="94"/>
+      <c r="K70" s="100"/>
       <c r="L70" s="56"/>
       <c r="M70" s="7" t="s">
         <v>435</v>
@@ -14612,7 +14681,7 @@
       <c r="J72" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K72" s="97"/>
+      <c r="K72" s="102"/>
       <c r="L72" s="56"/>
       <c r="M72" s="7" t="s">
         <v>435</v>
@@ -14648,7 +14717,7 @@
       <c r="J73" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K73" s="94"/>
+      <c r="K73" s="100"/>
       <c r="L73" s="56"/>
       <c r="M73" s="7" t="s">
         <v>435</v>
@@ -14684,7 +14753,7 @@
       <c r="J74" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K74" s="94"/>
+      <c r="K74" s="100"/>
       <c r="L74" s="56"/>
       <c r="M74" s="7" t="s">
         <v>435</v>
@@ -14718,7 +14787,7 @@
       <c r="J75" s="59" t="s">
         <v>435</v>
       </c>
-      <c r="K75" s="98"/>
+      <c r="K75" s="101"/>
       <c r="L75" s="66"/>
       <c r="M75" s="7" t="s">
         <v>435</v>
@@ -14796,10 +14865,10 @@
       <c r="J77" s="52" t="s">
         <v>435</v>
       </c>
-      <c r="K77" s="106" t="s">
+      <c r="K77" s="93" t="s">
         <v>588</v>
       </c>
-      <c r="L77" s="93" t="s">
+      <c r="L77" s="99" t="s">
         <v>589</v>
       </c>
       <c r="M77" s="53" t="s">
@@ -14840,8 +14909,8 @@
       <c r="J78" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K78" s="107"/>
-      <c r="L78" s="109"/>
+      <c r="K78" s="95"/>
+      <c r="L78" s="97"/>
       <c r="M78" s="54" t="s">
         <v>435</v>
       </c>
@@ -14881,7 +14950,7 @@
       <c r="K79" s="56" t="s">
         <v>590</v>
       </c>
-      <c r="L79" s="109"/>
+      <c r="L79" s="97"/>
       <c r="M79" s="54" t="s">
         <v>435</v>
       </c>
@@ -14921,7 +14990,7 @@
       <c r="K80" s="56" t="s">
         <v>590</v>
       </c>
-      <c r="L80" s="98"/>
+      <c r="L80" s="101"/>
       <c r="M80" s="7" t="s">
         <v>435</v>
       </c>
@@ -14958,7 +15027,7 @@
       <c r="J81" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K81" s="97" t="s">
+      <c r="K81" s="102" t="s">
         <v>468</v>
       </c>
       <c r="L81" s="56" t="s">
@@ -15000,7 +15069,7 @@
       <c r="J82" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K82" s="94"/>
+      <c r="K82" s="100"/>
       <c r="L82" s="56"/>
       <c r="M82" s="7" t="s">
         <v>435</v>
@@ -15122,7 +15191,7 @@
       <c r="J85" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K85" s="97" t="s">
+      <c r="K85" s="102" t="s">
         <v>602</v>
       </c>
       <c r="L85" s="56"/>
@@ -15162,7 +15231,7 @@
       <c r="J86" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K86" s="94"/>
+      <c r="K86" s="100"/>
       <c r="L86" s="56"/>
       <c r="M86" s="7" t="s">
         <v>435</v>
@@ -15200,7 +15269,7 @@
       <c r="J87" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K87" s="94"/>
+      <c r="K87" s="100"/>
       <c r="L87" s="56"/>
       <c r="M87" s="7" t="s">
         <v>435</v>
@@ -15236,7 +15305,7 @@
       <c r="J88" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K88" s="94"/>
+      <c r="K88" s="100"/>
       <c r="L88" s="56"/>
       <c r="M88" s="7" t="s">
         <v>435</v>
@@ -15274,7 +15343,7 @@
       <c r="J89" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K89" s="94"/>
+      <c r="K89" s="100"/>
       <c r="L89" s="56"/>
       <c r="M89" s="7" t="s">
         <v>435</v>
@@ -15312,7 +15381,7 @@
       <c r="J90" s="59" t="s">
         <v>435</v>
       </c>
-      <c r="K90" s="94"/>
+      <c r="K90" s="100"/>
       <c r="L90" s="56"/>
       <c r="M90" s="7" t="s">
         <v>435</v>
@@ -15350,10 +15419,10 @@
       <c r="J91" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K91" s="106" t="s">
+      <c r="K91" s="93" t="s">
         <v>608</v>
       </c>
-      <c r="L91" s="108" t="s">
+      <c r="L91" s="96" t="s">
         <v>609</v>
       </c>
       <c r="M91" s="53" t="s">
@@ -15392,8 +15461,8 @@
       <c r="J92" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="K92" s="103"/>
-      <c r="L92" s="109"/>
+      <c r="K92" s="94"/>
+      <c r="L92" s="97"/>
       <c r="M92" s="7" t="s">
         <v>435</v>
       </c>
@@ -15430,8 +15499,8 @@
       <c r="J93" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="K93" s="103"/>
-      <c r="L93" s="109"/>
+      <c r="K93" s="94"/>
+      <c r="L93" s="97"/>
       <c r="M93" s="7" t="s">
         <v>435</v>
       </c>
@@ -15466,8 +15535,8 @@
       <c r="J94" s="59" t="s">
         <v>435</v>
       </c>
-      <c r="K94" s="107"/>
-      <c r="L94" s="110"/>
+      <c r="K94" s="95"/>
+      <c r="L94" s="98"/>
       <c r="M94" s="7" t="s">
         <v>435</v>
       </c>
@@ -15504,7 +15573,7 @@
       <c r="J95" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K95" s="93"/>
+      <c r="K95" s="99"/>
       <c r="L95" s="56"/>
       <c r="M95" s="53" t="s">
         <v>435</v>
@@ -15542,7 +15611,7 @@
       <c r="J96" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K96" s="94"/>
+      <c r="K96" s="100"/>
       <c r="L96" s="56"/>
       <c r="M96" s="53" t="s">
         <v>435</v>
@@ -15580,7 +15649,7 @@
       <c r="J97" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K97" s="94"/>
+      <c r="K97" s="100"/>
       <c r="L97" s="56"/>
       <c r="M97" s="53" t="s">
         <v>435</v>
@@ -15618,7 +15687,7 @@
       <c r="J98" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K98" s="94"/>
+      <c r="K98" s="100"/>
       <c r="L98" s="56"/>
       <c r="M98" s="53" t="s">
         <v>435</v>
@@ -15654,7 +15723,7 @@
       <c r="J99" s="59" t="s">
         <v>435</v>
       </c>
-      <c r="K99" s="98"/>
+      <c r="K99" s="101"/>
       <c r="L99" s="60"/>
       <c r="M99" s="61" t="s">
         <v>435</v>
@@ -15683,6 +15752,28 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="K20:K24"/>
+    <mergeCell ref="L20:L24"/>
+    <mergeCell ref="K25:K28"/>
+    <mergeCell ref="L25:L28"/>
+    <mergeCell ref="K29:K32"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="K42:K47"/>
+    <mergeCell ref="L42:L47"/>
+    <mergeCell ref="K50:K54"/>
+    <mergeCell ref="K57:K59"/>
+    <mergeCell ref="K60:K62"/>
+    <mergeCell ref="K63:K66"/>
+    <mergeCell ref="K69:K70"/>
     <mergeCell ref="K91:K94"/>
     <mergeCell ref="L91:L94"/>
     <mergeCell ref="K95:K99"/>
@@ -15691,28 +15782,6 @@
     <mergeCell ref="L77:L80"/>
     <mergeCell ref="K81:K82"/>
     <mergeCell ref="K85:K90"/>
-    <mergeCell ref="K50:K54"/>
-    <mergeCell ref="K57:K59"/>
-    <mergeCell ref="K60:K62"/>
-    <mergeCell ref="K63:K66"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="K29:K32"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="K42:K47"/>
-    <mergeCell ref="L42:L47"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="K20:K24"/>
-    <mergeCell ref="L20:L24"/>
-    <mergeCell ref="K25:K28"/>
-    <mergeCell ref="L25:L28"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="L9:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17389,7 +17458,7 @@
   </sheetPr>
   <dimension ref="A1:W73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
@@ -20072,7 +20141,9 @@
   </sheetPr>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -20410,12 +20481,18 @@
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
+      <c r="A25" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>797</v>
+      </c>
       <c r="C25" s="31">
         <v>1</v>
       </c>
-      <c r="D25" s="5"/>
+      <c r="D25" s="5" t="s">
+        <v>798</v>
+      </c>
       <c r="E25" s="5"/>
     </row>
   </sheetData>

--- a/Meta/Analytes3.xlsx
+++ b/Meta/Analytes3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/coffman_christian_epa_gov/Documents/Profile/Documents/Projects/GL_Data/Meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="11_44682621B0D26BC066C8CAD00103F6CB7E289151" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0D38B74-D02D-4FBA-AA47-AED37ABDE78C}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="11_44682621B0D26BC066C8CAD00103F6CB7E289151" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4473F49-FC0D-4010-B9AC-37141FCC559C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="1" r:id="rId1"/>
@@ -3078,35 +3078,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3114,10 +3090,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3131,6 +3107,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11625,7 +11625,7 @@
   </sheetPr>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -11963,8 +11963,8 @@
       <c r="J2" s="52" t="s">
         <v>435</v>
       </c>
-      <c r="K2" s="99"/>
-      <c r="L2" s="103"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="95"/>
       <c r="M2" s="53" t="s">
         <v>435</v>
       </c>
@@ -12001,8 +12001,8 @@
       <c r="J3" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K3" s="100"/>
-      <c r="L3" s="104"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="96"/>
       <c r="M3" s="7" t="s">
         <v>435</v>
       </c>
@@ -12039,8 +12039,8 @@
       <c r="J4" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K4" s="100"/>
-      <c r="L4" s="104"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="96"/>
       <c r="M4" s="7" t="s">
         <v>435</v>
       </c>
@@ -12075,8 +12075,8 @@
       <c r="J5" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K5" s="100"/>
-      <c r="L5" s="104"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="96"/>
       <c r="M5" s="7" t="s">
         <v>435</v>
       </c>
@@ -12113,10 +12113,10 @@
       <c r="J6" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K6" s="102" t="s">
+      <c r="K6" s="97" t="s">
         <v>445</v>
       </c>
-      <c r="L6" s="107"/>
+      <c r="L6" s="99"/>
       <c r="M6" s="7" t="s">
         <v>435</v>
       </c>
@@ -12153,8 +12153,8 @@
       <c r="J7" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K7" s="100"/>
-      <c r="L7" s="108"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="100"/>
       <c r="M7" s="7" t="s">
         <v>435</v>
       </c>
@@ -12189,8 +12189,8 @@
       <c r="J8" s="59" t="s">
         <v>435</v>
       </c>
-      <c r="K8" s="101"/>
-      <c r="L8" s="109"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="101"/>
       <c r="M8" s="7" t="s">
         <v>435</v>
       </c>
@@ -12227,10 +12227,10 @@
       <c r="J9" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K9" s="110" t="s">
+      <c r="K9" s="102" t="s">
         <v>453</v>
       </c>
-      <c r="L9" s="105" t="s">
+      <c r="L9" s="104" t="s">
         <v>454</v>
       </c>
       <c r="M9" s="53" t="s">
@@ -12269,8 +12269,8 @@
       <c r="J10" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K10" s="94"/>
-      <c r="L10" s="104"/>
+      <c r="K10" s="103"/>
+      <c r="L10" s="96"/>
       <c r="M10" s="7" t="s">
         <v>435</v>
       </c>
@@ -12307,8 +12307,8 @@
       <c r="J11" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K11" s="94"/>
-      <c r="L11" s="104"/>
+      <c r="K11" s="103"/>
+      <c r="L11" s="96"/>
       <c r="M11" s="7" t="s">
         <v>435</v>
       </c>
@@ -12587,7 +12587,7 @@
       <c r="J18" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K18" s="102"/>
+      <c r="K18" s="97"/>
       <c r="L18" s="56"/>
       <c r="M18" s="7" t="s">
         <v>435</v>
@@ -12625,7 +12625,7 @@
       <c r="J19" s="59" t="s">
         <v>435</v>
       </c>
-      <c r="K19" s="101"/>
+      <c r="K19" s="98"/>
       <c r="L19" s="66"/>
       <c r="M19" s="58" t="s">
         <v>435</v>
@@ -12663,10 +12663,10 @@
       <c r="J20" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K20" s="102" t="s">
+      <c r="K20" s="97" t="s">
         <v>488</v>
       </c>
-      <c r="L20" s="105" t="s">
+      <c r="L20" s="104" t="s">
         <v>489</v>
       </c>
       <c r="M20" s="7" t="s">
@@ -12705,8 +12705,8 @@
       <c r="J21" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K21" s="100"/>
-      <c r="L21" s="104"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="96"/>
       <c r="M21" s="7" t="s">
         <v>435</v>
       </c>
@@ -12741,8 +12741,8 @@
       <c r="J22" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K22" s="100"/>
-      <c r="L22" s="104"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="96"/>
       <c r="M22" s="7" t="s">
         <v>435</v>
       </c>
@@ -12779,8 +12779,8 @@
       <c r="J23" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K23" s="100"/>
-      <c r="L23" s="104"/>
+      <c r="K23" s="94"/>
+      <c r="L23" s="96"/>
       <c r="M23" s="7" t="s">
         <v>435</v>
       </c>
@@ -12817,8 +12817,8 @@
       <c r="J24" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K24" s="100"/>
-      <c r="L24" s="104"/>
+      <c r="K24" s="94"/>
+      <c r="L24" s="96"/>
       <c r="M24" s="7" t="s">
         <v>435</v>
       </c>
@@ -12855,10 +12855,10 @@
       <c r="J25" s="52" t="s">
         <v>435</v>
       </c>
-      <c r="K25" s="99" t="s">
+      <c r="K25" s="93" t="s">
         <v>495</v>
       </c>
-      <c r="L25" s="103" t="s">
+      <c r="L25" s="95" t="s">
         <v>496</v>
       </c>
       <c r="M25" s="53" t="s">
@@ -12897,8 +12897,8 @@
       <c r="J26" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K26" s="100"/>
-      <c r="L26" s="104"/>
+      <c r="K26" s="94"/>
+      <c r="L26" s="96"/>
       <c r="M26" s="7" t="s">
         <v>435</v>
       </c>
@@ -12935,8 +12935,8 @@
       <c r="J27" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K27" s="100"/>
-      <c r="L27" s="104"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="96"/>
       <c r="M27" s="7" t="s">
         <v>435</v>
       </c>
@@ -12971,8 +12971,8 @@
       <c r="J28" s="59" t="s">
         <v>435</v>
       </c>
-      <c r="K28" s="101"/>
-      <c r="L28" s="106"/>
+      <c r="K28" s="98"/>
+      <c r="L28" s="105"/>
       <c r="M28" s="58" t="s">
         <v>435</v>
       </c>
@@ -13009,7 +13009,7 @@
       <c r="J29" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K29" s="102" t="s">
+      <c r="K29" s="97" t="s">
         <v>501</v>
       </c>
       <c r="L29" s="56"/>
@@ -13049,7 +13049,7 @@
       <c r="J30" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K30" s="100"/>
+      <c r="K30" s="94"/>
       <c r="L30" s="56"/>
       <c r="M30" s="7" t="s">
         <v>435</v>
@@ -13087,7 +13087,7 @@
       <c r="J31" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K31" s="100"/>
+      <c r="K31" s="94"/>
       <c r="L31" s="56"/>
       <c r="M31" s="7" t="s">
         <v>435</v>
@@ -13123,7 +13123,7 @@
       <c r="J32" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K32" s="100"/>
+      <c r="K32" s="94"/>
       <c r="L32" s="56"/>
       <c r="M32" s="7" t="s">
         <v>435</v>
@@ -13161,7 +13161,7 @@
       <c r="J33" s="52" t="s">
         <v>435</v>
       </c>
-      <c r="K33" s="99" t="s">
+      <c r="K33" s="93" t="s">
         <v>468</v>
       </c>
       <c r="L33" s="65" t="s">
@@ -13203,7 +13203,7 @@
       <c r="J34" s="59" t="s">
         <v>435</v>
       </c>
-      <c r="K34" s="101"/>
+      <c r="K34" s="98"/>
       <c r="L34" s="66"/>
       <c r="M34" s="58" t="s">
         <v>435</v>
@@ -13241,7 +13241,7 @@
       <c r="J35" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K35" s="102" t="s">
+      <c r="K35" s="97" t="s">
         <v>468</v>
       </c>
       <c r="L35" s="56" t="s">
@@ -13283,7 +13283,7 @@
       <c r="J36" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K36" s="100"/>
+      <c r="K36" s="94"/>
       <c r="L36" s="56"/>
       <c r="M36" s="7" t="s">
         <v>435</v>
@@ -13400,7 +13400,7 @@
       <c r="K39" s="68" t="s">
         <v>518</v>
       </c>
-      <c r="L39" s="103"/>
+      <c r="L39" s="95"/>
       <c r="M39" s="53" t="s">
         <v>435</v>
       </c>
@@ -13438,7 +13438,7 @@
         <v>435</v>
       </c>
       <c r="K40" s="55"/>
-      <c r="L40" s="104"/>
+      <c r="L40" s="96"/>
       <c r="M40" s="7" t="s">
         <v>435</v>
       </c>
@@ -13517,10 +13517,10 @@
       <c r="J42" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K42" s="102" t="s">
+      <c r="K42" s="97" t="s">
         <v>525</v>
       </c>
-      <c r="L42" s="105" t="s">
+      <c r="L42" s="104" t="s">
         <v>526</v>
       </c>
       <c r="M42" s="53" t="s">
@@ -13559,8 +13559,8 @@
       <c r="J43" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K43" s="100"/>
-      <c r="L43" s="104"/>
+      <c r="K43" s="94"/>
+      <c r="L43" s="96"/>
       <c r="M43" s="7" t="s">
         <v>435</v>
       </c>
@@ -13597,8 +13597,8 @@
       <c r="J44" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K44" s="100"/>
-      <c r="L44" s="104"/>
+      <c r="K44" s="94"/>
+      <c r="L44" s="96"/>
       <c r="M44" s="7" t="s">
         <v>435</v>
       </c>
@@ -13633,8 +13633,8 @@
       <c r="J45" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K45" s="100"/>
-      <c r="L45" s="104"/>
+      <c r="K45" s="94"/>
+      <c r="L45" s="96"/>
       <c r="M45" s="7" t="s">
         <v>435</v>
       </c>
@@ -13671,8 +13671,8 @@
       <c r="J46" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K46" s="100"/>
-      <c r="L46" s="104"/>
+      <c r="K46" s="94"/>
+      <c r="L46" s="96"/>
       <c r="M46" s="7" t="s">
         <v>435</v>
       </c>
@@ -13709,8 +13709,8 @@
       <c r="J47" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K47" s="100"/>
-      <c r="L47" s="104"/>
+      <c r="K47" s="94"/>
+      <c r="L47" s="96"/>
       <c r="M47" s="7" t="s">
         <v>435</v>
       </c>
@@ -13827,7 +13827,7 @@
       <c r="J50" s="52" t="s">
         <v>435</v>
       </c>
-      <c r="K50" s="93" t="s">
+      <c r="K50" s="106" t="s">
         <v>539</v>
       </c>
       <c r="L50" s="65"/>
@@ -13867,7 +13867,7 @@
       <c r="J51" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K51" s="94"/>
+      <c r="K51" s="103"/>
       <c r="L51" s="56"/>
       <c r="M51" s="53" t="s">
         <v>435</v>
@@ -13905,7 +13905,7 @@
       <c r="J52" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K52" s="94"/>
+      <c r="K52" s="103"/>
       <c r="L52" s="56"/>
       <c r="M52" s="53" t="s">
         <v>435</v>
@@ -13943,7 +13943,7 @@
       <c r="J53" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K53" s="94"/>
+      <c r="K53" s="103"/>
       <c r="L53" s="56"/>
       <c r="M53" s="53" t="s">
         <v>435</v>
@@ -13979,7 +13979,7 @@
       <c r="J54" s="59" t="s">
         <v>435</v>
       </c>
-      <c r="K54" s="95"/>
+      <c r="K54" s="107"/>
       <c r="L54" s="66"/>
       <c r="M54" s="53" t="s">
         <v>435</v>
@@ -14099,7 +14099,7 @@
       <c r="J57" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K57" s="102" t="s">
+      <c r="K57" s="97" t="s">
         <v>556</v>
       </c>
       <c r="L57" s="56"/>
@@ -14139,7 +14139,7 @@
       <c r="J58" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K58" s="100"/>
+      <c r="K58" s="94"/>
       <c r="L58" s="56"/>
       <c r="M58" s="7" t="s">
         <v>435</v>
@@ -14175,7 +14175,7 @@
       <c r="J59" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K59" s="100"/>
+      <c r="K59" s="94"/>
       <c r="L59" s="56"/>
       <c r="M59" s="7" t="s">
         <v>435</v>
@@ -14213,7 +14213,7 @@
       <c r="J60" s="53" t="s">
         <v>435</v>
       </c>
-      <c r="K60" s="103" t="s">
+      <c r="K60" s="95" t="s">
         <v>561</v>
       </c>
       <c r="L60" s="65"/>
@@ -14253,7 +14253,7 @@
       <c r="J61" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="K61" s="104"/>
+      <c r="K61" s="96"/>
       <c r="L61" s="56" t="s">
         <v>563</v>
       </c>
@@ -14293,7 +14293,7 @@
       <c r="J62" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K62" s="104"/>
+      <c r="K62" s="96"/>
       <c r="L62" s="56" t="s">
         <v>565</v>
       </c>
@@ -14333,7 +14333,7 @@
       <c r="J63" s="44" t="s">
         <v>435</v>
       </c>
-      <c r="K63" s="102"/>
+      <c r="K63" s="97"/>
       <c r="L63" s="56"/>
       <c r="M63" s="7" t="s">
         <v>435</v>
@@ -14371,7 +14371,7 @@
       <c r="J64" s="44" t="s">
         <v>435</v>
       </c>
-      <c r="K64" s="100"/>
+      <c r="K64" s="94"/>
       <c r="L64" s="56"/>
       <c r="M64" s="7" t="s">
         <v>435</v>
@@ -14409,7 +14409,7 @@
       <c r="J65" s="44" t="s">
         <v>435</v>
       </c>
-      <c r="K65" s="100"/>
+      <c r="K65" s="94"/>
       <c r="L65" s="56" t="s">
         <v>565</v>
       </c>
@@ -14447,7 +14447,7 @@
       <c r="J66" s="44" t="s">
         <v>435</v>
       </c>
-      <c r="K66" s="100"/>
+      <c r="K66" s="94"/>
       <c r="L66" s="12"/>
       <c r="M66" s="54" t="s">
         <v>435</v>
@@ -14561,7 +14561,7 @@
       <c r="J69" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K69" s="102" t="s">
+      <c r="K69" s="97" t="s">
         <v>468</v>
       </c>
       <c r="L69" s="56" t="s">
@@ -14603,7 +14603,7 @@
       <c r="J70" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K70" s="100"/>
+      <c r="K70" s="94"/>
       <c r="L70" s="56"/>
       <c r="M70" s="7" t="s">
         <v>435</v>
@@ -14681,7 +14681,7 @@
       <c r="J72" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K72" s="102"/>
+      <c r="K72" s="97"/>
       <c r="L72" s="56"/>
       <c r="M72" s="7" t="s">
         <v>435</v>
@@ -14717,7 +14717,7 @@
       <c r="J73" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K73" s="100"/>
+      <c r="K73" s="94"/>
       <c r="L73" s="56"/>
       <c r="M73" s="7" t="s">
         <v>435</v>
@@ -14753,7 +14753,7 @@
       <c r="J74" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K74" s="100"/>
+      <c r="K74" s="94"/>
       <c r="L74" s="56"/>
       <c r="M74" s="7" t="s">
         <v>435</v>
@@ -14787,7 +14787,7 @@
       <c r="J75" s="59" t="s">
         <v>435</v>
       </c>
-      <c r="K75" s="101"/>
+      <c r="K75" s="98"/>
       <c r="L75" s="66"/>
       <c r="M75" s="7" t="s">
         <v>435</v>
@@ -14865,10 +14865,10 @@
       <c r="J77" s="52" t="s">
         <v>435</v>
       </c>
-      <c r="K77" s="93" t="s">
+      <c r="K77" s="106" t="s">
         <v>588</v>
       </c>
-      <c r="L77" s="99" t="s">
+      <c r="L77" s="93" t="s">
         <v>589</v>
       </c>
       <c r="M77" s="53" t="s">
@@ -14909,8 +14909,8 @@
       <c r="J78" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K78" s="95"/>
-      <c r="L78" s="97"/>
+      <c r="K78" s="107"/>
+      <c r="L78" s="109"/>
       <c r="M78" s="54" t="s">
         <v>435</v>
       </c>
@@ -14950,7 +14950,7 @@
       <c r="K79" s="56" t="s">
         <v>590</v>
       </c>
-      <c r="L79" s="97"/>
+      <c r="L79" s="109"/>
       <c r="M79" s="54" t="s">
         <v>435</v>
       </c>
@@ -14990,7 +14990,7 @@
       <c r="K80" s="56" t="s">
         <v>590</v>
       </c>
-      <c r="L80" s="101"/>
+      <c r="L80" s="98"/>
       <c r="M80" s="7" t="s">
         <v>435</v>
       </c>
@@ -15027,7 +15027,7 @@
       <c r="J81" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K81" s="102" t="s">
+      <c r="K81" s="97" t="s">
         <v>468</v>
       </c>
       <c r="L81" s="56" t="s">
@@ -15069,7 +15069,7 @@
       <c r="J82" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K82" s="100"/>
+      <c r="K82" s="94"/>
       <c r="L82" s="56"/>
       <c r="M82" s="7" t="s">
         <v>435</v>
@@ -15191,7 +15191,7 @@
       <c r="J85" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K85" s="102" t="s">
+      <c r="K85" s="97" t="s">
         <v>602</v>
       </c>
       <c r="L85" s="56"/>
@@ -15231,7 +15231,7 @@
       <c r="J86" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K86" s="100"/>
+      <c r="K86" s="94"/>
       <c r="L86" s="56"/>
       <c r="M86" s="7" t="s">
         <v>435</v>
@@ -15269,7 +15269,7 @@
       <c r="J87" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K87" s="100"/>
+      <c r="K87" s="94"/>
       <c r="L87" s="56"/>
       <c r="M87" s="7" t="s">
         <v>435</v>
@@ -15305,7 +15305,7 @@
       <c r="J88" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K88" s="100"/>
+      <c r="K88" s="94"/>
       <c r="L88" s="56"/>
       <c r="M88" s="7" t="s">
         <v>435</v>
@@ -15343,7 +15343,7 @@
       <c r="J89" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K89" s="100"/>
+      <c r="K89" s="94"/>
       <c r="L89" s="56"/>
       <c r="M89" s="7" t="s">
         <v>435</v>
@@ -15381,7 +15381,7 @@
       <c r="J90" s="59" t="s">
         <v>435</v>
       </c>
-      <c r="K90" s="100"/>
+      <c r="K90" s="94"/>
       <c r="L90" s="56"/>
       <c r="M90" s="7" t="s">
         <v>435</v>
@@ -15419,10 +15419,10 @@
       <c r="J91" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K91" s="93" t="s">
+      <c r="K91" s="106" t="s">
         <v>608</v>
       </c>
-      <c r="L91" s="96" t="s">
+      <c r="L91" s="108" t="s">
         <v>609</v>
       </c>
       <c r="M91" s="53" t="s">
@@ -15461,8 +15461,8 @@
       <c r="J92" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="K92" s="94"/>
-      <c r="L92" s="97"/>
+      <c r="K92" s="103"/>
+      <c r="L92" s="109"/>
       <c r="M92" s="7" t="s">
         <v>435</v>
       </c>
@@ -15499,8 +15499,8 @@
       <c r="J93" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="K93" s="94"/>
-      <c r="L93" s="97"/>
+      <c r="K93" s="103"/>
+      <c r="L93" s="109"/>
       <c r="M93" s="7" t="s">
         <v>435</v>
       </c>
@@ -15535,8 +15535,8 @@
       <c r="J94" s="59" t="s">
         <v>435</v>
       </c>
-      <c r="K94" s="95"/>
-      <c r="L94" s="98"/>
+      <c r="K94" s="107"/>
+      <c r="L94" s="110"/>
       <c r="M94" s="7" t="s">
         <v>435</v>
       </c>
@@ -15573,7 +15573,7 @@
       <c r="J95" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K95" s="99"/>
+      <c r="K95" s="93"/>
       <c r="L95" s="56"/>
       <c r="M95" s="53" t="s">
         <v>435</v>
@@ -15611,7 +15611,7 @@
       <c r="J96" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K96" s="100"/>
+      <c r="K96" s="94"/>
       <c r="L96" s="56"/>
       <c r="M96" s="53" t="s">
         <v>435</v>
@@ -15649,7 +15649,7 @@
       <c r="J97" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K97" s="100"/>
+      <c r="K97" s="94"/>
       <c r="L97" s="56"/>
       <c r="M97" s="53" t="s">
         <v>435</v>
@@ -15687,7 +15687,7 @@
       <c r="J98" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K98" s="100"/>
+      <c r="K98" s="94"/>
       <c r="L98" s="56"/>
       <c r="M98" s="53" t="s">
         <v>435</v>
@@ -15723,7 +15723,7 @@
       <c r="J99" s="59" t="s">
         <v>435</v>
       </c>
-      <c r="K99" s="101"/>
+      <c r="K99" s="98"/>
       <c r="L99" s="60"/>
       <c r="M99" s="61" t="s">
         <v>435</v>
@@ -15752,28 +15752,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="K20:K24"/>
-    <mergeCell ref="L20:L24"/>
-    <mergeCell ref="K25:K28"/>
-    <mergeCell ref="L25:L28"/>
-    <mergeCell ref="K29:K32"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="K42:K47"/>
-    <mergeCell ref="L42:L47"/>
-    <mergeCell ref="K50:K54"/>
-    <mergeCell ref="K57:K59"/>
-    <mergeCell ref="K60:K62"/>
-    <mergeCell ref="K63:K66"/>
-    <mergeCell ref="K69:K70"/>
     <mergeCell ref="K91:K94"/>
     <mergeCell ref="L91:L94"/>
     <mergeCell ref="K95:K99"/>
@@ -15782,6 +15760,28 @@
     <mergeCell ref="L77:L80"/>
     <mergeCell ref="K81:K82"/>
     <mergeCell ref="K85:K90"/>
+    <mergeCell ref="K50:K54"/>
+    <mergeCell ref="K57:K59"/>
+    <mergeCell ref="K60:K62"/>
+    <mergeCell ref="K63:K66"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="K29:K32"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="K42:K47"/>
+    <mergeCell ref="L42:L47"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="K20:K24"/>
+    <mergeCell ref="L20:L24"/>
+    <mergeCell ref="K25:K28"/>
+    <mergeCell ref="L25:L28"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="L9:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20141,8 +20141,8 @@
   </sheetPr>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Meta/Analytes3.xlsx
+++ b/Meta/Analytes3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/coffman_christian_epa_gov/Documents/Profile/Documents/Projects/GL_Data/Meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="11_44682621B0D26BC066C8CAD00103F6CB7E289151" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4473F49-FC0D-4010-B9AC-37141FCC559C}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="11_44682621B0D26BC066C8CAD00103F6CB7E289151" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A0CE1A8-8B38-4A10-8E97-372367BACC28}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3648" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3648" uniqueCount="799">
   <si>
     <t>ANALYTE</t>
   </si>
@@ -2460,9 +2460,6 @@
   </si>
   <si>
     <t>Guessing this was mislabeled for noaa ctd DO</t>
-  </si>
-  <si>
-    <t>oce remves this need to figure outu why…</t>
   </si>
 </sst>
 </file>
@@ -3078,11 +3075,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3090,10 +3111,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3107,30 +3128,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3439,8 +3436,8 @@
   </sheetPr>
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11625,8 +11622,8 @@
   </sheetPr>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11827,10 +11824,13 @@
         <v>796</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>799</v>
+        <v>364</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -11841,7 +11841,7 @@
         <v>364</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>198</v>
+        <v>797</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>223</v>
@@ -11852,13 +11852,10 @@
         <v>796</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>364</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>797</v>
+        <v>365</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>223</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -11873,7 +11870,9 @@
   </sheetPr>
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -11963,8 +11962,8 @@
       <c r="J2" s="52" t="s">
         <v>435</v>
       </c>
-      <c r="K2" s="93"/>
-      <c r="L2" s="95"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="103"/>
       <c r="M2" s="53" t="s">
         <v>435</v>
       </c>
@@ -12001,8 +12000,8 @@
       <c r="J3" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K3" s="94"/>
-      <c r="L3" s="96"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="104"/>
       <c r="M3" s="7" t="s">
         <v>435</v>
       </c>
@@ -12039,8 +12038,8 @@
       <c r="J4" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K4" s="94"/>
-      <c r="L4" s="96"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="104"/>
       <c r="M4" s="7" t="s">
         <v>435</v>
       </c>
@@ -12075,8 +12074,8 @@
       <c r="J5" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K5" s="94"/>
-      <c r="L5" s="96"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="104"/>
       <c r="M5" s="7" t="s">
         <v>435</v>
       </c>
@@ -12113,10 +12112,10 @@
       <c r="J6" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K6" s="97" t="s">
+      <c r="K6" s="102" t="s">
         <v>445</v>
       </c>
-      <c r="L6" s="99"/>
+      <c r="L6" s="107"/>
       <c r="M6" s="7" t="s">
         <v>435</v>
       </c>
@@ -12153,8 +12152,8 @@
       <c r="J7" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K7" s="94"/>
-      <c r="L7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="108"/>
       <c r="M7" s="7" t="s">
         <v>435</v>
       </c>
@@ -12189,8 +12188,8 @@
       <c r="J8" s="59" t="s">
         <v>435</v>
       </c>
-      <c r="K8" s="98"/>
-      <c r="L8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="109"/>
       <c r="M8" s="7" t="s">
         <v>435</v>
       </c>
@@ -12227,10 +12226,10 @@
       <c r="J9" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K9" s="102" t="s">
+      <c r="K9" s="110" t="s">
         <v>453</v>
       </c>
-      <c r="L9" s="104" t="s">
+      <c r="L9" s="105" t="s">
         <v>454</v>
       </c>
       <c r="M9" s="53" t="s">
@@ -12269,8 +12268,8 @@
       <c r="J10" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K10" s="103"/>
-      <c r="L10" s="96"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="104"/>
       <c r="M10" s="7" t="s">
         <v>435</v>
       </c>
@@ -12307,8 +12306,8 @@
       <c r="J11" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K11" s="103"/>
-      <c r="L11" s="96"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="104"/>
       <c r="M11" s="7" t="s">
         <v>435</v>
       </c>
@@ -12587,7 +12586,7 @@
       <c r="J18" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K18" s="97"/>
+      <c r="K18" s="102"/>
       <c r="L18" s="56"/>
       <c r="M18" s="7" t="s">
         <v>435</v>
@@ -12625,7 +12624,7 @@
       <c r="J19" s="59" t="s">
         <v>435</v>
       </c>
-      <c r="K19" s="98"/>
+      <c r="K19" s="101"/>
       <c r="L19" s="66"/>
       <c r="M19" s="58" t="s">
         <v>435</v>
@@ -12663,10 +12662,10 @@
       <c r="J20" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K20" s="97" t="s">
+      <c r="K20" s="102" t="s">
         <v>488</v>
       </c>
-      <c r="L20" s="104" t="s">
+      <c r="L20" s="105" t="s">
         <v>489</v>
       </c>
       <c r="M20" s="7" t="s">
@@ -12705,8 +12704,8 @@
       <c r="J21" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K21" s="94"/>
-      <c r="L21" s="96"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="104"/>
       <c r="M21" s="7" t="s">
         <v>435</v>
       </c>
@@ -12741,8 +12740,8 @@
       <c r="J22" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K22" s="94"/>
-      <c r="L22" s="96"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="104"/>
       <c r="M22" s="7" t="s">
         <v>435</v>
       </c>
@@ -12779,8 +12778,8 @@
       <c r="J23" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K23" s="94"/>
-      <c r="L23" s="96"/>
+      <c r="K23" s="100"/>
+      <c r="L23" s="104"/>
       <c r="M23" s="7" t="s">
         <v>435</v>
       </c>
@@ -12817,8 +12816,8 @@
       <c r="J24" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K24" s="94"/>
-      <c r="L24" s="96"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="104"/>
       <c r="M24" s="7" t="s">
         <v>435</v>
       </c>
@@ -12855,10 +12854,10 @@
       <c r="J25" s="52" t="s">
         <v>435</v>
       </c>
-      <c r="K25" s="93" t="s">
+      <c r="K25" s="99" t="s">
         <v>495</v>
       </c>
-      <c r="L25" s="95" t="s">
+      <c r="L25" s="103" t="s">
         <v>496</v>
       </c>
       <c r="M25" s="53" t="s">
@@ -12897,8 +12896,8 @@
       <c r="J26" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K26" s="94"/>
-      <c r="L26" s="96"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="104"/>
       <c r="M26" s="7" t="s">
         <v>435</v>
       </c>
@@ -12935,8 +12934,8 @@
       <c r="J27" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K27" s="94"/>
-      <c r="L27" s="96"/>
+      <c r="K27" s="100"/>
+      <c r="L27" s="104"/>
       <c r="M27" s="7" t="s">
         <v>435</v>
       </c>
@@ -12971,8 +12970,8 @@
       <c r="J28" s="59" t="s">
         <v>435</v>
       </c>
-      <c r="K28" s="98"/>
-      <c r="L28" s="105"/>
+      <c r="K28" s="101"/>
+      <c r="L28" s="106"/>
       <c r="M28" s="58" t="s">
         <v>435</v>
       </c>
@@ -13009,7 +13008,7 @@
       <c r="J29" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K29" s="97" t="s">
+      <c r="K29" s="102" t="s">
         <v>501</v>
       </c>
       <c r="L29" s="56"/>
@@ -13049,7 +13048,7 @@
       <c r="J30" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K30" s="94"/>
+      <c r="K30" s="100"/>
       <c r="L30" s="56"/>
       <c r="M30" s="7" t="s">
         <v>435</v>
@@ -13087,7 +13086,7 @@
       <c r="J31" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K31" s="94"/>
+      <c r="K31" s="100"/>
       <c r="L31" s="56"/>
       <c r="M31" s="7" t="s">
         <v>435</v>
@@ -13123,7 +13122,7 @@
       <c r="J32" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K32" s="94"/>
+      <c r="K32" s="100"/>
       <c r="L32" s="56"/>
       <c r="M32" s="7" t="s">
         <v>435</v>
@@ -13161,7 +13160,7 @@
       <c r="J33" s="52" t="s">
         <v>435</v>
       </c>
-      <c r="K33" s="93" t="s">
+      <c r="K33" s="99" t="s">
         <v>468</v>
       </c>
       <c r="L33" s="65" t="s">
@@ -13203,7 +13202,7 @@
       <c r="J34" s="59" t="s">
         <v>435</v>
       </c>
-      <c r="K34" s="98"/>
+      <c r="K34" s="101"/>
       <c r="L34" s="66"/>
       <c r="M34" s="58" t="s">
         <v>435</v>
@@ -13241,7 +13240,7 @@
       <c r="J35" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K35" s="97" t="s">
+      <c r="K35" s="102" t="s">
         <v>468</v>
       </c>
       <c r="L35" s="56" t="s">
@@ -13283,7 +13282,7 @@
       <c r="J36" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K36" s="94"/>
+      <c r="K36" s="100"/>
       <c r="L36" s="56"/>
       <c r="M36" s="7" t="s">
         <v>435</v>
@@ -13400,7 +13399,7 @@
       <c r="K39" s="68" t="s">
         <v>518</v>
       </c>
-      <c r="L39" s="95"/>
+      <c r="L39" s="103"/>
       <c r="M39" s="53" t="s">
         <v>435</v>
       </c>
@@ -13438,7 +13437,7 @@
         <v>435</v>
       </c>
       <c r="K40" s="55"/>
-      <c r="L40" s="96"/>
+      <c r="L40" s="104"/>
       <c r="M40" s="7" t="s">
         <v>435</v>
       </c>
@@ -13517,10 +13516,10 @@
       <c r="J42" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K42" s="97" t="s">
+      <c r="K42" s="102" t="s">
         <v>525</v>
       </c>
-      <c r="L42" s="104" t="s">
+      <c r="L42" s="105" t="s">
         <v>526</v>
       </c>
       <c r="M42" s="53" t="s">
@@ -13559,8 +13558,8 @@
       <c r="J43" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K43" s="94"/>
-      <c r="L43" s="96"/>
+      <c r="K43" s="100"/>
+      <c r="L43" s="104"/>
       <c r="M43" s="7" t="s">
         <v>435</v>
       </c>
@@ -13597,8 +13596,8 @@
       <c r="J44" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K44" s="94"/>
-      <c r="L44" s="96"/>
+      <c r="K44" s="100"/>
+      <c r="L44" s="104"/>
       <c r="M44" s="7" t="s">
         <v>435</v>
       </c>
@@ -13633,8 +13632,8 @@
       <c r="J45" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K45" s="94"/>
-      <c r="L45" s="96"/>
+      <c r="K45" s="100"/>
+      <c r="L45" s="104"/>
       <c r="M45" s="7" t="s">
         <v>435</v>
       </c>
@@ -13671,8 +13670,8 @@
       <c r="J46" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K46" s="94"/>
-      <c r="L46" s="96"/>
+      <c r="K46" s="100"/>
+      <c r="L46" s="104"/>
       <c r="M46" s="7" t="s">
         <v>435</v>
       </c>
@@ -13709,8 +13708,8 @@
       <c r="J47" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K47" s="94"/>
-      <c r="L47" s="96"/>
+      <c r="K47" s="100"/>
+      <c r="L47" s="104"/>
       <c r="M47" s="7" t="s">
         <v>435</v>
       </c>
@@ -13827,7 +13826,7 @@
       <c r="J50" s="52" t="s">
         <v>435</v>
       </c>
-      <c r="K50" s="106" t="s">
+      <c r="K50" s="93" t="s">
         <v>539</v>
       </c>
       <c r="L50" s="65"/>
@@ -13867,7 +13866,7 @@
       <c r="J51" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K51" s="103"/>
+      <c r="K51" s="94"/>
       <c r="L51" s="56"/>
       <c r="M51" s="53" t="s">
         <v>435</v>
@@ -13905,7 +13904,7 @@
       <c r="J52" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K52" s="103"/>
+      <c r="K52" s="94"/>
       <c r="L52" s="56"/>
       <c r="M52" s="53" t="s">
         <v>435</v>
@@ -13943,7 +13942,7 @@
       <c r="J53" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K53" s="103"/>
+      <c r="K53" s="94"/>
       <c r="L53" s="56"/>
       <c r="M53" s="53" t="s">
         <v>435</v>
@@ -13979,7 +13978,7 @@
       <c r="J54" s="59" t="s">
         <v>435</v>
       </c>
-      <c r="K54" s="107"/>
+      <c r="K54" s="95"/>
       <c r="L54" s="66"/>
       <c r="M54" s="53" t="s">
         <v>435</v>
@@ -14099,7 +14098,7 @@
       <c r="J57" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K57" s="97" t="s">
+      <c r="K57" s="102" t="s">
         <v>556</v>
       </c>
       <c r="L57" s="56"/>
@@ -14139,7 +14138,7 @@
       <c r="J58" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K58" s="94"/>
+      <c r="K58" s="100"/>
       <c r="L58" s="56"/>
       <c r="M58" s="7" t="s">
         <v>435</v>
@@ -14175,7 +14174,7 @@
       <c r="J59" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K59" s="94"/>
+      <c r="K59" s="100"/>
       <c r="L59" s="56"/>
       <c r="M59" s="7" t="s">
         <v>435</v>
@@ -14213,7 +14212,7 @@
       <c r="J60" s="53" t="s">
         <v>435</v>
       </c>
-      <c r="K60" s="95" t="s">
+      <c r="K60" s="103" t="s">
         <v>561</v>
       </c>
       <c r="L60" s="65"/>
@@ -14253,7 +14252,7 @@
       <c r="J61" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="K61" s="96"/>
+      <c r="K61" s="104"/>
       <c r="L61" s="56" t="s">
         <v>563</v>
       </c>
@@ -14293,7 +14292,7 @@
       <c r="J62" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K62" s="96"/>
+      <c r="K62" s="104"/>
       <c r="L62" s="56" t="s">
         <v>565</v>
       </c>
@@ -14333,7 +14332,7 @@
       <c r="J63" s="44" t="s">
         <v>435</v>
       </c>
-      <c r="K63" s="97"/>
+      <c r="K63" s="102"/>
       <c r="L63" s="56"/>
       <c r="M63" s="7" t="s">
         <v>435</v>
@@ -14371,7 +14370,7 @@
       <c r="J64" s="44" t="s">
         <v>435</v>
       </c>
-      <c r="K64" s="94"/>
+      <c r="K64" s="100"/>
       <c r="L64" s="56"/>
       <c r="M64" s="7" t="s">
         <v>435</v>
@@ -14409,7 +14408,7 @@
       <c r="J65" s="44" t="s">
         <v>435</v>
       </c>
-      <c r="K65" s="94"/>
+      <c r="K65" s="100"/>
       <c r="L65" s="56" t="s">
         <v>565</v>
       </c>
@@ -14447,7 +14446,7 @@
       <c r="J66" s="44" t="s">
         <v>435</v>
       </c>
-      <c r="K66" s="94"/>
+      <c r="K66" s="100"/>
       <c r="L66" s="12"/>
       <c r="M66" s="54" t="s">
         <v>435</v>
@@ -14561,7 +14560,7 @@
       <c r="J69" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K69" s="97" t="s">
+      <c r="K69" s="102" t="s">
         <v>468</v>
       </c>
       <c r="L69" s="56" t="s">
@@ -14603,7 +14602,7 @@
       <c r="J70" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K70" s="94"/>
+      <c r="K70" s="100"/>
       <c r="L70" s="56"/>
       <c r="M70" s="7" t="s">
         <v>435</v>
@@ -14681,7 +14680,7 @@
       <c r="J72" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K72" s="97"/>
+      <c r="K72" s="102"/>
       <c r="L72" s="56"/>
       <c r="M72" s="7" t="s">
         <v>435</v>
@@ -14717,7 +14716,7 @@
       <c r="J73" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K73" s="94"/>
+      <c r="K73" s="100"/>
       <c r="L73" s="56"/>
       <c r="M73" s="7" t="s">
         <v>435</v>
@@ -14753,7 +14752,7 @@
       <c r="J74" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K74" s="94"/>
+      <c r="K74" s="100"/>
       <c r="L74" s="56"/>
       <c r="M74" s="7" t="s">
         <v>435</v>
@@ -14787,7 +14786,7 @@
       <c r="J75" s="59" t="s">
         <v>435</v>
       </c>
-      <c r="K75" s="98"/>
+      <c r="K75" s="101"/>
       <c r="L75" s="66"/>
       <c r="M75" s="7" t="s">
         <v>435</v>
@@ -14865,10 +14864,10 @@
       <c r="J77" s="52" t="s">
         <v>435</v>
       </c>
-      <c r="K77" s="106" t="s">
+      <c r="K77" s="93" t="s">
         <v>588</v>
       </c>
-      <c r="L77" s="93" t="s">
+      <c r="L77" s="99" t="s">
         <v>589</v>
       </c>
       <c r="M77" s="53" t="s">
@@ -14909,8 +14908,8 @@
       <c r="J78" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K78" s="107"/>
-      <c r="L78" s="109"/>
+      <c r="K78" s="95"/>
+      <c r="L78" s="97"/>
       <c r="M78" s="54" t="s">
         <v>435</v>
       </c>
@@ -14950,7 +14949,7 @@
       <c r="K79" s="56" t="s">
         <v>590</v>
       </c>
-      <c r="L79" s="109"/>
+      <c r="L79" s="97"/>
       <c r="M79" s="54" t="s">
         <v>435</v>
       </c>
@@ -14990,7 +14989,7 @@
       <c r="K80" s="56" t="s">
         <v>590</v>
       </c>
-      <c r="L80" s="98"/>
+      <c r="L80" s="101"/>
       <c r="M80" s="7" t="s">
         <v>435</v>
       </c>
@@ -15027,7 +15026,7 @@
       <c r="J81" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K81" s="97" t="s">
+      <c r="K81" s="102" t="s">
         <v>468</v>
       </c>
       <c r="L81" s="56" t="s">
@@ -15069,7 +15068,7 @@
       <c r="J82" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K82" s="94"/>
+      <c r="K82" s="100"/>
       <c r="L82" s="56"/>
       <c r="M82" s="7" t="s">
         <v>435</v>
@@ -15191,7 +15190,7 @@
       <c r="J85" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K85" s="97" t="s">
+      <c r="K85" s="102" t="s">
         <v>602</v>
       </c>
       <c r="L85" s="56"/>
@@ -15231,7 +15230,7 @@
       <c r="J86" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K86" s="94"/>
+      <c r="K86" s="100"/>
       <c r="L86" s="56"/>
       <c r="M86" s="7" t="s">
         <v>435</v>
@@ -15269,7 +15268,7 @@
       <c r="J87" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K87" s="94"/>
+      <c r="K87" s="100"/>
       <c r="L87" s="56"/>
       <c r="M87" s="7" t="s">
         <v>435</v>
@@ -15305,7 +15304,7 @@
       <c r="J88" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K88" s="94"/>
+      <c r="K88" s="100"/>
       <c r="L88" s="56"/>
       <c r="M88" s="7" t="s">
         <v>435</v>
@@ -15343,7 +15342,7 @@
       <c r="J89" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K89" s="94"/>
+      <c r="K89" s="100"/>
       <c r="L89" s="56"/>
       <c r="M89" s="7" t="s">
         <v>435</v>
@@ -15381,7 +15380,7 @@
       <c r="J90" s="59" t="s">
         <v>435</v>
       </c>
-      <c r="K90" s="94"/>
+      <c r="K90" s="100"/>
       <c r="L90" s="56"/>
       <c r="M90" s="7" t="s">
         <v>435</v>
@@ -15419,10 +15418,10 @@
       <c r="J91" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K91" s="106" t="s">
+      <c r="K91" s="93" t="s">
         <v>608</v>
       </c>
-      <c r="L91" s="108" t="s">
+      <c r="L91" s="96" t="s">
         <v>609</v>
       </c>
       <c r="M91" s="53" t="s">
@@ -15461,8 +15460,8 @@
       <c r="J92" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="K92" s="103"/>
-      <c r="L92" s="109"/>
+      <c r="K92" s="94"/>
+      <c r="L92" s="97"/>
       <c r="M92" s="7" t="s">
         <v>435</v>
       </c>
@@ -15499,8 +15498,8 @@
       <c r="J93" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="K93" s="103"/>
-      <c r="L93" s="109"/>
+      <c r="K93" s="94"/>
+      <c r="L93" s="97"/>
       <c r="M93" s="7" t="s">
         <v>435</v>
       </c>
@@ -15535,8 +15534,8 @@
       <c r="J94" s="59" t="s">
         <v>435</v>
       </c>
-      <c r="K94" s="107"/>
-      <c r="L94" s="110"/>
+      <c r="K94" s="95"/>
+      <c r="L94" s="98"/>
       <c r="M94" s="7" t="s">
         <v>435</v>
       </c>
@@ -15573,7 +15572,7 @@
       <c r="J95" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K95" s="93"/>
+      <c r="K95" s="99"/>
       <c r="L95" s="56"/>
       <c r="M95" s="53" t="s">
         <v>435</v>
@@ -15611,7 +15610,7 @@
       <c r="J96" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K96" s="94"/>
+      <c r="K96" s="100"/>
       <c r="L96" s="56"/>
       <c r="M96" s="53" t="s">
         <v>435</v>
@@ -15649,7 +15648,7 @@
       <c r="J97" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K97" s="94"/>
+      <c r="K97" s="100"/>
       <c r="L97" s="56"/>
       <c r="M97" s="53" t="s">
         <v>435</v>
@@ -15687,7 +15686,7 @@
       <c r="J98" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K98" s="94"/>
+      <c r="K98" s="100"/>
       <c r="L98" s="56"/>
       <c r="M98" s="53" t="s">
         <v>435</v>
@@ -15723,7 +15722,7 @@
       <c r="J99" s="59" t="s">
         <v>435</v>
       </c>
-      <c r="K99" s="98"/>
+      <c r="K99" s="101"/>
       <c r="L99" s="60"/>
       <c r="M99" s="61" t="s">
         <v>435</v>
@@ -15752,6 +15751,28 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="K20:K24"/>
+    <mergeCell ref="L20:L24"/>
+    <mergeCell ref="K25:K28"/>
+    <mergeCell ref="L25:L28"/>
+    <mergeCell ref="K29:K32"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="K42:K47"/>
+    <mergeCell ref="L42:L47"/>
+    <mergeCell ref="K50:K54"/>
+    <mergeCell ref="K57:K59"/>
+    <mergeCell ref="K60:K62"/>
+    <mergeCell ref="K63:K66"/>
+    <mergeCell ref="K69:K70"/>
     <mergeCell ref="K91:K94"/>
     <mergeCell ref="L91:L94"/>
     <mergeCell ref="K95:K99"/>
@@ -15760,28 +15781,6 @@
     <mergeCell ref="L77:L80"/>
     <mergeCell ref="K81:K82"/>
     <mergeCell ref="K85:K90"/>
-    <mergeCell ref="K50:K54"/>
-    <mergeCell ref="K57:K59"/>
-    <mergeCell ref="K60:K62"/>
-    <mergeCell ref="K63:K66"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="K29:K32"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="K42:K47"/>
-    <mergeCell ref="L42:L47"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="K20:K24"/>
-    <mergeCell ref="L20:L24"/>
-    <mergeCell ref="K25:K28"/>
-    <mergeCell ref="L25:L28"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="L9:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20141,7 +20140,7 @@
   </sheetPr>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>

--- a/Meta/Analytes3.xlsx
+++ b/Meta/Analytes3.xlsx
@@ -1,26 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/vitense_kelsey_epa_gov/Documents/GL_Data/Meta/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_623434792AD3E9295BF873A6FFB3B698EFF4B668" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06527F16-FC67-493A-AFB1-F42DE04CB9C0}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Key"/>
-    <sheet r:id="rId2" sheetId="2" name="CSMI_Map"/>
-    <sheet r:id="rId3" sheetId="3" name="NOAA_Map"/>
-    <sheet r:id="rId4" sheetId="4" name="GLENDA_Map"/>
-    <sheet r:id="rId5" sheetId="5" name="flag_Map"/>
-    <sheet r:id="rId6" sheetId="6" name="GLENDA_mdl_Map"/>
-    <sheet r:id="rId7" sheetId="7" name="SeaBird_Map"/>
-    <sheet r:id="rId8" sheetId="8" name="NCCA_Map"/>
-    <sheet r:id="rId9" sheetId="9" name="UnitConversions"/>
-    <sheet r:id="rId10" sheetId="10" name="NCCA_Map_Extra"/>
-    <sheet r:id="rId11" sheetId="11" name="CSMI_namestransfer"/>
-    <sheet r:id="rId12" sheetId="12" name="SI conversion Scratchwork"/>
-    <sheet r:id="rId13" sheetId="13" name="columnNames"/>
-    <sheet r:id="rId14" sheetId="14" name="Annie_Comments"/>
+    <sheet name="Key" sheetId="1" r:id="rId1"/>
+    <sheet name="CSMI_Map" sheetId="2" r:id="rId2"/>
+    <sheet name="NOAA_Map" sheetId="3" r:id="rId3"/>
+    <sheet name="GLENDA_Map" sheetId="4" r:id="rId4"/>
+    <sheet name="flag_Map" sheetId="5" r:id="rId5"/>
+    <sheet name="GLENDA_mdl_Map" sheetId="6" r:id="rId6"/>
+    <sheet name="SeaBird_Map" sheetId="7" r:id="rId7"/>
+    <sheet name="NCCA_Map" sheetId="8" r:id="rId8"/>
+    <sheet name="UnitConversions" sheetId="9" r:id="rId9"/>
+    <sheet name="NCCA_Map_Extra" sheetId="10" r:id="rId10"/>
+    <sheet name="CSMI_namestransfer" sheetId="11" r:id="rId11"/>
+    <sheet name="SI conversion Scratchwork" sheetId="12" r:id="rId12"/>
+    <sheet name="columnNames" sheetId="13" r:id="rId13"/>
+    <sheet name="Annie_Comments" sheetId="14" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1">CSMI_Map!$H$1:$H$67</definedName>
@@ -29,12 +35,25 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7">NCCA_Map!$A$1:$A$57</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">Key!$B$1</definedName>
   </definedNames>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3648" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3651" uniqueCount="799">
   <si>
     <t>ANALYTE</t>
   </si>
@@ -2439,14 +2458,16 @@
   <si>
     <t>Turbidity, Nephelometric Turbidity Units</t>
   </si>
+  <si>
+    <t>added this line after change from % to percent</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="h:mm:ss Am/Pm"/>
-    <numFmt numFmtId="165" formatCode="h:mm:ss tt"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="h:mm:ss\ \t\t"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -2477,7 +2498,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFff0000"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2498,17 +2519,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffff00"/>
+        <fgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFc6d9f1"/>
+        <fgColor rgb="FFC6D9F1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFfdeada"/>
+        <fgColor rgb="FFFDEADA"/>
       </patternFill>
     </fill>
   </fills>
@@ -2558,31 +2579,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2599,7 +2620,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="FFc0504d"/>
+        <color rgb="FFC0504D"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -2744,16 +2765,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2761,284 +2782,304 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="97">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="19" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="21" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="21" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="21" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3049,10 +3090,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -3090,71 +3131,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3182,7 +3223,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -3205,11 +3246,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -3218,13 +3259,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -3234,7 +3275,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -3243,7 +3284,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -3252,7 +3293,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -3260,10 +3301,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -3328,7 +3369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -3336,16 +3377,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" style="22" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="22" width="49.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="22" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="22" width="12.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="12.578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.26171875" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.26171875" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.26171875" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -3362,7 +3403,7 @@
         <v>755</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="7" t="s">
         <v>436</v>
       </c>
@@ -3379,7 +3420,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="7" t="s">
         <v>347</v>
       </c>
@@ -3396,7 +3437,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7" t="s">
         <v>465</v>
       </c>
@@ -3413,7 +3454,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="7" t="s">
         <v>469</v>
       </c>
@@ -3430,7 +3471,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="7" t="s">
         <v>473</v>
       </c>
@@ -3447,7 +3488,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="7" t="s">
         <v>620</v>
       </c>
@@ -3464,7 +3505,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="7" t="s">
         <v>88</v>
       </c>
@@ -3481,7 +3522,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>23</v>
       </c>
@@ -3498,7 +3539,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7" t="s">
         <v>93</v>
       </c>
@@ -3515,7 +3556,7 @@
         <v>227</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7" t="s">
         <v>446</v>
       </c>
@@ -3532,7 +3573,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7" t="s">
         <v>506</v>
       </c>
@@ -3549,7 +3590,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7" t="s">
         <v>507</v>
       </c>
@@ -3566,7 +3607,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7" t="s">
         <v>509</v>
       </c>
@@ -3583,7 +3624,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>511</v>
       </c>
@@ -3600,11 +3641,11 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="B16" s="87" t="s">
+      <c r="B16" s="76" t="s">
         <v>771</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -3617,7 +3658,7 @@
         <v>233</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="7" t="s">
         <v>517</v>
       </c>
@@ -3634,7 +3675,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="7" t="s">
         <v>63</v>
       </c>
@@ -3651,7 +3692,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7" t="s">
         <v>55</v>
       </c>
@@ -3668,11 +3709,11 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="B20" s="87" t="s">
+      <c r="B20" s="76" t="s">
         <v>775</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -3685,7 +3726,7 @@
         <v>539</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>72</v>
       </c>
@@ -3702,7 +3743,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="7" t="s">
         <v>204</v>
       </c>
@@ -3719,7 +3760,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="7" t="s">
         <v>486</v>
       </c>
@@ -3736,11 +3777,11 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="B24" s="87" t="s">
+      <c r="B24" s="76" t="s">
         <v>779</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -3753,7 +3794,7 @@
         <v>539</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="7" t="s">
         <v>269</v>
       </c>
@@ -3770,7 +3811,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="7" t="s">
         <v>223</v>
       </c>
@@ -3787,7 +3828,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>83</v>
       </c>
@@ -3804,7 +3845,7 @@
         <v>782</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="7" t="s">
         <v>66</v>
       </c>
@@ -3821,7 +3862,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="7" t="s">
         <v>59</v>
       </c>
@@ -3838,11 +3879,11 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="B30" s="87" t="s">
+      <c r="B30" s="76" t="s">
         <v>785</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -3855,7 +3896,7 @@
         <v>539</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="7" t="s">
         <v>77</v>
       </c>
@@ -3872,7 +3913,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="7" t="s">
         <v>232</v>
       </c>
@@ -3889,7 +3930,7 @@
         <v>233</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>574</v>
       </c>
@@ -3906,7 +3947,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="7" t="s">
         <v>575</v>
       </c>
@@ -3923,7 +3964,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="7" t="s">
         <v>319</v>
       </c>
@@ -3940,7 +3981,7 @@
         <v>318</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="7" t="s">
         <v>588</v>
       </c>
@@ -3957,7 +3998,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="7" t="s">
         <v>356</v>
       </c>
@@ -3974,7 +4015,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="7" t="s">
         <v>594</v>
       </c>
@@ -3991,7 +4032,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>595</v>
       </c>
@@ -4008,7 +4049,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="7" t="s">
         <v>95</v>
       </c>
@@ -4025,7 +4066,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="7" t="s">
         <v>31</v>
       </c>
@@ -4042,7 +4083,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="7" t="s">
         <v>327</v>
       </c>
@@ -4059,7 +4100,7 @@
         <v>326</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="7" t="s">
         <v>612</v>
       </c>
@@ -4076,7 +4117,7 @@
         <v>276</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="7" t="s">
         <v>609</v>
       </c>
@@ -4099,7 +4140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -4107,34 +4148,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" style="20" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="22" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="22" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="22" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="21" width="30.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="21" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="18.26171875" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="26.15625" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.734375" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.26171875" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="23" width="13.578125" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="16" t="s">
         <v>265</v>
       </c>
@@ -4169,7 +4196,7 @@
       <c r="V1" s="6"/>
       <c r="W1" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="16" t="s">
         <v>265</v>
       </c>
@@ -4204,7 +4231,7 @@
       <c r="V2" s="6"/>
       <c r="W2" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="16" t="s">
         <v>265</v>
       </c>
@@ -4239,7 +4266,7 @@
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="16" t="s">
         <v>265</v>
       </c>
@@ -4274,7 +4301,7 @@
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="16" t="s">
         <v>265</v>
       </c>
@@ -4309,7 +4336,7 @@
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="16" t="s">
         <v>265</v>
       </c>
@@ -4344,7 +4371,7 @@
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="16" t="s">
         <v>265</v>
       </c>
@@ -4379,7 +4406,7 @@
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="16" t="s">
         <v>265</v>
       </c>
@@ -4414,7 +4441,7 @@
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="17">
+    <row r="9" spans="1:23" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="18"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -4439,7 +4466,7 @@
       <c r="V9" s="18"/>
       <c r="W9" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="16" t="s">
         <v>270</v>
       </c>
@@ -4466,7 +4493,7 @@
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="16" t="s">
         <v>271</v>
       </c>
@@ -4499,7 +4526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -4507,14 +4534,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" style="22" width="10.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="22" width="24.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="10.26171875" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.26171875" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.578125" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7" t="s">
         <v>156</v>
       </c>
@@ -4525,7 +4552,7 @@
         <v>139</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="7" t="s">
         <v>119</v>
       </c>
@@ -4536,7 +4563,7 @@
         <v>194</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="7" t="s">
         <v>119</v>
       </c>
@@ -4547,7 +4574,7 @@
         <v>194</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7" t="s">
         <v>119</v>
       </c>
@@ -4558,7 +4585,7 @@
         <v>194</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="7" t="s">
         <v>119</v>
       </c>
@@ -4569,7 +4596,7 @@
         <v>194</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="7" t="s">
         <v>119</v>
       </c>
@@ -4580,7 +4607,7 @@
         <v>194</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="7" t="s">
         <v>119</v>
       </c>
@@ -4591,7 +4618,7 @@
         <v>198</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="7" t="s">
         <v>119</v>
       </c>
@@ -4602,7 +4629,7 @@
         <v>198</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>119</v>
       </c>
@@ -4613,7 +4640,7 @@
         <v>198</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7" t="s">
         <v>119</v>
       </c>
@@ -4624,7 +4651,7 @@
         <v>198</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7" t="s">
         <v>119</v>
       </c>
@@ -4635,7 +4662,7 @@
         <v>198</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7" t="s">
         <v>119</v>
       </c>
@@ -4646,7 +4673,7 @@
         <v>198</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7" t="s">
         <v>119</v>
       </c>
@@ -4657,7 +4684,7 @@
         <v>198</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7" t="s">
         <v>119</v>
       </c>
@@ -4668,7 +4695,7 @@
         <v>198</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>119</v>
       </c>
@@ -4679,7 +4706,7 @@
         <v>198</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="7" t="s">
         <v>119</v>
       </c>
@@ -4690,7 +4717,7 @@
         <v>198</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="7" t="s">
         <v>119</v>
       </c>
@@ -4701,7 +4728,7 @@
         <v>194</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="7" t="s">
         <v>119</v>
       </c>
@@ -4712,7 +4739,7 @@
         <v>194</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7" t="s">
         <v>119</v>
       </c>
@@ -4723,7 +4750,7 @@
         <v>194</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="7" t="s">
         <v>119</v>
       </c>
@@ -4734,7 +4761,7 @@
         <v>194</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>120</v>
       </c>
@@ -4745,7 +4772,7 @@
         <v>211</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="7" t="s">
         <v>120</v>
       </c>
@@ -4756,7 +4783,7 @@
         <v>212</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="7" t="s">
         <v>120</v>
       </c>
@@ -4767,7 +4794,7 @@
         <v>211</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="7" t="s">
         <v>120</v>
       </c>
@@ -4778,7 +4805,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="7" t="s">
         <v>120</v>
       </c>
@@ -4789,7 +4816,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="7" t="s">
         <v>120</v>
       </c>
@@ -4800,7 +4827,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>120</v>
       </c>
@@ -4811,7 +4838,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="7" t="s">
         <v>120</v>
       </c>
@@ -4822,7 +4849,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="7" t="s">
         <v>120</v>
       </c>
@@ -4833,7 +4860,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7" t="s">
         <v>120</v>
       </c>
@@ -4844,7 +4871,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="7" t="s">
         <v>120</v>
       </c>
@@ -4855,7 +4882,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="7" t="s">
         <v>120</v>
       </c>
@@ -4866,7 +4893,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>120</v>
       </c>
@@ -4877,7 +4904,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="7" t="s">
         <v>120</v>
       </c>
@@ -4888,7 +4915,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="7" t="s">
         <v>120</v>
       </c>
@@ -4899,7 +4926,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="7" t="s">
         <v>120</v>
       </c>
@@ -4910,7 +4937,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="7" t="s">
         <v>120</v>
       </c>
@@ -4921,7 +4948,7 @@
         <v>218</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="7" t="s">
         <v>120</v>
       </c>
@@ -4932,7 +4959,7 @@
         <v>218</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>120</v>
       </c>
@@ -4943,7 +4970,7 @@
         <v>218</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="7" t="s">
         <v>120</v>
       </c>
@@ -4954,7 +4981,7 @@
         <v>222</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="7" t="s">
         <v>120</v>
       </c>
@@ -4965,7 +4992,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="7" t="s">
         <v>120</v>
       </c>
@@ -4976,7 +5003,7 @@
         <v>225</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="7" t="s">
         <v>120</v>
       </c>
@@ -4987,7 +5014,7 @@
         <v>227</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="7" t="s">
         <v>120</v>
       </c>
@@ -4998,7 +5025,7 @@
         <v>229</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>120</v>
       </c>
@@ -5009,7 +5036,7 @@
         <v>231</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="7" t="s">
         <v>120</v>
       </c>
@@ -5020,7 +5047,7 @@
         <v>233</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="7" t="s">
         <v>120</v>
       </c>
@@ -5031,7 +5058,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="7" t="s">
         <v>13</v>
       </c>
@@ -5042,7 +5069,7 @@
         <v>235</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row r="49" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="7" t="s">
         <v>13</v>
       </c>
@@ -5053,7 +5080,7 @@
         <v>237</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="7" t="s">
         <v>13</v>
       </c>
@@ -5064,7 +5091,7 @@
         <v>239</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row r="51" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>13</v>
       </c>
@@ -5075,7 +5102,7 @@
         <v>227</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row r="52" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="7" t="s">
         <v>13</v>
       </c>
@@ -5086,7 +5113,7 @@
         <v>227</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row r="53" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="7" t="s">
         <v>13</v>
       </c>
@@ -5097,7 +5124,7 @@
         <v>229</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row r="54" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="7" t="s">
         <v>13</v>
       </c>
@@ -5108,7 +5135,7 @@
         <v>231</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row r="55" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="7" t="s">
         <v>13</v>
       </c>
@@ -5119,7 +5146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+    <row r="56" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="7" t="s">
         <v>13</v>
       </c>
@@ -5130,7 +5157,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+    <row r="57" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>13</v>
       </c>
@@ -5141,7 +5168,7 @@
         <v>231</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+    <row r="58" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="7" t="s">
         <v>13</v>
       </c>
@@ -5152,7 +5179,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+    <row r="59" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="7" t="s">
         <v>13</v>
       </c>
@@ -5163,7 +5190,7 @@
         <v>248</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+    <row r="60" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="7" t="s">
         <v>13</v>
       </c>
@@ -5174,7 +5201,7 @@
         <v>248</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+    <row r="61" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="7" t="s">
         <v>13</v>
       </c>
@@ -5185,7 +5212,7 @@
         <v>248</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+    <row r="62" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="7" t="s">
         <v>13</v>
       </c>
@@ -5196,7 +5223,7 @@
         <v>248</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+    <row r="63" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>13</v>
       </c>
@@ -5207,7 +5234,7 @@
         <v>253</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+    <row r="64" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="7" t="s">
         <v>13</v>
       </c>
@@ -5218,7 +5245,7 @@
         <v>248</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+    <row r="65" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="7" t="s">
         <v>13</v>
       </c>
@@ -5229,7 +5256,7 @@
         <v>231</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+    <row r="66" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="7" t="s">
         <v>13</v>
       </c>
@@ -5240,7 +5267,7 @@
         <v>257</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+    <row r="67" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="7" t="s">
         <v>13</v>
       </c>
@@ -5251,7 +5278,7 @@
         <v>259</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+    <row r="68" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="7" t="s">
         <v>13</v>
       </c>
@@ -5262,7 +5289,7 @@
         <v>261</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+    <row r="69" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>13</v>
       </c>
@@ -5273,7 +5300,7 @@
         <v>261</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+    <row r="70" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="7" t="s">
         <v>13</v>
       </c>
@@ -5284,7 +5311,7 @@
         <v>261</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+    <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="7" t="s">
         <v>13</v>
       </c>
@@ -5301,7 +5328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -5309,17 +5336,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" style="31" width="19.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="31" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="31" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="32" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="31" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="32" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="19.734375" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.734375" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.734375" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.578125" style="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="25" t="s">
         <v>173</v>
       </c>
@@ -5339,7 +5365,7 @@
         <v>178</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="28" t="s">
         <v>179</v>
       </c>
@@ -5357,9 +5383,10 @@
       </c>
       <c r="F2" s="25">
         <f>E2/C2</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+        <v>2.1391821402503068</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="25" t="s">
         <v>179</v>
       </c>
@@ -5377,9 +5404,10 @@
       </c>
       <c r="F3" s="25">
         <f>E3/C3</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>2.1391821402503068</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="25" t="s">
         <v>182</v>
       </c>
@@ -5397,9 +5425,10 @@
       </c>
       <c r="F4" s="29">
         <f>E4/C4</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="30" t="s">
         <v>183</v>
       </c>
@@ -5417,9 +5446,10 @@
       </c>
       <c r="F5" s="25">
         <f>E5/C5</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <v>2.1391821402503068</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -5427,7 +5457,7 @@
       <c r="E6" s="25"/>
       <c r="F6" s="29"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="25"/>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -5435,7 +5465,7 @@
       <c r="E7" s="25"/>
       <c r="F7" s="29"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="25"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -5443,7 +5473,7 @@
       <c r="E8" s="25"/>
       <c r="F8" s="29"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="25" t="s">
         <v>184</v>
       </c>
@@ -5463,7 +5493,7 @@
         <v>189</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="25" t="s">
         <v>190</v>
       </c>
@@ -5483,7 +5513,7 @@
         <v>192</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="25"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -5491,7 +5521,7 @@
       <c r="E11" s="25"/>
       <c r="F11" s="29"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -5499,15 +5529,17 @@
       <c r="E12" s="25"/>
       <c r="F12" s="29"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="29">
         <v>1</v>
       </c>
       <c r="B13" s="25">
         <f>1/1000</f>
+        <v>1E-3</v>
       </c>
       <c r="C13" s="25">
         <f>1/60.08</f>
+        <v>1.6644474034620507E-2</v>
       </c>
       <c r="D13" s="29">
         <v>1</v>
@@ -5519,9 +5551,10 @@
         <v>1000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="25">
         <f>PRODUCT(A13:F13)</f>
+        <v>0.46746837549933429</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
@@ -5535,7 +5568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -5543,24 +5576,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" style="22" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="22" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="22" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="22" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="24" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="11.41796875" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.734375" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="13.578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.26171875" style="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7" t="s">
         <v>117</v>
       </c>
@@ -5589,7 +5614,7 @@
       <c r="L1" s="7"/>
       <c r="M1" s="23"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="7" t="s">
         <v>124</v>
       </c>
@@ -5614,7 +5639,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="23"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="7" t="s">
         <v>128</v>
       </c>
@@ -5639,7 +5664,7 @@
       <c r="L3" s="7"/>
       <c r="M3" s="23"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7" t="s">
         <v>132</v>
       </c>
@@ -5664,7 +5689,7 @@
       <c r="L4" s="7"/>
       <c r="M4" s="23"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="7" t="s">
         <v>135</v>
       </c>
@@ -5689,7 +5714,7 @@
       <c r="L5" s="7"/>
       <c r="M5" s="23"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="7" t="s">
         <v>138</v>
       </c>
@@ -5714,7 +5739,7 @@
       <c r="L6" s="7"/>
       <c r="M6" s="23"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="7" t="s">
         <v>141</v>
       </c>
@@ -5739,7 +5764,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="23"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="7" t="s">
         <v>144</v>
       </c>
@@ -5764,7 +5789,7 @@
       <c r="L8" s="7"/>
       <c r="M8" s="23"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>146</v>
       </c>
@@ -5791,7 +5816,7 @@
         <v>3.5006944444444446</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7" t="s">
         <v>147</v>
       </c>
@@ -5818,7 +5843,7 @@
         <v>3.4541666666666666</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7" t="s">
         <v>151</v>
       </c>
@@ -5845,7 +5870,7 @@
         <v>3.4479166666666665</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7" t="s">
         <v>155</v>
       </c>
@@ -5870,7 +5895,7 @@
       <c r="L12" s="7"/>
       <c r="M12" s="23"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7" t="s">
         <v>159</v>
       </c>
@@ -5895,7 +5920,7 @@
       <c r="L13" s="7"/>
       <c r="M13" s="23"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7" t="s">
         <v>163</v>
       </c>
@@ -5914,7 +5939,7 @@
       <c r="L14" s="7"/>
       <c r="M14" s="23"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>165</v>
       </c>
@@ -5933,7 +5958,7 @@
       <c r="L15" s="7"/>
       <c r="M15" s="23"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="7" t="s">
         <v>167</v>
       </c>
@@ -5952,7 +5977,7 @@
       <c r="L16" s="7"/>
       <c r="M16" s="23"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="7" t="s">
         <v>169</v>
       </c>
@@ -5971,7 +5996,7 @@
       <c r="L17" s="7"/>
       <c r="M17" s="23"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -5988,7 +6013,7 @@
       <c r="L18" s="7"/>
       <c r="M18" s="23"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -6005,7 +6030,7 @@
       <c r="L19" s="7"/>
       <c r="M19" s="23"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -6022,7 +6047,7 @@
       <c r="L20" s="7"/>
       <c r="M20" s="23"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -6039,7 +6064,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="23"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -6062,7 +6087,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -6070,34 +6095,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" style="19" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="19" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="19" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="20" width="10.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="20" width="13.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="20" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="20" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="20" width="56.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="20" width="25.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="19" width="8.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="21" width="64.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="19" width="13.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="19" width="26.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="19" width="12.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="22" width="34.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="22" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="22" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="22" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="26.15625" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.15625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26171875" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.41796875" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.41796875" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="56.26171875" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.15625" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.26171875" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="64.26171875" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.41796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.26171875" style="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.26171875" style="19" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="34.734375" style="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.734375" style="22" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="10.578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="13.578125" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6144,7 +6164,7 @@
       <c r="V1" s="7"/>
       <c r="W1" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
@@ -6185,7 +6205,7 @@
       <c r="V2" s="11"/>
       <c r="W2" s="13"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -6224,7 +6244,7 @@
       <c r="V3" s="11"/>
       <c r="W3" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
@@ -6263,7 +6283,7 @@
       <c r="V4" s="11"/>
       <c r="W4" s="13"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6" t="s">
         <v>20</v>
       </c>
@@ -6300,7 +6320,7 @@
       <c r="V5" s="11"/>
       <c r="W5" s="13"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
@@ -6337,7 +6357,7 @@
       <c r="V6" s="11"/>
       <c r="W6" s="13"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6" t="s">
         <v>27</v>
       </c>
@@ -6376,7 +6396,7 @@
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
@@ -6415,7 +6435,7 @@
       <c r="V8" s="11"/>
       <c r="W8" s="13"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6" t="s">
         <v>30</v>
       </c>
@@ -6452,7 +6472,7 @@
       <c r="V9" s="11"/>
       <c r="W9" s="13"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="6" t="s">
         <v>35</v>
       </c>
@@ -6493,7 +6513,7 @@
       <c r="V10" s="11"/>
       <c r="W10" s="13"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6" t="s">
         <v>35</v>
       </c>
@@ -6532,7 +6552,7 @@
       <c r="V11" s="11"/>
       <c r="W11" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="6" t="s">
         <v>43</v>
       </c>
@@ -6571,7 +6591,7 @@
       <c r="V12" s="11"/>
       <c r="W12" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="6" t="s">
         <v>43</v>
       </c>
@@ -6610,7 +6630,7 @@
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="6" t="s">
         <v>43</v>
       </c>
@@ -6649,7 +6669,7 @@
       <c r="V14" s="11"/>
       <c r="W14" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="6" t="s">
         <v>47</v>
       </c>
@@ -6688,7 +6708,7 @@
       <c r="V15" s="11"/>
       <c r="W15" s="13"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="6" t="s">
         <v>47</v>
       </c>
@@ -6727,7 +6747,7 @@
       <c r="V16" s="11"/>
       <c r="W16" s="13"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="6" t="s">
         <v>51</v>
       </c>
@@ -6764,7 +6784,7 @@
       <c r="V17" s="11"/>
       <c r="W17" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6" t="s">
         <v>51</v>
       </c>
@@ -6801,7 +6821,7 @@
       <c r="V18" s="11"/>
       <c r="W18" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="6" t="s">
         <v>53</v>
       </c>
@@ -6840,7 +6860,7 @@
       <c r="V19" s="11"/>
       <c r="W19" s="13"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="6" t="s">
         <v>57</v>
       </c>
@@ -6879,7 +6899,7 @@
       <c r="V20" s="11"/>
       <c r="W20" s="13"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="6" t="s">
         <v>61</v>
       </c>
@@ -6916,7 +6936,7 @@
       <c r="V21" s="11"/>
       <c r="W21" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="6" t="s">
         <v>64</v>
       </c>
@@ -6953,7 +6973,7 @@
       <c r="V22" s="11"/>
       <c r="W22" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="6" t="s">
         <v>67</v>
       </c>
@@ -6992,7 +7012,7 @@
       <c r="V23" s="11"/>
       <c r="W23" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="6" t="s">
         <v>70</v>
       </c>
@@ -7029,7 +7049,7 @@
       <c r="V24" s="11"/>
       <c r="W24" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="6" t="s">
         <v>70</v>
       </c>
@@ -7068,7 +7088,7 @@
       <c r="V25" s="11"/>
       <c r="W25" s="13"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="6" t="s">
         <v>70</v>
       </c>
@@ -7105,7 +7125,7 @@
       <c r="V26" s="11"/>
       <c r="W26" s="13"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="6" t="s">
         <v>75</v>
       </c>
@@ -7144,7 +7164,7 @@
       <c r="V27" s="11"/>
       <c r="W27" s="13"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="6" t="s">
         <v>75</v>
       </c>
@@ -7181,7 +7201,7 @@
       <c r="V28" s="11"/>
       <c r="W28" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="6" t="s">
         <v>75</v>
       </c>
@@ -7218,7 +7238,7 @@
       <c r="V29" s="11"/>
       <c r="W29" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="6" t="s">
         <v>13</v>
       </c>
@@ -7255,7 +7275,7 @@
       <c r="V30" s="11"/>
       <c r="W30" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="6" t="s">
         <v>13</v>
       </c>
@@ -7294,7 +7314,7 @@
       <c r="V31" s="11"/>
       <c r="W31" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="6" t="s">
         <v>13</v>
       </c>
@@ -7331,7 +7351,7 @@
       <c r="V32" s="11"/>
       <c r="W32" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="6" t="s">
         <v>13</v>
       </c>
@@ -7368,7 +7388,7 @@
       <c r="V33" s="11"/>
       <c r="W33" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="6" t="s">
         <v>13</v>
       </c>
@@ -7409,7 +7429,7 @@
       <c r="V34" s="11"/>
       <c r="W34" s="13"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="6" t="s">
         <v>13</v>
       </c>
@@ -7448,7 +7468,7 @@
       <c r="V35" s="11"/>
       <c r="W35" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="6" t="s">
         <v>13</v>
       </c>
@@ -7485,7 +7505,7 @@
       <c r="V36" s="11"/>
       <c r="W36" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="6" t="s">
         <v>13</v>
       </c>
@@ -7522,7 +7542,7 @@
       <c r="V37" s="11"/>
       <c r="W37" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="6" t="s">
         <v>13</v>
       </c>
@@ -7563,7 +7583,7 @@
       <c r="V38" s="11"/>
       <c r="W38" s="13"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="6" t="s">
         <v>13</v>
       </c>
@@ -7602,7 +7622,7 @@
       <c r="V39" s="11"/>
       <c r="W39" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="6" t="s">
         <v>13</v>
       </c>
@@ -7639,7 +7659,7 @@
       <c r="V40" s="11"/>
       <c r="W40" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="6" t="s">
         <v>13</v>
       </c>
@@ -7676,7 +7696,7 @@
       <c r="V41" s="11"/>
       <c r="W41" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="6" t="s">
         <v>13</v>
       </c>
@@ -7713,7 +7733,7 @@
       <c r="V42" s="11"/>
       <c r="W42" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="6" t="s">
         <v>13</v>
       </c>
@@ -7752,7 +7772,7 @@
       <c r="V43" s="11"/>
       <c r="W43" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="6" t="s">
         <v>13</v>
       </c>
@@ -7789,7 +7809,7 @@
       <c r="V44" s="11"/>
       <c r="W44" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="6" t="s">
         <v>13</v>
       </c>
@@ -7828,7 +7848,7 @@
       <c r="V45" s="11"/>
       <c r="W45" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="6" t="s">
         <v>13</v>
       </c>
@@ -7865,7 +7885,7 @@
       <c r="V46" s="11"/>
       <c r="W46" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="6" t="s">
         <v>13</v>
       </c>
@@ -7904,7 +7924,7 @@
       <c r="V47" s="11"/>
       <c r="W47" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="6" t="s">
         <v>13</v>
       </c>
@@ -7941,7 +7961,7 @@
       <c r="V48" s="11"/>
       <c r="W48" s="13"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" customFormat="1" s="17">
+    <row r="49" spans="1:23" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="18"/>
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
@@ -7966,7 +7986,7 @@
       <c r="V49" s="18"/>
       <c r="W49" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" customFormat="1" s="17">
+    <row r="50" spans="1:23" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="18"/>
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
@@ -7991,7 +8011,7 @@
       <c r="V50" s="18"/>
       <c r="W50" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row r="51" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -8026,7 +8046,7 @@
       <c r="V51" s="7"/>
       <c r="W51" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row r="52" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -8061,7 +8081,7 @@
       <c r="V52" s="7"/>
       <c r="W52" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row r="53" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -8096,7 +8116,7 @@
       <c r="V53" s="7"/>
       <c r="W53" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row r="54" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -8137,7 +8157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -8145,24 +8165,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" style="19" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="20" width="24.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="20" width="24.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="20" width="12.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="21" width="75.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="32" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="20" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="22" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="21" width="64.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="21" width="35.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="21.734375" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.83984375" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.26171875" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26171875" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="75.26171875" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.578125" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.734375" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.734375" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="64.41796875" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.26171875" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.578125" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="79" t="s">
+    <row r="1" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="68" t="s">
         <v>156</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -8177,7 +8197,7 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="80" t="s">
+      <c r="F1" s="69" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -8199,7 +8219,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="165">
+    <row r="2" spans="1:12" ht="165" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="18" t="s">
         <v>120</v>
       </c>
@@ -8231,7 +8251,7 @@
       </c>
       <c r="L2" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="58.5">
+    <row r="3" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="18" t="s">
         <v>120</v>
       </c>
@@ -8263,7 +8283,7 @@
       </c>
       <c r="L3" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="18" t="s">
         <v>120</v>
       </c>
@@ -8291,7 +8311,7 @@
       <c r="K4" s="14"/>
       <c r="L4" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="18" t="s">
         <v>120</v>
       </c>
@@ -8319,7 +8339,7 @@
       <c r="K5" s="14"/>
       <c r="L5" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="18" t="s">
         <v>120</v>
       </c>
@@ -8347,7 +8367,7 @@
       <c r="K6" s="14"/>
       <c r="L6" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="32.25">
+    <row r="7" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="18" t="s">
         <v>120</v>
       </c>
@@ -8377,7 +8397,7 @@
       <c r="K7" s="14"/>
       <c r="L7" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="32.25">
+    <row r="8" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="18" t="s">
         <v>120</v>
       </c>
@@ -8407,7 +8427,7 @@
       <c r="K8" s="14"/>
       <c r="L8" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="32.25">
+    <row r="9" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="18" t="s">
         <v>120</v>
       </c>
@@ -8437,7 +8457,7 @@
       <c r="K9" s="14"/>
       <c r="L9" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="18" t="s">
         <v>120</v>
       </c>
@@ -8465,7 +8485,7 @@
       <c r="K10" s="14"/>
       <c r="L10" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="85.5">
+    <row r="11" spans="1:12" ht="85.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="18" t="s">
         <v>120</v>
       </c>
@@ -8493,7 +8513,7 @@
       </c>
       <c r="L11" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="85.5">
+    <row r="12" spans="1:12" ht="85.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="18" t="s">
         <v>120</v>
       </c>
@@ -8523,7 +8543,7 @@
       </c>
       <c r="L12" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="18" t="s">
         <v>120</v>
       </c>
@@ -8553,7 +8573,7 @@
       </c>
       <c r="L13" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="18" t="s">
         <v>120</v>
       </c>
@@ -8583,7 +8603,7 @@
       </c>
       <c r="L14" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="18" t="s">
         <v>120</v>
       </c>
@@ -8611,7 +8631,7 @@
       <c r="K15" s="14"/>
       <c r="L15" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="18" t="s">
         <v>120</v>
       </c>
@@ -8639,7 +8659,7 @@
       <c r="K16" s="14"/>
       <c r="L16" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="18" t="s">
         <v>120</v>
       </c>
@@ -8667,7 +8687,7 @@
       <c r="K17" s="14"/>
       <c r="L17" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="18" t="s">
         <v>120</v>
       </c>
@@ -8695,7 +8715,7 @@
       <c r="K18" s="14"/>
       <c r="L18" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="18" t="s">
         <v>120</v>
       </c>
@@ -8723,7 +8743,7 @@
       <c r="K19" s="14"/>
       <c r="L19" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="18" t="s">
         <v>120</v>
       </c>
@@ -8755,7 +8775,7 @@
       </c>
       <c r="L20" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="18" t="s">
         <v>120</v>
       </c>
@@ -8787,7 +8807,7 @@
       </c>
       <c r="L21" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="18" t="s">
         <v>120</v>
       </c>
@@ -8815,7 +8835,7 @@
       <c r="K22" s="14"/>
       <c r="L22" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="18" t="s">
         <v>120</v>
       </c>
@@ -8847,7 +8867,7 @@
       </c>
       <c r="L23" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="18" t="s">
         <v>120</v>
       </c>
@@ -8877,7 +8897,7 @@
       <c r="K24" s="14"/>
       <c r="L24" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="18" t="s">
         <v>120</v>
       </c>
@@ -8905,7 +8925,7 @@
       <c r="K25" s="14"/>
       <c r="L25" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="18" t="s">
         <v>120</v>
       </c>
@@ -8933,7 +8953,7 @@
       <c r="K26" s="14"/>
       <c r="L26" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="18" t="s">
         <v>120</v>
       </c>
@@ -8963,7 +8983,7 @@
       <c r="K27" s="14"/>
       <c r="L27" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="18" t="s">
         <v>120</v>
       </c>
@@ -8991,7 +9011,7 @@
       <c r="K28" s="14"/>
       <c r="L28" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="18" t="s">
         <v>120</v>
       </c>
@@ -9019,7 +9039,7 @@
       <c r="K29" s="14"/>
       <c r="L29" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="18" t="s">
         <v>120</v>
       </c>
@@ -9051,7 +9071,7 @@
       </c>
       <c r="L30" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="18" t="s">
         <v>120</v>
       </c>
@@ -9083,7 +9103,7 @@
       </c>
       <c r="L31" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="18" t="s">
         <v>681</v>
       </c>
@@ -9092,8 +9112,8 @@
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="82">
+      <c r="E32" s="70"/>
+      <c r="F32" s="71">
         <v>2021</v>
       </c>
       <c r="G32" s="40" t="s">
@@ -9113,7 +9133,7 @@
       </c>
       <c r="L32" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="18" t="s">
         <v>681</v>
       </c>
@@ -9143,7 +9163,7 @@
       </c>
       <c r="L33" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="18" t="s">
         <v>681</v>
       </c>
@@ -9169,7 +9189,7 @@
       <c r="K34" s="14"/>
       <c r="L34" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="18" t="s">
         <v>681</v>
       </c>
@@ -9199,7 +9219,7 @@
       </c>
       <c r="L35" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="18" t="s">
         <v>681</v>
       </c>
@@ -9229,7 +9249,7 @@
       </c>
       <c r="L36" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="18" t="s">
         <v>681</v>
       </c>
@@ -9259,7 +9279,7 @@
       </c>
       <c r="L37" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="33.75">
+    <row r="38" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="18" t="s">
         <v>681</v>
       </c>
@@ -9289,7 +9309,7 @@
       </c>
       <c r="L38" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="33.75" customFormat="1" s="17">
+    <row r="39" spans="1:12" s="17" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="14" t="s">
         <v>681</v>
       </c>
@@ -9299,7 +9319,7 @@
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
-      <c r="F39" s="83"/>
+      <c r="F39" s="72"/>
       <c r="G39" s="14"/>
       <c r="H39" s="14" t="s">
         <v>268</v>
@@ -9315,7 +9335,7 @@
       </c>
       <c r="L39" s="14"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="33.75">
+    <row r="40" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="18" t="s">
         <v>681</v>
       </c>
@@ -9345,7 +9365,7 @@
       </c>
       <c r="L40" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="33.75">
+    <row r="41" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="18" t="s">
         <v>681</v>
       </c>
@@ -9375,7 +9395,7 @@
       </c>
       <c r="L41" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
+    <row r="42" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="18" t="s">
         <v>681</v>
       </c>
@@ -9401,7 +9421,7 @@
       <c r="K42" s="14"/>
       <c r="L42" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
+    <row r="43" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="18" t="s">
         <v>681</v>
       </c>
@@ -9429,7 +9449,7 @@
       <c r="K43" s="14"/>
       <c r="L43" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
+    <row r="44" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="18" t="s">
         <v>681</v>
       </c>
@@ -9457,7 +9477,7 @@
       <c r="K44" s="14"/>
       <c r="L44" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
+    <row r="45" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="18" t="s">
         <v>681</v>
       </c>
@@ -9485,7 +9505,7 @@
       <c r="K45" s="14"/>
       <c r="L45" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
+    <row r="46" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="18" t="s">
         <v>681</v>
       </c>
@@ -9513,7 +9533,7 @@
       <c r="K46" s="14"/>
       <c r="L46" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
+    <row r="47" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="18" t="s">
         <v>681</v>
       </c>
@@ -9541,7 +9561,7 @@
       <c r="K47" s="14"/>
       <c r="L47" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
+    <row r="48" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="18" t="s">
         <v>681</v>
       </c>
@@ -9569,7 +9589,7 @@
       <c r="K48" s="14"/>
       <c r="L48" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
+    <row r="49" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="18" t="s">
         <v>681</v>
       </c>
@@ -9595,7 +9615,7 @@
       <c r="K49" s="14"/>
       <c r="L49" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="103.5">
+    <row r="50" spans="1:12" ht="103.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="18" t="s">
         <v>681</v>
       </c>
@@ -9623,7 +9643,7 @@
       </c>
       <c r="L50" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
+    <row r="51" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="18" t="s">
         <v>681</v>
       </c>
@@ -9649,7 +9669,7 @@
       <c r="K51" s="14"/>
       <c r="L51" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
+    <row r="52" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="18" t="s">
         <v>681</v>
       </c>
@@ -9675,7 +9695,7 @@
       <c r="K52" s="14"/>
       <c r="L52" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
+    <row r="53" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="18" t="s">
         <v>681</v>
       </c>
@@ -9701,7 +9721,7 @@
       <c r="K53" s="14"/>
       <c r="L53" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
+    <row r="54" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="18" t="s">
         <v>681</v>
       </c>
@@ -9727,7 +9747,7 @@
       <c r="K54" s="14"/>
       <c r="L54" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
+    <row r="55" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="18" t="s">
         <v>681</v>
       </c>
@@ -9753,7 +9773,7 @@
       <c r="K55" s="14"/>
       <c r="L55" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
+    <row r="56" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="18" t="s">
         <v>681</v>
       </c>
@@ -9779,7 +9799,7 @@
       <c r="K56" s="14"/>
       <c r="L56" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
+    <row r="57" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="18" t="s">
         <v>681</v>
       </c>
@@ -9805,7 +9825,7 @@
       <c r="K57" s="14"/>
       <c r="L57" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
+    <row r="58" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="18" t="s">
         <v>681</v>
       </c>
@@ -9831,7 +9851,7 @@
       <c r="K58" s="14"/>
       <c r="L58" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
+    <row r="59" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="18" t="s">
         <v>681</v>
       </c>
@@ -9857,7 +9877,7 @@
       <c r="K59" s="14"/>
       <c r="L59" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
+    <row r="60" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="18" t="s">
         <v>681</v>
       </c>
@@ -9885,7 +9905,7 @@
       <c r="K60" s="14"/>
       <c r="L60" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+    <row r="61" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="18" t="s">
         <v>681</v>
       </c>
@@ -9913,7 +9933,7 @@
       <c r="K61" s="14"/>
       <c r="L61" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+    <row r="62" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="18" t="s">
         <v>681</v>
       </c>
@@ -9939,7 +9959,7 @@
       <c r="K62" s="14"/>
       <c r="L62" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+    <row r="63" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="18" t="s">
         <v>681</v>
       </c>
@@ -9969,7 +9989,7 @@
       </c>
       <c r="L63" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+    <row r="64" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="18" t="s">
         <v>681</v>
       </c>
@@ -9995,7 +10015,7 @@
       <c r="K64" s="14"/>
       <c r="L64" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+    <row r="65" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="18" t="s">
         <v>681</v>
       </c>
@@ -10021,7 +10041,7 @@
       <c r="K65" s="14"/>
       <c r="L65" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+    <row r="66" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="18" t="s">
         <v>681</v>
       </c>
@@ -10047,7 +10067,7 @@
       <c r="K66" s="14"/>
       <c r="L66" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+    <row r="67" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="18" t="s">
         <v>681</v>
       </c>
@@ -10073,7 +10093,7 @@
       <c r="K67" s="14"/>
       <c r="L67" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+    <row r="68" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="18" t="s">
         <v>725</v>
       </c>
@@ -10082,8 +10102,8 @@
       </c>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
-      <c r="E68" s="81"/>
-      <c r="F68" s="82">
+      <c r="E68" s="70"/>
+      <c r="F68" s="71">
         <v>2021</v>
       </c>
       <c r="G68" s="40" t="s">
@@ -10101,7 +10121,7 @@
       <c r="K68" s="42"/>
       <c r="L68" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+    <row r="69" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="18" t="s">
         <v>725</v>
       </c>
@@ -10110,7 +10130,7 @@
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
-      <c r="E69" s="83"/>
+      <c r="E69" s="72"/>
       <c r="F69" s="29">
         <v>2021</v>
       </c>
@@ -10129,7 +10149,7 @@
       <c r="K69" s="14"/>
       <c r="L69" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+    <row r="70" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="18" t="s">
         <v>725</v>
       </c>
@@ -10138,7 +10158,7 @@
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
-      <c r="E70" s="83"/>
+      <c r="E70" s="72"/>
       <c r="F70" s="29">
         <v>2021</v>
       </c>
@@ -10157,7 +10177,7 @@
       <c r="K70" s="14"/>
       <c r="L70" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+    <row r="71" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="18" t="s">
         <v>725</v>
       </c>
@@ -10166,7 +10186,7 @@
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
-      <c r="E71" s="83"/>
+      <c r="E71" s="72"/>
       <c r="F71" s="29">
         <v>2021</v>
       </c>
@@ -10185,7 +10205,7 @@
       <c r="K71" s="14"/>
       <c r="L71" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+    <row r="72" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="18" t="s">
         <v>725</v>
       </c>
@@ -10194,7 +10214,7 @@
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
-      <c r="E72" s="83"/>
+      <c r="E72" s="72"/>
       <c r="F72" s="29">
         <v>2021</v>
       </c>
@@ -10213,7 +10233,7 @@
       <c r="K72" s="14"/>
       <c r="L72" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+    <row r="73" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="18" t="s">
         <v>725</v>
       </c>
@@ -10222,7 +10242,7 @@
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
-      <c r="E73" s="83"/>
+      <c r="E73" s="72"/>
       <c r="F73" s="29">
         <v>2021</v>
       </c>
@@ -10241,7 +10261,7 @@
       <c r="K73" s="14"/>
       <c r="L73" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+    <row r="74" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="18" t="s">
         <v>725</v>
       </c>
@@ -10250,7 +10270,7 @@
       </c>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
-      <c r="E74" s="83"/>
+      <c r="E74" s="72"/>
       <c r="F74" s="29">
         <v>2021</v>
       </c>
@@ -10269,7 +10289,7 @@
       <c r="K74" s="14"/>
       <c r="L74" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+    <row r="75" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="18" t="s">
         <v>725</v>
       </c>
@@ -10278,7 +10298,7 @@
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
-      <c r="E75" s="83"/>
+      <c r="E75" s="72"/>
       <c r="F75" s="29">
         <v>2021</v>
       </c>
@@ -10297,7 +10317,7 @@
       <c r="K75" s="14"/>
       <c r="L75" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+    <row r="76" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="18" t="s">
         <v>725</v>
       </c>
@@ -10306,7 +10326,7 @@
       </c>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
-      <c r="E76" s="83"/>
+      <c r="E76" s="72"/>
       <c r="F76" s="29">
         <v>2021</v>
       </c>
@@ -10325,7 +10345,7 @@
       <c r="K76" s="14"/>
       <c r="L76" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+    <row r="77" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="18" t="s">
         <v>725</v>
       </c>
@@ -10334,7 +10354,7 @@
       </c>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
-      <c r="E77" s="83"/>
+      <c r="E77" s="72"/>
       <c r="F77" s="29">
         <v>2021</v>
       </c>
@@ -10353,7 +10373,7 @@
       <c r="K77" s="14"/>
       <c r="L77" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+    <row r="78" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="18" t="s">
         <v>725</v>
       </c>
@@ -10362,7 +10382,7 @@
       </c>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
-      <c r="E78" s="83"/>
+      <c r="E78" s="72"/>
       <c r="F78" s="29">
         <v>2021</v>
       </c>
@@ -10381,7 +10401,7 @@
       <c r="K78" s="14"/>
       <c r="L78" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+    <row r="79" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="18" t="s">
         <v>725</v>
       </c>
@@ -10390,7 +10410,7 @@
       </c>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
-      <c r="E79" s="83"/>
+      <c r="E79" s="72"/>
       <c r="F79" s="29">
         <v>2021</v>
       </c>
@@ -10409,7 +10429,7 @@
       <c r="K79" s="14"/>
       <c r="L79" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+    <row r="80" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="18" t="s">
         <v>725</v>
       </c>
@@ -10441,7 +10461,7 @@
       </c>
       <c r="L80" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+    <row r="81" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="18" t="s">
         <v>725</v>
       </c>
@@ -10473,7 +10493,7 @@
       </c>
       <c r="L81" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+    <row r="82" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="18" t="s">
         <v>725</v>
       </c>
@@ -10482,7 +10502,7 @@
       </c>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
-      <c r="E82" s="83"/>
+      <c r="E82" s="72"/>
       <c r="F82" s="29">
         <v>2021</v>
       </c>
@@ -10499,22 +10519,22 @@
       <c r="K82" s="14"/>
       <c r="L82" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+    <row r="83" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B83" s="84" t="s">
+      <c r="B83" s="73" t="s">
         <v>202</v>
       </c>
-      <c r="C83" s="84" t="s">
+      <c r="C83" s="73" t="s">
         <v>452</v>
       </c>
-      <c r="D83" s="84"/>
-      <c r="E83" s="85"/>
-      <c r="F83" s="86">
+      <c r="D83" s="73"/>
+      <c r="E83" s="74"/>
+      <c r="F83" s="75">
         <v>2010</v>
       </c>
-      <c r="G83" s="84" t="s">
+      <c r="G83" s="73" t="s">
         <v>198</v>
       </c>
       <c r="H83" s="40" t="s">
@@ -10527,22 +10547,22 @@
       <c r="K83" s="14"/>
       <c r="L83" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+    <row r="84" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B84" s="87" t="s">
+      <c r="B84" s="76" t="s">
         <v>202</v>
       </c>
-      <c r="C84" s="87" t="s">
+      <c r="C84" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="D84" s="87"/>
-      <c r="E84" s="88"/>
-      <c r="F84" s="89">
+      <c r="D84" s="76"/>
+      <c r="E84" s="77"/>
+      <c r="F84" s="78">
         <v>2010</v>
       </c>
-      <c r="G84" s="87" t="s">
+      <c r="G84" s="76" t="s">
         <v>198</v>
       </c>
       <c r="H84" s="40" t="s">
@@ -10555,22 +10575,22 @@
       <c r="K84" s="14"/>
       <c r="L84" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+    <row r="85" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B85" s="87" t="s">
+      <c r="B85" s="76" t="s">
         <v>197</v>
       </c>
-      <c r="C85" s="87" t="s">
+      <c r="C85" s="76" t="s">
         <v>452</v>
       </c>
-      <c r="D85" s="87"/>
-      <c r="E85" s="88"/>
-      <c r="F85" s="89">
+      <c r="D85" s="76"/>
+      <c r="E85" s="77"/>
+      <c r="F85" s="78">
         <v>2010</v>
       </c>
-      <c r="G85" s="87" t="s">
+      <c r="G85" s="76" t="s">
         <v>198</v>
       </c>
       <c r="H85" s="7" t="s">
@@ -10583,22 +10603,22 @@
       <c r="K85" s="14"/>
       <c r="L85" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+    <row r="86" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B86" s="87" t="s">
+      <c r="B86" s="76" t="s">
         <v>204</v>
       </c>
-      <c r="C86" s="87" t="s">
+      <c r="C86" s="76" t="s">
         <v>452</v>
       </c>
-      <c r="D86" s="87"/>
-      <c r="E86" s="88"/>
-      <c r="F86" s="89">
+      <c r="D86" s="76"/>
+      <c r="E86" s="77"/>
+      <c r="F86" s="78">
         <v>2010</v>
       </c>
-      <c r="G86" s="87" t="s">
+      <c r="G86" s="76" t="s">
         <v>198</v>
       </c>
       <c r="H86" s="7" t="s">
@@ -10611,22 +10631,22 @@
       <c r="K86" s="14"/>
       <c r="L86" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+    <row r="87" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B87" s="87" t="s">
+      <c r="B87" s="76" t="s">
         <v>204</v>
       </c>
-      <c r="C87" s="87" t="s">
+      <c r="C87" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="D87" s="87"/>
-      <c r="E87" s="88"/>
-      <c r="F87" s="89">
+      <c r="D87" s="76"/>
+      <c r="E87" s="77"/>
+      <c r="F87" s="78">
         <v>2010</v>
       </c>
-      <c r="G87" s="87" t="s">
+      <c r="G87" s="76" t="s">
         <v>198</v>
       </c>
       <c r="H87" s="7" t="s">
@@ -10639,22 +10659,22 @@
       <c r="K87" s="14"/>
       <c r="L87" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+    <row r="88" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B88" s="87" t="s">
+      <c r="B88" s="76" t="s">
         <v>200</v>
       </c>
-      <c r="C88" s="87" t="s">
+      <c r="C88" s="76" t="s">
         <v>452</v>
       </c>
-      <c r="D88" s="87"/>
-      <c r="E88" s="88"/>
-      <c r="F88" s="89">
+      <c r="D88" s="76"/>
+      <c r="E88" s="77"/>
+      <c r="F88" s="78">
         <v>2010</v>
       </c>
-      <c r="G88" s="87" t="s">
+      <c r="G88" s="76" t="s">
         <v>198</v>
       </c>
       <c r="H88" s="7" t="s">
@@ -10667,22 +10687,22 @@
       <c r="K88" s="14"/>
       <c r="L88" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
+    <row r="89" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B89" s="87" t="s">
+      <c r="B89" s="76" t="s">
         <v>200</v>
       </c>
-      <c r="C89" s="87" t="s">
+      <c r="C89" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="D89" s="87"/>
-      <c r="E89" s="88"/>
-      <c r="F89" s="89">
+      <c r="D89" s="76"/>
+      <c r="E89" s="77"/>
+      <c r="F89" s="78">
         <v>2010</v>
       </c>
-      <c r="G89" s="87" t="s">
+      <c r="G89" s="76" t="s">
         <v>198</v>
       </c>
       <c r="H89" s="7" t="s">
@@ -10695,22 +10715,22 @@
       <c r="K89" s="14"/>
       <c r="L89" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
+    <row r="90" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B90" s="87" t="s">
+      <c r="B90" s="76" t="s">
         <v>203</v>
       </c>
-      <c r="C90" s="87" t="s">
+      <c r="C90" s="76" t="s">
         <v>452</v>
       </c>
-      <c r="D90" s="87"/>
-      <c r="E90" s="88"/>
-      <c r="F90" s="89">
+      <c r="D90" s="76"/>
+      <c r="E90" s="77"/>
+      <c r="F90" s="78">
         <v>2010</v>
       </c>
-      <c r="G90" s="87" t="s">
+      <c r="G90" s="76" t="s">
         <v>198</v>
       </c>
       <c r="H90" s="7" t="s">
@@ -10723,22 +10743,22 @@
       <c r="K90" s="14"/>
       <c r="L90" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
+    <row r="91" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B91" s="87" t="s">
+      <c r="B91" s="76" t="s">
         <v>203</v>
       </c>
-      <c r="C91" s="87" t="s">
+      <c r="C91" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="D91" s="87"/>
-      <c r="E91" s="88"/>
-      <c r="F91" s="89">
+      <c r="D91" s="76"/>
+      <c r="E91" s="77"/>
+      <c r="F91" s="78">
         <v>2010</v>
       </c>
-      <c r="G91" s="87" t="s">
+      <c r="G91" s="76" t="s">
         <v>198</v>
       </c>
       <c r="H91" s="7" t="s">
@@ -10751,22 +10771,22 @@
       <c r="K91" s="14"/>
       <c r="L91" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
+    <row r="92" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B92" s="87" t="s">
+      <c r="B92" s="76" t="s">
         <v>193</v>
       </c>
-      <c r="C92" s="87" t="s">
+      <c r="C92" s="76" t="s">
         <v>452</v>
       </c>
-      <c r="D92" s="87"/>
-      <c r="E92" s="88"/>
-      <c r="F92" s="89">
+      <c r="D92" s="76"/>
+      <c r="E92" s="77"/>
+      <c r="F92" s="78">
         <v>2010</v>
       </c>
-      <c r="G92" s="87" t="s">
+      <c r="G92" s="76" t="s">
         <v>194</v>
       </c>
       <c r="H92" s="7" t="s">
@@ -10779,22 +10799,22 @@
       <c r="K92" s="14"/>
       <c r="L92" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
+    <row r="93" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B93" s="87" t="s">
+      <c r="B93" s="76" t="s">
         <v>193</v>
       </c>
-      <c r="C93" s="87" t="s">
+      <c r="C93" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="D93" s="87"/>
-      <c r="E93" s="88"/>
-      <c r="F93" s="89">
+      <c r="D93" s="76"/>
+      <c r="E93" s="77"/>
+      <c r="F93" s="78">
         <v>2010</v>
       </c>
-      <c r="G93" s="87" t="s">
+      <c r="G93" s="76" t="s">
         <v>194</v>
       </c>
       <c r="H93" s="7" t="s">
@@ -10807,22 +10827,22 @@
       <c r="K93" s="14"/>
       <c r="L93" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
+    <row r="94" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B94" s="87" t="s">
+      <c r="B94" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="C94" s="87" t="s">
+      <c r="C94" s="76" t="s">
         <v>452</v>
       </c>
-      <c r="D94" s="87"/>
-      <c r="E94" s="88"/>
-      <c r="F94" s="89">
+      <c r="D94" s="76"/>
+      <c r="E94" s="77"/>
+      <c r="F94" s="78">
         <v>2010</v>
       </c>
-      <c r="G94" s="87" t="s">
+      <c r="G94" s="76" t="s">
         <v>194</v>
       </c>
       <c r="H94" s="7" t="s">
@@ -10835,22 +10855,22 @@
       <c r="K94" s="14"/>
       <c r="L94" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
+    <row r="95" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B95" s="87" t="s">
+      <c r="B95" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="C95" s="87" t="s">
+      <c r="C95" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="D95" s="87"/>
-      <c r="E95" s="88"/>
-      <c r="F95" s="89">
+      <c r="D95" s="76"/>
+      <c r="E95" s="77"/>
+      <c r="F95" s="78">
         <v>2010</v>
       </c>
-      <c r="G95" s="87" t="s">
+      <c r="G95" s="76" t="s">
         <v>194</v>
       </c>
       <c r="H95" s="7" t="s">
@@ -10863,22 +10883,22 @@
       <c r="K95" s="14"/>
       <c r="L95" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
+    <row r="96" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B96" s="87" t="s">
+      <c r="B96" s="76" t="s">
         <v>201</v>
       </c>
-      <c r="C96" s="87" t="s">
+      <c r="C96" s="76" t="s">
         <v>452</v>
       </c>
-      <c r="D96" s="87"/>
-      <c r="E96" s="88"/>
-      <c r="F96" s="89">
+      <c r="D96" s="76"/>
+      <c r="E96" s="77"/>
+      <c r="F96" s="78">
         <v>2010</v>
       </c>
-      <c r="G96" s="87" t="s">
+      <c r="G96" s="76" t="s">
         <v>198</v>
       </c>
       <c r="H96" s="7" t="s">
@@ -10891,22 +10911,22 @@
       <c r="K96" s="14"/>
       <c r="L96" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
+    <row r="97" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B97" s="87" t="s">
+      <c r="B97" s="76" t="s">
         <v>201</v>
       </c>
-      <c r="C97" s="87" t="s">
+      <c r="C97" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="D97" s="87"/>
-      <c r="E97" s="88"/>
-      <c r="F97" s="89">
+      <c r="D97" s="76"/>
+      <c r="E97" s="77"/>
+      <c r="F97" s="78">
         <v>2010</v>
       </c>
-      <c r="G97" s="87" t="s">
+      <c r="G97" s="76" t="s">
         <v>198</v>
       </c>
       <c r="H97" s="7" t="s">
@@ -10919,22 +10939,22 @@
       <c r="K97" s="14"/>
       <c r="L97" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
+    <row r="98" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B98" s="87" t="s">
+      <c r="B98" s="76" t="s">
         <v>209</v>
       </c>
-      <c r="C98" s="87" t="s">
+      <c r="C98" s="76" t="s">
         <v>485</v>
       </c>
-      <c r="D98" s="87"/>
-      <c r="E98" s="88"/>
-      <c r="F98" s="89">
+      <c r="D98" s="76"/>
+      <c r="E98" s="77"/>
+      <c r="F98" s="78">
         <v>2010</v>
       </c>
-      <c r="G98" s="87" t="s">
+      <c r="G98" s="76" t="s">
         <v>194</v>
       </c>
       <c r="H98" s="16" t="s">
@@ -10953,22 +10973,22 @@
         <v>397</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
+    <row r="99" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B99" s="87" t="s">
+      <c r="B99" s="76" t="s">
         <v>209</v>
       </c>
-      <c r="C99" s="87" t="s">
+      <c r="C99" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="D99" s="87"/>
-      <c r="E99" s="88"/>
-      <c r="F99" s="89">
+      <c r="D99" s="76"/>
+      <c r="E99" s="77"/>
+      <c r="F99" s="78">
         <v>2010</v>
       </c>
-      <c r="G99" s="87" t="s">
+      <c r="G99" s="76" t="s">
         <v>194</v>
       </c>
       <c r="H99" s="16" t="s">
@@ -10987,22 +11007,22 @@
         <v>397</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
+    <row r="100" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B100" s="87" t="s">
+      <c r="B100" s="76" t="s">
         <v>208</v>
       </c>
-      <c r="C100" s="87" t="s">
+      <c r="C100" s="76" t="s">
         <v>485</v>
       </c>
-      <c r="D100" s="87"/>
-      <c r="E100" s="88"/>
-      <c r="F100" s="89">
+      <c r="D100" s="76"/>
+      <c r="E100" s="77"/>
+      <c r="F100" s="78">
         <v>2010</v>
       </c>
-      <c r="G100" s="87" t="s">
+      <c r="G100" s="76" t="s">
         <v>194</v>
       </c>
       <c r="H100" s="16" t="s">
@@ -11021,22 +11041,22 @@
         <v>397</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
+    <row r="101" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B101" s="87" t="s">
+      <c r="B101" s="76" t="s">
         <v>208</v>
       </c>
-      <c r="C101" s="87" t="s">
+      <c r="C101" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="D101" s="87"/>
-      <c r="E101" s="88"/>
-      <c r="F101" s="89">
+      <c r="D101" s="76"/>
+      <c r="E101" s="77"/>
+      <c r="F101" s="78">
         <v>2010</v>
       </c>
-      <c r="G101" s="87" t="s">
+      <c r="G101" s="76" t="s">
         <v>194</v>
       </c>
       <c r="H101" s="16" t="s">
@@ -11055,22 +11075,22 @@
         <v>397</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
+    <row r="102" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B102" s="87" t="s">
+      <c r="B102" s="76" t="s">
         <v>210</v>
       </c>
-      <c r="C102" s="87" t="s">
+      <c r="C102" s="76" t="s">
         <v>485</v>
       </c>
-      <c r="D102" s="87"/>
-      <c r="E102" s="88"/>
-      <c r="F102" s="89">
+      <c r="D102" s="76"/>
+      <c r="E102" s="77"/>
+      <c r="F102" s="78">
         <v>2010</v>
       </c>
-      <c r="G102" s="87" t="s">
+      <c r="G102" s="76" t="s">
         <v>194</v>
       </c>
       <c r="H102" s="16" t="s">
@@ -11089,22 +11109,22 @@
         <v>397</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
+    <row r="103" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B103" s="87" t="s">
+      <c r="B103" s="76" t="s">
         <v>210</v>
       </c>
-      <c r="C103" s="87" t="s">
+      <c r="C103" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="D103" s="87"/>
-      <c r="E103" s="88"/>
-      <c r="F103" s="89">
+      <c r="D103" s="76"/>
+      <c r="E103" s="77"/>
+      <c r="F103" s="78">
         <v>2010</v>
       </c>
-      <c r="G103" s="87" t="s">
+      <c r="G103" s="76" t="s">
         <v>194</v>
       </c>
       <c r="H103" s="16" t="s">
@@ -11123,22 +11143,22 @@
         <v>397</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
+    <row r="104" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B104" s="87" t="s">
+      <c r="B104" s="76" t="s">
         <v>199</v>
       </c>
-      <c r="C104" s="87" t="s">
+      <c r="C104" s="76" t="s">
         <v>452</v>
       </c>
-      <c r="D104" s="87"/>
-      <c r="E104" s="88"/>
-      <c r="F104" s="89">
+      <c r="D104" s="76"/>
+      <c r="E104" s="77"/>
+      <c r="F104" s="78">
         <v>2010</v>
       </c>
-      <c r="G104" s="87" t="s">
+      <c r="G104" s="76" t="s">
         <v>198</v>
       </c>
       <c r="H104" s="7" t="s">
@@ -11151,22 +11171,22 @@
       <c r="K104" s="14"/>
       <c r="L104" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
+    <row r="105" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B105" s="87" t="s">
+      <c r="B105" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="C105" s="87" t="s">
+      <c r="C105" s="76" t="s">
         <v>452</v>
       </c>
-      <c r="D105" s="87"/>
-      <c r="E105" s="88"/>
-      <c r="F105" s="89">
+      <c r="D105" s="76"/>
+      <c r="E105" s="77"/>
+      <c r="F105" s="78">
         <v>2010</v>
       </c>
-      <c r="G105" s="87" t="s">
+      <c r="G105" s="76" t="s">
         <v>194</v>
       </c>
       <c r="H105" s="7" t="s">
@@ -11179,22 +11199,22 @@
       <c r="K105" s="14"/>
       <c r="L105" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
+    <row r="106" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B106" s="87" t="s">
+      <c r="B106" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="C106" s="87" t="s">
+      <c r="C106" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="D106" s="87"/>
-      <c r="E106" s="88"/>
-      <c r="F106" s="89">
+      <c r="D106" s="76"/>
+      <c r="E106" s="77"/>
+      <c r="F106" s="78">
         <v>2010</v>
       </c>
-      <c r="G106" s="87" t="s">
+      <c r="G106" s="76" t="s">
         <v>194</v>
       </c>
       <c r="H106" s="7" t="s">
@@ -11207,22 +11227,22 @@
       <c r="K106" s="14"/>
       <c r="L106" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
+    <row r="107" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B107" s="87" t="s">
+      <c r="B107" s="76" t="s">
         <v>319</v>
       </c>
-      <c r="C107" s="87" t="s">
+      <c r="C107" s="76" t="s">
         <v>485</v>
       </c>
-      <c r="D107" s="87"/>
-      <c r="E107" s="88"/>
-      <c r="F107" s="89">
+      <c r="D107" s="76"/>
+      <c r="E107" s="77"/>
+      <c r="F107" s="78">
         <v>2010</v>
       </c>
-      <c r="G107" s="87" t="s">
+      <c r="G107" s="76" t="s">
         <v>747</v>
       </c>
       <c r="H107" s="7" t="s">
@@ -11235,22 +11255,22 @@
       <c r="K107" s="14"/>
       <c r="L107" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
+    <row r="108" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B108" s="87" t="s">
+      <c r="B108" s="76" t="s">
         <v>319</v>
       </c>
-      <c r="C108" s="87" t="s">
+      <c r="C108" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="D108" s="87"/>
-      <c r="E108" s="88"/>
-      <c r="F108" s="89">
+      <c r="D108" s="76"/>
+      <c r="E108" s="77"/>
+      <c r="F108" s="78">
         <v>2010</v>
       </c>
-      <c r="G108" s="87" t="s">
+      <c r="G108" s="76" t="s">
         <v>747</v>
       </c>
       <c r="H108" s="7" t="s">
@@ -11263,22 +11283,22 @@
       <c r="K108" s="14"/>
       <c r="L108" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
+    <row r="109" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B109" s="87" t="s">
+      <c r="B109" s="76" t="s">
         <v>180</v>
       </c>
-      <c r="C109" s="87" t="s">
+      <c r="C109" s="76" t="s">
         <v>452</v>
       </c>
-      <c r="D109" s="87"/>
-      <c r="E109" s="88"/>
-      <c r="F109" s="89">
+      <c r="D109" s="76"/>
+      <c r="E109" s="77"/>
+      <c r="F109" s="78">
         <v>2010</v>
       </c>
-      <c r="G109" s="87" t="s">
+      <c r="G109" s="76" t="s">
         <v>198</v>
       </c>
       <c r="H109" s="7" t="s">
@@ -11293,22 +11313,22 @@
       <c r="K109" s="14"/>
       <c r="L109" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
+    <row r="110" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B110" s="87" t="s">
+      <c r="B110" s="76" t="s">
         <v>196</v>
       </c>
-      <c r="C110" s="87" t="s">
+      <c r="C110" s="76" t="s">
         <v>438</v>
       </c>
-      <c r="D110" s="87"/>
-      <c r="E110" s="88"/>
-      <c r="F110" s="89">
+      <c r="D110" s="76"/>
+      <c r="E110" s="77"/>
+      <c r="F110" s="78">
         <v>2010</v>
       </c>
-      <c r="G110" s="87" t="s">
+      <c r="G110" s="76" t="s">
         <v>194</v>
       </c>
       <c r="H110" s="7" t="s">
@@ -11321,22 +11341,22 @@
       <c r="K110" s="14"/>
       <c r="L110" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
+    <row r="111" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B111" s="87" t="s">
+      <c r="B111" s="76" t="s">
         <v>195</v>
       </c>
-      <c r="C111" s="87" t="s">
+      <c r="C111" s="76" t="s">
         <v>438</v>
       </c>
-      <c r="D111" s="87"/>
-      <c r="E111" s="88"/>
-      <c r="F111" s="89">
+      <c r="D111" s="76"/>
+      <c r="E111" s="77"/>
+      <c r="F111" s="78">
         <v>2010</v>
       </c>
-      <c r="G111" s="87" t="s">
+      <c r="G111" s="76" t="s">
         <v>194</v>
       </c>
       <c r="H111" s="7" t="s">
@@ -11349,22 +11369,22 @@
       <c r="K111" s="14"/>
       <c r="L111" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
+    <row r="112" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B112" s="87" t="s">
+      <c r="B112" s="76" t="s">
         <v>205</v>
       </c>
-      <c r="C112" s="87" t="s">
+      <c r="C112" s="76" t="s">
         <v>438</v>
       </c>
-      <c r="D112" s="87"/>
-      <c r="E112" s="88"/>
-      <c r="F112" s="89">
+      <c r="D112" s="76"/>
+      <c r="E112" s="77"/>
+      <c r="F112" s="78">
         <v>2010</v>
       </c>
-      <c r="G112" s="87" t="s">
+      <c r="G112" s="76" t="s">
         <v>198</v>
       </c>
       <c r="H112" s="7" t="s">
@@ -11381,22 +11401,22 @@
       </c>
       <c r="L112" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
+    <row r="113" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B113" s="87" t="s">
+      <c r="B113" s="76" t="s">
         <v>205</v>
       </c>
-      <c r="C113" s="87" t="s">
+      <c r="C113" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="D113" s="87"/>
-      <c r="E113" s="88"/>
-      <c r="F113" s="89">
+      <c r="D113" s="76"/>
+      <c r="E113" s="77"/>
+      <c r="F113" s="78">
         <v>2010</v>
       </c>
-      <c r="G113" s="87" t="s">
+      <c r="G113" s="76" t="s">
         <v>198</v>
       </c>
       <c r="H113" s="7" t="s">
@@ -11411,22 +11431,22 @@
       </c>
       <c r="L113" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
+    <row r="114" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B114" s="87" t="s">
+      <c r="B114" s="76" t="s">
         <v>206</v>
       </c>
-      <c r="C114" s="87" t="s">
+      <c r="C114" s="76" t="s">
         <v>438</v>
       </c>
-      <c r="D114" s="87"/>
-      <c r="E114" s="88"/>
-      <c r="F114" s="89">
+      <c r="D114" s="76"/>
+      <c r="E114" s="77"/>
+      <c r="F114" s="78">
         <v>2010</v>
       </c>
-      <c r="G114" s="87" t="s">
+      <c r="G114" s="76" t="s">
         <v>198</v>
       </c>
       <c r="H114" s="7" t="s">
@@ -11441,22 +11461,22 @@
       </c>
       <c r="L114" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
+    <row r="115" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B115" s="87" t="s">
+      <c r="B115" s="76" t="s">
         <v>206</v>
       </c>
-      <c r="C115" s="87" t="s">
+      <c r="C115" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="D115" s="87"/>
-      <c r="E115" s="88"/>
-      <c r="F115" s="89">
+      <c r="D115" s="76"/>
+      <c r="E115" s="77"/>
+      <c r="F115" s="78">
         <v>2010</v>
       </c>
-      <c r="G115" s="87" t="s">
+      <c r="G115" s="76" t="s">
         <v>198</v>
       </c>
       <c r="H115" s="7" t="s">
@@ -11471,22 +11491,22 @@
       </c>
       <c r="L115" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
+    <row r="116" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B116" s="87" t="s">
+      <c r="B116" s="76" t="s">
         <v>207</v>
       </c>
-      <c r="C116" s="87" t="s">
+      <c r="C116" s="76" t="s">
         <v>438</v>
       </c>
-      <c r="D116" s="87"/>
-      <c r="E116" s="88"/>
-      <c r="F116" s="89">
+      <c r="D116" s="76"/>
+      <c r="E116" s="77"/>
+      <c r="F116" s="78">
         <v>2010</v>
       </c>
-      <c r="G116" s="87" t="s">
+      <c r="G116" s="76" t="s">
         <v>194</v>
       </c>
       <c r="H116" s="7" t="s">
@@ -11499,22 +11519,22 @@
       <c r="K116" s="14"/>
       <c r="L116" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
+    <row r="117" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B117" s="87" t="s">
+      <c r="B117" s="76" t="s">
         <v>207</v>
       </c>
-      <c r="C117" s="87" t="s">
+      <c r="C117" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="D117" s="87"/>
-      <c r="E117" s="88"/>
-      <c r="F117" s="89">
+      <c r="D117" s="76"/>
+      <c r="E117" s="77"/>
+      <c r="F117" s="78">
         <v>2010</v>
       </c>
-      <c r="G117" s="87" t="s">
+      <c r="G117" s="76" t="s">
         <v>194</v>
       </c>
       <c r="H117" s="7" t="s">
@@ -11533,28 +11553,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" style="22" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="22" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="22" width="5.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="22" width="5.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="22" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="22" width="9.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="22" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="22" width="40.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="22" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="10.734375" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.83984375" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.734375" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83984375" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.734375" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.734375" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.41796875" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>156</v>
       </c>
@@ -11583,7 +11603,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="7" t="s">
         <v>615</v>
       </c>
@@ -11602,7 +11622,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="7" t="s">
         <v>615</v>
       </c>
@@ -11621,7 +11641,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7" t="s">
         <v>615</v>
       </c>
@@ -11640,7 +11660,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="7" t="s">
         <v>615</v>
       </c>
@@ -11659,7 +11679,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="7" t="s">
         <v>615</v>
       </c>
@@ -11678,7 +11698,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="7" t="s">
         <v>615</v>
       </c>
@@ -11699,7 +11719,7 @@
       </c>
       <c r="I7" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="7" t="s">
         <v>615</v>
       </c>
@@ -11720,7 +11740,7 @@
       </c>
       <c r="I8" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="9" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>622</v>
       </c>
@@ -11739,7 +11759,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row r="10" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7" t="s">
         <v>622</v>
       </c>
@@ -11758,7 +11778,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7" t="s">
         <v>622</v>
       </c>
@@ -11777,7 +11797,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row r="12" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7" t="s">
         <v>622</v>
       </c>
@@ -11800,7 +11820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -11808,27 +11828,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="20" width="32.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="20" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="20" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="20" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="20" width="9.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="20" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="20" width="15.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="22" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="22" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="21" width="51.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="21" width="51.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="22" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="22" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="22" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="22" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.26171875" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.734375" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.734375" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.26171875" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15.734375" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="51.734375" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="8.734375" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="47" t="s">
         <v>156</v>
       </c>
@@ -11872,7 +11887,7 @@
       <c r="O1" s="47"/>
       <c r="P1" s="47"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="14.699999999999998">
+    <row r="2" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="40" t="s">
         <v>118</v>
       </c>
@@ -11901,8 +11916,8 @@
       <c r="J2" s="51" t="s">
         <v>437</v>
       </c>
-      <c r="K2" s="52"/>
-      <c r="L2" s="53"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="81"/>
       <c r="M2" s="41" t="s">
         <v>437</v>
       </c>
@@ -11910,7 +11925,7 @@
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="40" t="s">
         <v>118</v>
       </c>
@@ -11936,11 +11951,11 @@
         <v>239</v>
       </c>
       <c r="I3" s="7"/>
-      <c r="J3" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K3" s="55"/>
-      <c r="L3" s="38"/>
+      <c r="J3" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K3" s="80"/>
+      <c r="L3" s="82"/>
       <c r="M3" s="9" t="s">
         <v>437</v>
       </c>
@@ -11948,7 +11963,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="40" t="s">
         <v>118</v>
       </c>
@@ -11974,11 +11989,11 @@
         <v>442</v>
       </c>
       <c r="I4" s="7"/>
-      <c r="J4" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K4" s="55"/>
-      <c r="L4" s="38"/>
+      <c r="J4" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K4" s="80"/>
+      <c r="L4" s="82"/>
       <c r="M4" s="9" t="s">
         <v>437</v>
       </c>
@@ -11986,7 +12001,7 @@
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="40" t="s">
         <v>118</v>
       </c>
@@ -12010,11 +12025,11 @@
         <v>239</v>
       </c>
       <c r="I5" s="7"/>
-      <c r="J5" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K5" s="55"/>
-      <c r="L5" s="38"/>
+      <c r="J5" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K5" s="80"/>
+      <c r="L5" s="82"/>
       <c r="M5" s="9" t="s">
         <v>437</v>
       </c>
@@ -12022,7 +12037,7 @@
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="40" t="s">
         <v>118</v>
       </c>
@@ -12048,13 +12063,13 @@
         <v>239</v>
       </c>
       <c r="I6" s="7"/>
-      <c r="J6" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K6" s="56" t="s">
+      <c r="J6" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K6" s="83" t="s">
         <v>447</v>
       </c>
-      <c r="L6" s="57"/>
+      <c r="L6" s="85"/>
       <c r="M6" s="9" t="s">
         <v>437</v>
       </c>
@@ -12062,7 +12077,7 @@
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="40" t="s">
         <v>118</v>
       </c>
@@ -12088,11 +12103,11 @@
         <v>442</v>
       </c>
       <c r="I7" s="7"/>
-      <c r="J7" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K7" s="55"/>
-      <c r="L7" s="50"/>
+      <c r="J7" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K7" s="80"/>
+      <c r="L7" s="86"/>
       <c r="M7" s="9" t="s">
         <v>437</v>
       </c>
@@ -12100,7 +12115,7 @@
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="40" t="s">
         <v>118</v>
       </c>
@@ -12124,11 +12139,11 @@
         <v>239</v>
       </c>
       <c r="I8" s="44"/>
-      <c r="J8" s="58" t="s">
-        <v>437</v>
-      </c>
-      <c r="K8" s="59"/>
-      <c r="L8" s="60"/>
+      <c r="J8" s="54" t="s">
+        <v>437</v>
+      </c>
+      <c r="K8" s="84"/>
+      <c r="L8" s="87"/>
       <c r="M8" s="9" t="s">
         <v>437</v>
       </c>
@@ -12136,7 +12151,7 @@
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="40" t="s">
         <v>118</v>
       </c>
@@ -12162,13 +12177,13 @@
         <v>454</v>
       </c>
       <c r="I9" s="7"/>
-      <c r="J9" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K9" s="61" t="s">
+      <c r="J9" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K9" s="88" t="s">
         <v>455</v>
       </c>
-      <c r="L9" s="62" t="s">
+      <c r="L9" s="90" t="s">
         <v>456</v>
       </c>
       <c r="M9" s="41" t="s">
@@ -12178,7 +12193,7 @@
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="40" t="s">
         <v>118</v>
       </c>
@@ -12204,11 +12219,11 @@
         <v>239</v>
       </c>
       <c r="I10" s="7"/>
-      <c r="J10" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K10" s="49"/>
-      <c r="L10" s="38"/>
+      <c r="J10" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K10" s="89"/>
+      <c r="L10" s="82"/>
       <c r="M10" s="9" t="s">
         <v>437</v>
       </c>
@@ -12216,7 +12231,7 @@
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="40" t="s">
         <v>118</v>
       </c>
@@ -12242,11 +12257,11 @@
         <v>454</v>
       </c>
       <c r="I11" s="7"/>
-      <c r="J11" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K11" s="49"/>
-      <c r="L11" s="38"/>
+      <c r="J11" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K11" s="89"/>
+      <c r="L11" s="82"/>
       <c r="M11" s="9" t="s">
         <v>437</v>
       </c>
@@ -12254,7 +12269,7 @@
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="40" t="s">
         <v>118</v>
       </c>
@@ -12278,7 +12293,7 @@
         <v>239</v>
       </c>
       <c r="I12" s="7"/>
-      <c r="J12" s="54" t="s">
+      <c r="J12" s="52" t="s">
         <v>437</v>
       </c>
       <c r="K12" s="49" t="s">
@@ -12294,37 +12309,37 @@
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="56" t="s">
         <v>463</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="56" t="s">
         <v>432</v>
       </c>
-      <c r="D13" s="63" t="s">
+      <c r="D13" s="56" t="s">
         <v>438</v>
       </c>
-      <c r="E13" s="63" t="s">
+      <c r="E13" s="56" t="s">
         <v>464</v>
       </c>
-      <c r="F13" s="63" t="s">
+      <c r="F13" s="56" t="s">
         <v>449</v>
       </c>
-      <c r="G13" s="63" t="s">
+      <c r="G13" s="56" t="s">
         <v>465</v>
       </c>
-      <c r="H13" s="63" t="s">
+      <c r="H13" s="56" t="s">
         <v>454</v>
       </c>
-      <c r="I13" s="63"/>
-      <c r="J13" s="64" t="s">
-        <v>437</v>
-      </c>
-      <c r="K13" s="65"/>
-      <c r="L13" s="66"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="57" t="s">
+        <v>437</v>
+      </c>
+      <c r="K13" s="58"/>
+      <c r="L13" s="59"/>
       <c r="M13" s="41" t="s">
         <v>437</v>
       </c>
@@ -12332,7 +12347,7 @@
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="40" t="s">
         <v>118</v>
       </c>
@@ -12358,10 +12373,10 @@
         <v>454</v>
       </c>
       <c r="I14" s="7"/>
-      <c r="J14" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K14" s="55" t="s">
+      <c r="J14" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K14" s="53" t="s">
         <v>470</v>
       </c>
       <c r="L14" s="38" t="s">
@@ -12374,7 +12389,7 @@
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="40" t="s">
         <v>118</v>
       </c>
@@ -12400,10 +12415,10 @@
         <v>239</v>
       </c>
       <c r="I15" s="7"/>
-      <c r="J15" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K15" s="55"/>
+      <c r="J15" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K15" s="53"/>
       <c r="L15" s="38"/>
       <c r="M15" s="41" t="s">
         <v>437</v>
@@ -12412,7 +12427,7 @@
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="40" t="s">
         <v>118</v>
       </c>
@@ -12441,10 +12456,10 @@
       <c r="J16" s="51" t="s">
         <v>437</v>
       </c>
-      <c r="K16" s="67" t="s">
+      <c r="K16" s="60" t="s">
         <v>480</v>
       </c>
-      <c r="L16" s="68" t="s">
+      <c r="L16" s="61" t="s">
         <v>481</v>
       </c>
       <c r="M16" s="41" t="s">
@@ -12454,7 +12469,7 @@
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="40" t="s">
         <v>118</v>
       </c>
@@ -12480,10 +12495,10 @@
         <v>239</v>
       </c>
       <c r="I17" s="7"/>
-      <c r="J17" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K17" s="55" t="s">
+      <c r="J17" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K17" s="53" t="s">
         <v>483</v>
       </c>
       <c r="L17" s="38" t="s">
@@ -12496,7 +12511,7 @@
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="40" t="s">
         <v>118</v>
       </c>
@@ -12522,10 +12537,10 @@
         <v>454</v>
       </c>
       <c r="I18" s="7"/>
-      <c r="J18" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K18" s="56"/>
+      <c r="J18" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K18" s="83"/>
       <c r="L18" s="38"/>
       <c r="M18" s="9" t="s">
         <v>437</v>
@@ -12534,7 +12549,7 @@
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="40" t="s">
         <v>118</v>
       </c>
@@ -12560,11 +12575,11 @@
         <v>239</v>
       </c>
       <c r="I19" s="7"/>
-      <c r="J19" s="58" t="s">
-        <v>437</v>
-      </c>
-      <c r="K19" s="59"/>
-      <c r="L19" s="69"/>
+      <c r="J19" s="54" t="s">
+        <v>437</v>
+      </c>
+      <c r="K19" s="84"/>
+      <c r="L19" s="62"/>
       <c r="M19" s="44" t="s">
         <v>437</v>
       </c>
@@ -12572,7 +12587,7 @@
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="40" t="s">
         <v>118</v>
       </c>
@@ -12598,13 +12613,13 @@
         <v>239</v>
       </c>
       <c r="I20" s="7"/>
-      <c r="J20" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K20" s="56" t="s">
+      <c r="J20" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K20" s="83" t="s">
         <v>490</v>
       </c>
-      <c r="L20" s="62" t="s">
+      <c r="L20" s="90" t="s">
         <v>491</v>
       </c>
       <c r="M20" s="9" t="s">
@@ -12614,7 +12629,7 @@
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="40" t="s">
         <v>118</v>
       </c>
@@ -12640,11 +12655,11 @@
         <v>239</v>
       </c>
       <c r="I21" s="7"/>
-      <c r="J21" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K21" s="55"/>
-      <c r="L21" s="38"/>
+      <c r="J21" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K21" s="80"/>
+      <c r="L21" s="82"/>
       <c r="M21" s="9" t="s">
         <v>437</v>
       </c>
@@ -12652,7 +12667,7 @@
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="40" t="s">
         <v>118</v>
       </c>
@@ -12676,11 +12691,11 @@
         <v>239</v>
       </c>
       <c r="I22" s="7"/>
-      <c r="J22" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K22" s="55"/>
-      <c r="L22" s="38"/>
+      <c r="J22" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K22" s="80"/>
+      <c r="L22" s="82"/>
       <c r="M22" s="9" t="s">
         <v>437</v>
       </c>
@@ -12688,7 +12703,7 @@
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="40" t="s">
         <v>118</v>
       </c>
@@ -12714,11 +12729,11 @@
         <v>239</v>
       </c>
       <c r="I23" s="7"/>
-      <c r="J23" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K23" s="55"/>
-      <c r="L23" s="38"/>
+      <c r="J23" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K23" s="80"/>
+      <c r="L23" s="82"/>
       <c r="M23" s="9" t="s">
         <v>437</v>
       </c>
@@ -12726,7 +12741,7 @@
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="40" t="s">
         <v>118</v>
       </c>
@@ -12752,11 +12767,11 @@
         <v>239</v>
       </c>
       <c r="I24" s="7"/>
-      <c r="J24" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K24" s="55"/>
-      <c r="L24" s="38"/>
+      <c r="J24" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K24" s="80"/>
+      <c r="L24" s="82"/>
       <c r="M24" s="9" t="s">
         <v>437</v>
       </c>
@@ -12764,7 +12779,7 @@
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="40" t="s">
         <v>118</v>
       </c>
@@ -12793,10 +12808,10 @@
       <c r="J25" s="51" t="s">
         <v>437</v>
       </c>
-      <c r="K25" s="52" t="s">
+      <c r="K25" s="79" t="s">
         <v>497</v>
       </c>
-      <c r="L25" s="53" t="s">
+      <c r="L25" s="81" t="s">
         <v>498</v>
       </c>
       <c r="M25" s="41" t="s">
@@ -12806,7 +12821,7 @@
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="40" t="s">
         <v>118</v>
       </c>
@@ -12832,11 +12847,11 @@
         <v>454</v>
       </c>
       <c r="I26" s="7"/>
-      <c r="J26" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K26" s="55"/>
-      <c r="L26" s="38"/>
+      <c r="J26" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K26" s="80"/>
+      <c r="L26" s="82"/>
       <c r="M26" s="9" t="s">
         <v>437</v>
       </c>
@@ -12844,7 +12859,7 @@
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="40" t="s">
         <v>118</v>
       </c>
@@ -12870,11 +12885,11 @@
         <v>454</v>
       </c>
       <c r="I27" s="7"/>
-      <c r="J27" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K27" s="55"/>
-      <c r="L27" s="38"/>
+      <c r="J27" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K27" s="80"/>
+      <c r="L27" s="82"/>
       <c r="M27" s="9" t="s">
         <v>437</v>
       </c>
@@ -12882,7 +12897,7 @@
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="40" t="s">
         <v>118</v>
       </c>
@@ -12906,11 +12921,11 @@
         <v>454</v>
       </c>
       <c r="I28" s="43"/>
-      <c r="J28" s="58" t="s">
-        <v>437</v>
-      </c>
-      <c r="K28" s="59"/>
-      <c r="L28" s="69"/>
+      <c r="J28" s="54" t="s">
+        <v>437</v>
+      </c>
+      <c r="K28" s="84"/>
+      <c r="L28" s="91"/>
       <c r="M28" s="44" t="s">
         <v>437</v>
       </c>
@@ -12918,7 +12933,7 @@
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="40" t="s">
         <v>118</v>
       </c>
@@ -12944,10 +12959,10 @@
         <v>283</v>
       </c>
       <c r="I29" s="7"/>
-      <c r="J29" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K29" s="56" t="s">
+      <c r="J29" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K29" s="83" t="s">
         <v>503</v>
       </c>
       <c r="L29" s="38"/>
@@ -12958,7 +12973,7 @@
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="40" t="s">
         <v>118</v>
       </c>
@@ -12984,10 +12999,10 @@
         <v>283</v>
       </c>
       <c r="I30" s="7"/>
-      <c r="J30" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K30" s="55"/>
+      <c r="J30" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K30" s="80"/>
       <c r="L30" s="38"/>
       <c r="M30" s="9" t="s">
         <v>437</v>
@@ -12996,7 +13011,7 @@
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="40" t="s">
         <v>118</v>
       </c>
@@ -13022,10 +13037,10 @@
         <v>504</v>
       </c>
       <c r="I31" s="7"/>
-      <c r="J31" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K31" s="55"/>
+      <c r="J31" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K31" s="80"/>
       <c r="L31" s="38"/>
       <c r="M31" s="9" t="s">
         <v>437</v>
@@ -13034,7 +13049,7 @@
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="40" t="s">
         <v>118</v>
       </c>
@@ -13058,10 +13073,10 @@
         <v>283</v>
       </c>
       <c r="I32" s="7"/>
-      <c r="J32" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K32" s="55"/>
+      <c r="J32" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K32" s="80"/>
       <c r="L32" s="38"/>
       <c r="M32" s="9" t="s">
         <v>437</v>
@@ -13070,7 +13085,7 @@
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="40" t="s">
         <v>118</v>
       </c>
@@ -13099,10 +13114,10 @@
       <c r="J33" s="51" t="s">
         <v>437</v>
       </c>
-      <c r="K33" s="52" t="s">
+      <c r="K33" s="79" t="s">
         <v>470</v>
       </c>
-      <c r="L33" s="68" t="s">
+      <c r="L33" s="61" t="s">
         <v>471</v>
       </c>
       <c r="M33" s="41" t="s">
@@ -13112,7 +13127,7 @@
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="40" t="s">
         <v>118</v>
       </c>
@@ -13138,11 +13153,11 @@
         <v>239</v>
       </c>
       <c r="I34" s="43"/>
-      <c r="J34" s="58" t="s">
-        <v>437</v>
-      </c>
-      <c r="K34" s="59"/>
-      <c r="L34" s="69"/>
+      <c r="J34" s="54" t="s">
+        <v>437</v>
+      </c>
+      <c r="K34" s="84"/>
+      <c r="L34" s="62"/>
       <c r="M34" s="44" t="s">
         <v>437</v>
       </c>
@@ -13150,7 +13165,7 @@
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="40" t="s">
         <v>118</v>
       </c>
@@ -13176,10 +13191,10 @@
         <v>510</v>
       </c>
       <c r="I35" s="7"/>
-      <c r="J35" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K35" s="56" t="s">
+      <c r="J35" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K35" s="83" t="s">
         <v>470</v>
       </c>
       <c r="L35" s="38" t="s">
@@ -13192,7 +13207,7 @@
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="40" t="s">
         <v>118</v>
       </c>
@@ -13218,10 +13233,10 @@
         <v>454</v>
       </c>
       <c r="I36" s="7"/>
-      <c r="J36" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K36" s="55"/>
+      <c r="J36" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K36" s="80"/>
       <c r="L36" s="38"/>
       <c r="M36" s="9" t="s">
         <v>437</v>
@@ -13230,45 +13245,45 @@
       <c r="O36" s="7"/>
       <c r="P36" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="B37" s="63" t="s">
+      <c r="B37" s="56" t="s">
         <v>512</v>
       </c>
-      <c r="C37" s="63" t="s">
+      <c r="C37" s="56" t="s">
         <v>475</v>
       </c>
-      <c r="D37" s="63" t="s">
+      <c r="D37" s="56" t="s">
         <v>438</v>
       </c>
-      <c r="E37" s="63" t="s">
+      <c r="E37" s="56" t="s">
         <v>513</v>
       </c>
-      <c r="F37" s="63" t="s">
+      <c r="F37" s="56" t="s">
         <v>514</v>
       </c>
-      <c r="G37" s="63" t="s">
+      <c r="G37" s="56" t="s">
         <v>515</v>
       </c>
-      <c r="H37" s="63" t="s">
+      <c r="H37" s="56" t="s">
         <v>231</v>
       </c>
-      <c r="I37" s="63"/>
-      <c r="J37" s="64" t="s">
-        <v>437</v>
-      </c>
-      <c r="K37" s="65"/>
-      <c r="L37" s="66"/>
-      <c r="M37" s="70" t="s">
+      <c r="I37" s="56"/>
+      <c r="J37" s="57" t="s">
+        <v>437</v>
+      </c>
+      <c r="K37" s="58"/>
+      <c r="L37" s="59"/>
+      <c r="M37" s="63" t="s">
         <v>437</v>
       </c>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
       <c r="P37" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="40" t="s">
         <v>118</v>
       </c>
@@ -13294,10 +13309,10 @@
         <v>454</v>
       </c>
       <c r="I38" s="7"/>
-      <c r="J38" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K38" s="55"/>
+      <c r="J38" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K38" s="53"/>
       <c r="L38" s="38"/>
       <c r="M38" s="9" t="s">
         <v>437</v>
@@ -13306,7 +13321,7 @@
       <c r="O38" s="7"/>
       <c r="P38" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="40" t="s">
         <v>118</v>
       </c>
@@ -13335,10 +13350,10 @@
       <c r="J39" s="51" t="s">
         <v>437</v>
       </c>
-      <c r="K39" s="71" t="s">
+      <c r="K39" s="64" t="s">
         <v>520</v>
       </c>
-      <c r="L39" s="53"/>
+      <c r="L39" s="81"/>
       <c r="M39" s="41" t="s">
         <v>437</v>
       </c>
@@ -13346,7 +13361,7 @@
       <c r="O39" s="7"/>
       <c r="P39" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="40" t="s">
         <v>118</v>
       </c>
@@ -13372,11 +13387,11 @@
         <v>239</v>
       </c>
       <c r="I40" s="7"/>
-      <c r="J40" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K40" s="55"/>
-      <c r="L40" s="38"/>
+      <c r="J40" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K40" s="53"/>
+      <c r="L40" s="82"/>
       <c r="M40" s="9" t="s">
         <v>437</v>
       </c>
@@ -13384,7 +13399,7 @@
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="40" t="s">
         <v>118</v>
       </c>
@@ -13410,13 +13425,13 @@
         <v>239</v>
       </c>
       <c r="I41" s="7"/>
-      <c r="J41" s="58" t="s">
-        <v>437</v>
-      </c>
-      <c r="K41" s="55" t="s">
+      <c r="J41" s="54" t="s">
+        <v>437</v>
+      </c>
+      <c r="K41" s="53" t="s">
         <v>524</v>
       </c>
-      <c r="L41" s="69" t="s">
+      <c r="L41" s="62" t="s">
         <v>525</v>
       </c>
       <c r="M41" s="9" t="s">
@@ -13426,7 +13441,7 @@
       <c r="O41" s="7"/>
       <c r="P41" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="40" t="s">
         <v>118</v>
       </c>
@@ -13452,13 +13467,13 @@
         <v>239</v>
       </c>
       <c r="I42" s="7"/>
-      <c r="J42" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K42" s="56" t="s">
+      <c r="J42" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K42" s="83" t="s">
         <v>527</v>
       </c>
-      <c r="L42" s="62" t="s">
+      <c r="L42" s="90" t="s">
         <v>528</v>
       </c>
       <c r="M42" s="41" t="s">
@@ -13468,7 +13483,7 @@
       <c r="O42" s="7"/>
       <c r="P42" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="40" t="s">
         <v>118</v>
       </c>
@@ -13494,11 +13509,11 @@
         <v>239</v>
       </c>
       <c r="I43" s="7"/>
-      <c r="J43" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K43" s="55"/>
-      <c r="L43" s="38"/>
+      <c r="J43" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K43" s="80"/>
+      <c r="L43" s="82"/>
       <c r="M43" s="9" t="s">
         <v>437</v>
       </c>
@@ -13506,7 +13521,7 @@
       <c r="O43" s="7"/>
       <c r="P43" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="40" t="s">
         <v>118</v>
       </c>
@@ -13532,11 +13547,11 @@
         <v>239</v>
       </c>
       <c r="I44" s="7"/>
-      <c r="J44" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K44" s="55"/>
-      <c r="L44" s="38"/>
+      <c r="J44" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K44" s="80"/>
+      <c r="L44" s="82"/>
       <c r="M44" s="9" t="s">
         <v>437</v>
       </c>
@@ -13544,7 +13559,7 @@
       <c r="O44" s="7"/>
       <c r="P44" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="40" t="s">
         <v>118</v>
       </c>
@@ -13568,11 +13583,11 @@
         <v>239</v>
       </c>
       <c r="I45" s="7"/>
-      <c r="J45" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K45" s="55"/>
-      <c r="L45" s="38"/>
+      <c r="J45" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K45" s="80"/>
+      <c r="L45" s="82"/>
       <c r="M45" s="9" t="s">
         <v>437</v>
       </c>
@@ -13580,7 +13595,7 @@
       <c r="O45" s="7"/>
       <c r="P45" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="40" t="s">
         <v>118</v>
       </c>
@@ -13606,11 +13621,11 @@
         <v>239</v>
       </c>
       <c r="I46" s="7"/>
-      <c r="J46" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K46" s="55"/>
-      <c r="L46" s="38"/>
+      <c r="J46" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K46" s="80"/>
+      <c r="L46" s="82"/>
       <c r="M46" s="9" t="s">
         <v>437</v>
       </c>
@@ -13618,7 +13633,7 @@
       <c r="O46" s="7"/>
       <c r="P46" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="40" t="s">
         <v>118</v>
       </c>
@@ -13644,11 +13659,11 @@
         <v>239</v>
       </c>
       <c r="I47" s="7"/>
-      <c r="J47" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K47" s="55"/>
-      <c r="L47" s="38"/>
+      <c r="J47" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K47" s="80"/>
+      <c r="L47" s="82"/>
       <c r="M47" s="9" t="s">
         <v>437</v>
       </c>
@@ -13656,39 +13671,39 @@
       <c r="O47" s="7"/>
       <c r="P47" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="B48" s="63" t="s">
+      <c r="B48" s="56" t="s">
         <v>532</v>
       </c>
-      <c r="C48" s="63" t="s">
+      <c r="C48" s="56" t="s">
         <v>432</v>
       </c>
-      <c r="D48" s="63" t="s">
+      <c r="D48" s="56" t="s">
         <v>485</v>
       </c>
-      <c r="E48" s="63" t="s">
+      <c r="E48" s="56" t="s">
         <v>533</v>
       </c>
-      <c r="F48" s="63" t="s">
+      <c r="F48" s="56" t="s">
         <v>488</v>
       </c>
-      <c r="G48" s="70" t="s">
+      <c r="G48" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="H48" s="63" t="s">
+      <c r="H48" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="I48" s="70"/>
-      <c r="J48" s="64" t="s">
-        <v>437</v>
-      </c>
-      <c r="K48" s="65" t="s">
+      <c r="I48" s="63"/>
+      <c r="J48" s="57" t="s">
+        <v>437</v>
+      </c>
+      <c r="K48" s="58" t="s">
         <v>534</v>
       </c>
-      <c r="L48" s="66" t="s">
+      <c r="L48" s="59" t="s">
         <v>535</v>
       </c>
       <c r="M48" s="41" t="s">
@@ -13698,7 +13713,7 @@
       <c r="O48" s="7"/>
       <c r="P48" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row r="49" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="40" t="s">
         <v>118</v>
       </c>
@@ -13724,10 +13739,10 @@
         <v>539</v>
       </c>
       <c r="I49" s="7"/>
-      <c r="J49" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K49" s="55"/>
+      <c r="J49" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K49" s="53"/>
       <c r="L49" s="38"/>
       <c r="M49" s="41" t="s">
         <v>437</v>
@@ -13736,7 +13751,7 @@
       <c r="O49" s="7"/>
       <c r="P49" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="14.699999999999998">
+    <row r="50" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="40" t="s">
         <v>118</v>
       </c>
@@ -13765,10 +13780,10 @@
       <c r="J50" s="51" t="s">
         <v>437</v>
       </c>
-      <c r="K50" s="72" t="s">
+      <c r="K50" s="92" t="s">
         <v>541</v>
       </c>
-      <c r="L50" s="68"/>
+      <c r="L50" s="61"/>
       <c r="M50" s="41" t="s">
         <v>437</v>
       </c>
@@ -13776,7 +13791,7 @@
       <c r="O50" s="7"/>
       <c r="P50" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row r="51" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="40" t="s">
         <v>118</v>
       </c>
@@ -13802,10 +13817,10 @@
         <v>239</v>
       </c>
       <c r="I51" s="7"/>
-      <c r="J51" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K51" s="49"/>
+      <c r="J51" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K51" s="89"/>
       <c r="L51" s="38"/>
       <c r="M51" s="41" t="s">
         <v>437</v>
@@ -13814,7 +13829,7 @@
       <c r="O51" s="7"/>
       <c r="P51" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row r="52" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="40" t="s">
         <v>118</v>
       </c>
@@ -13840,10 +13855,10 @@
         <v>239</v>
       </c>
       <c r="I52" s="7"/>
-      <c r="J52" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K52" s="49"/>
+      <c r="J52" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K52" s="89"/>
       <c r="L52" s="38"/>
       <c r="M52" s="41" t="s">
         <v>437</v>
@@ -13852,7 +13867,7 @@
       <c r="O52" s="7"/>
       <c r="P52" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row r="53" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="40" t="s">
         <v>118</v>
       </c>
@@ -13878,10 +13893,10 @@
         <v>239</v>
       </c>
       <c r="I53" s="7"/>
-      <c r="J53" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K53" s="49"/>
+      <c r="J53" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K53" s="89"/>
       <c r="L53" s="38"/>
       <c r="M53" s="41" t="s">
         <v>437</v>
@@ -13890,7 +13905,7 @@
       <c r="O53" s="7"/>
       <c r="P53" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row r="54" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="40" t="s">
         <v>118</v>
       </c>
@@ -13914,11 +13929,11 @@
         <v>239</v>
       </c>
       <c r="I54" s="43"/>
-      <c r="J54" s="58" t="s">
-        <v>437</v>
-      </c>
-      <c r="K54" s="73"/>
-      <c r="L54" s="69"/>
+      <c r="J54" s="54" t="s">
+        <v>437</v>
+      </c>
+      <c r="K54" s="93"/>
+      <c r="L54" s="62"/>
       <c r="M54" s="41" t="s">
         <v>437</v>
       </c>
@@ -13926,7 +13941,7 @@
       <c r="O54" s="7"/>
       <c r="P54" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row r="55" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="40" t="s">
         <v>118</v>
       </c>
@@ -13952,7 +13967,7 @@
         <v>454</v>
       </c>
       <c r="I55" s="7"/>
-      <c r="J55" s="54" t="s">
+      <c r="J55" s="52" t="s">
         <v>437</v>
       </c>
       <c r="K55" s="49" t="s">
@@ -13968,37 +13983,37 @@
       <c r="O55" s="7"/>
       <c r="P55" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+    <row r="56" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="B56" s="63" t="s">
+      <c r="B56" s="56" t="s">
         <v>553</v>
       </c>
-      <c r="C56" s="63" t="s">
+      <c r="C56" s="56" t="s">
         <v>432</v>
       </c>
-      <c r="D56" s="63" t="s">
+      <c r="D56" s="56" t="s">
         <v>452</v>
       </c>
       <c r="E56" s="8"/>
-      <c r="F56" s="63" t="s">
+      <c r="F56" s="56" t="s">
         <v>443</v>
       </c>
-      <c r="G56" s="70" t="s">
+      <c r="G56" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="H56" s="63" t="s">
+      <c r="H56" s="56" t="s">
         <v>454</v>
       </c>
-      <c r="I56" s="70"/>
-      <c r="J56" s="64" t="s">
-        <v>437</v>
-      </c>
-      <c r="K56" s="65" t="s">
+      <c r="I56" s="63"/>
+      <c r="J56" s="57" t="s">
+        <v>437</v>
+      </c>
+      <c r="K56" s="58" t="s">
         <v>554</v>
       </c>
-      <c r="L56" s="66" t="s">
+      <c r="L56" s="59" t="s">
         <v>555</v>
       </c>
       <c r="M56" s="41" t="s">
@@ -14008,7 +14023,7 @@
       <c r="O56" s="7"/>
       <c r="P56" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+    <row r="57" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="40" t="s">
         <v>118</v>
       </c>
@@ -14034,10 +14049,10 @@
         <v>454</v>
       </c>
       <c r="I57" s="7"/>
-      <c r="J57" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K57" s="56" t="s">
+      <c r="J57" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K57" s="83" t="s">
         <v>558</v>
       </c>
       <c r="L57" s="38"/>
@@ -14048,7 +14063,7 @@
       <c r="O57" s="7"/>
       <c r="P57" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+    <row r="58" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="40" t="s">
         <v>118</v>
       </c>
@@ -14074,10 +14089,10 @@
         <v>561</v>
       </c>
       <c r="I58" s="7"/>
-      <c r="J58" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K58" s="55"/>
+      <c r="J58" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K58" s="80"/>
       <c r="L58" s="38"/>
       <c r="M58" s="9" t="s">
         <v>437</v>
@@ -14086,7 +14101,7 @@
       <c r="O58" s="7"/>
       <c r="P58" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+    <row r="59" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="40" t="s">
         <v>118</v>
       </c>
@@ -14110,10 +14125,10 @@
         <v>454</v>
       </c>
       <c r="I59" s="7"/>
-      <c r="J59" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K59" s="55"/>
+      <c r="J59" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K59" s="80"/>
       <c r="L59" s="38"/>
       <c r="M59" s="9" t="s">
         <v>437</v>
@@ -14122,7 +14137,7 @@
       <c r="O59" s="7"/>
       <c r="P59" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+    <row r="60" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="40" t="s">
         <v>118</v>
       </c>
@@ -14151,10 +14166,10 @@
       <c r="J60" s="41" t="s">
         <v>437</v>
       </c>
-      <c r="K60" s="53" t="s">
+      <c r="K60" s="81" t="s">
         <v>563</v>
       </c>
-      <c r="L60" s="68"/>
+      <c r="L60" s="61"/>
       <c r="M60" s="41" t="s">
         <v>437</v>
       </c>
@@ -14162,7 +14177,7 @@
       <c r="O60" s="7"/>
       <c r="P60" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+    <row r="61" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="40" t="s">
         <v>118</v>
       </c>
@@ -14191,7 +14206,7 @@
       <c r="J61" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="K61" s="38"/>
+      <c r="K61" s="82"/>
       <c r="L61" s="38" t="s">
         <v>565</v>
       </c>
@@ -14202,7 +14217,7 @@
       <c r="O61" s="7"/>
       <c r="P61" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+    <row r="62" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="40" t="s">
         <v>118</v>
       </c>
@@ -14228,10 +14243,10 @@
         <v>454</v>
       </c>
       <c r="I62" s="7"/>
-      <c r="J62" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K62" s="38"/>
+      <c r="J62" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K62" s="82"/>
       <c r="L62" s="38" t="s">
         <v>567</v>
       </c>
@@ -14242,7 +14257,7 @@
       <c r="O62" s="7"/>
       <c r="P62" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+    <row r="63" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="40" t="s">
         <v>118</v>
       </c>
@@ -14268,10 +14283,10 @@
         <v>454</v>
       </c>
       <c r="I63" s="7"/>
-      <c r="J63" s="74" t="s">
-        <v>437</v>
-      </c>
-      <c r="K63" s="56"/>
+      <c r="J63" s="65" t="s">
+        <v>437</v>
+      </c>
+      <c r="K63" s="83"/>
       <c r="L63" s="38"/>
       <c r="M63" s="9" t="s">
         <v>437</v>
@@ -14280,7 +14295,7 @@
       <c r="O63" s="7"/>
       <c r="P63" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+    <row r="64" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="40" t="s">
         <v>118</v>
       </c>
@@ -14306,10 +14321,10 @@
         <v>561</v>
       </c>
       <c r="I64" s="7"/>
-      <c r="J64" s="74" t="s">
-        <v>437</v>
-      </c>
-      <c r="K64" s="55"/>
+      <c r="J64" s="65" t="s">
+        <v>437</v>
+      </c>
+      <c r="K64" s="80"/>
       <c r="L64" s="38"/>
       <c r="M64" s="9" t="s">
         <v>437</v>
@@ -14318,7 +14333,7 @@
       <c r="O64" s="7"/>
       <c r="P64" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+    <row r="65" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="40" t="s">
         <v>118</v>
       </c>
@@ -14344,10 +14359,10 @@
         <v>454</v>
       </c>
       <c r="I65" s="7"/>
-      <c r="J65" s="74" t="s">
-        <v>437</v>
-      </c>
-      <c r="K65" s="55"/>
+      <c r="J65" s="65" t="s">
+        <v>437</v>
+      </c>
+      <c r="K65" s="80"/>
       <c r="L65" s="38" t="s">
         <v>567</v>
       </c>
@@ -14358,7 +14373,7 @@
       <c r="O65" s="7"/>
       <c r="P65" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+    <row r="66" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="40" t="s">
         <v>118</v>
       </c>
@@ -14382,19 +14397,19 @@
         <v>454</v>
       </c>
       <c r="I66" s="7"/>
-      <c r="J66" s="74" t="s">
-        <v>437</v>
-      </c>
-      <c r="K66" s="55"/>
+      <c r="J66" s="65" t="s">
+        <v>437</v>
+      </c>
+      <c r="K66" s="80"/>
       <c r="L66" s="14"/>
-      <c r="M66" s="54" t="s">
+      <c r="M66" s="52" t="s">
         <v>437</v>
       </c>
       <c r="N66" s="7"/>
       <c r="O66" s="7"/>
       <c r="P66" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+    <row r="67" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="40" t="s">
         <v>118</v>
       </c>
@@ -14423,8 +14438,8 @@
       <c r="J67" s="43" t="s">
         <v>437</v>
       </c>
-      <c r="K67" s="75"/>
-      <c r="L67" s="59"/>
+      <c r="K67" s="66"/>
+      <c r="L67" s="55"/>
       <c r="M67" s="9" t="s">
         <v>437</v>
       </c>
@@ -14432,7 +14447,7 @@
       <c r="O67" s="7"/>
       <c r="P67" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+    <row r="68" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="40" t="s">
         <v>118</v>
       </c>
@@ -14458,11 +14473,11 @@
         <v>539</v>
       </c>
       <c r="I68" s="43"/>
-      <c r="J68" s="58" t="s">
-        <v>437</v>
-      </c>
-      <c r="K68" s="65"/>
-      <c r="L68" s="69"/>
+      <c r="J68" s="54" t="s">
+        <v>437</v>
+      </c>
+      <c r="K68" s="58"/>
+      <c r="L68" s="62"/>
       <c r="M68" s="41" t="s">
         <v>437</v>
       </c>
@@ -14470,7 +14485,7 @@
       <c r="O68" s="7"/>
       <c r="P68" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+    <row r="69" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="40" t="s">
         <v>118</v>
       </c>
@@ -14496,10 +14511,10 @@
         <v>454</v>
       </c>
       <c r="I69" s="7"/>
-      <c r="J69" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K69" s="56" t="s">
+      <c r="J69" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K69" s="83" t="s">
         <v>470</v>
       </c>
       <c r="L69" s="38" t="s">
@@ -14512,7 +14527,7 @@
       <c r="O69" s="7"/>
       <c r="P69" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+    <row r="70" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="40" t="s">
         <v>118</v>
       </c>
@@ -14538,10 +14553,10 @@
         <v>239</v>
       </c>
       <c r="I70" s="7"/>
-      <c r="J70" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K70" s="55"/>
+      <c r="J70" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K70" s="80"/>
       <c r="L70" s="38"/>
       <c r="M70" s="9" t="s">
         <v>437</v>
@@ -14550,7 +14565,7 @@
       <c r="O70" s="7"/>
       <c r="P70" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+    <row r="71" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="40" t="s">
         <v>118</v>
       </c>
@@ -14577,10 +14592,10 @@
       <c r="J71" s="51" t="s">
         <v>437</v>
       </c>
-      <c r="K71" s="71" t="s">
+      <c r="K71" s="64" t="s">
         <v>580</v>
       </c>
-      <c r="L71" s="68" t="s">
+      <c r="L71" s="61" t="s">
         <v>581</v>
       </c>
       <c r="M71" s="41" t="s">
@@ -14590,7 +14605,7 @@
       <c r="O71" s="7"/>
       <c r="P71" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+    <row r="72" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="40" t="s">
         <v>118</v>
       </c>
@@ -14616,10 +14631,10 @@
         <v>583</v>
       </c>
       <c r="I72" s="7"/>
-      <c r="J72" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K72" s="56"/>
+      <c r="J72" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K72" s="83"/>
       <c r="L72" s="38"/>
       <c r="M72" s="9" t="s">
         <v>437</v>
@@ -14628,7 +14643,7 @@
       <c r="O72" s="7"/>
       <c r="P72" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+    <row r="73" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="40" t="s">
         <v>118</v>
       </c>
@@ -14652,10 +14667,10 @@
         <v>583</v>
       </c>
       <c r="I73" s="7"/>
-      <c r="J73" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K73" s="55"/>
+      <c r="J73" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K73" s="80"/>
       <c r="L73" s="38"/>
       <c r="M73" s="9" t="s">
         <v>437</v>
@@ -14664,7 +14679,7 @@
       <c r="O73" s="7"/>
       <c r="P73" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+    <row r="74" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="40" t="s">
         <v>118</v>
       </c>
@@ -14688,10 +14703,10 @@
         <v>318</v>
       </c>
       <c r="I74" s="7"/>
-      <c r="J74" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K74" s="55"/>
+      <c r="J74" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K74" s="80"/>
       <c r="L74" s="38"/>
       <c r="M74" s="9" t="s">
         <v>437</v>
@@ -14700,7 +14715,7 @@
       <c r="O74" s="7"/>
       <c r="P74" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+    <row r="75" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="40" t="s">
         <v>118</v>
       </c>
@@ -14722,11 +14737,11 @@
         <v>318</v>
       </c>
       <c r="I75" s="43"/>
-      <c r="J75" s="58" t="s">
-        <v>437</v>
-      </c>
-      <c r="K75" s="59"/>
-      <c r="L75" s="69"/>
+      <c r="J75" s="54" t="s">
+        <v>437</v>
+      </c>
+      <c r="K75" s="84"/>
+      <c r="L75" s="62"/>
       <c r="M75" s="9" t="s">
         <v>437</v>
       </c>
@@ -14734,7 +14749,7 @@
       <c r="O75" s="7"/>
       <c r="P75" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+    <row r="76" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="40" t="s">
         <v>118</v>
       </c>
@@ -14760,10 +14775,10 @@
         <v>454</v>
       </c>
       <c r="I76" s="7"/>
-      <c r="J76" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K76" s="55"/>
+      <c r="J76" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K76" s="53"/>
       <c r="L76" s="38"/>
       <c r="M76" s="41" t="s">
         <v>437</v>
@@ -14772,7 +14787,7 @@
       <c r="O76" s="7"/>
       <c r="P76" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+    <row r="77" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="40" t="s">
         <v>118</v>
       </c>
@@ -14797,16 +14812,16 @@
       <c r="H77" s="40" t="s">
         <v>239</v>
       </c>
-      <c r="I77" s="76" t="s">
+      <c r="I77" s="67" t="s">
         <v>589</v>
       </c>
       <c r="J77" s="51" t="s">
         <v>437</v>
       </c>
-      <c r="K77" s="72" t="s">
+      <c r="K77" s="92" t="s">
         <v>590</v>
       </c>
-      <c r="L77" s="52" t="s">
+      <c r="L77" s="79" t="s">
         <v>591</v>
       </c>
       <c r="M77" s="41" t="s">
@@ -14816,7 +14831,7 @@
       <c r="O77" s="7"/>
       <c r="P77" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+    <row r="78" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="40" t="s">
         <v>118</v>
       </c>
@@ -14841,22 +14856,22 @@
       <c r="H78" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="I78" s="76" t="s">
+      <c r="I78" s="67" t="s">
         <v>589</v>
       </c>
-      <c r="J78" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K78" s="73"/>
-      <c r="L78" s="77"/>
-      <c r="M78" s="54" t="s">
+      <c r="J78" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K78" s="93"/>
+      <c r="L78" s="94"/>
+      <c r="M78" s="52" t="s">
         <v>437</v>
       </c>
       <c r="N78" s="7"/>
       <c r="O78" s="7"/>
       <c r="P78" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+    <row r="79" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="40" t="s">
         <v>118</v>
       </c>
@@ -14882,21 +14897,21 @@
         <v>239</v>
       </c>
       <c r="I79" s="7"/>
-      <c r="J79" s="54" t="s">
+      <c r="J79" s="52" t="s">
         <v>437</v>
       </c>
       <c r="K79" s="38" t="s">
         <v>592</v>
       </c>
-      <c r="L79" s="77"/>
-      <c r="M79" s="54" t="s">
+      <c r="L79" s="94"/>
+      <c r="M79" s="52" t="s">
         <v>437</v>
       </c>
       <c r="N79" s="7"/>
       <c r="O79" s="7"/>
       <c r="P79" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+    <row r="80" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="40" t="s">
         <v>118</v>
       </c>
@@ -14919,16 +14934,16 @@
       <c r="H80" s="43" t="s">
         <v>239</v>
       </c>
-      <c r="I80" s="76" t="s">
+      <c r="I80" s="67" t="s">
         <v>589</v>
       </c>
-      <c r="J80" s="58" t="s">
+      <c r="J80" s="54" t="s">
         <v>437</v>
       </c>
       <c r="K80" s="38" t="s">
         <v>592</v>
       </c>
-      <c r="L80" s="59"/>
+      <c r="L80" s="84"/>
       <c r="M80" s="9" t="s">
         <v>437</v>
       </c>
@@ -14936,7 +14951,7 @@
       <c r="O80" s="7"/>
       <c r="P80" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+    <row r="81" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="40" t="s">
         <v>118</v>
       </c>
@@ -14962,10 +14977,10 @@
         <v>454</v>
       </c>
       <c r="I81" s="7"/>
-      <c r="J81" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K81" s="56" t="s">
+      <c r="J81" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K81" s="83" t="s">
         <v>470</v>
       </c>
       <c r="L81" s="38" t="s">
@@ -14978,7 +14993,7 @@
       <c r="O81" s="7"/>
       <c r="P81" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+    <row r="82" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="40" t="s">
         <v>118</v>
       </c>
@@ -15004,10 +15019,10 @@
         <v>239</v>
       </c>
       <c r="I82" s="7"/>
-      <c r="J82" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K82" s="55"/>
+      <c r="J82" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K82" s="80"/>
       <c r="L82" s="38"/>
       <c r="M82" s="9" t="s">
         <v>437</v>
@@ -15016,39 +15031,39 @@
       <c r="O82" s="7"/>
       <c r="P82" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+    <row r="83" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="B83" s="63" t="s">
+      <c r="B83" s="56" t="s">
         <v>596</v>
       </c>
-      <c r="C83" s="63" t="s">
+      <c r="C83" s="56" t="s">
         <v>432</v>
       </c>
-      <c r="D83" s="63" t="s">
+      <c r="D83" s="56" t="s">
         <v>485</v>
       </c>
-      <c r="E83" s="63" t="s">
+      <c r="E83" s="56" t="s">
         <v>597</v>
       </c>
-      <c r="F83" s="63" t="s">
+      <c r="F83" s="56" t="s">
         <v>488</v>
       </c>
-      <c r="G83" s="63" t="s">
+      <c r="G83" s="56" t="s">
         <v>268</v>
       </c>
-      <c r="H83" s="63" t="s">
+      <c r="H83" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="I83" s="63"/>
-      <c r="J83" s="64" t="s">
-        <v>437</v>
-      </c>
-      <c r="K83" s="65" t="s">
+      <c r="I83" s="56"/>
+      <c r="J83" s="57" t="s">
+        <v>437</v>
+      </c>
+      <c r="K83" s="58" t="s">
         <v>598</v>
       </c>
-      <c r="L83" s="66" t="s">
+      <c r="L83" s="59" t="s">
         <v>599</v>
       </c>
       <c r="M83" s="41" t="s">
@@ -15058,7 +15073,7 @@
       <c r="O83" s="7"/>
       <c r="P83" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+    <row r="84" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="40" t="s">
         <v>118</v>
       </c>
@@ -15084,10 +15099,10 @@
         <v>326</v>
       </c>
       <c r="I84" s="7"/>
-      <c r="J84" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K84" s="55" t="s">
+      <c r="J84" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K84" s="53" t="s">
         <v>602</v>
       </c>
       <c r="L84" s="38" t="s">
@@ -15100,7 +15115,7 @@
       <c r="O84" s="7"/>
       <c r="P84" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+    <row r="85" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="40" t="s">
         <v>118</v>
       </c>
@@ -15126,10 +15141,10 @@
         <v>326</v>
       </c>
       <c r="I85" s="7"/>
-      <c r="J85" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K85" s="56" t="s">
+      <c r="J85" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K85" s="83" t="s">
         <v>604</v>
       </c>
       <c r="L85" s="38"/>
@@ -15140,7 +15155,7 @@
       <c r="O85" s="7"/>
       <c r="P85" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+    <row r="86" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="40" t="s">
         <v>118</v>
       </c>
@@ -15166,10 +15181,10 @@
         <v>326</v>
       </c>
       <c r="I86" s="7"/>
-      <c r="J86" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K86" s="55"/>
+      <c r="J86" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K86" s="80"/>
       <c r="L86" s="38"/>
       <c r="M86" s="9" t="s">
         <v>437</v>
@@ -15178,7 +15193,7 @@
       <c r="O86" s="7"/>
       <c r="P86" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+    <row r="87" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="40" t="s">
         <v>118</v>
       </c>
@@ -15204,10 +15219,10 @@
         <v>326</v>
       </c>
       <c r="I87" s="7"/>
-      <c r="J87" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K87" s="55"/>
+      <c r="J87" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K87" s="80"/>
       <c r="L87" s="38"/>
       <c r="M87" s="9" t="s">
         <v>437</v>
@@ -15216,7 +15231,7 @@
       <c r="O87" s="7"/>
       <c r="P87" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+    <row r="88" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="40" t="s">
         <v>118</v>
       </c>
@@ -15240,10 +15255,10 @@
         <v>326</v>
       </c>
       <c r="I88" s="7"/>
-      <c r="J88" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K88" s="55"/>
+      <c r="J88" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K88" s="80"/>
       <c r="L88" s="38"/>
       <c r="M88" s="9" t="s">
         <v>437</v>
@@ -15252,7 +15267,7 @@
       <c r="O88" s="7"/>
       <c r="P88" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
+    <row r="89" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="40" t="s">
         <v>118</v>
       </c>
@@ -15278,10 +15293,10 @@
         <v>326</v>
       </c>
       <c r="I89" s="7"/>
-      <c r="J89" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K89" s="55"/>
+      <c r="J89" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K89" s="80"/>
       <c r="L89" s="38"/>
       <c r="M89" s="9" t="s">
         <v>437</v>
@@ -15290,7 +15305,7 @@
       <c r="O89" s="7"/>
       <c r="P89" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
+    <row r="90" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="40" t="s">
         <v>118</v>
       </c>
@@ -15316,10 +15331,10 @@
         <v>326</v>
       </c>
       <c r="I90" s="7"/>
-      <c r="J90" s="58" t="s">
-        <v>437</v>
-      </c>
-      <c r="K90" s="55"/>
+      <c r="J90" s="54" t="s">
+        <v>437</v>
+      </c>
+      <c r="K90" s="80"/>
       <c r="L90" s="38"/>
       <c r="M90" s="9" t="s">
         <v>437</v>
@@ -15328,7 +15343,7 @@
       <c r="O90" s="7"/>
       <c r="P90" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
+    <row r="91" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="40" t="s">
         <v>118</v>
       </c>
@@ -15354,13 +15369,13 @@
         <v>277</v>
       </c>
       <c r="I91" s="7"/>
-      <c r="J91" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K91" s="72" t="s">
+      <c r="J91" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K91" s="92" t="s">
         <v>610</v>
       </c>
-      <c r="L91" s="78" t="s">
+      <c r="L91" s="95" t="s">
         <v>611</v>
       </c>
       <c r="M91" s="41" t="s">
@@ -15370,7 +15385,7 @@
       <c r="O91" s="7"/>
       <c r="P91" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="72.45">
+    <row r="92" spans="1:16" ht="72.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="40" t="s">
         <v>118</v>
       </c>
@@ -15399,8 +15414,8 @@
       <c r="J92" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="K92" s="49"/>
-      <c r="L92" s="77"/>
+      <c r="K92" s="89"/>
+      <c r="L92" s="94"/>
       <c r="M92" s="9" t="s">
         <v>437</v>
       </c>
@@ -15408,7 +15423,7 @@
       <c r="O92" s="7"/>
       <c r="P92" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
+    <row r="93" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="40" t="s">
         <v>118</v>
       </c>
@@ -15437,8 +15452,8 @@
       <c r="J93" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="K93" s="49"/>
-      <c r="L93" s="77"/>
+      <c r="K93" s="89"/>
+      <c r="L93" s="94"/>
       <c r="M93" s="9" t="s">
         <v>437</v>
       </c>
@@ -15446,7 +15461,7 @@
       <c r="O93" s="7"/>
       <c r="P93" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
+    <row r="94" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="40" t="s">
         <v>118</v>
       </c>
@@ -15470,11 +15485,11 @@
         <v>277</v>
       </c>
       <c r="I94" s="44"/>
-      <c r="J94" s="58" t="s">
-        <v>437</v>
-      </c>
-      <c r="K94" s="73"/>
-      <c r="L94" s="75"/>
+      <c r="J94" s="54" t="s">
+        <v>437</v>
+      </c>
+      <c r="K94" s="93"/>
+      <c r="L94" s="96"/>
       <c r="M94" s="9" t="s">
         <v>437</v>
       </c>
@@ -15482,7 +15497,7 @@
       <c r="O94" s="7"/>
       <c r="P94" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
+    <row r="95" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="40" t="s">
         <v>118</v>
       </c>
@@ -15508,10 +15523,10 @@
         <v>295</v>
       </c>
       <c r="I95" s="7"/>
-      <c r="J95" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K95" s="52"/>
+      <c r="J95" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K95" s="79"/>
       <c r="L95" s="38"/>
       <c r="M95" s="41" t="s">
         <v>437</v>
@@ -15520,7 +15535,7 @@
       <c r="O95" s="7"/>
       <c r="P95" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
+    <row r="96" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="40" t="s">
         <v>118</v>
       </c>
@@ -15546,10 +15561,10 @@
         <v>295</v>
       </c>
       <c r="I96" s="7"/>
-      <c r="J96" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K96" s="55"/>
+      <c r="J96" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K96" s="80"/>
       <c r="L96" s="38"/>
       <c r="M96" s="41" t="s">
         <v>437</v>
@@ -15558,7 +15573,7 @@
       <c r="O96" s="7"/>
       <c r="P96" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
+    <row r="97" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="40" t="s">
         <v>118</v>
       </c>
@@ -15584,10 +15599,10 @@
         <v>295</v>
       </c>
       <c r="I97" s="7"/>
-      <c r="J97" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K97" s="55"/>
+      <c r="J97" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K97" s="80"/>
       <c r="L97" s="38"/>
       <c r="M97" s="41" t="s">
         <v>437</v>
@@ -15596,7 +15611,7 @@
       <c r="O97" s="7"/>
       <c r="P97" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
+    <row r="98" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="40" t="s">
         <v>118</v>
       </c>
@@ -15622,10 +15637,10 @@
         <v>295</v>
       </c>
       <c r="I98" s="7"/>
-      <c r="J98" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="K98" s="55"/>
+      <c r="J98" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K98" s="80"/>
       <c r="L98" s="38"/>
       <c r="M98" s="41" t="s">
         <v>437</v>
@@ -15634,7 +15649,7 @@
       <c r="O98" s="7"/>
       <c r="P98" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
+    <row r="99" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="40" t="s">
         <v>118</v>
       </c>
@@ -15658,19 +15673,19 @@
         <v>295</v>
       </c>
       <c r="I99" s="7"/>
-      <c r="J99" s="58" t="s">
-        <v>437</v>
-      </c>
-      <c r="K99" s="59"/>
-      <c r="L99" s="59"/>
-      <c r="M99" s="64" t="s">
+      <c r="J99" s="54" t="s">
+        <v>437</v>
+      </c>
+      <c r="K99" s="84"/>
+      <c r="L99" s="55"/>
+      <c r="M99" s="57" t="s">
         <v>437</v>
       </c>
       <c r="N99" s="7"/>
       <c r="O99" s="7"/>
       <c r="P99" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
+    <row r="100" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="7"/>
       <c r="B100" s="40"/>
       <c r="C100" s="40"/>
@@ -15690,43 +15705,43 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="K91:K94"/>
+    <mergeCell ref="L91:L94"/>
+    <mergeCell ref="K95:K99"/>
+    <mergeCell ref="K72:K75"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="L77:L80"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="K85:K90"/>
+    <mergeCell ref="K50:K54"/>
+    <mergeCell ref="K57:K59"/>
+    <mergeCell ref="K60:K62"/>
+    <mergeCell ref="K63:K66"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="K29:K32"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="K42:K47"/>
+    <mergeCell ref="L42:L47"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="K20:K24"/>
+    <mergeCell ref="L20:L24"/>
+    <mergeCell ref="K25:K28"/>
+    <mergeCell ref="L25:L28"/>
     <mergeCell ref="K2:K5"/>
     <mergeCell ref="L2:L5"/>
     <mergeCell ref="K6:K8"/>
     <mergeCell ref="L6:L8"/>
     <mergeCell ref="K9:K11"/>
     <mergeCell ref="L9:L11"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="K20:K24"/>
-    <mergeCell ref="L20:L24"/>
-    <mergeCell ref="K25:K28"/>
-    <mergeCell ref="L25:L28"/>
-    <mergeCell ref="K29:K32"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="K42:K47"/>
-    <mergeCell ref="L42:L47"/>
-    <mergeCell ref="K50:K54"/>
-    <mergeCell ref="K57:K59"/>
-    <mergeCell ref="K60:K62"/>
-    <mergeCell ref="K63:K66"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="K72:K75"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="L77:L80"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="K85:K90"/>
-    <mergeCell ref="K91:K94"/>
-    <mergeCell ref="L91:L94"/>
-    <mergeCell ref="K95:K99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -15734,21 +15749,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" style="22" width="28.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="22" width="28.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="22" width="8.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="22" width="99.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="22" width="138.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="32" width="4.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="22" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="32" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="22" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="22" width="117.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="2" width="28.578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="99.83984375" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="138.83984375" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.15625" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.578125" style="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.15625" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="117.83984375" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -15780,7 +15794,7 @@
         <v>379</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="7" t="s">
         <v>317</v>
       </c>
@@ -15812,7 +15826,7 @@
         <v>385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
@@ -15842,7 +15856,7 @@
       </c>
       <c r="J3" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7" t="s">
         <v>70</v>
       </c>
@@ -15872,7 +15886,7 @@
       </c>
       <c r="J4" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -15904,7 +15918,7 @@
         <v>392</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
@@ -15936,7 +15950,7 @@
         <v>396</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="7" t="s">
         <v>30</v>
       </c>
@@ -15968,7 +15982,7 @@
         <v>396</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="7" t="s">
         <v>75</v>
       </c>
@@ -16000,7 +16014,7 @@
         <v>396</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
@@ -16032,7 +16046,7 @@
         <v>392</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -16064,7 +16078,7 @@
         <v>392</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7" t="s">
         <v>27</v>
       </c>
@@ -16096,7 +16110,7 @@
         <v>392</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
@@ -16128,7 +16142,7 @@
         <v>392</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7" t="s">
         <v>47</v>
       </c>
@@ -16160,7 +16174,7 @@
         <v>392</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7" t="s">
         <v>67</v>
       </c>
@@ -16192,7 +16206,7 @@
         <v>392</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>75</v>
       </c>
@@ -16224,7 +16238,7 @@
         <v>392</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="7" t="s">
         <v>314</v>
       </c>
@@ -16254,7 +16268,7 @@
       </c>
       <c r="J16" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="7" t="s">
         <v>240</v>
       </c>
@@ -16284,7 +16298,7 @@
       </c>
       <c r="J17" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="7" t="s">
         <v>316</v>
       </c>
@@ -16314,7 +16328,7 @@
       </c>
       <c r="J18" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7" t="s">
         <v>317</v>
       </c>
@@ -16344,7 +16358,7 @@
       </c>
       <c r="J19" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="7" t="s">
         <v>83</v>
       </c>
@@ -16374,7 +16388,7 @@
       </c>
       <c r="J20" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>47</v>
       </c>
@@ -16404,7 +16418,7 @@
       </c>
       <c r="J21" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="7" t="s">
         <v>75</v>
       </c>
@@ -16434,7 +16448,7 @@
       </c>
       <c r="J22" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="7" t="s">
         <v>314</v>
       </c>
@@ -16464,7 +16478,7 @@
       </c>
       <c r="J23" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="7" t="s">
         <v>317</v>
       </c>
@@ -16494,7 +16508,7 @@
       </c>
       <c r="J24" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="7" t="s">
         <v>314</v>
       </c>
@@ -16526,7 +16540,7 @@
         <v>410</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="7" t="s">
         <v>27</v>
       </c>
@@ -16556,7 +16570,7 @@
       </c>
       <c r="J26" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>70</v>
       </c>
@@ -16586,7 +16600,7 @@
       </c>
       <c r="J27" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="7" t="s">
         <v>240</v>
       </c>
@@ -16616,7 +16630,7 @@
       </c>
       <c r="J28" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="7" t="s">
         <v>316</v>
       </c>
@@ -16646,7 +16660,7 @@
       </c>
       <c r="J29" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7" t="s">
         <v>317</v>
       </c>
@@ -16676,7 +16690,7 @@
       </c>
       <c r="J30" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="7" t="s">
         <v>83</v>
       </c>
@@ -16706,7 +16720,7 @@
       </c>
       <c r="J31" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="7" t="s">
         <v>13</v>
       </c>
@@ -16736,7 +16750,7 @@
       </c>
       <c r="J32" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>13</v>
       </c>
@@ -16766,7 +16780,7 @@
       </c>
       <c r="J33" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="7" t="s">
         <v>13</v>
       </c>
@@ -16796,7 +16810,7 @@
       </c>
       <c r="J34" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="7" t="s">
         <v>13</v>
       </c>
@@ -16826,7 +16840,7 @@
       </c>
       <c r="J35" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="7" t="s">
         <v>13</v>
       </c>
@@ -16856,7 +16870,7 @@
       </c>
       <c r="J36" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="7" t="s">
         <v>13</v>
       </c>
@@ -16886,7 +16900,7 @@
       </c>
       <c r="J37" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="7" t="s">
         <v>13</v>
       </c>
@@ -16918,7 +16932,7 @@
         <v>396</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>13</v>
       </c>
@@ -16950,7 +16964,7 @@
         <v>392</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="7" t="s">
         <v>13</v>
       </c>
@@ -16982,7 +16996,7 @@
         <v>392</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="7" t="s">
         <v>13</v>
       </c>
@@ -17014,7 +17028,7 @@
         <v>392</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="7" t="s">
         <v>13</v>
       </c>
@@ -17046,7 +17060,7 @@
         <v>392</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="7" t="s">
         <v>13</v>
       </c>
@@ -17078,7 +17092,7 @@
         <v>392</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="7" t="s">
         <v>13</v>
       </c>
@@ -17110,7 +17124,7 @@
         <v>392</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>13</v>
       </c>
@@ -17142,7 +17156,7 @@
         <v>423</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="7" t="s">
         <v>13</v>
       </c>
@@ -17174,7 +17188,7 @@
         <v>427</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="7" t="s">
         <v>13</v>
       </c>
@@ -17206,7 +17220,7 @@
         <v>428</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="7" t="s">
         <v>13</v>
       </c>
@@ -17244,7 +17258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -17252,13 +17266,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" style="22" width="25.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="25.83984375" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.578125" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7" t="s">
         <v>370</v>
       </c>
@@ -17266,7 +17280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="7" t="s">
         <v>371</v>
       </c>
@@ -17274,7 +17288,7 @@
         <v>356</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="7" t="s">
         <v>372</v>
       </c>
@@ -17282,7 +17296,7 @@
         <v>269</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7" t="s">
         <v>64</v>
       </c>
@@ -17290,7 +17304,7 @@
         <v>66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="7" t="s">
         <v>75</v>
       </c>
@@ -17304,7 +17318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -17312,14 +17326,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="22" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="22" width="10.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.41796875" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.15625" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7" t="s">
         <v>156</v>
       </c>
@@ -17330,7 +17344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="7" t="s">
         <v>364</v>
       </c>
@@ -17341,7 +17355,7 @@
         <v>327</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="7" t="s">
         <v>364</v>
       </c>
@@ -17352,7 +17366,7 @@
         <v>268</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7" t="s">
         <v>364</v>
       </c>
@@ -17363,7 +17377,7 @@
         <v>223</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="7" t="s">
         <v>364</v>
       </c>
@@ -17374,7 +17388,7 @@
         <v>93</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="7" t="s">
         <v>364</v>
       </c>
@@ -17391,44 +17405,40 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:W73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" style="22" width="19.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="22" width="28.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="22" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="22" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="22" width="10.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="22" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="22" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="22" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="21" width="55.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="21" width="34.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="19" width="8.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="19" width="41.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="19" width="26.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="19" width="12.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="22" width="34.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="22" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="22" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="22" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="19.26171875" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.15625" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.26171875" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.41796875" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.26171875" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="55.734375" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.26171875" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.26171875" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="41.41796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.26171875" style="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.26171875" style="19" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="34.734375" style="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.734375" style="22" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="10.578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="13.578125" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>156</v>
       </c>
@@ -17475,7 +17485,7 @@
       <c r="V1" s="7"/>
       <c r="W1" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="33.75" customFormat="1" s="17">
+    <row r="2" spans="1:23" s="17" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="14" t="s">
         <v>305</v>
       </c>
@@ -17512,7 +17522,7 @@
       <c r="V2" s="14"/>
       <c r="W2" s="14"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="48" customFormat="1" s="17">
+    <row r="3" spans="1:23" s="17" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="14" t="s">
         <v>305</v>
       </c>
@@ -17549,7 +17559,7 @@
       <c r="V3" s="14"/>
       <c r="W3" s="14"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="33.75" customFormat="1" s="17">
+    <row r="4" spans="1:23" s="17" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="14" t="s">
         <v>305</v>
       </c>
@@ -17588,7 +17598,7 @@
       <c r="V4" s="14"/>
       <c r="W4" s="14"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="17">
+    <row r="5" spans="1:23" s="17" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="14" t="s">
         <v>305</v>
       </c>
@@ -17621,7 +17631,7 @@
       <c r="V5" s="14"/>
       <c r="W5" s="14"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="33.75" customFormat="1" s="17">
+    <row r="6" spans="1:23" s="17" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="14" t="s">
         <v>305</v>
       </c>
@@ -17656,7 +17666,7 @@
       <c r="V6" s="14"/>
       <c r="W6" s="14"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="7" t="s">
         <v>305</v>
       </c>
@@ -17695,7 +17705,7 @@
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="33.75" customFormat="1" s="17">
+    <row r="8" spans="1:23" s="17" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="14" t="s">
         <v>305</v>
       </c>
@@ -17728,7 +17738,7 @@
       <c r="V8" s="14"/>
       <c r="W8" s="14"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="33.75">
+    <row r="9" spans="1:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>305</v>
       </c>
@@ -17767,7 +17777,7 @@
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row r="10" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7" t="s">
         <v>305</v>
       </c>
@@ -17802,7 +17812,7 @@
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="48" customFormat="1" s="17">
+    <row r="11" spans="1:23" s="17" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="14" t="s">
         <v>305</v>
       </c>
@@ -17841,7 +17851,7 @@
       <c r="V11" s="14"/>
       <c r="W11" s="14"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="33" customFormat="1" s="17">
+    <row r="12" spans="1:23" s="17" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="14" t="s">
         <v>305</v>
       </c>
@@ -17878,7 +17888,7 @@
       <c r="V12" s="14"/>
       <c r="W12" s="14"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="34.5">
+    <row r="13" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="40" t="s">
         <v>332</v>
       </c>
@@ -17917,7 +17927,7 @@
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="17">
+    <row r="14" spans="1:23" s="17" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="14" t="s">
         <v>332</v>
       </c>
@@ -17950,7 +17960,7 @@
       <c r="V14" s="14"/>
       <c r="W14" s="14"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="33.75" customFormat="1" s="17">
+    <row r="15" spans="1:23" s="17" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="14" t="s">
         <v>332</v>
       </c>
@@ -17987,7 +17997,7 @@
       <c r="V15" s="14"/>
       <c r="W15" s="14"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" customFormat="1" s="17">
+    <row r="16" spans="1:23" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="14" t="s">
         <v>332</v>
       </c>
@@ -18024,7 +18034,7 @@
       <c r="V16" s="14"/>
       <c r="W16" s="14"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="17">
+    <row r="17" spans="1:23" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="14" t="s">
         <v>332</v>
       </c>
@@ -18063,7 +18073,7 @@
       <c r="V17" s="14"/>
       <c r="W17" s="14"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" customFormat="1" s="17">
+    <row r="18" spans="1:23" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="14" t="s">
         <v>332</v>
       </c>
@@ -18102,7 +18112,7 @@
       <c r="V18" s="14"/>
       <c r="W18" s="14"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" customFormat="1" s="17">
+    <row r="19" spans="1:23" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="14" t="s">
         <v>332</v>
       </c>
@@ -18139,7 +18149,7 @@
       <c r="V19" s="14"/>
       <c r="W19" s="14"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="17">
+    <row r="20" spans="1:23" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="14" t="s">
         <v>332</v>
       </c>
@@ -18178,7 +18188,7 @@
       <c r="V20" s="14"/>
       <c r="W20" s="14"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" customFormat="1" s="17">
+    <row r="21" spans="1:23" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="14" t="s">
         <v>332</v>
       </c>
@@ -18215,7 +18225,7 @@
       <c r="V21" s="14"/>
       <c r="W21" s="14"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" customFormat="1" s="17">
+    <row r="22" spans="1:23" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="14" t="s">
         <v>332</v>
       </c>
@@ -18254,7 +18264,7 @@
       <c r="V22" s="14"/>
       <c r="W22" s="14"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="43" t="s">
         <v>346</v>
       </c>
@@ -18285,7 +18295,7 @@
       <c r="V23" s="8"/>
       <c r="W23" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="40" t="s">
         <v>265</v>
       </c>
@@ -18328,7 +18338,7 @@
       <c r="V24" s="40"/>
       <c r="W24" s="40"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="11" t="s">
         <v>265</v>
       </c>
@@ -18369,7 +18379,7 @@
       <c r="V25" s="11"/>
       <c r="W25" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="7" t="s">
         <v>265</v>
       </c>
@@ -18408,7 +18418,7 @@
       <c r="V26" s="11"/>
       <c r="W26" s="13"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>265</v>
       </c>
@@ -18445,7 +18455,7 @@
       <c r="V27" s="11"/>
       <c r="W27" s="13"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="7" t="s">
         <v>265</v>
       </c>
@@ -18486,7 +18496,7 @@
       <c r="V28" s="11"/>
       <c r="W28" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="7" t="s">
         <v>265</v>
       </c>
@@ -18525,7 +18535,7 @@
       <c r="V29" s="11"/>
       <c r="W29" s="13"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7" t="s">
         <v>265</v>
       </c>
@@ -18562,7 +18572,7 @@
       <c r="V30" s="11"/>
       <c r="W30" s="13"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="7" t="s">
         <v>265</v>
       </c>
@@ -18601,7 +18611,7 @@
       <c r="V31" s="11"/>
       <c r="W31" s="13"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="7" t="s">
         <v>265</v>
       </c>
@@ -18638,7 +18648,7 @@
       <c r="V32" s="11"/>
       <c r="W32" s="13"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>265</v>
       </c>
@@ -18679,7 +18689,7 @@
       <c r="V33" s="11"/>
       <c r="W33" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="7" t="s">
         <v>265</v>
       </c>
@@ -18718,7 +18728,7 @@
       <c r="V34" s="11"/>
       <c r="W34" s="13"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="7" t="s">
         <v>265</v>
       </c>
@@ -18755,7 +18765,7 @@
       <c r="V35" s="11"/>
       <c r="W35" s="13"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="7" t="s">
         <v>265</v>
       </c>
@@ -18794,7 +18804,7 @@
       <c r="V36" s="11"/>
       <c r="W36" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="7" t="s">
         <v>265</v>
       </c>
@@ -18831,7 +18841,7 @@
       <c r="V37" s="11"/>
       <c r="W37" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="40" t="s">
         <v>352</v>
       </c>
@@ -18872,7 +18882,7 @@
       <c r="V38" s="40"/>
       <c r="W38" s="40"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>352</v>
       </c>
@@ -18911,7 +18921,7 @@
       <c r="V39" s="11"/>
       <c r="W39" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="7" t="s">
         <v>352</v>
       </c>
@@ -18948,7 +18958,7 @@
       <c r="V40" s="11"/>
       <c r="W40" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="7" t="s">
         <v>352</v>
       </c>
@@ -18983,7 +18993,7 @@
       <c r="V41" s="11"/>
       <c r="W41" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="7" t="s">
         <v>352</v>
       </c>
@@ -19022,7 +19032,7 @@
       <c r="V42" s="11"/>
       <c r="W42" s="13"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="7" t="s">
         <v>352</v>
       </c>
@@ -19061,7 +19071,7 @@
       <c r="V43" s="11"/>
       <c r="W43" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="7" t="s">
         <v>352</v>
       </c>
@@ -19100,7 +19110,7 @@
       <c r="V44" s="11"/>
       <c r="W44" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>352</v>
       </c>
@@ -19141,7 +19151,7 @@
       <c r="V45" s="11"/>
       <c r="W45" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="7" t="s">
         <v>352</v>
       </c>
@@ -19180,7 +19190,7 @@
       <c r="V46" s="11"/>
       <c r="W46" s="13"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="7" t="s">
         <v>352</v>
       </c>
@@ -19219,7 +19229,7 @@
       <c r="V47" s="11"/>
       <c r="W47" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="7" t="s">
         <v>352</v>
       </c>
@@ -19256,7 +19266,7 @@
       <c r="V48" s="11"/>
       <c r="W48" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row r="49" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="7" t="s">
         <v>352</v>
       </c>
@@ -19291,7 +19301,7 @@
       <c r="V49" s="11"/>
       <c r="W49" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row r="50" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="7" t="s">
         <v>352</v>
       </c>
@@ -19330,7 +19340,7 @@
       <c r="V50" s="11"/>
       <c r="W50" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row r="51" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>352</v>
       </c>
@@ -19367,7 +19377,7 @@
       <c r="V51" s="11"/>
       <c r="W51" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row r="52" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="7" t="s">
         <v>352</v>
       </c>
@@ -19402,7 +19412,7 @@
       <c r="V52" s="11"/>
       <c r="W52" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row r="53" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="7" t="s">
         <v>352</v>
       </c>
@@ -19441,7 +19451,7 @@
       <c r="V53" s="11"/>
       <c r="W53" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row r="54" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="7" t="s">
         <v>352</v>
       </c>
@@ -19482,7 +19492,7 @@
       <c r="V54" s="11"/>
       <c r="W54" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row r="55" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="7" t="s">
         <v>352</v>
       </c>
@@ -19517,7 +19527,7 @@
       <c r="V55" s="11"/>
       <c r="W55" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+    <row r="56" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="7" t="s">
         <v>352</v>
       </c>
@@ -19554,7 +19564,7 @@
       <c r="V56" s="11"/>
       <c r="W56" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+    <row r="57" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>352</v>
       </c>
@@ -19593,7 +19603,7 @@
       <c r="V57" s="11"/>
       <c r="W57" s="13"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75" customFormat="1" s="17">
+    <row r="58" spans="1:23" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="14" t="s">
         <v>352</v>
       </c>
@@ -19628,7 +19638,7 @@
       <c r="V58" s="14"/>
       <c r="W58" s="14"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75" customFormat="1" s="17">
+    <row r="59" spans="1:23" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="14" t="s">
         <v>352</v>
       </c>
@@ -19661,7 +19671,7 @@
       <c r="V59" s="14"/>
       <c r="W59" s="14"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75" customFormat="1" s="17">
+    <row r="60" spans="1:23" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="18" t="s">
         <v>361</v>
       </c>
@@ -19694,7 +19704,7 @@
       <c r="V60" s="18"/>
       <c r="W60" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75" customFormat="1" s="17">
+    <row r="61" spans="1:23" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="18" t="s">
         <v>361</v>
       </c>
@@ -19727,7 +19737,7 @@
       <c r="V61" s="18"/>
       <c r="W61" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75" customFormat="1" s="17">
+    <row r="62" spans="1:23" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="18" t="s">
         <v>361</v>
       </c>
@@ -19760,7 +19770,7 @@
       <c r="V62" s="18"/>
       <c r="W62" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75" customFormat="1" s="17">
+    <row r="63" spans="1:23" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="18" t="s">
         <v>361</v>
       </c>
@@ -19793,7 +19803,7 @@
       <c r="V63" s="18"/>
       <c r="W63" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75" customFormat="1" s="17">
+    <row r="64" spans="1:23" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="18" t="s">
         <v>361</v>
       </c>
@@ -19826,7 +19836,7 @@
       <c r="V64" s="18"/>
       <c r="W64" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75" customFormat="1" s="17">
+    <row r="65" spans="1:23" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="18" t="s">
         <v>361</v>
       </c>
@@ -19859,7 +19869,7 @@
       <c r="V65" s="18"/>
       <c r="W65" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75" customFormat="1" s="17">
+    <row r="66" spans="1:23" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="18" t="s">
         <v>361</v>
       </c>
@@ -19892,7 +19902,7 @@
       <c r="V66" s="18"/>
       <c r="W66" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75" customFormat="1" s="17">
+    <row r="67" spans="1:23" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="18" t="s">
         <v>361</v>
       </c>
@@ -19925,7 +19935,7 @@
       <c r="V67" s="18"/>
       <c r="W67" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75" customFormat="1" s="17">
+    <row r="68" spans="1:23" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="18" t="s">
         <v>361</v>
       </c>
@@ -19958,7 +19968,7 @@
       <c r="V68" s="18"/>
       <c r="W68" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75" customFormat="1" s="17">
+    <row r="69" spans="1:23" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="18" t="s">
         <v>361</v>
       </c>
@@ -19991,7 +20001,7 @@
       <c r="V69" s="18"/>
       <c r="W69" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75" customFormat="1" s="17">
+    <row r="70" spans="1:23" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="18" t="s">
         <v>361</v>
       </c>
@@ -20024,7 +20034,7 @@
       <c r="V70" s="18"/>
       <c r="W70" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75" customFormat="1" s="17">
+    <row r="71" spans="1:23" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="18" t="s">
         <v>361</v>
       </c>
@@ -20057,7 +20067,7 @@
       <c r="V71" s="18"/>
       <c r="W71" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75" customFormat="1" s="17">
+    <row r="72" spans="1:23" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="18" t="s">
         <v>361</v>
       </c>
@@ -20090,7 +20100,7 @@
       <c r="V72" s="18"/>
       <c r="W72" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75" customFormat="1" s="17">
+    <row r="73" spans="1:23" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="18" t="s">
         <v>361</v>
       </c>
@@ -20129,24 +20139,24 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" style="22" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="22" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="32" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="2" width="16.578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.41796875" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.578125" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7" t="s">
         <v>272</v>
       </c>
@@ -20161,7 +20171,7 @@
       </c>
       <c r="E1" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="7" t="s">
         <v>276</v>
       </c>
@@ -20176,7 +20186,7 @@
       </c>
       <c r="E2" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="7" t="s">
         <v>279</v>
       </c>
@@ -20191,87 +20201,88 @@
       </c>
       <c r="E3" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" s="29">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B5" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="C4" s="25">
-        <v>0.001</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="C5" s="25">
+        <v>1E-3</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="7" t="s">
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B6" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C6" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="E5" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="7" t="s">
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B7" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C7" s="29">
         <v>1000</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="E6" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="7" t="s">
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B8" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="C7" s="29">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="C8" s="29">
         <v>1</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="D8" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
-        <v>288</v>
+        <v>194</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C9" s="29">
         <v>1</v>
@@ -20279,12 +20290,12 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7" t="s">
         <v>288</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C10" s="29">
         <v>1</v>
@@ -20292,12 +20303,12 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7" t="s">
-        <v>198</v>
+        <v>288</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C11" s="29">
         <v>1</v>
@@ -20305,12 +20316,12 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C12" s="29">
         <v>1</v>
@@ -20318,51 +20329,51 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="C13" s="25">
-        <v>0.001</v>
+        <v>291</v>
+      </c>
+      <c r="C13" s="29">
+        <v>1</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7" t="s">
-        <v>284</v>
+        <v>198</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C14" s="29">
-        <v>1</v>
+        <v>194</v>
+      </c>
+      <c r="C14" s="25">
+        <v>1E-3</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
-        <v>194</v>
+        <v>284</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C15" s="29">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="7" t="s">
         <v>194</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>198</v>
+        <v>293</v>
       </c>
       <c r="C16" s="29">
         <v>1000</v>
@@ -20370,25 +20381,25 @@
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="7" t="s">
-        <v>294</v>
+        <v>194</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>295</v>
+        <v>198</v>
       </c>
       <c r="C17" s="29">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="7" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C18" s="29">
         <v>1</v>
@@ -20396,25 +20407,25 @@
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7" t="s">
         <v>284</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C19" s="29">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="7" t="s">
         <v>284</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C20" s="29">
         <v>1000</v>
@@ -20422,12 +20433,12 @@
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
-        <v>194</v>
+        <v>284</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C21" s="29">
         <v>1000</v>
@@ -20435,25 +20446,25 @@
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="7" t="s">
-        <v>300</v>
+        <v>194</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C22" s="29">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="7" t="s">
-        <v>194</v>
+        <v>300</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="C23" s="29">
         <v>1</v>
@@ -20461,12 +20472,12 @@
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="7" t="s">
         <v>194</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C24" s="29">
         <v>1</v>
@@ -20474,20 +20485,33 @@
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="C25" s="29">
         <v>1</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C26" s="29">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="E25" s="7"/>
+      <c r="E26" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Meta/Analytes3.xlsx
+++ b/Meta/Analytes3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/coffman_christian_epa_gov/Documents/Profile/Documents/Projects/GL_Data/Meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_CFA7FA0AC8BEC675FF6906A82B7A2EC91D13FE60" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54058E67-7D77-42C7-AE50-5900CFE1C909}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_CFA7FA0AC8BEC675FF6906A82B7A2EC91D13FE60" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FFC9DD3-F616-49AE-BD3E-BCF744600BD1}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <sheet name="Annie_Comments" sheetId="14" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1">CSMI_Map!$H$1:$H$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1">CSMI_Map!$H$1:$H$75</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3">GLENDA_Map!$B$1:$M$99</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Key!$A$1:$A$98</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7">NCCA_Map!$A$1:$A$57</definedName>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3676" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3707" uniqueCount="805">
   <si>
     <t>ANALYTE</t>
   </si>
@@ -2472,6 +2472,12 @@
   </si>
   <si>
     <t>Oxy</t>
+  </si>
+  <si>
+    <t>CDOM</t>
+  </si>
+  <si>
+    <t>PAR</t>
   </si>
 </sst>
 </file>
@@ -3021,11 +3027,35 @@
     <xf numFmtId="3" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3033,10 +3063,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3050,30 +3080,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3382,7 +3388,9 @@
   </sheetPr>
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8169,10 +8177,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L120"/>
+  <dimension ref="A1:L125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B96" workbookViewId="0">
-      <selection activeCell="J101" sqref="J101"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9431,33 +9439,31 @@
       </c>
       <c r="L42" s="13"/>
     </row>
-    <row r="43" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
         <v>684</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
-      <c r="E43" s="13"/>
+      <c r="E43" s="13" t="s">
+        <v>643</v>
+      </c>
       <c r="F43" s="23">
-        <v>2021</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>699</v>
-      </c>
-      <c r="H43" s="7" t="s">
+        <v>2015</v>
+      </c>
+      <c r="G43" s="8"/>
+      <c r="H43" s="20" t="s">
         <v>268</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="J43" s="13" t="s">
-        <v>700</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="J43" s="13"/>
       <c r="K43" s="13" t="s">
-        <v>701</v>
+        <v>644</v>
       </c>
       <c r="L43" s="13"/>
     </row>
@@ -9466,7 +9472,7 @@
         <v>684</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>245</v>
+        <v>803</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -9477,7 +9483,7 @@
       <c r="G44" s="8" t="s">
         <v>699</v>
       </c>
-      <c r="H44" s="7" t="s">
+      <c r="H44" s="20" t="s">
         <v>268</v>
       </c>
       <c r="I44" s="8" t="s">
@@ -9491,12 +9497,12 @@
       </c>
       <c r="L44" s="13"/>
     </row>
-    <row r="45" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
         <v>684</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>702</v>
+        <v>804</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -9505,24 +9511,28 @@
         <v>2021</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>232</v>
+        <v>699</v>
+      </c>
+      <c r="H45" s="20" t="s">
+        <v>268</v>
       </c>
       <c r="I45" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
+      <c r="J45" s="13" t="s">
+        <v>700</v>
+      </c>
+      <c r="K45" s="13" t="s">
+        <v>701</v>
+      </c>
       <c r="L45" s="13"/>
     </row>
-    <row r="46" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
         <v>684</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>703</v>
+        <v>244</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -9531,7 +9541,7 @@
         <v>2021</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>268</v>
@@ -9540,17 +9550,19 @@
         <v>280</v>
       </c>
       <c r="J46" s="13" t="s">
-        <v>705</v>
-      </c>
-      <c r="K46" s="13"/>
+        <v>700</v>
+      </c>
+      <c r="K46" s="13" t="s">
+        <v>701</v>
+      </c>
       <c r="L46" s="13"/>
     </row>
-    <row r="47" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
         <v>684</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>706</v>
+        <v>245</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -9559,7 +9571,7 @@
         <v>2021</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>268</v>
@@ -9568,9 +9580,11 @@
         <v>280</v>
       </c>
       <c r="J47" s="13" t="s">
-        <v>705</v>
-      </c>
-      <c r="K47" s="13"/>
+        <v>700</v>
+      </c>
+      <c r="K47" s="13" t="s">
+        <v>701</v>
+      </c>
       <c r="L47" s="13"/>
     </row>
     <row r="48" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -9578,7 +9592,7 @@
         <v>684</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>708</v>
+        <v>369</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -9587,17 +9601,15 @@
         <v>2021</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>709</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>268</v>
+        <v>231</v>
+      </c>
+      <c r="H48" s="20" t="s">
+        <v>232</v>
       </c>
       <c r="I48" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J48" s="13" t="s">
-        <v>705</v>
-      </c>
+      <c r="J48" s="13"/>
       <c r="K48" s="13"/>
       <c r="L48" s="13"/>
     </row>
@@ -9606,7 +9618,7 @@
         <v>684</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -9615,17 +9627,15 @@
         <v>2021</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>13</v>
+        <v>231</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="I49" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J49" s="13" t="s">
-        <v>705</v>
-      </c>
+      <c r="J49" s="13"/>
       <c r="K49" s="13"/>
       <c r="L49" s="13"/>
     </row>
@@ -9634,7 +9644,7 @@
         <v>684</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -9643,7 +9653,7 @@
         <v>2021</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>268</v>
@@ -9662,7 +9672,7 @@
         <v>684</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -9671,7 +9681,7 @@
         <v>2021</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>268</v>
@@ -9690,7 +9700,7 @@
         <v>684</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>83</v>
+        <v>708</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -9699,24 +9709,26 @@
         <v>2021</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>13</v>
+        <v>709</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>83</v>
+        <v>268</v>
       </c>
       <c r="I52" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J52" s="13"/>
+      <c r="J52" s="13" t="s">
+        <v>705</v>
+      </c>
       <c r="K52" s="13"/>
       <c r="L52" s="13"/>
     </row>
-    <row r="53" spans="1:12" ht="103.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
         <v>684</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -9725,7 +9737,7 @@
         <v>2021</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>715</v>
+        <v>13</v>
       </c>
       <c r="H53" s="7" t="s">
         <v>268</v>
@@ -9733,10 +9745,10 @@
       <c r="I53" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13" t="s">
-        <v>716</v>
-      </c>
+      <c r="J53" s="13" t="s">
+        <v>705</v>
+      </c>
+      <c r="K53" s="13"/>
       <c r="L53" s="13"/>
     </row>
     <row r="54" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -9744,7 +9756,7 @@
         <v>684</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>247</v>
+        <v>711</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -9753,7 +9765,7 @@
         <v>2021</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>268</v>
@@ -9761,7 +9773,9 @@
       <c r="I54" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J54" s="13"/>
+      <c r="J54" s="13" t="s">
+        <v>705</v>
+      </c>
       <c r="K54" s="13"/>
       <c r="L54" s="13"/>
     </row>
@@ -9770,7 +9784,7 @@
         <v>684</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>249</v>
+        <v>328</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
@@ -9779,15 +9793,17 @@
         <v>2021</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>717</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>268</v>
+        <v>277</v>
+      </c>
+      <c r="H55" s="20" t="s">
+        <v>609</v>
       </c>
       <c r="I55" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J55" s="13"/>
+      <c r="J55" s="13" t="s">
+        <v>705</v>
+      </c>
       <c r="K55" s="13"/>
       <c r="L55" s="13"/>
     </row>
@@ -9796,7 +9812,7 @@
         <v>684</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>250</v>
+        <v>712</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
@@ -9805,7 +9821,7 @@
         <v>2021</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>268</v>
@@ -9813,7 +9829,9 @@
       <c r="I56" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J56" s="13"/>
+      <c r="J56" s="13" t="s">
+        <v>705</v>
+      </c>
       <c r="K56" s="13"/>
       <c r="L56" s="13"/>
     </row>
@@ -9822,7 +9840,7 @@
         <v>684</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>251</v>
+        <v>83</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
@@ -9831,10 +9849,10 @@
         <v>2021</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>717</v>
+        <v>13</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>268</v>
+        <v>83</v>
       </c>
       <c r="I57" s="8" t="s">
         <v>280</v>
@@ -9843,12 +9861,12 @@
       <c r="K57" s="13"/>
       <c r="L57" s="13"/>
     </row>
-    <row r="58" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="103.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="13" t="s">
         <v>684</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>252</v>
+        <v>714</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -9857,7 +9875,7 @@
         <v>2021</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>253</v>
+        <v>715</v>
       </c>
       <c r="H58" s="7" t="s">
         <v>268</v>
@@ -9866,7 +9884,9 @@
         <v>280</v>
       </c>
       <c r="J58" s="13"/>
-      <c r="K58" s="13"/>
+      <c r="K58" s="13" t="s">
+        <v>716</v>
+      </c>
       <c r="L58" s="13"/>
     </row>
     <row r="59" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -9874,7 +9894,7 @@
         <v>684</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -9900,7 +9920,7 @@
         <v>684</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
@@ -9909,7 +9929,7 @@
         <v>2021</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>231</v>
+        <v>717</v>
       </c>
       <c r="H60" s="7" t="s">
         <v>268</v>
@@ -9926,7 +9946,7 @@
         <v>684</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>718</v>
+        <v>250</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -9935,7 +9955,7 @@
         <v>2021</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>318</v>
+        <v>717</v>
       </c>
       <c r="H61" s="7" t="s">
         <v>268</v>
@@ -9952,7 +9972,7 @@
         <v>684</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>719</v>
+        <v>251</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
@@ -9961,7 +9981,7 @@
         <v>2021</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="H62" s="7" t="s">
         <v>268</v>
@@ -9978,7 +9998,7 @@
         <v>684</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>721</v>
+        <v>252</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
@@ -9987,7 +10007,7 @@
         <v>2021</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>13</v>
+        <v>253</v>
       </c>
       <c r="H63" s="7" t="s">
         <v>268</v>
@@ -9995,18 +10015,16 @@
       <c r="I63" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J63" s="13" t="s">
-        <v>722</v>
-      </c>
+      <c r="J63" s="13"/>
       <c r="K63" s="13"/>
       <c r="L63" s="13"/>
     </row>
-    <row r="64" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
         <v>684</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>327</v>
+        <v>254</v>
       </c>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -10015,7 +10033,7 @@
         <v>2021</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="H64" s="7" t="s">
         <v>268</v>
@@ -10023,18 +10041,16 @@
       <c r="I64" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J64" s="13" t="s">
-        <v>723</v>
-      </c>
+      <c r="J64" s="13"/>
       <c r="K64" s="13"/>
       <c r="L64" s="13"/>
     </row>
-    <row r="65" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
         <v>684</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -10043,7 +10059,7 @@
         <v>2021</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>724</v>
+        <v>231</v>
       </c>
       <c r="H65" s="7" t="s">
         <v>268</v>
@@ -10055,12 +10071,12 @@
       <c r="K65" s="13"/>
       <c r="L65" s="13"/>
     </row>
-    <row r="66" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="13" t="s">
         <v>684</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>258</v>
+        <v>718</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
@@ -10069,7 +10085,7 @@
         <v>2021</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>259</v>
+        <v>318</v>
       </c>
       <c r="H66" s="7" t="s">
         <v>268</v>
@@ -10077,20 +10093,16 @@
       <c r="I66" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J66" s="13" t="s">
-        <v>725</v>
-      </c>
-      <c r="K66" s="13" t="s">
-        <v>726</v>
-      </c>
+      <c r="J66" s="13"/>
+      <c r="K66" s="13"/>
       <c r="L66" s="13"/>
     </row>
-    <row r="67" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="13" t="s">
         <v>684</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>260</v>
+        <v>719</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -10099,7 +10111,7 @@
         <v>2021</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="H67" s="7" t="s">
         <v>268</v>
@@ -10111,12 +10123,12 @@
       <c r="K67" s="13"/>
       <c r="L67" s="13"/>
     </row>
-    <row r="68" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="13" t="s">
         <v>684</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>262</v>
+        <v>721</v>
       </c>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -10125,7 +10137,7 @@
         <v>2021</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>727</v>
+        <v>13</v>
       </c>
       <c r="H68" s="7" t="s">
         <v>268</v>
@@ -10133,7 +10145,9 @@
       <c r="I68" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J68" s="13"/>
+      <c r="J68" s="13" t="s">
+        <v>722</v>
+      </c>
       <c r="K68" s="13"/>
       <c r="L68" s="13"/>
     </row>
@@ -10142,7 +10156,7 @@
         <v>684</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>263</v>
+        <v>327</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
@@ -10151,7 +10165,7 @@
         <v>2021</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="H69" s="7" t="s">
         <v>268</v>
@@ -10159,7 +10173,9 @@
       <c r="I69" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J69" s="13"/>
+      <c r="J69" s="13" t="s">
+        <v>723</v>
+      </c>
       <c r="K69" s="13"/>
       <c r="L69" s="13"/>
     </row>
@@ -10168,7 +10184,7 @@
         <v>684</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -10177,7 +10193,7 @@
         <v>2021</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="H70" s="7" t="s">
         <v>268</v>
@@ -10191,141 +10207,135 @@
     </row>
     <row r="71" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="13" t="s">
-        <v>728</v>
-      </c>
-      <c r="B71" s="39" t="s">
-        <v>202</v>
+        <v>684</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>258</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
-      <c r="E71" s="69"/>
-      <c r="F71" s="70">
+      <c r="E71" s="13"/>
+      <c r="F71" s="23">
         <v>2021</v>
       </c>
-      <c r="G71" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="H71" s="39" t="s">
-        <v>469</v>
-      </c>
-      <c r="I71" s="39" t="s">
+      <c r="G71" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="I71" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J71" s="41" t="s">
-        <v>729</v>
-      </c>
-      <c r="K71" s="41"/>
+      <c r="J71" s="13" t="s">
+        <v>725</v>
+      </c>
+      <c r="K71" s="13" t="s">
+        <v>726</v>
+      </c>
       <c r="L71" s="13"/>
     </row>
     <row r="72" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="13" t="s">
-        <v>728</v>
+        <v>684</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
-      <c r="E72" s="71"/>
+      <c r="E72" s="13"/>
       <c r="F72" s="23">
         <v>2021</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>42</v>
+        <v>727</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>88</v>
+        <v>268</v>
       </c>
       <c r="I72" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J72" s="13" t="s">
-        <v>730</v>
-      </c>
+      <c r="J72" s="13"/>
       <c r="K72" s="13"/>
       <c r="L72" s="13"/>
     </row>
     <row r="73" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="13" t="s">
-        <v>728</v>
+        <v>684</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>200</v>
+        <v>262</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
-      <c r="E73" s="71"/>
+      <c r="E73" s="13"/>
       <c r="F73" s="23">
         <v>2021</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>42</v>
+        <v>727</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>574</v>
+        <v>268</v>
       </c>
       <c r="I73" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J73" s="13" t="s">
-        <v>731</v>
-      </c>
+      <c r="J73" s="13"/>
       <c r="K73" s="13"/>
       <c r="L73" s="13"/>
     </row>
     <row r="74" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="13" t="s">
-        <v>728</v>
+        <v>684</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>203</v>
+        <v>263</v>
       </c>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
-      <c r="E74" s="71"/>
+      <c r="E74" s="13"/>
       <c r="F74" s="23">
         <v>2021</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>42</v>
+        <v>727</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>506</v>
+        <v>268</v>
       </c>
       <c r="I74" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J74" s="13" t="s">
-        <v>732</v>
-      </c>
+      <c r="J74" s="13"/>
       <c r="K74" s="13"/>
       <c r="L74" s="13"/>
     </row>
     <row r="75" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="13" t="s">
-        <v>728</v>
+        <v>684</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>733</v>
+        <v>264</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
-      <c r="E75" s="71"/>
+      <c r="E75" s="13"/>
       <c r="F75" s="23">
         <v>2021</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>211</v>
+        <v>727</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>347</v>
+        <v>268</v>
       </c>
       <c r="I75" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J75" s="13" t="s">
-        <v>734</v>
-      </c>
+      <c r="J75" s="13"/>
       <c r="K75" s="13"/>
       <c r="L75" s="13"/>
     </row>
@@ -10333,28 +10343,28 @@
       <c r="A76" s="13" t="s">
         <v>728</v>
       </c>
-      <c r="B76" s="8" t="s">
-        <v>49</v>
+      <c r="B76" s="39" t="s">
+        <v>202</v>
       </c>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
-      <c r="E76" s="71"/>
-      <c r="F76" s="23">
+      <c r="E76" s="69"/>
+      <c r="F76" s="70">
         <v>2021</v>
       </c>
-      <c r="G76" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="I76" s="8" t="s">
+      <c r="G76" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="H76" s="39" t="s">
+        <v>469</v>
+      </c>
+      <c r="I76" s="39" t="s">
         <v>280</v>
       </c>
-      <c r="J76" s="13" t="s">
-        <v>735</v>
-      </c>
-      <c r="K76" s="13"/>
+      <c r="J76" s="41" t="s">
+        <v>729</v>
+      </c>
+      <c r="K76" s="41"/>
       <c r="L76" s="13"/>
     </row>
     <row r="77" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10362,7 +10372,7 @@
         <v>728</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
@@ -10374,13 +10384,13 @@
         <v>42</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>594</v>
+        <v>88</v>
       </c>
       <c r="I77" s="8" t="s">
         <v>280</v>
       </c>
       <c r="J77" s="13" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="K77" s="13"/>
       <c r="L77" s="13"/>
@@ -10390,7 +10400,7 @@
         <v>728</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>737</v>
+        <v>200</v>
       </c>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
@@ -10402,13 +10412,13 @@
         <v>42</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>95</v>
+        <v>574</v>
       </c>
       <c r="I78" s="8" t="s">
         <v>280</v>
       </c>
       <c r="J78" s="13" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="K78" s="13"/>
       <c r="L78" s="13"/>
@@ -10418,7 +10428,7 @@
         <v>728</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>31</v>
+        <v>203</v>
       </c>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
@@ -10427,16 +10437,16 @@
         <v>2021</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>212</v>
+        <v>42</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>31</v>
+        <v>506</v>
       </c>
       <c r="I79" s="8" t="s">
         <v>280</v>
       </c>
       <c r="J79" s="13" t="s">
-        <v>31</v>
+        <v>732</v>
       </c>
       <c r="K79" s="13"/>
       <c r="L79" s="13"/>
@@ -10446,7 +10456,7 @@
         <v>728</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>180</v>
+        <v>733</v>
       </c>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
@@ -10455,16 +10465,16 @@
         <v>2021</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>739</v>
+        <v>211</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="I80" s="8" t="s">
         <v>280</v>
       </c>
       <c r="J80" s="13" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="K80" s="13"/>
       <c r="L80" s="13"/>
@@ -10474,7 +10484,7 @@
         <v>728</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>196</v>
+        <v>49</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
@@ -10486,13 +10496,13 @@
         <v>211</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>72</v>
+        <v>269</v>
       </c>
       <c r="I81" s="8" t="s">
         <v>280</v>
       </c>
       <c r="J81" s="13" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="K81" s="13"/>
       <c r="L81" s="13"/>
@@ -10502,7 +10512,7 @@
         <v>728</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
@@ -10511,16 +10521,16 @@
         <v>2021</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>212</v>
+        <v>42</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>77</v>
+        <v>594</v>
       </c>
       <c r="I82" s="8" t="s">
         <v>280</v>
       </c>
       <c r="J82" s="13" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="K82" s="13"/>
       <c r="L82" s="13"/>
@@ -10530,13 +10540,11 @@
         <v>728</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>205</v>
+        <v>737</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
-      <c r="E83" s="13" t="s">
-        <v>742</v>
-      </c>
+      <c r="E83" s="71"/>
       <c r="F83" s="23">
         <v>2021</v>
       </c>
@@ -10544,17 +10552,15 @@
         <v>42</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>268</v>
+        <v>95</v>
       </c>
       <c r="I83" s="8" t="s">
         <v>280</v>
       </c>
       <c r="J83" s="13" t="s">
-        <v>743</v>
-      </c>
-      <c r="K83" s="13" t="s">
-        <v>599</v>
-      </c>
+        <v>738</v>
+      </c>
+      <c r="K83" s="13"/>
       <c r="L83" s="13"/>
     </row>
     <row r="84" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10562,31 +10568,27 @@
         <v>728</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>206</v>
+        <v>31</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
-      <c r="E84" s="13" t="s">
-        <v>742</v>
-      </c>
+      <c r="E84" s="71"/>
       <c r="F84" s="23">
         <v>2021</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>42</v>
+        <v>212</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>268</v>
+        <v>31</v>
       </c>
       <c r="I84" s="8" t="s">
         <v>280</v>
       </c>
       <c r="J84" s="13" t="s">
-        <v>743</v>
-      </c>
-      <c r="K84" s="13" t="s">
-        <v>599</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="K84" s="13"/>
       <c r="L84" s="13"/>
     </row>
     <row r="85" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10594,7 +10596,7 @@
         <v>728</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
@@ -10603,150 +10605,158 @@
         <v>2021</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H85" s="9" t="s">
-        <v>23</v>
+        <v>739</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>356</v>
       </c>
       <c r="I85" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J85" s="13"/>
+      <c r="J85" s="13" t="s">
+        <v>740</v>
+      </c>
       <c r="K85" s="13"/>
       <c r="L85" s="13"/>
     </row>
     <row r="86" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B86" s="72" t="s">
-        <v>202</v>
-      </c>
-      <c r="C86" s="72" t="s">
-        <v>452</v>
-      </c>
-      <c r="D86" s="72"/>
-      <c r="E86" s="73"/>
-      <c r="F86" s="74">
-        <v>2010</v>
-      </c>
-      <c r="G86" s="72" t="s">
-        <v>198</v>
-      </c>
-      <c r="H86" s="39" t="s">
-        <v>469</v>
-      </c>
-      <c r="I86" s="39" t="s">
+        <v>728</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="71"/>
+      <c r="F86" s="23">
+        <v>2021</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I86" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J86" s="41"/>
+      <c r="J86" s="13" t="s">
+        <v>741</v>
+      </c>
       <c r="K86" s="13"/>
       <c r="L86" s="13"/>
     </row>
     <row r="87" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B87" s="75" t="s">
-        <v>202</v>
-      </c>
-      <c r="C87" s="75" t="s">
-        <v>13</v>
-      </c>
-      <c r="D87" s="75"/>
-      <c r="E87" s="76"/>
-      <c r="F87" s="77">
-        <v>2010</v>
-      </c>
-      <c r="G87" s="75" t="s">
-        <v>198</v>
-      </c>
-      <c r="H87" s="39" t="s">
-        <v>469</v>
+        <v>728</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="71"/>
+      <c r="F87" s="23">
+        <v>2021</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="I87" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J87" s="13"/>
+      <c r="J87" s="13" t="s">
+        <v>741</v>
+      </c>
       <c r="K87" s="13"/>
       <c r="L87" s="13"/>
     </row>
     <row r="88" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B88" s="75" t="s">
-        <v>197</v>
-      </c>
-      <c r="C88" s="75" t="s">
-        <v>452</v>
-      </c>
-      <c r="D88" s="75"/>
-      <c r="E88" s="76"/>
-      <c r="F88" s="77">
-        <v>2010</v>
-      </c>
-      <c r="G88" s="75" t="s">
-        <v>198</v>
+        <v>728</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="13" t="s">
+        <v>742</v>
+      </c>
+      <c r="F88" s="23">
+        <v>2021</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>88</v>
+        <v>268</v>
       </c>
       <c r="I88" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J88" s="13"/>
-      <c r="K88" s="13"/>
+      <c r="J88" s="13" t="s">
+        <v>743</v>
+      </c>
+      <c r="K88" s="13" t="s">
+        <v>599</v>
+      </c>
       <c r="L88" s="13"/>
     </row>
     <row r="89" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B89" s="75" t="s">
-        <v>204</v>
-      </c>
-      <c r="C89" s="75" t="s">
-        <v>452</v>
-      </c>
-      <c r="D89" s="75"/>
-      <c r="E89" s="76"/>
-      <c r="F89" s="77">
-        <v>2010</v>
-      </c>
-      <c r="G89" s="75" t="s">
-        <v>198</v>
+        <v>728</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="13" t="s">
+        <v>742</v>
+      </c>
+      <c r="F89" s="23">
+        <v>2021</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>204</v>
+        <v>268</v>
       </c>
       <c r="I89" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J89" s="13"/>
-      <c r="K89" s="13"/>
+      <c r="J89" s="13" t="s">
+        <v>743</v>
+      </c>
+      <c r="K89" s="13" t="s">
+        <v>599</v>
+      </c>
       <c r="L89" s="13"/>
     </row>
     <row r="90" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B90" s="75" t="s">
-        <v>204</v>
-      </c>
-      <c r="C90" s="75" t="s">
-        <v>13</v>
-      </c>
-      <c r="D90" s="75"/>
-      <c r="E90" s="76"/>
-      <c r="F90" s="77">
-        <v>2010</v>
-      </c>
-      <c r="G90" s="75" t="s">
-        <v>198</v>
-      </c>
-      <c r="H90" s="7" t="s">
-        <v>204</v>
+        <v>728</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="71"/>
+      <c r="F90" s="23">
+        <v>2021</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H90" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="I90" s="8" t="s">
         <v>280</v>
@@ -10759,27 +10769,27 @@
       <c r="A91" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B91" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="C91" s="75" t="s">
+      <c r="B91" s="72" t="s">
+        <v>202</v>
+      </c>
+      <c r="C91" s="72" t="s">
         <v>452</v>
       </c>
-      <c r="D91" s="75"/>
-      <c r="E91" s="76"/>
-      <c r="F91" s="77">
+      <c r="D91" s="72"/>
+      <c r="E91" s="73"/>
+      <c r="F91" s="74">
         <v>2010</v>
       </c>
-      <c r="G91" s="75" t="s">
+      <c r="G91" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="H91" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="I91" s="8" t="s">
+      <c r="H91" s="39" t="s">
+        <v>469</v>
+      </c>
+      <c r="I91" s="39" t="s">
         <v>280</v>
       </c>
-      <c r="J91" s="13"/>
+      <c r="J91" s="41"/>
       <c r="K91" s="13"/>
       <c r="L91" s="13"/>
     </row>
@@ -10788,7 +10798,7 @@
         <v>119</v>
       </c>
       <c r="B92" s="75" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C92" s="75" t="s">
         <v>13</v>
@@ -10801,8 +10811,8 @@
       <c r="G92" s="75" t="s">
         <v>198</v>
       </c>
-      <c r="H92" s="7" t="s">
-        <v>574</v>
+      <c r="H92" s="39" t="s">
+        <v>469</v>
       </c>
       <c r="I92" s="8" t="s">
         <v>280</v>
@@ -10816,7 +10826,7 @@
         <v>119</v>
       </c>
       <c r="B93" s="75" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C93" s="75" t="s">
         <v>452</v>
@@ -10830,7 +10840,7 @@
         <v>198</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>506</v>
+        <v>88</v>
       </c>
       <c r="I93" s="8" t="s">
         <v>280</v>
@@ -10844,10 +10854,10 @@
         <v>119</v>
       </c>
       <c r="B94" s="75" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C94" s="75" t="s">
-        <v>13</v>
+        <v>452</v>
       </c>
       <c r="D94" s="75"/>
       <c r="E94" s="76"/>
@@ -10858,7 +10868,7 @@
         <v>198</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>506</v>
+        <v>204</v>
       </c>
       <c r="I94" s="8" t="s">
         <v>280</v>
@@ -10872,10 +10882,10 @@
         <v>119</v>
       </c>
       <c r="B95" s="75" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C95" s="75" t="s">
-        <v>452</v>
+        <v>13</v>
       </c>
       <c r="D95" s="75"/>
       <c r="E95" s="76"/>
@@ -10883,10 +10893,10 @@
         <v>2010</v>
       </c>
       <c r="G95" s="75" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>347</v>
+        <v>204</v>
       </c>
       <c r="I95" s="8" t="s">
         <v>280</v>
@@ -10900,10 +10910,10 @@
         <v>119</v>
       </c>
       <c r="B96" s="75" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C96" s="75" t="s">
-        <v>13</v>
+        <v>452</v>
       </c>
       <c r="D96" s="75"/>
       <c r="E96" s="76"/>
@@ -10911,10 +10921,10 @@
         <v>2010</v>
       </c>
       <c r="G96" s="75" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>347</v>
+        <v>574</v>
       </c>
       <c r="I96" s="8" t="s">
         <v>280</v>
@@ -10928,10 +10938,10 @@
         <v>119</v>
       </c>
       <c r="B97" s="75" t="s">
-        <v>49</v>
+        <v>200</v>
       </c>
       <c r="C97" s="75" t="s">
-        <v>452</v>
+        <v>13</v>
       </c>
       <c r="D97" s="75"/>
       <c r="E97" s="76"/>
@@ -10939,10 +10949,10 @@
         <v>2010</v>
       </c>
       <c r="G97" s="75" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>269</v>
+        <v>574</v>
       </c>
       <c r="I97" s="8" t="s">
         <v>280</v>
@@ -10956,10 +10966,10 @@
         <v>119</v>
       </c>
       <c r="B98" s="75" t="s">
-        <v>49</v>
+        <v>203</v>
       </c>
       <c r="C98" s="75" t="s">
-        <v>13</v>
+        <v>452</v>
       </c>
       <c r="D98" s="75"/>
       <c r="E98" s="76"/>
@@ -10967,10 +10977,10 @@
         <v>2010</v>
       </c>
       <c r="G98" s="75" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>269</v>
+        <v>506</v>
       </c>
       <c r="I98" s="8" t="s">
         <v>280</v>
@@ -10984,10 +10994,10 @@
         <v>119</v>
       </c>
       <c r="B99" s="75" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C99" s="75" t="s">
-        <v>452</v>
+        <v>13</v>
       </c>
       <c r="D99" s="75"/>
       <c r="E99" s="76"/>
@@ -10998,7 +11008,7 @@
         <v>198</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>594</v>
+        <v>506</v>
       </c>
       <c r="I99" s="8" t="s">
         <v>280</v>
@@ -11012,10 +11022,10 @@
         <v>119</v>
       </c>
       <c r="B100" s="75" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C100" s="75" t="s">
-        <v>13</v>
+        <v>452</v>
       </c>
       <c r="D100" s="75"/>
       <c r="E100" s="76"/>
@@ -11023,10 +11033,10 @@
         <v>2010</v>
       </c>
       <c r="G100" s="75" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>594</v>
+        <v>347</v>
       </c>
       <c r="I100" s="8" t="s">
         <v>280</v>
@@ -11040,10 +11050,10 @@
         <v>119</v>
       </c>
       <c r="B101" s="75" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="C101" s="75" t="s">
-        <v>485</v>
+        <v>13</v>
       </c>
       <c r="D101" s="75"/>
       <c r="E101" s="76"/>
@@ -11053,31 +11063,25 @@
       <c r="G101" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="H101" s="15" t="s">
-        <v>620</v>
-      </c>
-      <c r="I101" s="15" t="s">
-        <v>744</v>
-      </c>
-      <c r="J101" s="13" t="s">
-        <v>745</v>
-      </c>
-      <c r="K101" s="13" t="s">
-        <v>746</v>
-      </c>
-      <c r="L101" s="13" t="s">
-        <v>397</v>
-      </c>
+      <c r="H101" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="I101" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="J101" s="13"/>
+      <c r="K101" s="13"/>
+      <c r="L101" s="13"/>
     </row>
     <row r="102" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="13" t="s">
         <v>119</v>
       </c>
       <c r="B102" s="75" t="s">
-        <v>209</v>
+        <v>49</v>
       </c>
       <c r="C102" s="75" t="s">
-        <v>13</v>
+        <v>452</v>
       </c>
       <c r="D102" s="75"/>
       <c r="E102" s="76"/>
@@ -11087,31 +11091,25 @@
       <c r="G102" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="H102" s="15" t="s">
-        <v>620</v>
-      </c>
-      <c r="I102" s="15" t="s">
-        <v>744</v>
-      </c>
-      <c r="J102" s="13" t="s">
-        <v>745</v>
-      </c>
-      <c r="K102" s="13" t="s">
-        <v>747</v>
-      </c>
-      <c r="L102" s="13" t="s">
-        <v>397</v>
-      </c>
+      <c r="H102" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="I102" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="J102" s="13"/>
+      <c r="K102" s="13"/>
+      <c r="L102" s="13"/>
     </row>
     <row r="103" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="13" t="s">
         <v>119</v>
       </c>
       <c r="B103" s="75" t="s">
-        <v>208</v>
+        <v>49</v>
       </c>
       <c r="C103" s="75" t="s">
-        <v>485</v>
+        <v>13</v>
       </c>
       <c r="D103" s="75"/>
       <c r="E103" s="76"/>
@@ -11121,31 +11119,25 @@
       <c r="G103" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="H103" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="I103" s="15" t="s">
-        <v>744</v>
-      </c>
-      <c r="J103" s="13" t="s">
-        <v>748</v>
-      </c>
-      <c r="K103" s="13" t="s">
-        <v>747</v>
-      </c>
-      <c r="L103" s="13" t="s">
-        <v>397</v>
-      </c>
+      <c r="H103" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="I103" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="J103" s="13"/>
+      <c r="K103" s="13"/>
+      <c r="L103" s="13"/>
     </row>
     <row r="104" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="13" t="s">
         <v>119</v>
       </c>
       <c r="B104" s="75" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C104" s="75" t="s">
-        <v>13</v>
+        <v>452</v>
       </c>
       <c r="D104" s="75"/>
       <c r="E104" s="76"/>
@@ -11153,33 +11145,27 @@
         <v>2010</v>
       </c>
       <c r="G104" s="75" t="s">
-        <v>194</v>
-      </c>
-      <c r="H104" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="I104" s="15" t="s">
-        <v>744</v>
-      </c>
-      <c r="J104" s="13" t="s">
-        <v>748</v>
-      </c>
-      <c r="K104" s="13" t="s">
-        <v>747</v>
-      </c>
-      <c r="L104" s="13" t="s">
-        <v>397</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="H104" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="I104" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="J104" s="13"/>
+      <c r="K104" s="13"/>
+      <c r="L104" s="13"/>
     </row>
     <row r="105" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="13" t="s">
         <v>119</v>
       </c>
       <c r="B105" s="75" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C105" s="75" t="s">
-        <v>485</v>
+        <v>13</v>
       </c>
       <c r="D105" s="75"/>
       <c r="E105" s="76"/>
@@ -11187,33 +11173,27 @@
         <v>2010</v>
       </c>
       <c r="G105" s="75" t="s">
-        <v>194</v>
-      </c>
-      <c r="H105" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="I105" s="15" t="s">
-        <v>744</v>
-      </c>
-      <c r="J105" s="13" t="s">
-        <v>749</v>
-      </c>
-      <c r="K105" s="13" t="s">
-        <v>747</v>
-      </c>
-      <c r="L105" s="13" t="s">
-        <v>397</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="H105" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="I105" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="J105" s="13"/>
+      <c r="K105" s="13"/>
+      <c r="L105" s="13"/>
     </row>
     <row r="106" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="13" t="s">
         <v>119</v>
       </c>
       <c r="B106" s="75" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C106" s="75" t="s">
-        <v>13</v>
+        <v>485</v>
       </c>
       <c r="D106" s="75"/>
       <c r="E106" s="76"/>
@@ -11224,16 +11204,16 @@
         <v>194</v>
       </c>
       <c r="H106" s="15" t="s">
-        <v>59</v>
+        <v>620</v>
       </c>
       <c r="I106" s="15" t="s">
         <v>744</v>
       </c>
       <c r="J106" s="13" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="K106" s="13" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="L106" s="13" t="s">
         <v>397</v>
@@ -11244,10 +11224,10 @@
         <v>119</v>
       </c>
       <c r="B107" s="75" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="C107" s="75" t="s">
-        <v>452</v>
+        <v>13</v>
       </c>
       <c r="D107" s="75"/>
       <c r="E107" s="76"/>
@@ -11255,27 +11235,33 @@
         <v>2010</v>
       </c>
       <c r="G107" s="75" t="s">
-        <v>198</v>
-      </c>
-      <c r="H107" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="I107" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
+        <v>194</v>
+      </c>
+      <c r="H107" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="I107" s="15" t="s">
+        <v>744</v>
+      </c>
+      <c r="J107" s="13" t="s">
+        <v>745</v>
+      </c>
+      <c r="K107" s="13" t="s">
+        <v>747</v>
+      </c>
+      <c r="L107" s="13" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="108" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="13" t="s">
         <v>119</v>
       </c>
       <c r="B108" s="75" t="s">
-        <v>31</v>
+        <v>208</v>
       </c>
       <c r="C108" s="75" t="s">
-        <v>452</v>
+        <v>485</v>
       </c>
       <c r="D108" s="75"/>
       <c r="E108" s="76"/>
@@ -11285,22 +11271,28 @@
       <c r="G108" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="H108" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I108" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="J108" s="13"/>
-      <c r="K108" s="13"/>
-      <c r="L108" s="13"/>
+      <c r="H108" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I108" s="15" t="s">
+        <v>744</v>
+      </c>
+      <c r="J108" s="13" t="s">
+        <v>748</v>
+      </c>
+      <c r="K108" s="13" t="s">
+        <v>747</v>
+      </c>
+      <c r="L108" s="13" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="109" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="13" t="s">
         <v>119</v>
       </c>
       <c r="B109" s="75" t="s">
-        <v>31</v>
+        <v>208</v>
       </c>
       <c r="C109" s="75" t="s">
         <v>13</v>
@@ -11313,22 +11305,28 @@
       <c r="G109" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="H109" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I109" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="J109" s="13"/>
-      <c r="K109" s="13"/>
-      <c r="L109" s="13"/>
+      <c r="H109" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I109" s="15" t="s">
+        <v>744</v>
+      </c>
+      <c r="J109" s="13" t="s">
+        <v>748</v>
+      </c>
+      <c r="K109" s="13" t="s">
+        <v>747</v>
+      </c>
+      <c r="L109" s="13" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="110" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="13" t="s">
         <v>119</v>
       </c>
       <c r="B110" s="75" t="s">
-        <v>319</v>
+        <v>210</v>
       </c>
       <c r="C110" s="75" t="s">
         <v>485</v>
@@ -11339,24 +11337,30 @@
         <v>2010</v>
       </c>
       <c r="G110" s="75" t="s">
-        <v>750</v>
-      </c>
-      <c r="H110" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="I110" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="J110" s="13"/>
-      <c r="K110" s="13"/>
-      <c r="L110" s="13"/>
+        <v>194</v>
+      </c>
+      <c r="H110" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I110" s="15" t="s">
+        <v>744</v>
+      </c>
+      <c r="J110" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="K110" s="13" t="s">
+        <v>747</v>
+      </c>
+      <c r="L110" s="13" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="111" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="13" t="s">
         <v>119</v>
       </c>
       <c r="B111" s="75" t="s">
-        <v>319</v>
+        <v>210</v>
       </c>
       <c r="C111" s="75" t="s">
         <v>13</v>
@@ -11367,24 +11371,30 @@
         <v>2010</v>
       </c>
       <c r="G111" s="75" t="s">
-        <v>750</v>
-      </c>
-      <c r="H111" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="I111" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="J111" s="13"/>
-      <c r="K111" s="13"/>
-      <c r="L111" s="13"/>
+        <v>194</v>
+      </c>
+      <c r="H111" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I111" s="15" t="s">
+        <v>744</v>
+      </c>
+      <c r="J111" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="K111" s="13" t="s">
+        <v>747</v>
+      </c>
+      <c r="L111" s="13" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="112" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="13" t="s">
         <v>119</v>
       </c>
       <c r="B112" s="75" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="C112" s="75" t="s">
         <v>452</v>
@@ -11398,14 +11408,12 @@
         <v>198</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>356</v>
+        <v>95</v>
       </c>
       <c r="I112" s="8" t="s">
-        <v>751</v>
-      </c>
-      <c r="J112" s="13" t="s">
-        <v>752</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="J112" s="13"/>
       <c r="K112" s="13"/>
       <c r="L112" s="13"/>
     </row>
@@ -11414,10 +11422,10 @@
         <v>119</v>
       </c>
       <c r="B113" s="75" t="s">
-        <v>196</v>
+        <v>31</v>
       </c>
       <c r="C113" s="75" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="D113" s="75"/>
       <c r="E113" s="76"/>
@@ -11428,7 +11436,7 @@
         <v>194</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="I113" s="8" t="s">
         <v>280</v>
@@ -11442,10 +11450,10 @@
         <v>119</v>
       </c>
       <c r="B114" s="75" t="s">
-        <v>195</v>
+        <v>31</v>
       </c>
       <c r="C114" s="75" t="s">
-        <v>438</v>
+        <v>13</v>
       </c>
       <c r="D114" s="75"/>
       <c r="E114" s="76"/>
@@ -11456,7 +11464,7 @@
         <v>194</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="I114" s="8" t="s">
         <v>280</v>
@@ -11470,10 +11478,10 @@
         <v>119</v>
       </c>
       <c r="B115" s="75" t="s">
-        <v>205</v>
+        <v>319</v>
       </c>
       <c r="C115" s="75" t="s">
-        <v>438</v>
+        <v>485</v>
       </c>
       <c r="D115" s="75"/>
       <c r="E115" s="76"/>
@@ -11481,20 +11489,16 @@
         <v>2010</v>
       </c>
       <c r="G115" s="75" t="s">
-        <v>198</v>
+        <v>750</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>268</v>
+        <v>319</v>
       </c>
       <c r="I115" s="8" t="s">
-        <v>753</v>
-      </c>
-      <c r="J115" s="13" t="s">
-        <v>754</v>
-      </c>
-      <c r="K115" s="13" t="s">
-        <v>599</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="J115" s="13"/>
+      <c r="K115" s="13"/>
       <c r="L115" s="13"/>
     </row>
     <row r="116" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11502,7 +11506,7 @@
         <v>119</v>
       </c>
       <c r="B116" s="75" t="s">
-        <v>205</v>
+        <v>319</v>
       </c>
       <c r="C116" s="75" t="s">
         <v>13</v>
@@ -11513,18 +11517,16 @@
         <v>2010</v>
       </c>
       <c r="G116" s="75" t="s">
-        <v>198</v>
+        <v>750</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>268</v>
+        <v>319</v>
       </c>
       <c r="I116" s="8" t="s">
-        <v>753</v>
+        <v>280</v>
       </c>
       <c r="J116" s="13"/>
-      <c r="K116" s="13" t="s">
-        <v>599</v>
-      </c>
+      <c r="K116" s="13"/>
       <c r="L116" s="13"/>
     </row>
     <row r="117" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11532,10 +11534,10 @@
         <v>119</v>
       </c>
       <c r="B117" s="75" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="C117" s="75" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="D117" s="75"/>
       <c r="E117" s="76"/>
@@ -11546,15 +11548,15 @@
         <v>198</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>268</v>
+        <v>356</v>
       </c>
       <c r="I117" s="8" t="s">
-        <v>753</v>
-      </c>
-      <c r="J117" s="13"/>
-      <c r="K117" s="13" t="s">
-        <v>599</v>
-      </c>
+        <v>751</v>
+      </c>
+      <c r="J117" s="13" t="s">
+        <v>752</v>
+      </c>
+      <c r="K117" s="13"/>
       <c r="L117" s="13"/>
     </row>
     <row r="118" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11562,10 +11564,10 @@
         <v>119</v>
       </c>
       <c r="B118" s="75" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C118" s="75" t="s">
-        <v>13</v>
+        <v>438</v>
       </c>
       <c r="D118" s="75"/>
       <c r="E118" s="76"/>
@@ -11573,18 +11575,16 @@
         <v>2010</v>
       </c>
       <c r="G118" s="75" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>268</v>
+        <v>72</v>
       </c>
       <c r="I118" s="8" t="s">
-        <v>753</v>
+        <v>280</v>
       </c>
       <c r="J118" s="13"/>
-      <c r="K118" s="13" t="s">
-        <v>599</v>
-      </c>
+      <c r="K118" s="13"/>
       <c r="L118" s="13"/>
     </row>
     <row r="119" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11592,7 +11592,7 @@
         <v>119</v>
       </c>
       <c r="B119" s="75" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="C119" s="75" t="s">
         <v>438</v>
@@ -11606,7 +11606,7 @@
         <v>194</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="I119" s="8" t="s">
         <v>280</v>
@@ -11620,10 +11620,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="75" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C120" s="75" t="s">
-        <v>13</v>
+        <v>438</v>
       </c>
       <c r="D120" s="75"/>
       <c r="E120" s="76"/>
@@ -11631,17 +11631,167 @@
         <v>2010</v>
       </c>
       <c r="G120" s="75" t="s">
+        <v>198</v>
+      </c>
+      <c r="H120" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="I120" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="J120" s="13" t="s">
+        <v>754</v>
+      </c>
+      <c r="K120" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="L120" s="13"/>
+    </row>
+    <row r="121" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B121" s="75" t="s">
+        <v>205</v>
+      </c>
+      <c r="C121" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121" s="75"/>
+      <c r="E121" s="76"/>
+      <c r="F121" s="77">
+        <v>2010</v>
+      </c>
+      <c r="G121" s="75" t="s">
+        <v>198</v>
+      </c>
+      <c r="H121" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="I121" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="J121" s="13"/>
+      <c r="K121" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="L121" s="13"/>
+    </row>
+    <row r="122" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B122" s="75" t="s">
+        <v>206</v>
+      </c>
+      <c r="C122" s="75" t="s">
+        <v>438</v>
+      </c>
+      <c r="D122" s="75"/>
+      <c r="E122" s="76"/>
+      <c r="F122" s="77">
+        <v>2010</v>
+      </c>
+      <c r="G122" s="75" t="s">
+        <v>198</v>
+      </c>
+      <c r="H122" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="I122" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="J122" s="13"/>
+      <c r="K122" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="L122" s="13"/>
+    </row>
+    <row r="123" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B123" s="75" t="s">
+        <v>206</v>
+      </c>
+      <c r="C123" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="D123" s="75"/>
+      <c r="E123" s="76"/>
+      <c r="F123" s="77">
+        <v>2010</v>
+      </c>
+      <c r="G123" s="75" t="s">
+        <v>198</v>
+      </c>
+      <c r="H123" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="I123" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="J123" s="13"/>
+      <c r="K123" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="L123" s="13"/>
+    </row>
+    <row r="124" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B124" s="75" t="s">
+        <v>207</v>
+      </c>
+      <c r="C124" s="75" t="s">
+        <v>438</v>
+      </c>
+      <c r="D124" s="75"/>
+      <c r="E124" s="76"/>
+      <c r="F124" s="77">
+        <v>2010</v>
+      </c>
+      <c r="G124" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="H120" s="7" t="s">
+      <c r="H124" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I120" s="15" t="s">
+      <c r="I124" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="J124" s="13"/>
+      <c r="K124" s="13"/>
+      <c r="L124" s="13"/>
+    </row>
+    <row r="125" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B125" s="75" t="s">
+        <v>207</v>
+      </c>
+      <c r="C125" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125" s="75"/>
+      <c r="E125" s="76"/>
+      <c r="F125" s="77">
+        <v>2010</v>
+      </c>
+      <c r="G125" s="75" t="s">
+        <v>194</v>
+      </c>
+      <c r="H125" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I125" s="15" t="s">
         <v>755</v>
       </c>
-      <c r="J120" s="13"/>
-      <c r="K120" s="13"/>
-      <c r="L120" s="13"/>
+      <c r="J125" s="13"/>
+      <c r="K125" s="13"/>
+      <c r="L125" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12054,8 +12204,8 @@
       <c r="J2" s="49" t="s">
         <v>437</v>
       </c>
-      <c r="K2" s="78"/>
-      <c r="L2" s="80"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="88"/>
       <c r="M2" s="40" t="s">
         <v>437</v>
       </c>
@@ -12092,8 +12242,8 @@
       <c r="J3" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K3" s="79"/>
-      <c r="L3" s="81"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="89"/>
       <c r="M3" s="9" t="s">
         <v>437</v>
       </c>
@@ -12130,8 +12280,8 @@
       <c r="J4" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K4" s="79"/>
-      <c r="L4" s="81"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="89"/>
       <c r="M4" s="9" t="s">
         <v>437</v>
       </c>
@@ -12166,8 +12316,8 @@
       <c r="J5" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K5" s="79"/>
-      <c r="L5" s="81"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="89"/>
       <c r="M5" s="9" t="s">
         <v>437</v>
       </c>
@@ -12204,10 +12354,10 @@
       <c r="J6" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K6" s="82" t="s">
+      <c r="K6" s="87" t="s">
         <v>447</v>
       </c>
-      <c r="L6" s="84"/>
+      <c r="L6" s="92"/>
       <c r="M6" s="9" t="s">
         <v>437</v>
       </c>
@@ -12244,8 +12394,8 @@
       <c r="J7" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K7" s="79"/>
-      <c r="L7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="93"/>
       <c r="M7" s="9" t="s">
         <v>437</v>
       </c>
@@ -12280,8 +12430,8 @@
       <c r="J8" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="K8" s="83"/>
-      <c r="L8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="94"/>
       <c r="M8" s="9" t="s">
         <v>437</v>
       </c>
@@ -12318,10 +12468,10 @@
       <c r="J9" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K9" s="87" t="s">
+      <c r="K9" s="95" t="s">
         <v>455</v>
       </c>
-      <c r="L9" s="89" t="s">
+      <c r="L9" s="90" t="s">
         <v>456</v>
       </c>
       <c r="M9" s="40" t="s">
@@ -12360,8 +12510,8 @@
       <c r="J10" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K10" s="88"/>
-      <c r="L10" s="81"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="89"/>
       <c r="M10" s="9" t="s">
         <v>437</v>
       </c>
@@ -12398,8 +12548,8 @@
       <c r="J11" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K11" s="88"/>
-      <c r="L11" s="81"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="89"/>
       <c r="M11" s="9" t="s">
         <v>437</v>
       </c>
@@ -12678,7 +12828,7 @@
       <c r="J18" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K18" s="82"/>
+      <c r="K18" s="87"/>
       <c r="L18" s="38"/>
       <c r="M18" s="9" t="s">
         <v>437</v>
@@ -12716,7 +12866,7 @@
       <c r="J19" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="K19" s="83"/>
+      <c r="K19" s="86"/>
       <c r="L19" s="60"/>
       <c r="M19" s="43" t="s">
         <v>437</v>
@@ -12754,10 +12904,10 @@
       <c r="J20" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K20" s="82" t="s">
+      <c r="K20" s="87" t="s">
         <v>490</v>
       </c>
-      <c r="L20" s="89" t="s">
+      <c r="L20" s="90" t="s">
         <v>491</v>
       </c>
       <c r="M20" s="9" t="s">
@@ -12796,8 +12946,8 @@
       <c r="J21" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K21" s="79"/>
-      <c r="L21" s="81"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="89"/>
       <c r="M21" s="9" t="s">
         <v>437</v>
       </c>
@@ -12832,8 +12982,8 @@
       <c r="J22" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K22" s="79"/>
-      <c r="L22" s="81"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="89"/>
       <c r="M22" s="9" t="s">
         <v>437</v>
       </c>
@@ -12870,8 +13020,8 @@
       <c r="J23" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K23" s="79"/>
-      <c r="L23" s="81"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="89"/>
       <c r="M23" s="9" t="s">
         <v>437</v>
       </c>
@@ -12908,8 +13058,8 @@
       <c r="J24" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K24" s="79"/>
-      <c r="L24" s="81"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="89"/>
       <c r="M24" s="9" t="s">
         <v>437</v>
       </c>
@@ -12946,10 +13096,10 @@
       <c r="J25" s="49" t="s">
         <v>437</v>
       </c>
-      <c r="K25" s="78" t="s">
+      <c r="K25" s="84" t="s">
         <v>497</v>
       </c>
-      <c r="L25" s="80" t="s">
+      <c r="L25" s="88" t="s">
         <v>498</v>
       </c>
       <c r="M25" s="40" t="s">
@@ -12988,8 +13138,8 @@
       <c r="J26" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K26" s="79"/>
-      <c r="L26" s="81"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="89"/>
       <c r="M26" s="9" t="s">
         <v>437</v>
       </c>
@@ -13026,8 +13176,8 @@
       <c r="J27" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K27" s="79"/>
-      <c r="L27" s="81"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="89"/>
       <c r="M27" s="9" t="s">
         <v>437</v>
       </c>
@@ -13062,8 +13212,8 @@
       <c r="J28" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="K28" s="83"/>
-      <c r="L28" s="90"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="91"/>
       <c r="M28" s="43" t="s">
         <v>437</v>
       </c>
@@ -13100,7 +13250,7 @@
       <c r="J29" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K29" s="82" t="s">
+      <c r="K29" s="87" t="s">
         <v>503</v>
       </c>
       <c r="L29" s="38"/>
@@ -13140,7 +13290,7 @@
       <c r="J30" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K30" s="79"/>
+      <c r="K30" s="85"/>
       <c r="L30" s="38"/>
       <c r="M30" s="9" t="s">
         <v>437</v>
@@ -13178,7 +13328,7 @@
       <c r="J31" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K31" s="79"/>
+      <c r="K31" s="85"/>
       <c r="L31" s="38"/>
       <c r="M31" s="9" t="s">
         <v>437</v>
@@ -13214,7 +13364,7 @@
       <c r="J32" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K32" s="79"/>
+      <c r="K32" s="85"/>
       <c r="L32" s="38"/>
       <c r="M32" s="9" t="s">
         <v>437</v>
@@ -13252,7 +13402,7 @@
       <c r="J33" s="49" t="s">
         <v>437</v>
       </c>
-      <c r="K33" s="78" t="s">
+      <c r="K33" s="84" t="s">
         <v>470</v>
       </c>
       <c r="L33" s="59" t="s">
@@ -13294,7 +13444,7 @@
       <c r="J34" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="K34" s="83"/>
+      <c r="K34" s="86"/>
       <c r="L34" s="60"/>
       <c r="M34" s="43" t="s">
         <v>437</v>
@@ -13332,7 +13482,7 @@
       <c r="J35" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K35" s="82" t="s">
+      <c r="K35" s="87" t="s">
         <v>470</v>
       </c>
       <c r="L35" s="38" t="s">
@@ -13374,7 +13524,7 @@
       <c r="J36" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K36" s="79"/>
+      <c r="K36" s="85"/>
       <c r="L36" s="38"/>
       <c r="M36" s="9" t="s">
         <v>437</v>
@@ -13491,7 +13641,7 @@
       <c r="K39" s="62" t="s">
         <v>520</v>
       </c>
-      <c r="L39" s="80"/>
+      <c r="L39" s="88"/>
       <c r="M39" s="40" t="s">
         <v>437</v>
       </c>
@@ -13529,7 +13679,7 @@
         <v>437</v>
       </c>
       <c r="K40" s="51"/>
-      <c r="L40" s="81"/>
+      <c r="L40" s="89"/>
       <c r="M40" s="9" t="s">
         <v>437</v>
       </c>
@@ -13608,10 +13758,10 @@
       <c r="J42" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K42" s="82" t="s">
+      <c r="K42" s="87" t="s">
         <v>527</v>
       </c>
-      <c r="L42" s="89" t="s">
+      <c r="L42" s="90" t="s">
         <v>528</v>
       </c>
       <c r="M42" s="40" t="s">
@@ -13650,8 +13800,8 @@
       <c r="J43" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K43" s="79"/>
-      <c r="L43" s="81"/>
+      <c r="K43" s="85"/>
+      <c r="L43" s="89"/>
       <c r="M43" s="9" t="s">
         <v>437</v>
       </c>
@@ -13688,8 +13838,8 @@
       <c r="J44" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K44" s="79"/>
-      <c r="L44" s="81"/>
+      <c r="K44" s="85"/>
+      <c r="L44" s="89"/>
       <c r="M44" s="9" t="s">
         <v>437</v>
       </c>
@@ -13724,8 +13874,8 @@
       <c r="J45" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K45" s="79"/>
-      <c r="L45" s="81"/>
+      <c r="K45" s="85"/>
+      <c r="L45" s="89"/>
       <c r="M45" s="9" t="s">
         <v>437</v>
       </c>
@@ -13762,8 +13912,8 @@
       <c r="J46" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K46" s="79"/>
-      <c r="L46" s="81"/>
+      <c r="K46" s="85"/>
+      <c r="L46" s="89"/>
       <c r="M46" s="9" t="s">
         <v>437</v>
       </c>
@@ -13800,8 +13950,8 @@
       <c r="J47" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K47" s="79"/>
-      <c r="L47" s="81"/>
+      <c r="K47" s="85"/>
+      <c r="L47" s="89"/>
       <c r="M47" s="9" t="s">
         <v>437</v>
       </c>
@@ -13918,7 +14068,7 @@
       <c r="J50" s="49" t="s">
         <v>437</v>
       </c>
-      <c r="K50" s="91" t="s">
+      <c r="K50" s="78" t="s">
         <v>541</v>
       </c>
       <c r="L50" s="59"/>
@@ -13958,7 +14108,7 @@
       <c r="J51" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K51" s="88"/>
+      <c r="K51" s="79"/>
       <c r="L51" s="38"/>
       <c r="M51" s="40" t="s">
         <v>437</v>
@@ -13996,7 +14146,7 @@
       <c r="J52" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K52" s="88"/>
+      <c r="K52" s="79"/>
       <c r="L52" s="38"/>
       <c r="M52" s="40" t="s">
         <v>437</v>
@@ -14034,7 +14184,7 @@
       <c r="J53" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K53" s="88"/>
+      <c r="K53" s="79"/>
       <c r="L53" s="38"/>
       <c r="M53" s="40" t="s">
         <v>437</v>
@@ -14070,7 +14220,7 @@
       <c r="J54" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="K54" s="92"/>
+      <c r="K54" s="80"/>
       <c r="L54" s="60"/>
       <c r="M54" s="40" t="s">
         <v>437</v>
@@ -14190,7 +14340,7 @@
       <c r="J57" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K57" s="82" t="s">
+      <c r="K57" s="87" t="s">
         <v>558</v>
       </c>
       <c r="L57" s="38"/>
@@ -14230,7 +14380,7 @@
       <c r="J58" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K58" s="79"/>
+      <c r="K58" s="85"/>
       <c r="L58" s="38"/>
       <c r="M58" s="9" t="s">
         <v>437</v>
@@ -14266,7 +14416,7 @@
       <c r="J59" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K59" s="79"/>
+      <c r="K59" s="85"/>
       <c r="L59" s="38"/>
       <c r="M59" s="9" t="s">
         <v>437</v>
@@ -14304,7 +14454,7 @@
       <c r="J60" s="40" t="s">
         <v>437</v>
       </c>
-      <c r="K60" s="80" t="s">
+      <c r="K60" s="88" t="s">
         <v>563</v>
       </c>
       <c r="L60" s="59"/>
@@ -14344,7 +14494,7 @@
       <c r="J61" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="K61" s="81"/>
+      <c r="K61" s="89"/>
       <c r="L61" s="38" t="s">
         <v>565</v>
       </c>
@@ -14384,7 +14534,7 @@
       <c r="J62" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K62" s="81"/>
+      <c r="K62" s="89"/>
       <c r="L62" s="38" t="s">
         <v>567</v>
       </c>
@@ -14424,7 +14574,7 @@
       <c r="J63" s="63" t="s">
         <v>437</v>
       </c>
-      <c r="K63" s="82"/>
+      <c r="K63" s="87"/>
       <c r="L63" s="38"/>
       <c r="M63" s="9" t="s">
         <v>437</v>
@@ -14462,7 +14612,7 @@
       <c r="J64" s="63" t="s">
         <v>437</v>
       </c>
-      <c r="K64" s="79"/>
+      <c r="K64" s="85"/>
       <c r="L64" s="38"/>
       <c r="M64" s="9" t="s">
         <v>437</v>
@@ -14500,7 +14650,7 @@
       <c r="J65" s="63" t="s">
         <v>437</v>
       </c>
-      <c r="K65" s="79"/>
+      <c r="K65" s="85"/>
       <c r="L65" s="38" t="s">
         <v>567</v>
       </c>
@@ -14538,7 +14688,7 @@
       <c r="J66" s="63" t="s">
         <v>437</v>
       </c>
-      <c r="K66" s="79"/>
+      <c r="K66" s="85"/>
       <c r="L66" s="13"/>
       <c r="M66" s="50" t="s">
         <v>437</v>
@@ -14652,7 +14802,7 @@
       <c r="J69" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K69" s="82" t="s">
+      <c r="K69" s="87" t="s">
         <v>470</v>
       </c>
       <c r="L69" s="38" t="s">
@@ -14694,7 +14844,7 @@
       <c r="J70" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K70" s="79"/>
+      <c r="K70" s="85"/>
       <c r="L70" s="38"/>
       <c r="M70" s="9" t="s">
         <v>437</v>
@@ -14772,7 +14922,7 @@
       <c r="J72" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K72" s="82"/>
+      <c r="K72" s="87"/>
       <c r="L72" s="38"/>
       <c r="M72" s="9" t="s">
         <v>437</v>
@@ -14808,7 +14958,7 @@
       <c r="J73" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K73" s="79"/>
+      <c r="K73" s="85"/>
       <c r="L73" s="38"/>
       <c r="M73" s="9" t="s">
         <v>437</v>
@@ -14844,7 +14994,7 @@
       <c r="J74" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K74" s="79"/>
+      <c r="K74" s="85"/>
       <c r="L74" s="38"/>
       <c r="M74" s="9" t="s">
         <v>437</v>
@@ -14878,7 +15028,7 @@
       <c r="J75" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="K75" s="83"/>
+      <c r="K75" s="86"/>
       <c r="L75" s="60"/>
       <c r="M75" s="9" t="s">
         <v>437</v>
@@ -14956,10 +15106,10 @@
       <c r="J77" s="49" t="s">
         <v>437</v>
       </c>
-      <c r="K77" s="91" t="s">
+      <c r="K77" s="78" t="s">
         <v>590</v>
       </c>
-      <c r="L77" s="78" t="s">
+      <c r="L77" s="84" t="s">
         <v>591</v>
       </c>
       <c r="M77" s="40" t="s">
@@ -15000,8 +15150,8 @@
       <c r="J78" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K78" s="92"/>
-      <c r="L78" s="93"/>
+      <c r="K78" s="80"/>
+      <c r="L78" s="82"/>
       <c r="M78" s="50" t="s">
         <v>437</v>
       </c>
@@ -15041,7 +15191,7 @@
       <c r="K79" s="38" t="s">
         <v>592</v>
       </c>
-      <c r="L79" s="93"/>
+      <c r="L79" s="82"/>
       <c r="M79" s="50" t="s">
         <v>437</v>
       </c>
@@ -15081,7 +15231,7 @@
       <c r="K80" s="38" t="s">
         <v>592</v>
       </c>
-      <c r="L80" s="83"/>
+      <c r="L80" s="86"/>
       <c r="M80" s="9" t="s">
         <v>437</v>
       </c>
@@ -15118,7 +15268,7 @@
       <c r="J81" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K81" s="82" t="s">
+      <c r="K81" s="87" t="s">
         <v>470</v>
       </c>
       <c r="L81" s="38" t="s">
@@ -15160,7 +15310,7 @@
       <c r="J82" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K82" s="79"/>
+      <c r="K82" s="85"/>
       <c r="L82" s="38"/>
       <c r="M82" s="9" t="s">
         <v>437</v>
@@ -15282,7 +15432,7 @@
       <c r="J85" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K85" s="82" t="s">
+      <c r="K85" s="87" t="s">
         <v>604</v>
       </c>
       <c r="L85" s="38"/>
@@ -15322,7 +15472,7 @@
       <c r="J86" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K86" s="79"/>
+      <c r="K86" s="85"/>
       <c r="L86" s="38"/>
       <c r="M86" s="9" t="s">
         <v>437</v>
@@ -15360,7 +15510,7 @@
       <c r="J87" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K87" s="79"/>
+      <c r="K87" s="85"/>
       <c r="L87" s="38"/>
       <c r="M87" s="9" t="s">
         <v>437</v>
@@ -15396,7 +15546,7 @@
       <c r="J88" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K88" s="79"/>
+      <c r="K88" s="85"/>
       <c r="L88" s="38"/>
       <c r="M88" s="9" t="s">
         <v>437</v>
@@ -15434,7 +15584,7 @@
       <c r="J89" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K89" s="79"/>
+      <c r="K89" s="85"/>
       <c r="L89" s="38"/>
       <c r="M89" s="9" t="s">
         <v>437</v>
@@ -15472,7 +15622,7 @@
       <c r="J90" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="K90" s="79"/>
+      <c r="K90" s="85"/>
       <c r="L90" s="38"/>
       <c r="M90" s="9" t="s">
         <v>437</v>
@@ -15510,10 +15660,10 @@
       <c r="J91" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K91" s="91" t="s">
+      <c r="K91" s="78" t="s">
         <v>610</v>
       </c>
-      <c r="L91" s="94" t="s">
+      <c r="L91" s="81" t="s">
         <v>611</v>
       </c>
       <c r="M91" s="40" t="s">
@@ -15552,8 +15702,8 @@
       <c r="J92" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="K92" s="88"/>
-      <c r="L92" s="93"/>
+      <c r="K92" s="79"/>
+      <c r="L92" s="82"/>
       <c r="M92" s="9" t="s">
         <v>437</v>
       </c>
@@ -15590,8 +15740,8 @@
       <c r="J93" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="K93" s="88"/>
-      <c r="L93" s="93"/>
+      <c r="K93" s="79"/>
+      <c r="L93" s="82"/>
       <c r="M93" s="9" t="s">
         <v>437</v>
       </c>
@@ -15626,8 +15776,8 @@
       <c r="J94" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="K94" s="92"/>
-      <c r="L94" s="95"/>
+      <c r="K94" s="80"/>
+      <c r="L94" s="83"/>
       <c r="M94" s="9" t="s">
         <v>437</v>
       </c>
@@ -15664,7 +15814,7 @@
       <c r="J95" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K95" s="78"/>
+      <c r="K95" s="84"/>
       <c r="L95" s="38"/>
       <c r="M95" s="40" t="s">
         <v>437</v>
@@ -15702,7 +15852,7 @@
       <c r="J96" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K96" s="79"/>
+      <c r="K96" s="85"/>
       <c r="L96" s="38"/>
       <c r="M96" s="40" t="s">
         <v>437</v>
@@ -15740,7 +15890,7 @@
       <c r="J97" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K97" s="79"/>
+      <c r="K97" s="85"/>
       <c r="L97" s="38"/>
       <c r="M97" s="40" t="s">
         <v>437</v>
@@ -15778,7 +15928,7 @@
       <c r="J98" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K98" s="79"/>
+      <c r="K98" s="85"/>
       <c r="L98" s="38"/>
       <c r="M98" s="40" t="s">
         <v>437</v>
@@ -15814,7 +15964,7 @@
       <c r="J99" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="K99" s="83"/>
+      <c r="K99" s="86"/>
       <c r="L99" s="53"/>
       <c r="M99" s="55" t="s">
         <v>437</v>
@@ -15843,6 +15993,28 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="K20:K24"/>
+    <mergeCell ref="L20:L24"/>
+    <mergeCell ref="K25:K28"/>
+    <mergeCell ref="L25:L28"/>
+    <mergeCell ref="K29:K32"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="K42:K47"/>
+    <mergeCell ref="L42:L47"/>
+    <mergeCell ref="K50:K54"/>
+    <mergeCell ref="K57:K59"/>
+    <mergeCell ref="K60:K62"/>
+    <mergeCell ref="K63:K66"/>
+    <mergeCell ref="K69:K70"/>
     <mergeCell ref="K91:K94"/>
     <mergeCell ref="L91:L94"/>
     <mergeCell ref="K95:K99"/>
@@ -15851,28 +16023,6 @@
     <mergeCell ref="L77:L80"/>
     <mergeCell ref="K81:K82"/>
     <mergeCell ref="K85:K90"/>
-    <mergeCell ref="K50:K54"/>
-    <mergeCell ref="K57:K59"/>
-    <mergeCell ref="K60:K62"/>
-    <mergeCell ref="K63:K66"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="K29:K32"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="K42:K47"/>
-    <mergeCell ref="L42:L47"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="K20:K24"/>
-    <mergeCell ref="L20:L24"/>
-    <mergeCell ref="K25:K28"/>
-    <mergeCell ref="L25:L28"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="L9:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Meta/Analytes3.xlsx
+++ b/Meta/Analytes3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/coffman_christian_epa_gov/Documents/Profile/Documents/Projects/GL_Data/Meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_CFA7FA0AC8BEC675FF6906A82B7A2EC91D13FE60" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FFC9DD3-F616-49AE-BD3E-BCF744600BD1}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="11_CFA7FA0AC8BEC675FF6906A82B7A2EC91D13FE60" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C01F9768-6DA0-4585-8537-B6A7DEEC3F0F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <sheet name="Annie_Comments" sheetId="14" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1">CSMI_Map!$H$1:$H$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1">CSMI_Map!$H$1:$H$74</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3">GLENDA_Map!$B$1:$M$99</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Key!$A$1:$A$98</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7">NCCA_Map!$A$1:$A$57</definedName>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3707" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3700" uniqueCount="804">
   <si>
     <t>ANALYTE</t>
   </si>
@@ -2136,9 +2136,6 @@
   </si>
   <si>
     <t>Uncorrected conductivity</t>
-  </si>
-  <si>
-    <t>Specific.Conductance</t>
   </si>
   <si>
     <t>Probably just want specific conductance?</t>
@@ -3027,35 +3024,11 @@
     <xf numFmtId="3" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3063,10 +3036,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3080,6 +3053,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3406,16 +3403,16 @@
         <v>5</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="11" t="s">
+        <v>756</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>757</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3429,7 +3426,7 @@
         <v>281</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>42</v>
@@ -3440,13 +3437,13 @@
         <v>347</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>22</v>
@@ -3457,13 +3454,13 @@
         <v>465</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>22</v>
@@ -3474,13 +3471,13 @@
         <v>469</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>281</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>42</v>
@@ -3491,13 +3488,13 @@
         <v>473</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>281</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>42</v>
@@ -3508,13 +3505,13 @@
         <v>620</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>22</v>
@@ -3525,13 +3522,13 @@
         <v>88</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>281</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -3548,7 +3545,7 @@
         <v>282</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>22</v>
@@ -3559,13 +3556,13 @@
         <v>93</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>284</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>227</v>
@@ -3582,7 +3579,7 @@
         <v>281</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>42</v>
@@ -3593,13 +3590,13 @@
         <v>506</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>281</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>42</v>
@@ -3610,13 +3607,13 @@
         <v>507</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>281</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>42</v>
@@ -3627,13 +3624,13 @@
         <v>509</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>22</v>
@@ -3644,13 +3641,13 @@
         <v>511</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>22</v>
@@ -3661,13 +3658,13 @@
         <v>515</v>
       </c>
       <c r="B16" s="75" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>233</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>233</v>
@@ -3678,13 +3675,13 @@
         <v>517</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>22</v>
@@ -3695,13 +3692,13 @@
         <v>63</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>22</v>
@@ -3712,13 +3709,13 @@
         <v>55</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>22</v>
@@ -3729,13 +3726,13 @@
         <v>538</v>
       </c>
       <c r="B20" s="75" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>279</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>539</v>
@@ -3746,13 +3743,13 @@
         <v>72</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>22</v>
@@ -3763,13 +3760,13 @@
         <v>204</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>281</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>42</v>
@@ -3780,13 +3777,13 @@
         <v>486</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>281</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>42</v>
@@ -3797,13 +3794,13 @@
         <v>478</v>
       </c>
       <c r="B24" s="75" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>279</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>539</v>
@@ -3814,13 +3811,13 @@
         <v>269</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>22</v>
@@ -3831,13 +3828,13 @@
         <v>223</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>281</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>42</v>
@@ -3851,13 +3848,13 @@
         <v>83</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3865,13 +3862,13 @@
         <v>66</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>22</v>
@@ -3882,13 +3879,13 @@
         <v>59</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>22</v>
@@ -3899,13 +3896,13 @@
         <v>572</v>
       </c>
       <c r="B30" s="75" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>279</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>539</v>
@@ -3916,13 +3913,13 @@
         <v>77</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>22</v>
@@ -3933,13 +3930,13 @@
         <v>232</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>233</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>233</v>
@@ -3950,13 +3947,13 @@
         <v>574</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>281</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>42</v>
@@ -3967,13 +3964,13 @@
         <v>575</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>281</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>42</v>
@@ -3990,7 +3987,7 @@
         <v>318</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>318</v>
@@ -4001,13 +3998,13 @@
         <v>588</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>22</v>
@@ -4018,13 +4015,13 @@
         <v>356</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>281</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>42</v>
@@ -4035,13 +4032,13 @@
         <v>594</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>281</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>42</v>
@@ -4052,13 +4049,13 @@
         <v>595</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>281</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>42</v>
@@ -4069,13 +4066,13 @@
         <v>95</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>281</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>42</v>
@@ -4086,13 +4083,13 @@
         <v>31</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>22</v>
@@ -4109,7 +4106,7 @@
         <v>326</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>326</v>
@@ -4120,13 +4117,13 @@
         <v>612</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>276</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>276</v>
@@ -4137,13 +4134,13 @@
         <v>609</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>277</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>277</v>
@@ -8177,10 +8174,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L125"/>
+  <dimension ref="A1:L124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9212,7 +9209,7 @@
         <v>684</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -9298,7 +9295,7 @@
         <v>684</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -9316,10 +9313,10 @@
         <v>280</v>
       </c>
       <c r="J38" s="13" t="s">
+        <v>691</v>
+      </c>
+      <c r="K38" s="13" t="s">
         <v>692</v>
-      </c>
-      <c r="K38" s="13" t="s">
-        <v>693</v>
       </c>
       <c r="L38" s="13"/>
     </row>
@@ -9328,7 +9325,7 @@
         <v>684</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>691</v>
+        <v>242</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -9337,28 +9334,28 @@
         <v>2021</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>93</v>
+        <v>268</v>
       </c>
       <c r="I39" s="8" t="s">
         <v>280</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="K39" s="13" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="L39" s="13"/>
     </row>
-    <row r="40" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
         <v>684</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -9367,7 +9364,7 @@
         <v>2021</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>268</v>
@@ -9376,94 +9373,94 @@
         <v>280</v>
       </c>
       <c r="J40" s="13" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="K40" s="13" t="s">
         <v>695</v>
       </c>
       <c r="L40" s="13"/>
     </row>
-    <row r="41" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" s="16" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
         <v>684</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
+      <c r="B41" s="13" t="s">
+        <v>696</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
       <c r="E41" s="13"/>
-      <c r="F41" s="23">
-        <v>2021</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="H41" s="7" t="s">
+      <c r="F41" s="71"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="I41" s="8" t="s">
+      <c r="I41" s="13" t="s">
         <v>280</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="L41" s="13"/>
     </row>
-    <row r="42" spans="1:12" s="16" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
         <v>684</v>
       </c>
-      <c r="B42" s="13" t="s">
-        <v>697</v>
-      </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13" t="s">
+      <c r="B42" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="13" t="s">
+        <v>643</v>
+      </c>
+      <c r="F42" s="23">
+        <v>2015</v>
+      </c>
+      <c r="G42" s="8"/>
+      <c r="H42" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="I42" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="J42" s="13" t="s">
-        <v>698</v>
-      </c>
+      <c r="I42" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="J42" s="13"/>
       <c r="K42" s="13" t="s">
-        <v>696</v>
+        <v>644</v>
       </c>
       <c r="L42" s="13"/>
     </row>
-    <row r="43" spans="1:12" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
         <v>684</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>224</v>
+        <v>802</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
-      <c r="E43" s="13" t="s">
-        <v>643</v>
-      </c>
+      <c r="E43" s="13"/>
       <c r="F43" s="23">
-        <v>2015</v>
-      </c>
-      <c r="G43" s="8"/>
+        <v>2021</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>698</v>
+      </c>
       <c r="H43" s="20" t="s">
         <v>268</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="J43" s="13"/>
+        <v>280</v>
+      </c>
+      <c r="J43" s="13" t="s">
+        <v>699</v>
+      </c>
       <c r="K43" s="13" t="s">
-        <v>644</v>
+        <v>700</v>
       </c>
       <c r="L43" s="13"/>
     </row>
@@ -9481,7 +9478,7 @@
         <v>2021</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H44" s="20" t="s">
         <v>268</v>
@@ -9490,10 +9487,10 @@
         <v>280</v>
       </c>
       <c r="J44" s="13" t="s">
+        <v>699</v>
+      </c>
+      <c r="K44" s="13" t="s">
         <v>700</v>
-      </c>
-      <c r="K44" s="13" t="s">
-        <v>701</v>
       </c>
       <c r="L44" s="13"/>
     </row>
@@ -9502,7 +9499,7 @@
         <v>684</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>804</v>
+        <v>244</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -9511,19 +9508,19 @@
         <v>2021</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>699</v>
-      </c>
-      <c r="H45" s="20" t="s">
+        <v>698</v>
+      </c>
+      <c r="H45" s="7" t="s">
         <v>268</v>
       </c>
       <c r="I45" s="8" t="s">
         <v>280</v>
       </c>
       <c r="J45" s="13" t="s">
+        <v>699</v>
+      </c>
+      <c r="K45" s="13" t="s">
         <v>700</v>
-      </c>
-      <c r="K45" s="13" t="s">
-        <v>701</v>
       </c>
       <c r="L45" s="13"/>
     </row>
@@ -9532,7 +9529,7 @@
         <v>684</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -9541,7 +9538,7 @@
         <v>2021</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>268</v>
@@ -9550,19 +9547,19 @@
         <v>280</v>
       </c>
       <c r="J46" s="13" t="s">
+        <v>699</v>
+      </c>
+      <c r="K46" s="13" t="s">
         <v>700</v>
       </c>
-      <c r="K46" s="13" t="s">
-        <v>701</v>
-      </c>
       <c r="L46" s="13"/>
     </row>
-    <row r="47" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
         <v>684</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>245</v>
+        <v>369</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -9571,20 +9568,16 @@
         <v>2021</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>699</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>268</v>
+        <v>231</v>
+      </c>
+      <c r="H47" s="20" t="s">
+        <v>232</v>
       </c>
       <c r="I47" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J47" s="13" t="s">
-        <v>700</v>
-      </c>
-      <c r="K47" s="13" t="s">
-        <v>701</v>
-      </c>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
       <c r="L47" s="13"/>
     </row>
     <row r="48" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -9592,7 +9585,7 @@
         <v>684</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>369</v>
+        <v>701</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -9603,7 +9596,7 @@
       <c r="G48" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="H48" s="20" t="s">
+      <c r="H48" s="7" t="s">
         <v>232</v>
       </c>
       <c r="I48" s="8" t="s">
@@ -9627,15 +9620,17 @@
         <v>2021</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>231</v>
+        <v>703</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="I49" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J49" s="13"/>
+      <c r="J49" s="13" t="s">
+        <v>704</v>
+      </c>
       <c r="K49" s="13"/>
       <c r="L49" s="13"/>
     </row>
@@ -9644,7 +9639,7 @@
         <v>684</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -9653,7 +9648,7 @@
         <v>2021</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>268</v>
@@ -9662,7 +9657,7 @@
         <v>280</v>
       </c>
       <c r="J50" s="13" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="K50" s="13"/>
       <c r="L50" s="13"/>
@@ -9672,7 +9667,7 @@
         <v>684</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -9681,7 +9676,7 @@
         <v>2021</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>268</v>
@@ -9690,7 +9685,7 @@
         <v>280</v>
       </c>
       <c r="J51" s="13" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="K51" s="13"/>
       <c r="L51" s="13"/>
@@ -9700,7 +9695,7 @@
         <v>684</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -9709,7 +9704,7 @@
         <v>2021</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>709</v>
+        <v>13</v>
       </c>
       <c r="H52" s="7" t="s">
         <v>268</v>
@@ -9718,7 +9713,7 @@
         <v>280</v>
       </c>
       <c r="J52" s="13" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="K52" s="13"/>
       <c r="L52" s="13"/>
@@ -9737,7 +9732,7 @@
         <v>2021</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>13</v>
+        <v>708</v>
       </c>
       <c r="H53" s="7" t="s">
         <v>268</v>
@@ -9746,7 +9741,7 @@
         <v>280</v>
       </c>
       <c r="J53" s="13" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="K53" s="13"/>
       <c r="L53" s="13"/>
@@ -9756,7 +9751,7 @@
         <v>684</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>711</v>
+        <v>328</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -9765,16 +9760,16 @@
         <v>2021</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>709</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>268</v>
+        <v>277</v>
+      </c>
+      <c r="H54" s="20" t="s">
+        <v>609</v>
       </c>
       <c r="I54" s="8" t="s">
         <v>280</v>
       </c>
       <c r="J54" s="13" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="K54" s="13"/>
       <c r="L54" s="13"/>
@@ -9784,7 +9779,7 @@
         <v>684</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>328</v>
+        <v>711</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
@@ -9793,16 +9788,16 @@
         <v>2021</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="H55" s="20" t="s">
-        <v>609</v>
+        <v>712</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>268</v>
       </c>
       <c r="I55" s="8" t="s">
         <v>280</v>
       </c>
       <c r="J55" s="13" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="K55" s="13"/>
       <c r="L55" s="13"/>
@@ -9812,7 +9807,7 @@
         <v>684</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>712</v>
+        <v>83</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
@@ -9821,26 +9816,24 @@
         <v>2021</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>713</v>
+        <v>13</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>268</v>
+        <v>83</v>
       </c>
       <c r="I56" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J56" s="13" t="s">
-        <v>705</v>
-      </c>
+      <c r="J56" s="13"/>
       <c r="K56" s="13"/>
       <c r="L56" s="13"/>
     </row>
-    <row r="57" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="103.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="13" t="s">
         <v>684</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>83</v>
+        <v>713</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
@@ -9849,24 +9842,26 @@
         <v>2021</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>13</v>
+        <v>714</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>83</v>
+        <v>268</v>
       </c>
       <c r="I57" s="8" t="s">
         <v>280</v>
       </c>
       <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
+      <c r="K57" s="13" t="s">
+        <v>715</v>
+      </c>
       <c r="L57" s="13"/>
     </row>
-    <row r="58" spans="1:12" ht="103.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="13" t="s">
         <v>684</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>714</v>
+        <v>247</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -9875,7 +9870,7 @@
         <v>2021</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H58" s="7" t="s">
         <v>268</v>
@@ -9884,9 +9879,7 @@
         <v>280</v>
       </c>
       <c r="J58" s="13"/>
-      <c r="K58" s="13" t="s">
-        <v>716</v>
-      </c>
+      <c r="K58" s="13"/>
       <c r="L58" s="13"/>
     </row>
     <row r="59" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -9894,7 +9887,7 @@
         <v>684</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -9903,7 +9896,7 @@
         <v>2021</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H59" s="7" t="s">
         <v>268</v>
@@ -9920,7 +9913,7 @@
         <v>684</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
@@ -9929,7 +9922,7 @@
         <v>2021</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H60" s="7" t="s">
         <v>268</v>
@@ -9946,7 +9939,7 @@
         <v>684</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -9955,7 +9948,7 @@
         <v>2021</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H61" s="7" t="s">
         <v>268</v>
@@ -9972,7 +9965,7 @@
         <v>684</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
@@ -9981,7 +9974,7 @@
         <v>2021</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>717</v>
+        <v>253</v>
       </c>
       <c r="H62" s="7" t="s">
         <v>268</v>
@@ -9998,7 +9991,7 @@
         <v>684</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
@@ -10007,7 +10000,7 @@
         <v>2021</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>253</v>
+        <v>716</v>
       </c>
       <c r="H63" s="7" t="s">
         <v>268</v>
@@ -10024,7 +10017,7 @@
         <v>684</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -10033,7 +10026,7 @@
         <v>2021</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>717</v>
+        <v>231</v>
       </c>
       <c r="H64" s="7" t="s">
         <v>268</v>
@@ -10050,7 +10043,7 @@
         <v>684</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>255</v>
+        <v>717</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -10059,7 +10052,7 @@
         <v>2021</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>231</v>
+        <v>318</v>
       </c>
       <c r="H65" s="7" t="s">
         <v>268</v>
@@ -10085,7 +10078,7 @@
         <v>2021</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>318</v>
+        <v>719</v>
       </c>
       <c r="H66" s="7" t="s">
         <v>268</v>
@@ -10102,7 +10095,7 @@
         <v>684</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -10111,7 +10104,7 @@
         <v>2021</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>720</v>
+        <v>13</v>
       </c>
       <c r="H67" s="7" t="s">
         <v>268</v>
@@ -10119,16 +10112,18 @@
       <c r="I67" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J67" s="13"/>
+      <c r="J67" s="13" t="s">
+        <v>721</v>
+      </c>
       <c r="K67" s="13"/>
       <c r="L67" s="13"/>
     </row>
-    <row r="68" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="13" t="s">
         <v>684</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>721</v>
+        <v>327</v>
       </c>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -10137,7 +10132,7 @@
         <v>2021</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>13</v>
+        <v>719</v>
       </c>
       <c r="H68" s="7" t="s">
         <v>268</v>
@@ -10156,7 +10151,7 @@
         <v>684</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>327</v>
+        <v>256</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
@@ -10165,7 +10160,7 @@
         <v>2021</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="H69" s="7" t="s">
         <v>268</v>
@@ -10173,9 +10168,7 @@
       <c r="I69" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J69" s="13" t="s">
-        <v>723</v>
-      </c>
+      <c r="J69" s="13"/>
       <c r="K69" s="13"/>
       <c r="L69" s="13"/>
     </row>
@@ -10184,7 +10177,7 @@
         <v>684</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -10193,7 +10186,7 @@
         <v>2021</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>724</v>
+        <v>259</v>
       </c>
       <c r="H70" s="7" t="s">
         <v>268</v>
@@ -10201,8 +10194,12 @@
       <c r="I70" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J70" s="13"/>
-      <c r="K70" s="13"/>
+      <c r="J70" s="13" t="s">
+        <v>724</v>
+      </c>
+      <c r="K70" s="13" t="s">
+        <v>725</v>
+      </c>
       <c r="L70" s="13"/>
     </row>
     <row r="71" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10210,7 +10207,7 @@
         <v>684</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
@@ -10219,7 +10216,7 @@
         <v>2021</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>259</v>
+        <v>726</v>
       </c>
       <c r="H71" s="7" t="s">
         <v>268</v>
@@ -10227,12 +10224,8 @@
       <c r="I71" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J71" s="13" t="s">
-        <v>725</v>
-      </c>
-      <c r="K71" s="13" t="s">
-        <v>726</v>
-      </c>
+      <c r="J71" s="13"/>
+      <c r="K71" s="13"/>
       <c r="L71" s="13"/>
     </row>
     <row r="72" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10240,7 +10233,7 @@
         <v>684</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
@@ -10249,7 +10242,7 @@
         <v>2021</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H72" s="7" t="s">
         <v>268</v>
@@ -10266,7 +10259,7 @@
         <v>684</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -10275,7 +10268,7 @@
         <v>2021</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H73" s="7" t="s">
         <v>268</v>
@@ -10292,7 +10285,7 @@
         <v>684</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
@@ -10301,7 +10294,7 @@
         <v>2021</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H74" s="7" t="s">
         <v>268</v>
@@ -10315,64 +10308,66 @@
     </row>
     <row r="75" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="13" t="s">
-        <v>684</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>264</v>
+        <v>727</v>
+      </c>
+      <c r="B75" s="39" t="s">
+        <v>202</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="23">
+      <c r="E75" s="69"/>
+      <c r="F75" s="70">
         <v>2021</v>
       </c>
-      <c r="G75" s="8" t="s">
-        <v>727</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="I75" s="8" t="s">
+      <c r="G75" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="H75" s="39" t="s">
+        <v>469</v>
+      </c>
+      <c r="I75" s="39" t="s">
         <v>280</v>
       </c>
-      <c r="J75" s="13"/>
-      <c r="K75" s="13"/>
+      <c r="J75" s="41" t="s">
+        <v>728</v>
+      </c>
+      <c r="K75" s="41"/>
       <c r="L75" s="13"/>
     </row>
     <row r="76" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="13" t="s">
-        <v>728</v>
-      </c>
-      <c r="B76" s="39" t="s">
-        <v>202</v>
+        <v>727</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>197</v>
       </c>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
-      <c r="E76" s="69"/>
-      <c r="F76" s="70">
+      <c r="E76" s="71"/>
+      <c r="F76" s="23">
         <v>2021</v>
       </c>
-      <c r="G76" s="39" t="s">
+      <c r="G76" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H76" s="39" t="s">
-        <v>469</v>
-      </c>
-      <c r="I76" s="39" t="s">
+      <c r="H76" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I76" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J76" s="41" t="s">
+      <c r="J76" s="13" t="s">
         <v>729</v>
       </c>
-      <c r="K76" s="41"/>
+      <c r="K76" s="13"/>
       <c r="L76" s="13"/>
     </row>
     <row r="77" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="13" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
@@ -10384,7 +10379,7 @@
         <v>42</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>88</v>
+        <v>574</v>
       </c>
       <c r="I77" s="8" t="s">
         <v>280</v>
@@ -10397,10 +10392,10 @@
     </row>
     <row r="78" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="13" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
@@ -10412,7 +10407,7 @@
         <v>42</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>574</v>
+        <v>506</v>
       </c>
       <c r="I78" s="8" t="s">
         <v>280</v>
@@ -10425,10 +10420,10 @@
     </row>
     <row r="79" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="13" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>203</v>
+        <v>732</v>
       </c>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
@@ -10437,26 +10432,26 @@
         <v>2021</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>506</v>
+        <v>347</v>
       </c>
       <c r="I79" s="8" t="s">
         <v>280</v>
       </c>
       <c r="J79" s="13" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="K79" s="13"/>
       <c r="L79" s="13"/>
     </row>
     <row r="80" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="13" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>733</v>
+        <v>49</v>
       </c>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
@@ -10468,7 +10463,7 @@
         <v>211</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>347</v>
+        <v>269</v>
       </c>
       <c r="I80" s="8" t="s">
         <v>280</v>
@@ -10481,10 +10476,10 @@
     </row>
     <row r="81" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="13" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>49</v>
+        <v>201</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
@@ -10493,10 +10488,10 @@
         <v>2021</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>269</v>
+        <v>594</v>
       </c>
       <c r="I81" s="8" t="s">
         <v>280</v>
@@ -10509,10 +10504,10 @@
     </row>
     <row r="82" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="13" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>201</v>
+        <v>736</v>
       </c>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
@@ -10524,23 +10519,23 @@
         <v>42</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>594</v>
+        <v>95</v>
       </c>
       <c r="I82" s="8" t="s">
         <v>280</v>
       </c>
       <c r="J82" s="13" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="K82" s="13"/>
       <c r="L82" s="13"/>
     </row>
     <row r="83" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="13" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>737</v>
+        <v>31</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
@@ -10549,26 +10544,26 @@
         <v>2021</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>42</v>
+        <v>212</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="I83" s="8" t="s">
         <v>280</v>
       </c>
       <c r="J83" s="13" t="s">
-        <v>738</v>
+        <v>31</v>
       </c>
       <c r="K83" s="13"/>
       <c r="L83" s="13"/>
     </row>
     <row r="84" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="13" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>31</v>
+        <v>180</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
@@ -10577,26 +10572,26 @@
         <v>2021</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>212</v>
+        <v>738</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>31</v>
+        <v>356</v>
       </c>
       <c r="I84" s="8" t="s">
         <v>280</v>
       </c>
       <c r="J84" s="13" t="s">
-        <v>31</v>
+        <v>739</v>
       </c>
       <c r="K84" s="13"/>
       <c r="L84" s="13"/>
     </row>
     <row r="85" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="13" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
@@ -10605,10 +10600,10 @@
         <v>2021</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>739</v>
+        <v>211</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>356</v>
+        <v>72</v>
       </c>
       <c r="I85" s="8" t="s">
         <v>280</v>
@@ -10621,10 +10616,10 @@
     </row>
     <row r="86" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="13" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
@@ -10633,59 +10628,63 @@
         <v>2021</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I86" s="8" t="s">
         <v>280</v>
       </c>
       <c r="J86" s="13" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="K86" s="13"/>
       <c r="L86" s="13"/>
     </row>
     <row r="87" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="13" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
-      <c r="E87" s="71"/>
+      <c r="E87" s="13" t="s">
+        <v>741</v>
+      </c>
       <c r="F87" s="23">
         <v>2021</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>212</v>
+        <v>42</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>77</v>
+        <v>268</v>
       </c>
       <c r="I87" s="8" t="s">
         <v>280</v>
       </c>
       <c r="J87" s="13" t="s">
-        <v>741</v>
-      </c>
-      <c r="K87" s="13"/>
+        <v>742</v>
+      </c>
+      <c r="K87" s="13" t="s">
+        <v>599</v>
+      </c>
       <c r="L87" s="13"/>
     </row>
     <row r="88" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="13" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
       <c r="E88" s="13" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F88" s="23">
         <v>2021</v>
@@ -10700,7 +10699,7 @@
         <v>280</v>
       </c>
       <c r="J88" s="13" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="K88" s="13" t="s">
         <v>599</v>
@@ -10709,59 +10708,55 @@
     </row>
     <row r="89" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="13" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
-      <c r="E89" s="13" t="s">
-        <v>742</v>
-      </c>
+      <c r="E89" s="71"/>
       <c r="F89" s="23">
         <v>2021</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H89" s="7" t="s">
-        <v>268</v>
+        <v>22</v>
+      </c>
+      <c r="H89" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="I89" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J89" s="13" t="s">
-        <v>743</v>
-      </c>
-      <c r="K89" s="13" t="s">
-        <v>599</v>
-      </c>
+      <c r="J89" s="13"/>
+      <c r="K89" s="13"/>
       <c r="L89" s="13"/>
     </row>
     <row r="90" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="13" t="s">
-        <v>728</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="71"/>
-      <c r="F90" s="23">
-        <v>2021</v>
-      </c>
-      <c r="G90" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H90" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I90" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B90" s="72" t="s">
+        <v>202</v>
+      </c>
+      <c r="C90" s="72" t="s">
+        <v>452</v>
+      </c>
+      <c r="D90" s="72"/>
+      <c r="E90" s="73"/>
+      <c r="F90" s="74">
+        <v>2010</v>
+      </c>
+      <c r="G90" s="72" t="s">
+        <v>198</v>
+      </c>
+      <c r="H90" s="39" t="s">
+        <v>469</v>
+      </c>
+      <c r="I90" s="39" t="s">
         <v>280</v>
       </c>
-      <c r="J90" s="13"/>
+      <c r="J90" s="41"/>
       <c r="K90" s="13"/>
       <c r="L90" s="13"/>
     </row>
@@ -10769,27 +10764,27 @@
       <c r="A91" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B91" s="72" t="s">
+      <c r="B91" s="75" t="s">
         <v>202</v>
       </c>
-      <c r="C91" s="72" t="s">
-        <v>452</v>
-      </c>
-      <c r="D91" s="72"/>
-      <c r="E91" s="73"/>
-      <c r="F91" s="74">
+      <c r="C91" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" s="75"/>
+      <c r="E91" s="76"/>
+      <c r="F91" s="77">
         <v>2010</v>
       </c>
-      <c r="G91" s="72" t="s">
+      <c r="G91" s="75" t="s">
         <v>198</v>
       </c>
       <c r="H91" s="39" t="s">
         <v>469</v>
       </c>
-      <c r="I91" s="39" t="s">
+      <c r="I91" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J91" s="41"/>
+      <c r="J91" s="13"/>
       <c r="K91" s="13"/>
       <c r="L91" s="13"/>
     </row>
@@ -10798,10 +10793,10 @@
         <v>119</v>
       </c>
       <c r="B92" s="75" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C92" s="75" t="s">
-        <v>13</v>
+        <v>452</v>
       </c>
       <c r="D92" s="75"/>
       <c r="E92" s="76"/>
@@ -10811,8 +10806,8 @@
       <c r="G92" s="75" t="s">
         <v>198</v>
       </c>
-      <c r="H92" s="39" t="s">
-        <v>469</v>
+      <c r="H92" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="I92" s="8" t="s">
         <v>280</v>
@@ -10826,7 +10821,7 @@
         <v>119</v>
       </c>
       <c r="B93" s="75" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C93" s="75" t="s">
         <v>452</v>
@@ -10840,7 +10835,7 @@
         <v>198</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>88</v>
+        <v>204</v>
       </c>
       <c r="I93" s="8" t="s">
         <v>280</v>
@@ -10857,7 +10852,7 @@
         <v>204</v>
       </c>
       <c r="C94" s="75" t="s">
-        <v>452</v>
+        <v>13</v>
       </c>
       <c r="D94" s="75"/>
       <c r="E94" s="76"/>
@@ -10882,10 +10877,10 @@
         <v>119</v>
       </c>
       <c r="B95" s="75" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C95" s="75" t="s">
-        <v>13</v>
+        <v>452</v>
       </c>
       <c r="D95" s="75"/>
       <c r="E95" s="76"/>
@@ -10896,7 +10891,7 @@
         <v>198</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>204</v>
+        <v>574</v>
       </c>
       <c r="I95" s="8" t="s">
         <v>280</v>
@@ -10913,7 +10908,7 @@
         <v>200</v>
       </c>
       <c r="C96" s="75" t="s">
-        <v>452</v>
+        <v>13</v>
       </c>
       <c r="D96" s="75"/>
       <c r="E96" s="76"/>
@@ -10938,10 +10933,10 @@
         <v>119</v>
       </c>
       <c r="B97" s="75" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C97" s="75" t="s">
-        <v>13</v>
+        <v>452</v>
       </c>
       <c r="D97" s="75"/>
       <c r="E97" s="76"/>
@@ -10952,7 +10947,7 @@
         <v>198</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>574</v>
+        <v>506</v>
       </c>
       <c r="I97" s="8" t="s">
         <v>280</v>
@@ -10969,7 +10964,7 @@
         <v>203</v>
       </c>
       <c r="C98" s="75" t="s">
-        <v>452</v>
+        <v>13</v>
       </c>
       <c r="D98" s="75"/>
       <c r="E98" s="76"/>
@@ -10994,10 +10989,10 @@
         <v>119</v>
       </c>
       <c r="B99" s="75" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C99" s="75" t="s">
-        <v>13</v>
+        <v>452</v>
       </c>
       <c r="D99" s="75"/>
       <c r="E99" s="76"/>
@@ -11005,10 +11000,10 @@
         <v>2010</v>
       </c>
       <c r="G99" s="75" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>506</v>
+        <v>347</v>
       </c>
       <c r="I99" s="8" t="s">
         <v>280</v>
@@ -11025,7 +11020,7 @@
         <v>193</v>
       </c>
       <c r="C100" s="75" t="s">
-        <v>452</v>
+        <v>13</v>
       </c>
       <c r="D100" s="75"/>
       <c r="E100" s="76"/>
@@ -11050,10 +11045,10 @@
         <v>119</v>
       </c>
       <c r="B101" s="75" t="s">
-        <v>193</v>
+        <v>49</v>
       </c>
       <c r="C101" s="75" t="s">
-        <v>13</v>
+        <v>452</v>
       </c>
       <c r="D101" s="75"/>
       <c r="E101" s="76"/>
@@ -11064,7 +11059,7 @@
         <v>194</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>347</v>
+        <v>269</v>
       </c>
       <c r="I101" s="8" t="s">
         <v>280</v>
@@ -11081,7 +11076,7 @@
         <v>49</v>
       </c>
       <c r="C102" s="75" t="s">
-        <v>452</v>
+        <v>13</v>
       </c>
       <c r="D102" s="75"/>
       <c r="E102" s="76"/>
@@ -11106,10 +11101,10 @@
         <v>119</v>
       </c>
       <c r="B103" s="75" t="s">
-        <v>49</v>
+        <v>201</v>
       </c>
       <c r="C103" s="75" t="s">
-        <v>13</v>
+        <v>452</v>
       </c>
       <c r="D103" s="75"/>
       <c r="E103" s="76"/>
@@ -11117,10 +11112,10 @@
         <v>2010</v>
       </c>
       <c r="G103" s="75" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>269</v>
+        <v>594</v>
       </c>
       <c r="I103" s="8" t="s">
         <v>280</v>
@@ -11137,7 +11132,7 @@
         <v>201</v>
       </c>
       <c r="C104" s="75" t="s">
-        <v>452</v>
+        <v>13</v>
       </c>
       <c r="D104" s="75"/>
       <c r="E104" s="76"/>
@@ -11162,10 +11157,10 @@
         <v>119</v>
       </c>
       <c r="B105" s="75" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C105" s="75" t="s">
-        <v>13</v>
+        <v>485</v>
       </c>
       <c r="D105" s="75"/>
       <c r="E105" s="76"/>
@@ -11173,17 +11168,23 @@
         <v>2010</v>
       </c>
       <c r="G105" s="75" t="s">
-        <v>198</v>
-      </c>
-      <c r="H105" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="I105" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="J105" s="13"/>
-      <c r="K105" s="13"/>
-      <c r="L105" s="13"/>
+        <v>194</v>
+      </c>
+      <c r="H105" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="I105" s="15" t="s">
+        <v>743</v>
+      </c>
+      <c r="J105" s="13" t="s">
+        <v>744</v>
+      </c>
+      <c r="K105" s="13" t="s">
+        <v>745</v>
+      </c>
+      <c r="L105" s="13" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="106" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="13" t="s">
@@ -11193,7 +11194,7 @@
         <v>209</v>
       </c>
       <c r="C106" s="75" t="s">
-        <v>485</v>
+        <v>13</v>
       </c>
       <c r="D106" s="75"/>
       <c r="E106" s="76"/>
@@ -11207,10 +11208,10 @@
         <v>620</v>
       </c>
       <c r="I106" s="15" t="s">
+        <v>743</v>
+      </c>
+      <c r="J106" s="13" t="s">
         <v>744</v>
-      </c>
-      <c r="J106" s="13" t="s">
-        <v>745</v>
       </c>
       <c r="K106" s="13" t="s">
         <v>746</v>
@@ -11224,10 +11225,10 @@
         <v>119</v>
       </c>
       <c r="B107" s="75" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C107" s="75" t="s">
-        <v>13</v>
+        <v>485</v>
       </c>
       <c r="D107" s="75"/>
       <c r="E107" s="76"/>
@@ -11238,16 +11239,16 @@
         <v>194</v>
       </c>
       <c r="H107" s="15" t="s">
-        <v>620</v>
+        <v>55</v>
       </c>
       <c r="I107" s="15" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="J107" s="13" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="K107" s="13" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="L107" s="13" t="s">
         <v>397</v>
@@ -11261,7 +11262,7 @@
         <v>208</v>
       </c>
       <c r="C108" s="75" t="s">
-        <v>485</v>
+        <v>13</v>
       </c>
       <c r="D108" s="75"/>
       <c r="E108" s="76"/>
@@ -11275,13 +11276,13 @@
         <v>55</v>
       </c>
       <c r="I108" s="15" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="J108" s="13" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="K108" s="13" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="L108" s="13" t="s">
         <v>397</v>
@@ -11292,10 +11293,10 @@
         <v>119</v>
       </c>
       <c r="B109" s="75" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C109" s="75" t="s">
-        <v>13</v>
+        <v>485</v>
       </c>
       <c r="D109" s="75"/>
       <c r="E109" s="76"/>
@@ -11306,16 +11307,16 @@
         <v>194</v>
       </c>
       <c r="H109" s="15" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I109" s="15" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="J109" s="13" t="s">
         <v>748</v>
       </c>
       <c r="K109" s="13" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="L109" s="13" t="s">
         <v>397</v>
@@ -11329,7 +11330,7 @@
         <v>210</v>
       </c>
       <c r="C110" s="75" t="s">
-        <v>485</v>
+        <v>13</v>
       </c>
       <c r="D110" s="75"/>
       <c r="E110" s="76"/>
@@ -11343,13 +11344,13 @@
         <v>59</v>
       </c>
       <c r="I110" s="15" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="J110" s="13" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="K110" s="13" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="L110" s="13" t="s">
         <v>397</v>
@@ -11360,10 +11361,10 @@
         <v>119</v>
       </c>
       <c r="B111" s="75" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C111" s="75" t="s">
-        <v>13</v>
+        <v>452</v>
       </c>
       <c r="D111" s="75"/>
       <c r="E111" s="76"/>
@@ -11371,30 +11372,24 @@
         <v>2010</v>
       </c>
       <c r="G111" s="75" t="s">
-        <v>194</v>
-      </c>
-      <c r="H111" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="I111" s="15" t="s">
-        <v>744</v>
-      </c>
-      <c r="J111" s="13" t="s">
-        <v>749</v>
-      </c>
-      <c r="K111" s="13" t="s">
-        <v>747</v>
-      </c>
-      <c r="L111" s="13" t="s">
-        <v>397</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="H111" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="I111" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="J111" s="13"/>
+      <c r="K111" s="13"/>
+      <c r="L111" s="13"/>
     </row>
     <row r="112" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="13" t="s">
         <v>119</v>
       </c>
       <c r="B112" s="75" t="s">
-        <v>199</v>
+        <v>31</v>
       </c>
       <c r="C112" s="75" t="s">
         <v>452</v>
@@ -11405,10 +11400,10 @@
         <v>2010</v>
       </c>
       <c r="G112" s="75" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="I112" s="8" t="s">
         <v>280</v>
@@ -11425,7 +11420,7 @@
         <v>31</v>
       </c>
       <c r="C113" s="75" t="s">
-        <v>452</v>
+        <v>13</v>
       </c>
       <c r="D113" s="75"/>
       <c r="E113" s="76"/>
@@ -11450,10 +11445,10 @@
         <v>119</v>
       </c>
       <c r="B114" s="75" t="s">
-        <v>31</v>
+        <v>319</v>
       </c>
       <c r="C114" s="75" t="s">
-        <v>13</v>
+        <v>485</v>
       </c>
       <c r="D114" s="75"/>
       <c r="E114" s="76"/>
@@ -11461,10 +11456,10 @@
         <v>2010</v>
       </c>
       <c r="G114" s="75" t="s">
-        <v>194</v>
+        <v>749</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>31</v>
+        <v>319</v>
       </c>
       <c r="I114" s="8" t="s">
         <v>280</v>
@@ -11481,7 +11476,7 @@
         <v>319</v>
       </c>
       <c r="C115" s="75" t="s">
-        <v>485</v>
+        <v>13</v>
       </c>
       <c r="D115" s="75"/>
       <c r="E115" s="76"/>
@@ -11489,7 +11484,7 @@
         <v>2010</v>
       </c>
       <c r="G115" s="75" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H115" s="7" t="s">
         <v>319</v>
@@ -11506,10 +11501,10 @@
         <v>119</v>
       </c>
       <c r="B116" s="75" t="s">
-        <v>319</v>
+        <v>180</v>
       </c>
       <c r="C116" s="75" t="s">
-        <v>13</v>
+        <v>452</v>
       </c>
       <c r="D116" s="75"/>
       <c r="E116" s="76"/>
@@ -11517,15 +11512,17 @@
         <v>2010</v>
       </c>
       <c r="G116" s="75" t="s">
+        <v>198</v>
+      </c>
+      <c r="H116" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="I116" s="8" t="s">
         <v>750</v>
       </c>
-      <c r="H116" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="I116" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="J116" s="13"/>
+      <c r="J116" s="13" t="s">
+        <v>751</v>
+      </c>
       <c r="K116" s="13"/>
       <c r="L116" s="13"/>
     </row>
@@ -11534,10 +11531,10 @@
         <v>119</v>
       </c>
       <c r="B117" s="75" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="C117" s="75" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="D117" s="75"/>
       <c r="E117" s="76"/>
@@ -11545,17 +11542,15 @@
         <v>2010</v>
       </c>
       <c r="G117" s="75" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>356</v>
+        <v>72</v>
       </c>
       <c r="I117" s="8" t="s">
-        <v>751</v>
-      </c>
-      <c r="J117" s="13" t="s">
-        <v>752</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="J117" s="13"/>
       <c r="K117" s="13"/>
       <c r="L117" s="13"/>
     </row>
@@ -11564,7 +11559,7 @@
         <v>119</v>
       </c>
       <c r="B118" s="75" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C118" s="75" t="s">
         <v>438</v>
@@ -11578,7 +11573,7 @@
         <v>194</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I118" s="8" t="s">
         <v>280</v>
@@ -11592,7 +11587,7 @@
         <v>119</v>
       </c>
       <c r="B119" s="75" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="C119" s="75" t="s">
         <v>438</v>
@@ -11603,16 +11598,20 @@
         <v>2010</v>
       </c>
       <c r="G119" s="75" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>77</v>
+        <v>268</v>
       </c>
       <c r="I119" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="J119" s="13"/>
-      <c r="K119" s="13"/>
+        <v>752</v>
+      </c>
+      <c r="J119" s="13" t="s">
+        <v>753</v>
+      </c>
+      <c r="K119" s="13" t="s">
+        <v>599</v>
+      </c>
       <c r="L119" s="13"/>
     </row>
     <row r="120" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11623,7 +11622,7 @@
         <v>205</v>
       </c>
       <c r="C120" s="75" t="s">
-        <v>438</v>
+        <v>13</v>
       </c>
       <c r="D120" s="75"/>
       <c r="E120" s="76"/>
@@ -11637,11 +11636,9 @@
         <v>268</v>
       </c>
       <c r="I120" s="8" t="s">
-        <v>753</v>
-      </c>
-      <c r="J120" s="13" t="s">
-        <v>754</v>
-      </c>
+        <v>752</v>
+      </c>
+      <c r="J120" s="13"/>
       <c r="K120" s="13" t="s">
         <v>599</v>
       </c>
@@ -11652,10 +11649,10 @@
         <v>119</v>
       </c>
       <c r="B121" s="75" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C121" s="75" t="s">
-        <v>13</v>
+        <v>438</v>
       </c>
       <c r="D121" s="75"/>
       <c r="E121" s="76"/>
@@ -11669,7 +11666,7 @@
         <v>268</v>
       </c>
       <c r="I121" s="8" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="J121" s="13"/>
       <c r="K121" s="13" t="s">
@@ -11685,7 +11682,7 @@
         <v>206</v>
       </c>
       <c r="C122" s="75" t="s">
-        <v>438</v>
+        <v>13</v>
       </c>
       <c r="D122" s="75"/>
       <c r="E122" s="76"/>
@@ -11699,7 +11696,7 @@
         <v>268</v>
       </c>
       <c r="I122" s="8" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="J122" s="13"/>
       <c r="K122" s="13" t="s">
@@ -11712,10 +11709,10 @@
         <v>119</v>
       </c>
       <c r="B123" s="75" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C123" s="75" t="s">
-        <v>13</v>
+        <v>438</v>
       </c>
       <c r="D123" s="75"/>
       <c r="E123" s="76"/>
@@ -11723,18 +11720,16 @@
         <v>2010</v>
       </c>
       <c r="G123" s="75" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>268</v>
+        <v>23</v>
       </c>
       <c r="I123" s="8" t="s">
-        <v>753</v>
+        <v>280</v>
       </c>
       <c r="J123" s="13"/>
-      <c r="K123" s="13" t="s">
-        <v>599</v>
-      </c>
+      <c r="K123" s="13"/>
       <c r="L123" s="13"/>
     </row>
     <row r="124" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11745,7 +11740,7 @@
         <v>207</v>
       </c>
       <c r="C124" s="75" t="s">
-        <v>438</v>
+        <v>13</v>
       </c>
       <c r="D124" s="75"/>
       <c r="E124" s="76"/>
@@ -11758,40 +11753,12 @@
       <c r="H124" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I124" s="8" t="s">
-        <v>280</v>
+      <c r="I124" s="15" t="s">
+        <v>754</v>
       </c>
       <c r="J124" s="13"/>
       <c r="K124" s="13"/>
       <c r="L124" s="13"/>
-    </row>
-    <row r="125" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B125" s="75" t="s">
-        <v>207</v>
-      </c>
-      <c r="C125" s="75" t="s">
-        <v>13</v>
-      </c>
-      <c r="D125" s="75"/>
-      <c r="E125" s="76"/>
-      <c r="F125" s="77">
-        <v>2010</v>
-      </c>
-      <c r="G125" s="75" t="s">
-        <v>194</v>
-      </c>
-      <c r="H125" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I125" s="15" t="s">
-        <v>755</v>
-      </c>
-      <c r="J125" s="13"/>
-      <c r="K125" s="13"/>
-      <c r="L125" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12204,8 +12171,8 @@
       <c r="J2" s="49" t="s">
         <v>437</v>
       </c>
-      <c r="K2" s="84"/>
-      <c r="L2" s="88"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="80"/>
       <c r="M2" s="40" t="s">
         <v>437</v>
       </c>
@@ -12242,8 +12209,8 @@
       <c r="J3" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K3" s="85"/>
-      <c r="L3" s="89"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="81"/>
       <c r="M3" s="9" t="s">
         <v>437</v>
       </c>
@@ -12280,8 +12247,8 @@
       <c r="J4" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K4" s="85"/>
-      <c r="L4" s="89"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="81"/>
       <c r="M4" s="9" t="s">
         <v>437</v>
       </c>
@@ -12316,8 +12283,8 @@
       <c r="J5" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K5" s="85"/>
-      <c r="L5" s="89"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="81"/>
       <c r="M5" s="9" t="s">
         <v>437</v>
       </c>
@@ -12354,10 +12321,10 @@
       <c r="J6" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K6" s="87" t="s">
+      <c r="K6" s="82" t="s">
         <v>447</v>
       </c>
-      <c r="L6" s="92"/>
+      <c r="L6" s="84"/>
       <c r="M6" s="9" t="s">
         <v>437</v>
       </c>
@@ -12394,8 +12361,8 @@
       <c r="J7" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K7" s="85"/>
-      <c r="L7" s="93"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="85"/>
       <c r="M7" s="9" t="s">
         <v>437</v>
       </c>
@@ -12430,8 +12397,8 @@
       <c r="J8" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="K8" s="86"/>
-      <c r="L8" s="94"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="86"/>
       <c r="M8" s="9" t="s">
         <v>437</v>
       </c>
@@ -12468,10 +12435,10 @@
       <c r="J9" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K9" s="95" t="s">
+      <c r="K9" s="87" t="s">
         <v>455</v>
       </c>
-      <c r="L9" s="90" t="s">
+      <c r="L9" s="89" t="s">
         <v>456</v>
       </c>
       <c r="M9" s="40" t="s">
@@ -12510,8 +12477,8 @@
       <c r="J10" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K10" s="79"/>
-      <c r="L10" s="89"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="81"/>
       <c r="M10" s="9" t="s">
         <v>437</v>
       </c>
@@ -12548,8 +12515,8 @@
       <c r="J11" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K11" s="79"/>
-      <c r="L11" s="89"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="81"/>
       <c r="M11" s="9" t="s">
         <v>437</v>
       </c>
@@ -12828,7 +12795,7 @@
       <c r="J18" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K18" s="87"/>
+      <c r="K18" s="82"/>
       <c r="L18" s="38"/>
       <c r="M18" s="9" t="s">
         <v>437</v>
@@ -12866,7 +12833,7 @@
       <c r="J19" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="K19" s="86"/>
+      <c r="K19" s="83"/>
       <c r="L19" s="60"/>
       <c r="M19" s="43" t="s">
         <v>437</v>
@@ -12904,10 +12871,10 @@
       <c r="J20" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K20" s="87" t="s">
+      <c r="K20" s="82" t="s">
         <v>490</v>
       </c>
-      <c r="L20" s="90" t="s">
+      <c r="L20" s="89" t="s">
         <v>491</v>
       </c>
       <c r="M20" s="9" t="s">
@@ -12946,8 +12913,8 @@
       <c r="J21" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K21" s="85"/>
-      <c r="L21" s="89"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="81"/>
       <c r="M21" s="9" t="s">
         <v>437</v>
       </c>
@@ -12982,8 +12949,8 @@
       <c r="J22" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K22" s="85"/>
-      <c r="L22" s="89"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="81"/>
       <c r="M22" s="9" t="s">
         <v>437</v>
       </c>
@@ -13020,8 +12987,8 @@
       <c r="J23" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K23" s="85"/>
-      <c r="L23" s="89"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="81"/>
       <c r="M23" s="9" t="s">
         <v>437</v>
       </c>
@@ -13058,8 +13025,8 @@
       <c r="J24" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K24" s="85"/>
-      <c r="L24" s="89"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="81"/>
       <c r="M24" s="9" t="s">
         <v>437</v>
       </c>
@@ -13096,10 +13063,10 @@
       <c r="J25" s="49" t="s">
         <v>437</v>
       </c>
-      <c r="K25" s="84" t="s">
+      <c r="K25" s="78" t="s">
         <v>497</v>
       </c>
-      <c r="L25" s="88" t="s">
+      <c r="L25" s="80" t="s">
         <v>498</v>
       </c>
       <c r="M25" s="40" t="s">
@@ -13138,8 +13105,8 @@
       <c r="J26" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K26" s="85"/>
-      <c r="L26" s="89"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="81"/>
       <c r="M26" s="9" t="s">
         <v>437</v>
       </c>
@@ -13176,8 +13143,8 @@
       <c r="J27" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K27" s="85"/>
-      <c r="L27" s="89"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="81"/>
       <c r="M27" s="9" t="s">
         <v>437</v>
       </c>
@@ -13212,8 +13179,8 @@
       <c r="J28" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="K28" s="86"/>
-      <c r="L28" s="91"/>
+      <c r="K28" s="83"/>
+      <c r="L28" s="90"/>
       <c r="M28" s="43" t="s">
         <v>437</v>
       </c>
@@ -13250,7 +13217,7 @@
       <c r="J29" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K29" s="87" t="s">
+      <c r="K29" s="82" t="s">
         <v>503</v>
       </c>
       <c r="L29" s="38"/>
@@ -13290,7 +13257,7 @@
       <c r="J30" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K30" s="85"/>
+      <c r="K30" s="79"/>
       <c r="L30" s="38"/>
       <c r="M30" s="9" t="s">
         <v>437</v>
@@ -13328,7 +13295,7 @@
       <c r="J31" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K31" s="85"/>
+      <c r="K31" s="79"/>
       <c r="L31" s="38"/>
       <c r="M31" s="9" t="s">
         <v>437</v>
@@ -13364,7 +13331,7 @@
       <c r="J32" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K32" s="85"/>
+      <c r="K32" s="79"/>
       <c r="L32" s="38"/>
       <c r="M32" s="9" t="s">
         <v>437</v>
@@ -13402,7 +13369,7 @@
       <c r="J33" s="49" t="s">
         <v>437</v>
       </c>
-      <c r="K33" s="84" t="s">
+      <c r="K33" s="78" t="s">
         <v>470</v>
       </c>
       <c r="L33" s="59" t="s">
@@ -13444,7 +13411,7 @@
       <c r="J34" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="K34" s="86"/>
+      <c r="K34" s="83"/>
       <c r="L34" s="60"/>
       <c r="M34" s="43" t="s">
         <v>437</v>
@@ -13482,7 +13449,7 @@
       <c r="J35" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K35" s="87" t="s">
+      <c r="K35" s="82" t="s">
         <v>470</v>
       </c>
       <c r="L35" s="38" t="s">
@@ -13524,7 +13491,7 @@
       <c r="J36" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K36" s="85"/>
+      <c r="K36" s="79"/>
       <c r="L36" s="38"/>
       <c r="M36" s="9" t="s">
         <v>437</v>
@@ -13641,7 +13608,7 @@
       <c r="K39" s="62" t="s">
         <v>520</v>
       </c>
-      <c r="L39" s="88"/>
+      <c r="L39" s="80"/>
       <c r="M39" s="40" t="s">
         <v>437</v>
       </c>
@@ -13679,7 +13646,7 @@
         <v>437</v>
       </c>
       <c r="K40" s="51"/>
-      <c r="L40" s="89"/>
+      <c r="L40" s="81"/>
       <c r="M40" s="9" t="s">
         <v>437</v>
       </c>
@@ -13758,10 +13725,10 @@
       <c r="J42" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K42" s="87" t="s">
+      <c r="K42" s="82" t="s">
         <v>527</v>
       </c>
-      <c r="L42" s="90" t="s">
+      <c r="L42" s="89" t="s">
         <v>528</v>
       </c>
       <c r="M42" s="40" t="s">
@@ -13800,8 +13767,8 @@
       <c r="J43" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K43" s="85"/>
-      <c r="L43" s="89"/>
+      <c r="K43" s="79"/>
+      <c r="L43" s="81"/>
       <c r="M43" s="9" t="s">
         <v>437</v>
       </c>
@@ -13838,8 +13805,8 @@
       <c r="J44" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K44" s="85"/>
-      <c r="L44" s="89"/>
+      <c r="K44" s="79"/>
+      <c r="L44" s="81"/>
       <c r="M44" s="9" t="s">
         <v>437</v>
       </c>
@@ -13874,8 +13841,8 @@
       <c r="J45" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K45" s="85"/>
-      <c r="L45" s="89"/>
+      <c r="K45" s="79"/>
+      <c r="L45" s="81"/>
       <c r="M45" s="9" t="s">
         <v>437</v>
       </c>
@@ -13912,8 +13879,8 @@
       <c r="J46" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K46" s="85"/>
-      <c r="L46" s="89"/>
+      <c r="K46" s="79"/>
+      <c r="L46" s="81"/>
       <c r="M46" s="9" t="s">
         <v>437</v>
       </c>
@@ -13950,8 +13917,8 @@
       <c r="J47" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K47" s="85"/>
-      <c r="L47" s="89"/>
+      <c r="K47" s="79"/>
+      <c r="L47" s="81"/>
       <c r="M47" s="9" t="s">
         <v>437</v>
       </c>
@@ -14068,7 +14035,7 @@
       <c r="J50" s="49" t="s">
         <v>437</v>
       </c>
-      <c r="K50" s="78" t="s">
+      <c r="K50" s="91" t="s">
         <v>541</v>
       </c>
       <c r="L50" s="59"/>
@@ -14108,7 +14075,7 @@
       <c r="J51" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K51" s="79"/>
+      <c r="K51" s="88"/>
       <c r="L51" s="38"/>
       <c r="M51" s="40" t="s">
         <v>437</v>
@@ -14146,7 +14113,7 @@
       <c r="J52" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K52" s="79"/>
+      <c r="K52" s="88"/>
       <c r="L52" s="38"/>
       <c r="M52" s="40" t="s">
         <v>437</v>
@@ -14184,7 +14151,7 @@
       <c r="J53" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K53" s="79"/>
+      <c r="K53" s="88"/>
       <c r="L53" s="38"/>
       <c r="M53" s="40" t="s">
         <v>437</v>
@@ -14220,7 +14187,7 @@
       <c r="J54" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="K54" s="80"/>
+      <c r="K54" s="92"/>
       <c r="L54" s="60"/>
       <c r="M54" s="40" t="s">
         <v>437</v>
@@ -14340,7 +14307,7 @@
       <c r="J57" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K57" s="87" t="s">
+      <c r="K57" s="82" t="s">
         <v>558</v>
       </c>
       <c r="L57" s="38"/>
@@ -14380,7 +14347,7 @@
       <c r="J58" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K58" s="85"/>
+      <c r="K58" s="79"/>
       <c r="L58" s="38"/>
       <c r="M58" s="9" t="s">
         <v>437</v>
@@ -14416,7 +14383,7 @@
       <c r="J59" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K59" s="85"/>
+      <c r="K59" s="79"/>
       <c r="L59" s="38"/>
       <c r="M59" s="9" t="s">
         <v>437</v>
@@ -14454,7 +14421,7 @@
       <c r="J60" s="40" t="s">
         <v>437</v>
       </c>
-      <c r="K60" s="88" t="s">
+      <c r="K60" s="80" t="s">
         <v>563</v>
       </c>
       <c r="L60" s="59"/>
@@ -14494,7 +14461,7 @@
       <c r="J61" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="K61" s="89"/>
+      <c r="K61" s="81"/>
       <c r="L61" s="38" t="s">
         <v>565</v>
       </c>
@@ -14534,7 +14501,7 @@
       <c r="J62" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K62" s="89"/>
+      <c r="K62" s="81"/>
       <c r="L62" s="38" t="s">
         <v>567</v>
       </c>
@@ -14574,7 +14541,7 @@
       <c r="J63" s="63" t="s">
         <v>437</v>
       </c>
-      <c r="K63" s="87"/>
+      <c r="K63" s="82"/>
       <c r="L63" s="38"/>
       <c r="M63" s="9" t="s">
         <v>437</v>
@@ -14612,7 +14579,7 @@
       <c r="J64" s="63" t="s">
         <v>437</v>
       </c>
-      <c r="K64" s="85"/>
+      <c r="K64" s="79"/>
       <c r="L64" s="38"/>
       <c r="M64" s="9" t="s">
         <v>437</v>
@@ -14650,7 +14617,7 @@
       <c r="J65" s="63" t="s">
         <v>437</v>
       </c>
-      <c r="K65" s="85"/>
+      <c r="K65" s="79"/>
       <c r="L65" s="38" t="s">
         <v>567</v>
       </c>
@@ -14688,7 +14655,7 @@
       <c r="J66" s="63" t="s">
         <v>437</v>
       </c>
-      <c r="K66" s="85"/>
+      <c r="K66" s="79"/>
       <c r="L66" s="13"/>
       <c r="M66" s="50" t="s">
         <v>437</v>
@@ -14802,7 +14769,7 @@
       <c r="J69" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K69" s="87" t="s">
+      <c r="K69" s="82" t="s">
         <v>470</v>
       </c>
       <c r="L69" s="38" t="s">
@@ -14844,7 +14811,7 @@
       <c r="J70" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K70" s="85"/>
+      <c r="K70" s="79"/>
       <c r="L70" s="38"/>
       <c r="M70" s="9" t="s">
         <v>437</v>
@@ -14922,7 +14889,7 @@
       <c r="J72" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K72" s="87"/>
+      <c r="K72" s="82"/>
       <c r="L72" s="38"/>
       <c r="M72" s="9" t="s">
         <v>437</v>
@@ -14958,7 +14925,7 @@
       <c r="J73" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K73" s="85"/>
+      <c r="K73" s="79"/>
       <c r="L73" s="38"/>
       <c r="M73" s="9" t="s">
         <v>437</v>
@@ -14994,7 +14961,7 @@
       <c r="J74" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K74" s="85"/>
+      <c r="K74" s="79"/>
       <c r="L74" s="38"/>
       <c r="M74" s="9" t="s">
         <v>437</v>
@@ -15028,7 +14995,7 @@
       <c r="J75" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="K75" s="86"/>
+      <c r="K75" s="83"/>
       <c r="L75" s="60"/>
       <c r="M75" s="9" t="s">
         <v>437</v>
@@ -15106,10 +15073,10 @@
       <c r="J77" s="49" t="s">
         <v>437</v>
       </c>
-      <c r="K77" s="78" t="s">
+      <c r="K77" s="91" t="s">
         <v>590</v>
       </c>
-      <c r="L77" s="84" t="s">
+      <c r="L77" s="78" t="s">
         <v>591</v>
       </c>
       <c r="M77" s="40" t="s">
@@ -15150,8 +15117,8 @@
       <c r="J78" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K78" s="80"/>
-      <c r="L78" s="82"/>
+      <c r="K78" s="92"/>
+      <c r="L78" s="94"/>
       <c r="M78" s="50" t="s">
         <v>437</v>
       </c>
@@ -15191,7 +15158,7 @@
       <c r="K79" s="38" t="s">
         <v>592</v>
       </c>
-      <c r="L79" s="82"/>
+      <c r="L79" s="94"/>
       <c r="M79" s="50" t="s">
         <v>437</v>
       </c>
@@ -15231,7 +15198,7 @@
       <c r="K80" s="38" t="s">
         <v>592</v>
       </c>
-      <c r="L80" s="86"/>
+      <c r="L80" s="83"/>
       <c r="M80" s="9" t="s">
         <v>437</v>
       </c>
@@ -15268,7 +15235,7 @@
       <c r="J81" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K81" s="87" t="s">
+      <c r="K81" s="82" t="s">
         <v>470</v>
       </c>
       <c r="L81" s="38" t="s">
@@ -15310,7 +15277,7 @@
       <c r="J82" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K82" s="85"/>
+      <c r="K82" s="79"/>
       <c r="L82" s="38"/>
       <c r="M82" s="9" t="s">
         <v>437</v>
@@ -15432,7 +15399,7 @@
       <c r="J85" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K85" s="87" t="s">
+      <c r="K85" s="82" t="s">
         <v>604</v>
       </c>
       <c r="L85" s="38"/>
@@ -15472,7 +15439,7 @@
       <c r="J86" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K86" s="85"/>
+      <c r="K86" s="79"/>
       <c r="L86" s="38"/>
       <c r="M86" s="9" t="s">
         <v>437</v>
@@ -15510,7 +15477,7 @@
       <c r="J87" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K87" s="85"/>
+      <c r="K87" s="79"/>
       <c r="L87" s="38"/>
       <c r="M87" s="9" t="s">
         <v>437</v>
@@ -15546,7 +15513,7 @@
       <c r="J88" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K88" s="85"/>
+      <c r="K88" s="79"/>
       <c r="L88" s="38"/>
       <c r="M88" s="9" t="s">
         <v>437</v>
@@ -15584,7 +15551,7 @@
       <c r="J89" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K89" s="85"/>
+      <c r="K89" s="79"/>
       <c r="L89" s="38"/>
       <c r="M89" s="9" t="s">
         <v>437</v>
@@ -15622,7 +15589,7 @@
       <c r="J90" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="K90" s="85"/>
+      <c r="K90" s="79"/>
       <c r="L90" s="38"/>
       <c r="M90" s="9" t="s">
         <v>437</v>
@@ -15660,10 +15627,10 @@
       <c r="J91" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K91" s="78" t="s">
+      <c r="K91" s="91" t="s">
         <v>610</v>
       </c>
-      <c r="L91" s="81" t="s">
+      <c r="L91" s="93" t="s">
         <v>611</v>
       </c>
       <c r="M91" s="40" t="s">
@@ -15702,8 +15669,8 @@
       <c r="J92" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="K92" s="79"/>
-      <c r="L92" s="82"/>
+      <c r="K92" s="88"/>
+      <c r="L92" s="94"/>
       <c r="M92" s="9" t="s">
         <v>437</v>
       </c>
@@ -15740,8 +15707,8 @@
       <c r="J93" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="K93" s="79"/>
-      <c r="L93" s="82"/>
+      <c r="K93" s="88"/>
+      <c r="L93" s="94"/>
       <c r="M93" s="9" t="s">
         <v>437</v>
       </c>
@@ -15776,8 +15743,8 @@
       <c r="J94" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="K94" s="80"/>
-      <c r="L94" s="83"/>
+      <c r="K94" s="92"/>
+      <c r="L94" s="95"/>
       <c r="M94" s="9" t="s">
         <v>437</v>
       </c>
@@ -15814,7 +15781,7 @@
       <c r="J95" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K95" s="84"/>
+      <c r="K95" s="78"/>
       <c r="L95" s="38"/>
       <c r="M95" s="40" t="s">
         <v>437</v>
@@ -15852,7 +15819,7 @@
       <c r="J96" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K96" s="85"/>
+      <c r="K96" s="79"/>
       <c r="L96" s="38"/>
       <c r="M96" s="40" t="s">
         <v>437</v>
@@ -15890,7 +15857,7 @@
       <c r="J97" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K97" s="85"/>
+      <c r="K97" s="79"/>
       <c r="L97" s="38"/>
       <c r="M97" s="40" t="s">
         <v>437</v>
@@ -15928,7 +15895,7 @@
       <c r="J98" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K98" s="85"/>
+      <c r="K98" s="79"/>
       <c r="L98" s="38"/>
       <c r="M98" s="40" t="s">
         <v>437</v>
@@ -15964,7 +15931,7 @@
       <c r="J99" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="K99" s="86"/>
+      <c r="K99" s="83"/>
       <c r="L99" s="53"/>
       <c r="M99" s="55" t="s">
         <v>437</v>
@@ -15993,28 +15960,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="K20:K24"/>
-    <mergeCell ref="L20:L24"/>
-    <mergeCell ref="K25:K28"/>
-    <mergeCell ref="L25:L28"/>
-    <mergeCell ref="K29:K32"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="K42:K47"/>
-    <mergeCell ref="L42:L47"/>
-    <mergeCell ref="K50:K54"/>
-    <mergeCell ref="K57:K59"/>
-    <mergeCell ref="K60:K62"/>
-    <mergeCell ref="K63:K66"/>
-    <mergeCell ref="K69:K70"/>
     <mergeCell ref="K91:K94"/>
     <mergeCell ref="L91:L94"/>
     <mergeCell ref="K95:K99"/>
@@ -16023,6 +15968,28 @@
     <mergeCell ref="L77:L80"/>
     <mergeCell ref="K81:K82"/>
     <mergeCell ref="K85:K90"/>
+    <mergeCell ref="K50:K54"/>
+    <mergeCell ref="K57:K59"/>
+    <mergeCell ref="K60:K62"/>
+    <mergeCell ref="K63:K66"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="K29:K32"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="K42:K47"/>
+    <mergeCell ref="L42:L47"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="K20:K24"/>
+    <mergeCell ref="L20:L24"/>
+    <mergeCell ref="K25:K28"/>
+    <mergeCell ref="L25:L28"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="L9:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Meta/Analytes3.xlsx
+++ b/Meta/Analytes3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/coffman_christian_epa_gov/Documents/Profile/Documents/Projects/GL_Data/Meta/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/vitense_kelsey_epa_gov/Documents/GL_Data/Meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="11_CFA7FA0AC8BEC675FF6906A82B7A2EC91D13FE60" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C01F9768-6DA0-4585-8537-B6A7DEEC3F0F}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_CFA7FA0AC8BEC675FF6906A82B7A2EC91D13FE60" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DDA6596-DEE3-4BA8-AD39-615D0F9B15AA}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="19440" windowHeight="14880" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3700" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3703" uniqueCount="804">
   <si>
     <t>ANALYTE</t>
   </si>
@@ -3024,11 +3024,35 @@
     <xf numFmtId="3" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3036,10 +3060,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3053,30 +3077,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8176,7 +8176,7 @@
   </sheetPr>
   <dimension ref="A1:L124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
@@ -12171,8 +12171,8 @@
       <c r="J2" s="49" t="s">
         <v>437</v>
       </c>
-      <c r="K2" s="78"/>
-      <c r="L2" s="80"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="88"/>
       <c r="M2" s="40" t="s">
         <v>437</v>
       </c>
@@ -12209,8 +12209,8 @@
       <c r="J3" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K3" s="79"/>
-      <c r="L3" s="81"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="89"/>
       <c r="M3" s="9" t="s">
         <v>437</v>
       </c>
@@ -12247,8 +12247,8 @@
       <c r="J4" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K4" s="79"/>
-      <c r="L4" s="81"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="89"/>
       <c r="M4" s="9" t="s">
         <v>437</v>
       </c>
@@ -12283,8 +12283,8 @@
       <c r="J5" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K5" s="79"/>
-      <c r="L5" s="81"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="89"/>
       <c r="M5" s="9" t="s">
         <v>437</v>
       </c>
@@ -12321,10 +12321,10 @@
       <c r="J6" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K6" s="82" t="s">
+      <c r="K6" s="87" t="s">
         <v>447</v>
       </c>
-      <c r="L6" s="84"/>
+      <c r="L6" s="92"/>
       <c r="M6" s="9" t="s">
         <v>437</v>
       </c>
@@ -12361,8 +12361,8 @@
       <c r="J7" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K7" s="79"/>
-      <c r="L7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="93"/>
       <c r="M7" s="9" t="s">
         <v>437</v>
       </c>
@@ -12397,8 +12397,8 @@
       <c r="J8" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="K8" s="83"/>
-      <c r="L8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="94"/>
       <c r="M8" s="9" t="s">
         <v>437</v>
       </c>
@@ -12435,10 +12435,10 @@
       <c r="J9" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K9" s="87" t="s">
+      <c r="K9" s="95" t="s">
         <v>455</v>
       </c>
-      <c r="L9" s="89" t="s">
+      <c r="L9" s="90" t="s">
         <v>456</v>
       </c>
       <c r="M9" s="40" t="s">
@@ -12477,8 +12477,8 @@
       <c r="J10" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K10" s="88"/>
-      <c r="L10" s="81"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="89"/>
       <c r="M10" s="9" t="s">
         <v>437</v>
       </c>
@@ -12515,8 +12515,8 @@
       <c r="J11" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K11" s="88"/>
-      <c r="L11" s="81"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="89"/>
       <c r="M11" s="9" t="s">
         <v>437</v>
       </c>
@@ -12795,7 +12795,7 @@
       <c r="J18" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K18" s="82"/>
+      <c r="K18" s="87"/>
       <c r="L18" s="38"/>
       <c r="M18" s="9" t="s">
         <v>437</v>
@@ -12833,7 +12833,7 @@
       <c r="J19" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="K19" s="83"/>
+      <c r="K19" s="86"/>
       <c r="L19" s="60"/>
       <c r="M19" s="43" t="s">
         <v>437</v>
@@ -12871,10 +12871,10 @@
       <c r="J20" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K20" s="82" t="s">
+      <c r="K20" s="87" t="s">
         <v>490</v>
       </c>
-      <c r="L20" s="89" t="s">
+      <c r="L20" s="90" t="s">
         <v>491</v>
       </c>
       <c r="M20" s="9" t="s">
@@ -12913,8 +12913,8 @@
       <c r="J21" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K21" s="79"/>
-      <c r="L21" s="81"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="89"/>
       <c r="M21" s="9" t="s">
         <v>437</v>
       </c>
@@ -12949,8 +12949,8 @@
       <c r="J22" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K22" s="79"/>
-      <c r="L22" s="81"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="89"/>
       <c r="M22" s="9" t="s">
         <v>437</v>
       </c>
@@ -12987,8 +12987,8 @@
       <c r="J23" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K23" s="79"/>
-      <c r="L23" s="81"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="89"/>
       <c r="M23" s="9" t="s">
         <v>437</v>
       </c>
@@ -13025,8 +13025,8 @@
       <c r="J24" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K24" s="79"/>
-      <c r="L24" s="81"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="89"/>
       <c r="M24" s="9" t="s">
         <v>437</v>
       </c>
@@ -13063,10 +13063,10 @@
       <c r="J25" s="49" t="s">
         <v>437</v>
       </c>
-      <c r="K25" s="78" t="s">
+      <c r="K25" s="84" t="s">
         <v>497</v>
       </c>
-      <c r="L25" s="80" t="s">
+      <c r="L25" s="88" t="s">
         <v>498</v>
       </c>
       <c r="M25" s="40" t="s">
@@ -13105,8 +13105,8 @@
       <c r="J26" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K26" s="79"/>
-      <c r="L26" s="81"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="89"/>
       <c r="M26" s="9" t="s">
         <v>437</v>
       </c>
@@ -13143,8 +13143,8 @@
       <c r="J27" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K27" s="79"/>
-      <c r="L27" s="81"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="89"/>
       <c r="M27" s="9" t="s">
         <v>437</v>
       </c>
@@ -13179,8 +13179,8 @@
       <c r="J28" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="K28" s="83"/>
-      <c r="L28" s="90"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="91"/>
       <c r="M28" s="43" t="s">
         <v>437</v>
       </c>
@@ -13217,7 +13217,7 @@
       <c r="J29" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K29" s="82" t="s">
+      <c r="K29" s="87" t="s">
         <v>503</v>
       </c>
       <c r="L29" s="38"/>
@@ -13257,7 +13257,7 @@
       <c r="J30" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K30" s="79"/>
+      <c r="K30" s="85"/>
       <c r="L30" s="38"/>
       <c r="M30" s="9" t="s">
         <v>437</v>
@@ -13295,7 +13295,7 @@
       <c r="J31" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K31" s="79"/>
+      <c r="K31" s="85"/>
       <c r="L31" s="38"/>
       <c r="M31" s="9" t="s">
         <v>437</v>
@@ -13331,7 +13331,7 @@
       <c r="J32" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K32" s="79"/>
+      <c r="K32" s="85"/>
       <c r="L32" s="38"/>
       <c r="M32" s="9" t="s">
         <v>437</v>
@@ -13369,7 +13369,7 @@
       <c r="J33" s="49" t="s">
         <v>437</v>
       </c>
-      <c r="K33" s="78" t="s">
+      <c r="K33" s="84" t="s">
         <v>470</v>
       </c>
       <c r="L33" s="59" t="s">
@@ -13411,7 +13411,7 @@
       <c r="J34" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="K34" s="83"/>
+      <c r="K34" s="86"/>
       <c r="L34" s="60"/>
       <c r="M34" s="43" t="s">
         <v>437</v>
@@ -13449,7 +13449,7 @@
       <c r="J35" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K35" s="82" t="s">
+      <c r="K35" s="87" t="s">
         <v>470</v>
       </c>
       <c r="L35" s="38" t="s">
@@ -13491,7 +13491,7 @@
       <c r="J36" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K36" s="79"/>
+      <c r="K36" s="85"/>
       <c r="L36" s="38"/>
       <c r="M36" s="9" t="s">
         <v>437</v>
@@ -13608,7 +13608,7 @@
       <c r="K39" s="62" t="s">
         <v>520</v>
       </c>
-      <c r="L39" s="80"/>
+      <c r="L39" s="88"/>
       <c r="M39" s="40" t="s">
         <v>437</v>
       </c>
@@ -13646,7 +13646,7 @@
         <v>437</v>
       </c>
       <c r="K40" s="51"/>
-      <c r="L40" s="81"/>
+      <c r="L40" s="89"/>
       <c r="M40" s="9" t="s">
         <v>437</v>
       </c>
@@ -13725,10 +13725,10 @@
       <c r="J42" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K42" s="82" t="s">
+      <c r="K42" s="87" t="s">
         <v>527</v>
       </c>
-      <c r="L42" s="89" t="s">
+      <c r="L42" s="90" t="s">
         <v>528</v>
       </c>
       <c r="M42" s="40" t="s">
@@ -13767,8 +13767,8 @@
       <c r="J43" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K43" s="79"/>
-      <c r="L43" s="81"/>
+      <c r="K43" s="85"/>
+      <c r="L43" s="89"/>
       <c r="M43" s="9" t="s">
         <v>437</v>
       </c>
@@ -13805,8 +13805,8 @@
       <c r="J44" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K44" s="79"/>
-      <c r="L44" s="81"/>
+      <c r="K44" s="85"/>
+      <c r="L44" s="89"/>
       <c r="M44" s="9" t="s">
         <v>437</v>
       </c>
@@ -13841,8 +13841,8 @@
       <c r="J45" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K45" s="79"/>
-      <c r="L45" s="81"/>
+      <c r="K45" s="85"/>
+      <c r="L45" s="89"/>
       <c r="M45" s="9" t="s">
         <v>437</v>
       </c>
@@ -13879,8 +13879,8 @@
       <c r="J46" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K46" s="79"/>
-      <c r="L46" s="81"/>
+      <c r="K46" s="85"/>
+      <c r="L46" s="89"/>
       <c r="M46" s="9" t="s">
         <v>437</v>
       </c>
@@ -13917,8 +13917,8 @@
       <c r="J47" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K47" s="79"/>
-      <c r="L47" s="81"/>
+      <c r="K47" s="85"/>
+      <c r="L47" s="89"/>
       <c r="M47" s="9" t="s">
         <v>437</v>
       </c>
@@ -14035,7 +14035,7 @@
       <c r="J50" s="49" t="s">
         <v>437</v>
       </c>
-      <c r="K50" s="91" t="s">
+      <c r="K50" s="78" t="s">
         <v>541</v>
       </c>
       <c r="L50" s="59"/>
@@ -14075,7 +14075,7 @@
       <c r="J51" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K51" s="88"/>
+      <c r="K51" s="79"/>
       <c r="L51" s="38"/>
       <c r="M51" s="40" t="s">
         <v>437</v>
@@ -14113,7 +14113,7 @@
       <c r="J52" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K52" s="88"/>
+      <c r="K52" s="79"/>
       <c r="L52" s="38"/>
       <c r="M52" s="40" t="s">
         <v>437</v>
@@ -14151,7 +14151,7 @@
       <c r="J53" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K53" s="88"/>
+      <c r="K53" s="79"/>
       <c r="L53" s="38"/>
       <c r="M53" s="40" t="s">
         <v>437</v>
@@ -14187,7 +14187,7 @@
       <c r="J54" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="K54" s="92"/>
+      <c r="K54" s="80"/>
       <c r="L54" s="60"/>
       <c r="M54" s="40" t="s">
         <v>437</v>
@@ -14307,7 +14307,7 @@
       <c r="J57" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K57" s="82" t="s">
+      <c r="K57" s="87" t="s">
         <v>558</v>
       </c>
       <c r="L57" s="38"/>
@@ -14347,7 +14347,7 @@
       <c r="J58" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K58" s="79"/>
+      <c r="K58" s="85"/>
       <c r="L58" s="38"/>
       <c r="M58" s="9" t="s">
         <v>437</v>
@@ -14383,7 +14383,7 @@
       <c r="J59" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K59" s="79"/>
+      <c r="K59" s="85"/>
       <c r="L59" s="38"/>
       <c r="M59" s="9" t="s">
         <v>437</v>
@@ -14421,7 +14421,7 @@
       <c r="J60" s="40" t="s">
         <v>437</v>
       </c>
-      <c r="K60" s="80" t="s">
+      <c r="K60" s="88" t="s">
         <v>563</v>
       </c>
       <c r="L60" s="59"/>
@@ -14461,7 +14461,7 @@
       <c r="J61" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="K61" s="81"/>
+      <c r="K61" s="89"/>
       <c r="L61" s="38" t="s">
         <v>565</v>
       </c>
@@ -14501,7 +14501,7 @@
       <c r="J62" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K62" s="81"/>
+      <c r="K62" s="89"/>
       <c r="L62" s="38" t="s">
         <v>567</v>
       </c>
@@ -14541,7 +14541,7 @@
       <c r="J63" s="63" t="s">
         <v>437</v>
       </c>
-      <c r="K63" s="82"/>
+      <c r="K63" s="87"/>
       <c r="L63" s="38"/>
       <c r="M63" s="9" t="s">
         <v>437</v>
@@ -14579,7 +14579,7 @@
       <c r="J64" s="63" t="s">
         <v>437</v>
       </c>
-      <c r="K64" s="79"/>
+      <c r="K64" s="85"/>
       <c r="L64" s="38"/>
       <c r="M64" s="9" t="s">
         <v>437</v>
@@ -14617,7 +14617,7 @@
       <c r="J65" s="63" t="s">
         <v>437</v>
       </c>
-      <c r="K65" s="79"/>
+      <c r="K65" s="85"/>
       <c r="L65" s="38" t="s">
         <v>567</v>
       </c>
@@ -14655,7 +14655,7 @@
       <c r="J66" s="63" t="s">
         <v>437</v>
       </c>
-      <c r="K66" s="79"/>
+      <c r="K66" s="85"/>
       <c r="L66" s="13"/>
       <c r="M66" s="50" t="s">
         <v>437</v>
@@ -14769,7 +14769,7 @@
       <c r="J69" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K69" s="82" t="s">
+      <c r="K69" s="87" t="s">
         <v>470</v>
       </c>
       <c r="L69" s="38" t="s">
@@ -14811,7 +14811,7 @@
       <c r="J70" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K70" s="79"/>
+      <c r="K70" s="85"/>
       <c r="L70" s="38"/>
       <c r="M70" s="9" t="s">
         <v>437</v>
@@ -14889,7 +14889,7 @@
       <c r="J72" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K72" s="82"/>
+      <c r="K72" s="87"/>
       <c r="L72" s="38"/>
       <c r="M72" s="9" t="s">
         <v>437</v>
@@ -14925,7 +14925,7 @@
       <c r="J73" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K73" s="79"/>
+      <c r="K73" s="85"/>
       <c r="L73" s="38"/>
       <c r="M73" s="9" t="s">
         <v>437</v>
@@ -14961,7 +14961,7 @@
       <c r="J74" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K74" s="79"/>
+      <c r="K74" s="85"/>
       <c r="L74" s="38"/>
       <c r="M74" s="9" t="s">
         <v>437</v>
@@ -14995,7 +14995,7 @@
       <c r="J75" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="K75" s="83"/>
+      <c r="K75" s="86"/>
       <c r="L75" s="60"/>
       <c r="M75" s="9" t="s">
         <v>437</v>
@@ -15073,10 +15073,10 @@
       <c r="J77" s="49" t="s">
         <v>437</v>
       </c>
-      <c r="K77" s="91" t="s">
+      <c r="K77" s="78" t="s">
         <v>590</v>
       </c>
-      <c r="L77" s="78" t="s">
+      <c r="L77" s="84" t="s">
         <v>591</v>
       </c>
       <c r="M77" s="40" t="s">
@@ -15117,8 +15117,8 @@
       <c r="J78" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K78" s="92"/>
-      <c r="L78" s="94"/>
+      <c r="K78" s="80"/>
+      <c r="L78" s="82"/>
       <c r="M78" s="50" t="s">
         <v>437</v>
       </c>
@@ -15158,7 +15158,7 @@
       <c r="K79" s="38" t="s">
         <v>592</v>
       </c>
-      <c r="L79" s="94"/>
+      <c r="L79" s="82"/>
       <c r="M79" s="50" t="s">
         <v>437</v>
       </c>
@@ -15198,7 +15198,7 @@
       <c r="K80" s="38" t="s">
         <v>592</v>
       </c>
-      <c r="L80" s="83"/>
+      <c r="L80" s="86"/>
       <c r="M80" s="9" t="s">
         <v>437</v>
       </c>
@@ -15235,7 +15235,7 @@
       <c r="J81" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K81" s="82" t="s">
+      <c r="K81" s="87" t="s">
         <v>470</v>
       </c>
       <c r="L81" s="38" t="s">
@@ -15277,7 +15277,7 @@
       <c r="J82" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K82" s="79"/>
+      <c r="K82" s="85"/>
       <c r="L82" s="38"/>
       <c r="M82" s="9" t="s">
         <v>437</v>
@@ -15399,7 +15399,7 @@
       <c r="J85" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K85" s="82" t="s">
+      <c r="K85" s="87" t="s">
         <v>604</v>
       </c>
       <c r="L85" s="38"/>
@@ -15439,7 +15439,7 @@
       <c r="J86" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K86" s="79"/>
+      <c r="K86" s="85"/>
       <c r="L86" s="38"/>
       <c r="M86" s="9" t="s">
         <v>437</v>
@@ -15477,7 +15477,7 @@
       <c r="J87" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K87" s="79"/>
+      <c r="K87" s="85"/>
       <c r="L87" s="38"/>
       <c r="M87" s="9" t="s">
         <v>437</v>
@@ -15513,7 +15513,7 @@
       <c r="J88" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K88" s="79"/>
+      <c r="K88" s="85"/>
       <c r="L88" s="38"/>
       <c r="M88" s="9" t="s">
         <v>437</v>
@@ -15551,7 +15551,7 @@
       <c r="J89" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K89" s="79"/>
+      <c r="K89" s="85"/>
       <c r="L89" s="38"/>
       <c r="M89" s="9" t="s">
         <v>437</v>
@@ -15589,7 +15589,7 @@
       <c r="J90" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="K90" s="79"/>
+      <c r="K90" s="85"/>
       <c r="L90" s="38"/>
       <c r="M90" s="9" t="s">
         <v>437</v>
@@ -15627,10 +15627,10 @@
       <c r="J91" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K91" s="91" t="s">
+      <c r="K91" s="78" t="s">
         <v>610</v>
       </c>
-      <c r="L91" s="93" t="s">
+      <c r="L91" s="81" t="s">
         <v>611</v>
       </c>
       <c r="M91" s="40" t="s">
@@ -15669,8 +15669,8 @@
       <c r="J92" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="K92" s="88"/>
-      <c r="L92" s="94"/>
+      <c r="K92" s="79"/>
+      <c r="L92" s="82"/>
       <c r="M92" s="9" t="s">
         <v>437</v>
       </c>
@@ -15707,8 +15707,8 @@
       <c r="J93" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="K93" s="88"/>
-      <c r="L93" s="94"/>
+      <c r="K93" s="79"/>
+      <c r="L93" s="82"/>
       <c r="M93" s="9" t="s">
         <v>437</v>
       </c>
@@ -15743,8 +15743,8 @@
       <c r="J94" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="K94" s="92"/>
-      <c r="L94" s="95"/>
+      <c r="K94" s="80"/>
+      <c r="L94" s="83"/>
       <c r="M94" s="9" t="s">
         <v>437</v>
       </c>
@@ -15781,7 +15781,7 @@
       <c r="J95" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K95" s="78"/>
+      <c r="K95" s="84"/>
       <c r="L95" s="38"/>
       <c r="M95" s="40" t="s">
         <v>437</v>
@@ -15819,7 +15819,7 @@
       <c r="J96" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K96" s="79"/>
+      <c r="K96" s="85"/>
       <c r="L96" s="38"/>
       <c r="M96" s="40" t="s">
         <v>437</v>
@@ -15857,7 +15857,7 @@
       <c r="J97" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K97" s="79"/>
+      <c r="K97" s="85"/>
       <c r="L97" s="38"/>
       <c r="M97" s="40" t="s">
         <v>437</v>
@@ -15895,7 +15895,7 @@
       <c r="J98" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K98" s="79"/>
+      <c r="K98" s="85"/>
       <c r="L98" s="38"/>
       <c r="M98" s="40" t="s">
         <v>437</v>
@@ -15931,7 +15931,7 @@
       <c r="J99" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="K99" s="83"/>
+      <c r="K99" s="86"/>
       <c r="L99" s="53"/>
       <c r="M99" s="55" t="s">
         <v>437</v>
@@ -15960,6 +15960,28 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="K20:K24"/>
+    <mergeCell ref="L20:L24"/>
+    <mergeCell ref="K25:K28"/>
+    <mergeCell ref="L25:L28"/>
+    <mergeCell ref="K29:K32"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="K42:K47"/>
+    <mergeCell ref="L42:L47"/>
+    <mergeCell ref="K50:K54"/>
+    <mergeCell ref="K57:K59"/>
+    <mergeCell ref="K60:K62"/>
+    <mergeCell ref="K63:K66"/>
+    <mergeCell ref="K69:K70"/>
     <mergeCell ref="K91:K94"/>
     <mergeCell ref="L91:L94"/>
     <mergeCell ref="K95:K99"/>
@@ -15968,28 +15990,6 @@
     <mergeCell ref="L77:L80"/>
     <mergeCell ref="K81:K82"/>
     <mergeCell ref="K85:K90"/>
-    <mergeCell ref="K50:K54"/>
-    <mergeCell ref="K57:K59"/>
-    <mergeCell ref="K60:K62"/>
-    <mergeCell ref="K63:K66"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="K29:K32"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="K42:K47"/>
-    <mergeCell ref="L42:L47"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="K20:K24"/>
-    <mergeCell ref="L20:L24"/>
-    <mergeCell ref="K25:K28"/>
-    <mergeCell ref="L25:L28"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="L9:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20398,9 +20398,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -20455,86 +20457,87 @@
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="C4" s="27">
-        <v>1E-3</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="A4" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" s="23">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>13</v>
+        <v>282</v>
+      </c>
+      <c r="C5" s="27">
+        <v>1E-3</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="C6" s="23">
-        <v>1000</v>
+        <v>276</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>13</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>283</v>
+        <v>194</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C7" s="23">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>286</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>194</v>
+        <v>283</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C8" s="23">
         <v>1</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>288</v>
+        <v>194</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C9" s="23">
         <v>1</v>
@@ -20547,7 +20550,7 @@
         <v>288</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C10" s="23">
         <v>1</v>
@@ -20557,10 +20560,10 @@
     </row>
     <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>198</v>
+        <v>288</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C11" s="23">
         <v>1</v>
@@ -20570,10 +20573,10 @@
     </row>
     <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C12" s="23">
         <v>1</v>
@@ -20583,39 +20586,39 @@
     </row>
     <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="C13" s="27">
-        <v>1E-3</v>
+        <v>291</v>
+      </c>
+      <c r="C13" s="23">
+        <v>1</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>284</v>
+        <v>198</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C14" s="23">
-        <v>1</v>
+        <v>194</v>
+      </c>
+      <c r="C14" s="27">
+        <v>1E-3</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>194</v>
+        <v>284</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C15" s="23">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -20625,7 +20628,7 @@
         <v>194</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>198</v>
+        <v>293</v>
       </c>
       <c r="C16" s="23">
         <v>1000</v>
@@ -20635,23 +20638,23 @@
     </row>
     <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>294</v>
+        <v>194</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>295</v>
+        <v>198</v>
       </c>
       <c r="C17" s="23">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C18" s="23">
         <v>1</v>
@@ -20664,10 +20667,10 @@
         <v>284</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C19" s="23">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -20677,7 +20680,7 @@
         <v>284</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C20" s="23">
         <v>1000</v>
@@ -20687,10 +20690,10 @@
     </row>
     <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>194</v>
+        <v>284</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C21" s="23">
         <v>1000</v>
@@ -20700,23 +20703,23 @@
     </row>
     <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>300</v>
+        <v>194</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C22" s="23">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>194</v>
+        <v>300</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="C23" s="23">
         <v>1</v>
@@ -20729,7 +20732,7 @@
         <v>194</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C24" s="23">
         <v>1</v>
@@ -20739,18 +20742,31 @@
     </row>
     <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="C25" s="23">
         <v>1</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C26" s="23">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="E25" s="7"/>
+      <c r="E26" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Meta/Analytes3.xlsx
+++ b/Meta/Analytes3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/vitense_kelsey_epa_gov/Documents/GL_Data/Meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="11_CFA7FA0AC8BEC675FF6906A82B7A2EC91D13FE60" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DDA6596-DEE3-4BA8-AD39-615D0F9B15AA}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="11_CFA7FA0AC8BEC675FF6906A82B7A2EC91D13FE60" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC01310B-AD51-451A-8A3D-A62B81AA7DBD}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="19440" windowHeight="14880" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="19440" windowHeight="14880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3703" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3703" uniqueCount="802">
   <si>
     <t>ANALYTE</t>
   </si>
@@ -2261,9 +2261,6 @@
     <t>Dissolved magnesium</t>
   </si>
   <si>
-    <t>NH</t>
-  </si>
-  <si>
     <t>dissolved ammonium</t>
   </si>
   <si>
@@ -2271,9 +2268,6 @@
   </si>
   <si>
     <t>Dissolved sodium</t>
-  </si>
-  <si>
-    <t>SO</t>
   </si>
   <si>
     <t>Dissolved sulfate</t>
@@ -3024,35 +3018,11 @@
     <xf numFmtId="3" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3060,10 +3030,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3077,6 +3047,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3385,7 +3379,7 @@
   </sheetPr>
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
@@ -3403,16 +3397,16 @@
         <v>5</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3426,7 +3420,7 @@
         <v>281</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>42</v>
@@ -3437,13 +3431,13 @@
         <v>347</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>22</v>
@@ -3454,13 +3448,13 @@
         <v>465</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>22</v>
@@ -3471,13 +3465,13 @@
         <v>469</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>281</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>42</v>
@@ -3488,13 +3482,13 @@
         <v>473</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>281</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>42</v>
@@ -3505,13 +3499,13 @@
         <v>620</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>22</v>
@@ -3522,13 +3516,13 @@
         <v>88</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>281</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -3545,7 +3539,7 @@
         <v>282</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>22</v>
@@ -3556,13 +3550,13 @@
         <v>93</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>284</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>227</v>
@@ -3579,7 +3573,7 @@
         <v>281</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>42</v>
@@ -3590,13 +3584,13 @@
         <v>506</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>281</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>42</v>
@@ -3607,13 +3601,13 @@
         <v>507</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>281</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>42</v>
@@ -3624,13 +3618,13 @@
         <v>509</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>22</v>
@@ -3641,13 +3635,13 @@
         <v>511</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>22</v>
@@ -3658,13 +3652,13 @@
         <v>515</v>
       </c>
       <c r="B16" s="75" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>233</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>233</v>
@@ -3675,13 +3669,13 @@
         <v>517</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>22</v>
@@ -3692,13 +3686,13 @@
         <v>63</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>22</v>
@@ -3709,13 +3703,13 @@
         <v>55</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>22</v>
@@ -3726,13 +3720,13 @@
         <v>538</v>
       </c>
       <c r="B20" s="75" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>279</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>539</v>
@@ -3743,13 +3737,13 @@
         <v>72</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>22</v>
@@ -3760,13 +3754,13 @@
         <v>204</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>281</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>42</v>
@@ -3777,13 +3771,13 @@
         <v>486</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>281</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>42</v>
@@ -3794,13 +3788,13 @@
         <v>478</v>
       </c>
       <c r="B24" s="75" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>279</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>539</v>
@@ -3811,13 +3805,13 @@
         <v>269</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>22</v>
@@ -3828,13 +3822,13 @@
         <v>223</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>281</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>42</v>
@@ -3848,13 +3842,13 @@
         <v>83</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3862,13 +3856,13 @@
         <v>66</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>22</v>
@@ -3879,13 +3873,13 @@
         <v>59</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>22</v>
@@ -3896,13 +3890,13 @@
         <v>572</v>
       </c>
       <c r="B30" s="75" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>279</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>539</v>
@@ -3913,13 +3907,13 @@
         <v>77</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>22</v>
@@ -3930,13 +3924,13 @@
         <v>232</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>233</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>233</v>
@@ -3947,13 +3941,13 @@
         <v>574</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>281</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>42</v>
@@ -3964,13 +3958,13 @@
         <v>575</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>281</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>42</v>
@@ -3987,7 +3981,7 @@
         <v>318</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>318</v>
@@ -3998,13 +3992,13 @@
         <v>588</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>22</v>
@@ -4015,13 +4009,13 @@
         <v>356</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>281</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>42</v>
@@ -4032,13 +4026,13 @@
         <v>594</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>281</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>42</v>
@@ -4049,13 +4043,13 @@
         <v>595</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>281</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>42</v>
@@ -4066,13 +4060,13 @@
         <v>95</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>281</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>42</v>
@@ -4083,13 +4077,13 @@
         <v>31</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>22</v>
@@ -4106,7 +4100,7 @@
         <v>326</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>326</v>
@@ -4117,13 +4111,13 @@
         <v>612</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>276</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>276</v>
@@ -4134,13 +4128,13 @@
         <v>609</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>277</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>277</v>
@@ -4544,7 +4538,7 @@
   </sheetPr>
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A32" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8176,8 +8170,8 @@
   </sheetPr>
   <dimension ref="A1:L124"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79:XFD79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9209,7 +9203,7 @@
         <v>684</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -9295,7 +9289,7 @@
         <v>684</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -9439,7 +9433,7 @@
         <v>684</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -9469,7 +9463,7 @@
         <v>684</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -10423,7 +10417,7 @@
         <v>727</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>732</v>
+        <v>193</v>
       </c>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
@@ -10441,7 +10435,7 @@
         <v>280</v>
       </c>
       <c r="J79" s="13" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="K79" s="13"/>
       <c r="L79" s="13"/>
@@ -10469,7 +10463,7 @@
         <v>280</v>
       </c>
       <c r="J80" s="13" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K80" s="13"/>
       <c r="L80" s="13"/>
@@ -10497,7 +10491,7 @@
         <v>280</v>
       </c>
       <c r="J81" s="13" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="K81" s="13"/>
       <c r="L81" s="13"/>
@@ -10507,7 +10501,7 @@
         <v>727</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>736</v>
+        <v>199</v>
       </c>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
@@ -10525,7 +10519,7 @@
         <v>280</v>
       </c>
       <c r="J82" s="13" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="K82" s="13"/>
       <c r="L82" s="13"/>
@@ -10572,7 +10566,7 @@
         <v>2021</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="H84" s="7" t="s">
         <v>356</v>
@@ -10581,7 +10575,7 @@
         <v>280</v>
       </c>
       <c r="J84" s="13" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="K84" s="13"/>
       <c r="L84" s="13"/>
@@ -10609,7 +10603,7 @@
         <v>280</v>
       </c>
       <c r="J85" s="13" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="K85" s="13"/>
       <c r="L85" s="13"/>
@@ -10637,7 +10631,7 @@
         <v>280</v>
       </c>
       <c r="J86" s="13" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="K86" s="13"/>
       <c r="L86" s="13"/>
@@ -10652,7 +10646,7 @@
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
       <c r="E87" s="13" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F87" s="23">
         <v>2021</v>
@@ -10667,7 +10661,7 @@
         <v>280</v>
       </c>
       <c r="J87" s="13" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="K87" s="13" t="s">
         <v>599</v>
@@ -10684,7 +10678,7 @@
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
       <c r="E88" s="13" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F88" s="23">
         <v>2021</v>
@@ -10699,7 +10693,7 @@
         <v>280</v>
       </c>
       <c r="J88" s="13" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="K88" s="13" t="s">
         <v>599</v>
@@ -11174,13 +11168,13 @@
         <v>620</v>
       </c>
       <c r="I105" s="15" t="s">
+        <v>741</v>
+      </c>
+      <c r="J105" s="13" t="s">
+        <v>742</v>
+      </c>
+      <c r="K105" s="13" t="s">
         <v>743</v>
-      </c>
-      <c r="J105" s="13" t="s">
-        <v>744</v>
-      </c>
-      <c r="K105" s="13" t="s">
-        <v>745</v>
       </c>
       <c r="L105" s="13" t="s">
         <v>397</v>
@@ -11208,13 +11202,13 @@
         <v>620</v>
       </c>
       <c r="I106" s="15" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="J106" s="13" t="s">
+        <v>742</v>
+      </c>
+      <c r="K106" s="13" t="s">
         <v>744</v>
-      </c>
-      <c r="K106" s="13" t="s">
-        <v>746</v>
       </c>
       <c r="L106" s="13" t="s">
         <v>397</v>
@@ -11242,13 +11236,13 @@
         <v>55</v>
       </c>
       <c r="I107" s="15" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="J107" s="13" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="K107" s="13" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="L107" s="13" t="s">
         <v>397</v>
@@ -11276,13 +11270,13 @@
         <v>55</v>
       </c>
       <c r="I108" s="15" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="J108" s="13" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="K108" s="13" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="L108" s="13" t="s">
         <v>397</v>
@@ -11310,13 +11304,13 @@
         <v>59</v>
       </c>
       <c r="I109" s="15" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="J109" s="13" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="K109" s="13" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="L109" s="13" t="s">
         <v>397</v>
@@ -11344,13 +11338,13 @@
         <v>59</v>
       </c>
       <c r="I110" s="15" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="J110" s="13" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="K110" s="13" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="L110" s="13" t="s">
         <v>397</v>
@@ -11456,7 +11450,7 @@
         <v>2010</v>
       </c>
       <c r="G114" s="75" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="H114" s="7" t="s">
         <v>319</v>
@@ -11484,7 +11478,7 @@
         <v>2010</v>
       </c>
       <c r="G115" s="75" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="H115" s="7" t="s">
         <v>319</v>
@@ -11518,10 +11512,10 @@
         <v>356</v>
       </c>
       <c r="I116" s="8" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="J116" s="13" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="K116" s="13"/>
       <c r="L116" s="13"/>
@@ -11604,10 +11598,10 @@
         <v>268</v>
       </c>
       <c r="I119" s="8" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="J119" s="13" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="K119" s="13" t="s">
         <v>599</v>
@@ -11636,7 +11630,7 @@
         <v>268</v>
       </c>
       <c r="I120" s="8" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="J120" s="13"/>
       <c r="K120" s="13" t="s">
@@ -11666,7 +11660,7 @@
         <v>268</v>
       </c>
       <c r="I121" s="8" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="J121" s="13"/>
       <c r="K121" s="13" t="s">
@@ -11696,7 +11690,7 @@
         <v>268</v>
       </c>
       <c r="I122" s="8" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="J122" s="13"/>
       <c r="K122" s="13" t="s">
@@ -11754,7 +11748,7 @@
         <v>23</v>
       </c>
       <c r="I124" s="15" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="J124" s="13"/>
       <c r="K124" s="13"/>
@@ -12171,8 +12165,8 @@
       <c r="J2" s="49" t="s">
         <v>437</v>
       </c>
-      <c r="K2" s="84"/>
-      <c r="L2" s="88"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="80"/>
       <c r="M2" s="40" t="s">
         <v>437</v>
       </c>
@@ -12209,8 +12203,8 @@
       <c r="J3" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K3" s="85"/>
-      <c r="L3" s="89"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="81"/>
       <c r="M3" s="9" t="s">
         <v>437</v>
       </c>
@@ -12247,8 +12241,8 @@
       <c r="J4" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K4" s="85"/>
-      <c r="L4" s="89"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="81"/>
       <c r="M4" s="9" t="s">
         <v>437</v>
       </c>
@@ -12283,8 +12277,8 @@
       <c r="J5" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K5" s="85"/>
-      <c r="L5" s="89"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="81"/>
       <c r="M5" s="9" t="s">
         <v>437</v>
       </c>
@@ -12321,10 +12315,10 @@
       <c r="J6" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K6" s="87" t="s">
+      <c r="K6" s="82" t="s">
         <v>447</v>
       </c>
-      <c r="L6" s="92"/>
+      <c r="L6" s="84"/>
       <c r="M6" s="9" t="s">
         <v>437</v>
       </c>
@@ -12361,8 +12355,8 @@
       <c r="J7" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K7" s="85"/>
-      <c r="L7" s="93"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="85"/>
       <c r="M7" s="9" t="s">
         <v>437</v>
       </c>
@@ -12397,8 +12391,8 @@
       <c r="J8" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="K8" s="86"/>
-      <c r="L8" s="94"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="86"/>
       <c r="M8" s="9" t="s">
         <v>437</v>
       </c>
@@ -12435,10 +12429,10 @@
       <c r="J9" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K9" s="95" t="s">
+      <c r="K9" s="87" t="s">
         <v>455</v>
       </c>
-      <c r="L9" s="90" t="s">
+      <c r="L9" s="89" t="s">
         <v>456</v>
       </c>
       <c r="M9" s="40" t="s">
@@ -12477,8 +12471,8 @@
       <c r="J10" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K10" s="79"/>
-      <c r="L10" s="89"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="81"/>
       <c r="M10" s="9" t="s">
         <v>437</v>
       </c>
@@ -12515,8 +12509,8 @@
       <c r="J11" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K11" s="79"/>
-      <c r="L11" s="89"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="81"/>
       <c r="M11" s="9" t="s">
         <v>437</v>
       </c>
@@ -12795,7 +12789,7 @@
       <c r="J18" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K18" s="87"/>
+      <c r="K18" s="82"/>
       <c r="L18" s="38"/>
       <c r="M18" s="9" t="s">
         <v>437</v>
@@ -12833,7 +12827,7 @@
       <c r="J19" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="K19" s="86"/>
+      <c r="K19" s="83"/>
       <c r="L19" s="60"/>
       <c r="M19" s="43" t="s">
         <v>437</v>
@@ -12871,10 +12865,10 @@
       <c r="J20" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K20" s="87" t="s">
+      <c r="K20" s="82" t="s">
         <v>490</v>
       </c>
-      <c r="L20" s="90" t="s">
+      <c r="L20" s="89" t="s">
         <v>491</v>
       </c>
       <c r="M20" s="9" t="s">
@@ -12913,8 +12907,8 @@
       <c r="J21" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K21" s="85"/>
-      <c r="L21" s="89"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="81"/>
       <c r="M21" s="9" t="s">
         <v>437</v>
       </c>
@@ -12949,8 +12943,8 @@
       <c r="J22" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K22" s="85"/>
-      <c r="L22" s="89"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="81"/>
       <c r="M22" s="9" t="s">
         <v>437</v>
       </c>
@@ -12987,8 +12981,8 @@
       <c r="J23" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K23" s="85"/>
-      <c r="L23" s="89"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="81"/>
       <c r="M23" s="9" t="s">
         <v>437</v>
       </c>
@@ -13025,8 +13019,8 @@
       <c r="J24" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K24" s="85"/>
-      <c r="L24" s="89"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="81"/>
       <c r="M24" s="9" t="s">
         <v>437</v>
       </c>
@@ -13063,10 +13057,10 @@
       <c r="J25" s="49" t="s">
         <v>437</v>
       </c>
-      <c r="K25" s="84" t="s">
+      <c r="K25" s="78" t="s">
         <v>497</v>
       </c>
-      <c r="L25" s="88" t="s">
+      <c r="L25" s="80" t="s">
         <v>498</v>
       </c>
       <c r="M25" s="40" t="s">
@@ -13105,8 +13099,8 @@
       <c r="J26" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K26" s="85"/>
-      <c r="L26" s="89"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="81"/>
       <c r="M26" s="9" t="s">
         <v>437</v>
       </c>
@@ -13143,8 +13137,8 @@
       <c r="J27" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K27" s="85"/>
-      <c r="L27" s="89"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="81"/>
       <c r="M27" s="9" t="s">
         <v>437</v>
       </c>
@@ -13179,8 +13173,8 @@
       <c r="J28" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="K28" s="86"/>
-      <c r="L28" s="91"/>
+      <c r="K28" s="83"/>
+      <c r="L28" s="90"/>
       <c r="M28" s="43" t="s">
         <v>437</v>
       </c>
@@ -13217,7 +13211,7 @@
       <c r="J29" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K29" s="87" t="s">
+      <c r="K29" s="82" t="s">
         <v>503</v>
       </c>
       <c r="L29" s="38"/>
@@ -13257,7 +13251,7 @@
       <c r="J30" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K30" s="85"/>
+      <c r="K30" s="79"/>
       <c r="L30" s="38"/>
       <c r="M30" s="9" t="s">
         <v>437</v>
@@ -13295,7 +13289,7 @@
       <c r="J31" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K31" s="85"/>
+      <c r="K31" s="79"/>
       <c r="L31" s="38"/>
       <c r="M31" s="9" t="s">
         <v>437</v>
@@ -13331,7 +13325,7 @@
       <c r="J32" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K32" s="85"/>
+      <c r="K32" s="79"/>
       <c r="L32" s="38"/>
       <c r="M32" s="9" t="s">
         <v>437</v>
@@ -13369,7 +13363,7 @@
       <c r="J33" s="49" t="s">
         <v>437</v>
       </c>
-      <c r="K33" s="84" t="s">
+      <c r="K33" s="78" t="s">
         <v>470</v>
       </c>
       <c r="L33" s="59" t="s">
@@ -13411,7 +13405,7 @@
       <c r="J34" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="K34" s="86"/>
+      <c r="K34" s="83"/>
       <c r="L34" s="60"/>
       <c r="M34" s="43" t="s">
         <v>437</v>
@@ -13449,7 +13443,7 @@
       <c r="J35" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K35" s="87" t="s">
+      <c r="K35" s="82" t="s">
         <v>470</v>
       </c>
       <c r="L35" s="38" t="s">
@@ -13491,7 +13485,7 @@
       <c r="J36" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K36" s="85"/>
+      <c r="K36" s="79"/>
       <c r="L36" s="38"/>
       <c r="M36" s="9" t="s">
         <v>437</v>
@@ -13608,7 +13602,7 @@
       <c r="K39" s="62" t="s">
         <v>520</v>
       </c>
-      <c r="L39" s="88"/>
+      <c r="L39" s="80"/>
       <c r="M39" s="40" t="s">
         <v>437</v>
       </c>
@@ -13646,7 +13640,7 @@
         <v>437</v>
       </c>
       <c r="K40" s="51"/>
-      <c r="L40" s="89"/>
+      <c r="L40" s="81"/>
       <c r="M40" s="9" t="s">
         <v>437</v>
       </c>
@@ -13725,10 +13719,10 @@
       <c r="J42" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K42" s="87" t="s">
+      <c r="K42" s="82" t="s">
         <v>527</v>
       </c>
-      <c r="L42" s="90" t="s">
+      <c r="L42" s="89" t="s">
         <v>528</v>
       </c>
       <c r="M42" s="40" t="s">
@@ -13767,8 +13761,8 @@
       <c r="J43" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K43" s="85"/>
-      <c r="L43" s="89"/>
+      <c r="K43" s="79"/>
+      <c r="L43" s="81"/>
       <c r="M43" s="9" t="s">
         <v>437</v>
       </c>
@@ -13805,8 +13799,8 @@
       <c r="J44" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K44" s="85"/>
-      <c r="L44" s="89"/>
+      <c r="K44" s="79"/>
+      <c r="L44" s="81"/>
       <c r="M44" s="9" t="s">
         <v>437</v>
       </c>
@@ -13841,8 +13835,8 @@
       <c r="J45" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K45" s="85"/>
-      <c r="L45" s="89"/>
+      <c r="K45" s="79"/>
+      <c r="L45" s="81"/>
       <c r="M45" s="9" t="s">
         <v>437</v>
       </c>
@@ -13879,8 +13873,8 @@
       <c r="J46" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K46" s="85"/>
-      <c r="L46" s="89"/>
+      <c r="K46" s="79"/>
+      <c r="L46" s="81"/>
       <c r="M46" s="9" t="s">
         <v>437</v>
       </c>
@@ -13917,8 +13911,8 @@
       <c r="J47" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K47" s="85"/>
-      <c r="L47" s="89"/>
+      <c r="K47" s="79"/>
+      <c r="L47" s="81"/>
       <c r="M47" s="9" t="s">
         <v>437</v>
       </c>
@@ -14035,7 +14029,7 @@
       <c r="J50" s="49" t="s">
         <v>437</v>
       </c>
-      <c r="K50" s="78" t="s">
+      <c r="K50" s="91" t="s">
         <v>541</v>
       </c>
       <c r="L50" s="59"/>
@@ -14075,7 +14069,7 @@
       <c r="J51" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K51" s="79"/>
+      <c r="K51" s="88"/>
       <c r="L51" s="38"/>
       <c r="M51" s="40" t="s">
         <v>437</v>
@@ -14113,7 +14107,7 @@
       <c r="J52" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K52" s="79"/>
+      <c r="K52" s="88"/>
       <c r="L52" s="38"/>
       <c r="M52" s="40" t="s">
         <v>437</v>
@@ -14151,7 +14145,7 @@
       <c r="J53" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K53" s="79"/>
+      <c r="K53" s="88"/>
       <c r="L53" s="38"/>
       <c r="M53" s="40" t="s">
         <v>437</v>
@@ -14187,7 +14181,7 @@
       <c r="J54" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="K54" s="80"/>
+      <c r="K54" s="92"/>
       <c r="L54" s="60"/>
       <c r="M54" s="40" t="s">
         <v>437</v>
@@ -14307,7 +14301,7 @@
       <c r="J57" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K57" s="87" t="s">
+      <c r="K57" s="82" t="s">
         <v>558</v>
       </c>
       <c r="L57" s="38"/>
@@ -14347,7 +14341,7 @@
       <c r="J58" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K58" s="85"/>
+      <c r="K58" s="79"/>
       <c r="L58" s="38"/>
       <c r="M58" s="9" t="s">
         <v>437</v>
@@ -14383,7 +14377,7 @@
       <c r="J59" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K59" s="85"/>
+      <c r="K59" s="79"/>
       <c r="L59" s="38"/>
       <c r="M59" s="9" t="s">
         <v>437</v>
@@ -14421,7 +14415,7 @@
       <c r="J60" s="40" t="s">
         <v>437</v>
       </c>
-      <c r="K60" s="88" t="s">
+      <c r="K60" s="80" t="s">
         <v>563</v>
       </c>
       <c r="L60" s="59"/>
@@ -14461,7 +14455,7 @@
       <c r="J61" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="K61" s="89"/>
+      <c r="K61" s="81"/>
       <c r="L61" s="38" t="s">
         <v>565</v>
       </c>
@@ -14501,7 +14495,7 @@
       <c r="J62" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K62" s="89"/>
+      <c r="K62" s="81"/>
       <c r="L62" s="38" t="s">
         <v>567</v>
       </c>
@@ -14541,7 +14535,7 @@
       <c r="J63" s="63" t="s">
         <v>437</v>
       </c>
-      <c r="K63" s="87"/>
+      <c r="K63" s="82"/>
       <c r="L63" s="38"/>
       <c r="M63" s="9" t="s">
         <v>437</v>
@@ -14579,7 +14573,7 @@
       <c r="J64" s="63" t="s">
         <v>437</v>
       </c>
-      <c r="K64" s="85"/>
+      <c r="K64" s="79"/>
       <c r="L64" s="38"/>
       <c r="M64" s="9" t="s">
         <v>437</v>
@@ -14617,7 +14611,7 @@
       <c r="J65" s="63" t="s">
         <v>437</v>
       </c>
-      <c r="K65" s="85"/>
+      <c r="K65" s="79"/>
       <c r="L65" s="38" t="s">
         <v>567</v>
       </c>
@@ -14655,7 +14649,7 @@
       <c r="J66" s="63" t="s">
         <v>437</v>
       </c>
-      <c r="K66" s="85"/>
+      <c r="K66" s="79"/>
       <c r="L66" s="13"/>
       <c r="M66" s="50" t="s">
         <v>437</v>
@@ -14769,7 +14763,7 @@
       <c r="J69" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K69" s="87" t="s">
+      <c r="K69" s="82" t="s">
         <v>470</v>
       </c>
       <c r="L69" s="38" t="s">
@@ -14811,7 +14805,7 @@
       <c r="J70" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K70" s="85"/>
+      <c r="K70" s="79"/>
       <c r="L70" s="38"/>
       <c r="M70" s="9" t="s">
         <v>437</v>
@@ -14889,7 +14883,7 @@
       <c r="J72" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K72" s="87"/>
+      <c r="K72" s="82"/>
       <c r="L72" s="38"/>
       <c r="M72" s="9" t="s">
         <v>437</v>
@@ -14925,7 +14919,7 @@
       <c r="J73" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K73" s="85"/>
+      <c r="K73" s="79"/>
       <c r="L73" s="38"/>
       <c r="M73" s="9" t="s">
         <v>437</v>
@@ -14961,7 +14955,7 @@
       <c r="J74" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K74" s="85"/>
+      <c r="K74" s="79"/>
       <c r="L74" s="38"/>
       <c r="M74" s="9" t="s">
         <v>437</v>
@@ -14995,7 +14989,7 @@
       <c r="J75" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="K75" s="86"/>
+      <c r="K75" s="83"/>
       <c r="L75" s="60"/>
       <c r="M75" s="9" t="s">
         <v>437</v>
@@ -15073,10 +15067,10 @@
       <c r="J77" s="49" t="s">
         <v>437</v>
       </c>
-      <c r="K77" s="78" t="s">
+      <c r="K77" s="91" t="s">
         <v>590</v>
       </c>
-      <c r="L77" s="84" t="s">
+      <c r="L77" s="78" t="s">
         <v>591</v>
       </c>
       <c r="M77" s="40" t="s">
@@ -15117,8 +15111,8 @@
       <c r="J78" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K78" s="80"/>
-      <c r="L78" s="82"/>
+      <c r="K78" s="92"/>
+      <c r="L78" s="94"/>
       <c r="M78" s="50" t="s">
         <v>437</v>
       </c>
@@ -15158,7 +15152,7 @@
       <c r="K79" s="38" t="s">
         <v>592</v>
       </c>
-      <c r="L79" s="82"/>
+      <c r="L79" s="94"/>
       <c r="M79" s="50" t="s">
         <v>437</v>
       </c>
@@ -15198,7 +15192,7 @@
       <c r="K80" s="38" t="s">
         <v>592</v>
       </c>
-      <c r="L80" s="86"/>
+      <c r="L80" s="83"/>
       <c r="M80" s="9" t="s">
         <v>437</v>
       </c>
@@ -15235,7 +15229,7 @@
       <c r="J81" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K81" s="87" t="s">
+      <c r="K81" s="82" t="s">
         <v>470</v>
       </c>
       <c r="L81" s="38" t="s">
@@ -15277,7 +15271,7 @@
       <c r="J82" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K82" s="85"/>
+      <c r="K82" s="79"/>
       <c r="L82" s="38"/>
       <c r="M82" s="9" t="s">
         <v>437</v>
@@ -15399,7 +15393,7 @@
       <c r="J85" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K85" s="87" t="s">
+      <c r="K85" s="82" t="s">
         <v>604</v>
       </c>
       <c r="L85" s="38"/>
@@ -15439,7 +15433,7 @@
       <c r="J86" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K86" s="85"/>
+      <c r="K86" s="79"/>
       <c r="L86" s="38"/>
       <c r="M86" s="9" t="s">
         <v>437</v>
@@ -15477,7 +15471,7 @@
       <c r="J87" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K87" s="85"/>
+      <c r="K87" s="79"/>
       <c r="L87" s="38"/>
       <c r="M87" s="9" t="s">
         <v>437</v>
@@ -15513,7 +15507,7 @@
       <c r="J88" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K88" s="85"/>
+      <c r="K88" s="79"/>
       <c r="L88" s="38"/>
       <c r="M88" s="9" t="s">
         <v>437</v>
@@ -15551,7 +15545,7 @@
       <c r="J89" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K89" s="85"/>
+      <c r="K89" s="79"/>
       <c r="L89" s="38"/>
       <c r="M89" s="9" t="s">
         <v>437</v>
@@ -15589,7 +15583,7 @@
       <c r="J90" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="K90" s="85"/>
+      <c r="K90" s="79"/>
       <c r="L90" s="38"/>
       <c r="M90" s="9" t="s">
         <v>437</v>
@@ -15627,10 +15621,10 @@
       <c r="J91" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K91" s="78" t="s">
+      <c r="K91" s="91" t="s">
         <v>610</v>
       </c>
-      <c r="L91" s="81" t="s">
+      <c r="L91" s="93" t="s">
         <v>611</v>
       </c>
       <c r="M91" s="40" t="s">
@@ -15669,8 +15663,8 @@
       <c r="J92" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="K92" s="79"/>
-      <c r="L92" s="82"/>
+      <c r="K92" s="88"/>
+      <c r="L92" s="94"/>
       <c r="M92" s="9" t="s">
         <v>437</v>
       </c>
@@ -15707,8 +15701,8 @@
       <c r="J93" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="K93" s="79"/>
-      <c r="L93" s="82"/>
+      <c r="K93" s="88"/>
+      <c r="L93" s="94"/>
       <c r="M93" s="9" t="s">
         <v>437</v>
       </c>
@@ -15743,8 +15737,8 @@
       <c r="J94" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="K94" s="80"/>
-      <c r="L94" s="83"/>
+      <c r="K94" s="92"/>
+      <c r="L94" s="95"/>
       <c r="M94" s="9" t="s">
         <v>437</v>
       </c>
@@ -15781,7 +15775,7 @@
       <c r="J95" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K95" s="84"/>
+      <c r="K95" s="78"/>
       <c r="L95" s="38"/>
       <c r="M95" s="40" t="s">
         <v>437</v>
@@ -15819,7 +15813,7 @@
       <c r="J96" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K96" s="85"/>
+      <c r="K96" s="79"/>
       <c r="L96" s="38"/>
       <c r="M96" s="40" t="s">
         <v>437</v>
@@ -15857,7 +15851,7 @@
       <c r="J97" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K97" s="85"/>
+      <c r="K97" s="79"/>
       <c r="L97" s="38"/>
       <c r="M97" s="40" t="s">
         <v>437</v>
@@ -15895,7 +15889,7 @@
       <c r="J98" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K98" s="85"/>
+      <c r="K98" s="79"/>
       <c r="L98" s="38"/>
       <c r="M98" s="40" t="s">
         <v>437</v>
@@ -15931,7 +15925,7 @@
       <c r="J99" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="K99" s="86"/>
+      <c r="K99" s="83"/>
       <c r="L99" s="53"/>
       <c r="M99" s="55" t="s">
         <v>437</v>
@@ -15960,28 +15954,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="K20:K24"/>
-    <mergeCell ref="L20:L24"/>
-    <mergeCell ref="K25:K28"/>
-    <mergeCell ref="L25:L28"/>
-    <mergeCell ref="K29:K32"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="K42:K47"/>
-    <mergeCell ref="L42:L47"/>
-    <mergeCell ref="K50:K54"/>
-    <mergeCell ref="K57:K59"/>
-    <mergeCell ref="K60:K62"/>
-    <mergeCell ref="K63:K66"/>
-    <mergeCell ref="K69:K70"/>
     <mergeCell ref="K91:K94"/>
     <mergeCell ref="L91:L94"/>
     <mergeCell ref="K95:K99"/>
@@ -15990,6 +15962,28 @@
     <mergeCell ref="L77:L80"/>
     <mergeCell ref="K81:K82"/>
     <mergeCell ref="K85:K90"/>
+    <mergeCell ref="K50:K54"/>
+    <mergeCell ref="K57:K59"/>
+    <mergeCell ref="K60:K62"/>
+    <mergeCell ref="K63:K66"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="K29:K32"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="K42:K47"/>
+    <mergeCell ref="L42:L47"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="K20:K24"/>
+    <mergeCell ref="L20:L24"/>
+    <mergeCell ref="K25:K28"/>
+    <mergeCell ref="L25:L28"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="L9:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20400,7 +20394,7 @@
   </sheetPr>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/Meta/Analytes3.xlsx
+++ b/Meta/Analytes3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/vitense_kelsey_epa_gov/Documents/GL_Data/Meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="11_CFA7FA0AC8BEC675FF6906A82B7A2EC91D13FE60" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC01310B-AD51-451A-8A3D-A62B81AA7DBD}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="11_CFA7FA0AC8BEC675FF6906A82B7A2EC91D13FE60" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DACD712-8B8A-4774-9D3A-B8E3A322D6CD}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="19440" windowHeight="14880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <sheet name="Annie_Comments" sheetId="14" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1">CSMI_Map!$H$1:$H$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1">CSMI_Map!$H$1:$H$68</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3">GLENDA_Map!$B$1:$M$99</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Key!$A$1:$A$98</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7">NCCA_Map!$A$1:$A$57</definedName>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3703" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3711" uniqueCount="815">
   <si>
     <t>ANALYTE</t>
   </si>
@@ -2231,9 +2231,6 @@
     <t>This one is for Fluoremeter, which we are not using</t>
   </si>
   <si>
-    <t>Note: there are 2 temps - probably remove this one from Sequoia</t>
-  </si>
-  <si>
     <t>μm</t>
   </si>
   <si>
@@ -2462,13 +2459,55 @@
     <t>SpecificConductance</t>
   </si>
   <si>
-    <t>Oxy</t>
-  </si>
-  <si>
-    <t>CDOM</t>
-  </si>
-  <si>
-    <t>PAR</t>
+    <t>USGS DO</t>
+  </si>
+  <si>
+    <t>USGS fluorescence</t>
+  </si>
+  <si>
+    <t>USGS PAR from CTD</t>
+  </si>
+  <si>
+    <t>USGS turbidity - NTU. EPA doesn't seem to have turbidity.</t>
+  </si>
+  <si>
+    <t>This is USGS specific conductivity. Incorrectly mapped to remove due to copy/paste from EPA. Likely should have dealt with these by giving own study ID</t>
+  </si>
+  <si>
+    <t>USGS CDOM. Removing because only present in USGS CSMI 2021 CTD</t>
+  </si>
+  <si>
+    <t>Manually added for mapping USGS and EPA cpar</t>
+  </si>
+  <si>
+    <t>EPA temp. Note: there are 2 temps -  remove this one from Sequoia. Need to differentiate from USGS Temp</t>
+  </si>
+  <si>
+    <t>Cond_USGS</t>
+  </si>
+  <si>
+    <t>CDOM_USGS</t>
+  </si>
+  <si>
+    <t>PAR_USGS</t>
+  </si>
+  <si>
+    <t>Temp_USGS</t>
+  </si>
+  <si>
+    <t>Oxy_USGS</t>
+  </si>
+  <si>
+    <t>pH_USGS</t>
+  </si>
+  <si>
+    <t>cpar_USGS</t>
+  </si>
+  <si>
+    <t>Manually added for mapping USGS cpar</t>
+  </si>
+  <si>
+    <t>Turbidity_USGS</t>
   </si>
 </sst>
 </file>
@@ -3018,11 +3057,35 @@
     <xf numFmtId="3" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3030,10 +3093,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3047,30 +3110,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3379,7 +3418,7 @@
   </sheetPr>
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
@@ -3397,16 +3436,16 @@
         <v>5</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>754</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3420,7 +3459,7 @@
         <v>281</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>42</v>
@@ -3431,13 +3470,13 @@
         <v>347</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>22</v>
@@ -3448,13 +3487,13 @@
         <v>465</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>22</v>
@@ -3465,13 +3504,13 @@
         <v>469</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>281</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>42</v>
@@ -3482,13 +3521,13 @@
         <v>473</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>281</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>42</v>
@@ -3499,13 +3538,13 @@
         <v>620</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>22</v>
@@ -3516,13 +3555,13 @@
         <v>88</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>281</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -3539,7 +3578,7 @@
         <v>282</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>22</v>
@@ -3550,13 +3589,13 @@
         <v>93</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>284</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>227</v>
@@ -3573,7 +3612,7 @@
         <v>281</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>42</v>
@@ -3584,13 +3623,13 @@
         <v>506</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>281</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>42</v>
@@ -3601,13 +3640,13 @@
         <v>507</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>281</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>42</v>
@@ -3618,13 +3657,13 @@
         <v>509</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>22</v>
@@ -3635,13 +3674,13 @@
         <v>511</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>22</v>
@@ -3652,13 +3691,13 @@
         <v>515</v>
       </c>
       <c r="B16" s="75" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>233</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>233</v>
@@ -3669,13 +3708,13 @@
         <v>517</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>22</v>
@@ -3686,13 +3725,13 @@
         <v>63</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>22</v>
@@ -3703,13 +3742,13 @@
         <v>55</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>22</v>
@@ -3720,13 +3759,13 @@
         <v>538</v>
       </c>
       <c r="B20" s="75" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>279</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>539</v>
@@ -3737,13 +3776,13 @@
         <v>72</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>22</v>
@@ -3754,13 +3793,13 @@
         <v>204</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>281</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>42</v>
@@ -3771,13 +3810,13 @@
         <v>486</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>281</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>42</v>
@@ -3788,13 +3827,13 @@
         <v>478</v>
       </c>
       <c r="B24" s="75" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>279</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>539</v>
@@ -3805,13 +3844,13 @@
         <v>269</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>22</v>
@@ -3822,13 +3861,13 @@
         <v>223</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>281</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>42</v>
@@ -3842,13 +3881,13 @@
         <v>83</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3856,13 +3895,13 @@
         <v>66</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>22</v>
@@ -3873,13 +3912,13 @@
         <v>59</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>22</v>
@@ -3890,13 +3929,13 @@
         <v>572</v>
       </c>
       <c r="B30" s="75" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>279</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>539</v>
@@ -3907,13 +3946,13 @@
         <v>77</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>22</v>
@@ -3924,13 +3963,13 @@
         <v>232</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>233</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>233</v>
@@ -3941,13 +3980,13 @@
         <v>574</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>281</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>42</v>
@@ -3958,13 +3997,13 @@
         <v>575</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>281</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>42</v>
@@ -3981,7 +4020,7 @@
         <v>318</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>318</v>
@@ -3992,13 +4031,13 @@
         <v>588</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>22</v>
@@ -4009,13 +4048,13 @@
         <v>356</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>281</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>42</v>
@@ -4026,13 +4065,13 @@
         <v>594</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>281</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>42</v>
@@ -4043,13 +4082,13 @@
         <v>595</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>281</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>42</v>
@@ -4060,13 +4099,13 @@
         <v>95</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>281</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>42</v>
@@ -4077,13 +4116,13 @@
         <v>31</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>22</v>
@@ -4100,7 +4139,7 @@
         <v>326</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>326</v>
@@ -4111,13 +4150,13 @@
         <v>612</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>276</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>276</v>
@@ -4128,13 +4167,13 @@
         <v>609</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>277</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>277</v>
@@ -8168,10 +8207,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L124"/>
+  <dimension ref="A1:L127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79:XFD79"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9172,7 +9211,7 @@
       </c>
       <c r="L33" s="13"/>
     </row>
-    <row r="34" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
         <v>684</v>
       </c>
@@ -9203,7 +9242,7 @@
         <v>684</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>799</v>
+        <v>240</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -9212,16 +9251,20 @@
         <v>2021</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>223</v>
+        <v>268</v>
       </c>
       <c r="I35" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
+      <c r="J35" s="13" t="s">
+        <v>689</v>
+      </c>
+      <c r="K35" s="13" t="s">
+        <v>690</v>
+      </c>
       <c r="L35" s="13"/>
     </row>
     <row r="36" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9229,7 +9272,7 @@
         <v>684</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>93</v>
+        <v>797</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -9241,16 +9284,16 @@
         <v>227</v>
       </c>
       <c r="H36" s="20" t="s">
-        <v>268</v>
+        <v>93</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>280</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="L36" s="13"/>
     </row>
@@ -9259,7 +9302,7 @@
         <v>684</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -9268,7 +9311,7 @@
         <v>2021</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>268</v>
@@ -9277,19 +9320,19 @@
         <v>280</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="K37" s="13" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="L37" s="13"/>
     </row>
-    <row r="38" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
         <v>684</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>798</v>
+        <v>243</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -9298,49 +9341,45 @@
         <v>2021</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="H38" s="20" t="s">
-        <v>93</v>
+        <v>231</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>268</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>280</v>
       </c>
       <c r="J38" s="13" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="K38" s="13" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="L38" s="13"/>
     </row>
-    <row r="39" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" s="16" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
         <v>684</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
+      <c r="B39" s="13" t="s">
+        <v>696</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
       <c r="E39" s="13"/>
-      <c r="F39" s="23">
-        <v>2021</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="H39" s="7" t="s">
+      <c r="F39" s="71"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="I39" s="8" t="s">
+      <c r="I39" s="13" t="s">
         <v>280</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="K39" s="13" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="L39" s="13"/>
     </row>
@@ -9349,7 +9388,7 @@
         <v>684</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -9358,7 +9397,7 @@
         <v>2021</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>231</v>
+        <v>698</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>268</v>
@@ -9367,73 +9406,77 @@
         <v>280</v>
       </c>
       <c r="J40" s="13" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="K40" s="13" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="L40" s="13"/>
     </row>
-    <row r="41" spans="1:12" s="16" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
         <v>684</v>
       </c>
-      <c r="B41" s="13" t="s">
-        <v>696</v>
-      </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
+      <c r="B41" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
       <c r="E41" s="13"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13" t="s">
+      <c r="F41" s="23">
+        <v>2021</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="H41" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="I41" s="13" t="s">
+      <c r="I41" s="8" t="s">
         <v>280</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="L41" s="13"/>
     </row>
-    <row r="42" spans="1:12" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
         <v>684</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>224</v>
+        <v>369</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
-      <c r="E42" s="13" t="s">
-        <v>643</v>
-      </c>
+      <c r="E42" s="13"/>
       <c r="F42" s="23">
-        <v>2015</v>
-      </c>
-      <c r="G42" s="8"/>
+        <v>2021</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>231</v>
+      </c>
       <c r="H42" s="20" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13" t="s">
-        <v>644</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="J42" s="13" t="s">
+        <v>804</v>
+      </c>
+      <c r="K42" s="13"/>
       <c r="L42" s="13"/>
     </row>
-    <row r="43" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
         <v>684</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>800</v>
+        <v>701</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -9442,28 +9485,24 @@
         <v>2021</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>698</v>
-      </c>
-      <c r="H43" s="20" t="s">
-        <v>268</v>
+        <v>231</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>232</v>
       </c>
       <c r="I43" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J43" s="13" t="s">
-        <v>699</v>
-      </c>
-      <c r="K43" s="13" t="s">
-        <v>700</v>
-      </c>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
       <c r="L43" s="13"/>
     </row>
-    <row r="44" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
         <v>684</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>801</v>
+        <v>702</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -9472,28 +9511,26 @@
         <v>2021</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>698</v>
-      </c>
-      <c r="H44" s="20" t="s">
+        <v>703</v>
+      </c>
+      <c r="H44" s="7" t="s">
         <v>268</v>
       </c>
       <c r="I44" s="8" t="s">
         <v>280</v>
       </c>
       <c r="J44" s="13" t="s">
-        <v>699</v>
-      </c>
-      <c r="K44" s="13" t="s">
-        <v>700</v>
-      </c>
+        <v>704</v>
+      </c>
+      <c r="K44" s="13"/>
       <c r="L44" s="13"/>
     </row>
-    <row r="45" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
         <v>684</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>244</v>
+        <v>705</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -9502,7 +9539,7 @@
         <v>2021</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>268</v>
@@ -9511,19 +9548,17 @@
         <v>280</v>
       </c>
       <c r="J45" s="13" t="s">
-        <v>699</v>
-      </c>
-      <c r="K45" s="13" t="s">
-        <v>700</v>
-      </c>
+        <v>704</v>
+      </c>
+      <c r="K45" s="13"/>
       <c r="L45" s="13"/>
     </row>
-    <row r="46" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
         <v>684</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>245</v>
+        <v>707</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -9532,7 +9567,7 @@
         <v>2021</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>268</v>
@@ -9541,11 +9576,9 @@
         <v>280</v>
       </c>
       <c r="J46" s="13" t="s">
-        <v>699</v>
-      </c>
-      <c r="K46" s="13" t="s">
-        <v>700</v>
-      </c>
+        <v>704</v>
+      </c>
+      <c r="K46" s="13"/>
       <c r="L46" s="13"/>
     </row>
     <row r="47" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -9553,7 +9586,7 @@
         <v>684</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>369</v>
+        <v>709</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -9562,15 +9595,17 @@
         <v>2021</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="H47" s="20" t="s">
-        <v>232</v>
+        <v>13</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>268</v>
       </c>
       <c r="I47" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J47" s="13"/>
+      <c r="J47" s="13" t="s">
+        <v>704</v>
+      </c>
       <c r="K47" s="13"/>
       <c r="L47" s="13"/>
     </row>
@@ -9579,7 +9614,7 @@
         <v>684</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -9588,15 +9623,17 @@
         <v>2021</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>231</v>
+        <v>708</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="I48" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J48" s="13"/>
+      <c r="J48" s="13" t="s">
+        <v>704</v>
+      </c>
       <c r="K48" s="13"/>
       <c r="L48" s="13"/>
     </row>
@@ -9605,7 +9642,7 @@
         <v>684</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -9614,7 +9651,7 @@
         <v>2021</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>268</v>
@@ -9633,7 +9670,7 @@
         <v>684</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>705</v>
+        <v>83</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -9642,26 +9679,24 @@
         <v>2021</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>706</v>
+        <v>13</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>268</v>
+        <v>83</v>
       </c>
       <c r="I50" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J50" s="13" t="s">
-        <v>704</v>
-      </c>
+      <c r="J50" s="13"/>
       <c r="K50" s="13"/>
       <c r="L50" s="13"/>
     </row>
-    <row r="51" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="103.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
         <v>684</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -9670,7 +9705,7 @@
         <v>2021</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>268</v>
@@ -9678,10 +9713,10 @@
       <c r="I51" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J51" s="13" t="s">
-        <v>704</v>
-      </c>
-      <c r="K51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13" t="s">
+        <v>715</v>
+      </c>
       <c r="L51" s="13"/>
     </row>
     <row r="52" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -9689,7 +9724,7 @@
         <v>684</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>709</v>
+        <v>247</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -9698,7 +9733,7 @@
         <v>2021</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>13</v>
+        <v>716</v>
       </c>
       <c r="H52" s="7" t="s">
         <v>268</v>
@@ -9706,9 +9741,7 @@
       <c r="I52" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J52" s="13" t="s">
-        <v>704</v>
-      </c>
+      <c r="J52" s="13"/>
       <c r="K52" s="13"/>
       <c r="L52" s="13"/>
     </row>
@@ -9717,7 +9750,7 @@
         <v>684</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>710</v>
+        <v>249</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -9726,7 +9759,7 @@
         <v>2021</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="H53" s="7" t="s">
         <v>268</v>
@@ -9734,9 +9767,7 @@
       <c r="I53" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J53" s="13" t="s">
-        <v>704</v>
-      </c>
+      <c r="J53" s="13"/>
       <c r="K53" s="13"/>
       <c r="L53" s="13"/>
     </row>
@@ -9745,7 +9776,7 @@
         <v>684</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>328</v>
+        <v>250</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -9754,17 +9785,15 @@
         <v>2021</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="H54" s="20" t="s">
-        <v>609</v>
+        <v>716</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>268</v>
       </c>
       <c r="I54" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J54" s="13" t="s">
-        <v>704</v>
-      </c>
+      <c r="J54" s="13"/>
       <c r="K54" s="13"/>
       <c r="L54" s="13"/>
     </row>
@@ -9773,7 +9802,7 @@
         <v>684</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>711</v>
+        <v>251</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
@@ -9782,7 +9811,7 @@
         <v>2021</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="H55" s="7" t="s">
         <v>268</v>
@@ -9790,9 +9819,7 @@
       <c r="I55" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J55" s="13" t="s">
-        <v>704</v>
-      </c>
+      <c r="J55" s="13"/>
       <c r="K55" s="13"/>
       <c r="L55" s="13"/>
     </row>
@@ -9801,7 +9828,7 @@
         <v>684</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
@@ -9810,10 +9837,10 @@
         <v>2021</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>13</v>
+        <v>253</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>83</v>
+        <v>268</v>
       </c>
       <c r="I56" s="8" t="s">
         <v>280</v>
@@ -9822,12 +9849,12 @@
       <c r="K56" s="13"/>
       <c r="L56" s="13"/>
     </row>
-    <row r="57" spans="1:12" ht="103.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="13" t="s">
         <v>684</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>713</v>
+        <v>254</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
@@ -9836,7 +9863,7 @@
         <v>2021</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>268</v>
@@ -9845,9 +9872,7 @@
         <v>280</v>
       </c>
       <c r="J57" s="13"/>
-      <c r="K57" s="13" t="s">
-        <v>715</v>
-      </c>
+      <c r="K57" s="13"/>
       <c r="L57" s="13"/>
     </row>
     <row r="58" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -9855,7 +9880,7 @@
         <v>684</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -9864,7 +9889,7 @@
         <v>2021</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>716</v>
+        <v>231</v>
       </c>
       <c r="H58" s="7" t="s">
         <v>268</v>
@@ -9881,7 +9906,7 @@
         <v>684</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>249</v>
+        <v>717</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -9890,7 +9915,7 @@
         <v>2021</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>716</v>
+        <v>318</v>
       </c>
       <c r="H59" s="7" t="s">
         <v>268</v>
@@ -9907,7 +9932,7 @@
         <v>684</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>250</v>
+        <v>718</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
@@ -9916,7 +9941,7 @@
         <v>2021</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="H60" s="7" t="s">
         <v>268</v>
@@ -9933,7 +9958,7 @@
         <v>684</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>251</v>
+        <v>720</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -9942,7 +9967,7 @@
         <v>2021</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>716</v>
+        <v>13</v>
       </c>
       <c r="H61" s="7" t="s">
         <v>268</v>
@@ -9950,16 +9975,18 @@
       <c r="I61" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J61" s="13"/>
+      <c r="J61" s="13" t="s">
+        <v>721</v>
+      </c>
       <c r="K61" s="13"/>
       <c r="L61" s="13"/>
     </row>
-    <row r="62" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="13" t="s">
         <v>684</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>252</v>
+        <v>327</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
@@ -9968,7 +9995,7 @@
         <v>2021</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>253</v>
+        <v>719</v>
       </c>
       <c r="H62" s="7" t="s">
         <v>268</v>
@@ -9976,16 +10003,18 @@
       <c r="I62" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J62" s="13"/>
+      <c r="J62" s="13" t="s">
+        <v>805</v>
+      </c>
       <c r="K62" s="13"/>
       <c r="L62" s="13"/>
     </row>
-    <row r="63" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="13" t="s">
         <v>684</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
@@ -9994,7 +10023,7 @@
         <v>2021</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="H63" s="7" t="s">
         <v>268</v>
@@ -10006,12 +10035,12 @@
       <c r="K63" s="13"/>
       <c r="L63" s="13"/>
     </row>
-    <row r="64" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
         <v>684</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -10020,7 +10049,7 @@
         <v>2021</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="H64" s="7" t="s">
         <v>268</v>
@@ -10028,16 +10057,20 @@
       <c r="I64" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J64" s="13"/>
-      <c r="K64" s="13"/>
+      <c r="J64" s="13" t="s">
+        <v>723</v>
+      </c>
+      <c r="K64" s="13" t="s">
+        <v>724</v>
+      </c>
       <c r="L64" s="13"/>
     </row>
-    <row r="65" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
         <v>684</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>717</v>
+        <v>260</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -10046,7 +10079,7 @@
         <v>2021</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>318</v>
+        <v>725</v>
       </c>
       <c r="H65" s="7" t="s">
         <v>268</v>
@@ -10058,12 +10091,12 @@
       <c r="K65" s="13"/>
       <c r="L65" s="13"/>
     </row>
-    <row r="66" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="13" t="s">
         <v>684</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>718</v>
+        <v>262</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
@@ -10072,7 +10105,7 @@
         <v>2021</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="H66" s="7" t="s">
         <v>268</v>
@@ -10084,12 +10117,12 @@
       <c r="K66" s="13"/>
       <c r="L66" s="13"/>
     </row>
-    <row r="67" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="13" t="s">
         <v>684</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>720</v>
+        <v>263</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -10098,7 +10131,7 @@
         <v>2021</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>13</v>
+        <v>725</v>
       </c>
       <c r="H67" s="7" t="s">
         <v>268</v>
@@ -10106,9 +10139,7 @@
       <c r="I67" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J67" s="13" t="s">
-        <v>721</v>
-      </c>
+      <c r="J67" s="13"/>
       <c r="K67" s="13"/>
       <c r="L67" s="13"/>
     </row>
@@ -10117,7 +10148,7 @@
         <v>684</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>327</v>
+        <v>264</v>
       </c>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -10126,7 +10157,7 @@
         <v>2021</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="H68" s="7" t="s">
         <v>268</v>
@@ -10134,18 +10165,16 @@
       <c r="I68" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J68" s="13" t="s">
-        <v>722</v>
-      </c>
+      <c r="J68" s="13"/>
       <c r="K68" s="13"/>
       <c r="L68" s="13"/>
     </row>
-    <row r="69" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="13" t="s">
         <v>684</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>256</v>
+        <v>651</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
@@ -10153,16 +10182,16 @@
       <c r="F69" s="23">
         <v>2021</v>
       </c>
-      <c r="G69" s="8" t="s">
-        <v>723</v>
-      </c>
-      <c r="H69" s="7" t="s">
+      <c r="G69" s="8"/>
+      <c r="H69" s="20" t="s">
         <v>268</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="J69" s="13"/>
+        <v>437</v>
+      </c>
+      <c r="J69" s="13" t="s">
+        <v>799</v>
+      </c>
       <c r="K69" s="13"/>
       <c r="L69" s="13"/>
     </row>
@@ -10171,7 +10200,7 @@
         <v>684</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>258</v>
+        <v>810</v>
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -10180,20 +10209,18 @@
         <v>2021</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>268</v>
+        <v>223</v>
       </c>
       <c r="I70" s="8" t="s">
         <v>280</v>
       </c>
       <c r="J70" s="13" t="s">
-        <v>724</v>
-      </c>
-      <c r="K70" s="13" t="s">
-        <v>725</v>
-      </c>
+        <v>798</v>
+      </c>
+      <c r="K70" s="13"/>
       <c r="L70" s="13"/>
     </row>
     <row r="71" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10201,7 +10228,7 @@
         <v>684</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>260</v>
+        <v>806</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
@@ -10210,15 +10237,17 @@
         <v>2021</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>726</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>268</v>
+        <v>227</v>
+      </c>
+      <c r="H71" s="20" t="s">
+        <v>93</v>
       </c>
       <c r="I71" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J71" s="13"/>
+      <c r="J71" s="13" t="s">
+        <v>802</v>
+      </c>
       <c r="K71" s="13"/>
       <c r="L71" s="13"/>
     </row>
@@ -10227,7 +10256,7 @@
         <v>684</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>262</v>
+        <v>811</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
@@ -10235,25 +10264,21 @@
       <c r="F72" s="23">
         <v>2021</v>
       </c>
-      <c r="G72" s="8" t="s">
-        <v>726</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="I72" s="8" t="s">
-        <v>280</v>
-      </c>
+      <c r="G72" s="8"/>
+      <c r="H72" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="I72" s="8"/>
       <c r="J72" s="13"/>
       <c r="K72" s="13"/>
       <c r="L72" s="13"/>
     </row>
-    <row r="73" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="13" t="s">
         <v>684</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>263</v>
+        <v>814</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -10262,24 +10287,26 @@
         <v>2021</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>726</v>
-      </c>
-      <c r="H73" s="7" t="s">
-        <v>268</v>
+        <v>277</v>
+      </c>
+      <c r="H73" s="20" t="s">
+        <v>609</v>
       </c>
       <c r="I73" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J73" s="13"/>
+      <c r="J73" s="13" t="s">
+        <v>801</v>
+      </c>
       <c r="K73" s="13"/>
       <c r="L73" s="13"/>
     </row>
-    <row r="74" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="13" t="s">
         <v>684</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>264</v>
+        <v>809</v>
       </c>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
@@ -10287,137 +10314,129 @@
       <c r="F74" s="23">
         <v>2021</v>
       </c>
-      <c r="G74" s="8" t="s">
-        <v>726</v>
-      </c>
-      <c r="H74" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="I74" s="8" t="s">
-        <v>280</v>
-      </c>
+      <c r="G74" s="8"/>
+      <c r="H74" s="39" t="s">
+        <v>327</v>
+      </c>
+      <c r="I74" s="8"/>
       <c r="J74" s="13"/>
       <c r="K74" s="13"/>
       <c r="L74" s="13"/>
     </row>
-    <row r="75" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="13" t="s">
-        <v>727</v>
-      </c>
-      <c r="B75" s="39" t="s">
-        <v>202</v>
+        <v>684</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>807</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
-      <c r="E75" s="69"/>
-      <c r="F75" s="70">
+      <c r="E75" s="13"/>
+      <c r="F75" s="23">
         <v>2021</v>
       </c>
-      <c r="G75" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="H75" s="39" t="s">
-        <v>469</v>
-      </c>
-      <c r="I75" s="39" t="s">
+      <c r="G75" s="8"/>
+      <c r="H75" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="I75" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J75" s="41" t="s">
-        <v>728</v>
-      </c>
-      <c r="K75" s="41"/>
+      <c r="J75" s="13" t="s">
+        <v>803</v>
+      </c>
+      <c r="K75" s="13"/>
       <c r="L75" s="13"/>
     </row>
-    <row r="76" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="13" t="s">
-        <v>727</v>
+        <v>684</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>197</v>
+        <v>808</v>
       </c>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
-      <c r="E76" s="71"/>
+      <c r="E76" s="13"/>
       <c r="F76" s="23">
         <v>2021</v>
       </c>
-      <c r="G76" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>88</v>
+      <c r="G76" s="8"/>
+      <c r="H76" s="20" t="s">
+        <v>268</v>
       </c>
       <c r="I76" s="8" t="s">
         <v>280</v>
       </c>
       <c r="J76" s="13" t="s">
-        <v>729</v>
+        <v>800</v>
       </c>
       <c r="K76" s="13"/>
       <c r="L76" s="13"/>
     </row>
-    <row r="77" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="13" t="s">
-        <v>727</v>
+        <v>684</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>200</v>
+        <v>812</v>
       </c>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
-      <c r="E77" s="71"/>
+      <c r="E77" s="13"/>
       <c r="F77" s="23">
         <v>2021</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H77" s="7" t="s">
-        <v>574</v>
+        <v>231</v>
+      </c>
+      <c r="H77" s="20" t="s">
+        <v>232</v>
       </c>
       <c r="I77" s="8" t="s">
         <v>280</v>
       </c>
       <c r="J77" s="13" t="s">
-        <v>730</v>
+        <v>813</v>
       </c>
       <c r="K77" s="13"/>
       <c r="L77" s="13"/>
     </row>
     <row r="78" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="13" t="s">
-        <v>727</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>203</v>
+        <v>726</v>
+      </c>
+      <c r="B78" s="39" t="s">
+        <v>202</v>
       </c>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
-      <c r="E78" s="71"/>
-      <c r="F78" s="23">
+      <c r="E78" s="69"/>
+      <c r="F78" s="70">
         <v>2021</v>
       </c>
-      <c r="G78" s="8" t="s">
+      <c r="G78" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="H78" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="I78" s="8" t="s">
+      <c r="H78" s="39" t="s">
+        <v>469</v>
+      </c>
+      <c r="I78" s="39" t="s">
         <v>280</v>
       </c>
-      <c r="J78" s="13" t="s">
-        <v>731</v>
-      </c>
-      <c r="K78" s="13"/>
+      <c r="J78" s="41" t="s">
+        <v>727</v>
+      </c>
+      <c r="K78" s="41"/>
       <c r="L78" s="13"/>
     </row>
     <row r="79" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="13" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
@@ -10426,26 +10445,26 @@
         <v>2021</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>347</v>
+        <v>88</v>
       </c>
       <c r="I79" s="8" t="s">
         <v>280</v>
       </c>
       <c r="J79" s="13" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="K79" s="13"/>
       <c r="L79" s="13"/>
     </row>
     <row r="80" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="13" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>49</v>
+        <v>200</v>
       </c>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
@@ -10454,26 +10473,26 @@
         <v>2021</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>269</v>
+        <v>574</v>
       </c>
       <c r="I80" s="8" t="s">
         <v>280</v>
       </c>
       <c r="J80" s="13" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="K80" s="13"/>
       <c r="L80" s="13"/>
     </row>
     <row r="81" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="13" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
@@ -10485,23 +10504,23 @@
         <v>42</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>594</v>
+        <v>506</v>
       </c>
       <c r="I81" s="8" t="s">
         <v>280</v>
       </c>
       <c r="J81" s="13" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K81" s="13"/>
       <c r="L81" s="13"/>
     </row>
     <row r="82" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="13" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
@@ -10510,26 +10529,26 @@
         <v>2021</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>95</v>
+        <v>347</v>
       </c>
       <c r="I82" s="8" t="s">
         <v>280</v>
       </c>
       <c r="J82" s="13" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="K82" s="13"/>
       <c r="L82" s="13"/>
     </row>
     <row r="83" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="13" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
@@ -10538,26 +10557,26 @@
         <v>2021</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>31</v>
+        <v>269</v>
       </c>
       <c r="I83" s="8" t="s">
         <v>280</v>
       </c>
       <c r="J83" s="13" t="s">
-        <v>31</v>
+        <v>732</v>
       </c>
       <c r="K83" s="13"/>
       <c r="L83" s="13"/>
     </row>
     <row r="84" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="13" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
@@ -10566,26 +10585,26 @@
         <v>2021</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>736</v>
+        <v>42</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>356</v>
+        <v>594</v>
       </c>
       <c r="I84" s="8" t="s">
         <v>280</v>
       </c>
       <c r="J84" s="13" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="K84" s="13"/>
       <c r="L84" s="13"/>
     </row>
     <row r="85" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="13" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
@@ -10594,26 +10613,26 @@
         <v>2021</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="I85" s="8" t="s">
         <v>280</v>
       </c>
       <c r="J85" s="13" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="K85" s="13"/>
       <c r="L85" s="13"/>
     </row>
     <row r="86" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="13" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>195</v>
+        <v>31</v>
       </c>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
@@ -10625,87 +10644,79 @@
         <v>212</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="I86" s="8" t="s">
         <v>280</v>
       </c>
       <c r="J86" s="13" t="s">
-        <v>738</v>
+        <v>31</v>
       </c>
       <c r="K86" s="13"/>
       <c r="L86" s="13"/>
     </row>
     <row r="87" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="13" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
-      <c r="E87" s="13" t="s">
-        <v>739</v>
-      </c>
+      <c r="E87" s="71"/>
       <c r="F87" s="23">
         <v>2021</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>42</v>
+        <v>735</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>268</v>
+        <v>356</v>
       </c>
       <c r="I87" s="8" t="s">
         <v>280</v>
       </c>
       <c r="J87" s="13" t="s">
-        <v>740</v>
-      </c>
-      <c r="K87" s="13" t="s">
-        <v>599</v>
-      </c>
+        <v>736</v>
+      </c>
+      <c r="K87" s="13"/>
       <c r="L87" s="13"/>
     </row>
     <row r="88" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="13" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
-      <c r="E88" s="13" t="s">
-        <v>739</v>
-      </c>
+      <c r="E88" s="71"/>
       <c r="F88" s="23">
         <v>2021</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>268</v>
+        <v>72</v>
       </c>
       <c r="I88" s="8" t="s">
         <v>280</v>
       </c>
       <c r="J88" s="13" t="s">
-        <v>740</v>
-      </c>
-      <c r="K88" s="13" t="s">
-        <v>599</v>
-      </c>
+        <v>737</v>
+      </c>
+      <c r="K88" s="13"/>
       <c r="L88" s="13"/>
     </row>
     <row r="89" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="13" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
@@ -10714,94 +10725,102 @@
         <v>2021</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H89" s="9" t="s">
-        <v>23</v>
+        <v>212</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="I89" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J89" s="13"/>
+      <c r="J89" s="13" t="s">
+        <v>737</v>
+      </c>
       <c r="K89" s="13"/>
       <c r="L89" s="13"/>
     </row>
     <row r="90" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B90" s="72" t="s">
-        <v>202</v>
-      </c>
-      <c r="C90" s="72" t="s">
-        <v>452</v>
-      </c>
-      <c r="D90" s="72"/>
-      <c r="E90" s="73"/>
-      <c r="F90" s="74">
-        <v>2010</v>
-      </c>
-      <c r="G90" s="72" t="s">
-        <v>198</v>
-      </c>
-      <c r="H90" s="39" t="s">
-        <v>469</v>
-      </c>
-      <c r="I90" s="39" t="s">
+        <v>726</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="13" t="s">
+        <v>738</v>
+      </c>
+      <c r="F90" s="23">
+        <v>2021</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="I90" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J90" s="41"/>
-      <c r="K90" s="13"/>
+      <c r="J90" s="13" t="s">
+        <v>739</v>
+      </c>
+      <c r="K90" s="13" t="s">
+        <v>599</v>
+      </c>
       <c r="L90" s="13"/>
     </row>
     <row r="91" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B91" s="75" t="s">
-        <v>202</v>
-      </c>
-      <c r="C91" s="75" t="s">
-        <v>13</v>
-      </c>
-      <c r="D91" s="75"/>
-      <c r="E91" s="76"/>
-      <c r="F91" s="77">
-        <v>2010</v>
-      </c>
-      <c r="G91" s="75" t="s">
-        <v>198</v>
-      </c>
-      <c r="H91" s="39" t="s">
-        <v>469</v>
+        <v>726</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="13" t="s">
+        <v>738</v>
+      </c>
+      <c r="F91" s="23">
+        <v>2021</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>268</v>
       </c>
       <c r="I91" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J91" s="13"/>
-      <c r="K91" s="13"/>
+      <c r="J91" s="13" t="s">
+        <v>739</v>
+      </c>
+      <c r="K91" s="13" t="s">
+        <v>599</v>
+      </c>
       <c r="L91" s="13"/>
     </row>
     <row r="92" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B92" s="75" t="s">
-        <v>197</v>
-      </c>
-      <c r="C92" s="75" t="s">
-        <v>452</v>
-      </c>
-      <c r="D92" s="75"/>
-      <c r="E92" s="76"/>
-      <c r="F92" s="77">
-        <v>2010</v>
-      </c>
-      <c r="G92" s="75" t="s">
-        <v>198</v>
-      </c>
-      <c r="H92" s="7" t="s">
-        <v>88</v>
+        <v>726</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="71"/>
+      <c r="F92" s="23">
+        <v>2021</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H92" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="I92" s="8" t="s">
         <v>280</v>
@@ -10814,27 +10833,27 @@
       <c r="A93" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B93" s="75" t="s">
-        <v>204</v>
-      </c>
-      <c r="C93" s="75" t="s">
+      <c r="B93" s="72" t="s">
+        <v>202</v>
+      </c>
+      <c r="C93" s="72" t="s">
         <v>452</v>
       </c>
-      <c r="D93" s="75"/>
-      <c r="E93" s="76"/>
-      <c r="F93" s="77">
+      <c r="D93" s="72"/>
+      <c r="E93" s="73"/>
+      <c r="F93" s="74">
         <v>2010</v>
       </c>
-      <c r="G93" s="75" t="s">
+      <c r="G93" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="H93" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I93" s="8" t="s">
+      <c r="H93" s="39" t="s">
+        <v>469</v>
+      </c>
+      <c r="I93" s="39" t="s">
         <v>280</v>
       </c>
-      <c r="J93" s="13"/>
+      <c r="J93" s="41"/>
       <c r="K93" s="13"/>
       <c r="L93" s="13"/>
     </row>
@@ -10843,7 +10862,7 @@
         <v>119</v>
       </c>
       <c r="B94" s="75" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C94" s="75" t="s">
         <v>13</v>
@@ -10856,8 +10875,8 @@
       <c r="G94" s="75" t="s">
         <v>198</v>
       </c>
-      <c r="H94" s="7" t="s">
-        <v>204</v>
+      <c r="H94" s="39" t="s">
+        <v>469</v>
       </c>
       <c r="I94" s="8" t="s">
         <v>280</v>
@@ -10871,7 +10890,7 @@
         <v>119</v>
       </c>
       <c r="B95" s="75" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C95" s="75" t="s">
         <v>452</v>
@@ -10885,7 +10904,7 @@
         <v>198</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>574</v>
+        <v>88</v>
       </c>
       <c r="I95" s="8" t="s">
         <v>280</v>
@@ -10899,10 +10918,10 @@
         <v>119</v>
       </c>
       <c r="B96" s="75" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C96" s="75" t="s">
-        <v>13</v>
+        <v>452</v>
       </c>
       <c r="D96" s="75"/>
       <c r="E96" s="76"/>
@@ -10913,7 +10932,7 @@
         <v>198</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>574</v>
+        <v>204</v>
       </c>
       <c r="I96" s="8" t="s">
         <v>280</v>
@@ -10927,10 +10946,10 @@
         <v>119</v>
       </c>
       <c r="B97" s="75" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C97" s="75" t="s">
-        <v>452</v>
+        <v>13</v>
       </c>
       <c r="D97" s="75"/>
       <c r="E97" s="76"/>
@@ -10941,7 +10960,7 @@
         <v>198</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>506</v>
+        <v>204</v>
       </c>
       <c r="I97" s="8" t="s">
         <v>280</v>
@@ -10955,10 +10974,10 @@
         <v>119</v>
       </c>
       <c r="B98" s="75" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C98" s="75" t="s">
-        <v>13</v>
+        <v>452</v>
       </c>
       <c r="D98" s="75"/>
       <c r="E98" s="76"/>
@@ -10969,7 +10988,7 @@
         <v>198</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>506</v>
+        <v>574</v>
       </c>
       <c r="I98" s="8" t="s">
         <v>280</v>
@@ -10983,10 +11002,10 @@
         <v>119</v>
       </c>
       <c r="B99" s="75" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C99" s="75" t="s">
-        <v>452</v>
+        <v>13</v>
       </c>
       <c r="D99" s="75"/>
       <c r="E99" s="76"/>
@@ -10994,10 +11013,10 @@
         <v>2010</v>
       </c>
       <c r="G99" s="75" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>347</v>
+        <v>574</v>
       </c>
       <c r="I99" s="8" t="s">
         <v>280</v>
@@ -11011,10 +11030,10 @@
         <v>119</v>
       </c>
       <c r="B100" s="75" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="C100" s="75" t="s">
-        <v>13</v>
+        <v>452</v>
       </c>
       <c r="D100" s="75"/>
       <c r="E100" s="76"/>
@@ -11022,10 +11041,10 @@
         <v>2010</v>
       </c>
       <c r="G100" s="75" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>347</v>
+        <v>506</v>
       </c>
       <c r="I100" s="8" t="s">
         <v>280</v>
@@ -11039,10 +11058,10 @@
         <v>119</v>
       </c>
       <c r="B101" s="75" t="s">
-        <v>49</v>
+        <v>203</v>
       </c>
       <c r="C101" s="75" t="s">
-        <v>452</v>
+        <v>13</v>
       </c>
       <c r="D101" s="75"/>
       <c r="E101" s="76"/>
@@ -11050,10 +11069,10 @@
         <v>2010</v>
       </c>
       <c r="G101" s="75" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>269</v>
+        <v>506</v>
       </c>
       <c r="I101" s="8" t="s">
         <v>280</v>
@@ -11067,10 +11086,10 @@
         <v>119</v>
       </c>
       <c r="B102" s="75" t="s">
-        <v>49</v>
+        <v>193</v>
       </c>
       <c r="C102" s="75" t="s">
-        <v>13</v>
+        <v>452</v>
       </c>
       <c r="D102" s="75"/>
       <c r="E102" s="76"/>
@@ -11081,7 +11100,7 @@
         <v>194</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>269</v>
+        <v>347</v>
       </c>
       <c r="I102" s="8" t="s">
         <v>280</v>
@@ -11095,10 +11114,10 @@
         <v>119</v>
       </c>
       <c r="B103" s="75" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C103" s="75" t="s">
-        <v>452</v>
+        <v>13</v>
       </c>
       <c r="D103" s="75"/>
       <c r="E103" s="76"/>
@@ -11106,10 +11125,10 @@
         <v>2010</v>
       </c>
       <c r="G103" s="75" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>594</v>
+        <v>347</v>
       </c>
       <c r="I103" s="8" t="s">
         <v>280</v>
@@ -11123,10 +11142,10 @@
         <v>119</v>
       </c>
       <c r="B104" s="75" t="s">
-        <v>201</v>
+        <v>49</v>
       </c>
       <c r="C104" s="75" t="s">
-        <v>13</v>
+        <v>452</v>
       </c>
       <c r="D104" s="75"/>
       <c r="E104" s="76"/>
@@ -11134,10 +11153,10 @@
         <v>2010</v>
       </c>
       <c r="G104" s="75" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>594</v>
+        <v>269</v>
       </c>
       <c r="I104" s="8" t="s">
         <v>280</v>
@@ -11151,10 +11170,10 @@
         <v>119</v>
       </c>
       <c r="B105" s="75" t="s">
-        <v>209</v>
+        <v>49</v>
       </c>
       <c r="C105" s="75" t="s">
-        <v>485</v>
+        <v>13</v>
       </c>
       <c r="D105" s="75"/>
       <c r="E105" s="76"/>
@@ -11164,31 +11183,25 @@
       <c r="G105" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="H105" s="15" t="s">
-        <v>620</v>
-      </c>
-      <c r="I105" s="15" t="s">
-        <v>741</v>
-      </c>
-      <c r="J105" s="13" t="s">
-        <v>742</v>
-      </c>
-      <c r="K105" s="13" t="s">
-        <v>743</v>
-      </c>
-      <c r="L105" s="13" t="s">
-        <v>397</v>
-      </c>
+      <c r="H105" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="I105" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="J105" s="13"/>
+      <c r="K105" s="13"/>
+      <c r="L105" s="13"/>
     </row>
     <row r="106" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="13" t="s">
         <v>119</v>
       </c>
       <c r="B106" s="75" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C106" s="75" t="s">
-        <v>13</v>
+        <v>452</v>
       </c>
       <c r="D106" s="75"/>
       <c r="E106" s="76"/>
@@ -11196,33 +11209,27 @@
         <v>2010</v>
       </c>
       <c r="G106" s="75" t="s">
-        <v>194</v>
-      </c>
-      <c r="H106" s="15" t="s">
-        <v>620</v>
-      </c>
-      <c r="I106" s="15" t="s">
-        <v>741</v>
-      </c>
-      <c r="J106" s="13" t="s">
-        <v>742</v>
-      </c>
-      <c r="K106" s="13" t="s">
-        <v>744</v>
-      </c>
-      <c r="L106" s="13" t="s">
-        <v>397</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="H106" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="I106" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="J106" s="13"/>
+      <c r="K106" s="13"/>
+      <c r="L106" s="13"/>
     </row>
     <row r="107" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="13" t="s">
         <v>119</v>
       </c>
       <c r="B107" s="75" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C107" s="75" t="s">
-        <v>485</v>
+        <v>13</v>
       </c>
       <c r="D107" s="75"/>
       <c r="E107" s="76"/>
@@ -11230,33 +11237,27 @@
         <v>2010</v>
       </c>
       <c r="G107" s="75" t="s">
-        <v>194</v>
-      </c>
-      <c r="H107" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="I107" s="15" t="s">
-        <v>741</v>
-      </c>
-      <c r="J107" s="13" t="s">
-        <v>745</v>
-      </c>
-      <c r="K107" s="13" t="s">
-        <v>744</v>
-      </c>
-      <c r="L107" s="13" t="s">
-        <v>397</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="I107" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="J107" s="13"/>
+      <c r="K107" s="13"/>
+      <c r="L107" s="13"/>
     </row>
     <row r="108" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="13" t="s">
         <v>119</v>
       </c>
       <c r="B108" s="75" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C108" s="75" t="s">
-        <v>13</v>
+        <v>485</v>
       </c>
       <c r="D108" s="75"/>
       <c r="E108" s="76"/>
@@ -11267,16 +11268,16 @@
         <v>194</v>
       </c>
       <c r="H108" s="15" t="s">
-        <v>55</v>
+        <v>620</v>
       </c>
       <c r="I108" s="15" t="s">
+        <v>740</v>
+      </c>
+      <c r="J108" s="13" t="s">
         <v>741</v>
       </c>
-      <c r="J108" s="13" t="s">
-        <v>745</v>
-      </c>
       <c r="K108" s="13" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="L108" s="13" t="s">
         <v>397</v>
@@ -11287,10 +11288,10 @@
         <v>119</v>
       </c>
       <c r="B109" s="75" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C109" s="75" t="s">
-        <v>485</v>
+        <v>13</v>
       </c>
       <c r="D109" s="75"/>
       <c r="E109" s="76"/>
@@ -11301,16 +11302,16 @@
         <v>194</v>
       </c>
       <c r="H109" s="15" t="s">
-        <v>59</v>
+        <v>620</v>
       </c>
       <c r="I109" s="15" t="s">
+        <v>740</v>
+      </c>
+      <c r="J109" s="13" t="s">
         <v>741</v>
       </c>
-      <c r="J109" s="13" t="s">
-        <v>746</v>
-      </c>
       <c r="K109" s="13" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="L109" s="13" t="s">
         <v>397</v>
@@ -11321,10 +11322,10 @@
         <v>119</v>
       </c>
       <c r="B110" s="75" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C110" s="75" t="s">
-        <v>13</v>
+        <v>485</v>
       </c>
       <c r="D110" s="75"/>
       <c r="E110" s="76"/>
@@ -11335,16 +11336,16 @@
         <v>194</v>
       </c>
       <c r="H110" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I110" s="15" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J110" s="13" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="K110" s="13" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="L110" s="13" t="s">
         <v>397</v>
@@ -11355,10 +11356,10 @@
         <v>119</v>
       </c>
       <c r="B111" s="75" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C111" s="75" t="s">
-        <v>452</v>
+        <v>13</v>
       </c>
       <c r="D111" s="75"/>
       <c r="E111" s="76"/>
@@ -11366,27 +11367,33 @@
         <v>2010</v>
       </c>
       <c r="G111" s="75" t="s">
-        <v>198</v>
-      </c>
-      <c r="H111" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="I111" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="J111" s="13"/>
-      <c r="K111" s="13"/>
-      <c r="L111" s="13"/>
+        <v>194</v>
+      </c>
+      <c r="H111" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I111" s="15" t="s">
+        <v>740</v>
+      </c>
+      <c r="J111" s="13" t="s">
+        <v>744</v>
+      </c>
+      <c r="K111" s="13" t="s">
+        <v>743</v>
+      </c>
+      <c r="L111" s="13" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="112" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="13" t="s">
         <v>119</v>
       </c>
       <c r="B112" s="75" t="s">
-        <v>31</v>
+        <v>210</v>
       </c>
       <c r="C112" s="75" t="s">
-        <v>452</v>
+        <v>485</v>
       </c>
       <c r="D112" s="75"/>
       <c r="E112" s="76"/>
@@ -11396,22 +11403,28 @@
       <c r="G112" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="H112" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I112" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="J112" s="13"/>
-      <c r="K112" s="13"/>
-      <c r="L112" s="13"/>
+      <c r="H112" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I112" s="15" t="s">
+        <v>740</v>
+      </c>
+      <c r="J112" s="13" t="s">
+        <v>745</v>
+      </c>
+      <c r="K112" s="13" t="s">
+        <v>743</v>
+      </c>
+      <c r="L112" s="13" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="113" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="13" t="s">
         <v>119</v>
       </c>
       <c r="B113" s="75" t="s">
-        <v>31</v>
+        <v>210</v>
       </c>
       <c r="C113" s="75" t="s">
         <v>13</v>
@@ -11424,25 +11437,31 @@
       <c r="G113" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="H113" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I113" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="J113" s="13"/>
-      <c r="K113" s="13"/>
-      <c r="L113" s="13"/>
+      <c r="H113" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I113" s="15" t="s">
+        <v>740</v>
+      </c>
+      <c r="J113" s="13" t="s">
+        <v>745</v>
+      </c>
+      <c r="K113" s="13" t="s">
+        <v>743</v>
+      </c>
+      <c r="L113" s="13" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="114" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="13" t="s">
         <v>119</v>
       </c>
       <c r="B114" s="75" t="s">
-        <v>319</v>
+        <v>199</v>
       </c>
       <c r="C114" s="75" t="s">
-        <v>485</v>
+        <v>452</v>
       </c>
       <c r="D114" s="75"/>
       <c r="E114" s="76"/>
@@ -11450,10 +11469,10 @@
         <v>2010</v>
       </c>
       <c r="G114" s="75" t="s">
-        <v>747</v>
+        <v>198</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>319</v>
+        <v>95</v>
       </c>
       <c r="I114" s="8" t="s">
         <v>280</v>
@@ -11467,10 +11486,10 @@
         <v>119</v>
       </c>
       <c r="B115" s="75" t="s">
-        <v>319</v>
+        <v>31</v>
       </c>
       <c r="C115" s="75" t="s">
-        <v>13</v>
+        <v>452</v>
       </c>
       <c r="D115" s="75"/>
       <c r="E115" s="76"/>
@@ -11478,10 +11497,10 @@
         <v>2010</v>
       </c>
       <c r="G115" s="75" t="s">
-        <v>747</v>
+        <v>194</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>319</v>
+        <v>31</v>
       </c>
       <c r="I115" s="8" t="s">
         <v>280</v>
@@ -11495,10 +11514,10 @@
         <v>119</v>
       </c>
       <c r="B116" s="75" t="s">
-        <v>180</v>
+        <v>31</v>
       </c>
       <c r="C116" s="75" t="s">
-        <v>452</v>
+        <v>13</v>
       </c>
       <c r="D116" s="75"/>
       <c r="E116" s="76"/>
@@ -11506,17 +11525,15 @@
         <v>2010</v>
       </c>
       <c r="G116" s="75" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>356</v>
+        <v>31</v>
       </c>
       <c r="I116" s="8" t="s">
-        <v>748</v>
-      </c>
-      <c r="J116" s="13" t="s">
-        <v>749</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="J116" s="13"/>
       <c r="K116" s="13"/>
       <c r="L116" s="13"/>
     </row>
@@ -11525,10 +11542,10 @@
         <v>119</v>
       </c>
       <c r="B117" s="75" t="s">
-        <v>196</v>
+        <v>319</v>
       </c>
       <c r="C117" s="75" t="s">
-        <v>438</v>
+        <v>485</v>
       </c>
       <c r="D117" s="75"/>
       <c r="E117" s="76"/>
@@ -11536,10 +11553,10 @@
         <v>2010</v>
       </c>
       <c r="G117" s="75" t="s">
-        <v>194</v>
+        <v>746</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>72</v>
+        <v>319</v>
       </c>
       <c r="I117" s="8" t="s">
         <v>280</v>
@@ -11553,10 +11570,10 @@
         <v>119</v>
       </c>
       <c r="B118" s="75" t="s">
-        <v>195</v>
+        <v>319</v>
       </c>
       <c r="C118" s="75" t="s">
-        <v>438</v>
+        <v>13</v>
       </c>
       <c r="D118" s="75"/>
       <c r="E118" s="76"/>
@@ -11564,10 +11581,10 @@
         <v>2010</v>
       </c>
       <c r="G118" s="75" t="s">
-        <v>194</v>
+        <v>746</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>77</v>
+        <v>319</v>
       </c>
       <c r="I118" s="8" t="s">
         <v>280</v>
@@ -11581,10 +11598,10 @@
         <v>119</v>
       </c>
       <c r="B119" s="75" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="C119" s="75" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="D119" s="75"/>
       <c r="E119" s="76"/>
@@ -11595,17 +11612,15 @@
         <v>198</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>268</v>
+        <v>356</v>
       </c>
       <c r="I119" s="8" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="J119" s="13" t="s">
-        <v>751</v>
-      </c>
-      <c r="K119" s="13" t="s">
-        <v>599</v>
-      </c>
+        <v>748</v>
+      </c>
+      <c r="K119" s="13"/>
       <c r="L119" s="13"/>
     </row>
     <row r="120" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11613,10 +11628,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="75" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C120" s="75" t="s">
-        <v>13</v>
+        <v>438</v>
       </c>
       <c r="D120" s="75"/>
       <c r="E120" s="76"/>
@@ -11624,18 +11639,16 @@
         <v>2010</v>
       </c>
       <c r="G120" s="75" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>268</v>
+        <v>72</v>
       </c>
       <c r="I120" s="8" t="s">
-        <v>750</v>
+        <v>280</v>
       </c>
       <c r="J120" s="13"/>
-      <c r="K120" s="13" t="s">
-        <v>599</v>
-      </c>
+      <c r="K120" s="13"/>
       <c r="L120" s="13"/>
     </row>
     <row r="121" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11643,7 +11656,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="75" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C121" s="75" t="s">
         <v>438</v>
@@ -11654,18 +11667,16 @@
         <v>2010</v>
       </c>
       <c r="G121" s="75" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>268</v>
+        <v>77</v>
       </c>
       <c r="I121" s="8" t="s">
-        <v>750</v>
+        <v>280</v>
       </c>
       <c r="J121" s="13"/>
-      <c r="K121" s="13" t="s">
-        <v>599</v>
-      </c>
+      <c r="K121" s="13"/>
       <c r="L121" s="13"/>
     </row>
     <row r="122" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11673,10 +11684,10 @@
         <v>119</v>
       </c>
       <c r="B122" s="75" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C122" s="75" t="s">
-        <v>13</v>
+        <v>438</v>
       </c>
       <c r="D122" s="75"/>
       <c r="E122" s="76"/>
@@ -11690,9 +11701,11 @@
         <v>268</v>
       </c>
       <c r="I122" s="8" t="s">
+        <v>749</v>
+      </c>
+      <c r="J122" s="13" t="s">
         <v>750</v>
       </c>
-      <c r="J122" s="13"/>
       <c r="K122" s="13" t="s">
         <v>599</v>
       </c>
@@ -11703,10 +11716,10 @@
         <v>119</v>
       </c>
       <c r="B123" s="75" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C123" s="75" t="s">
-        <v>438</v>
+        <v>13</v>
       </c>
       <c r="D123" s="75"/>
       <c r="E123" s="76"/>
@@ -11714,16 +11727,18 @@
         <v>2010</v>
       </c>
       <c r="G123" s="75" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>23</v>
+        <v>268</v>
       </c>
       <c r="I123" s="8" t="s">
-        <v>280</v>
+        <v>749</v>
       </c>
       <c r="J123" s="13"/>
-      <c r="K123" s="13"/>
+      <c r="K123" s="13" t="s">
+        <v>599</v>
+      </c>
       <c r="L123" s="13"/>
     </row>
     <row r="124" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11731,10 +11746,10 @@
         <v>119</v>
       </c>
       <c r="B124" s="75" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C124" s="75" t="s">
-        <v>13</v>
+        <v>438</v>
       </c>
       <c r="D124" s="75"/>
       <c r="E124" s="76"/>
@@ -11742,17 +11757,105 @@
         <v>2010</v>
       </c>
       <c r="G124" s="75" t="s">
+        <v>198</v>
+      </c>
+      <c r="H124" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="I124" s="8" t="s">
+        <v>749</v>
+      </c>
+      <c r="J124" s="13"/>
+      <c r="K124" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="L124" s="13"/>
+    </row>
+    <row r="125" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B125" s="75" t="s">
+        <v>206</v>
+      </c>
+      <c r="C125" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125" s="75"/>
+      <c r="E125" s="76"/>
+      <c r="F125" s="77">
+        <v>2010</v>
+      </c>
+      <c r="G125" s="75" t="s">
+        <v>198</v>
+      </c>
+      <c r="H125" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="I125" s="8" t="s">
+        <v>749</v>
+      </c>
+      <c r="J125" s="13"/>
+      <c r="K125" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="L125" s="13"/>
+    </row>
+    <row r="126" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B126" s="75" t="s">
+        <v>207</v>
+      </c>
+      <c r="C126" s="75" t="s">
+        <v>438</v>
+      </c>
+      <c r="D126" s="75"/>
+      <c r="E126" s="76"/>
+      <c r="F126" s="77">
+        <v>2010</v>
+      </c>
+      <c r="G126" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="H124" s="7" t="s">
+      <c r="H126" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I124" s="15" t="s">
-        <v>752</v>
-      </c>
-      <c r="J124" s="13"/>
-      <c r="K124" s="13"/>
-      <c r="L124" s="13"/>
+      <c r="I126" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="J126" s="13"/>
+      <c r="K126" s="13"/>
+      <c r="L126" s="13"/>
+    </row>
+    <row r="127" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B127" s="75" t="s">
+        <v>207</v>
+      </c>
+      <c r="C127" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127" s="75"/>
+      <c r="E127" s="76"/>
+      <c r="F127" s="77">
+        <v>2010</v>
+      </c>
+      <c r="G127" s="75" t="s">
+        <v>194</v>
+      </c>
+      <c r="H127" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I127" s="15" t="s">
+        <v>751</v>
+      </c>
+      <c r="J127" s="13"/>
+      <c r="K127" s="13"/>
+      <c r="L127" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12165,8 +12268,8 @@
       <c r="J2" s="49" t="s">
         <v>437</v>
       </c>
-      <c r="K2" s="78"/>
-      <c r="L2" s="80"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="88"/>
       <c r="M2" s="40" t="s">
         <v>437</v>
       </c>
@@ -12203,8 +12306,8 @@
       <c r="J3" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K3" s="79"/>
-      <c r="L3" s="81"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="89"/>
       <c r="M3" s="9" t="s">
         <v>437</v>
       </c>
@@ -12241,8 +12344,8 @@
       <c r="J4" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K4" s="79"/>
-      <c r="L4" s="81"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="89"/>
       <c r="M4" s="9" t="s">
         <v>437</v>
       </c>
@@ -12277,8 +12380,8 @@
       <c r="J5" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K5" s="79"/>
-      <c r="L5" s="81"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="89"/>
       <c r="M5" s="9" t="s">
         <v>437</v>
       </c>
@@ -12315,10 +12418,10 @@
       <c r="J6" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K6" s="82" t="s">
+      <c r="K6" s="87" t="s">
         <v>447</v>
       </c>
-      <c r="L6" s="84"/>
+      <c r="L6" s="92"/>
       <c r="M6" s="9" t="s">
         <v>437</v>
       </c>
@@ -12355,8 +12458,8 @@
       <c r="J7" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K7" s="79"/>
-      <c r="L7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="93"/>
       <c r="M7" s="9" t="s">
         <v>437</v>
       </c>
@@ -12391,8 +12494,8 @@
       <c r="J8" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="K8" s="83"/>
-      <c r="L8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="94"/>
       <c r="M8" s="9" t="s">
         <v>437</v>
       </c>
@@ -12429,10 +12532,10 @@
       <c r="J9" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K9" s="87" t="s">
+      <c r="K9" s="95" t="s">
         <v>455</v>
       </c>
-      <c r="L9" s="89" t="s">
+      <c r="L9" s="90" t="s">
         <v>456</v>
       </c>
       <c r="M9" s="40" t="s">
@@ -12471,8 +12574,8 @@
       <c r="J10" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K10" s="88"/>
-      <c r="L10" s="81"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="89"/>
       <c r="M10" s="9" t="s">
         <v>437</v>
       </c>
@@ -12509,8 +12612,8 @@
       <c r="J11" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K11" s="88"/>
-      <c r="L11" s="81"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="89"/>
       <c r="M11" s="9" t="s">
         <v>437</v>
       </c>
@@ -12789,7 +12892,7 @@
       <c r="J18" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K18" s="82"/>
+      <c r="K18" s="87"/>
       <c r="L18" s="38"/>
       <c r="M18" s="9" t="s">
         <v>437</v>
@@ -12827,7 +12930,7 @@
       <c r="J19" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="K19" s="83"/>
+      <c r="K19" s="86"/>
       <c r="L19" s="60"/>
       <c r="M19" s="43" t="s">
         <v>437</v>
@@ -12865,10 +12968,10 @@
       <c r="J20" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K20" s="82" t="s">
+      <c r="K20" s="87" t="s">
         <v>490</v>
       </c>
-      <c r="L20" s="89" t="s">
+      <c r="L20" s="90" t="s">
         <v>491</v>
       </c>
       <c r="M20" s="9" t="s">
@@ -12907,8 +13010,8 @@
       <c r="J21" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K21" s="79"/>
-      <c r="L21" s="81"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="89"/>
       <c r="M21" s="9" t="s">
         <v>437</v>
       </c>
@@ -12943,8 +13046,8 @@
       <c r="J22" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K22" s="79"/>
-      <c r="L22" s="81"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="89"/>
       <c r="M22" s="9" t="s">
         <v>437</v>
       </c>
@@ -12981,8 +13084,8 @@
       <c r="J23" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K23" s="79"/>
-      <c r="L23" s="81"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="89"/>
       <c r="M23" s="9" t="s">
         <v>437</v>
       </c>
@@ -13019,8 +13122,8 @@
       <c r="J24" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K24" s="79"/>
-      <c r="L24" s="81"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="89"/>
       <c r="M24" s="9" t="s">
         <v>437</v>
       </c>
@@ -13057,10 +13160,10 @@
       <c r="J25" s="49" t="s">
         <v>437</v>
       </c>
-      <c r="K25" s="78" t="s">
+      <c r="K25" s="84" t="s">
         <v>497</v>
       </c>
-      <c r="L25" s="80" t="s">
+      <c r="L25" s="88" t="s">
         <v>498</v>
       </c>
       <c r="M25" s="40" t="s">
@@ -13099,8 +13202,8 @@
       <c r="J26" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K26" s="79"/>
-      <c r="L26" s="81"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="89"/>
       <c r="M26" s="9" t="s">
         <v>437</v>
       </c>
@@ -13137,8 +13240,8 @@
       <c r="J27" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K27" s="79"/>
-      <c r="L27" s="81"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="89"/>
       <c r="M27" s="9" t="s">
         <v>437</v>
       </c>
@@ -13173,8 +13276,8 @@
       <c r="J28" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="K28" s="83"/>
-      <c r="L28" s="90"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="91"/>
       <c r="M28" s="43" t="s">
         <v>437</v>
       </c>
@@ -13211,7 +13314,7 @@
       <c r="J29" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K29" s="82" t="s">
+      <c r="K29" s="87" t="s">
         <v>503</v>
       </c>
       <c r="L29" s="38"/>
@@ -13251,7 +13354,7 @@
       <c r="J30" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K30" s="79"/>
+      <c r="K30" s="85"/>
       <c r="L30" s="38"/>
       <c r="M30" s="9" t="s">
         <v>437</v>
@@ -13289,7 +13392,7 @@
       <c r="J31" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K31" s="79"/>
+      <c r="K31" s="85"/>
       <c r="L31" s="38"/>
       <c r="M31" s="9" t="s">
         <v>437</v>
@@ -13325,7 +13428,7 @@
       <c r="J32" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K32" s="79"/>
+      <c r="K32" s="85"/>
       <c r="L32" s="38"/>
       <c r="M32" s="9" t="s">
         <v>437</v>
@@ -13363,7 +13466,7 @@
       <c r="J33" s="49" t="s">
         <v>437</v>
       </c>
-      <c r="K33" s="78" t="s">
+      <c r="K33" s="84" t="s">
         <v>470</v>
       </c>
       <c r="L33" s="59" t="s">
@@ -13405,7 +13508,7 @@
       <c r="J34" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="K34" s="83"/>
+      <c r="K34" s="86"/>
       <c r="L34" s="60"/>
       <c r="M34" s="43" t="s">
         <v>437</v>
@@ -13443,7 +13546,7 @@
       <c r="J35" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K35" s="82" t="s">
+      <c r="K35" s="87" t="s">
         <v>470</v>
       </c>
       <c r="L35" s="38" t="s">
@@ -13485,7 +13588,7 @@
       <c r="J36" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K36" s="79"/>
+      <c r="K36" s="85"/>
       <c r="L36" s="38"/>
       <c r="M36" s="9" t="s">
         <v>437</v>
@@ -13602,7 +13705,7 @@
       <c r="K39" s="62" t="s">
         <v>520</v>
       </c>
-      <c r="L39" s="80"/>
+      <c r="L39" s="88"/>
       <c r="M39" s="40" t="s">
         <v>437</v>
       </c>
@@ -13640,7 +13743,7 @@
         <v>437</v>
       </c>
       <c r="K40" s="51"/>
-      <c r="L40" s="81"/>
+      <c r="L40" s="89"/>
       <c r="M40" s="9" t="s">
         <v>437</v>
       </c>
@@ -13719,10 +13822,10 @@
       <c r="J42" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K42" s="82" t="s">
+      <c r="K42" s="87" t="s">
         <v>527</v>
       </c>
-      <c r="L42" s="89" t="s">
+      <c r="L42" s="90" t="s">
         <v>528</v>
       </c>
       <c r="M42" s="40" t="s">
@@ -13761,8 +13864,8 @@
       <c r="J43" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K43" s="79"/>
-      <c r="L43" s="81"/>
+      <c r="K43" s="85"/>
+      <c r="L43" s="89"/>
       <c r="M43" s="9" t="s">
         <v>437</v>
       </c>
@@ -13799,8 +13902,8 @@
       <c r="J44" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K44" s="79"/>
-      <c r="L44" s="81"/>
+      <c r="K44" s="85"/>
+      <c r="L44" s="89"/>
       <c r="M44" s="9" t="s">
         <v>437</v>
       </c>
@@ -13835,8 +13938,8 @@
       <c r="J45" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K45" s="79"/>
-      <c r="L45" s="81"/>
+      <c r="K45" s="85"/>
+      <c r="L45" s="89"/>
       <c r="M45" s="9" t="s">
         <v>437</v>
       </c>
@@ -13873,8 +13976,8 @@
       <c r="J46" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K46" s="79"/>
-      <c r="L46" s="81"/>
+      <c r="K46" s="85"/>
+      <c r="L46" s="89"/>
       <c r="M46" s="9" t="s">
         <v>437</v>
       </c>
@@ -13911,8 +14014,8 @@
       <c r="J47" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K47" s="79"/>
-      <c r="L47" s="81"/>
+      <c r="K47" s="85"/>
+      <c r="L47" s="89"/>
       <c r="M47" s="9" t="s">
         <v>437</v>
       </c>
@@ -14029,7 +14132,7 @@
       <c r="J50" s="49" t="s">
         <v>437</v>
       </c>
-      <c r="K50" s="91" t="s">
+      <c r="K50" s="78" t="s">
         <v>541</v>
       </c>
       <c r="L50" s="59"/>
@@ -14069,7 +14172,7 @@
       <c r="J51" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K51" s="88"/>
+      <c r="K51" s="79"/>
       <c r="L51" s="38"/>
       <c r="M51" s="40" t="s">
         <v>437</v>
@@ -14107,7 +14210,7 @@
       <c r="J52" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K52" s="88"/>
+      <c r="K52" s="79"/>
       <c r="L52" s="38"/>
       <c r="M52" s="40" t="s">
         <v>437</v>
@@ -14145,7 +14248,7 @@
       <c r="J53" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K53" s="88"/>
+      <c r="K53" s="79"/>
       <c r="L53" s="38"/>
       <c r="M53" s="40" t="s">
         <v>437</v>
@@ -14181,7 +14284,7 @@
       <c r="J54" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="K54" s="92"/>
+      <c r="K54" s="80"/>
       <c r="L54" s="60"/>
       <c r="M54" s="40" t="s">
         <v>437</v>
@@ -14301,7 +14404,7 @@
       <c r="J57" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K57" s="82" t="s">
+      <c r="K57" s="87" t="s">
         <v>558</v>
       </c>
       <c r="L57" s="38"/>
@@ -14341,7 +14444,7 @@
       <c r="J58" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K58" s="79"/>
+      <c r="K58" s="85"/>
       <c r="L58" s="38"/>
       <c r="M58" s="9" t="s">
         <v>437</v>
@@ -14377,7 +14480,7 @@
       <c r="J59" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K59" s="79"/>
+      <c r="K59" s="85"/>
       <c r="L59" s="38"/>
       <c r="M59" s="9" t="s">
         <v>437</v>
@@ -14415,7 +14518,7 @@
       <c r="J60" s="40" t="s">
         <v>437</v>
       </c>
-      <c r="K60" s="80" t="s">
+      <c r="K60" s="88" t="s">
         <v>563</v>
       </c>
       <c r="L60" s="59"/>
@@ -14455,7 +14558,7 @@
       <c r="J61" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="K61" s="81"/>
+      <c r="K61" s="89"/>
       <c r="L61" s="38" t="s">
         <v>565</v>
       </c>
@@ -14495,7 +14598,7 @@
       <c r="J62" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K62" s="81"/>
+      <c r="K62" s="89"/>
       <c r="L62" s="38" t="s">
         <v>567</v>
       </c>
@@ -14535,7 +14638,7 @@
       <c r="J63" s="63" t="s">
         <v>437</v>
       </c>
-      <c r="K63" s="82"/>
+      <c r="K63" s="87"/>
       <c r="L63" s="38"/>
       <c r="M63" s="9" t="s">
         <v>437</v>
@@ -14573,7 +14676,7 @@
       <c r="J64" s="63" t="s">
         <v>437</v>
       </c>
-      <c r="K64" s="79"/>
+      <c r="K64" s="85"/>
       <c r="L64" s="38"/>
       <c r="M64" s="9" t="s">
         <v>437</v>
@@ -14611,7 +14714,7 @@
       <c r="J65" s="63" t="s">
         <v>437</v>
       </c>
-      <c r="K65" s="79"/>
+      <c r="K65" s="85"/>
       <c r="L65" s="38" t="s">
         <v>567</v>
       </c>
@@ -14649,7 +14752,7 @@
       <c r="J66" s="63" t="s">
         <v>437</v>
       </c>
-      <c r="K66" s="79"/>
+      <c r="K66" s="85"/>
       <c r="L66" s="13"/>
       <c r="M66" s="50" t="s">
         <v>437</v>
@@ -14763,7 +14866,7 @@
       <c r="J69" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K69" s="82" t="s">
+      <c r="K69" s="87" t="s">
         <v>470</v>
       </c>
       <c r="L69" s="38" t="s">
@@ -14805,7 +14908,7 @@
       <c r="J70" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K70" s="79"/>
+      <c r="K70" s="85"/>
       <c r="L70" s="38"/>
       <c r="M70" s="9" t="s">
         <v>437</v>
@@ -14883,7 +14986,7 @@
       <c r="J72" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K72" s="82"/>
+      <c r="K72" s="87"/>
       <c r="L72" s="38"/>
       <c r="M72" s="9" t="s">
         <v>437</v>
@@ -14919,7 +15022,7 @@
       <c r="J73" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K73" s="79"/>
+      <c r="K73" s="85"/>
       <c r="L73" s="38"/>
       <c r="M73" s="9" t="s">
         <v>437</v>
@@ -14955,7 +15058,7 @@
       <c r="J74" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K74" s="79"/>
+      <c r="K74" s="85"/>
       <c r="L74" s="38"/>
       <c r="M74" s="9" t="s">
         <v>437</v>
@@ -14989,7 +15092,7 @@
       <c r="J75" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="K75" s="83"/>
+      <c r="K75" s="86"/>
       <c r="L75" s="60"/>
       <c r="M75" s="9" t="s">
         <v>437</v>
@@ -15067,10 +15170,10 @@
       <c r="J77" s="49" t="s">
         <v>437</v>
       </c>
-      <c r="K77" s="91" t="s">
+      <c r="K77" s="78" t="s">
         <v>590</v>
       </c>
-      <c r="L77" s="78" t="s">
+      <c r="L77" s="84" t="s">
         <v>591</v>
       </c>
       <c r="M77" s="40" t="s">
@@ -15111,8 +15214,8 @@
       <c r="J78" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K78" s="92"/>
-      <c r="L78" s="94"/>
+      <c r="K78" s="80"/>
+      <c r="L78" s="82"/>
       <c r="M78" s="50" t="s">
         <v>437</v>
       </c>
@@ -15152,7 +15255,7 @@
       <c r="K79" s="38" t="s">
         <v>592</v>
       </c>
-      <c r="L79" s="94"/>
+      <c r="L79" s="82"/>
       <c r="M79" s="50" t="s">
         <v>437</v>
       </c>
@@ -15192,7 +15295,7 @@
       <c r="K80" s="38" t="s">
         <v>592</v>
       </c>
-      <c r="L80" s="83"/>
+      <c r="L80" s="86"/>
       <c r="M80" s="9" t="s">
         <v>437</v>
       </c>
@@ -15229,7 +15332,7 @@
       <c r="J81" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K81" s="82" t="s">
+      <c r="K81" s="87" t="s">
         <v>470</v>
       </c>
       <c r="L81" s="38" t="s">
@@ -15271,7 +15374,7 @@
       <c r="J82" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K82" s="79"/>
+      <c r="K82" s="85"/>
       <c r="L82" s="38"/>
       <c r="M82" s="9" t="s">
         <v>437</v>
@@ -15393,7 +15496,7 @@
       <c r="J85" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K85" s="82" t="s">
+      <c r="K85" s="87" t="s">
         <v>604</v>
       </c>
       <c r="L85" s="38"/>
@@ -15433,7 +15536,7 @@
       <c r="J86" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K86" s="79"/>
+      <c r="K86" s="85"/>
       <c r="L86" s="38"/>
       <c r="M86" s="9" t="s">
         <v>437</v>
@@ -15471,7 +15574,7 @@
       <c r="J87" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K87" s="79"/>
+      <c r="K87" s="85"/>
       <c r="L87" s="38"/>
       <c r="M87" s="9" t="s">
         <v>437</v>
@@ -15507,7 +15610,7 @@
       <c r="J88" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K88" s="79"/>
+      <c r="K88" s="85"/>
       <c r="L88" s="38"/>
       <c r="M88" s="9" t="s">
         <v>437</v>
@@ -15545,7 +15648,7 @@
       <c r="J89" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K89" s="79"/>
+      <c r="K89" s="85"/>
       <c r="L89" s="38"/>
       <c r="M89" s="9" t="s">
         <v>437</v>
@@ -15583,7 +15686,7 @@
       <c r="J90" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="K90" s="79"/>
+      <c r="K90" s="85"/>
       <c r="L90" s="38"/>
       <c r="M90" s="9" t="s">
         <v>437</v>
@@ -15621,10 +15724,10 @@
       <c r="J91" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K91" s="91" t="s">
+      <c r="K91" s="78" t="s">
         <v>610</v>
       </c>
-      <c r="L91" s="93" t="s">
+      <c r="L91" s="81" t="s">
         <v>611</v>
       </c>
       <c r="M91" s="40" t="s">
@@ -15663,8 +15766,8 @@
       <c r="J92" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="K92" s="88"/>
-      <c r="L92" s="94"/>
+      <c r="K92" s="79"/>
+      <c r="L92" s="82"/>
       <c r="M92" s="9" t="s">
         <v>437</v>
       </c>
@@ -15701,8 +15804,8 @@
       <c r="J93" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="K93" s="88"/>
-      <c r="L93" s="94"/>
+      <c r="K93" s="79"/>
+      <c r="L93" s="82"/>
       <c r="M93" s="9" t="s">
         <v>437</v>
       </c>
@@ -15737,8 +15840,8 @@
       <c r="J94" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="K94" s="92"/>
-      <c r="L94" s="95"/>
+      <c r="K94" s="80"/>
+      <c r="L94" s="83"/>
       <c r="M94" s="9" t="s">
         <v>437</v>
       </c>
@@ -15775,7 +15878,7 @@
       <c r="J95" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K95" s="78"/>
+      <c r="K95" s="84"/>
       <c r="L95" s="38"/>
       <c r="M95" s="40" t="s">
         <v>437</v>
@@ -15813,7 +15916,7 @@
       <c r="J96" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K96" s="79"/>
+      <c r="K96" s="85"/>
       <c r="L96" s="38"/>
       <c r="M96" s="40" t="s">
         <v>437</v>
@@ -15851,7 +15954,7 @@
       <c r="J97" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K97" s="79"/>
+      <c r="K97" s="85"/>
       <c r="L97" s="38"/>
       <c r="M97" s="40" t="s">
         <v>437</v>
@@ -15889,7 +15992,7 @@
       <c r="J98" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K98" s="79"/>
+      <c r="K98" s="85"/>
       <c r="L98" s="38"/>
       <c r="M98" s="40" t="s">
         <v>437</v>
@@ -15925,7 +16028,7 @@
       <c r="J99" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="K99" s="83"/>
+      <c r="K99" s="86"/>
       <c r="L99" s="53"/>
       <c r="M99" s="55" t="s">
         <v>437</v>
@@ -15954,6 +16057,28 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="K20:K24"/>
+    <mergeCell ref="L20:L24"/>
+    <mergeCell ref="K25:K28"/>
+    <mergeCell ref="L25:L28"/>
+    <mergeCell ref="K29:K32"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="K42:K47"/>
+    <mergeCell ref="L42:L47"/>
+    <mergeCell ref="K50:K54"/>
+    <mergeCell ref="K57:K59"/>
+    <mergeCell ref="K60:K62"/>
+    <mergeCell ref="K63:K66"/>
+    <mergeCell ref="K69:K70"/>
     <mergeCell ref="K91:K94"/>
     <mergeCell ref="L91:L94"/>
     <mergeCell ref="K95:K99"/>
@@ -15962,28 +16087,6 @@
     <mergeCell ref="L77:L80"/>
     <mergeCell ref="K81:K82"/>
     <mergeCell ref="K85:K90"/>
-    <mergeCell ref="K50:K54"/>
-    <mergeCell ref="K57:K59"/>
-    <mergeCell ref="K60:K62"/>
-    <mergeCell ref="K63:K66"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="K29:K32"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="K42:K47"/>
-    <mergeCell ref="L42:L47"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="K20:K24"/>
-    <mergeCell ref="L20:L24"/>
-    <mergeCell ref="K25:K28"/>
-    <mergeCell ref="L25:L28"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="L9:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Meta/Analytes3.xlsx
+++ b/Meta/Analytes3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/vitense_kelsey_epa_gov/Documents/GL_Data/Meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="11_CFA7FA0AC8BEC675FF6906A82B7A2EC91D13FE60" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DACD712-8B8A-4774-9D3A-B8E3A322D6CD}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="11_CFA7FA0AC8BEC675FF6906A82B7A2EC91D13FE60" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60E1EFB6-ACEC-45DE-9A93-8D246996F446}"/>
   <bookViews>
-    <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3711" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3715" uniqueCount="817">
   <si>
     <t>ANALYTE</t>
   </si>
@@ -2508,6 +2508,12 @@
   </si>
   <si>
     <t>Turbidity_USGS</t>
+  </si>
+  <si>
+    <t>par</t>
+  </si>
+  <si>
+    <t>Remove because no surface PAR to compute CPAR</t>
   </si>
 </sst>
 </file>
@@ -3057,35 +3063,11 @@
     <xf numFmtId="3" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3093,10 +3075,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3110,6 +3092,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8209,7 +8215,7 @@
   </sheetPr>
   <dimension ref="A1:L127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A61" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
@@ -11867,10 +11873,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12165,6 +12171,20 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>625</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>815</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>816</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12268,8 +12288,8 @@
       <c r="J2" s="49" t="s">
         <v>437</v>
       </c>
-      <c r="K2" s="84"/>
-      <c r="L2" s="88"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="80"/>
       <c r="M2" s="40" t="s">
         <v>437</v>
       </c>
@@ -12306,8 +12326,8 @@
       <c r="J3" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K3" s="85"/>
-      <c r="L3" s="89"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="81"/>
       <c r="M3" s="9" t="s">
         <v>437</v>
       </c>
@@ -12344,8 +12364,8 @@
       <c r="J4" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K4" s="85"/>
-      <c r="L4" s="89"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="81"/>
       <c r="M4" s="9" t="s">
         <v>437</v>
       </c>
@@ -12380,8 +12400,8 @@
       <c r="J5" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K5" s="85"/>
-      <c r="L5" s="89"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="81"/>
       <c r="M5" s="9" t="s">
         <v>437</v>
       </c>
@@ -12418,10 +12438,10 @@
       <c r="J6" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K6" s="87" t="s">
+      <c r="K6" s="82" t="s">
         <v>447</v>
       </c>
-      <c r="L6" s="92"/>
+      <c r="L6" s="84"/>
       <c r="M6" s="9" t="s">
         <v>437</v>
       </c>
@@ -12458,8 +12478,8 @@
       <c r="J7" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K7" s="85"/>
-      <c r="L7" s="93"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="85"/>
       <c r="M7" s="9" t="s">
         <v>437</v>
       </c>
@@ -12494,8 +12514,8 @@
       <c r="J8" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="K8" s="86"/>
-      <c r="L8" s="94"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="86"/>
       <c r="M8" s="9" t="s">
         <v>437</v>
       </c>
@@ -12532,10 +12552,10 @@
       <c r="J9" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K9" s="95" t="s">
+      <c r="K9" s="87" t="s">
         <v>455</v>
       </c>
-      <c r="L9" s="90" t="s">
+      <c r="L9" s="89" t="s">
         <v>456</v>
       </c>
       <c r="M9" s="40" t="s">
@@ -12574,8 +12594,8 @@
       <c r="J10" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K10" s="79"/>
-      <c r="L10" s="89"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="81"/>
       <c r="M10" s="9" t="s">
         <v>437</v>
       </c>
@@ -12612,8 +12632,8 @@
       <c r="J11" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K11" s="79"/>
-      <c r="L11" s="89"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="81"/>
       <c r="M11" s="9" t="s">
         <v>437</v>
       </c>
@@ -12892,7 +12912,7 @@
       <c r="J18" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K18" s="87"/>
+      <c r="K18" s="82"/>
       <c r="L18" s="38"/>
       <c r="M18" s="9" t="s">
         <v>437</v>
@@ -12930,7 +12950,7 @@
       <c r="J19" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="K19" s="86"/>
+      <c r="K19" s="83"/>
       <c r="L19" s="60"/>
       <c r="M19" s="43" t="s">
         <v>437</v>
@@ -12968,10 +12988,10 @@
       <c r="J20" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K20" s="87" t="s">
+      <c r="K20" s="82" t="s">
         <v>490</v>
       </c>
-      <c r="L20" s="90" t="s">
+      <c r="L20" s="89" t="s">
         <v>491</v>
       </c>
       <c r="M20" s="9" t="s">
@@ -13010,8 +13030,8 @@
       <c r="J21" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K21" s="85"/>
-      <c r="L21" s="89"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="81"/>
       <c r="M21" s="9" t="s">
         <v>437</v>
       </c>
@@ -13046,8 +13066,8 @@
       <c r="J22" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K22" s="85"/>
-      <c r="L22" s="89"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="81"/>
       <c r="M22" s="9" t="s">
         <v>437</v>
       </c>
@@ -13084,8 +13104,8 @@
       <c r="J23" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K23" s="85"/>
-      <c r="L23" s="89"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="81"/>
       <c r="M23" s="9" t="s">
         <v>437</v>
       </c>
@@ -13122,8 +13142,8 @@
       <c r="J24" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K24" s="85"/>
-      <c r="L24" s="89"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="81"/>
       <c r="M24" s="9" t="s">
         <v>437</v>
       </c>
@@ -13160,10 +13180,10 @@
       <c r="J25" s="49" t="s">
         <v>437</v>
       </c>
-      <c r="K25" s="84" t="s">
+      <c r="K25" s="78" t="s">
         <v>497</v>
       </c>
-      <c r="L25" s="88" t="s">
+      <c r="L25" s="80" t="s">
         <v>498</v>
       </c>
       <c r="M25" s="40" t="s">
@@ -13202,8 +13222,8 @@
       <c r="J26" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K26" s="85"/>
-      <c r="L26" s="89"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="81"/>
       <c r="M26" s="9" t="s">
         <v>437</v>
       </c>
@@ -13240,8 +13260,8 @@
       <c r="J27" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K27" s="85"/>
-      <c r="L27" s="89"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="81"/>
       <c r="M27" s="9" t="s">
         <v>437</v>
       </c>
@@ -13276,8 +13296,8 @@
       <c r="J28" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="K28" s="86"/>
-      <c r="L28" s="91"/>
+      <c r="K28" s="83"/>
+      <c r="L28" s="90"/>
       <c r="M28" s="43" t="s">
         <v>437</v>
       </c>
@@ -13314,7 +13334,7 @@
       <c r="J29" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K29" s="87" t="s">
+      <c r="K29" s="82" t="s">
         <v>503</v>
       </c>
       <c r="L29" s="38"/>
@@ -13354,7 +13374,7 @@
       <c r="J30" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K30" s="85"/>
+      <c r="K30" s="79"/>
       <c r="L30" s="38"/>
       <c r="M30" s="9" t="s">
         <v>437</v>
@@ -13392,7 +13412,7 @@
       <c r="J31" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K31" s="85"/>
+      <c r="K31" s="79"/>
       <c r="L31" s="38"/>
       <c r="M31" s="9" t="s">
         <v>437</v>
@@ -13428,7 +13448,7 @@
       <c r="J32" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K32" s="85"/>
+      <c r="K32" s="79"/>
       <c r="L32" s="38"/>
       <c r="M32" s="9" t="s">
         <v>437</v>
@@ -13466,7 +13486,7 @@
       <c r="J33" s="49" t="s">
         <v>437</v>
       </c>
-      <c r="K33" s="84" t="s">
+      <c r="K33" s="78" t="s">
         <v>470</v>
       </c>
       <c r="L33" s="59" t="s">
@@ -13508,7 +13528,7 @@
       <c r="J34" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="K34" s="86"/>
+      <c r="K34" s="83"/>
       <c r="L34" s="60"/>
       <c r="M34" s="43" t="s">
         <v>437</v>
@@ -13546,7 +13566,7 @@
       <c r="J35" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K35" s="87" t="s">
+      <c r="K35" s="82" t="s">
         <v>470</v>
       </c>
       <c r="L35" s="38" t="s">
@@ -13588,7 +13608,7 @@
       <c r="J36" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K36" s="85"/>
+      <c r="K36" s="79"/>
       <c r="L36" s="38"/>
       <c r="M36" s="9" t="s">
         <v>437</v>
@@ -13705,7 +13725,7 @@
       <c r="K39" s="62" t="s">
         <v>520</v>
       </c>
-      <c r="L39" s="88"/>
+      <c r="L39" s="80"/>
       <c r="M39" s="40" t="s">
         <v>437</v>
       </c>
@@ -13743,7 +13763,7 @@
         <v>437</v>
       </c>
       <c r="K40" s="51"/>
-      <c r="L40" s="89"/>
+      <c r="L40" s="81"/>
       <c r="M40" s="9" t="s">
         <v>437</v>
       </c>
@@ -13822,10 +13842,10 @@
       <c r="J42" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K42" s="87" t="s">
+      <c r="K42" s="82" t="s">
         <v>527</v>
       </c>
-      <c r="L42" s="90" t="s">
+      <c r="L42" s="89" t="s">
         <v>528</v>
       </c>
       <c r="M42" s="40" t="s">
@@ -13864,8 +13884,8 @@
       <c r="J43" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K43" s="85"/>
-      <c r="L43" s="89"/>
+      <c r="K43" s="79"/>
+      <c r="L43" s="81"/>
       <c r="M43" s="9" t="s">
         <v>437</v>
       </c>
@@ -13902,8 +13922,8 @@
       <c r="J44" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K44" s="85"/>
-      <c r="L44" s="89"/>
+      <c r="K44" s="79"/>
+      <c r="L44" s="81"/>
       <c r="M44" s="9" t="s">
         <v>437</v>
       </c>
@@ -13938,8 +13958,8 @@
       <c r="J45" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K45" s="85"/>
-      <c r="L45" s="89"/>
+      <c r="K45" s="79"/>
+      <c r="L45" s="81"/>
       <c r="M45" s="9" t="s">
         <v>437</v>
       </c>
@@ -13976,8 +13996,8 @@
       <c r="J46" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K46" s="85"/>
-      <c r="L46" s="89"/>
+      <c r="K46" s="79"/>
+      <c r="L46" s="81"/>
       <c r="M46" s="9" t="s">
         <v>437</v>
       </c>
@@ -14014,8 +14034,8 @@
       <c r="J47" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K47" s="85"/>
-      <c r="L47" s="89"/>
+      <c r="K47" s="79"/>
+      <c r="L47" s="81"/>
       <c r="M47" s="9" t="s">
         <v>437</v>
       </c>
@@ -14132,7 +14152,7 @@
       <c r="J50" s="49" t="s">
         <v>437</v>
       </c>
-      <c r="K50" s="78" t="s">
+      <c r="K50" s="91" t="s">
         <v>541</v>
       </c>
       <c r="L50" s="59"/>
@@ -14172,7 +14192,7 @@
       <c r="J51" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K51" s="79"/>
+      <c r="K51" s="88"/>
       <c r="L51" s="38"/>
       <c r="M51" s="40" t="s">
         <v>437</v>
@@ -14210,7 +14230,7 @@
       <c r="J52" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K52" s="79"/>
+      <c r="K52" s="88"/>
       <c r="L52" s="38"/>
       <c r="M52" s="40" t="s">
         <v>437</v>
@@ -14248,7 +14268,7 @@
       <c r="J53" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K53" s="79"/>
+      <c r="K53" s="88"/>
       <c r="L53" s="38"/>
       <c r="M53" s="40" t="s">
         <v>437</v>
@@ -14284,7 +14304,7 @@
       <c r="J54" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="K54" s="80"/>
+      <c r="K54" s="92"/>
       <c r="L54" s="60"/>
       <c r="M54" s="40" t="s">
         <v>437</v>
@@ -14404,7 +14424,7 @@
       <c r="J57" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K57" s="87" t="s">
+      <c r="K57" s="82" t="s">
         <v>558</v>
       </c>
       <c r="L57" s="38"/>
@@ -14444,7 +14464,7 @@
       <c r="J58" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K58" s="85"/>
+      <c r="K58" s="79"/>
       <c r="L58" s="38"/>
       <c r="M58" s="9" t="s">
         <v>437</v>
@@ -14480,7 +14500,7 @@
       <c r="J59" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K59" s="85"/>
+      <c r="K59" s="79"/>
       <c r="L59" s="38"/>
       <c r="M59" s="9" t="s">
         <v>437</v>
@@ -14518,7 +14538,7 @@
       <c r="J60" s="40" t="s">
         <v>437</v>
       </c>
-      <c r="K60" s="88" t="s">
+      <c r="K60" s="80" t="s">
         <v>563</v>
       </c>
       <c r="L60" s="59"/>
@@ -14558,7 +14578,7 @@
       <c r="J61" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="K61" s="89"/>
+      <c r="K61" s="81"/>
       <c r="L61" s="38" t="s">
         <v>565</v>
       </c>
@@ -14598,7 +14618,7 @@
       <c r="J62" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K62" s="89"/>
+      <c r="K62" s="81"/>
       <c r="L62" s="38" t="s">
         <v>567</v>
       </c>
@@ -14638,7 +14658,7 @@
       <c r="J63" s="63" t="s">
         <v>437</v>
       </c>
-      <c r="K63" s="87"/>
+      <c r="K63" s="82"/>
       <c r="L63" s="38"/>
       <c r="M63" s="9" t="s">
         <v>437</v>
@@ -14676,7 +14696,7 @@
       <c r="J64" s="63" t="s">
         <v>437</v>
       </c>
-      <c r="K64" s="85"/>
+      <c r="K64" s="79"/>
       <c r="L64" s="38"/>
       <c r="M64" s="9" t="s">
         <v>437</v>
@@ -14714,7 +14734,7 @@
       <c r="J65" s="63" t="s">
         <v>437</v>
       </c>
-      <c r="K65" s="85"/>
+      <c r="K65" s="79"/>
       <c r="L65" s="38" t="s">
         <v>567</v>
       </c>
@@ -14752,7 +14772,7 @@
       <c r="J66" s="63" t="s">
         <v>437</v>
       </c>
-      <c r="K66" s="85"/>
+      <c r="K66" s="79"/>
       <c r="L66" s="13"/>
       <c r="M66" s="50" t="s">
         <v>437</v>
@@ -14866,7 +14886,7 @@
       <c r="J69" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K69" s="87" t="s">
+      <c r="K69" s="82" t="s">
         <v>470</v>
       </c>
       <c r="L69" s="38" t="s">
@@ -14908,7 +14928,7 @@
       <c r="J70" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K70" s="85"/>
+      <c r="K70" s="79"/>
       <c r="L70" s="38"/>
       <c r="M70" s="9" t="s">
         <v>437</v>
@@ -14986,7 +15006,7 @@
       <c r="J72" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K72" s="87"/>
+      <c r="K72" s="82"/>
       <c r="L72" s="38"/>
       <c r="M72" s="9" t="s">
         <v>437</v>
@@ -15022,7 +15042,7 @@
       <c r="J73" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K73" s="85"/>
+      <c r="K73" s="79"/>
       <c r="L73" s="38"/>
       <c r="M73" s="9" t="s">
         <v>437</v>
@@ -15058,7 +15078,7 @@
       <c r="J74" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K74" s="85"/>
+      <c r="K74" s="79"/>
       <c r="L74" s="38"/>
       <c r="M74" s="9" t="s">
         <v>437</v>
@@ -15092,7 +15112,7 @@
       <c r="J75" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="K75" s="86"/>
+      <c r="K75" s="83"/>
       <c r="L75" s="60"/>
       <c r="M75" s="9" t="s">
         <v>437</v>
@@ -15170,10 +15190,10 @@
       <c r="J77" s="49" t="s">
         <v>437</v>
       </c>
-      <c r="K77" s="78" t="s">
+      <c r="K77" s="91" t="s">
         <v>590</v>
       </c>
-      <c r="L77" s="84" t="s">
+      <c r="L77" s="78" t="s">
         <v>591</v>
       </c>
       <c r="M77" s="40" t="s">
@@ -15214,8 +15234,8 @@
       <c r="J78" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K78" s="80"/>
-      <c r="L78" s="82"/>
+      <c r="K78" s="92"/>
+      <c r="L78" s="94"/>
       <c r="M78" s="50" t="s">
         <v>437</v>
       </c>
@@ -15255,7 +15275,7 @@
       <c r="K79" s="38" t="s">
         <v>592</v>
       </c>
-      <c r="L79" s="82"/>
+      <c r="L79" s="94"/>
       <c r="M79" s="50" t="s">
         <v>437</v>
       </c>
@@ -15295,7 +15315,7 @@
       <c r="K80" s="38" t="s">
         <v>592</v>
       </c>
-      <c r="L80" s="86"/>
+      <c r="L80" s="83"/>
       <c r="M80" s="9" t="s">
         <v>437</v>
       </c>
@@ -15332,7 +15352,7 @@
       <c r="J81" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K81" s="87" t="s">
+      <c r="K81" s="82" t="s">
         <v>470</v>
       </c>
       <c r="L81" s="38" t="s">
@@ -15374,7 +15394,7 @@
       <c r="J82" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K82" s="85"/>
+      <c r="K82" s="79"/>
       <c r="L82" s="38"/>
       <c r="M82" s="9" t="s">
         <v>437</v>
@@ -15496,7 +15516,7 @@
       <c r="J85" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K85" s="87" t="s">
+      <c r="K85" s="82" t="s">
         <v>604</v>
       </c>
       <c r="L85" s="38"/>
@@ -15536,7 +15556,7 @@
       <c r="J86" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K86" s="85"/>
+      <c r="K86" s="79"/>
       <c r="L86" s="38"/>
       <c r="M86" s="9" t="s">
         <v>437</v>
@@ -15574,7 +15594,7 @@
       <c r="J87" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K87" s="85"/>
+      <c r="K87" s="79"/>
       <c r="L87" s="38"/>
       <c r="M87" s="9" t="s">
         <v>437</v>
@@ -15610,7 +15630,7 @@
       <c r="J88" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K88" s="85"/>
+      <c r="K88" s="79"/>
       <c r="L88" s="38"/>
       <c r="M88" s="9" t="s">
         <v>437</v>
@@ -15648,7 +15668,7 @@
       <c r="J89" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K89" s="85"/>
+      <c r="K89" s="79"/>
       <c r="L89" s="38"/>
       <c r="M89" s="9" t="s">
         <v>437</v>
@@ -15686,7 +15706,7 @@
       <c r="J90" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="K90" s="85"/>
+      <c r="K90" s="79"/>
       <c r="L90" s="38"/>
       <c r="M90" s="9" t="s">
         <v>437</v>
@@ -15724,10 +15744,10 @@
       <c r="J91" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K91" s="78" t="s">
+      <c r="K91" s="91" t="s">
         <v>610</v>
       </c>
-      <c r="L91" s="81" t="s">
+      <c r="L91" s="93" t="s">
         <v>611</v>
       </c>
       <c r="M91" s="40" t="s">
@@ -15766,8 +15786,8 @@
       <c r="J92" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="K92" s="79"/>
-      <c r="L92" s="82"/>
+      <c r="K92" s="88"/>
+      <c r="L92" s="94"/>
       <c r="M92" s="9" t="s">
         <v>437</v>
       </c>
@@ -15804,8 +15824,8 @@
       <c r="J93" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="K93" s="79"/>
-      <c r="L93" s="82"/>
+      <c r="K93" s="88"/>
+      <c r="L93" s="94"/>
       <c r="M93" s="9" t="s">
         <v>437</v>
       </c>
@@ -15840,8 +15860,8 @@
       <c r="J94" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="K94" s="80"/>
-      <c r="L94" s="83"/>
+      <c r="K94" s="92"/>
+      <c r="L94" s="95"/>
       <c r="M94" s="9" t="s">
         <v>437</v>
       </c>
@@ -15878,7 +15898,7 @@
       <c r="J95" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K95" s="84"/>
+      <c r="K95" s="78"/>
       <c r="L95" s="38"/>
       <c r="M95" s="40" t="s">
         <v>437</v>
@@ -15916,7 +15936,7 @@
       <c r="J96" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K96" s="85"/>
+      <c r="K96" s="79"/>
       <c r="L96" s="38"/>
       <c r="M96" s="40" t="s">
         <v>437</v>
@@ -15954,7 +15974,7 @@
       <c r="J97" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K97" s="85"/>
+      <c r="K97" s="79"/>
       <c r="L97" s="38"/>
       <c r="M97" s="40" t="s">
         <v>437</v>
@@ -15992,7 +16012,7 @@
       <c r="J98" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="K98" s="85"/>
+      <c r="K98" s="79"/>
       <c r="L98" s="38"/>
       <c r="M98" s="40" t="s">
         <v>437</v>
@@ -16028,7 +16048,7 @@
       <c r="J99" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="K99" s="86"/>
+      <c r="K99" s="83"/>
       <c r="L99" s="53"/>
       <c r="M99" s="55" t="s">
         <v>437</v>
@@ -16057,28 +16077,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="K20:K24"/>
-    <mergeCell ref="L20:L24"/>
-    <mergeCell ref="K25:K28"/>
-    <mergeCell ref="L25:L28"/>
-    <mergeCell ref="K29:K32"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="K42:K47"/>
-    <mergeCell ref="L42:L47"/>
-    <mergeCell ref="K50:K54"/>
-    <mergeCell ref="K57:K59"/>
-    <mergeCell ref="K60:K62"/>
-    <mergeCell ref="K63:K66"/>
-    <mergeCell ref="K69:K70"/>
     <mergeCell ref="K91:K94"/>
     <mergeCell ref="L91:L94"/>
     <mergeCell ref="K95:K99"/>
@@ -16087,6 +16085,28 @@
     <mergeCell ref="L77:L80"/>
     <mergeCell ref="K81:K82"/>
     <mergeCell ref="K85:K90"/>
+    <mergeCell ref="K50:K54"/>
+    <mergeCell ref="K57:K59"/>
+    <mergeCell ref="K60:K62"/>
+    <mergeCell ref="K63:K66"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="K29:K32"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="K42:K47"/>
+    <mergeCell ref="L42:L47"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="K20:K24"/>
+    <mergeCell ref="L20:L24"/>
+    <mergeCell ref="K25:K28"/>
+    <mergeCell ref="L25:L28"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="L9:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Meta/Analytes3.xlsx
+++ b/Meta/Analytes3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/vitense_kelsey_epa_gov/Documents/GL_Data/Meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="174" documentId="11_CFA7FA0AC8BEC675FF6906A82B7A2EC91D13FE60" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BF82A00-9F4E-4DF2-9E26-9AEB735E2279}"/>
+  <xr:revisionPtr revIDLastSave="176" documentId="11_CFA7FA0AC8BEC675FF6906A82B7A2EC91D13FE60" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F85E95FD-3AA8-40C7-8385-571CFBC23C84}"/>
   <bookViews>
-    <workbookView xWindow="-61548" yWindow="-1872" windowWidth="30936" windowHeight="16776" tabRatio="772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-61548" yWindow="-1872" windowWidth="30936" windowHeight="16776" tabRatio="772" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="11" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7">NCCA_Map!$A$1:$A$57</definedName>
     <definedName name="_xlnm.Extract" localSheetId="1">Key!$B$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2705" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2706" uniqueCount="694">
   <si>
     <t>ANALYTE</t>
   </si>
@@ -2137,6 +2137,9 @@
   </si>
   <si>
     <t>Verbose description of decision made off of qa flags - PROBABLY DELETE THIS IN FINAL VESION</t>
+  </si>
+  <si>
+    <t>This is at the very surface with a hand held thermometer.  It's pretty sensitive to air temp/solar heating, but is a back up for when the CTD does not work or is not dropped.</t>
   </si>
 </sst>
 </file>
@@ -2624,35 +2627,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2660,10 +2639,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2677,6 +2656,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2982,7 +2985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944E5B29-DA5B-4213-9FBD-6DB720F31476}">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
@@ -7695,8 +7698,8 @@
   </sheetPr>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7753,11 +7756,13 @@
         <v>204</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="H2" s="7" t="s">
+        <v>693</v>
+      </c>
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8108,8 +8113,8 @@
       <c r="J2" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="K2" s="73"/>
-      <c r="L2" s="77"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="69"/>
       <c r="M2" s="26" t="s">
         <v>261</v>
       </c>
@@ -8146,8 +8151,8 @@
       <c r="J3" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="K3" s="74"/>
-      <c r="L3" s="78"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="70"/>
       <c r="M3" s="9" t="s">
         <v>261</v>
       </c>
@@ -8184,8 +8189,8 @@
       <c r="J4" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="K4" s="74"/>
-      <c r="L4" s="78"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="70"/>
       <c r="M4" s="9" t="s">
         <v>261</v>
       </c>
@@ -8220,8 +8225,8 @@
       <c r="J5" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="K5" s="74"/>
-      <c r="L5" s="78"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="70"/>
       <c r="M5" s="9" t="s">
         <v>261</v>
       </c>
@@ -8258,10 +8263,10 @@
       <c r="J6" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="K6" s="76" t="s">
+      <c r="K6" s="71" t="s">
         <v>271</v>
       </c>
-      <c r="L6" s="81"/>
+      <c r="L6" s="73"/>
       <c r="M6" s="9" t="s">
         <v>261</v>
       </c>
@@ -8298,8 +8303,8 @@
       <c r="J7" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="K7" s="74"/>
-      <c r="L7" s="82"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="74"/>
       <c r="M7" s="9" t="s">
         <v>261</v>
       </c>
@@ -8334,8 +8339,8 @@
       <c r="J8" s="38" t="s">
         <v>261</v>
       </c>
-      <c r="K8" s="75"/>
-      <c r="L8" s="83"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="75"/>
       <c r="M8" s="9" t="s">
         <v>261</v>
       </c>
@@ -8372,10 +8377,10 @@
       <c r="J9" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="K9" s="84" t="s">
+      <c r="K9" s="76" t="s">
         <v>279</v>
       </c>
-      <c r="L9" s="79" t="s">
+      <c r="L9" s="78" t="s">
         <v>280</v>
       </c>
       <c r="M9" s="26" t="s">
@@ -8414,8 +8419,8 @@
       <c r="J10" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="K10" s="68"/>
-      <c r="L10" s="78"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="70"/>
       <c r="M10" s="9" t="s">
         <v>261</v>
       </c>
@@ -8452,8 +8457,8 @@
       <c r="J11" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="K11" s="68"/>
-      <c r="L11" s="78"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="70"/>
       <c r="M11" s="9" t="s">
         <v>261</v>
       </c>
@@ -8732,7 +8737,7 @@
       <c r="J18" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="K18" s="76"/>
+      <c r="K18" s="71"/>
       <c r="L18" s="24"/>
       <c r="M18" s="9" t="s">
         <v>261</v>
@@ -8770,7 +8775,7 @@
       <c r="J19" s="38" t="s">
         <v>261</v>
       </c>
-      <c r="K19" s="75"/>
+      <c r="K19" s="72"/>
       <c r="L19" s="46"/>
       <c r="M19" s="29" t="s">
         <v>261</v>
@@ -8808,10 +8813,10 @@
       <c r="J20" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="K20" s="76" t="s">
+      <c r="K20" s="71" t="s">
         <v>314</v>
       </c>
-      <c r="L20" s="79" t="s">
+      <c r="L20" s="78" t="s">
         <v>315</v>
       </c>
       <c r="M20" s="9" t="s">
@@ -8850,8 +8855,8 @@
       <c r="J21" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="K21" s="74"/>
-      <c r="L21" s="78"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="70"/>
       <c r="M21" s="9" t="s">
         <v>261</v>
       </c>
@@ -8886,8 +8891,8 @@
       <c r="J22" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="K22" s="74"/>
-      <c r="L22" s="78"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="70"/>
       <c r="M22" s="9" t="s">
         <v>261</v>
       </c>
@@ -8924,8 +8929,8 @@
       <c r="J23" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="K23" s="74"/>
-      <c r="L23" s="78"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="70"/>
       <c r="M23" s="9" t="s">
         <v>261</v>
       </c>
@@ -8962,8 +8967,8 @@
       <c r="J24" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="K24" s="74"/>
-      <c r="L24" s="78"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="70"/>
       <c r="M24" s="9" t="s">
         <v>261</v>
       </c>
@@ -9000,10 +9005,10 @@
       <c r="J25" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="K25" s="73" t="s">
+      <c r="K25" s="67" t="s">
         <v>321</v>
       </c>
-      <c r="L25" s="77" t="s">
+      <c r="L25" s="69" t="s">
         <v>322</v>
       </c>
       <c r="M25" s="26" t="s">
@@ -9042,8 +9047,8 @@
       <c r="J26" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="K26" s="74"/>
-      <c r="L26" s="78"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="70"/>
       <c r="M26" s="9" t="s">
         <v>261</v>
       </c>
@@ -9080,8 +9085,8 @@
       <c r="J27" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="K27" s="74"/>
-      <c r="L27" s="78"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="70"/>
       <c r="M27" s="9" t="s">
         <v>261</v>
       </c>
@@ -9116,8 +9121,8 @@
       <c r="J28" s="38" t="s">
         <v>261</v>
       </c>
-      <c r="K28" s="75"/>
-      <c r="L28" s="80"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="79"/>
       <c r="M28" s="29" t="s">
         <v>261</v>
       </c>
@@ -9154,7 +9159,7 @@
       <c r="J29" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="K29" s="76" t="s">
+      <c r="K29" s="71" t="s">
         <v>327</v>
       </c>
       <c r="L29" s="24"/>
@@ -9194,7 +9199,7 @@
       <c r="J30" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="K30" s="74"/>
+      <c r="K30" s="68"/>
       <c r="L30" s="24"/>
       <c r="M30" s="9" t="s">
         <v>261</v>
@@ -9232,7 +9237,7 @@
       <c r="J31" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="K31" s="74"/>
+      <c r="K31" s="68"/>
       <c r="L31" s="24"/>
       <c r="M31" s="9" t="s">
         <v>261</v>
@@ -9268,7 +9273,7 @@
       <c r="J32" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="K32" s="74"/>
+      <c r="K32" s="68"/>
       <c r="L32" s="24"/>
       <c r="M32" s="9" t="s">
         <v>261</v>
@@ -9306,7 +9311,7 @@
       <c r="J33" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="K33" s="73" t="s">
+      <c r="K33" s="67" t="s">
         <v>294</v>
       </c>
       <c r="L33" s="45" t="s">
@@ -9348,7 +9353,7 @@
       <c r="J34" s="38" t="s">
         <v>261</v>
       </c>
-      <c r="K34" s="75"/>
+      <c r="K34" s="72"/>
       <c r="L34" s="46"/>
       <c r="M34" s="29" t="s">
         <v>261</v>
@@ -9386,7 +9391,7 @@
       <c r="J35" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="K35" s="76" t="s">
+      <c r="K35" s="71" t="s">
         <v>294</v>
       </c>
       <c r="L35" s="24" t="s">
@@ -9428,7 +9433,7 @@
       <c r="J36" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="K36" s="74"/>
+      <c r="K36" s="68"/>
       <c r="L36" s="24"/>
       <c r="M36" s="9" t="s">
         <v>261</v>
@@ -9545,7 +9550,7 @@
       <c r="K39" s="48" t="s">
         <v>344</v>
       </c>
-      <c r="L39" s="77"/>
+      <c r="L39" s="69"/>
       <c r="M39" s="26" t="s">
         <v>261</v>
       </c>
@@ -9583,7 +9588,7 @@
         <v>261</v>
       </c>
       <c r="K40" s="37"/>
-      <c r="L40" s="78"/>
+      <c r="L40" s="70"/>
       <c r="M40" s="9" t="s">
         <v>261</v>
       </c>
@@ -9662,10 +9667,10 @@
       <c r="J42" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="K42" s="76" t="s">
+      <c r="K42" s="71" t="s">
         <v>351</v>
       </c>
-      <c r="L42" s="79" t="s">
+      <c r="L42" s="78" t="s">
         <v>352</v>
       </c>
       <c r="M42" s="26" t="s">
@@ -9704,8 +9709,8 @@
       <c r="J43" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="K43" s="74"/>
-      <c r="L43" s="78"/>
+      <c r="K43" s="68"/>
+      <c r="L43" s="70"/>
       <c r="M43" s="9" t="s">
         <v>261</v>
       </c>
@@ -9742,8 +9747,8 @@
       <c r="J44" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="K44" s="74"/>
-      <c r="L44" s="78"/>
+      <c r="K44" s="68"/>
+      <c r="L44" s="70"/>
       <c r="M44" s="9" t="s">
         <v>261</v>
       </c>
@@ -9778,8 +9783,8 @@
       <c r="J45" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="K45" s="74"/>
-      <c r="L45" s="78"/>
+      <c r="K45" s="68"/>
+      <c r="L45" s="70"/>
       <c r="M45" s="9" t="s">
         <v>261</v>
       </c>
@@ -9816,8 +9821,8 @@
       <c r="J46" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="K46" s="74"/>
-      <c r="L46" s="78"/>
+      <c r="K46" s="68"/>
+      <c r="L46" s="70"/>
       <c r="M46" s="9" t="s">
         <v>261</v>
       </c>
@@ -9854,8 +9859,8 @@
       <c r="J47" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="K47" s="74"/>
-      <c r="L47" s="78"/>
+      <c r="K47" s="68"/>
+      <c r="L47" s="70"/>
       <c r="M47" s="9" t="s">
         <v>261</v>
       </c>
@@ -9972,7 +9977,7 @@
       <c r="J50" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="K50" s="67" t="s">
+      <c r="K50" s="80" t="s">
         <v>365</v>
       </c>
       <c r="L50" s="45"/>
@@ -10012,7 +10017,7 @@
       <c r="J51" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="K51" s="68"/>
+      <c r="K51" s="77"/>
       <c r="L51" s="24"/>
       <c r="M51" s="26" t="s">
         <v>261</v>
@@ -10050,7 +10055,7 @@
       <c r="J52" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="K52" s="68"/>
+      <c r="K52" s="77"/>
       <c r="L52" s="24"/>
       <c r="M52" s="26" t="s">
         <v>261</v>
@@ -10088,7 +10093,7 @@
       <c r="J53" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="K53" s="68"/>
+      <c r="K53" s="77"/>
       <c r="L53" s="24"/>
       <c r="M53" s="26" t="s">
         <v>261</v>
@@ -10124,7 +10129,7 @@
       <c r="J54" s="38" t="s">
         <v>261</v>
       </c>
-      <c r="K54" s="69"/>
+      <c r="K54" s="81"/>
       <c r="L54" s="46"/>
       <c r="M54" s="26" t="s">
         <v>261</v>
@@ -10244,7 +10249,7 @@
       <c r="J57" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="K57" s="76" t="s">
+      <c r="K57" s="71" t="s">
         <v>382</v>
       </c>
       <c r="L57" s="24"/>
@@ -10284,7 +10289,7 @@
       <c r="J58" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="K58" s="74"/>
+      <c r="K58" s="68"/>
       <c r="L58" s="24"/>
       <c r="M58" s="9" t="s">
         <v>261</v>
@@ -10320,7 +10325,7 @@
       <c r="J59" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="K59" s="74"/>
+      <c r="K59" s="68"/>
       <c r="L59" s="24"/>
       <c r="M59" s="9" t="s">
         <v>261</v>
@@ -10358,7 +10363,7 @@
       <c r="J60" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="K60" s="77" t="s">
+      <c r="K60" s="69" t="s">
         <v>387</v>
       </c>
       <c r="L60" s="45"/>
@@ -10398,7 +10403,7 @@
       <c r="J61" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="K61" s="78"/>
+      <c r="K61" s="70"/>
       <c r="L61" s="24" t="s">
         <v>389</v>
       </c>
@@ -10438,7 +10443,7 @@
       <c r="J62" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="K62" s="78"/>
+      <c r="K62" s="70"/>
       <c r="L62" s="24" t="s">
         <v>391</v>
       </c>
@@ -10478,7 +10483,7 @@
       <c r="J63" s="49" t="s">
         <v>261</v>
       </c>
-      <c r="K63" s="76"/>
+      <c r="K63" s="71"/>
       <c r="L63" s="24"/>
       <c r="M63" s="9" t="s">
         <v>261</v>
@@ -10516,7 +10521,7 @@
       <c r="J64" s="49" t="s">
         <v>261</v>
       </c>
-      <c r="K64" s="74"/>
+      <c r="K64" s="68"/>
       <c r="L64" s="24"/>
       <c r="M64" s="9" t="s">
         <v>261</v>
@@ -10554,7 +10559,7 @@
       <c r="J65" s="49" t="s">
         <v>261</v>
       </c>
-      <c r="K65" s="74"/>
+      <c r="K65" s="68"/>
       <c r="L65" s="24" t="s">
         <v>391</v>
       </c>
@@ -10592,7 +10597,7 @@
       <c r="J66" s="49" t="s">
         <v>261</v>
       </c>
-      <c r="K66" s="74"/>
+      <c r="K66" s="68"/>
       <c r="L66" s="13"/>
       <c r="M66" s="36" t="s">
         <v>261</v>
@@ -10706,7 +10711,7 @@
       <c r="J69" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="K69" s="76" t="s">
+      <c r="K69" s="71" t="s">
         <v>294</v>
       </c>
       <c r="L69" s="24" t="s">
@@ -10748,7 +10753,7 @@
       <c r="J70" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="K70" s="74"/>
+      <c r="K70" s="68"/>
       <c r="L70" s="24"/>
       <c r="M70" s="9" t="s">
         <v>261</v>
@@ -10826,7 +10831,7 @@
       <c r="J72" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="K72" s="76"/>
+      <c r="K72" s="71"/>
       <c r="L72" s="24"/>
       <c r="M72" s="9" t="s">
         <v>261</v>
@@ -10862,7 +10867,7 @@
       <c r="J73" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="K73" s="74"/>
+      <c r="K73" s="68"/>
       <c r="L73" s="24"/>
       <c r="M73" s="9" t="s">
         <v>261</v>
@@ -10898,7 +10903,7 @@
       <c r="J74" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="K74" s="74"/>
+      <c r="K74" s="68"/>
       <c r="L74" s="24"/>
       <c r="M74" s="9" t="s">
         <v>261</v>
@@ -10932,7 +10937,7 @@
       <c r="J75" s="38" t="s">
         <v>261</v>
       </c>
-      <c r="K75" s="75"/>
+      <c r="K75" s="72"/>
       <c r="L75" s="46"/>
       <c r="M75" s="9" t="s">
         <v>261</v>
@@ -11010,10 +11015,10 @@
       <c r="J77" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="K77" s="67" t="s">
+      <c r="K77" s="80" t="s">
         <v>414</v>
       </c>
-      <c r="L77" s="73" t="s">
+      <c r="L77" s="67" t="s">
         <v>415</v>
       </c>
       <c r="M77" s="26" t="s">
@@ -11054,8 +11059,8 @@
       <c r="J78" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="K78" s="69"/>
-      <c r="L78" s="71"/>
+      <c r="K78" s="81"/>
+      <c r="L78" s="83"/>
       <c r="M78" s="36" t="s">
         <v>261</v>
       </c>
@@ -11095,7 +11100,7 @@
       <c r="K79" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="L79" s="71"/>
+      <c r="L79" s="83"/>
       <c r="M79" s="36" t="s">
         <v>261</v>
       </c>
@@ -11135,7 +11140,7 @@
       <c r="K80" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="L80" s="75"/>
+      <c r="L80" s="72"/>
       <c r="M80" s="9" t="s">
         <v>261</v>
       </c>
@@ -11172,7 +11177,7 @@
       <c r="J81" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="K81" s="76" t="s">
+      <c r="K81" s="71" t="s">
         <v>294</v>
       </c>
       <c r="L81" s="24" t="s">
@@ -11214,7 +11219,7 @@
       <c r="J82" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="K82" s="74"/>
+      <c r="K82" s="68"/>
       <c r="L82" s="24"/>
       <c r="M82" s="9" t="s">
         <v>261</v>
@@ -11336,7 +11341,7 @@
       <c r="J85" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="K85" s="76" t="s">
+      <c r="K85" s="71" t="s">
         <v>428</v>
       </c>
       <c r="L85" s="24"/>
@@ -11376,7 +11381,7 @@
       <c r="J86" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="K86" s="74"/>
+      <c r="K86" s="68"/>
       <c r="L86" s="24"/>
       <c r="M86" s="9" t="s">
         <v>261</v>
@@ -11414,7 +11419,7 @@
       <c r="J87" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="K87" s="74"/>
+      <c r="K87" s="68"/>
       <c r="L87" s="24"/>
       <c r="M87" s="9" t="s">
         <v>261</v>
@@ -11450,7 +11455,7 @@
       <c r="J88" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="K88" s="74"/>
+      <c r="K88" s="68"/>
       <c r="L88" s="24"/>
       <c r="M88" s="9" t="s">
         <v>261</v>
@@ -11488,7 +11493,7 @@
       <c r="J89" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="K89" s="74"/>
+      <c r="K89" s="68"/>
       <c r="L89" s="24"/>
       <c r="M89" s="9" t="s">
         <v>261</v>
@@ -11526,7 +11531,7 @@
       <c r="J90" s="38" t="s">
         <v>261</v>
       </c>
-      <c r="K90" s="74"/>
+      <c r="K90" s="68"/>
       <c r="L90" s="24"/>
       <c r="M90" s="9" t="s">
         <v>261</v>
@@ -11564,10 +11569,10 @@
       <c r="J91" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="K91" s="67" t="s">
+      <c r="K91" s="80" t="s">
         <v>434</v>
       </c>
-      <c r="L91" s="70" t="s">
+      <c r="L91" s="82" t="s">
         <v>435</v>
       </c>
       <c r="M91" s="26" t="s">
@@ -11606,8 +11611,8 @@
       <c r="J92" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="K92" s="68"/>
-      <c r="L92" s="71"/>
+      <c r="K92" s="77"/>
+      <c r="L92" s="83"/>
       <c r="M92" s="9" t="s">
         <v>261</v>
       </c>
@@ -11644,8 +11649,8 @@
       <c r="J93" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="K93" s="68"/>
-      <c r="L93" s="71"/>
+      <c r="K93" s="77"/>
+      <c r="L93" s="83"/>
       <c r="M93" s="9" t="s">
         <v>261</v>
       </c>
@@ -11680,8 +11685,8 @@
       <c r="J94" s="38" t="s">
         <v>261</v>
       </c>
-      <c r="K94" s="69"/>
-      <c r="L94" s="72"/>
+      <c r="K94" s="81"/>
+      <c r="L94" s="84"/>
       <c r="M94" s="9" t="s">
         <v>261</v>
       </c>
@@ -11718,7 +11723,7 @@
       <c r="J95" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="K95" s="73"/>
+      <c r="K95" s="67"/>
       <c r="L95" s="24"/>
       <c r="M95" s="26" t="s">
         <v>261</v>
@@ -11756,7 +11761,7 @@
       <c r="J96" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="K96" s="74"/>
+      <c r="K96" s="68"/>
       <c r="L96" s="24"/>
       <c r="M96" s="26" t="s">
         <v>261</v>
@@ -11794,7 +11799,7 @@
       <c r="J97" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="K97" s="74"/>
+      <c r="K97" s="68"/>
       <c r="L97" s="24"/>
       <c r="M97" s="26" t="s">
         <v>261</v>
@@ -11832,7 +11837,7 @@
       <c r="J98" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="K98" s="74"/>
+      <c r="K98" s="68"/>
       <c r="L98" s="24"/>
       <c r="M98" s="26" t="s">
         <v>261</v>
@@ -11868,7 +11873,7 @@
       <c r="J99" s="38" t="s">
         <v>261</v>
       </c>
-      <c r="K99" s="75"/>
+      <c r="K99" s="72"/>
       <c r="L99" s="39"/>
       <c r="M99" s="41" t="s">
         <v>261</v>
@@ -11897,28 +11902,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="K20:K24"/>
-    <mergeCell ref="L20:L24"/>
-    <mergeCell ref="K25:K28"/>
-    <mergeCell ref="L25:L28"/>
-    <mergeCell ref="K29:K32"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="K42:K47"/>
-    <mergeCell ref="L42:L47"/>
-    <mergeCell ref="K50:K54"/>
-    <mergeCell ref="K57:K59"/>
-    <mergeCell ref="K60:K62"/>
-    <mergeCell ref="K63:K66"/>
-    <mergeCell ref="K69:K70"/>
     <mergeCell ref="K91:K94"/>
     <mergeCell ref="L91:L94"/>
     <mergeCell ref="K95:K99"/>
@@ -11927,6 +11910,28 @@
     <mergeCell ref="L77:L80"/>
     <mergeCell ref="K81:K82"/>
     <mergeCell ref="K85:K90"/>
+    <mergeCell ref="K50:K54"/>
+    <mergeCell ref="K57:K59"/>
+    <mergeCell ref="K60:K62"/>
+    <mergeCell ref="K63:K66"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="K29:K32"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="K42:K47"/>
+    <mergeCell ref="L42:L47"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="K20:K24"/>
+    <mergeCell ref="L20:L24"/>
+    <mergeCell ref="K25:K28"/>
+    <mergeCell ref="L25:L28"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="L9:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Meta/Analytes3.xlsx
+++ b/Meta/Analytes3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/vitense_kelsey_epa_gov/Documents/GL_Data/Meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="176" documentId="11_CFA7FA0AC8BEC675FF6906A82B7A2EC91D13FE60" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F85E95FD-3AA8-40C7-8385-571CFBC23C84}"/>
+  <xr:revisionPtr revIDLastSave="191" documentId="11_CFA7FA0AC8BEC675FF6906A82B7A2EC91D13FE60" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A244E730-AE7D-4A46-A8EE-CD4E23FADF4A}"/>
   <bookViews>
     <workbookView xWindow="-61548" yWindow="-1872" windowWidth="30936" windowHeight="16776" tabRatio="772" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2706" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2706" uniqueCount="690">
   <si>
     <t>ANALYTE</t>
   </si>
@@ -801,9 +801,6 @@
   </si>
   <si>
     <t>Nitrate - Nitrite Nitrogen</t>
-  </si>
-  <si>
-    <t>n</t>
   </si>
   <si>
     <t>N</t>
@@ -1376,31 +1373,13 @@
     <t>NOAA_WQ</t>
   </si>
   <si>
-    <t>surface temp</t>
-  </si>
-  <si>
-    <t>secchi</t>
-  </si>
-  <si>
-    <t>tp</t>
-  </si>
-  <si>
-    <t>pp</t>
-  </si>
-  <si>
     <t>Part_C</t>
   </si>
   <si>
     <t xml:space="preserve">For both C and N, this should be particulate </t>
   </si>
   <si>
-    <t>srp</t>
-  </si>
-  <si>
     <t/>
-  </si>
-  <si>
-    <t>sio2</t>
   </si>
   <si>
     <t>NOAActd</t>
@@ -2140,6 +2119,15 @@
   </si>
   <si>
     <t>This is at the very surface with a hand held thermometer.  It's pretty sensitive to air temp/solar heating, but is a back up for when the CTD does not work or is not dropped.</t>
+  </si>
+  <si>
+    <t>SurfaceTemp</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>SiO2</t>
   </si>
 </sst>
 </file>
@@ -2627,11 +2615,35 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2639,10 +2651,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2656,30 +2668,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2996,7 +2984,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="66" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3004,12 +2992,12 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="66" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="66" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3017,7 +3005,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="66" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3025,10 +3013,10 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="66" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="B8" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3036,55 +3024,55 @@
         <v>76</v>
       </c>
       <c r="B9" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="66" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="B10" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="66" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="B11" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="66" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="B12" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="66" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="B13" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="66" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="B14" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="66" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="B15" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3092,23 +3080,23 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="66" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="B17" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="66" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="B18" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3116,95 +3104,95 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="66" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="B20" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="66" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="B21" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="66" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="B22" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="66" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="B23" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="66" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="B24" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="66" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="B25" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="66" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="B26" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="66" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="B27" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="66" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="B28" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="66" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="B29" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="66" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="B30" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -3212,7 +3200,7 @@
         <v>151</v>
       </c>
       <c r="B31" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -3220,7 +3208,7 @@
         <v>150</v>
       </c>
       <c r="B32" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -3228,23 +3216,23 @@
         <v>152</v>
       </c>
       <c r="B33" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="66" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="B34" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="66" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="B35" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -3283,21 +3271,21 @@
         <v>5</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>241</v>
@@ -3306,7 +3294,7 @@
         <v>159</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>30</v>
@@ -3317,13 +3305,13 @@
         <v>225</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>160</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>20</v>
@@ -3331,16 +3319,16 @@
     </row>
     <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>160</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>20</v>
@@ -3348,16 +3336,16 @@
     </row>
     <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>159</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>30</v>
@@ -3365,16 +3353,16 @@
     </row>
     <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>159</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3382,16 +3370,16 @@
     </row>
     <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>160</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>20</v>
@@ -3402,13 +3390,13 @@
         <v>57</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>159</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>30</v>
@@ -3419,13 +3407,13 @@
         <v>21</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>160</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>20</v>
@@ -3436,13 +3424,13 @@
         <v>61</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>162</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>114</v>
@@ -3450,16 +3438,16 @@
     </row>
     <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>159</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>30</v>
@@ -3467,16 +3455,16 @@
     </row>
     <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>159</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3484,16 +3472,16 @@
     </row>
     <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>159</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>30</v>
@@ -3501,16 +3489,16 @@
     </row>
     <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>160</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>20</v>
@@ -3518,16 +3506,16 @@
     </row>
     <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>160</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>20</v>
@@ -3535,16 +3523,16 @@
     </row>
     <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B16" s="61" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>120</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>120</v>
@@ -3552,16 +3540,16 @@
     </row>
     <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>160</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>20</v>
@@ -3572,13 +3560,13 @@
         <v>37</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>160</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>20</v>
@@ -3589,13 +3577,13 @@
         <v>35</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>160</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>20</v>
@@ -3603,19 +3591,19 @@
     </row>
     <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B20" s="61" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>157</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3623,13 +3611,13 @@
         <v>44</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>160</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>20</v>
@@ -3640,13 +3628,13 @@
         <v>94</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>159</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>30</v>
@@ -3654,16 +3642,16 @@
     </row>
     <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>159</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>30</v>
@@ -3671,19 +3659,19 @@
     </row>
     <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B24" s="61" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>157</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3691,13 +3679,13 @@
         <v>149</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>160</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>20</v>
@@ -3708,13 +3696,13 @@
         <v>111</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>159</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>30</v>
@@ -3728,13 +3716,13 @@
         <v>52</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3742,13 +3730,13 @@
         <v>39</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>160</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>20</v>
@@ -3759,13 +3747,13 @@
         <v>36</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>160</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>20</v>
@@ -3773,19 +3761,19 @@
     </row>
     <row r="30" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B30" s="61" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>157</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3793,13 +3781,13 @@
         <v>47</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>160</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>20</v>
@@ -3810,13 +3798,13 @@
         <v>119</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>120</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>120</v>
@@ -3824,16 +3812,16 @@
     </row>
     <row r="33" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>159</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>30</v>
@@ -3841,16 +3829,16 @@
     </row>
     <row r="34" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>159</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>30</v>
@@ -3861,13 +3849,13 @@
         <v>197</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>196</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>196</v>
@@ -3875,16 +3863,16 @@
     </row>
     <row r="36" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>160</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>20</v>
@@ -3895,13 +3883,13 @@
         <v>234</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>159</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>30</v>
@@ -3909,16 +3897,16 @@
     </row>
     <row r="38" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>159</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>30</v>
@@ -3926,16 +3914,16 @@
     </row>
     <row r="39" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>159</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>30</v>
@@ -3946,13 +3934,13 @@
         <v>63</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>159</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>30</v>
@@ -3963,13 +3951,13 @@
         <v>27</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>160</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>20</v>
@@ -3986,7 +3974,7 @@
         <v>204</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>204</v>
@@ -3994,16 +3982,16 @@
     </row>
     <row r="43" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>154</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>154</v>
@@ -4011,16 +3999,16 @@
     </row>
     <row r="44" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>155</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>155</v>
@@ -4066,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -4106,7 +4094,7 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="13" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F2" s="19">
         <v>2015</v>
@@ -4118,13 +4106,13 @@
         <v>148</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="L2" s="13"/>
     </row>
@@ -4138,7 +4126,7 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="13" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="F3" s="19">
         <v>2015</v>
@@ -4150,13 +4138,13 @@
         <v>148</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="L3" s="13"/>
     </row>
@@ -4170,19 +4158,19 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="13" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="F4" s="19">
         <v>2015</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
@@ -4198,7 +4186,7 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="13" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="F5" s="19">
         <v>2015</v>
@@ -4210,7 +4198,7 @@
         <v>21</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
@@ -4226,7 +4214,7 @@
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="13" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F6" s="19">
         <v>2015</v>
@@ -4238,7 +4226,7 @@
         <v>57</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
@@ -4254,7 +4242,7 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="13" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="F7" s="19">
         <v>2015</v>
@@ -4266,10 +4254,10 @@
         <v>119</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
@@ -4284,7 +4272,7 @@
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="13" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="F8" s="19">
         <v>2015</v>
@@ -4296,10 +4284,10 @@
         <v>148</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
@@ -4314,7 +4302,7 @@
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="13" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="F9" s="19">
         <v>2015</v>
@@ -4326,10 +4314,10 @@
         <v>148</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
@@ -4344,7 +4332,7 @@
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="13" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="F10" s="19">
         <v>2015</v>
@@ -4356,7 +4344,7 @@
         <v>111</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
@@ -4372,7 +4360,7 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="13" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F11" s="19">
         <v>2015</v>
@@ -4382,11 +4370,11 @@
         <v>148</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J11" s="13"/>
       <c r="K11" s="13" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="L11" s="13"/>
     </row>
@@ -4395,12 +4383,12 @@
         <v>75</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="13" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="F12" s="19">
         <v>2015</v>
@@ -4410,13 +4398,13 @@
         <v>148</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="L12" s="13"/>
     </row>
@@ -4425,12 +4413,12 @@
         <v>75</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="13" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F13" s="19">
         <v>2015</v>
@@ -4440,13 +4428,13 @@
         <v>148</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="L13" s="13"/>
     </row>
@@ -4455,12 +4443,12 @@
         <v>75</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="13" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F14" s="19">
         <v>2015</v>
@@ -4470,13 +4458,13 @@
         <v>148</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="L14" s="13"/>
     </row>
@@ -4490,7 +4478,7 @@
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="13" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="F15" s="19">
         <v>2015</v>
@@ -4499,10 +4487,10 @@
         <v>159</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
@@ -4518,7 +4506,7 @@
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="13" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="F16" s="19">
         <v>2015</v>
@@ -4527,10 +4515,10 @@
         <v>159</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
@@ -4546,7 +4534,7 @@
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="13" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="F17" s="19">
         <v>2015</v>
@@ -4555,10 +4543,10 @@
         <v>159</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
@@ -4574,7 +4562,7 @@
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="13" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="F18" s="19">
         <v>2015</v>
@@ -4586,7 +4574,7 @@
         <v>225</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
@@ -4602,7 +4590,7 @@
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="13" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="F19" s="19">
         <v>2015</v>
@@ -4614,7 +4602,7 @@
         <v>149</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
@@ -4630,7 +4618,7 @@
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="13" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="F20" s="19">
         <v>2015</v>
@@ -4642,13 +4630,13 @@
         <v>148</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="L20" s="13"/>
     </row>
@@ -4662,7 +4650,7 @@
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="13" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="F21" s="19">
         <v>2015</v>
@@ -4671,16 +4659,16 @@
         <v>160</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="L21" s="13"/>
     </row>
@@ -4694,7 +4682,7 @@
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="13" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="F22" s="19">
         <v>2015</v>
@@ -4706,7 +4694,7 @@
         <v>52</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
@@ -4722,7 +4710,7 @@
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="13" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="F23" s="19">
         <v>2015</v>
@@ -4734,13 +4722,13 @@
         <v>148</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="L23" s="13"/>
     </row>
@@ -4754,7 +4742,7 @@
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="13" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="F24" s="19">
         <v>2015</v>
@@ -4766,10 +4754,10 @@
         <v>35</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
@@ -4784,7 +4772,7 @@
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="13" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="F25" s="19">
         <v>2015</v>
@@ -4796,7 +4784,7 @@
         <v>36</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J25" s="13"/>
       <c r="K25" s="13"/>
@@ -4812,7 +4800,7 @@
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="13" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="F26" s="19">
         <v>2015</v>
@@ -4824,7 +4812,7 @@
         <v>63</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
@@ -4840,7 +4828,7 @@
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="13" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="F27" s="19">
         <v>2015</v>
@@ -4852,10 +4840,10 @@
         <v>61</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="K27" s="13"/>
       <c r="L27" s="13"/>
@@ -4870,7 +4858,7 @@
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="13" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="F28" s="19">
         <v>2015</v>
@@ -4882,7 +4870,7 @@
         <v>27</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
@@ -4898,7 +4886,7 @@
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="13" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="F29" s="19">
         <v>2015</v>
@@ -4910,7 +4898,7 @@
         <v>205</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
@@ -4926,7 +4914,7 @@
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="13" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="F30" s="19">
         <v>2015</v>
@@ -4938,13 +4926,13 @@
         <v>44</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="L30" s="13"/>
     </row>
@@ -4958,7 +4946,7 @@
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="13" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="F31" s="19">
         <v>2015</v>
@@ -4970,19 +4958,19 @@
         <v>47</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="L31" s="13"/>
     </row>
     <row r="32" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B32" s="25" t="s">
         <v>121</v>
@@ -5003,16 +4991,16 @@
         <v>158</v>
       </c>
       <c r="J32" s="27" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="K32" s="27" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="L32" s="13"/>
     </row>
     <row r="33" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>123</v>
@@ -5033,16 +5021,16 @@
         <v>158</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="K33" s="13" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="L33" s="13"/>
     </row>
     <row r="34" spans="1:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>125</v>
@@ -5068,7 +5056,7 @@
     </row>
     <row r="35" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>127</v>
@@ -5089,19 +5077,19 @@
         <v>158</v>
       </c>
       <c r="J35" s="13" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="K35" s="13" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="L35" s="13"/>
     </row>
     <row r="36" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -5119,16 +5107,16 @@
         <v>158</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="L36" s="13"/>
     </row>
     <row r="37" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>128</v>
@@ -5149,16 +5137,16 @@
         <v>158</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="K37" s="13" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="L37" s="13"/>
     </row>
     <row r="38" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>129</v>
@@ -5179,19 +5167,19 @@
         <v>158</v>
       </c>
       <c r="J38" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="K38" s="13" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="L38" s="13"/>
     </row>
     <row r="39" spans="1:12" s="15" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -5205,16 +5193,16 @@
         <v>158</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="K39" s="13" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="L39" s="13"/>
     </row>
     <row r="40" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>130</v>
@@ -5226,7 +5214,7 @@
         <v>2021</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>148</v>
@@ -5235,16 +5223,16 @@
         <v>158</v>
       </c>
       <c r="J40" s="13" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="K40" s="13" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="L40" s="13"/>
     </row>
     <row r="41" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>131</v>
@@ -5256,7 +5244,7 @@
         <v>2021</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>148</v>
@@ -5265,16 +5253,16 @@
         <v>158</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="L41" s="13"/>
     </row>
     <row r="42" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>247</v>
@@ -5295,17 +5283,17 @@
         <v>158</v>
       </c>
       <c r="J42" s="13" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="K42" s="13"/>
       <c r="L42" s="13"/>
     </row>
     <row r="43" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -5328,10 +5316,10 @@
     </row>
     <row r="44" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -5340,7 +5328,7 @@
         <v>2021</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="H44" s="7" t="s">
         <v>148</v>
@@ -5349,17 +5337,17 @@
         <v>158</v>
       </c>
       <c r="J44" s="13" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="K44" s="13"/>
       <c r="L44" s="13"/>
     </row>
     <row r="45" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -5368,7 +5356,7 @@
         <v>2021</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>148</v>
@@ -5377,17 +5365,17 @@
         <v>158</v>
       </c>
       <c r="J45" s="13" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="K45" s="13"/>
       <c r="L45" s="13"/>
     </row>
     <row r="46" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -5396,7 +5384,7 @@
         <v>2021</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>148</v>
@@ -5405,17 +5393,17 @@
         <v>158</v>
       </c>
       <c r="J46" s="13" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="K46" s="13"/>
       <c r="L46" s="13"/>
     </row>
     <row r="47" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -5433,17 +5421,17 @@
         <v>158</v>
       </c>
       <c r="J47" s="13" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="K47" s="13"/>
       <c r="L47" s="13"/>
     </row>
     <row r="48" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -5452,7 +5440,7 @@
         <v>2021</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="H48" s="7" t="s">
         <v>148</v>
@@ -5461,17 +5449,17 @@
         <v>158</v>
       </c>
       <c r="J48" s="13" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="K48" s="13"/>
       <c r="L48" s="13"/>
     </row>
     <row r="49" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -5480,7 +5468,7 @@
         <v>2021</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>148</v>
@@ -5489,14 +5477,14 @@
         <v>158</v>
       </c>
       <c r="J49" s="13" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="K49" s="13"/>
       <c r="L49" s="13"/>
     </row>
     <row r="50" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>52</v>
@@ -5522,10 +5510,10 @@
     </row>
     <row r="51" spans="1:12" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -5534,7 +5522,7 @@
         <v>2021</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>148</v>
@@ -5544,13 +5532,13 @@
       </c>
       <c r="J51" s="13"/>
       <c r="K51" s="13" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="L51" s="13"/>
     </row>
     <row r="52" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>132</v>
@@ -5562,7 +5550,7 @@
         <v>2021</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="H52" s="7" t="s">
         <v>148</v>
@@ -5576,7 +5564,7 @@
     </row>
     <row r="53" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>133</v>
@@ -5588,7 +5576,7 @@
         <v>2021</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="H53" s="7" t="s">
         <v>148</v>
@@ -5602,7 +5590,7 @@
     </row>
     <row r="54" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>134</v>
@@ -5614,7 +5602,7 @@
         <v>2021</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>148</v>
@@ -5628,7 +5616,7 @@
     </row>
     <row r="55" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>135</v>
@@ -5640,7 +5628,7 @@
         <v>2021</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="H55" s="7" t="s">
         <v>148</v>
@@ -5654,7 +5642,7 @@
     </row>
     <row r="56" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>136</v>
@@ -5680,7 +5668,7 @@
     </row>
     <row r="57" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>138</v>
@@ -5692,7 +5680,7 @@
         <v>2021</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>148</v>
@@ -5706,7 +5694,7 @@
     </row>
     <row r="58" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>139</v>
@@ -5732,10 +5720,10 @@
     </row>
     <row r="59" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -5758,10 +5746,10 @@
     </row>
     <row r="60" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
@@ -5770,7 +5758,7 @@
         <v>2021</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="H60" s="7" t="s">
         <v>148</v>
@@ -5784,10 +5772,10 @@
     </row>
     <row r="61" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -5805,14 +5793,14 @@
         <v>158</v>
       </c>
       <c r="J61" s="13" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="K61" s="13"/>
       <c r="L61" s="13"/>
     </row>
     <row r="62" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>205</v>
@@ -5824,7 +5812,7 @@
         <v>2021</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="H62" s="7" t="s">
         <v>148</v>
@@ -5833,14 +5821,14 @@
         <v>158</v>
       </c>
       <c r="J62" s="13" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="K62" s="13"/>
       <c r="L62" s="13"/>
     </row>
     <row r="63" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>140</v>
@@ -5852,7 +5840,7 @@
         <v>2021</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="H63" s="7" t="s">
         <v>148</v>
@@ -5866,7 +5854,7 @@
     </row>
     <row r="64" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>141</v>
@@ -5887,16 +5875,16 @@
         <v>158</v>
       </c>
       <c r="J64" s="13" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="K64" s="13" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="L64" s="13"/>
     </row>
     <row r="65" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>143</v>
@@ -5908,7 +5896,7 @@
         <v>2021</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="H65" s="7" t="s">
         <v>148</v>
@@ -5922,7 +5910,7 @@
     </row>
     <row r="66" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>144</v>
@@ -5934,7 +5922,7 @@
         <v>2021</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="H66" s="7" t="s">
         <v>148</v>
@@ -5948,7 +5936,7 @@
     </row>
     <row r="67" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>145</v>
@@ -5960,7 +5948,7 @@
         <v>2021</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="H67" s="7" t="s">
         <v>148</v>
@@ -5974,7 +5962,7 @@
     </row>
     <row r="68" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>146</v>
@@ -5986,7 +5974,7 @@
         <v>2021</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="H68" s="7" t="s">
         <v>148</v>
@@ -6000,10 +5988,10 @@
     </row>
     <row r="69" spans="1:12" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
@@ -6016,20 +6004,20 @@
         <v>148</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J69" s="13" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="K69" s="13"/>
       <c r="L69" s="13"/>
     </row>
     <row r="70" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -6047,17 +6035,17 @@
         <v>158</v>
       </c>
       <c r="J70" s="13" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="K70" s="13"/>
       <c r="L70" s="13"/>
     </row>
     <row r="71" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
@@ -6075,17 +6063,17 @@
         <v>158</v>
       </c>
       <c r="J71" s="13" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="K71" s="13"/>
       <c r="L71" s="13"/>
     </row>
     <row r="72" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
@@ -6104,10 +6092,10 @@
     </row>
     <row r="73" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -6119,23 +6107,23 @@
         <v>155</v>
       </c>
       <c r="H73" s="18" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I73" s="8" t="s">
         <v>158</v>
       </c>
       <c r="J73" s="13" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="K73" s="13"/>
       <c r="L73" s="13"/>
     </row>
     <row r="74" spans="1:12" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
@@ -6154,10 +6142,10 @@
     </row>
     <row r="75" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
@@ -6173,17 +6161,17 @@
         <v>158</v>
       </c>
       <c r="J75" s="13" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="K75" s="13"/>
       <c r="L75" s="13"/>
     </row>
     <row r="76" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
@@ -6199,17 +6187,17 @@
         <v>158</v>
       </c>
       <c r="J76" s="13" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="K76" s="13"/>
       <c r="L76" s="13"/>
     </row>
     <row r="77" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
@@ -6227,14 +6215,14 @@
         <v>158</v>
       </c>
       <c r="J77" s="13" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="K77" s="13"/>
       <c r="L77" s="13"/>
     </row>
     <row r="78" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="B78" s="25" t="s">
         <v>92</v>
@@ -6249,20 +6237,20 @@
         <v>30</v>
       </c>
       <c r="H78" s="25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I78" s="25" t="s">
         <v>158</v>
       </c>
       <c r="J78" s="27" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="K78" s="27"/>
       <c r="L78" s="13"/>
     </row>
     <row r="79" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>87</v>
@@ -6283,14 +6271,14 @@
         <v>158</v>
       </c>
       <c r="J79" s="13" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="K79" s="13"/>
       <c r="L79" s="13"/>
     </row>
     <row r="80" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>90</v>
@@ -6305,20 +6293,20 @@
         <v>30</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I80" s="8" t="s">
         <v>158</v>
       </c>
       <c r="J80" s="13" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="K80" s="13"/>
       <c r="L80" s="13"/>
     </row>
     <row r="81" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>93</v>
@@ -6333,20 +6321,20 @@
         <v>30</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I81" s="8" t="s">
         <v>158</v>
       </c>
       <c r="J81" s="13" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="K81" s="13"/>
       <c r="L81" s="13"/>
     </row>
     <row r="82" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>83</v>
@@ -6367,14 +6355,14 @@
         <v>158</v>
       </c>
       <c r="J82" s="13" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="K82" s="13"/>
       <c r="L82" s="13"/>
     </row>
     <row r="83" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>34</v>
@@ -6395,14 +6383,14 @@
         <v>158</v>
       </c>
       <c r="J83" s="13" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="K83" s="13"/>
       <c r="L83" s="13"/>
     </row>
     <row r="84" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>91</v>
@@ -6417,20 +6405,20 @@
         <v>30</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I84" s="8" t="s">
         <v>158</v>
       </c>
       <c r="J84" s="13" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="K84" s="13"/>
       <c r="L84" s="13"/>
     </row>
     <row r="85" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>89</v>
@@ -6451,14 +6439,14 @@
         <v>158</v>
       </c>
       <c r="J85" s="13" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="K85" s="13"/>
       <c r="L85" s="13"/>
     </row>
     <row r="86" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>27</v>
@@ -6486,7 +6474,7 @@
     </row>
     <row r="87" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>80</v>
@@ -6498,7 +6486,7 @@
         <v>2021</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="H87" s="7" t="s">
         <v>234</v>
@@ -6507,14 +6495,14 @@
         <v>158</v>
       </c>
       <c r="J87" s="13" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="K87" s="13"/>
       <c r="L87" s="13"/>
     </row>
     <row r="88" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>86</v>
@@ -6535,14 +6523,14 @@
         <v>158</v>
       </c>
       <c r="J88" s="13" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="K88" s="13"/>
       <c r="L88" s="13"/>
     </row>
     <row r="89" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>85</v>
@@ -6563,14 +6551,14 @@
         <v>158</v>
       </c>
       <c r="J89" s="13" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="K89" s="13"/>
       <c r="L89" s="13"/>
     </row>
     <row r="90" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="B90" s="8" t="s">
         <v>95</v>
@@ -6578,7 +6566,7 @@
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
       <c r="E90" s="13" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="F90" s="19">
         <v>2021</v>
@@ -6593,16 +6581,16 @@
         <v>158</v>
       </c>
       <c r="J90" s="13" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="K90" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L90" s="13"/>
     </row>
     <row r="91" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>96</v>
@@ -6610,7 +6598,7 @@
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
       <c r="E91" s="13" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="F91" s="19">
         <v>2021</v>
@@ -6625,16 +6613,16 @@
         <v>158</v>
       </c>
       <c r="J91" s="13" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="K91" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L91" s="13"/>
     </row>
     <row r="92" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>97</v>
@@ -6666,7 +6654,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="58" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D93" s="58"/>
       <c r="E93" s="59"/>
@@ -6677,7 +6665,7 @@
         <v>88</v>
       </c>
       <c r="H93" s="25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I93" s="25" t="s">
         <v>158</v>
@@ -6705,7 +6693,7 @@
         <v>88</v>
       </c>
       <c r="H94" s="25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I94" s="8" t="s">
         <v>158</v>
@@ -6722,7 +6710,7 @@
         <v>87</v>
       </c>
       <c r="C95" s="61" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D95" s="61"/>
       <c r="E95" s="62"/>
@@ -6750,7 +6738,7 @@
         <v>94</v>
       </c>
       <c r="C96" s="61" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D96" s="61"/>
       <c r="E96" s="62"/>
@@ -6806,7 +6794,7 @@
         <v>90</v>
       </c>
       <c r="C98" s="61" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D98" s="61"/>
       <c r="E98" s="62"/>
@@ -6817,7 +6805,7 @@
         <v>88</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I98" s="8" t="s">
         <v>158</v>
@@ -6845,7 +6833,7 @@
         <v>88</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I99" s="8" t="s">
         <v>158</v>
@@ -6862,7 +6850,7 @@
         <v>93</v>
       </c>
       <c r="C100" s="61" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D100" s="61"/>
       <c r="E100" s="62"/>
@@ -6873,7 +6861,7 @@
         <v>88</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I100" s="8" t="s">
         <v>158</v>
@@ -6901,7 +6889,7 @@
         <v>88</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I101" s="8" t="s">
         <v>158</v>
@@ -6918,7 +6906,7 @@
         <v>83</v>
       </c>
       <c r="C102" s="61" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D102" s="61"/>
       <c r="E102" s="62"/>
@@ -6974,7 +6962,7 @@
         <v>34</v>
       </c>
       <c r="C104" s="61" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D104" s="61"/>
       <c r="E104" s="62"/>
@@ -7030,7 +7018,7 @@
         <v>91</v>
       </c>
       <c r="C106" s="61" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D106" s="61"/>
       <c r="E106" s="62"/>
@@ -7041,7 +7029,7 @@
         <v>88</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I106" s="8" t="s">
         <v>158</v>
@@ -7069,7 +7057,7 @@
         <v>88</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I107" s="8" t="s">
         <v>158</v>
@@ -7086,7 +7074,7 @@
         <v>99</v>
       </c>
       <c r="C108" s="61" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D108" s="61"/>
       <c r="E108" s="62"/>
@@ -7097,19 +7085,19 @@
         <v>84</v>
       </c>
       <c r="H108" s="14" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="I108" s="14" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="J108" s="13" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="K108" s="13" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="L108" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7131,19 +7119,19 @@
         <v>84</v>
       </c>
       <c r="H109" s="14" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="I109" s="14" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="J109" s="13" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="K109" s="13" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="L109" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="110" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7154,7 +7142,7 @@
         <v>98</v>
       </c>
       <c r="C110" s="61" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D110" s="61"/>
       <c r="E110" s="62"/>
@@ -7168,16 +7156,16 @@
         <v>35</v>
       </c>
       <c r="I110" s="14" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="J110" s="13" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="K110" s="13" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="L110" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7202,16 +7190,16 @@
         <v>35</v>
       </c>
       <c r="I111" s="14" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="J111" s="13" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="K111" s="13" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="L111" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7222,7 +7210,7 @@
         <v>100</v>
       </c>
       <c r="C112" s="61" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D112" s="61"/>
       <c r="E112" s="62"/>
@@ -7236,16 +7224,16 @@
         <v>36</v>
       </c>
       <c r="I112" s="14" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="J112" s="13" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="K112" s="13" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="L112" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7270,16 +7258,16 @@
         <v>36</v>
       </c>
       <c r="I113" s="14" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="J113" s="13" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="K113" s="13" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="L113" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7290,7 +7278,7 @@
         <v>89</v>
       </c>
       <c r="C114" s="61" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D114" s="61"/>
       <c r="E114" s="62"/>
@@ -7318,7 +7306,7 @@
         <v>27</v>
       </c>
       <c r="C115" s="61" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D115" s="61"/>
       <c r="E115" s="62"/>
@@ -7374,7 +7362,7 @@
         <v>197</v>
       </c>
       <c r="C117" s="61" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D117" s="61"/>
       <c r="E117" s="62"/>
@@ -7382,7 +7370,7 @@
         <v>2010</v>
       </c>
       <c r="G117" s="61" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="H117" s="7" t="s">
         <v>197</v>
@@ -7410,7 +7398,7 @@
         <v>2010</v>
       </c>
       <c r="G118" s="61" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="H118" s="7" t="s">
         <v>197</v>
@@ -7430,7 +7418,7 @@
         <v>80</v>
       </c>
       <c r="C119" s="61" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D119" s="61"/>
       <c r="E119" s="62"/>
@@ -7444,10 +7432,10 @@
         <v>234</v>
       </c>
       <c r="I119" s="8" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="J119" s="13" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="K119" s="13"/>
       <c r="L119" s="13"/>
@@ -7460,7 +7448,7 @@
         <v>86</v>
       </c>
       <c r="C120" s="61" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D120" s="61"/>
       <c r="E120" s="62"/>
@@ -7488,7 +7476,7 @@
         <v>85</v>
       </c>
       <c r="C121" s="61" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D121" s="61"/>
       <c r="E121" s="62"/>
@@ -7516,7 +7504,7 @@
         <v>95</v>
       </c>
       <c r="C122" s="61" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D122" s="61"/>
       <c r="E122" s="62"/>
@@ -7530,13 +7518,13 @@
         <v>148</v>
       </c>
       <c r="I122" s="8" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="J122" s="13" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="K122" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L122" s="13"/>
     </row>
@@ -7562,11 +7550,11 @@
         <v>148</v>
       </c>
       <c r="I123" s="8" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="J123" s="13"/>
       <c r="K123" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L123" s="13"/>
     </row>
@@ -7578,7 +7566,7 @@
         <v>96</v>
       </c>
       <c r="C124" s="61" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D124" s="61"/>
       <c r="E124" s="62"/>
@@ -7592,11 +7580,11 @@
         <v>148</v>
       </c>
       <c r="I124" s="8" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="J124" s="13"/>
       <c r="K124" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L124" s="13"/>
     </row>
@@ -7622,11 +7610,11 @@
         <v>148</v>
       </c>
       <c r="I125" s="8" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="J125" s="13"/>
       <c r="K125" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L125" s="13"/>
     </row>
@@ -7638,7 +7626,7 @@
         <v>97</v>
       </c>
       <c r="C126" s="61" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D126" s="61"/>
       <c r="E126" s="62"/>
@@ -7680,7 +7668,7 @@
         <v>21</v>
       </c>
       <c r="I127" s="14" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="J127" s="13"/>
       <c r="K127" s="13"/>
@@ -7699,7 +7687,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7745,32 +7733,28 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7" t="s">
+      <c r="A2" s="18" t="s">
+        <v>438</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>687</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
-        <v>693</v>
-      </c>
-      <c r="I2" s="7"/>
+      <c r="H2" s="18" t="s">
+        <v>686</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>441</v>
+        <v>197</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
@@ -7786,14 +7770,14 @@
     </row>
     <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>21</v>
@@ -7805,14 +7789,14 @@
     </row>
     <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>442</v>
+        <v>85</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>47</v>
@@ -7824,14 +7808,14 @@
     </row>
     <row r="6" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>443</v>
+        <v>688</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>36</v>
@@ -7843,28 +7827,28 @@
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
         <v>126</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>251</v>
@@ -7879,26 +7863,26 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>446</v>
+        <v>27</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F9" s="52" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -7906,14 +7890,14 @@
     </row>
     <row r="10" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>448</v>
+        <v>689</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>234</v>
@@ -7925,7 +7909,7 @@
     </row>
     <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>243</v>
@@ -7944,7 +7928,7 @@
     </row>
     <row r="12" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>245</v>
@@ -7963,7 +7947,7 @@
     </row>
     <row r="13" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>245</v>
@@ -7982,7 +7966,7 @@
     </row>
     <row r="14" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>246</v>
@@ -7999,16 +7983,16 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>148</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
     </row>
   </sheetData>
@@ -8048,10 +8032,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1" s="31" t="s">
         <v>253</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>254</v>
       </c>
       <c r="E1" s="31" t="s">
         <v>2</v>
@@ -8089,34 +8073,34 @@
         <v>73</v>
       </c>
       <c r="B2" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="D2" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="E2" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="F2" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="G2" s="25" t="s">
         <v>259</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>260</v>
       </c>
       <c r="H2" s="25" t="s">
         <v>126</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="K2" s="67"/>
-      <c r="L2" s="69"/>
+        <v>260</v>
+      </c>
+      <c r="K2" s="73"/>
+      <c r="L2" s="77"/>
       <c r="M2" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
@@ -8127,34 +8111,34 @@
         <v>73</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>256</v>
-      </c>
       <c r="D3" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>264</v>
-      </c>
       <c r="G3" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>126</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="K3" s="68"/>
-      <c r="L3" s="70"/>
+        <v>260</v>
+      </c>
+      <c r="K3" s="74"/>
+      <c r="L3" s="78"/>
       <c r="M3" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
@@ -8165,34 +8149,34 @@
         <v>73</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>256</v>
-      </c>
       <c r="D4" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F4" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>265</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>266</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="K4" s="68"/>
-      <c r="L4" s="70"/>
+        <v>260</v>
+      </c>
+      <c r="K4" s="74"/>
+      <c r="L4" s="78"/>
       <c r="M4" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -8203,32 +8187,32 @@
         <v>73</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>256</v>
-      </c>
       <c r="D5" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>126</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="K5" s="68"/>
-      <c r="L5" s="70"/>
+        <v>260</v>
+      </c>
+      <c r="K5" s="74"/>
+      <c r="L5" s="78"/>
       <c r="M5" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
@@ -8239,36 +8223,36 @@
         <v>73</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="F6" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>269</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>270</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>126</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="K6" s="71" t="s">
-        <v>271</v>
-      </c>
-      <c r="L6" s="73"/>
+        <v>260</v>
+      </c>
+      <c r="K6" s="76" t="s">
+        <v>270</v>
+      </c>
+      <c r="L6" s="81"/>
       <c r="M6" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
@@ -8279,34 +8263,34 @@
         <v>73</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E7" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>273</v>
-      </c>
       <c r="G7" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="K7" s="68"/>
-      <c r="L7" s="74"/>
+        <v>260</v>
+      </c>
+      <c r="K7" s="74"/>
+      <c r="L7" s="82"/>
       <c r="M7" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
@@ -8317,32 +8301,32 @@
         <v>73</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="28" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H8" s="28" t="s">
         <v>126</v>
       </c>
       <c r="I8" s="29"/>
       <c r="J8" s="38" t="s">
-        <v>261</v>
-      </c>
-      <c r="K8" s="72"/>
-      <c r="L8" s="75"/>
+        <v>260</v>
+      </c>
+      <c r="K8" s="75"/>
+      <c r="L8" s="83"/>
       <c r="M8" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -8353,38 +8337,38 @@
         <v>73</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>276</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>277</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>225</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="K9" s="76" t="s">
+        <v>260</v>
+      </c>
+      <c r="K9" s="84" t="s">
+        <v>278</v>
+      </c>
+      <c r="L9" s="79" t="s">
         <v>279</v>
       </c>
-      <c r="L9" s="78" t="s">
-        <v>280</v>
-      </c>
       <c r="M9" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -8395,19 +8379,19 @@
         <v>73</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>276</v>
-      </c>
       <c r="E10" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>281</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>282</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>225</v>
@@ -8417,12 +8401,12 @@
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="K10" s="77"/>
-      <c r="L10" s="70"/>
+        <v>260</v>
+      </c>
+      <c r="K10" s="68"/>
+      <c r="L10" s="78"/>
       <c r="M10" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -8433,34 +8417,34 @@
         <v>73</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>263</v>
-      </c>
       <c r="F11" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>148</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="K11" s="77"/>
-      <c r="L11" s="70"/>
+        <v>260</v>
+      </c>
+      <c r="K11" s="68"/>
+      <c r="L11" s="78"/>
       <c r="M11" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -8471,17 +8455,17 @@
         <v>73</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>225</v>
@@ -8491,16 +8475,16 @@
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="36" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K12" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="L12" s="24" t="s">
         <v>285</v>
       </c>
-      <c r="L12" s="24" t="s">
-        <v>286</v>
-      </c>
       <c r="M12" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -8511,34 +8495,34 @@
         <v>73</v>
       </c>
       <c r="B13" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="E13" s="40" t="s">
         <v>287</v>
       </c>
-      <c r="C13" s="40" t="s">
-        <v>256</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>262</v>
-      </c>
-      <c r="E13" s="40" t="s">
+      <c r="F13" s="40" t="s">
+        <v>272</v>
+      </c>
+      <c r="G13" s="40" t="s">
         <v>288</v>
       </c>
-      <c r="F13" s="40" t="s">
-        <v>273</v>
-      </c>
-      <c r="G13" s="40" t="s">
-        <v>289</v>
-      </c>
       <c r="H13" s="40" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I13" s="40"/>
       <c r="J13" s="41" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K13" s="42"/>
       <c r="L13" s="43"/>
       <c r="M13" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -8549,38 +8533,38 @@
         <v>73</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="E14" s="8" t="s">
+      <c r="F14" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="G14" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>293</v>
-      </c>
       <c r="H14" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="36" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K14" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="L14" s="24" t="s">
         <v>294</v>
       </c>
-      <c r="L14" s="24" t="s">
-        <v>295</v>
-      </c>
       <c r="M14" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -8591,34 +8575,34 @@
         <v>73</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F15" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>296</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>297</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>126</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="36" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K15" s="37"/>
       <c r="L15" s="24"/>
       <c r="M15" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -8629,38 +8613,38 @@
         <v>73</v>
       </c>
       <c r="B16" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="C16" s="25" t="s">
         <v>298</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="D16" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="E16" s="25" t="s">
         <v>299</v>
       </c>
-      <c r="D16" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="E16" s="25" t="s">
+      <c r="F16" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="G16" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="H16" s="25" t="s">
         <v>302</v>
-      </c>
-      <c r="H16" s="25" t="s">
-        <v>303</v>
       </c>
       <c r="I16" s="25"/>
       <c r="J16" s="35" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K16" s="44" t="s">
+        <v>303</v>
+      </c>
+      <c r="L16" s="45" t="s">
         <v>304</v>
       </c>
-      <c r="L16" s="45" t="s">
-        <v>305</v>
-      </c>
       <c r="M16" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -8671,19 +8655,19 @@
         <v>73</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>94</v>
@@ -8693,16 +8677,16 @@
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="36" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K17" s="37" t="s">
+        <v>306</v>
+      </c>
+      <c r="L17" s="24" t="s">
         <v>307</v>
       </c>
-      <c r="L17" s="24" t="s">
-        <v>308</v>
-      </c>
       <c r="M17" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -8713,34 +8697,34 @@
         <v>73</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D18" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>310</v>
-      </c>
       <c r="H18" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="K18" s="71"/>
+        <v>260</v>
+      </c>
+      <c r="K18" s="76"/>
       <c r="L18" s="24"/>
       <c r="M18" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -8751,34 +8735,34 @@
         <v>73</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D19" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>309</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>311</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>312</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>310</v>
       </c>
       <c r="H19" s="28" t="s">
         <v>126</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="38" t="s">
-        <v>261</v>
-      </c>
-      <c r="K19" s="72"/>
+        <v>260</v>
+      </c>
+      <c r="K19" s="75"/>
       <c r="L19" s="46"/>
       <c r="M19" s="29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -8789,19 +8773,19 @@
         <v>73</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E20" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>263</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>264</v>
       </c>
       <c r="G20" s="25" t="s">
         <v>57</v>
@@ -8811,16 +8795,16 @@
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="K20" s="71" t="s">
+        <v>260</v>
+      </c>
+      <c r="K20" s="76" t="s">
+        <v>313</v>
+      </c>
+      <c r="L20" s="79" t="s">
         <v>314</v>
       </c>
-      <c r="L20" s="78" t="s">
-        <v>315</v>
-      </c>
       <c r="M20" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -8831,19 +8815,19 @@
         <v>73</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E21" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>316</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>317</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>57</v>
@@ -8853,12 +8837,12 @@
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="K21" s="68"/>
-      <c r="L21" s="70"/>
+        <v>260</v>
+      </c>
+      <c r="K21" s="74"/>
+      <c r="L21" s="78"/>
       <c r="M21" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
@@ -8869,17 +8853,17 @@
         <v>73</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>57</v>
@@ -8889,12 +8873,12 @@
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="K22" s="68"/>
-      <c r="L22" s="70"/>
+        <v>260</v>
+      </c>
+      <c r="K22" s="74"/>
+      <c r="L22" s="78"/>
       <c r="M22" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
@@ -8905,19 +8889,19 @@
         <v>73</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>57</v>
@@ -8927,12 +8911,12 @@
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="K23" s="68"/>
-      <c r="L23" s="70"/>
+        <v>260</v>
+      </c>
+      <c r="K23" s="74"/>
+      <c r="L23" s="78"/>
       <c r="M23" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -8943,19 +8927,19 @@
         <v>73</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>57</v>
@@ -8965,12 +8949,12 @@
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="K24" s="68"/>
-      <c r="L24" s="70"/>
+        <v>260</v>
+      </c>
+      <c r="K24" s="74"/>
+      <c r="L24" s="78"/>
       <c r="M24" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
@@ -8981,38 +8965,38 @@
         <v>73</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E25" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="F25" s="25" t="s">
         <v>263</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>264</v>
       </c>
       <c r="G25" s="25" t="s">
         <v>21</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I25" s="25"/>
       <c r="J25" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="K25" s="67" t="s">
+        <v>260</v>
+      </c>
+      <c r="K25" s="73" t="s">
+        <v>320</v>
+      </c>
+      <c r="L25" s="77" t="s">
         <v>321</v>
       </c>
-      <c r="L25" s="69" t="s">
-        <v>322</v>
-      </c>
       <c r="M25" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -9023,34 +9007,34 @@
         <v>73</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E26" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>323</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>324</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="K26" s="68"/>
-      <c r="L26" s="70"/>
+        <v>260</v>
+      </c>
+      <c r="K26" s="74"/>
+      <c r="L26" s="78"/>
       <c r="M26" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
@@ -9061,34 +9045,34 @@
         <v>73</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I27" s="7"/>
       <c r="J27" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="K27" s="68"/>
-      <c r="L27" s="70"/>
+        <v>260</v>
+      </c>
+      <c r="K27" s="74"/>
+      <c r="L27" s="78"/>
       <c r="M27" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
@@ -9099,32 +9083,32 @@
         <v>73</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F28" s="28" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G28" s="28" t="s">
         <v>21</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I28" s="28"/>
       <c r="J28" s="38" t="s">
-        <v>261</v>
-      </c>
-      <c r="K28" s="72"/>
-      <c r="L28" s="79"/>
+        <v>260</v>
+      </c>
+      <c r="K28" s="75"/>
+      <c r="L28" s="80"/>
       <c r="M28" s="29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
@@ -9138,16 +9122,16 @@
         <v>127</v>
       </c>
       <c r="C29" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="E29" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="F29" s="8" t="s">
         <v>258</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>259</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>61</v>
@@ -9157,14 +9141,14 @@
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="K29" s="71" t="s">
-        <v>327</v>
+        <v>260</v>
+      </c>
+      <c r="K29" s="76" t="s">
+        <v>326</v>
       </c>
       <c r="L29" s="24"/>
       <c r="M29" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
@@ -9178,16 +9162,16 @@
         <v>127</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D30" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="F30" s="8" t="s">
         <v>263</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>264</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>61</v>
@@ -9197,12 +9181,12 @@
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="K30" s="68"/>
+        <v>260</v>
+      </c>
+      <c r="K30" s="74"/>
       <c r="L30" s="24"/>
       <c r="M30" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
@@ -9216,31 +9200,31 @@
         <v>127</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>61</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I31" s="7"/>
       <c r="J31" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="K31" s="68"/>
+        <v>260</v>
+      </c>
+      <c r="K31" s="74"/>
       <c r="L31" s="24"/>
       <c r="M31" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
@@ -9254,14 +9238,14 @@
         <v>127</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>61</v>
@@ -9271,12 +9255,12 @@
       </c>
       <c r="I32" s="7"/>
       <c r="J32" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="K32" s="68"/>
+        <v>260</v>
+      </c>
+      <c r="K32" s="74"/>
       <c r="L32" s="24"/>
       <c r="M32" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
@@ -9287,38 +9271,38 @@
         <v>73</v>
       </c>
       <c r="B33" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="G33" s="25" t="s">
         <v>329</v>
       </c>
-      <c r="C33" s="25" t="s">
-        <v>256</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="E33" s="25" t="s">
-        <v>291</v>
-      </c>
-      <c r="F33" s="25" t="s">
-        <v>292</v>
-      </c>
-      <c r="G33" s="25" t="s">
-        <v>330</v>
-      </c>
       <c r="H33" s="25" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I33" s="25"/>
       <c r="J33" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="K33" s="67" t="s">
+        <v>260</v>
+      </c>
+      <c r="K33" s="73" t="s">
+        <v>293</v>
+      </c>
+      <c r="L33" s="45" t="s">
         <v>294</v>
       </c>
-      <c r="L33" s="45" t="s">
-        <v>295</v>
-      </c>
       <c r="M33" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
@@ -9329,34 +9313,34 @@
         <v>73</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F34" s="28" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G34" s="28" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H34" s="28" t="s">
         <v>126</v>
       </c>
       <c r="I34" s="28"/>
       <c r="J34" s="38" t="s">
-        <v>261</v>
-      </c>
-      <c r="K34" s="72"/>
+        <v>260</v>
+      </c>
+      <c r="K34" s="75"/>
       <c r="L34" s="46"/>
       <c r="M34" s="29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
@@ -9367,38 +9351,38 @@
         <v>73</v>
       </c>
       <c r="B35" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="G35" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="G35" s="8" t="s">
+      <c r="H35" s="8" t="s">
         <v>333</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>334</v>
       </c>
       <c r="I35" s="7"/>
       <c r="J35" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="K35" s="71" t="s">
+        <v>260</v>
+      </c>
+      <c r="K35" s="76" t="s">
+        <v>293</v>
+      </c>
+      <c r="L35" s="24" t="s">
         <v>294</v>
       </c>
-      <c r="L35" s="24" t="s">
-        <v>295</v>
-      </c>
       <c r="M35" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
@@ -9409,34 +9393,34 @@
         <v>73</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="K36" s="68"/>
+        <v>260</v>
+      </c>
+      <c r="K36" s="74"/>
       <c r="L36" s="24"/>
       <c r="M36" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
@@ -9447,34 +9431,34 @@
         <v>73</v>
       </c>
       <c r="B37" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="C37" s="40" t="s">
+        <v>298</v>
+      </c>
+      <c r="D37" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="E37" s="40" t="s">
         <v>336</v>
       </c>
-      <c r="C37" s="40" t="s">
-        <v>299</v>
-      </c>
-      <c r="D37" s="40" t="s">
-        <v>262</v>
-      </c>
-      <c r="E37" s="40" t="s">
+      <c r="F37" s="40" t="s">
         <v>337</v>
       </c>
-      <c r="F37" s="40" t="s">
+      <c r="G37" s="40" t="s">
         <v>338</v>
-      </c>
-      <c r="G37" s="40" t="s">
-        <v>339</v>
       </c>
       <c r="H37" s="40" t="s">
         <v>118</v>
       </c>
       <c r="I37" s="40"/>
       <c r="J37" s="41" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K37" s="42"/>
       <c r="L37" s="43"/>
       <c r="M37" s="47" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
@@ -9485,34 +9469,34 @@
         <v>73</v>
       </c>
       <c r="B38" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="G38" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>341</v>
-      </c>
       <c r="H38" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="36" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K38" s="37"/>
       <c r="L38" s="24"/>
       <c r="M38" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
@@ -9523,19 +9507,19 @@
         <v>73</v>
       </c>
       <c r="B39" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="E39" s="25" t="s">
         <v>342</v>
       </c>
-      <c r="C39" s="25" t="s">
-        <v>256</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>343</v>
-      </c>
       <c r="F39" s="25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G39" s="25" t="s">
         <v>37</v>
@@ -9545,14 +9529,14 @@
       </c>
       <c r="I39" s="25"/>
       <c r="J39" s="35" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K39" s="48" t="s">
-        <v>344</v>
-      </c>
-      <c r="L39" s="69"/>
+        <v>343</v>
+      </c>
+      <c r="L39" s="77"/>
       <c r="M39" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
@@ -9563,19 +9547,19 @@
         <v>73</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E40" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="F40" s="8" t="s">
         <v>345</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>346</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>44</v>
@@ -9585,12 +9569,12 @@
       </c>
       <c r="I40" s="7"/>
       <c r="J40" s="36" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K40" s="37"/>
-      <c r="L40" s="70"/>
+      <c r="L40" s="78"/>
       <c r="M40" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
@@ -9601,19 +9585,19 @@
         <v>73</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F41" s="28" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>35</v>
@@ -9623,16 +9607,16 @@
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="38" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K41" s="37" t="s">
+        <v>347</v>
+      </c>
+      <c r="L41" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="L41" s="46" t="s">
-        <v>349</v>
-      </c>
       <c r="M41" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
@@ -9643,19 +9627,19 @@
         <v>73</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E42" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="F42" s="8" t="s">
         <v>263</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>264</v>
       </c>
       <c r="G42" s="25" t="s">
         <v>149</v>
@@ -9665,16 +9649,16 @@
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="K42" s="71" t="s">
+        <v>260</v>
+      </c>
+      <c r="K42" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="L42" s="79" t="s">
         <v>351</v>
       </c>
-      <c r="L42" s="78" t="s">
-        <v>352</v>
-      </c>
       <c r="M42" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N42" s="7"/>
       <c r="O42" s="7"/>
@@ -9685,19 +9669,19 @@
         <v>73</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>149</v>
@@ -9707,12 +9691,12 @@
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="K43" s="68"/>
-      <c r="L43" s="70"/>
+        <v>260</v>
+      </c>
+      <c r="K43" s="74"/>
+      <c r="L43" s="78"/>
       <c r="M43" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N43" s="7"/>
       <c r="O43" s="7"/>
@@ -9723,19 +9707,19 @@
         <v>73</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>149</v>
@@ -9745,12 +9729,12 @@
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="K44" s="68"/>
-      <c r="L44" s="70"/>
+        <v>260</v>
+      </c>
+      <c r="K44" s="74"/>
+      <c r="L44" s="78"/>
       <c r="M44" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N44" s="7"/>
       <c r="O44" s="7"/>
@@ -9761,17 +9745,17 @@
         <v>73</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G45" s="8" t="s">
         <v>149</v>
@@ -9781,12 +9765,12 @@
       </c>
       <c r="I45" s="7"/>
       <c r="J45" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="K45" s="68"/>
-      <c r="L45" s="70"/>
+        <v>260</v>
+      </c>
+      <c r="K45" s="74"/>
+      <c r="L45" s="78"/>
       <c r="M45" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
@@ -9797,19 +9781,19 @@
         <v>73</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>149</v>
@@ -9819,12 +9803,12 @@
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="K46" s="68"/>
-      <c r="L46" s="70"/>
+        <v>260</v>
+      </c>
+      <c r="K46" s="74"/>
+      <c r="L46" s="78"/>
       <c r="M46" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
@@ -9835,19 +9819,19 @@
         <v>73</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>149</v>
@@ -9857,12 +9841,12 @@
       </c>
       <c r="I47" s="7"/>
       <c r="J47" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="K47" s="68"/>
-      <c r="L47" s="70"/>
+        <v>260</v>
+      </c>
+      <c r="K47" s="74"/>
+      <c r="L47" s="78"/>
       <c r="M47" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
@@ -9873,19 +9857,19 @@
         <v>73</v>
       </c>
       <c r="B48" s="40" t="s">
+        <v>355</v>
+      </c>
+      <c r="C48" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="D48" s="40" t="s">
+        <v>308</v>
+      </c>
+      <c r="E48" s="40" t="s">
         <v>356</v>
       </c>
-      <c r="C48" s="40" t="s">
-        <v>256</v>
-      </c>
-      <c r="D48" s="40" t="s">
-        <v>309</v>
-      </c>
-      <c r="E48" s="40" t="s">
-        <v>357</v>
-      </c>
       <c r="F48" s="40" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G48" s="47" t="s">
         <v>35</v>
@@ -9895,16 +9879,16 @@
       </c>
       <c r="I48" s="47"/>
       <c r="J48" s="41" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K48" s="42" t="s">
+        <v>357</v>
+      </c>
+      <c r="L48" s="43" t="s">
         <v>358</v>
       </c>
-      <c r="L48" s="43" t="s">
-        <v>359</v>
-      </c>
       <c r="M48" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
@@ -9915,34 +9899,34 @@
         <v>73</v>
       </c>
       <c r="B49" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E49" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="C49" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="E49" s="8" t="s">
+      <c r="F49" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="G49" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="F49" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="G49" s="8" t="s">
+      <c r="H49" s="8" t="s">
         <v>362</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>363</v>
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="36" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K49" s="37"/>
       <c r="L49" s="24"/>
       <c r="M49" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N49" s="7"/>
       <c r="O49" s="7"/>
@@ -9953,19 +9937,19 @@
         <v>73</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E50" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="F50" s="25" t="s">
         <v>263</v>
-      </c>
-      <c r="F50" s="25" t="s">
-        <v>264</v>
       </c>
       <c r="G50" s="25" t="s">
         <v>111</v>
@@ -9975,14 +9959,14 @@
       </c>
       <c r="I50" s="25"/>
       <c r="J50" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="K50" s="80" t="s">
-        <v>365</v>
+        <v>260</v>
+      </c>
+      <c r="K50" s="67" t="s">
+        <v>364</v>
       </c>
       <c r="L50" s="45"/>
       <c r="M50" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N50" s="7"/>
       <c r="O50" s="7"/>
@@ -9993,19 +9977,19 @@
         <v>73</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E51" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="F51" s="8" t="s">
         <v>366</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>367</v>
       </c>
       <c r="G51" s="8" t="s">
         <v>111</v>
@@ -10015,12 +9999,12 @@
       </c>
       <c r="I51" s="7"/>
       <c r="J51" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="K51" s="77"/>
+        <v>260</v>
+      </c>
+      <c r="K51" s="68"/>
       <c r="L51" s="24"/>
       <c r="M51" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N51" s="7"/>
       <c r="O51" s="7"/>
@@ -10031,19 +10015,19 @@
         <v>73</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E52" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="F52" s="8" t="s">
         <v>368</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>369</v>
       </c>
       <c r="G52" s="8" t="s">
         <v>111</v>
@@ -10053,12 +10037,12 @@
       </c>
       <c r="I52" s="7"/>
       <c r="J52" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="K52" s="77"/>
+        <v>260</v>
+      </c>
+      <c r="K52" s="68"/>
       <c r="L52" s="24"/>
       <c r="M52" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N52" s="7"/>
       <c r="O52" s="7"/>
@@ -10069,19 +10053,19 @@
         <v>73</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G53" s="8" t="s">
         <v>111</v>
@@ -10091,12 +10075,12 @@
       </c>
       <c r="I53" s="7"/>
       <c r="J53" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="K53" s="77"/>
+        <v>260</v>
+      </c>
+      <c r="K53" s="68"/>
       <c r="L53" s="24"/>
       <c r="M53" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N53" s="7"/>
       <c r="O53" s="7"/>
@@ -10107,17 +10091,17 @@
         <v>73</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="28" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G54" s="28" t="s">
         <v>111</v>
@@ -10127,12 +10111,12 @@
       </c>
       <c r="I54" s="28"/>
       <c r="J54" s="38" t="s">
-        <v>261</v>
-      </c>
-      <c r="K54" s="81"/>
+        <v>260</v>
+      </c>
+      <c r="K54" s="69"/>
       <c r="L54" s="46"/>
       <c r="M54" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N54" s="7"/>
       <c r="O54" s="7"/>
@@ -10143,38 +10127,38 @@
         <v>73</v>
       </c>
       <c r="B55" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E55" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="C55" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="E55" s="8" t="s">
+      <c r="F55" s="8" t="s">
         <v>373</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>374</v>
       </c>
       <c r="G55" s="8" t="s">
         <v>148</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I55" s="7"/>
       <c r="J55" s="36" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K55" s="33" t="s">
+        <v>374</v>
+      </c>
+      <c r="L55" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="L55" s="10" t="s">
-        <v>376</v>
-      </c>
       <c r="M55" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N55" s="7"/>
       <c r="O55" s="7"/>
@@ -10185,36 +10169,36 @@
         <v>73</v>
       </c>
       <c r="B56" s="40" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="40" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G56" s="47" t="s">
         <v>39</v>
       </c>
       <c r="H56" s="40" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I56" s="47"/>
       <c r="J56" s="41" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K56" s="42" t="s">
+        <v>377</v>
+      </c>
+      <c r="L56" s="43" t="s">
         <v>378</v>
       </c>
-      <c r="L56" s="43" t="s">
-        <v>379</v>
-      </c>
       <c r="M56" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N56" s="7"/>
       <c r="O56" s="7"/>
@@ -10225,36 +10209,36 @@
         <v>73</v>
       </c>
       <c r="B57" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="F57" s="8" t="s">
         <v>380</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>381</v>
       </c>
       <c r="G57" s="8" t="s">
         <v>27</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I57" s="7"/>
       <c r="J57" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="K57" s="71" t="s">
-        <v>382</v>
+        <v>260</v>
+      </c>
+      <c r="K57" s="76" t="s">
+        <v>381</v>
       </c>
       <c r="L57" s="24"/>
       <c r="M57" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N57" s="7"/>
       <c r="O57" s="7"/>
@@ -10265,34 +10249,34 @@
         <v>73</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E58" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="F58" s="8" t="s">
         <v>383</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>384</v>
       </c>
       <c r="G58" s="8" t="s">
         <v>27</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I58" s="7"/>
       <c r="J58" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="K58" s="68"/>
+        <v>260</v>
+      </c>
+      <c r="K58" s="74"/>
       <c r="L58" s="24"/>
       <c r="M58" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N58" s="7"/>
       <c r="O58" s="7"/>
@@ -10303,32 +10287,32 @@
         <v>73</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G59" s="8" t="s">
         <v>27</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I59" s="7"/>
       <c r="J59" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="K59" s="68"/>
+        <v>260</v>
+      </c>
+      <c r="K59" s="74"/>
       <c r="L59" s="24"/>
       <c r="M59" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N59" s="7"/>
       <c r="O59" s="7"/>
@@ -10339,36 +10323,36 @@
         <v>73</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E60" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="F60" s="25" t="s">
         <v>263</v>
-      </c>
-      <c r="F60" s="25" t="s">
-        <v>264</v>
       </c>
       <c r="G60" s="26" t="s">
         <v>39</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I60" s="26"/>
       <c r="J60" s="26" t="s">
-        <v>261</v>
-      </c>
-      <c r="K60" s="69" t="s">
-        <v>387</v>
+        <v>260</v>
+      </c>
+      <c r="K60" s="77" t="s">
+        <v>386</v>
       </c>
       <c r="L60" s="45"/>
       <c r="M60" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N60" s="7"/>
       <c r="O60" s="7"/>
@@ -10379,36 +10363,36 @@
         <v>73</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G61" s="9" t="s">
         <v>39</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="K61" s="70"/>
+        <v>260</v>
+      </c>
+      <c r="K61" s="78"/>
       <c r="L61" s="24" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M61" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N61" s="7"/>
       <c r="O61" s="7"/>
@@ -10419,36 +10403,36 @@
         <v>73</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G62" s="8" t="s">
         <v>39</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I62" s="7"/>
       <c r="J62" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="K62" s="70"/>
+        <v>260</v>
+      </c>
+      <c r="K62" s="78"/>
       <c r="L62" s="24" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M62" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N62" s="7"/>
       <c r="O62" s="7"/>
@@ -10459,34 +10443,34 @@
         <v>73</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D63" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E63" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="F63" s="8" t="s">
         <v>263</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>264</v>
       </c>
       <c r="G63" s="8" t="s">
         <v>47</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I63" s="7"/>
       <c r="J63" s="49" t="s">
-        <v>261</v>
-      </c>
-      <c r="K63" s="71"/>
+        <v>260</v>
+      </c>
+      <c r="K63" s="76"/>
       <c r="L63" s="24"/>
       <c r="M63" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N63" s="7"/>
       <c r="O63" s="7"/>
@@ -10497,34 +10481,34 @@
         <v>73</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G64" s="8" t="s">
         <v>47</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I64" s="7"/>
       <c r="J64" s="49" t="s">
-        <v>261</v>
-      </c>
-      <c r="K64" s="68"/>
+        <v>260</v>
+      </c>
+      <c r="K64" s="74"/>
       <c r="L64" s="24"/>
       <c r="M64" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N64" s="7"/>
       <c r="O64" s="7"/>
@@ -10535,36 +10519,36 @@
         <v>73</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G65" s="8" t="s">
         <v>47</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I65" s="7"/>
       <c r="J65" s="49" t="s">
-        <v>261</v>
-      </c>
-      <c r="K65" s="68"/>
+        <v>260</v>
+      </c>
+      <c r="K65" s="74"/>
       <c r="L65" s="24" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M65" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N65" s="7"/>
       <c r="O65" s="7"/>
@@ -10575,32 +10559,32 @@
         <v>73</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E66" s="8"/>
       <c r="F66" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G66" s="8" t="s">
         <v>47</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I66" s="7"/>
       <c r="J66" s="49" t="s">
-        <v>261</v>
-      </c>
-      <c r="K66" s="68"/>
+        <v>260</v>
+      </c>
+      <c r="K66" s="74"/>
       <c r="L66" s="13"/>
       <c r="M66" s="36" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N66" s="7"/>
       <c r="O66" s="7"/>
@@ -10611,34 +10595,34 @@
         <v>73</v>
       </c>
       <c r="B67" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="C67" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="D67" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="E67" s="28" t="s">
         <v>392</v>
       </c>
-      <c r="C67" s="28" t="s">
-        <v>256</v>
-      </c>
-      <c r="D67" s="28" t="s">
-        <v>309</v>
-      </c>
-      <c r="E67" s="28" t="s">
-        <v>393</v>
-      </c>
       <c r="F67" s="28" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G67" s="28" t="s">
         <v>36</v>
       </c>
       <c r="H67" s="28" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I67" s="28"/>
       <c r="J67" s="28" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K67" s="50"/>
       <c r="L67" s="39"/>
       <c r="M67" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N67" s="7"/>
       <c r="O67" s="7"/>
@@ -10649,34 +10633,34 @@
         <v>73</v>
       </c>
       <c r="B68" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="C68" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="D68" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="E68" s="28" t="s">
         <v>394</v>
       </c>
-      <c r="C68" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="D68" s="28" t="s">
-        <v>262</v>
-      </c>
-      <c r="E68" s="28" t="s">
+      <c r="F68" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="G68" s="28" t="s">
         <v>395</v>
       </c>
-      <c r="F68" s="28" t="s">
-        <v>301</v>
-      </c>
-      <c r="G68" s="28" t="s">
-        <v>396</v>
-      </c>
       <c r="H68" s="28" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I68" s="28"/>
       <c r="J68" s="38" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K68" s="42"/>
       <c r="L68" s="46"/>
       <c r="M68" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N68" s="7"/>
       <c r="O68" s="7"/>
@@ -10687,38 +10671,38 @@
         <v>73</v>
       </c>
       <c r="B69" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="G69" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="C69" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="G69" s="8" t="s">
-        <v>398</v>
-      </c>
       <c r="H69" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I69" s="7"/>
       <c r="J69" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="K69" s="71" t="s">
+        <v>260</v>
+      </c>
+      <c r="K69" s="76" t="s">
+        <v>293</v>
+      </c>
+      <c r="L69" s="24" t="s">
         <v>294</v>
       </c>
-      <c r="L69" s="24" t="s">
-        <v>295</v>
-      </c>
       <c r="M69" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N69" s="7"/>
       <c r="O69" s="7"/>
@@ -10729,34 +10713,34 @@
         <v>73</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H70" s="8" t="s">
         <v>1